--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -716,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,3844 +756,7318 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B13">
+        <v>11</v>
       </c>
       <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
+      <c r="B15">
+        <v>13</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
+      <c r="B16">
+        <v>14</v>
       </c>
       <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
+      <c r="B17">
+        <v>15</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
+      <c r="B18">
+        <v>16</v>
       </c>
       <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
+      <c r="B19">
+        <v>17</v>
       </c>
       <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
+      <c r="B20">
+        <v>18</v>
       </c>
       <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
+      <c r="B21">
+        <v>19</v>
       </c>
       <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>25</v>
+      <c r="B22">
+        <v>20</v>
       </c>
       <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23">
+        <v>21</v>
       </c>
       <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
+      <c r="B24">
+        <v>22</v>
       </c>
       <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
+      <c r="B25">
+        <v>23</v>
       </c>
       <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
+      <c r="B26">
+        <v>24</v>
       </c>
       <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
+      <c r="B27">
+        <v>25</v>
       </c>
       <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
+      <c r="B28">
+        <v>26</v>
       </c>
       <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>32</v>
+      <c r="B29">
+        <v>27</v>
       </c>
       <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>33</v>
+      <c r="B30">
+        <v>28</v>
       </c>
       <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30">
         <v>155</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
+      <c r="B31">
+        <v>29</v>
       </c>
       <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31">
         <v>155</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
+      <c r="B32">
+        <v>30</v>
       </c>
       <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32">
         <v>201</v>
       </c>
-      <c r="D32">
+      <c r="J32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>34</v>
+      <c r="B33">
+        <v>31</v>
       </c>
       <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33">
         <v>201</v>
       </c>
-      <c r="D33">
+      <c r="J33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>35</v>
+      <c r="B34">
+        <v>32</v>
       </c>
       <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34">
         <v>226</v>
       </c>
-      <c r="D34">
+      <c r="J34">
         <v>1</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
+      <c r="B35">
+        <v>33</v>
       </c>
       <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35">
         <v>226</v>
       </c>
-      <c r="D35">
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
+      <c r="B36">
+        <v>34</v>
       </c>
       <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36">
         <v>238</v>
       </c>
-      <c r="D36">
+      <c r="J36">
         <v>2</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
+      <c r="B37">
+        <v>35</v>
       </c>
       <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
         <v>238</v>
       </c>
-      <c r="D37">
+      <c r="J37">
         <v>2</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
+      <c r="B38">
+        <v>36</v>
       </c>
       <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38">
         <v>293</v>
       </c>
-      <c r="D38">
+      <c r="J38">
         <v>3</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
         <v>37</v>
       </c>
       <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39">
         <v>293</v>
       </c>
-      <c r="D39">
+      <c r="J39">
         <v>3</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
         <v>38</v>
       </c>
       <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40">
         <v>341</v>
       </c>
-      <c r="D40">
+      <c r="J40">
         <v>3</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
+      <c r="B41">
+        <v>39</v>
       </c>
       <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41">
         <v>341</v>
       </c>
-      <c r="D41">
+      <c r="J41">
         <v>3</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>39</v>
+      <c r="B42">
+        <v>40</v>
       </c>
       <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42">
         <v>413</v>
       </c>
-      <c r="D42">
+      <c r="J42">
         <v>6</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>39</v>
+      <c r="B43">
+        <v>41</v>
       </c>
       <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43">
         <v>413</v>
       </c>
-      <c r="D43">
+      <c r="J43">
         <v>6</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>40</v>
+      <c r="B44">
+        <v>42</v>
       </c>
       <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44">
         <v>484</v>
       </c>
-      <c r="D44">
+      <c r="J44">
         <v>7</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>40</v>
+      <c r="B45">
+        <v>43</v>
       </c>
       <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45">
         <v>484</v>
       </c>
-      <c r="D45">
+      <c r="J45">
         <v>7</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>41</v>
+      <c r="B46">
+        <v>44</v>
       </c>
       <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46">
         <v>515</v>
       </c>
-      <c r="D46">
+      <c r="J46">
         <v>7</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>41</v>
+      <c r="B47">
+        <v>45</v>
       </c>
       <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47">
         <v>515</v>
       </c>
-      <c r="D47">
+      <c r="J47">
         <v>7</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>42</v>
+      <c r="B48">
+        <v>46</v>
       </c>
       <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48">
         <v>603</v>
       </c>
-      <c r="D48">
+      <c r="J48">
         <v>7</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>42</v>
+      <c r="B49">
+        <v>47</v>
       </c>
       <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>47</v>
+      </c>
+      <c r="G49">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49">
         <v>603</v>
       </c>
-      <c r="D49">
+      <c r="J49">
         <v>7</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>43</v>
+      <c r="B50">
+        <v>48</v>
       </c>
       <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>48</v>
+      </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50">
         <v>733</v>
       </c>
-      <c r="D50">
+      <c r="J50">
         <v>9</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>43</v>
+      <c r="B51">
+        <v>49</v>
       </c>
       <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51">
         <v>733</v>
       </c>
-      <c r="D51">
+      <c r="J51">
         <v>9</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>44</v>
+      <c r="B52">
+        <v>50</v>
       </c>
       <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52">
         <v>849</v>
       </c>
-      <c r="D52">
+      <c r="J52">
         <v>15</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>44</v>
+      <c r="B53">
+        <v>51</v>
       </c>
       <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53">
+        <v>51</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53">
         <v>849</v>
       </c>
-      <c r="D53">
+      <c r="J53">
         <v>15</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>45</v>
+      <c r="B54">
+        <v>52</v>
       </c>
       <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54">
         <v>966</v>
       </c>
-      <c r="D54">
+      <c r="J54">
         <v>16</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>45</v>
+      <c r="B55">
+        <v>53</v>
       </c>
       <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>53</v>
+      </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55">
         <v>966</v>
       </c>
-      <c r="D55">
+      <c r="J55">
         <v>16</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>46</v>
+      <c r="B56">
+        <v>54</v>
       </c>
       <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56">
         <v>1112</v>
       </c>
-      <c r="D56">
+      <c r="J56">
         <v>17</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>46</v>
+      <c r="B57">
+        <v>55</v>
       </c>
       <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57">
         <v>1112</v>
       </c>
-      <c r="D57">
+      <c r="J57">
         <v>17</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>47</v>
+      <c r="B58">
+        <v>56</v>
       </c>
       <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>56</v>
+      </c>
+      <c r="H58" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58">
         <v>1209</v>
       </c>
-      <c r="D58">
+      <c r="J58">
         <v>18</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>47</v>
+      <c r="B59">
+        <v>57</v>
       </c>
       <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <v>57</v>
+      </c>
+      <c r="H59" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59">
         <v>1209</v>
       </c>
-      <c r="D59">
+      <c r="J59">
         <v>18</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>48</v>
+      <c r="B60">
+        <v>58</v>
       </c>
       <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60">
         <v>1326</v>
       </c>
-      <c r="D60">
+      <c r="J60">
         <v>19</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>48</v>
+      <c r="B61">
+        <v>59</v>
       </c>
       <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>59</v>
+      </c>
+      <c r="H61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61">
         <v>1326</v>
       </c>
-      <c r="D61">
+      <c r="J61">
         <v>19</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>49</v>
+      <c r="B62">
+        <v>60</v>
       </c>
       <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="G62">
+        <v>60</v>
+      </c>
+      <c r="H62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62">
         <v>1404</v>
       </c>
-      <c r="D62">
+      <c r="J62">
         <v>19</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>49</v>
+      <c r="B63">
+        <v>61</v>
       </c>
       <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <v>61</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63">
         <v>1404</v>
       </c>
-      <c r="D63">
+      <c r="J63">
         <v>19</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>50</v>
+      <c r="B64">
+        <v>62</v>
       </c>
       <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>62</v>
+      </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64">
         <v>1454</v>
       </c>
-      <c r="D64">
+      <c r="J64">
         <v>31</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>50</v>
+      <c r="B65">
+        <v>63</v>
       </c>
       <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>63</v>
+      </c>
+      <c r="G65">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65">
         <v>1454</v>
       </c>
-      <c r="D65">
+      <c r="J65">
         <v>31</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>51</v>
+      <c r="B66">
+        <v>64</v>
       </c>
       <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
+      </c>
+      <c r="F66">
+        <v>64</v>
+      </c>
+      <c r="G66">
+        <v>64</v>
+      </c>
+      <c r="H66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66">
         <v>1530</v>
       </c>
-      <c r="D66">
+      <c r="J66">
         <v>36</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>51</v>
+      <c r="B67">
+        <v>65</v>
       </c>
       <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>65</v>
+      </c>
+      <c r="G67">
+        <v>65</v>
+      </c>
+      <c r="H67" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67">
         <v>1530</v>
       </c>
-      <c r="D67">
+      <c r="J67">
         <v>36</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>52</v>
+      <c r="B68">
+        <v>66</v>
       </c>
       <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <v>66</v>
+      </c>
+      <c r="G68">
+        <v>66</v>
+      </c>
+      <c r="H68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68">
         <v>1628</v>
       </c>
-      <c r="D68">
+      <c r="J68">
         <v>40</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>52</v>
+      <c r="B69">
+        <v>67</v>
       </c>
       <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
+      </c>
+      <c r="F69">
+        <v>67</v>
+      </c>
+      <c r="G69">
+        <v>67</v>
+      </c>
+      <c r="H69" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69">
         <v>1628</v>
       </c>
-      <c r="D69">
+      <c r="J69">
         <v>40</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>53</v>
+      <c r="B70">
+        <v>68</v>
       </c>
       <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
+      </c>
+      <c r="F70">
+        <v>68</v>
+      </c>
+      <c r="G70">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70">
         <v>1693</v>
       </c>
-      <c r="D70">
+      <c r="J70">
         <v>44</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>53</v>
+      <c r="B71">
+        <v>69</v>
       </c>
       <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <v>69</v>
+      </c>
+      <c r="G71">
+        <v>69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71">
         <v>1693</v>
       </c>
-      <c r="D71">
+      <c r="J71">
         <v>44</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>54</v>
+      <c r="B72">
+        <v>70</v>
       </c>
       <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+      <c r="F72">
+        <v>70</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72">
         <v>1761</v>
       </c>
-      <c r="D72">
+      <c r="J72">
         <v>45</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>1716</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>54</v>
+      <c r="B73">
+        <v>71</v>
       </c>
       <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <v>71</v>
+      </c>
+      <c r="G73">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73">
         <v>1761</v>
       </c>
-      <c r="D73">
+      <c r="J73">
         <v>45</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
         <v>1716</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>55</v>
+      <c r="B74">
+        <v>72</v>
       </c>
       <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74">
+        <v>72</v>
+      </c>
+      <c r="G74">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74">
         <v>1804</v>
       </c>
-      <c r="D74">
+      <c r="J74">
         <v>45</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>1759</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>55</v>
+      <c r="B75">
+        <v>73</v>
       </c>
       <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+      <c r="F75">
+        <v>73</v>
+      </c>
+      <c r="G75">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75">
         <v>1804</v>
       </c>
-      <c r="D75">
+      <c r="J75">
         <v>45</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
         <v>1759</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>56</v>
+      <c r="B76">
+        <v>74</v>
       </c>
       <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="F76">
+        <v>74</v>
+      </c>
+      <c r="G76">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76">
         <v>1847</v>
       </c>
-      <c r="D76">
+      <c r="J76">
         <v>47</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>56</v>
+      <c r="B77">
+        <v>75</v>
       </c>
       <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>75</v>
+      </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77">
         <v>1847</v>
       </c>
-      <c r="D77">
+      <c r="J77">
         <v>47</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
         <v>1800</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>57</v>
+      <c r="B78">
+        <v>76</v>
       </c>
       <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
+      </c>
+      <c r="F78">
+        <v>76</v>
+      </c>
+      <c r="G78">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>63</v>
+      </c>
+      <c r="I78">
         <v>1930</v>
       </c>
-      <c r="D78">
+      <c r="J78">
         <v>53</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
         <v>1877</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>57</v>
+      <c r="B79">
+        <v>77</v>
       </c>
       <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>77</v>
+      </c>
+      <c r="F79">
+        <v>77</v>
+      </c>
+      <c r="G79">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79">
         <v>1930</v>
       </c>
-      <c r="D79">
+      <c r="J79">
         <v>53</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
         <v>1877</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>58</v>
+      <c r="B80">
+        <v>78</v>
       </c>
       <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>78</v>
+      </c>
+      <c r="F80">
+        <v>78</v>
+      </c>
+      <c r="G80">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80">
         <v>2012</v>
       </c>
-      <c r="D80">
+      <c r="J80">
         <v>60</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
         <v>1952</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>58</v>
+      <c r="B81">
+        <v>79</v>
       </c>
       <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <v>79</v>
+      </c>
+      <c r="G81">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>64</v>
+      </c>
+      <c r="I81">
         <v>2012</v>
       </c>
-      <c r="D81">
+      <c r="J81">
         <v>60</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
         <v>1952</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>59</v>
+      <c r="B82">
+        <v>80</v>
       </c>
       <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <v>80</v>
+      </c>
+      <c r="G82">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>65</v>
+      </c>
+      <c r="I82">
         <v>2087</v>
       </c>
-      <c r="D82">
+      <c r="J82">
         <v>63</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>2024</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>59</v>
+      <c r="B83">
+        <v>81</v>
       </c>
       <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>81</v>
+      </c>
+      <c r="G83">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83">
         <v>2087</v>
       </c>
-      <c r="D83">
+      <c r="J83">
         <v>63</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
         <v>2024</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>60</v>
+      <c r="B84">
+        <v>82</v>
       </c>
       <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <v>82</v>
+      </c>
+      <c r="G84">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84">
         <v>2158</v>
       </c>
-      <c r="D84">
+      <c r="J84">
         <v>70</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
         <v>2088</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>60</v>
+      <c r="B85">
+        <v>83</v>
       </c>
       <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <v>83</v>
+      </c>
+      <c r="G85">
+        <v>83</v>
+      </c>
+      <c r="H85" t="s">
+        <v>66</v>
+      </c>
+      <c r="I85">
         <v>2158</v>
       </c>
-      <c r="D85">
+      <c r="J85">
         <v>70</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
         <v>2088</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>61</v>
+      <c r="B86">
+        <v>84</v>
       </c>
       <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
+      </c>
+      <c r="F86">
+        <v>84</v>
+      </c>
+      <c r="G86">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86">
         <v>2213</v>
       </c>
-      <c r="D86">
+      <c r="J86">
         <v>71</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
         <v>2142</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>61</v>
+      <c r="B87">
+        <v>85</v>
       </c>
       <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>85</v>
+      </c>
+      <c r="F87">
+        <v>85</v>
+      </c>
+      <c r="G87">
+        <v>85</v>
+      </c>
+      <c r="H87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87">
         <v>2213</v>
       </c>
-      <c r="D87">
+      <c r="J87">
         <v>71</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
         <v>2142</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>62</v>
+      <c r="B88">
+        <v>86</v>
       </c>
       <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>86</v>
+      </c>
+      <c r="F88">
+        <v>86</v>
+      </c>
+      <c r="G88">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I88">
         <v>2268</v>
       </c>
-      <c r="D88">
+      <c r="J88">
         <v>71</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
         <v>2197</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>62</v>
+      <c r="B89">
+        <v>87</v>
       </c>
       <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+      <c r="F89">
+        <v>87</v>
+      </c>
+      <c r="G89">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89">
         <v>2268</v>
       </c>
-      <c r="D89">
+      <c r="J89">
         <v>71</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
         <v>2197</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>63</v>
+      <c r="B90">
+        <v>88</v>
       </c>
       <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+      <c r="F90">
+        <v>88</v>
+      </c>
+      <c r="G90">
+        <v>88</v>
+      </c>
+      <c r="H90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I90">
         <v>2325</v>
       </c>
-      <c r="D90">
+      <c r="J90">
         <v>72</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
         <v>2253</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>63</v>
+      <c r="B91">
+        <v>89</v>
       </c>
       <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+      <c r="F91">
+        <v>89</v>
+      </c>
+      <c r="G91">
+        <v>89</v>
+      </c>
+      <c r="H91" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91">
         <v>2325</v>
       </c>
-      <c r="D91">
+      <c r="J91">
         <v>72</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
         <v>2253</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>64</v>
+      <c r="B92">
+        <v>90</v>
       </c>
       <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+      <c r="F92">
+        <v>90</v>
+      </c>
+      <c r="G92">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92">
         <v>2491</v>
       </c>
-      <c r="D92">
+      <c r="J92">
         <v>96</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
         <v>2395</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>64</v>
+      <c r="B93">
+        <v>91</v>
       </c>
       <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <v>91</v>
+      </c>
+      <c r="G93">
+        <v>91</v>
+      </c>
+      <c r="H93" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93">
         <v>2491</v>
       </c>
-      <c r="D93">
+      <c r="J93">
         <v>96</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
         <v>2395</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>65</v>
+      <c r="B94">
+        <v>92</v>
       </c>
       <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <v>92</v>
+      </c>
+      <c r="G94">
+        <v>92</v>
+      </c>
+      <c r="H94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94">
         <v>2643</v>
       </c>
-      <c r="D94">
+      <c r="J94">
         <v>100</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
         <v>2543</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>65</v>
+      <c r="B95">
+        <v>93</v>
       </c>
       <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+      <c r="F95">
+        <v>93</v>
+      </c>
+      <c r="G95">
+        <v>93</v>
+      </c>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95">
         <v>2643</v>
       </c>
-      <c r="D95">
+      <c r="J95">
         <v>100</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
         <v>2543</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>66</v>
+      <c r="B96">
+        <v>94</v>
       </c>
       <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>94</v>
+      </c>
+      <c r="F96">
+        <v>94</v>
+      </c>
+      <c r="G96">
+        <v>94</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
         <v>2826</v>
       </c>
-      <c r="D96">
+      <c r="J96">
         <v>102</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
         <v>2724</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>66</v>
+      <c r="B97">
+        <v>95</v>
       </c>
       <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="F97">
+        <v>95</v>
+      </c>
+      <c r="G97">
+        <v>95</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97">
         <v>2826</v>
       </c>
-      <c r="D97">
+      <c r="J97">
         <v>102</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
         <v>2724</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>67</v>
+      <c r="B98">
+        <v>96</v>
       </c>
       <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>96</v>
+      </c>
+      <c r="F98">
+        <v>96</v>
+      </c>
+      <c r="G98">
+        <v>96</v>
+      </c>
+      <c r="H98" t="s">
+        <v>73</v>
+      </c>
+      <c r="I98">
         <v>2943</v>
       </c>
-      <c r="D98">
+      <c r="J98">
         <v>111</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
         <v>2832</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>67</v>
+      <c r="B99">
+        <v>97</v>
       </c>
       <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>97</v>
+      </c>
+      <c r="F99">
+        <v>97</v>
+      </c>
+      <c r="G99">
+        <v>97</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
         <v>2943</v>
       </c>
-      <c r="D99">
+      <c r="J99">
         <v>111</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
         <v>2832</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>68</v>
+      <c r="B100">
+        <v>98</v>
       </c>
       <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <v>98</v>
+      </c>
+      <c r="F100">
+        <v>98</v>
+      </c>
+      <c r="G100">
+        <v>98</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
         <v>2943</v>
       </c>
-      <c r="D100">
+      <c r="J100">
         <v>111</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
         <v>2832</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>68</v>
+      <c r="B101">
+        <v>99</v>
       </c>
       <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>99</v>
+      </c>
+      <c r="F101">
+        <v>99</v>
+      </c>
+      <c r="G101">
+        <v>99</v>
+      </c>
+      <c r="H101" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101">
         <v>2943</v>
       </c>
-      <c r="D101">
+      <c r="J101">
         <v>111</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
         <v>2832</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>69</v>
+      <c r="B102">
+        <v>100</v>
       </c>
       <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102">
         <v>3043</v>
       </c>
-      <c r="D102">
+      <c r="J102">
         <v>111</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
         <v>2932</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>69</v>
+      <c r="B103">
+        <v>101</v>
       </c>
       <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <v>101</v>
+      </c>
+      <c r="F103">
+        <v>101</v>
+      </c>
+      <c r="G103">
+        <v>101</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
         <v>3043</v>
       </c>
-      <c r="D103">
+      <c r="J103">
         <v>111</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>2932</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>70</v>
+      <c r="B104">
+        <v>102</v>
       </c>
       <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>102</v>
+      </c>
+      <c r="F104">
+        <v>102</v>
+      </c>
+      <c r="G104">
+        <v>102</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104">
         <v>3141</v>
       </c>
-      <c r="D104">
+      <c r="J104">
         <v>113</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>3028</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>70</v>
+      <c r="B105">
+        <v>103</v>
       </c>
       <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <v>103</v>
+      </c>
+      <c r="F105">
+        <v>103</v>
+      </c>
+      <c r="G105">
+        <v>103</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
         <v>3141</v>
       </c>
-      <c r="D105">
+      <c r="J105">
         <v>113</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>3028</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>71</v>
+      <c r="B106">
+        <v>104</v>
       </c>
       <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <v>104</v>
+      </c>
+      <c r="F106">
+        <v>104</v>
+      </c>
+      <c r="G106">
+        <v>104</v>
+      </c>
+      <c r="H106" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106">
         <v>3432</v>
       </c>
-      <c r="D106">
+      <c r="J106">
         <v>120</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
         <v>3312</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>71</v>
+      <c r="B107">
+        <v>105</v>
       </c>
       <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <v>105</v>
+      </c>
+      <c r="F107">
+        <v>105</v>
+      </c>
+      <c r="G107">
+        <v>105</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
         <v>3432</v>
       </c>
-      <c r="D107">
+      <c r="J107">
         <v>120</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
         <v>3312</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>72</v>
+      <c r="B108">
+        <v>106</v>
       </c>
       <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>106</v>
+      </c>
+      <c r="F108">
+        <v>106</v>
+      </c>
+      <c r="G108">
+        <v>106</v>
+      </c>
+      <c r="H108" t="s">
+        <v>78</v>
+      </c>
+      <c r="I108">
         <v>3432</v>
       </c>
-      <c r="D108">
+      <c r="J108">
         <v>120</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
         <v>3312</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>72</v>
+      <c r="B109">
+        <v>107</v>
       </c>
       <c r="C109">
+        <v>107</v>
+      </c>
+      <c r="D109">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <v>107</v>
+      </c>
+      <c r="F109">
+        <v>107</v>
+      </c>
+      <c r="G109">
+        <v>107</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
         <v>3432</v>
       </c>
-      <c r="D109">
+      <c r="J109">
         <v>120</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
         <v>3312</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>73</v>
+      <c r="B110">
+        <v>108</v>
       </c>
       <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <v>108</v>
+      </c>
+      <c r="F110">
+        <v>108</v>
+      </c>
+      <c r="G110">
+        <v>108</v>
+      </c>
+      <c r="H110" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110">
         <v>3564</v>
       </c>
-      <c r="D110">
+      <c r="J110">
         <v>124</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
         <v>3440</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>73</v>
+      <c r="B111">
+        <v>109</v>
       </c>
       <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
+        <v>109</v>
+      </c>
+      <c r="E111">
+        <v>109</v>
+      </c>
+      <c r="F111">
+        <v>109</v>
+      </c>
+      <c r="G111">
+        <v>109</v>
+      </c>
+      <c r="H111" t="s">
+        <v>79</v>
+      </c>
+      <c r="I111">
         <v>3564</v>
       </c>
-      <c r="D111">
+      <c r="J111">
         <v>124</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
         <v>3440</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>74</v>
+      <c r="B112">
+        <v>110</v>
       </c>
       <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+      <c r="F112">
+        <v>110</v>
+      </c>
+      <c r="G112">
+        <v>110</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112">
         <v>3711</v>
       </c>
-      <c r="D112">
+      <c r="J112">
         <v>134</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
         <v>3577</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>74</v>
+      <c r="B113">
+        <v>111</v>
       </c>
       <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113">
+        <v>111</v>
+      </c>
+      <c r="E113">
+        <v>111</v>
+      </c>
+      <c r="F113">
+        <v>111</v>
+      </c>
+      <c r="G113">
+        <v>111</v>
+      </c>
+      <c r="H113" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113">
         <v>3711</v>
       </c>
-      <c r="D113">
+      <c r="J113">
         <v>134</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
         <v>3577</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>75</v>
+      <c r="B114">
+        <v>112</v>
       </c>
       <c r="C114">
+        <v>112</v>
+      </c>
+      <c r="D114">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+      <c r="F114">
+        <v>112</v>
+      </c>
+      <c r="G114">
+        <v>112</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114">
         <v>3927</v>
       </c>
-      <c r="D114">
+      <c r="J114">
         <v>139</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
         <v>3788</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>75</v>
+      <c r="B115">
+        <v>113</v>
       </c>
       <c r="C115">
+        <v>113</v>
+      </c>
+      <c r="D115">
+        <v>113</v>
+      </c>
+      <c r="E115">
+        <v>113</v>
+      </c>
+      <c r="F115">
+        <v>113</v>
+      </c>
+      <c r="G115">
+        <v>113</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115">
         <v>3927</v>
       </c>
-      <c r="D115">
+      <c r="J115">
         <v>139</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
         <v>3788</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>76</v>
+      <c r="B116">
+        <v>114</v>
       </c>
       <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>114</v>
+      </c>
+      <c r="E116">
+        <v>114</v>
+      </c>
+      <c r="F116">
+        <v>114</v>
+      </c>
+      <c r="G116">
+        <v>114</v>
+      </c>
+      <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116">
         <v>3927</v>
       </c>
-      <c r="D116">
+      <c r="J116">
         <v>139</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
         <v>3788</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>76</v>
+      <c r="B117">
+        <v>115</v>
       </c>
       <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <v>115</v>
+      </c>
+      <c r="E117">
+        <v>115</v>
+      </c>
+      <c r="F117">
+        <v>115</v>
+      </c>
+      <c r="G117">
+        <v>115</v>
+      </c>
+      <c r="H117" t="s">
+        <v>82</v>
+      </c>
+      <c r="I117">
         <v>3927</v>
       </c>
-      <c r="D117">
+      <c r="J117">
         <v>139</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
         <v>3788</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>77</v>
+      <c r="B118">
+        <v>116</v>
       </c>
       <c r="C118">
+        <v>116</v>
+      </c>
+      <c r="D118">
+        <v>116</v>
+      </c>
+      <c r="E118">
+        <v>116</v>
+      </c>
+      <c r="F118">
+        <v>116</v>
+      </c>
+      <c r="G118">
+        <v>116</v>
+      </c>
+      <c r="H118" t="s">
+        <v>83</v>
+      </c>
+      <c r="I118">
         <v>4020</v>
       </c>
-      <c r="D118">
+      <c r="J118">
         <v>144</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
         <v>3876</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>77</v>
+      <c r="B119">
+        <v>117</v>
       </c>
       <c r="C119">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <v>117</v>
+      </c>
+      <c r="E119">
+        <v>117</v>
+      </c>
+      <c r="F119">
+        <v>117</v>
+      </c>
+      <c r="G119">
+        <v>117</v>
+      </c>
+      <c r="H119" t="s">
+        <v>83</v>
+      </c>
+      <c r="I119">
         <v>4020</v>
       </c>
-      <c r="D119">
+      <c r="J119">
         <v>144</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
         <v>3876</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>78</v>
+      <c r="B120">
+        <v>118</v>
       </c>
       <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <v>118</v>
+      </c>
+      <c r="E120">
+        <v>118</v>
+      </c>
+      <c r="F120">
+        <v>118</v>
+      </c>
+      <c r="G120">
+        <v>118</v>
+      </c>
+      <c r="H120" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120">
         <v>4319</v>
       </c>
-      <c r="D120">
+      <c r="J120">
         <v>158</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
         <v>4161</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>78</v>
+      <c r="B121">
+        <v>119</v>
       </c>
       <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>119</v>
+      </c>
+      <c r="E121">
+        <v>119</v>
+      </c>
+      <c r="F121">
+        <v>119</v>
+      </c>
+      <c r="G121">
+        <v>119</v>
+      </c>
+      <c r="H121" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121">
         <v>4319</v>
       </c>
-      <c r="D121">
+      <c r="J121">
         <v>158</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
         <v>4161</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>79</v>
+      <c r="B122">
+        <v>120</v>
       </c>
       <c r="C122">
+        <v>120</v>
+      </c>
+      <c r="D122">
+        <v>120</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+      <c r="F122">
+        <v>120</v>
+      </c>
+      <c r="G122">
+        <v>120</v>
+      </c>
+      <c r="H122" t="s">
+        <v>85</v>
+      </c>
+      <c r="I122">
         <v>4319</v>
       </c>
-      <c r="D122">
+      <c r="J122">
         <v>158</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
         <v>4161</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>79</v>
+      <c r="B123">
+        <v>121</v>
       </c>
       <c r="C123">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>121</v>
+      </c>
+      <c r="E123">
+        <v>121</v>
+      </c>
+      <c r="F123">
+        <v>121</v>
+      </c>
+      <c r="G123">
+        <v>121</v>
+      </c>
+      <c r="H123" t="s">
+        <v>85</v>
+      </c>
+      <c r="I123">
         <v>4319</v>
       </c>
-      <c r="D123">
+      <c r="J123">
         <v>158</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
         <v>4161</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>80</v>
+      <c r="B124">
+        <v>122</v>
       </c>
       <c r="C124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <v>122</v>
+      </c>
+      <c r="E124">
+        <v>122</v>
+      </c>
+      <c r="F124">
+        <v>122</v>
+      </c>
+      <c r="G124">
+        <v>122</v>
+      </c>
+      <c r="H124" t="s">
+        <v>86</v>
+      </c>
+      <c r="I124">
         <v>4429</v>
       </c>
-      <c r="D124">
+      <c r="J124">
         <v>165</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
         <v>4264</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>80</v>
+      <c r="B125">
+        <v>123</v>
       </c>
       <c r="C125">
+        <v>123</v>
+      </c>
+      <c r="D125">
+        <v>123</v>
+      </c>
+      <c r="E125">
+        <v>123</v>
+      </c>
+      <c r="F125">
+        <v>123</v>
+      </c>
+      <c r="G125">
+        <v>123</v>
+      </c>
+      <c r="H125" t="s">
+        <v>86</v>
+      </c>
+      <c r="I125">
         <v>4429</v>
       </c>
-      <c r="D125">
+      <c r="J125">
         <v>165</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
         <v>4264</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>81</v>
+      <c r="B126">
+        <v>124</v>
       </c>
       <c r="C126">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>124</v>
+      </c>
+      <c r="E126">
+        <v>124</v>
+      </c>
+      <c r="F126">
+        <v>124</v>
+      </c>
+      <c r="G126">
+        <v>124</v>
+      </c>
+      <c r="H126" t="s">
+        <v>87</v>
+      </c>
+      <c r="I126">
         <v>4662</v>
       </c>
-      <c r="D126">
+      <c r="J126">
         <v>169</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
         <v>4493</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>81</v>
+      <c r="B127">
+        <v>125</v>
       </c>
       <c r="C127">
+        <v>125</v>
+      </c>
+      <c r="D127">
+        <v>125</v>
+      </c>
+      <c r="E127">
+        <v>125</v>
+      </c>
+      <c r="F127">
+        <v>125</v>
+      </c>
+      <c r="G127">
+        <v>125</v>
+      </c>
+      <c r="H127" t="s">
+        <v>87</v>
+      </c>
+      <c r="I127">
         <v>4662</v>
       </c>
-      <c r="D127">
+      <c r="J127">
         <v>169</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
         <v>4493</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>82</v>
+      <c r="B128">
+        <v>126</v>
       </c>
       <c r="C128">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <v>126</v>
+      </c>
+      <c r="E128">
+        <v>126</v>
+      </c>
+      <c r="F128">
+        <v>126</v>
+      </c>
+      <c r="G128">
+        <v>126</v>
+      </c>
+      <c r="H128" t="s">
+        <v>88</v>
+      </c>
+      <c r="I128">
         <v>4776</v>
       </c>
-      <c r="D128">
+      <c r="J128">
         <v>175</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
         <v>4601</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>82</v>
+      <c r="B129">
+        <v>127</v>
       </c>
       <c r="C129">
+        <v>127</v>
+      </c>
+      <c r="D129">
+        <v>127</v>
+      </c>
+      <c r="E129">
+        <v>127</v>
+      </c>
+      <c r="F129">
+        <v>127</v>
+      </c>
+      <c r="G129">
+        <v>127</v>
+      </c>
+      <c r="H129" t="s">
+        <v>88</v>
+      </c>
+      <c r="I129">
         <v>4776</v>
       </c>
-      <c r="D129">
+      <c r="J129">
         <v>175</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
         <v>4601</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>83</v>
+      <c r="B130">
+        <v>128</v>
       </c>
       <c r="C130">
+        <v>128</v>
+      </c>
+      <c r="D130">
+        <v>128</v>
+      </c>
+      <c r="E130">
+        <v>128</v>
+      </c>
+      <c r="F130">
+        <v>128</v>
+      </c>
+      <c r="G130">
+        <v>128</v>
+      </c>
+      <c r="H130" t="s">
+        <v>89</v>
+      </c>
+      <c r="I130">
         <v>5065</v>
       </c>
-      <c r="D130">
+      <c r="J130">
         <v>175</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
         <v>4890</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>83</v>
+      <c r="B131">
+        <v>129</v>
       </c>
       <c r="C131">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <v>129</v>
+      </c>
+      <c r="E131">
+        <v>129</v>
+      </c>
+      <c r="F131">
+        <v>129</v>
+      </c>
+      <c r="G131">
+        <v>129</v>
+      </c>
+      <c r="H131" t="s">
+        <v>89</v>
+      </c>
+      <c r="I131">
         <v>5065</v>
       </c>
-      <c r="D131">
+      <c r="J131">
         <v>175</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
         <v>4890</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
-        <v>84</v>
+      <c r="B132">
+        <v>130</v>
       </c>
       <c r="C132">
+        <v>130</v>
+      </c>
+      <c r="D132">
+        <v>130</v>
+      </c>
+      <c r="E132">
+        <v>130</v>
+      </c>
+      <c r="F132">
+        <v>130</v>
+      </c>
+      <c r="G132">
+        <v>130</v>
+      </c>
+      <c r="H132" t="s">
+        <v>90</v>
+      </c>
+      <c r="I132">
         <v>5161</v>
       </c>
-      <c r="D132">
+      <c r="J132">
         <v>190</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
         <v>4971</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>84</v>
+      <c r="B133">
+        <v>131</v>
       </c>
       <c r="C133">
+        <v>131</v>
+      </c>
+      <c r="D133">
+        <v>131</v>
+      </c>
+      <c r="E133">
+        <v>131</v>
+      </c>
+      <c r="F133">
+        <v>131</v>
+      </c>
+      <c r="G133">
+        <v>131</v>
+      </c>
+      <c r="H133" t="s">
+        <v>90</v>
+      </c>
+      <c r="I133">
         <v>5161</v>
       </c>
-      <c r="D133">
+      <c r="J133">
         <v>190</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
         <v>4971</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>85</v>
+      <c r="B134">
+        <v>132</v>
       </c>
       <c r="C134">
+        <v>132</v>
+      </c>
+      <c r="D134">
+        <v>132</v>
+      </c>
+      <c r="E134">
+        <v>132</v>
+      </c>
+      <c r="F134">
+        <v>132</v>
+      </c>
+      <c r="G134">
+        <v>132</v>
+      </c>
+      <c r="H134" t="s">
+        <v>91</v>
+      </c>
+      <c r="I134">
         <v>5161</v>
       </c>
-      <c r="D134">
+      <c r="J134">
         <v>190</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
         <v>4971</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>85</v>
+      <c r="B135">
+        <v>133</v>
       </c>
       <c r="C135">
+        <v>133</v>
+      </c>
+      <c r="D135">
+        <v>133</v>
+      </c>
+      <c r="E135">
+        <v>133</v>
+      </c>
+      <c r="F135">
+        <v>133</v>
+      </c>
+      <c r="G135">
+        <v>133</v>
+      </c>
+      <c r="H135" t="s">
+        <v>91</v>
+      </c>
+      <c r="I135">
         <v>5161</v>
       </c>
-      <c r="D135">
+      <c r="J135">
         <v>190</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
         <v>4971</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>86</v>
+      <c r="B136">
+        <v>134</v>
       </c>
       <c r="C136">
+        <v>134</v>
+      </c>
+      <c r="D136">
+        <v>134</v>
+      </c>
+      <c r="E136">
+        <v>134</v>
+      </c>
+      <c r="F136">
+        <v>134</v>
+      </c>
+      <c r="G136">
+        <v>134</v>
+      </c>
+      <c r="H136" t="s">
+        <v>92</v>
+      </c>
+      <c r="I136">
         <v>5391</v>
       </c>
-      <c r="D136">
+      <c r="J136">
         <v>200</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
         <v>5191</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>86</v>
+      <c r="B137">
+        <v>135</v>
       </c>
       <c r="C137">
+        <v>135</v>
+      </c>
+      <c r="D137">
+        <v>135</v>
+      </c>
+      <c r="E137">
+        <v>135</v>
+      </c>
+      <c r="F137">
+        <v>135</v>
+      </c>
+      <c r="G137">
+        <v>135</v>
+      </c>
+      <c r="H137" t="s">
+        <v>92</v>
+      </c>
+      <c r="I137">
         <v>5391</v>
       </c>
-      <c r="D137">
+      <c r="J137">
         <v>200</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
         <v>5191</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>87</v>
+      <c r="B138">
+        <v>136</v>
       </c>
       <c r="C138">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>136</v>
+      </c>
+      <c r="E138">
+        <v>136</v>
+      </c>
+      <c r="F138">
+        <v>136</v>
+      </c>
+      <c r="G138">
+        <v>136</v>
+      </c>
+      <c r="H138" t="s">
+        <v>93</v>
+      </c>
+      <c r="I138">
         <v>5391</v>
       </c>
-      <c r="D138">
+      <c r="J138">
         <v>200</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
         <v>5191</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>87</v>
+      <c r="B139">
+        <v>137</v>
       </c>
       <c r="C139">
+        <v>137</v>
+      </c>
+      <c r="D139">
+        <v>137</v>
+      </c>
+      <c r="E139">
+        <v>137</v>
+      </c>
+      <c r="F139">
+        <v>137</v>
+      </c>
+      <c r="G139">
+        <v>137</v>
+      </c>
+      <c r="H139" t="s">
+        <v>93</v>
+      </c>
+      <c r="I139">
         <v>5391</v>
       </c>
-      <c r="D139">
+      <c r="J139">
         <v>200</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
         <v>5191</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>88</v>
+      <c r="B140">
+        <v>138</v>
       </c>
       <c r="C140">
+        <v>138</v>
+      </c>
+      <c r="D140">
+        <v>138</v>
+      </c>
+      <c r="E140">
+        <v>138</v>
+      </c>
+      <c r="F140">
+        <v>138</v>
+      </c>
+      <c r="G140">
+        <v>138</v>
+      </c>
+      <c r="H140" t="s">
+        <v>94</v>
+      </c>
+      <c r="I140">
         <v>5662</v>
       </c>
-      <c r="D140">
+      <c r="J140">
         <v>209</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
         <v>5453</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>88</v>
+      <c r="B141">
+        <v>139</v>
       </c>
       <c r="C141">
+        <v>139</v>
+      </c>
+      <c r="D141">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <v>139</v>
+      </c>
+      <c r="F141">
+        <v>139</v>
+      </c>
+      <c r="G141">
+        <v>139</v>
+      </c>
+      <c r="H141" t="s">
+        <v>94</v>
+      </c>
+      <c r="I141">
         <v>5662</v>
       </c>
-      <c r="D141">
+      <c r="J141">
         <v>209</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
         <v>5453</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>89</v>
+      <c r="B142">
+        <v>140</v>
       </c>
       <c r="C142">
+        <v>140</v>
+      </c>
+      <c r="D142">
+        <v>140</v>
+      </c>
+      <c r="E142">
+        <v>140</v>
+      </c>
+      <c r="F142">
+        <v>140</v>
+      </c>
+      <c r="G142">
+        <v>140</v>
+      </c>
+      <c r="H142" t="s">
+        <v>95</v>
+      </c>
+      <c r="I142">
         <v>5836</v>
       </c>
-      <c r="D142">
+      <c r="J142">
         <v>209</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
         <v>5627</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>89</v>
+      <c r="B143">
+        <v>141</v>
       </c>
       <c r="C143">
+        <v>141</v>
+      </c>
+      <c r="D143">
+        <v>141</v>
+      </c>
+      <c r="E143">
+        <v>141</v>
+      </c>
+      <c r="F143">
+        <v>141</v>
+      </c>
+      <c r="G143">
+        <v>141</v>
+      </c>
+      <c r="H143" t="s">
+        <v>95</v>
+      </c>
+      <c r="I143">
         <v>5836</v>
       </c>
-      <c r="D143">
+      <c r="J143">
         <v>209</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
         <v>5627</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>90</v>
+      <c r="B144">
+        <v>142</v>
       </c>
       <c r="C144">
+        <v>142</v>
+      </c>
+      <c r="D144">
+        <v>142</v>
+      </c>
+      <c r="E144">
+        <v>142</v>
+      </c>
+      <c r="F144">
+        <v>142</v>
+      </c>
+      <c r="G144">
+        <v>142</v>
+      </c>
+      <c r="H144" t="s">
+        <v>96</v>
+      </c>
+      <c r="I144">
         <v>5836</v>
       </c>
-      <c r="D144">
+      <c r="J144">
         <v>209</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
         <v>5627</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>90</v>
+      <c r="B145">
+        <v>143</v>
       </c>
       <c r="C145">
+        <v>143</v>
+      </c>
+      <c r="D145">
+        <v>143</v>
+      </c>
+      <c r="E145">
+        <v>143</v>
+      </c>
+      <c r="F145">
+        <v>143</v>
+      </c>
+      <c r="G145">
+        <v>143</v>
+      </c>
+      <c r="H145" t="s">
+        <v>96</v>
+      </c>
+      <c r="I145">
         <v>5836</v>
       </c>
-      <c r="D145">
+      <c r="J145">
         <v>209</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
         <v>5627</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>91</v>
+      <c r="B146">
+        <v>144</v>
       </c>
       <c r="C146">
+        <v>144</v>
+      </c>
+      <c r="D146">
+        <v>144</v>
+      </c>
+      <c r="E146">
+        <v>144</v>
+      </c>
+      <c r="F146">
+        <v>144</v>
+      </c>
+      <c r="G146">
+        <v>144</v>
+      </c>
+      <c r="H146" t="s">
+        <v>97</v>
+      </c>
+      <c r="I146">
         <v>6026</v>
       </c>
-      <c r="D146">
+      <c r="J146">
         <v>222</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
         <v>5804</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>91</v>
+      <c r="B147">
+        <v>145</v>
       </c>
       <c r="C147">
+        <v>145</v>
+      </c>
+      <c r="D147">
+        <v>145</v>
+      </c>
+      <c r="E147">
+        <v>145</v>
+      </c>
+      <c r="F147">
+        <v>145</v>
+      </c>
+      <c r="G147">
+        <v>145</v>
+      </c>
+      <c r="H147" t="s">
+        <v>97</v>
+      </c>
+      <c r="I147">
         <v>6026</v>
       </c>
-      <c r="D147">
+      <c r="J147">
         <v>222</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
         <v>5804</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>92</v>
+      <c r="B148">
+        <v>146</v>
       </c>
       <c r="C148">
+        <v>146</v>
+      </c>
+      <c r="D148">
+        <v>146</v>
+      </c>
+      <c r="E148">
+        <v>146</v>
+      </c>
+      <c r="F148">
+        <v>146</v>
+      </c>
+      <c r="G148">
+        <v>146</v>
+      </c>
+      <c r="H148" t="s">
+        <v>98</v>
+      </c>
+      <c r="I148">
         <v>6140</v>
       </c>
-      <c r="D148">
+      <c r="J148">
         <v>230</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
         <v>5910</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>92</v>
+      <c r="B149">
+        <v>147</v>
       </c>
       <c r="C149">
+        <v>147</v>
+      </c>
+      <c r="D149">
+        <v>147</v>
+      </c>
+      <c r="E149">
+        <v>147</v>
+      </c>
+      <c r="F149">
+        <v>147</v>
+      </c>
+      <c r="G149">
+        <v>147</v>
+      </c>
+      <c r="H149" t="s">
+        <v>98</v>
+      </c>
+      <c r="I149">
         <v>6140</v>
       </c>
-      <c r="D149">
+      <c r="J149">
         <v>230</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
         <v>5910</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>93</v>
+      <c r="B150">
+        <v>148</v>
       </c>
       <c r="C150">
+        <v>148</v>
+      </c>
+      <c r="D150">
+        <v>148</v>
+      </c>
+      <c r="E150">
+        <v>148</v>
+      </c>
+      <c r="F150">
+        <v>148</v>
+      </c>
+      <c r="G150">
+        <v>148</v>
+      </c>
+      <c r="H150" t="s">
+        <v>99</v>
+      </c>
+      <c r="I150">
         <v>6140</v>
       </c>
-      <c r="D150">
+      <c r="J150">
         <v>230</v>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
         <v>5910</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>93</v>
+      <c r="B151">
+        <v>149</v>
       </c>
       <c r="C151">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <v>149</v>
+      </c>
+      <c r="E151">
+        <v>149</v>
+      </c>
+      <c r="F151">
+        <v>149</v>
+      </c>
+      <c r="G151">
+        <v>149</v>
+      </c>
+      <c r="H151" t="s">
+        <v>99</v>
+      </c>
+      <c r="I151">
         <v>6140</v>
       </c>
-      <c r="D151">
+      <c r="J151">
         <v>230</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
         <v>5910</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>94</v>
+      <c r="B152">
+        <v>150</v>
       </c>
       <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <v>150</v>
+      </c>
+      <c r="E152">
+        <v>150</v>
+      </c>
+      <c r="F152">
+        <v>150</v>
+      </c>
+      <c r="G152">
+        <v>150</v>
+      </c>
+      <c r="H152" t="s">
+        <v>100</v>
+      </c>
+      <c r="I152">
         <v>6315</v>
       </c>
-      <c r="D152">
+      <c r="J152">
         <v>241</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
         <v>6074</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>94</v>
+      <c r="B153">
+        <v>151</v>
       </c>
       <c r="C153">
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <v>151</v>
+      </c>
+      <c r="E153">
+        <v>151</v>
+      </c>
+      <c r="F153">
+        <v>151</v>
+      </c>
+      <c r="G153">
+        <v>151</v>
+      </c>
+      <c r="H153" t="s">
+        <v>100</v>
+      </c>
+      <c r="I153">
         <v>6315</v>
       </c>
-      <c r="D153">
+      <c r="J153">
         <v>241</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
         <v>6074</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>95</v>
+      <c r="B154">
+        <v>152</v>
       </c>
       <c r="C154">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <v>152</v>
+      </c>
+      <c r="E154">
+        <v>152</v>
+      </c>
+      <c r="F154">
+        <v>152</v>
+      </c>
+      <c r="G154">
+        <v>152</v>
+      </c>
+      <c r="H154" t="s">
+        <v>101</v>
+      </c>
+      <c r="I154">
         <v>6559</v>
       </c>
-      <c r="D154">
+      <c r="J154">
         <v>249</v>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
         <v>6310</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>95</v>
+      <c r="B155">
+        <v>153</v>
       </c>
       <c r="C155">
+        <v>153</v>
+      </c>
+      <c r="D155">
+        <v>153</v>
+      </c>
+      <c r="E155">
+        <v>153</v>
+      </c>
+      <c r="F155">
+        <v>153</v>
+      </c>
+      <c r="G155">
+        <v>153</v>
+      </c>
+      <c r="H155" t="s">
+        <v>101</v>
+      </c>
+      <c r="I155">
         <v>6559</v>
       </c>
-      <c r="D155">
+      <c r="J155">
         <v>249</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
         <v>6310</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>96</v>
+      <c r="B156">
+        <v>154</v>
       </c>
       <c r="C156">
+        <v>154</v>
+      </c>
+      <c r="D156">
+        <v>154</v>
+      </c>
+      <c r="E156">
+        <v>154</v>
+      </c>
+      <c r="F156">
+        <v>154</v>
+      </c>
+      <c r="G156">
+        <v>154</v>
+      </c>
+      <c r="H156" t="s">
+        <v>102</v>
+      </c>
+      <c r="I156">
         <v>6559</v>
       </c>
-      <c r="D156">
+      <c r="J156">
         <v>249</v>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
         <v>6310</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>96</v>
+      <c r="B157">
+        <v>155</v>
       </c>
       <c r="C157">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <v>155</v>
+      </c>
+      <c r="E157">
+        <v>155</v>
+      </c>
+      <c r="F157">
+        <v>155</v>
+      </c>
+      <c r="G157">
+        <v>155</v>
+      </c>
+      <c r="H157" t="s">
+        <v>102</v>
+      </c>
+      <c r="I157">
         <v>6559</v>
       </c>
-      <c r="D157">
+      <c r="J157">
         <v>249</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
         <v>6310</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>97</v>
+      <c r="B158">
+        <v>156</v>
       </c>
       <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <v>156</v>
+      </c>
+      <c r="E158">
+        <v>156</v>
+      </c>
+      <c r="F158">
+        <v>156</v>
+      </c>
+      <c r="G158">
+        <v>156</v>
+      </c>
+      <c r="H158" t="s">
+        <v>103</v>
+      </c>
+      <c r="I158">
         <v>6701</v>
       </c>
-      <c r="D158">
+      <c r="J158">
         <v>249</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
         <v>6452</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>97</v>
+      <c r="B159">
+        <v>157</v>
       </c>
       <c r="C159">
+        <v>157</v>
+      </c>
+      <c r="D159">
+        <v>157</v>
+      </c>
+      <c r="E159">
+        <v>157</v>
+      </c>
+      <c r="F159">
+        <v>157</v>
+      </c>
+      <c r="G159">
+        <v>157</v>
+      </c>
+      <c r="H159" t="s">
+        <v>103</v>
+      </c>
+      <c r="I159">
         <v>6701</v>
       </c>
-      <c r="D159">
+      <c r="J159">
         <v>249</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
         <v>6452</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>98</v>
+      <c r="B160">
+        <v>158</v>
       </c>
       <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <v>158</v>
+      </c>
+      <c r="E160">
+        <v>158</v>
+      </c>
+      <c r="F160">
+        <v>158</v>
+      </c>
+      <c r="G160">
+        <v>158</v>
+      </c>
+      <c r="H160" t="s">
+        <v>104</v>
+      </c>
+      <c r="I160">
         <v>6797</v>
       </c>
-      <c r="D160">
+      <c r="J160">
         <v>249</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
         <v>6548</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>98</v>
+      <c r="B161">
+        <v>159</v>
       </c>
       <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <v>159</v>
+      </c>
+      <c r="E161">
+        <v>159</v>
+      </c>
+      <c r="F161">
+        <v>159</v>
+      </c>
+      <c r="G161">
+        <v>159</v>
+      </c>
+      <c r="H161" t="s">
+        <v>104</v>
+      </c>
+      <c r="I161">
         <v>6797</v>
       </c>
-      <c r="D161">
+      <c r="J161">
         <v>249</v>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
         <v>6548</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>99</v>
+      <c r="B162">
+        <v>160</v>
       </c>
       <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <v>160</v>
+      </c>
+      <c r="E162">
+        <v>160</v>
+      </c>
+      <c r="F162">
+        <v>160</v>
+      </c>
+      <c r="G162">
+        <v>160</v>
+      </c>
+      <c r="H162" t="s">
+        <v>105</v>
+      </c>
+      <c r="I162">
         <v>6882</v>
       </c>
-      <c r="D162">
+      <c r="J162">
         <v>249</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
         <v>6633</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>99</v>
+      <c r="B163">
+        <v>161</v>
       </c>
       <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <v>161</v>
+      </c>
+      <c r="E163">
+        <v>161</v>
+      </c>
+      <c r="F163">
+        <v>161</v>
+      </c>
+      <c r="G163">
+        <v>161</v>
+      </c>
+      <c r="H163" t="s">
+        <v>105</v>
+      </c>
+      <c r="I163">
         <v>6882</v>
       </c>
-      <c r="D163">
+      <c r="J163">
         <v>249</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
         <v>6633</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>100</v>
+      <c r="B164">
+        <v>162</v>
       </c>
       <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <v>162</v>
+      </c>
+      <c r="E164">
+        <v>162</v>
+      </c>
+      <c r="F164">
+        <v>162</v>
+      </c>
+      <c r="G164">
+        <v>162</v>
+      </c>
+      <c r="H164" t="s">
+        <v>106</v>
+      </c>
+      <c r="I164">
         <v>7100</v>
       </c>
-      <c r="D164">
+      <c r="J164">
         <v>260</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
         <v>6840</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>100</v>
+      <c r="B165">
+        <v>163</v>
       </c>
       <c r="C165">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <v>163</v>
+      </c>
+      <c r="E165">
+        <v>163</v>
+      </c>
+      <c r="F165">
+        <v>163</v>
+      </c>
+      <c r="G165">
+        <v>163</v>
+      </c>
+      <c r="H165" t="s">
+        <v>106</v>
+      </c>
+      <c r="I165">
         <v>7100</v>
       </c>
-      <c r="D165">
+      <c r="J165">
         <v>260</v>
       </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
         <v>6840</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>101</v>
+      <c r="B166">
+        <v>164</v>
       </c>
       <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <v>164</v>
+      </c>
+      <c r="E166">
+        <v>164</v>
+      </c>
+      <c r="F166">
+        <v>164</v>
+      </c>
+      <c r="G166">
+        <v>164</v>
+      </c>
+      <c r="H166" t="s">
+        <v>107</v>
+      </c>
+      <c r="I166">
         <v>7100</v>
       </c>
-      <c r="D166">
+      <c r="J166">
         <v>260</v>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
         <v>6840</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>101</v>
+      <c r="B167">
+        <v>165</v>
       </c>
       <c r="C167">
+        <v>165</v>
+      </c>
+      <c r="D167">
+        <v>165</v>
+      </c>
+      <c r="E167">
+        <v>165</v>
+      </c>
+      <c r="F167">
+        <v>165</v>
+      </c>
+      <c r="G167">
+        <v>165</v>
+      </c>
+      <c r="H167" t="s">
+        <v>107</v>
+      </c>
+      <c r="I167">
         <v>7100</v>
       </c>
-      <c r="D167">
+      <c r="J167">
         <v>260</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
         <v>6840</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>102</v>
+      <c r="B168">
+        <v>166</v>
       </c>
       <c r="C168">
+        <v>166</v>
+      </c>
+      <c r="D168">
+        <v>166</v>
+      </c>
+      <c r="E168">
+        <v>166</v>
+      </c>
+      <c r="F168">
+        <v>166</v>
+      </c>
+      <c r="G168">
+        <v>166</v>
+      </c>
+      <c r="H168" t="s">
+        <v>108</v>
+      </c>
+      <c r="I168">
         <v>7385</v>
       </c>
-      <c r="D168">
+      <c r="J168">
         <v>269</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
         <v>7116</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>102</v>
+      <c r="B169">
+        <v>167</v>
       </c>
       <c r="C169">
+        <v>167</v>
+      </c>
+      <c r="D169">
+        <v>167</v>
+      </c>
+      <c r="E169">
+        <v>167</v>
+      </c>
+      <c r="F169">
+        <v>167</v>
+      </c>
+      <c r="G169">
+        <v>167</v>
+      </c>
+      <c r="H169" t="s">
+        <v>108</v>
+      </c>
+      <c r="I169">
         <v>7385</v>
       </c>
-      <c r="D169">
+      <c r="J169">
         <v>269</v>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
         <v>7116</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
-        <v>103</v>
+      <c r="B170">
+        <v>168</v>
       </c>
       <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <v>168</v>
+      </c>
+      <c r="E170">
+        <v>168</v>
+      </c>
+      <c r="F170">
+        <v>168</v>
+      </c>
+      <c r="G170">
+        <v>168</v>
+      </c>
+      <c r="H170" t="s">
+        <v>109</v>
+      </c>
+      <c r="I170">
         <v>7481</v>
       </c>
-      <c r="D170">
+      <c r="J170">
         <v>269</v>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
         <v>7212</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>103</v>
+      <c r="B171">
+        <v>169</v>
       </c>
       <c r="C171">
+        <v>169</v>
+      </c>
+      <c r="D171">
+        <v>169</v>
+      </c>
+      <c r="E171">
+        <v>169</v>
+      </c>
+      <c r="F171">
+        <v>169</v>
+      </c>
+      <c r="G171">
+        <v>169</v>
+      </c>
+      <c r="H171" t="s">
+        <v>109</v>
+      </c>
+      <c r="I171">
         <v>7481</v>
       </c>
-      <c r="D171">
+      <c r="J171">
         <v>269</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
         <v>7212</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>104</v>
+      <c r="B172">
+        <v>170</v>
       </c>
       <c r="C172">
+        <v>170</v>
+      </c>
+      <c r="D172">
+        <v>170</v>
+      </c>
+      <c r="E172">
+        <v>170</v>
+      </c>
+      <c r="F172">
+        <v>170</v>
+      </c>
+      <c r="G172">
+        <v>170</v>
+      </c>
+      <c r="H172" t="s">
+        <v>110</v>
+      </c>
+      <c r="I172">
         <v>7481</v>
       </c>
-      <c r="D172">
+      <c r="J172">
         <v>269</v>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
         <v>7212</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>104</v>
+      <c r="B173">
+        <v>171</v>
       </c>
       <c r="C173">
+        <v>171</v>
+      </c>
+      <c r="D173">
+        <v>171</v>
+      </c>
+      <c r="E173">
+        <v>171</v>
+      </c>
+      <c r="F173">
+        <v>171</v>
+      </c>
+      <c r="G173">
+        <v>171</v>
+      </c>
+      <c r="H173" t="s">
+        <v>110</v>
+      </c>
+      <c r="I173">
         <v>7481</v>
       </c>
-      <c r="D173">
+      <c r="J173">
         <v>269</v>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
         <v>7212</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>105</v>
+      <c r="B174">
+        <v>172</v>
       </c>
       <c r="C174">
+        <v>172</v>
+      </c>
+      <c r="D174">
+        <v>172</v>
+      </c>
+      <c r="E174">
+        <v>172</v>
+      </c>
+      <c r="F174">
+        <v>172</v>
+      </c>
+      <c r="G174">
+        <v>172</v>
+      </c>
+      <c r="H174" t="s">
+        <v>111</v>
+      </c>
+      <c r="I174">
         <v>7554</v>
       </c>
-      <c r="D174">
+      <c r="J174">
         <v>269</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
         <v>7285</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
-        <v>105</v>
+      <c r="B175">
+        <v>173</v>
       </c>
       <c r="C175">
+        <v>173</v>
+      </c>
+      <c r="D175">
+        <v>173</v>
+      </c>
+      <c r="E175">
+        <v>173</v>
+      </c>
+      <c r="F175">
+        <v>173</v>
+      </c>
+      <c r="G175">
+        <v>173</v>
+      </c>
+      <c r="H175" t="s">
+        <v>111</v>
+      </c>
+      <c r="I175">
         <v>7554</v>
       </c>
-      <c r="D175">
+      <c r="J175">
         <v>269</v>
       </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
         <v>7285</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>106</v>
+      <c r="B176">
+        <v>174</v>
       </c>
       <c r="C176">
+        <v>174</v>
+      </c>
+      <c r="D176">
+        <v>174</v>
+      </c>
+      <c r="E176">
+        <v>174</v>
+      </c>
+      <c r="F176">
+        <v>174</v>
+      </c>
+      <c r="G176">
+        <v>174</v>
+      </c>
+      <c r="H176" t="s">
+        <v>112</v>
+      </c>
+      <c r="I176">
         <v>7674</v>
       </c>
-      <c r="D176">
+      <c r="J176">
         <v>276</v>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
         <v>7398</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>106</v>
+      <c r="B177">
+        <v>175</v>
       </c>
       <c r="C177">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <v>175</v>
+      </c>
+      <c r="E177">
+        <v>175</v>
+      </c>
+      <c r="F177">
+        <v>175</v>
+      </c>
+      <c r="G177">
+        <v>175</v>
+      </c>
+      <c r="H177" t="s">
+        <v>112</v>
+      </c>
+      <c r="I177">
         <v>7674</v>
       </c>
-      <c r="D177">
+      <c r="J177">
         <v>276</v>
       </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
         <v>7398</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>107</v>
+      <c r="B178">
+        <v>176</v>
       </c>
       <c r="C178">
+        <v>176</v>
+      </c>
+      <c r="D178">
+        <v>176</v>
+      </c>
+      <c r="E178">
+        <v>176</v>
+      </c>
+      <c r="F178">
+        <v>176</v>
+      </c>
+      <c r="G178">
+        <v>176</v>
+      </c>
+      <c r="H178" t="s">
+        <v>113</v>
+      </c>
+      <c r="I178">
         <v>7798</v>
       </c>
-      <c r="D178">
+      <c r="J178">
         <v>283</v>
       </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
         <v>7515</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
-        <v>107</v>
+      <c r="B179">
+        <v>177</v>
       </c>
       <c r="C179">
+        <v>177</v>
+      </c>
+      <c r="D179">
+        <v>177</v>
+      </c>
+      <c r="E179">
+        <v>177</v>
+      </c>
+      <c r="F179">
+        <v>177</v>
+      </c>
+      <c r="G179">
+        <v>177</v>
+      </c>
+      <c r="H179" t="s">
+        <v>113</v>
+      </c>
+      <c r="I179">
         <v>7798</v>
       </c>
-      <c r="D179">
+      <c r="J179">
         <v>283</v>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
         <v>7515</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>108</v>
+      <c r="B180">
+        <v>178</v>
       </c>
       <c r="C180">
+        <v>178</v>
+      </c>
+      <c r="D180">
+        <v>178</v>
+      </c>
+      <c r="E180">
+        <v>178</v>
+      </c>
+      <c r="F180">
+        <v>178</v>
+      </c>
+      <c r="G180">
+        <v>178</v>
+      </c>
+      <c r="H180" t="s">
+        <v>114</v>
+      </c>
+      <c r="I180">
         <v>7940</v>
       </c>
-      <c r="D180">
+      <c r="J180">
         <v>288</v>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
         <v>7652</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
-        <v>108</v>
+      <c r="B181">
+        <v>179</v>
       </c>
       <c r="C181">
+        <v>179</v>
+      </c>
+      <c r="D181">
+        <v>179</v>
+      </c>
+      <c r="E181">
+        <v>179</v>
+      </c>
+      <c r="F181">
+        <v>179</v>
+      </c>
+      <c r="G181">
+        <v>179</v>
+      </c>
+      <c r="H181" t="s">
+        <v>114</v>
+      </c>
+      <c r="I181">
         <v>7940</v>
       </c>
-      <c r="D181">
+      <c r="J181">
         <v>288</v>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
         <v>7652</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>109</v>
+      <c r="B182">
+        <v>180</v>
       </c>
       <c r="C182">
+        <v>180</v>
+      </c>
+      <c r="D182">
+        <v>180</v>
+      </c>
+      <c r="E182">
+        <v>180</v>
+      </c>
+      <c r="F182">
+        <v>180</v>
+      </c>
+      <c r="G182">
+        <v>180</v>
+      </c>
+      <c r="H182" t="s">
+        <v>115</v>
+      </c>
+      <c r="I182">
         <v>8345</v>
       </c>
-      <c r="D182">
+      <c r="J182">
         <v>296</v>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
         <v>8049</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>109</v>
+      <c r="B183">
+        <v>181</v>
       </c>
       <c r="C183">
+        <v>181</v>
+      </c>
+      <c r="D183">
+        <v>181</v>
+      </c>
+      <c r="E183">
+        <v>181</v>
+      </c>
+      <c r="F183">
+        <v>181</v>
+      </c>
+      <c r="G183">
+        <v>181</v>
+      </c>
+      <c r="H183" t="s">
+        <v>115</v>
+      </c>
+      <c r="I183">
         <v>8345</v>
       </c>
-      <c r="D183">
+      <c r="J183">
         <v>296</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
         <v>8049</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
-        <v>110</v>
+      <c r="B184">
+        <v>182</v>
       </c>
       <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <v>182</v>
+      </c>
+      <c r="E184">
+        <v>182</v>
+      </c>
+      <c r="F184">
+        <v>182</v>
+      </c>
+      <c r="G184">
+        <v>182</v>
+      </c>
+      <c r="H184" t="s">
+        <v>116</v>
+      </c>
+      <c r="I184">
         <v>8345</v>
       </c>
-      <c r="D184">
+      <c r="J184">
         <v>296</v>
       </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
         <v>8049</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
-        <v>110</v>
+      <c r="B185">
+        <v>183</v>
       </c>
       <c r="C185">
+        <v>183</v>
+      </c>
+      <c r="D185">
+        <v>183</v>
+      </c>
+      <c r="E185">
+        <v>183</v>
+      </c>
+      <c r="F185">
+        <v>183</v>
+      </c>
+      <c r="G185">
+        <v>183</v>
+      </c>
+      <c r="H185" t="s">
+        <v>116</v>
+      </c>
+      <c r="I185">
         <v>8345</v>
       </c>
-      <c r="D185">
+      <c r="J185">
         <v>296</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
         <v>8049</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>111</v>
+      <c r="B186">
+        <v>184</v>
       </c>
       <c r="C186">
+        <v>184</v>
+      </c>
+      <c r="D186">
+        <v>184</v>
+      </c>
+      <c r="E186">
+        <v>184</v>
+      </c>
+      <c r="F186">
+        <v>184</v>
+      </c>
+      <c r="G186">
+        <v>184</v>
+      </c>
+      <c r="H186" t="s">
+        <v>117</v>
+      </c>
+      <c r="I186">
         <v>8619</v>
       </c>
-      <c r="D186">
+      <c r="J186">
         <v>296</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
         <v>8323</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
-        <v>111</v>
+      <c r="B187">
+        <v>185</v>
       </c>
       <c r="C187">
+        <v>185</v>
+      </c>
+      <c r="D187">
+        <v>185</v>
+      </c>
+      <c r="E187">
+        <v>185</v>
+      </c>
+      <c r="F187">
+        <v>185</v>
+      </c>
+      <c r="G187">
+        <v>185</v>
+      </c>
+      <c r="H187" t="s">
+        <v>117</v>
+      </c>
+      <c r="I187">
         <v>8619</v>
       </c>
-      <c r="D187">
+      <c r="J187">
         <v>296</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
         <v>8323</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
-        <v>112</v>
+      <c r="B188">
+        <v>186</v>
       </c>
       <c r="C188">
+        <v>186</v>
+      </c>
+      <c r="D188">
+        <v>186</v>
+      </c>
+      <c r="E188">
+        <v>186</v>
+      </c>
+      <c r="F188">
+        <v>186</v>
+      </c>
+      <c r="G188">
+        <v>186</v>
+      </c>
+      <c r="H188" t="s">
+        <v>118</v>
+      </c>
+      <c r="I188">
         <v>8619</v>
       </c>
-      <c r="D188">
+      <c r="J188">
         <v>296</v>
       </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
         <v>8323</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
-        <v>112</v>
+      <c r="B189">
+        <v>187</v>
       </c>
       <c r="C189">
+        <v>187</v>
+      </c>
+      <c r="D189">
+        <v>187</v>
+      </c>
+      <c r="E189">
+        <v>187</v>
+      </c>
+      <c r="F189">
+        <v>187</v>
+      </c>
+      <c r="G189">
+        <v>187</v>
+      </c>
+      <c r="H189" t="s">
+        <v>118</v>
+      </c>
+      <c r="I189">
         <v>8619</v>
       </c>
-      <c r="D189">
+      <c r="J189">
         <v>296</v>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
         <v>8323</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
-        <v>113</v>
+      <c r="B190">
+        <v>188</v>
       </c>
       <c r="C190">
+        <v>188</v>
+      </c>
+      <c r="D190">
+        <v>188</v>
+      </c>
+      <c r="E190">
+        <v>188</v>
+      </c>
+      <c r="F190">
+        <v>188</v>
+      </c>
+      <c r="G190">
+        <v>188</v>
+      </c>
+      <c r="H190" t="s">
+        <v>119</v>
+      </c>
+      <c r="I190">
         <v>8837</v>
       </c>
-      <c r="D190">
+      <c r="J190">
         <v>305</v>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
         <v>8532</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
-        <v>113</v>
+      <c r="B191">
+        <v>189</v>
       </c>
       <c r="C191">
+        <v>189</v>
+      </c>
+      <c r="D191">
+        <v>189</v>
+      </c>
+      <c r="E191">
+        <v>189</v>
+      </c>
+      <c r="F191">
+        <v>189</v>
+      </c>
+      <c r="G191">
+        <v>189</v>
+      </c>
+      <c r="H191" t="s">
+        <v>119</v>
+      </c>
+      <c r="I191">
         <v>8837</v>
       </c>
-      <c r="D191">
+      <c r="J191">
         <v>305</v>
       </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
         <v>8532</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:12">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
-        <v>114</v>
+      <c r="B192">
+        <v>190</v>
       </c>
       <c r="C192">
+        <v>190</v>
+      </c>
+      <c r="D192">
+        <v>190</v>
+      </c>
+      <c r="E192">
+        <v>190</v>
+      </c>
+      <c r="F192">
+        <v>190</v>
+      </c>
+      <c r="G192">
+        <v>190</v>
+      </c>
+      <c r="H192" t="s">
+        <v>120</v>
+      </c>
+      <c r="I192">
         <v>8998</v>
       </c>
-      <c r="D192">
+      <c r="J192">
         <v>308</v>
       </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
         <v>8690</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
-        <v>114</v>
+      <c r="B193">
+        <v>191</v>
       </c>
       <c r="C193">
+        <v>191</v>
+      </c>
+      <c r="D193">
+        <v>191</v>
+      </c>
+      <c r="E193">
+        <v>191</v>
+      </c>
+      <c r="F193">
+        <v>191</v>
+      </c>
+      <c r="G193">
+        <v>191</v>
+      </c>
+      <c r="H193" t="s">
+        <v>120</v>
+      </c>
+      <c r="I193">
         <v>8998</v>
       </c>
-      <c r="D193">
+      <c r="J193">
         <v>308</v>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -734,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +777,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -797,23 +803,26 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -835,14 +844,14 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -850,8 +859,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -873,14 +885,14 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -888,8 +900,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -911,23 +926,26 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -949,23 +967,26 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -987,23 +1008,26 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1025,23 +1049,26 @@
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1063,23 +1090,26 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1101,23 +1131,26 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1139,23 +1172,26 @@
       <c r="G11">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1177,23 +1213,26 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1215,23 +1254,26 @@
       <c r="G13">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1253,23 +1295,26 @@
       <c r="G14">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1291,23 +1336,26 @@
       <c r="G15">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1329,23 +1377,26 @@
       <c r="G16">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1367,23 +1418,26 @@
       <c r="G17">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1405,23 +1459,26 @@
       <c r="G18">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1443,23 +1500,26 @@
       <c r="G19">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1481,23 +1541,26 @@
       <c r="G20">
         <v>18</v>
       </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1519,23 +1582,26 @@
       <c r="G21">
         <v>19</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1557,23 +1623,26 @@
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1595,23 +1664,26 @@
       <c r="G23">
         <v>21</v>
       </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1633,23 +1705,26 @@
       <c r="G24">
         <v>22</v>
       </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>1</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1671,23 +1746,26 @@
       <c r="G25">
         <v>23</v>
       </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25">
         <v>3</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1709,23 +1787,26 @@
       <c r="G26">
         <v>24</v>
       </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1747,23 +1828,26 @@
       <c r="G27">
         <v>25</v>
       </c>
-      <c r="H27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27">
         <v>3</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1785,23 +1869,26 @@
       <c r="G28">
         <v>26</v>
       </c>
-      <c r="H28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
         <v>3</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1823,23 +1910,26 @@
       <c r="G29">
         <v>27</v>
       </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>1</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1861,23 +1951,26 @@
       <c r="G30">
         <v>28</v>
       </c>
-      <c r="H30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
         <v>155</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1899,23 +1992,26 @@
       <c r="G31">
         <v>29</v>
       </c>
-      <c r="H31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31">
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31">
         <v>155</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1937,23 +2033,26 @@
       <c r="G32">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32">
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32">
         <v>201</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1975,23 +2074,26 @@
       <c r="G33">
         <v>31</v>
       </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33">
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33">
         <v>201</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2013,23 +2115,26 @@
       <c r="G34">
         <v>32</v>
       </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34">
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34">
         <v>226</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2051,23 +2156,26 @@
       <c r="G35">
         <v>33</v>
       </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35">
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35">
         <v>226</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2089,23 +2197,26 @@
       <c r="G36">
         <v>34</v>
       </c>
-      <c r="H36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36">
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36">
         <v>238</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2127,23 +2238,26 @@
       <c r="G37">
         <v>35</v>
       </c>
-      <c r="H37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37">
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37">
         <v>238</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2165,23 +2279,26 @@
       <c r="G38">
         <v>36</v>
       </c>
-      <c r="H38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38">
+      <c r="H38">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38">
         <v>293</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2203,23 +2320,26 @@
       <c r="G39">
         <v>37</v>
       </c>
-      <c r="H39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39">
+      <c r="H39">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39">
         <v>293</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>3</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2241,23 +2361,26 @@
       <c r="G40">
         <v>38</v>
       </c>
-      <c r="H40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40">
+      <c r="H40">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40">
         <v>341</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>3</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2279,23 +2402,26 @@
       <c r="G41">
         <v>39</v>
       </c>
-      <c r="H41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41">
+      <c r="H41">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41">
         <v>341</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>3</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2317,23 +2443,26 @@
       <c r="G42">
         <v>40</v>
       </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42">
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42">
         <v>413</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2355,23 +2484,26 @@
       <c r="G43">
         <v>41</v>
       </c>
-      <c r="H43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43">
+      <c r="H43">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43">
         <v>413</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>6</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2393,23 +2525,26 @@
       <c r="G44">
         <v>42</v>
       </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44">
+      <c r="H44">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44">
         <v>484</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>7</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2431,23 +2566,26 @@
       <c r="G45">
         <v>43</v>
       </c>
-      <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45">
+      <c r="H45">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45">
         <v>484</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2469,23 +2607,26 @@
       <c r="G46">
         <v>44</v>
       </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46">
+      <c r="H46">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46">
         <v>515</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>7</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2507,23 +2648,26 @@
       <c r="G47">
         <v>45</v>
       </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47">
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47">
         <v>515</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>7</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2545,23 +2689,26 @@
       <c r="G48">
         <v>46</v>
       </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48">
+      <c r="H48">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48">
         <v>603</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>7</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2583,23 +2730,26 @@
       <c r="G49">
         <v>47</v>
       </c>
-      <c r="H49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49">
+      <c r="H49">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49">
         <v>603</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>7</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2621,23 +2771,26 @@
       <c r="G50">
         <v>48</v>
       </c>
-      <c r="H50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I50">
+      <c r="H50">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50">
         <v>733</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>9</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2659,23 +2812,26 @@
       <c r="G51">
         <v>49</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51">
         <v>49</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51">
         <v>733</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>9</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2697,23 +2853,26 @@
       <c r="G52">
         <v>50</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52">
         <v>50</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52">
         <v>849</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>15</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
       <c r="L52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2735,23 +2894,26 @@
       <c r="G53">
         <v>51</v>
       </c>
-      <c r="H53" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53">
+      <c r="H53">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53">
         <v>849</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>15</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2773,23 +2935,26 @@
       <c r="G54">
         <v>52</v>
       </c>
-      <c r="H54" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54">
+      <c r="H54">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54">
         <v>966</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>16</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2811,23 +2976,26 @@
       <c r="G55">
         <v>53</v>
       </c>
-      <c r="H55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55">
+      <c r="H55">
+        <v>53</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55">
         <v>966</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>16</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2849,23 +3017,26 @@
       <c r="G56">
         <v>54</v>
       </c>
-      <c r="H56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56">
+      <c r="H56">
+        <v>54</v>
+      </c>
+      <c r="I56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56">
         <v>1112</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>17</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
       <c r="L56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2887,23 +3058,26 @@
       <c r="G57">
         <v>55</v>
       </c>
-      <c r="H57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57">
+      <c r="H57">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57">
         <v>1112</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>17</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2925,23 +3099,26 @@
       <c r="G58">
         <v>56</v>
       </c>
-      <c r="H58" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58">
+      <c r="H58">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58">
         <v>1209</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>18</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2963,23 +3140,26 @@
       <c r="G59">
         <v>57</v>
       </c>
-      <c r="H59" t="s">
-        <v>53</v>
-      </c>
-      <c r="I59">
+      <c r="H59">
+        <v>57</v>
+      </c>
+      <c r="I59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59">
         <v>1209</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>18</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3001,23 +3181,26 @@
       <c r="G60">
         <v>58</v>
       </c>
-      <c r="H60" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60">
+      <c r="H60">
+        <v>58</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60">
         <v>1326</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>19</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3039,23 +3222,26 @@
       <c r="G61">
         <v>59</v>
       </c>
-      <c r="H61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61">
+      <c r="H61">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61">
         <v>1326</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>19</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3077,23 +3263,26 @@
       <c r="G62">
         <v>60</v>
       </c>
-      <c r="H62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I62">
+      <c r="H62">
+        <v>60</v>
+      </c>
+      <c r="I62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62">
         <v>1404</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>19</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
       <c r="L62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3115,23 +3304,26 @@
       <c r="G63">
         <v>61</v>
       </c>
-      <c r="H63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63">
+      <c r="H63">
+        <v>61</v>
+      </c>
+      <c r="I63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63">
         <v>1404</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>19</v>
       </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3153,23 +3345,26 @@
       <c r="G64">
         <v>62</v>
       </c>
-      <c r="H64" t="s">
-        <v>56</v>
-      </c>
-      <c r="I64">
+      <c r="H64">
+        <v>62</v>
+      </c>
+      <c r="I64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64">
         <v>1454</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>31</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3191,23 +3386,26 @@
       <c r="G65">
         <v>63</v>
       </c>
-      <c r="H65" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65">
+      <c r="H65">
+        <v>63</v>
+      </c>
+      <c r="I65" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65">
         <v>1454</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>31</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3229,23 +3427,26 @@
       <c r="G66">
         <v>64</v>
       </c>
-      <c r="H66" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66">
+      <c r="H66">
+        <v>64</v>
+      </c>
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66">
         <v>1530</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>36</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3267,23 +3468,26 @@
       <c r="G67">
         <v>65</v>
       </c>
-      <c r="H67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I67">
+      <c r="H67">
+        <v>65</v>
+      </c>
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67">
         <v>1530</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>36</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3305,23 +3509,26 @@
       <c r="G68">
         <v>66</v>
       </c>
-      <c r="H68" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68">
+      <c r="H68">
+        <v>66</v>
+      </c>
+      <c r="I68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68">
         <v>1628</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>40</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3343,23 +3550,26 @@
       <c r="G69">
         <v>67</v>
       </c>
-      <c r="H69" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69">
+      <c r="H69">
+        <v>67</v>
+      </c>
+      <c r="I69" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69">
         <v>1628</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>40</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3381,23 +3591,26 @@
       <c r="G70">
         <v>68</v>
       </c>
-      <c r="H70" t="s">
-        <v>59</v>
-      </c>
-      <c r="I70">
+      <c r="H70">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70">
         <v>1693</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>44</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3419,23 +3632,26 @@
       <c r="G71">
         <v>69</v>
       </c>
-      <c r="H71" t="s">
-        <v>59</v>
-      </c>
-      <c r="I71">
+      <c r="H71">
+        <v>69</v>
+      </c>
+      <c r="I71" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71">
         <v>1693</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>44</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3457,23 +3673,26 @@
       <c r="G72">
         <v>70</v>
       </c>
-      <c r="H72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I72">
+      <c r="H72">
+        <v>70</v>
+      </c>
+      <c r="I72" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72">
         <v>1761</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>45</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
       <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
         <v>1716</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3495,23 +3714,26 @@
       <c r="G73">
         <v>71</v>
       </c>
-      <c r="H73" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73">
+      <c r="H73">
+        <v>71</v>
+      </c>
+      <c r="I73" t="s">
+        <v>61</v>
+      </c>
+      <c r="J73">
         <v>1761</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>45</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
       <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>1716</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3533,23 +3755,26 @@
       <c r="G74">
         <v>72</v>
       </c>
-      <c r="H74" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74">
+      <c r="H74">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s">
+        <v>62</v>
+      </c>
+      <c r="J74">
         <v>1804</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>45</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
       <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>1759</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3571,23 +3796,26 @@
       <c r="G75">
         <v>73</v>
       </c>
-      <c r="H75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75">
+      <c r="H75">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75">
         <v>1804</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>45</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
       <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>1759</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3609,23 +3837,26 @@
       <c r="G76">
         <v>74</v>
       </c>
-      <c r="H76" t="s">
-        <v>62</v>
-      </c>
-      <c r="I76">
+      <c r="H76">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s">
+        <v>63</v>
+      </c>
+      <c r="J76">
         <v>1847</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>47</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
       <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3647,23 +3878,26 @@
       <c r="G77">
         <v>75</v>
       </c>
-      <c r="H77" t="s">
-        <v>62</v>
-      </c>
-      <c r="I77">
+      <c r="H77">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s">
+        <v>63</v>
+      </c>
+      <c r="J77">
         <v>1847</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>47</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
       <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
         <v>1800</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3685,23 +3919,26 @@
       <c r="G78">
         <v>76</v>
       </c>
-      <c r="H78" t="s">
-        <v>63</v>
-      </c>
-      <c r="I78">
+      <c r="H78">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s">
+        <v>64</v>
+      </c>
+      <c r="J78">
         <v>1930</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>53</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
       <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
         <v>1877</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3723,23 +3960,26 @@
       <c r="G79">
         <v>77</v>
       </c>
-      <c r="H79" t="s">
-        <v>63</v>
-      </c>
-      <c r="I79">
+      <c r="H79">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s">
+        <v>64</v>
+      </c>
+      <c r="J79">
         <v>1930</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>53</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
       <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
         <v>1877</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3761,23 +4001,26 @@
       <c r="G80">
         <v>78</v>
       </c>
-      <c r="H80" t="s">
-        <v>64</v>
-      </c>
-      <c r="I80">
+      <c r="H80">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80">
         <v>2012</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>60</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
       <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>1952</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3799,23 +4042,26 @@
       <c r="G81">
         <v>79</v>
       </c>
-      <c r="H81" t="s">
-        <v>64</v>
-      </c>
-      <c r="I81">
+      <c r="H81">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81">
         <v>2012</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>60</v>
       </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
       <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>1952</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3837,23 +4083,26 @@
       <c r="G82">
         <v>80</v>
       </c>
-      <c r="H82" t="s">
-        <v>65</v>
-      </c>
-      <c r="I82">
+      <c r="H82">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82">
         <v>2087</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>63</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
       <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>2024</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3875,23 +4124,26 @@
       <c r="G83">
         <v>81</v>
       </c>
-      <c r="H83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I83">
+      <c r="H83">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83">
         <v>2087</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>63</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
       <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
         <v>2024</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3913,23 +4165,26 @@
       <c r="G84">
         <v>82</v>
       </c>
-      <c r="H84" t="s">
-        <v>66</v>
-      </c>
-      <c r="I84">
+      <c r="H84">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84">
         <v>2158</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>70</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
       <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
         <v>2088</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3951,23 +4206,26 @@
       <c r="G85">
         <v>83</v>
       </c>
-      <c r="H85" t="s">
-        <v>66</v>
-      </c>
-      <c r="I85">
+      <c r="H85">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s">
+        <v>67</v>
+      </c>
+      <c r="J85">
         <v>2158</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>70</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
       <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
         <v>2088</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3989,23 +4247,26 @@
       <c r="G86">
         <v>84</v>
       </c>
-      <c r="H86" t="s">
-        <v>67</v>
-      </c>
-      <c r="I86">
+      <c r="H86">
+        <v>84</v>
+      </c>
+      <c r="I86" t="s">
+        <v>68</v>
+      </c>
+      <c r="J86">
         <v>2213</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>71</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
       <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
         <v>2142</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4027,23 +4288,26 @@
       <c r="G87">
         <v>85</v>
       </c>
-      <c r="H87" t="s">
-        <v>67</v>
-      </c>
-      <c r="I87">
+      <c r="H87">
+        <v>85</v>
+      </c>
+      <c r="I87" t="s">
+        <v>68</v>
+      </c>
+      <c r="J87">
         <v>2213</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>71</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
       <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
         <v>2142</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4065,23 +4329,26 @@
       <c r="G88">
         <v>86</v>
       </c>
-      <c r="H88" t="s">
-        <v>68</v>
-      </c>
-      <c r="I88">
+      <c r="H88">
+        <v>86</v>
+      </c>
+      <c r="I88" t="s">
+        <v>69</v>
+      </c>
+      <c r="J88">
         <v>2268</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>71</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
       <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
         <v>2197</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4103,23 +4370,26 @@
       <c r="G89">
         <v>87</v>
       </c>
-      <c r="H89" t="s">
-        <v>68</v>
-      </c>
-      <c r="I89">
+      <c r="H89">
+        <v>87</v>
+      </c>
+      <c r="I89" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89">
         <v>2268</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>71</v>
       </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
       <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
         <v>2197</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4141,23 +4411,26 @@
       <c r="G90">
         <v>88</v>
       </c>
-      <c r="H90" t="s">
-        <v>69</v>
-      </c>
-      <c r="I90">
+      <c r="H90">
+        <v>88</v>
+      </c>
+      <c r="I90" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90">
         <v>2325</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>72</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
       <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
         <v>2253</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4179,23 +4452,26 @@
       <c r="G91">
         <v>89</v>
       </c>
-      <c r="H91" t="s">
-        <v>69</v>
-      </c>
-      <c r="I91">
+      <c r="H91">
+        <v>89</v>
+      </c>
+      <c r="I91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91">
         <v>2325</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>72</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
       <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
         <v>2253</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4217,23 +4493,26 @@
       <c r="G92">
         <v>90</v>
       </c>
-      <c r="H92" t="s">
-        <v>70</v>
-      </c>
-      <c r="I92">
+      <c r="H92">
+        <v>90</v>
+      </c>
+      <c r="I92" t="s">
+        <v>71</v>
+      </c>
+      <c r="J92">
         <v>2491</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>96</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
       <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
         <v>2395</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4255,23 +4534,26 @@
       <c r="G93">
         <v>91</v>
       </c>
-      <c r="H93" t="s">
-        <v>70</v>
-      </c>
-      <c r="I93">
+      <c r="H93">
+        <v>91</v>
+      </c>
+      <c r="I93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J93">
         <v>2491</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>96</v>
       </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
       <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
         <v>2395</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4293,23 +4575,26 @@
       <c r="G94">
         <v>92</v>
       </c>
-      <c r="H94" t="s">
-        <v>71</v>
-      </c>
-      <c r="I94">
+      <c r="H94">
+        <v>92</v>
+      </c>
+      <c r="I94" t="s">
+        <v>72</v>
+      </c>
+      <c r="J94">
         <v>2643</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>100</v>
       </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
       <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
         <v>2543</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4331,23 +4616,26 @@
       <c r="G95">
         <v>93</v>
       </c>
-      <c r="H95" t="s">
-        <v>71</v>
-      </c>
-      <c r="I95">
+      <c r="H95">
+        <v>93</v>
+      </c>
+      <c r="I95" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95">
         <v>2643</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>100</v>
       </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
       <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
         <v>2543</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4369,23 +4657,26 @@
       <c r="G96">
         <v>94</v>
       </c>
-      <c r="H96" t="s">
-        <v>72</v>
-      </c>
-      <c r="I96">
+      <c r="H96">
+        <v>94</v>
+      </c>
+      <c r="I96" t="s">
+        <v>73</v>
+      </c>
+      <c r="J96">
         <v>2826</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>102</v>
       </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
       <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>2724</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4407,23 +4698,26 @@
       <c r="G97">
         <v>95</v>
       </c>
-      <c r="H97" t="s">
-        <v>72</v>
-      </c>
-      <c r="I97">
+      <c r="H97">
+        <v>95</v>
+      </c>
+      <c r="I97" t="s">
+        <v>73</v>
+      </c>
+      <c r="J97">
         <v>2826</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>102</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
       <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>2724</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4445,23 +4739,26 @@
       <c r="G98">
         <v>96</v>
       </c>
-      <c r="H98" t="s">
-        <v>73</v>
-      </c>
-      <c r="I98">
+      <c r="H98">
+        <v>96</v>
+      </c>
+      <c r="I98" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98">
         <v>2943</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>111</v>
       </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
       <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
         <v>2832</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4483,23 +4780,26 @@
       <c r="G99">
         <v>97</v>
       </c>
-      <c r="H99" t="s">
-        <v>73</v>
-      </c>
-      <c r="I99">
+      <c r="H99">
+        <v>97</v>
+      </c>
+      <c r="I99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J99">
         <v>2943</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>111</v>
       </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
       <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
         <v>2832</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4521,23 +4821,26 @@
       <c r="G100">
         <v>98</v>
       </c>
-      <c r="H100" t="s">
-        <v>74</v>
-      </c>
-      <c r="I100">
+      <c r="H100">
+        <v>98</v>
+      </c>
+      <c r="I100" t="s">
+        <v>75</v>
+      </c>
+      <c r="J100">
         <v>2943</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>111</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
       <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
         <v>2832</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4559,23 +4862,26 @@
       <c r="G101">
         <v>99</v>
       </c>
-      <c r="H101" t="s">
-        <v>74</v>
-      </c>
-      <c r="I101">
+      <c r="H101">
+        <v>99</v>
+      </c>
+      <c r="I101" t="s">
+        <v>75</v>
+      </c>
+      <c r="J101">
         <v>2943</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>111</v>
       </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
       <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
         <v>2832</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4597,23 +4903,26 @@
       <c r="G102">
         <v>100</v>
       </c>
-      <c r="H102" t="s">
-        <v>75</v>
-      </c>
-      <c r="I102">
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102" t="s">
+        <v>76</v>
+      </c>
+      <c r="J102">
         <v>3043</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>111</v>
       </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
       <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
         <v>2932</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4635,23 +4944,26 @@
       <c r="G103">
         <v>101</v>
       </c>
-      <c r="H103" t="s">
-        <v>75</v>
-      </c>
-      <c r="I103">
+      <c r="H103">
+        <v>101</v>
+      </c>
+      <c r="I103" t="s">
+        <v>76</v>
+      </c>
+      <c r="J103">
         <v>3043</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>111</v>
       </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
       <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
         <v>2932</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4673,23 +4985,26 @@
       <c r="G104">
         <v>102</v>
       </c>
-      <c r="H104" t="s">
-        <v>76</v>
-      </c>
-      <c r="I104">
+      <c r="H104">
+        <v>102</v>
+      </c>
+      <c r="I104" t="s">
+        <v>77</v>
+      </c>
+      <c r="J104">
         <v>3141</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>113</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
       <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>3028</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4711,23 +5026,26 @@
       <c r="G105">
         <v>103</v>
       </c>
-      <c r="H105" t="s">
-        <v>76</v>
-      </c>
-      <c r="I105">
+      <c r="H105">
+        <v>103</v>
+      </c>
+      <c r="I105" t="s">
+        <v>77</v>
+      </c>
+      <c r="J105">
         <v>3141</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>113</v>
       </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
       <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
         <v>3028</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4749,23 +5067,26 @@
       <c r="G106">
         <v>104</v>
       </c>
-      <c r="H106" t="s">
-        <v>77</v>
-      </c>
-      <c r="I106">
+      <c r="H106">
+        <v>104</v>
+      </c>
+      <c r="I106" t="s">
+        <v>78</v>
+      </c>
+      <c r="J106">
         <v>3432</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>120</v>
       </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
       <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
         <v>3312</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4787,23 +5108,26 @@
       <c r="G107">
         <v>105</v>
       </c>
-      <c r="H107" t="s">
-        <v>77</v>
-      </c>
-      <c r="I107">
+      <c r="H107">
+        <v>105</v>
+      </c>
+      <c r="I107" t="s">
+        <v>78</v>
+      </c>
+      <c r="J107">
         <v>3432</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>120</v>
       </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
       <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
         <v>3312</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4825,23 +5149,26 @@
       <c r="G108">
         <v>106</v>
       </c>
-      <c r="H108" t="s">
-        <v>78</v>
-      </c>
-      <c r="I108">
+      <c r="H108">
+        <v>106</v>
+      </c>
+      <c r="I108" t="s">
+        <v>79</v>
+      </c>
+      <c r="J108">
         <v>3432</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>120</v>
       </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
       <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
         <v>3312</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4863,23 +5190,26 @@
       <c r="G109">
         <v>107</v>
       </c>
-      <c r="H109" t="s">
-        <v>78</v>
-      </c>
-      <c r="I109">
+      <c r="H109">
+        <v>107</v>
+      </c>
+      <c r="I109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J109">
         <v>3432</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>120</v>
       </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
       <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
         <v>3312</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4901,23 +5231,26 @@
       <c r="G110">
         <v>108</v>
       </c>
-      <c r="H110" t="s">
-        <v>79</v>
-      </c>
-      <c r="I110">
+      <c r="H110">
+        <v>108</v>
+      </c>
+      <c r="I110" t="s">
+        <v>80</v>
+      </c>
+      <c r="J110">
         <v>3564</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>124</v>
       </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
       <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
         <v>3440</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4939,23 +5272,26 @@
       <c r="G111">
         <v>109</v>
       </c>
-      <c r="H111" t="s">
-        <v>79</v>
-      </c>
-      <c r="I111">
+      <c r="H111">
+        <v>109</v>
+      </c>
+      <c r="I111" t="s">
+        <v>80</v>
+      </c>
+      <c r="J111">
         <v>3564</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>124</v>
       </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
       <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
         <v>3440</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4977,23 +5313,26 @@
       <c r="G112">
         <v>110</v>
       </c>
-      <c r="H112" t="s">
-        <v>80</v>
-      </c>
-      <c r="I112">
+      <c r="H112">
+        <v>110</v>
+      </c>
+      <c r="I112" t="s">
+        <v>81</v>
+      </c>
+      <c r="J112">
         <v>3711</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>134</v>
       </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
       <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
         <v>3577</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5015,23 +5354,26 @@
       <c r="G113">
         <v>111</v>
       </c>
-      <c r="H113" t="s">
-        <v>80</v>
-      </c>
-      <c r="I113">
+      <c r="H113">
+        <v>111</v>
+      </c>
+      <c r="I113" t="s">
+        <v>81</v>
+      </c>
+      <c r="J113">
         <v>3711</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>134</v>
       </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
       <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
         <v>3577</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5053,23 +5395,26 @@
       <c r="G114">
         <v>112</v>
       </c>
-      <c r="H114" t="s">
-        <v>81</v>
-      </c>
-      <c r="I114">
+      <c r="H114">
+        <v>112</v>
+      </c>
+      <c r="I114" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114">
         <v>3927</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>139</v>
       </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
       <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
         <v>3788</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5091,23 +5436,26 @@
       <c r="G115">
         <v>113</v>
       </c>
-      <c r="H115" t="s">
-        <v>81</v>
-      </c>
-      <c r="I115">
+      <c r="H115">
+        <v>113</v>
+      </c>
+      <c r="I115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J115">
         <v>3927</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>139</v>
       </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
       <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
         <v>3788</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5129,23 +5477,26 @@
       <c r="G116">
         <v>114</v>
       </c>
-      <c r="H116" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116">
+      <c r="H116">
+        <v>114</v>
+      </c>
+      <c r="I116" t="s">
+        <v>83</v>
+      </c>
+      <c r="J116">
         <v>3927</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>139</v>
       </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
       <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
         <v>3788</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5167,23 +5518,26 @@
       <c r="G117">
         <v>115</v>
       </c>
-      <c r="H117" t="s">
-        <v>82</v>
-      </c>
-      <c r="I117">
+      <c r="H117">
+        <v>115</v>
+      </c>
+      <c r="I117" t="s">
+        <v>83</v>
+      </c>
+      <c r="J117">
         <v>3927</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>139</v>
       </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
       <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
         <v>3788</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5205,23 +5559,26 @@
       <c r="G118">
         <v>116</v>
       </c>
-      <c r="H118" t="s">
-        <v>83</v>
-      </c>
-      <c r="I118">
+      <c r="H118">
+        <v>116</v>
+      </c>
+      <c r="I118" t="s">
+        <v>84</v>
+      </c>
+      <c r="J118">
         <v>4020</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>144</v>
       </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
       <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
         <v>3876</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5243,23 +5600,26 @@
       <c r="G119">
         <v>117</v>
       </c>
-      <c r="H119" t="s">
-        <v>83</v>
-      </c>
-      <c r="I119">
+      <c r="H119">
+        <v>117</v>
+      </c>
+      <c r="I119" t="s">
+        <v>84</v>
+      </c>
+      <c r="J119">
         <v>4020</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>144</v>
       </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
       <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
         <v>3876</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5281,23 +5641,26 @@
       <c r="G120">
         <v>118</v>
       </c>
-      <c r="H120" t="s">
-        <v>84</v>
-      </c>
-      <c r="I120">
+      <c r="H120">
+        <v>118</v>
+      </c>
+      <c r="I120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J120">
         <v>4319</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>158</v>
       </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
       <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
         <v>4161</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5319,23 +5682,26 @@
       <c r="G121">
         <v>119</v>
       </c>
-      <c r="H121" t="s">
-        <v>84</v>
-      </c>
-      <c r="I121">
+      <c r="H121">
+        <v>119</v>
+      </c>
+      <c r="I121" t="s">
+        <v>85</v>
+      </c>
+      <c r="J121">
         <v>4319</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>158</v>
       </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
       <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
         <v>4161</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5357,23 +5723,26 @@
       <c r="G122">
         <v>120</v>
       </c>
-      <c r="H122" t="s">
-        <v>85</v>
-      </c>
-      <c r="I122">
+      <c r="H122">
+        <v>120</v>
+      </c>
+      <c r="I122" t="s">
+        <v>86</v>
+      </c>
+      <c r="J122">
         <v>4319</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>158</v>
       </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
       <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
         <v>4161</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5395,23 +5764,26 @@
       <c r="G123">
         <v>121</v>
       </c>
-      <c r="H123" t="s">
-        <v>85</v>
-      </c>
-      <c r="I123">
+      <c r="H123">
+        <v>121</v>
+      </c>
+      <c r="I123" t="s">
+        <v>86</v>
+      </c>
+      <c r="J123">
         <v>4319</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>158</v>
       </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
       <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
         <v>4161</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5433,23 +5805,26 @@
       <c r="G124">
         <v>122</v>
       </c>
-      <c r="H124" t="s">
-        <v>86</v>
-      </c>
-      <c r="I124">
+      <c r="H124">
+        <v>122</v>
+      </c>
+      <c r="I124" t="s">
+        <v>87</v>
+      </c>
+      <c r="J124">
         <v>4429</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>165</v>
       </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
       <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
         <v>4264</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5471,23 +5846,26 @@
       <c r="G125">
         <v>123</v>
       </c>
-      <c r="H125" t="s">
-        <v>86</v>
-      </c>
-      <c r="I125">
+      <c r="H125">
+        <v>123</v>
+      </c>
+      <c r="I125" t="s">
+        <v>87</v>
+      </c>
+      <c r="J125">
         <v>4429</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>165</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
       <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
         <v>4264</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5509,23 +5887,26 @@
       <c r="G126">
         <v>124</v>
       </c>
-      <c r="H126" t="s">
-        <v>87</v>
-      </c>
-      <c r="I126">
+      <c r="H126">
+        <v>124</v>
+      </c>
+      <c r="I126" t="s">
+        <v>88</v>
+      </c>
+      <c r="J126">
         <v>4662</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>169</v>
       </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
       <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
         <v>4493</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5547,23 +5928,26 @@
       <c r="G127">
         <v>125</v>
       </c>
-      <c r="H127" t="s">
-        <v>87</v>
-      </c>
-      <c r="I127">
+      <c r="H127">
+        <v>125</v>
+      </c>
+      <c r="I127" t="s">
+        <v>88</v>
+      </c>
+      <c r="J127">
         <v>4662</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>169</v>
       </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
       <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
         <v>4493</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5585,23 +5969,26 @@
       <c r="G128">
         <v>126</v>
       </c>
-      <c r="H128" t="s">
-        <v>88</v>
-      </c>
-      <c r="I128">
+      <c r="H128">
+        <v>126</v>
+      </c>
+      <c r="I128" t="s">
+        <v>89</v>
+      </c>
+      <c r="J128">
         <v>4776</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>175</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
       <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
         <v>4601</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5623,23 +6010,26 @@
       <c r="G129">
         <v>127</v>
       </c>
-      <c r="H129" t="s">
-        <v>88</v>
-      </c>
-      <c r="I129">
+      <c r="H129">
+        <v>127</v>
+      </c>
+      <c r="I129" t="s">
+        <v>89</v>
+      </c>
+      <c r="J129">
         <v>4776</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>175</v>
       </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
       <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
         <v>4601</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5661,23 +6051,26 @@
       <c r="G130">
         <v>128</v>
       </c>
-      <c r="H130" t="s">
-        <v>89</v>
-      </c>
-      <c r="I130">
+      <c r="H130">
+        <v>128</v>
+      </c>
+      <c r="I130" t="s">
+        <v>90</v>
+      </c>
+      <c r="J130">
         <v>5065</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>175</v>
       </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
       <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
         <v>4890</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5699,23 +6092,26 @@
       <c r="G131">
         <v>129</v>
       </c>
-      <c r="H131" t="s">
-        <v>89</v>
-      </c>
-      <c r="I131">
+      <c r="H131">
+        <v>129</v>
+      </c>
+      <c r="I131" t="s">
+        <v>90</v>
+      </c>
+      <c r="J131">
         <v>5065</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>175</v>
       </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
       <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
         <v>4890</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5737,23 +6133,26 @@
       <c r="G132">
         <v>130</v>
       </c>
-      <c r="H132" t="s">
-        <v>90</v>
-      </c>
-      <c r="I132">
+      <c r="H132">
+        <v>130</v>
+      </c>
+      <c r="I132" t="s">
+        <v>91</v>
+      </c>
+      <c r="J132">
         <v>5161</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>190</v>
       </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
       <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
         <v>4971</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5775,23 +6174,26 @@
       <c r="G133">
         <v>131</v>
       </c>
-      <c r="H133" t="s">
-        <v>90</v>
-      </c>
-      <c r="I133">
+      <c r="H133">
+        <v>131</v>
+      </c>
+      <c r="I133" t="s">
+        <v>91</v>
+      </c>
+      <c r="J133">
         <v>5161</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>190</v>
       </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
       <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
         <v>4971</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5813,23 +6215,26 @@
       <c r="G134">
         <v>132</v>
       </c>
-      <c r="H134" t="s">
-        <v>91</v>
-      </c>
-      <c r="I134">
+      <c r="H134">
+        <v>132</v>
+      </c>
+      <c r="I134" t="s">
+        <v>92</v>
+      </c>
+      <c r="J134">
         <v>5161</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>190</v>
       </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
       <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
         <v>4971</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5851,23 +6256,26 @@
       <c r="G135">
         <v>133</v>
       </c>
-      <c r="H135" t="s">
-        <v>91</v>
-      </c>
-      <c r="I135">
+      <c r="H135">
+        <v>133</v>
+      </c>
+      <c r="I135" t="s">
+        <v>92</v>
+      </c>
+      <c r="J135">
         <v>5161</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>190</v>
       </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
       <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
         <v>4971</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5889,23 +6297,26 @@
       <c r="G136">
         <v>134</v>
       </c>
-      <c r="H136" t="s">
-        <v>92</v>
-      </c>
-      <c r="I136">
+      <c r="H136">
+        <v>134</v>
+      </c>
+      <c r="I136" t="s">
+        <v>93</v>
+      </c>
+      <c r="J136">
         <v>5391</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>200</v>
       </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
       <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
         <v>5191</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5927,23 +6338,26 @@
       <c r="G137">
         <v>135</v>
       </c>
-      <c r="H137" t="s">
-        <v>92</v>
-      </c>
-      <c r="I137">
+      <c r="H137">
+        <v>135</v>
+      </c>
+      <c r="I137" t="s">
+        <v>93</v>
+      </c>
+      <c r="J137">
         <v>5391</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>200</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
       <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
         <v>5191</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5965,23 +6379,26 @@
       <c r="G138">
         <v>136</v>
       </c>
-      <c r="H138" t="s">
-        <v>93</v>
-      </c>
-      <c r="I138">
+      <c r="H138">
+        <v>136</v>
+      </c>
+      <c r="I138" t="s">
+        <v>94</v>
+      </c>
+      <c r="J138">
         <v>5391</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>200</v>
       </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
       <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
         <v>5191</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6003,23 +6420,26 @@
       <c r="G139">
         <v>137</v>
       </c>
-      <c r="H139" t="s">
-        <v>93</v>
-      </c>
-      <c r="I139">
+      <c r="H139">
+        <v>137</v>
+      </c>
+      <c r="I139" t="s">
+        <v>94</v>
+      </c>
+      <c r="J139">
         <v>5391</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>200</v>
       </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
       <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
         <v>5191</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6041,23 +6461,26 @@
       <c r="G140">
         <v>138</v>
       </c>
-      <c r="H140" t="s">
-        <v>94</v>
-      </c>
-      <c r="I140">
+      <c r="H140">
+        <v>138</v>
+      </c>
+      <c r="I140" t="s">
+        <v>95</v>
+      </c>
+      <c r="J140">
         <v>5662</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>209</v>
       </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
       <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
         <v>5453</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6079,23 +6502,26 @@
       <c r="G141">
         <v>139</v>
       </c>
-      <c r="H141" t="s">
-        <v>94</v>
-      </c>
-      <c r="I141">
+      <c r="H141">
+        <v>139</v>
+      </c>
+      <c r="I141" t="s">
+        <v>95</v>
+      </c>
+      <c r="J141">
         <v>5662</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>209</v>
       </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
       <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
         <v>5453</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6117,23 +6543,26 @@
       <c r="G142">
         <v>140</v>
       </c>
-      <c r="H142" t="s">
-        <v>95</v>
-      </c>
-      <c r="I142">
+      <c r="H142">
+        <v>140</v>
+      </c>
+      <c r="I142" t="s">
+        <v>96</v>
+      </c>
+      <c r="J142">
         <v>5836</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>209</v>
       </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
       <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
         <v>5627</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6155,23 +6584,26 @@
       <c r="G143">
         <v>141</v>
       </c>
-      <c r="H143" t="s">
-        <v>95</v>
-      </c>
-      <c r="I143">
+      <c r="H143">
+        <v>141</v>
+      </c>
+      <c r="I143" t="s">
+        <v>96</v>
+      </c>
+      <c r="J143">
         <v>5836</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>209</v>
       </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
       <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
         <v>5627</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6193,23 +6625,26 @@
       <c r="G144">
         <v>142</v>
       </c>
-      <c r="H144" t="s">
-        <v>96</v>
-      </c>
-      <c r="I144">
+      <c r="H144">
+        <v>142</v>
+      </c>
+      <c r="I144" t="s">
+        <v>97</v>
+      </c>
+      <c r="J144">
         <v>5836</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>209</v>
       </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
       <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
         <v>5627</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6231,23 +6666,26 @@
       <c r="G145">
         <v>143</v>
       </c>
-      <c r="H145" t="s">
-        <v>96</v>
-      </c>
-      <c r="I145">
+      <c r="H145">
+        <v>143</v>
+      </c>
+      <c r="I145" t="s">
+        <v>97</v>
+      </c>
+      <c r="J145">
         <v>5836</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>209</v>
       </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
       <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
         <v>5627</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6269,23 +6707,26 @@
       <c r="G146">
         <v>144</v>
       </c>
-      <c r="H146" t="s">
-        <v>97</v>
-      </c>
-      <c r="I146">
+      <c r="H146">
+        <v>144</v>
+      </c>
+      <c r="I146" t="s">
+        <v>98</v>
+      </c>
+      <c r="J146">
         <v>6026</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>222</v>
       </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
       <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
         <v>5804</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6307,23 +6748,26 @@
       <c r="G147">
         <v>145</v>
       </c>
-      <c r="H147" t="s">
-        <v>97</v>
-      </c>
-      <c r="I147">
+      <c r="H147">
+        <v>145</v>
+      </c>
+      <c r="I147" t="s">
+        <v>98</v>
+      </c>
+      <c r="J147">
         <v>6026</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>222</v>
       </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
       <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
         <v>5804</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6345,23 +6789,26 @@
       <c r="G148">
         <v>146</v>
       </c>
-      <c r="H148" t="s">
-        <v>98</v>
-      </c>
-      <c r="I148">
+      <c r="H148">
+        <v>146</v>
+      </c>
+      <c r="I148" t="s">
+        <v>99</v>
+      </c>
+      <c r="J148">
         <v>6140</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>230</v>
       </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
       <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
         <v>5910</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6383,23 +6830,26 @@
       <c r="G149">
         <v>147</v>
       </c>
-      <c r="H149" t="s">
-        <v>98</v>
-      </c>
-      <c r="I149">
+      <c r="H149">
+        <v>147</v>
+      </c>
+      <c r="I149" t="s">
+        <v>99</v>
+      </c>
+      <c r="J149">
         <v>6140</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>230</v>
       </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
       <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
         <v>5910</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6421,23 +6871,26 @@
       <c r="G150">
         <v>148</v>
       </c>
-      <c r="H150" t="s">
-        <v>99</v>
-      </c>
-      <c r="I150">
+      <c r="H150">
+        <v>148</v>
+      </c>
+      <c r="I150" t="s">
+        <v>100</v>
+      </c>
+      <c r="J150">
         <v>6140</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>230</v>
       </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
       <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
         <v>5910</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6459,23 +6912,26 @@
       <c r="G151">
         <v>149</v>
       </c>
-      <c r="H151" t="s">
-        <v>99</v>
-      </c>
-      <c r="I151">
+      <c r="H151">
+        <v>149</v>
+      </c>
+      <c r="I151" t="s">
+        <v>100</v>
+      </c>
+      <c r="J151">
         <v>6140</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>230</v>
       </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
       <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
         <v>5910</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6497,23 +6953,26 @@
       <c r="G152">
         <v>150</v>
       </c>
-      <c r="H152" t="s">
-        <v>100</v>
-      </c>
-      <c r="I152">
+      <c r="H152">
+        <v>150</v>
+      </c>
+      <c r="I152" t="s">
+        <v>101</v>
+      </c>
+      <c r="J152">
         <v>6315</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>241</v>
       </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
       <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
         <v>6074</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6535,23 +6994,26 @@
       <c r="G153">
         <v>151</v>
       </c>
-      <c r="H153" t="s">
-        <v>100</v>
-      </c>
-      <c r="I153">
+      <c r="H153">
+        <v>151</v>
+      </c>
+      <c r="I153" t="s">
+        <v>101</v>
+      </c>
+      <c r="J153">
         <v>6315</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>241</v>
       </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
       <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
         <v>6074</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6573,23 +7035,26 @@
       <c r="G154">
         <v>152</v>
       </c>
-      <c r="H154" t="s">
-        <v>101</v>
-      </c>
-      <c r="I154">
+      <c r="H154">
+        <v>152</v>
+      </c>
+      <c r="I154" t="s">
+        <v>102</v>
+      </c>
+      <c r="J154">
         <v>6559</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>249</v>
       </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
       <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
         <v>6310</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6611,23 +7076,26 @@
       <c r="G155">
         <v>153</v>
       </c>
-      <c r="H155" t="s">
-        <v>101</v>
-      </c>
-      <c r="I155">
+      <c r="H155">
+        <v>153</v>
+      </c>
+      <c r="I155" t="s">
+        <v>102</v>
+      </c>
+      <c r="J155">
         <v>6559</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>249</v>
       </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
       <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
         <v>6310</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6649,23 +7117,26 @@
       <c r="G156">
         <v>154</v>
       </c>
-      <c r="H156" t="s">
-        <v>102</v>
-      </c>
-      <c r="I156">
+      <c r="H156">
+        <v>154</v>
+      </c>
+      <c r="I156" t="s">
+        <v>103</v>
+      </c>
+      <c r="J156">
         <v>6559</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>249</v>
       </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
       <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
         <v>6310</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6687,23 +7158,26 @@
       <c r="G157">
         <v>155</v>
       </c>
-      <c r="H157" t="s">
-        <v>102</v>
-      </c>
-      <c r="I157">
+      <c r="H157">
+        <v>155</v>
+      </c>
+      <c r="I157" t="s">
+        <v>103</v>
+      </c>
+      <c r="J157">
         <v>6559</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>249</v>
       </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
       <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
         <v>6310</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6725,23 +7199,26 @@
       <c r="G158">
         <v>156</v>
       </c>
-      <c r="H158" t="s">
-        <v>103</v>
-      </c>
-      <c r="I158">
+      <c r="H158">
+        <v>156</v>
+      </c>
+      <c r="I158" t="s">
+        <v>104</v>
+      </c>
+      <c r="J158">
         <v>6701</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>249</v>
       </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
       <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
         <v>6452</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6763,23 +7240,26 @@
       <c r="G159">
         <v>157</v>
       </c>
-      <c r="H159" t="s">
-        <v>103</v>
-      </c>
-      <c r="I159">
+      <c r="H159">
+        <v>157</v>
+      </c>
+      <c r="I159" t="s">
+        <v>104</v>
+      </c>
+      <c r="J159">
         <v>6701</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>249</v>
       </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
       <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
         <v>6452</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6801,23 +7281,26 @@
       <c r="G160">
         <v>158</v>
       </c>
-      <c r="H160" t="s">
-        <v>104</v>
-      </c>
-      <c r="I160">
+      <c r="H160">
+        <v>158</v>
+      </c>
+      <c r="I160" t="s">
+        <v>105</v>
+      </c>
+      <c r="J160">
         <v>6797</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>249</v>
       </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
       <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
         <v>6548</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6839,23 +7322,26 @@
       <c r="G161">
         <v>159</v>
       </c>
-      <c r="H161" t="s">
-        <v>104</v>
-      </c>
-      <c r="I161">
+      <c r="H161">
+        <v>159</v>
+      </c>
+      <c r="I161" t="s">
+        <v>105</v>
+      </c>
+      <c r="J161">
         <v>6797</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>249</v>
       </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
       <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
         <v>6548</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6877,23 +7363,26 @@
       <c r="G162">
         <v>160</v>
       </c>
-      <c r="H162" t="s">
-        <v>105</v>
-      </c>
-      <c r="I162">
+      <c r="H162">
+        <v>160</v>
+      </c>
+      <c r="I162" t="s">
+        <v>106</v>
+      </c>
+      <c r="J162">
         <v>6882</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>249</v>
       </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
       <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
         <v>6633</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6915,23 +7404,26 @@
       <c r="G163">
         <v>161</v>
       </c>
-      <c r="H163" t="s">
-        <v>105</v>
-      </c>
-      <c r="I163">
+      <c r="H163">
+        <v>161</v>
+      </c>
+      <c r="I163" t="s">
+        <v>106</v>
+      </c>
+      <c r="J163">
         <v>6882</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>249</v>
       </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
       <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
         <v>6633</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6953,23 +7445,26 @@
       <c r="G164">
         <v>162</v>
       </c>
-      <c r="H164" t="s">
-        <v>106</v>
-      </c>
-      <c r="I164">
+      <c r="H164">
+        <v>162</v>
+      </c>
+      <c r="I164" t="s">
+        <v>107</v>
+      </c>
+      <c r="J164">
         <v>7100</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>260</v>
       </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
       <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
         <v>6840</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6991,23 +7486,26 @@
       <c r="G165">
         <v>163</v>
       </c>
-      <c r="H165" t="s">
-        <v>106</v>
-      </c>
-      <c r="I165">
+      <c r="H165">
+        <v>163</v>
+      </c>
+      <c r="I165" t="s">
+        <v>107</v>
+      </c>
+      <c r="J165">
         <v>7100</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>260</v>
       </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
       <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
         <v>6840</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7029,23 +7527,26 @@
       <c r="G166">
         <v>164</v>
       </c>
-      <c r="H166" t="s">
-        <v>107</v>
-      </c>
-      <c r="I166">
+      <c r="H166">
+        <v>164</v>
+      </c>
+      <c r="I166" t="s">
+        <v>108</v>
+      </c>
+      <c r="J166">
         <v>7100</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>260</v>
       </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
       <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
         <v>6840</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7067,23 +7568,26 @@
       <c r="G167">
         <v>165</v>
       </c>
-      <c r="H167" t="s">
-        <v>107</v>
-      </c>
-      <c r="I167">
+      <c r="H167">
+        <v>165</v>
+      </c>
+      <c r="I167" t="s">
+        <v>108</v>
+      </c>
+      <c r="J167">
         <v>7100</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>260</v>
       </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
       <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
         <v>6840</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7105,23 +7609,26 @@
       <c r="G168">
         <v>166</v>
       </c>
-      <c r="H168" t="s">
-        <v>108</v>
-      </c>
-      <c r="I168">
+      <c r="H168">
+        <v>166</v>
+      </c>
+      <c r="I168" t="s">
+        <v>109</v>
+      </c>
+      <c r="J168">
         <v>7385</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <v>269</v>
       </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
       <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
         <v>7116</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7143,23 +7650,26 @@
       <c r="G169">
         <v>167</v>
       </c>
-      <c r="H169" t="s">
-        <v>108</v>
-      </c>
-      <c r="I169">
+      <c r="H169">
+        <v>167</v>
+      </c>
+      <c r="I169" t="s">
+        <v>109</v>
+      </c>
+      <c r="J169">
         <v>7385</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <v>269</v>
       </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
       <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
         <v>7116</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7181,23 +7691,26 @@
       <c r="G170">
         <v>168</v>
       </c>
-      <c r="H170" t="s">
-        <v>109</v>
-      </c>
-      <c r="I170">
+      <c r="H170">
+        <v>168</v>
+      </c>
+      <c r="I170" t="s">
+        <v>110</v>
+      </c>
+      <c r="J170">
         <v>7481</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>269</v>
       </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
       <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
         <v>7212</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7219,23 +7732,26 @@
       <c r="G171">
         <v>169</v>
       </c>
-      <c r="H171" t="s">
-        <v>109</v>
-      </c>
-      <c r="I171">
+      <c r="H171">
+        <v>169</v>
+      </c>
+      <c r="I171" t="s">
+        <v>110</v>
+      </c>
+      <c r="J171">
         <v>7481</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>269</v>
       </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
       <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
         <v>7212</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7257,23 +7773,26 @@
       <c r="G172">
         <v>170</v>
       </c>
-      <c r="H172" t="s">
-        <v>110</v>
-      </c>
-      <c r="I172">
+      <c r="H172">
+        <v>170</v>
+      </c>
+      <c r="I172" t="s">
+        <v>111</v>
+      </c>
+      <c r="J172">
         <v>7481</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>269</v>
       </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
       <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
         <v>7212</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7295,23 +7814,26 @@
       <c r="G173">
         <v>171</v>
       </c>
-      <c r="H173" t="s">
-        <v>110</v>
-      </c>
-      <c r="I173">
+      <c r="H173">
+        <v>171</v>
+      </c>
+      <c r="I173" t="s">
+        <v>111</v>
+      </c>
+      <c r="J173">
         <v>7481</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>269</v>
       </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
       <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
         <v>7212</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7333,23 +7855,26 @@
       <c r="G174">
         <v>172</v>
       </c>
-      <c r="H174" t="s">
-        <v>111</v>
-      </c>
-      <c r="I174">
+      <c r="H174">
+        <v>172</v>
+      </c>
+      <c r="I174" t="s">
+        <v>112</v>
+      </c>
+      <c r="J174">
         <v>7554</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>269</v>
       </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
       <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
         <v>7285</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7371,23 +7896,26 @@
       <c r="G175">
         <v>173</v>
       </c>
-      <c r="H175" t="s">
-        <v>111</v>
-      </c>
-      <c r="I175">
+      <c r="H175">
+        <v>173</v>
+      </c>
+      <c r="I175" t="s">
+        <v>112</v>
+      </c>
+      <c r="J175">
         <v>7554</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>269</v>
       </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
       <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
         <v>7285</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7409,23 +7937,26 @@
       <c r="G176">
         <v>174</v>
       </c>
-      <c r="H176" t="s">
-        <v>112</v>
-      </c>
-      <c r="I176">
+      <c r="H176">
+        <v>174</v>
+      </c>
+      <c r="I176" t="s">
+        <v>113</v>
+      </c>
+      <c r="J176">
         <v>7674</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>276</v>
       </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
       <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
         <v>7398</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7447,23 +7978,26 @@
       <c r="G177">
         <v>175</v>
       </c>
-      <c r="H177" t="s">
-        <v>112</v>
-      </c>
-      <c r="I177">
+      <c r="H177">
+        <v>175</v>
+      </c>
+      <c r="I177" t="s">
+        <v>113</v>
+      </c>
+      <c r="J177">
         <v>7674</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>276</v>
       </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
       <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
         <v>7398</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:13">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7485,23 +8019,26 @@
       <c r="G178">
         <v>176</v>
       </c>
-      <c r="H178" t="s">
-        <v>113</v>
-      </c>
-      <c r="I178">
+      <c r="H178">
+        <v>176</v>
+      </c>
+      <c r="I178" t="s">
+        <v>114</v>
+      </c>
+      <c r="J178">
         <v>7798</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>283</v>
       </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
       <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
         <v>7515</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:13">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7523,23 +8060,26 @@
       <c r="G179">
         <v>177</v>
       </c>
-      <c r="H179" t="s">
-        <v>113</v>
-      </c>
-      <c r="I179">
+      <c r="H179">
+        <v>177</v>
+      </c>
+      <c r="I179" t="s">
+        <v>114</v>
+      </c>
+      <c r="J179">
         <v>7798</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>283</v>
       </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
       <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
         <v>7515</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:13">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7561,23 +8101,26 @@
       <c r="G180">
         <v>178</v>
       </c>
-      <c r="H180" t="s">
-        <v>114</v>
-      </c>
-      <c r="I180">
+      <c r="H180">
+        <v>178</v>
+      </c>
+      <c r="I180" t="s">
+        <v>115</v>
+      </c>
+      <c r="J180">
         <v>7940</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>288</v>
       </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
       <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
         <v>7652</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:13">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7599,23 +8142,26 @@
       <c r="G181">
         <v>179</v>
       </c>
-      <c r="H181" t="s">
-        <v>114</v>
-      </c>
-      <c r="I181">
+      <c r="H181">
+        <v>179</v>
+      </c>
+      <c r="I181" t="s">
+        <v>115</v>
+      </c>
+      <c r="J181">
         <v>7940</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>288</v>
       </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
       <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
         <v>7652</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:13">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7637,23 +8183,26 @@
       <c r="G182">
         <v>180</v>
       </c>
-      <c r="H182" t="s">
-        <v>115</v>
-      </c>
-      <c r="I182">
+      <c r="H182">
+        <v>180</v>
+      </c>
+      <c r="I182" t="s">
+        <v>116</v>
+      </c>
+      <c r="J182">
         <v>8345</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>296</v>
       </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
       <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
         <v>8049</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:13">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7675,23 +8224,26 @@
       <c r="G183">
         <v>181</v>
       </c>
-      <c r="H183" t="s">
-        <v>115</v>
-      </c>
-      <c r="I183">
+      <c r="H183">
+        <v>181</v>
+      </c>
+      <c r="I183" t="s">
+        <v>116</v>
+      </c>
+      <c r="J183">
         <v>8345</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>296</v>
       </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
       <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
         <v>8049</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:13">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7713,23 +8265,26 @@
       <c r="G184">
         <v>182</v>
       </c>
-      <c r="H184" t="s">
-        <v>116</v>
-      </c>
-      <c r="I184">
+      <c r="H184">
+        <v>182</v>
+      </c>
+      <c r="I184" t="s">
+        <v>117</v>
+      </c>
+      <c r="J184">
         <v>8345</v>
       </c>
-      <c r="J184">
+      <c r="K184">
         <v>296</v>
       </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
       <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
         <v>8049</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:13">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7751,23 +8306,26 @@
       <c r="G185">
         <v>183</v>
       </c>
-      <c r="H185" t="s">
-        <v>116</v>
-      </c>
-      <c r="I185">
+      <c r="H185">
+        <v>183</v>
+      </c>
+      <c r="I185" t="s">
+        <v>117</v>
+      </c>
+      <c r="J185">
         <v>8345</v>
       </c>
-      <c r="J185">
+      <c r="K185">
         <v>296</v>
       </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
       <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
         <v>8049</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:13">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7789,23 +8347,26 @@
       <c r="G186">
         <v>184</v>
       </c>
-      <c r="H186" t="s">
-        <v>117</v>
-      </c>
-      <c r="I186">
+      <c r="H186">
+        <v>184</v>
+      </c>
+      <c r="I186" t="s">
+        <v>118</v>
+      </c>
+      <c r="J186">
         <v>8619</v>
       </c>
-      <c r="J186">
+      <c r="K186">
         <v>296</v>
       </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
       <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
         <v>8323</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:13">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7827,23 +8388,26 @@
       <c r="G187">
         <v>185</v>
       </c>
-      <c r="H187" t="s">
-        <v>117</v>
-      </c>
-      <c r="I187">
+      <c r="H187">
+        <v>185</v>
+      </c>
+      <c r="I187" t="s">
+        <v>118</v>
+      </c>
+      <c r="J187">
         <v>8619</v>
       </c>
-      <c r="J187">
+      <c r="K187">
         <v>296</v>
       </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
       <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
         <v>8323</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:13">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7865,23 +8429,26 @@
       <c r="G188">
         <v>186</v>
       </c>
-      <c r="H188" t="s">
-        <v>118</v>
-      </c>
-      <c r="I188">
+      <c r="H188">
+        <v>186</v>
+      </c>
+      <c r="I188" t="s">
+        <v>119</v>
+      </c>
+      <c r="J188">
         <v>8619</v>
       </c>
-      <c r="J188">
+      <c r="K188">
         <v>296</v>
       </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
       <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
         <v>8323</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:13">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7903,23 +8470,26 @@
       <c r="G189">
         <v>187</v>
       </c>
-      <c r="H189" t="s">
-        <v>118</v>
-      </c>
-      <c r="I189">
+      <c r="H189">
+        <v>187</v>
+      </c>
+      <c r="I189" t="s">
+        <v>119</v>
+      </c>
+      <c r="J189">
         <v>8619</v>
       </c>
-      <c r="J189">
+      <c r="K189">
         <v>296</v>
       </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
       <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
         <v>8323</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:13">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7941,23 +8511,26 @@
       <c r="G190">
         <v>188</v>
       </c>
-      <c r="H190" t="s">
-        <v>119</v>
-      </c>
-      <c r="I190">
+      <c r="H190">
+        <v>188</v>
+      </c>
+      <c r="I190" t="s">
+        <v>120</v>
+      </c>
+      <c r="J190">
         <v>8837</v>
       </c>
-      <c r="J190">
+      <c r="K190">
         <v>305</v>
       </c>
-      <c r="K190">
-        <v>0</v>
-      </c>
       <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
         <v>8532</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:13">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7979,23 +8552,26 @@
       <c r="G191">
         <v>189</v>
       </c>
-      <c r="H191" t="s">
-        <v>119</v>
-      </c>
-      <c r="I191">
+      <c r="H191">
+        <v>189</v>
+      </c>
+      <c r="I191" t="s">
+        <v>120</v>
+      </c>
+      <c r="J191">
         <v>8837</v>
       </c>
-      <c r="J191">
+      <c r="K191">
         <v>305</v>
       </c>
-      <c r="K191">
-        <v>0</v>
-      </c>
       <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
         <v>8532</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:13">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8017,23 +8593,26 @@
       <c r="G192">
         <v>190</v>
       </c>
-      <c r="H192" t="s">
-        <v>120</v>
-      </c>
-      <c r="I192">
+      <c r="H192">
+        <v>190</v>
+      </c>
+      <c r="I192" t="s">
+        <v>121</v>
+      </c>
+      <c r="J192">
         <v>8998</v>
       </c>
-      <c r="J192">
+      <c r="K192">
         <v>308</v>
       </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
       <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
         <v>8690</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:13">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8055,19 +8634,22 @@
       <c r="G193">
         <v>191</v>
       </c>
-      <c r="H193" t="s">
-        <v>120</v>
-      </c>
-      <c r="I193">
+      <c r="H193">
+        <v>191</v>
+      </c>
+      <c r="I193" t="s">
+        <v>121</v>
+      </c>
+      <c r="J193">
         <v>8998</v>
       </c>
-      <c r="J193">
+      <c r="K193">
         <v>308</v>
       </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
       <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>06-11-2020</t>
+  </si>
+  <si>
+    <t>06-12-2020</t>
   </si>
 </sst>
 </file>
@@ -746,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,8 +804,11 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -833,23 +842,26 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -883,14 +895,14 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
+      <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -898,8 +910,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -933,14 +948,14 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4">
+      <c r="L4">
         <v>2</v>
       </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -948,8 +963,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -983,23 +1001,26 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1033,23 +1054,26 @@
       <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1083,23 +1107,26 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7">
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1133,23 +1160,26 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1183,23 +1213,26 @@
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1233,23 +1266,26 @@
       <c r="K10">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1283,23 +1319,26 @@
       <c r="K11">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11">
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1333,23 +1372,26 @@
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1383,23 +1425,26 @@
       <c r="K13">
         <v>11</v>
       </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13">
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1433,23 +1478,26 @@
       <c r="K14">
         <v>12</v>
       </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14">
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1483,23 +1531,26 @@
       <c r="K15">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>1</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1533,23 +1584,26 @@
       <c r="K16">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1583,23 +1637,26 @@
       <c r="K17">
         <v>15</v>
       </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17">
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>1</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1633,23 +1690,26 @@
       <c r="K18">
         <v>16</v>
       </c>
-      <c r="L18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18">
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>1</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1683,23 +1743,26 @@
       <c r="K19">
         <v>17</v>
       </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19">
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19">
         <v>2</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1733,23 +1796,26 @@
       <c r="K20">
         <v>18</v>
       </c>
-      <c r="L20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20">
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>1</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1783,23 +1849,26 @@
       <c r="K21">
         <v>19</v>
       </c>
-      <c r="L21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21">
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1833,23 +1902,26 @@
       <c r="K22">
         <v>20</v>
       </c>
-      <c r="L22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22">
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1883,23 +1955,26 @@
       <c r="K23">
         <v>21</v>
       </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23">
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23">
         <v>2</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1933,23 +2008,26 @@
       <c r="K24">
         <v>22</v>
       </c>
-      <c r="L24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24">
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24">
         <v>2</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>1</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1983,23 +2061,26 @@
       <c r="K25">
         <v>23</v>
       </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25">
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>1</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2033,23 +2114,26 @@
       <c r="K26">
         <v>24</v>
       </c>
-      <c r="L26" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26">
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2083,23 +2167,26 @@
       <c r="K27">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27">
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>1</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2133,23 +2220,26 @@
       <c r="K28">
         <v>26</v>
       </c>
-      <c r="L28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28">
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2183,23 +2273,26 @@
       <c r="K29">
         <v>27</v>
       </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29">
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29">
         <v>3</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>1</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2233,23 +2326,26 @@
       <c r="K30">
         <v>28</v>
       </c>
-      <c r="L30" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30">
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30">
         <v>155</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2257,7 +2353,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -2283,23 +2379,26 @@
       <c r="K31">
         <v>30</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31">
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31">
         <v>201</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2307,7 +2406,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -2333,23 +2432,26 @@
       <c r="K32">
         <v>32</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32">
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32">
         <v>226</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2357,7 +2459,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>34</v>
@@ -2383,23 +2485,26 @@
       <c r="K33">
         <v>34</v>
       </c>
-      <c r="L33" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33">
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33">
         <v>238</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2407,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>36</v>
@@ -2433,23 +2538,26 @@
       <c r="K34">
         <v>36</v>
       </c>
-      <c r="L34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34">
+      <c r="L34">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34">
         <v>293</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>3</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2457,7 +2565,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>38</v>
@@ -2483,23 +2591,26 @@
       <c r="K35">
         <v>38</v>
       </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35">
+      <c r="L35">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35">
         <v>341</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>3</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2507,7 +2618,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>40</v>
@@ -2533,23 +2644,26 @@
       <c r="K36">
         <v>40</v>
       </c>
-      <c r="L36" t="s">
-        <v>49</v>
-      </c>
-      <c r="M36">
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36">
         <v>413</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>6</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2557,7 +2671,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>42</v>
@@ -2583,23 +2697,26 @@
       <c r="K37">
         <v>42</v>
       </c>
-      <c r="L37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M37">
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37">
         <v>484</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>7</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2607,7 +2724,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>44</v>
@@ -2633,23 +2750,26 @@
       <c r="K38">
         <v>44</v>
       </c>
-      <c r="L38" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38">
+      <c r="L38">
+        <v>44</v>
+      </c>
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38">
         <v>515</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>7</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2657,7 +2777,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>46</v>
@@ -2683,23 +2803,26 @@
       <c r="K39">
         <v>46</v>
       </c>
-      <c r="L39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39">
+      <c r="L39">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39">
         <v>603</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>7</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2707,7 +2830,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>48</v>
@@ -2733,23 +2856,26 @@
       <c r="K40">
         <v>48</v>
       </c>
-      <c r="L40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40">
+      <c r="L40">
+        <v>48</v>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40">
         <v>733</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>9</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2757,7 +2883,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D41">
         <v>50</v>
@@ -2783,23 +2909,26 @@
       <c r="K41">
         <v>50</v>
       </c>
-      <c r="L41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M41">
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41">
         <v>849</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>15</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2807,7 +2936,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D42">
         <v>52</v>
@@ -2833,23 +2962,26 @@
       <c r="K42">
         <v>52</v>
       </c>
-      <c r="L42" t="s">
-        <v>55</v>
-      </c>
-      <c r="M42">
+      <c r="L42">
+        <v>52</v>
+      </c>
+      <c r="M42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42">
         <v>966</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>16</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2857,7 +2989,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <v>54</v>
@@ -2883,23 +3015,26 @@
       <c r="K43">
         <v>54</v>
       </c>
-      <c r="L43" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43">
+      <c r="L43">
+        <v>54</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43">
         <v>1112</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>17</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2907,7 +3042,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <v>56</v>
@@ -2933,23 +3068,26 @@
       <c r="K44">
         <v>56</v>
       </c>
-      <c r="L44" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44">
+      <c r="L44">
+        <v>56</v>
+      </c>
+      <c r="M44" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44">
         <v>1209</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>18</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2957,7 +3095,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>58</v>
@@ -2983,23 +3121,26 @@
       <c r="K45">
         <v>58</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45">
         <v>58</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45">
         <v>1326</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>19</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3007,7 +3148,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>60</v>
@@ -3033,23 +3174,26 @@
       <c r="K46">
         <v>60</v>
       </c>
-      <c r="L46" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46">
+      <c r="L46">
+        <v>60</v>
+      </c>
+      <c r="M46" t="s">
+        <v>60</v>
+      </c>
+      <c r="N46">
         <v>1404</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>19</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3057,7 +3201,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>62</v>
@@ -3083,23 +3227,26 @@
       <c r="K47">
         <v>62</v>
       </c>
-      <c r="L47" t="s">
-        <v>60</v>
-      </c>
-      <c r="M47">
+      <c r="L47">
+        <v>62</v>
+      </c>
+      <c r="M47" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47">
         <v>1454</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>31</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3107,7 +3254,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D48">
         <v>64</v>
@@ -3133,23 +3280,26 @@
       <c r="K48">
         <v>64</v>
       </c>
-      <c r="L48" t="s">
-        <v>61</v>
-      </c>
-      <c r="M48">
+      <c r="L48">
+        <v>64</v>
+      </c>
+      <c r="M48" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48">
         <v>1530</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>36</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3157,7 +3307,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D49">
         <v>66</v>
@@ -3183,23 +3333,26 @@
       <c r="K49">
         <v>66</v>
       </c>
-      <c r="L49" t="s">
-        <v>62</v>
-      </c>
-      <c r="M49">
+      <c r="L49">
+        <v>66</v>
+      </c>
+      <c r="M49" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49">
         <v>1628</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>40</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3207,7 +3360,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D50">
         <v>68</v>
@@ -3233,23 +3386,26 @@
       <c r="K50">
         <v>68</v>
       </c>
-      <c r="L50" t="s">
-        <v>63</v>
-      </c>
-      <c r="M50">
+      <c r="L50">
+        <v>68</v>
+      </c>
+      <c r="M50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50">
         <v>1693</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>44</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3257,7 +3413,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D51">
         <v>70</v>
@@ -3283,23 +3439,26 @@
       <c r="K51">
         <v>70</v>
       </c>
-      <c r="L51" t="s">
-        <v>64</v>
-      </c>
-      <c r="M51">
+      <c r="L51">
+        <v>70</v>
+      </c>
+      <c r="M51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51">
         <v>1761</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>45</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3307,7 +3466,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>72</v>
@@ -3333,23 +3492,26 @@
       <c r="K52">
         <v>72</v>
       </c>
-      <c r="L52" t="s">
-        <v>65</v>
-      </c>
-      <c r="M52">
+      <c r="L52">
+        <v>72</v>
+      </c>
+      <c r="M52" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52">
         <v>1804</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>45</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3357,7 +3519,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <v>74</v>
@@ -3383,23 +3545,26 @@
       <c r="K53">
         <v>74</v>
       </c>
-      <c r="L53" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53">
+      <c r="L53">
+        <v>74</v>
+      </c>
+      <c r="M53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53">
         <v>1847</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>47</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
       <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3407,7 +3572,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <v>76</v>
@@ -3433,23 +3598,26 @@
       <c r="K54">
         <v>76</v>
       </c>
-      <c r="L54" t="s">
-        <v>67</v>
-      </c>
-      <c r="M54">
+      <c r="L54">
+        <v>76</v>
+      </c>
+      <c r="M54" t="s">
+        <v>68</v>
+      </c>
+      <c r="N54">
         <v>1930</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>53</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
       <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3457,7 +3625,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>78</v>
@@ -3483,23 +3651,26 @@
       <c r="K55">
         <v>78</v>
       </c>
-      <c r="L55" t="s">
-        <v>68</v>
-      </c>
-      <c r="M55">
+      <c r="L55">
+        <v>78</v>
+      </c>
+      <c r="M55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55">
         <v>2012</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>60</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
       <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3507,7 +3678,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>80</v>
@@ -3533,23 +3704,26 @@
       <c r="K56">
         <v>80</v>
       </c>
-      <c r="L56" t="s">
-        <v>69</v>
-      </c>
-      <c r="M56">
+      <c r="L56">
+        <v>80</v>
+      </c>
+      <c r="M56" t="s">
+        <v>70</v>
+      </c>
+      <c r="N56">
         <v>2087</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>63</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
       <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3557,7 +3731,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D57">
         <v>82</v>
@@ -3583,23 +3757,26 @@
       <c r="K57">
         <v>82</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57">
+        <v>82</v>
+      </c>
+      <c r="M57" t="s">
+        <v>71</v>
+      </c>
+      <c r="N57">
+        <v>2158</v>
+      </c>
+      <c r="O57">
         <v>70</v>
       </c>
-      <c r="M57">
-        <v>2158</v>
-      </c>
-      <c r="N57">
-        <v>70</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
       <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3607,7 +3784,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D58">
         <v>84</v>
@@ -3633,23 +3810,26 @@
       <c r="K58">
         <v>84</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58">
+        <v>84</v>
+      </c>
+      <c r="M58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N58">
+        <v>2213</v>
+      </c>
+      <c r="O58">
         <v>71</v>
       </c>
-      <c r="M58">
-        <v>2213</v>
-      </c>
-      <c r="N58">
-        <v>71</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
       <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3657,7 +3837,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>86</v>
@@ -3683,23 +3863,26 @@
       <c r="K59">
         <v>86</v>
       </c>
-      <c r="L59" t="s">
-        <v>72</v>
-      </c>
-      <c r="M59">
+      <c r="L59">
+        <v>86</v>
+      </c>
+      <c r="M59" t="s">
+        <v>73</v>
+      </c>
+      <c r="N59">
         <v>2268</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>71</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
       <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3707,7 +3890,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>88</v>
@@ -3733,23 +3916,26 @@
       <c r="K60">
         <v>88</v>
       </c>
-      <c r="L60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M60">
+      <c r="L60">
+        <v>88</v>
+      </c>
+      <c r="M60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60">
         <v>2325</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>72</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
       <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3757,7 +3943,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>90</v>
@@ -3783,23 +3969,26 @@
       <c r="K61">
         <v>90</v>
       </c>
-      <c r="L61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M61">
+      <c r="L61">
+        <v>90</v>
+      </c>
+      <c r="M61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61">
         <v>2491</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>96</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
       <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3807,7 +3996,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>92</v>
@@ -3833,23 +4022,26 @@
       <c r="K62">
         <v>92</v>
       </c>
-      <c r="L62" t="s">
-        <v>75</v>
-      </c>
-      <c r="M62">
+      <c r="L62">
+        <v>92</v>
+      </c>
+      <c r="M62" t="s">
+        <v>76</v>
+      </c>
+      <c r="N62">
         <v>2643</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>100</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
       <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3857,7 +4049,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>94</v>
@@ -3883,23 +4075,26 @@
       <c r="K63">
         <v>94</v>
       </c>
-      <c r="L63" t="s">
-        <v>76</v>
-      </c>
-      <c r="M63">
+      <c r="L63">
+        <v>94</v>
+      </c>
+      <c r="M63" t="s">
+        <v>77</v>
+      </c>
+      <c r="N63">
         <v>2826</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>102</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
       <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3907,7 +4102,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <v>96</v>
@@ -3933,23 +4128,26 @@
       <c r="K64">
         <v>96</v>
       </c>
-      <c r="L64" t="s">
-        <v>77</v>
-      </c>
-      <c r="M64">
+      <c r="L64">
+        <v>96</v>
+      </c>
+      <c r="M64" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64">
         <v>2943</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>111</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
       <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3957,7 +4155,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D65">
         <v>98</v>
@@ -3983,23 +4181,26 @@
       <c r="K65">
         <v>98</v>
       </c>
-      <c r="L65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M65">
+      <c r="L65">
+        <v>98</v>
+      </c>
+      <c r="M65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N65">
         <v>2943</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>111</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
       <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4007,7 +4208,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D66">
         <v>100</v>
@@ -4033,23 +4234,26 @@
       <c r="K66">
         <v>100</v>
       </c>
-      <c r="L66" t="s">
-        <v>79</v>
-      </c>
-      <c r="M66">
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N66">
         <v>3043</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>111</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
       <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4057,7 +4261,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D67">
         <v>102</v>
@@ -4083,23 +4287,26 @@
       <c r="K67">
         <v>102</v>
       </c>
-      <c r="L67" t="s">
-        <v>80</v>
-      </c>
-      <c r="M67">
+      <c r="L67">
+        <v>102</v>
+      </c>
+      <c r="M67" t="s">
+        <v>81</v>
+      </c>
+      <c r="N67">
         <v>3141</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>113</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
       <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4107,7 +4314,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D68">
         <v>104</v>
@@ -4133,23 +4340,26 @@
       <c r="K68">
         <v>104</v>
       </c>
-      <c r="L68" t="s">
-        <v>81</v>
-      </c>
-      <c r="M68">
+      <c r="L68">
+        <v>104</v>
+      </c>
+      <c r="M68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N68">
         <v>3432</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>120</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4157,7 +4367,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D69">
         <v>106</v>
@@ -4183,23 +4393,26 @@
       <c r="K69">
         <v>106</v>
       </c>
-      <c r="L69" t="s">
-        <v>82</v>
-      </c>
-      <c r="M69">
+      <c r="L69">
+        <v>106</v>
+      </c>
+      <c r="M69" t="s">
+        <v>83</v>
+      </c>
+      <c r="N69">
         <v>3432</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>120</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
       <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4207,7 +4420,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D70">
         <v>108</v>
@@ -4233,23 +4446,26 @@
       <c r="K70">
         <v>108</v>
       </c>
-      <c r="L70" t="s">
-        <v>83</v>
-      </c>
-      <c r="M70">
+      <c r="L70">
+        <v>108</v>
+      </c>
+      <c r="M70" t="s">
+        <v>84</v>
+      </c>
+      <c r="N70">
         <v>3564</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>124</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
       <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4257,7 +4473,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D71">
         <v>110</v>
@@ -4283,23 +4499,26 @@
       <c r="K71">
         <v>110</v>
       </c>
-      <c r="L71" t="s">
-        <v>84</v>
-      </c>
-      <c r="M71">
+      <c r="L71">
+        <v>110</v>
+      </c>
+      <c r="M71" t="s">
+        <v>85</v>
+      </c>
+      <c r="N71">
         <v>3711</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>134</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
       <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4307,7 +4526,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D72">
         <v>112</v>
@@ -4333,23 +4552,26 @@
       <c r="K72">
         <v>112</v>
       </c>
-      <c r="L72" t="s">
-        <v>85</v>
-      </c>
-      <c r="M72">
+      <c r="L72">
+        <v>112</v>
+      </c>
+      <c r="M72" t="s">
+        <v>86</v>
+      </c>
+      <c r="N72">
         <v>3927</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>139</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
       <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4357,7 +4579,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D73">
         <v>114</v>
@@ -4383,23 +4605,26 @@
       <c r="K73">
         <v>114</v>
       </c>
-      <c r="L73" t="s">
-        <v>86</v>
-      </c>
-      <c r="M73">
+      <c r="L73">
+        <v>114</v>
+      </c>
+      <c r="M73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N73">
         <v>3927</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>139</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
       <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4407,7 +4632,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D74">
         <v>116</v>
@@ -4433,23 +4658,26 @@
       <c r="K74">
         <v>116</v>
       </c>
-      <c r="L74" t="s">
-        <v>87</v>
-      </c>
-      <c r="M74">
+      <c r="L74">
+        <v>116</v>
+      </c>
+      <c r="M74" t="s">
+        <v>88</v>
+      </c>
+      <c r="N74">
         <v>4020</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>144</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
       <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4457,7 +4685,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D75">
         <v>118</v>
@@ -4483,23 +4711,26 @@
       <c r="K75">
         <v>118</v>
       </c>
-      <c r="L75" t="s">
-        <v>88</v>
-      </c>
-      <c r="M75">
+      <c r="L75">
+        <v>118</v>
+      </c>
+      <c r="M75" t="s">
+        <v>89</v>
+      </c>
+      <c r="N75">
         <v>4319</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>158</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
       <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4507,7 +4738,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D76">
         <v>120</v>
@@ -4533,23 +4764,26 @@
       <c r="K76">
         <v>120</v>
       </c>
-      <c r="L76" t="s">
-        <v>89</v>
-      </c>
-      <c r="M76">
+      <c r="L76">
+        <v>120</v>
+      </c>
+      <c r="M76" t="s">
+        <v>90</v>
+      </c>
+      <c r="N76">
         <v>4319</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>158</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
       <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4557,7 +4791,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D77">
         <v>122</v>
@@ -4583,23 +4817,26 @@
       <c r="K77">
         <v>122</v>
       </c>
-      <c r="L77" t="s">
-        <v>90</v>
-      </c>
-      <c r="M77">
+      <c r="L77">
+        <v>122</v>
+      </c>
+      <c r="M77" t="s">
+        <v>91</v>
+      </c>
+      <c r="N77">
         <v>4429</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>165</v>
       </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
       <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4607,7 +4844,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D78">
         <v>124</v>
@@ -4633,23 +4870,26 @@
       <c r="K78">
         <v>124</v>
       </c>
-      <c r="L78" t="s">
-        <v>91</v>
-      </c>
-      <c r="M78">
+      <c r="L78">
+        <v>124</v>
+      </c>
+      <c r="M78" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78">
         <v>4662</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>169</v>
       </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
       <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4657,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D79">
         <v>126</v>
@@ -4683,23 +4923,26 @@
       <c r="K79">
         <v>126</v>
       </c>
-      <c r="L79" t="s">
-        <v>92</v>
-      </c>
-      <c r="M79">
+      <c r="L79">
+        <v>126</v>
+      </c>
+      <c r="M79" t="s">
+        <v>93</v>
+      </c>
+      <c r="N79">
         <v>4776</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>175</v>
       </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
       <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4707,7 +4950,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D80">
         <v>128</v>
@@ -4733,23 +4976,26 @@
       <c r="K80">
         <v>128</v>
       </c>
-      <c r="L80" t="s">
-        <v>93</v>
-      </c>
-      <c r="M80">
+      <c r="L80">
+        <v>128</v>
+      </c>
+      <c r="M80" t="s">
+        <v>94</v>
+      </c>
+      <c r="N80">
         <v>5065</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>175</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
       <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4757,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D81">
         <v>130</v>
@@ -4783,23 +5029,26 @@
       <c r="K81">
         <v>130</v>
       </c>
-      <c r="L81" t="s">
-        <v>94</v>
-      </c>
-      <c r="M81">
+      <c r="L81">
+        <v>130</v>
+      </c>
+      <c r="M81" t="s">
+        <v>95</v>
+      </c>
+      <c r="N81">
         <v>5161</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>190</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
       <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4807,7 +5056,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D82">
         <v>132</v>
@@ -4833,23 +5082,26 @@
       <c r="K82">
         <v>132</v>
       </c>
-      <c r="L82" t="s">
-        <v>95</v>
-      </c>
-      <c r="M82">
+      <c r="L82">
+        <v>132</v>
+      </c>
+      <c r="M82" t="s">
+        <v>96</v>
+      </c>
+      <c r="N82">
         <v>5161</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>190</v>
       </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
       <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4857,7 +5109,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="D83">
         <v>134</v>
@@ -4883,23 +5135,26 @@
       <c r="K83">
         <v>134</v>
       </c>
-      <c r="L83" t="s">
-        <v>96</v>
-      </c>
-      <c r="M83">
+      <c r="L83">
+        <v>134</v>
+      </c>
+      <c r="M83" t="s">
+        <v>97</v>
+      </c>
+      <c r="N83">
         <v>5391</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>200</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
       <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4907,7 +5162,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="D84">
         <v>136</v>
@@ -4933,23 +5188,26 @@
       <c r="K84">
         <v>136</v>
       </c>
-      <c r="L84" t="s">
-        <v>97</v>
-      </c>
-      <c r="M84">
+      <c r="L84">
+        <v>136</v>
+      </c>
+      <c r="M84" t="s">
+        <v>98</v>
+      </c>
+      <c r="N84">
         <v>5391</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>200</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
       <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4957,7 +5215,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D85">
         <v>138</v>
@@ -4983,23 +5241,26 @@
       <c r="K85">
         <v>138</v>
       </c>
-      <c r="L85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M85">
+      <c r="L85">
+        <v>138</v>
+      </c>
+      <c r="M85" t="s">
+        <v>99</v>
+      </c>
+      <c r="N85">
         <v>5662</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>209</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
       <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5007,7 +5268,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D86">
         <v>140</v>
@@ -5033,23 +5294,26 @@
       <c r="K86">
         <v>140</v>
       </c>
-      <c r="L86" t="s">
-        <v>99</v>
-      </c>
-      <c r="M86">
+      <c r="L86">
+        <v>140</v>
+      </c>
+      <c r="M86" t="s">
+        <v>100</v>
+      </c>
+      <c r="N86">
         <v>5836</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>209</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
       <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5057,7 +5321,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="D87">
         <v>142</v>
@@ -5083,23 +5347,26 @@
       <c r="K87">
         <v>142</v>
       </c>
-      <c r="L87" t="s">
-        <v>100</v>
-      </c>
-      <c r="M87">
+      <c r="L87">
+        <v>142</v>
+      </c>
+      <c r="M87" t="s">
+        <v>101</v>
+      </c>
+      <c r="N87">
         <v>5836</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>209</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
       <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5107,7 +5374,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="D88">
         <v>144</v>
@@ -5133,23 +5400,26 @@
       <c r="K88">
         <v>144</v>
       </c>
-      <c r="L88" t="s">
-        <v>101</v>
-      </c>
-      <c r="M88">
+      <c r="L88">
+        <v>144</v>
+      </c>
+      <c r="M88" t="s">
+        <v>102</v>
+      </c>
+      <c r="N88">
         <v>6026</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>222</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
       <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5157,7 +5427,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="D89">
         <v>146</v>
@@ -5183,23 +5453,26 @@
       <c r="K89">
         <v>146</v>
       </c>
-      <c r="L89" t="s">
-        <v>102</v>
-      </c>
-      <c r="M89">
+      <c r="L89">
+        <v>146</v>
+      </c>
+      <c r="M89" t="s">
+        <v>103</v>
+      </c>
+      <c r="N89">
         <v>6140</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>230</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
       <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5207,7 +5480,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="D90">
         <v>148</v>
@@ -5233,23 +5506,26 @@
       <c r="K90">
         <v>148</v>
       </c>
-      <c r="L90" t="s">
-        <v>103</v>
-      </c>
-      <c r="M90">
+      <c r="L90">
+        <v>148</v>
+      </c>
+      <c r="M90" t="s">
+        <v>104</v>
+      </c>
+      <c r="N90">
         <v>6140</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>230</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
       <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5257,7 +5533,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="D91">
         <v>150</v>
@@ -5283,23 +5559,26 @@
       <c r="K91">
         <v>150</v>
       </c>
-      <c r="L91" t="s">
-        <v>104</v>
-      </c>
-      <c r="M91">
+      <c r="L91">
+        <v>150</v>
+      </c>
+      <c r="M91" t="s">
+        <v>105</v>
+      </c>
+      <c r="N91">
         <v>6315</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>241</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
       <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5307,7 +5586,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D92">
         <v>152</v>
@@ -5333,23 +5612,26 @@
       <c r="K92">
         <v>152</v>
       </c>
-      <c r="L92" t="s">
-        <v>105</v>
-      </c>
-      <c r="M92">
+      <c r="L92">
+        <v>152</v>
+      </c>
+      <c r="M92" t="s">
+        <v>106</v>
+      </c>
+      <c r="N92">
         <v>6559</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>249</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
       <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5357,7 +5639,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D93">
         <v>154</v>
@@ -5383,23 +5665,26 @@
       <c r="K93">
         <v>154</v>
       </c>
-      <c r="L93" t="s">
-        <v>106</v>
-      </c>
-      <c r="M93">
+      <c r="L93">
+        <v>154</v>
+      </c>
+      <c r="M93" t="s">
+        <v>107</v>
+      </c>
+      <c r="N93">
         <v>6559</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>249</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
       <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5407,7 +5692,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="D94">
         <v>156</v>
@@ -5433,23 +5718,26 @@
       <c r="K94">
         <v>156</v>
       </c>
-      <c r="L94" t="s">
-        <v>107</v>
-      </c>
-      <c r="M94">
+      <c r="L94">
+        <v>156</v>
+      </c>
+      <c r="M94" t="s">
+        <v>108</v>
+      </c>
+      <c r="N94">
         <v>6701</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>249</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
       <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5457,7 +5745,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="D95">
         <v>158</v>
@@ -5483,23 +5771,26 @@
       <c r="K95">
         <v>158</v>
       </c>
-      <c r="L95" t="s">
-        <v>108</v>
-      </c>
-      <c r="M95">
+      <c r="L95">
+        <v>158</v>
+      </c>
+      <c r="M95" t="s">
+        <v>109</v>
+      </c>
+      <c r="N95">
         <v>6797</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>249</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
       <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5507,7 +5798,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D96">
         <v>160</v>
@@ -5533,23 +5824,26 @@
       <c r="K96">
         <v>160</v>
       </c>
-      <c r="L96" t="s">
-        <v>109</v>
-      </c>
-      <c r="M96">
+      <c r="L96">
+        <v>160</v>
+      </c>
+      <c r="M96" t="s">
+        <v>110</v>
+      </c>
+      <c r="N96">
         <v>6882</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>249</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
       <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5557,7 +5851,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="D97">
         <v>162</v>
@@ -5583,23 +5877,26 @@
       <c r="K97">
         <v>162</v>
       </c>
-      <c r="L97" t="s">
-        <v>110</v>
-      </c>
-      <c r="M97">
+      <c r="L97">
+        <v>162</v>
+      </c>
+      <c r="M97" t="s">
+        <v>111</v>
+      </c>
+      <c r="N97">
         <v>7100</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>260</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
       <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5607,7 +5904,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="D98">
         <v>164</v>
@@ -5633,23 +5930,26 @@
       <c r="K98">
         <v>164</v>
       </c>
-      <c r="L98" t="s">
-        <v>111</v>
-      </c>
-      <c r="M98">
+      <c r="L98">
+        <v>164</v>
+      </c>
+      <c r="M98" t="s">
+        <v>112</v>
+      </c>
+      <c r="N98">
         <v>7100</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>260</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
       <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5657,7 +5957,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="D99">
         <v>166</v>
@@ -5683,23 +5983,26 @@
       <c r="K99">
         <v>166</v>
       </c>
-      <c r="L99" t="s">
-        <v>112</v>
-      </c>
-      <c r="M99">
+      <c r="L99">
+        <v>166</v>
+      </c>
+      <c r="M99" t="s">
+        <v>113</v>
+      </c>
+      <c r="N99">
         <v>7385</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>269</v>
       </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
       <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5707,7 +6010,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="D100">
         <v>168</v>
@@ -5733,23 +6036,26 @@
       <c r="K100">
         <v>168</v>
       </c>
-      <c r="L100" t="s">
-        <v>113</v>
-      </c>
-      <c r="M100">
+      <c r="L100">
+        <v>168</v>
+      </c>
+      <c r="M100" t="s">
+        <v>114</v>
+      </c>
+      <c r="N100">
         <v>7481</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>269</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
       <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:17">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5757,7 +6063,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="D101">
         <v>170</v>
@@ -5783,23 +6089,26 @@
       <c r="K101">
         <v>170</v>
       </c>
-      <c r="L101" t="s">
-        <v>114</v>
-      </c>
-      <c r="M101">
+      <c r="L101">
+        <v>170</v>
+      </c>
+      <c r="M101" t="s">
+        <v>115</v>
+      </c>
+      <c r="N101">
         <v>7481</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>269</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
       <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5807,7 +6116,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="D102">
         <v>172</v>
@@ -5833,23 +6142,26 @@
       <c r="K102">
         <v>172</v>
       </c>
-      <c r="L102" t="s">
-        <v>115</v>
-      </c>
-      <c r="M102">
+      <c r="L102">
+        <v>172</v>
+      </c>
+      <c r="M102" t="s">
+        <v>116</v>
+      </c>
+      <c r="N102">
         <v>7554</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>269</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
       <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:17">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5857,7 +6169,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="D103">
         <v>174</v>
@@ -5883,23 +6195,26 @@
       <c r="K103">
         <v>174</v>
       </c>
-      <c r="L103" t="s">
-        <v>116</v>
-      </c>
-      <c r="M103">
+      <c r="L103">
+        <v>174</v>
+      </c>
+      <c r="M103" t="s">
+        <v>117</v>
+      </c>
+      <c r="N103">
         <v>7674</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>276</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
       <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5907,7 +6222,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="D104">
         <v>176</v>
@@ -5933,23 +6248,26 @@
       <c r="K104">
         <v>176</v>
       </c>
-      <c r="L104" t="s">
-        <v>117</v>
-      </c>
-      <c r="M104">
+      <c r="L104">
+        <v>176</v>
+      </c>
+      <c r="M104" t="s">
+        <v>118</v>
+      </c>
+      <c r="N104">
         <v>7798</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>283</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
       <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:17">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5957,7 +6275,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="D105">
         <v>178</v>
@@ -5983,23 +6301,26 @@
       <c r="K105">
         <v>178</v>
       </c>
-      <c r="L105" t="s">
-        <v>118</v>
-      </c>
-      <c r="M105">
+      <c r="L105">
+        <v>178</v>
+      </c>
+      <c r="M105" t="s">
+        <v>119</v>
+      </c>
+      <c r="N105">
         <v>7940</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>288</v>
       </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
       <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:17">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6007,7 +6328,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="D106">
         <v>180</v>
@@ -6033,23 +6354,26 @@
       <c r="K106">
         <v>180</v>
       </c>
-      <c r="L106" t="s">
-        <v>119</v>
-      </c>
-      <c r="M106">
+      <c r="L106">
+        <v>180</v>
+      </c>
+      <c r="M106" t="s">
+        <v>120</v>
+      </c>
+      <c r="N106">
         <v>8345</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>296</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
       <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:17">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6057,7 +6381,7 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="D107">
         <v>182</v>
@@ -6083,23 +6407,26 @@
       <c r="K107">
         <v>182</v>
       </c>
-      <c r="L107" t="s">
-        <v>120</v>
-      </c>
-      <c r="M107">
+      <c r="L107">
+        <v>182</v>
+      </c>
+      <c r="M107" t="s">
+        <v>121</v>
+      </c>
+      <c r="N107">
         <v>8345</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>296</v>
       </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
       <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:17">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6107,7 +6434,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="D108">
         <v>184</v>
@@ -6133,23 +6460,26 @@
       <c r="K108">
         <v>184</v>
       </c>
-      <c r="L108" t="s">
-        <v>121</v>
-      </c>
-      <c r="M108">
+      <c r="L108">
+        <v>184</v>
+      </c>
+      <c r="M108" t="s">
+        <v>122</v>
+      </c>
+      <c r="N108">
         <v>8619</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>296</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
       <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:17">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6157,7 +6487,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="D109">
         <v>186</v>
@@ -6183,23 +6513,26 @@
       <c r="K109">
         <v>186</v>
       </c>
-      <c r="L109" t="s">
-        <v>122</v>
-      </c>
-      <c r="M109">
+      <c r="L109">
+        <v>186</v>
+      </c>
+      <c r="M109" t="s">
+        <v>123</v>
+      </c>
+      <c r="N109">
         <v>8619</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>296</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
       <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:17">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6207,7 +6540,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="D110">
         <v>188</v>
@@ -6233,23 +6566,26 @@
       <c r="K110">
         <v>188</v>
       </c>
-      <c r="L110" t="s">
-        <v>123</v>
-      </c>
-      <c r="M110">
+      <c r="L110">
+        <v>188</v>
+      </c>
+      <c r="M110" t="s">
+        <v>124</v>
+      </c>
+      <c r="N110">
         <v>8837</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>305</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
       <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:17">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6257,7 +6593,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="D111">
         <v>190</v>
@@ -6283,19 +6619,42 @@
       <c r="K111">
         <v>190</v>
       </c>
-      <c r="L111" t="s">
-        <v>124</v>
-      </c>
-      <c r="M111">
+      <c r="L111">
+        <v>190</v>
+      </c>
+      <c r="M111" t="s">
+        <v>125</v>
+      </c>
+      <c r="N111">
         <v>8998</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>308</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
       <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="M112" t="s">
+        <v>126</v>
+      </c>
+      <c r="N112">
+        <v>8998</v>
+      </c>
+      <c r="O112">
+        <v>308</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -752,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,8 +810,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -845,23 +851,26 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -898,14 +907,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -913,8 +922,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -951,14 +963,14 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>2</v>
       </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -966,8 +978,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1004,23 +1019,26 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1057,23 +1075,26 @@
       <c r="L6">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1110,23 +1131,26 @@
       <c r="L7">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1163,23 +1187,26 @@
       <c r="L8">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1216,23 +1243,26 @@
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1269,23 +1299,26 @@
       <c r="L10">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1322,23 +1355,26 @@
       <c r="L11">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11">
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1375,23 +1411,26 @@
       <c r="L12">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1428,23 +1467,26 @@
       <c r="L13">
         <v>11</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13">
         <v>2</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1481,23 +1523,26 @@
       <c r="L14">
         <v>12</v>
       </c>
-      <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1534,23 +1579,26 @@
       <c r="L15">
         <v>13</v>
       </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15">
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15">
         <v>2</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1587,23 +1635,26 @@
       <c r="L16">
         <v>14</v>
       </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16">
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1640,23 +1691,26 @@
       <c r="L17">
         <v>15</v>
       </c>
-      <c r="M17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17">
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1693,23 +1747,26 @@
       <c r="L18">
         <v>16</v>
       </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18">
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18">
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1746,23 +1803,26 @@
       <c r="L19">
         <v>17</v>
       </c>
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19">
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19">
         <v>2</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1799,23 +1859,26 @@
       <c r="L20">
         <v>18</v>
       </c>
-      <c r="M20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20">
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20">
         <v>2</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1852,23 +1915,26 @@
       <c r="L21">
         <v>19</v>
       </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21">
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1905,23 +1971,26 @@
       <c r="L22">
         <v>20</v>
       </c>
-      <c r="M22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22">
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22">
         <v>2</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1958,23 +2027,26 @@
       <c r="L23">
         <v>21</v>
       </c>
-      <c r="M23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23">
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2011,23 +2083,26 @@
       <c r="L24">
         <v>22</v>
       </c>
-      <c r="M24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24">
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>1</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2064,23 +2139,26 @@
       <c r="L25">
         <v>23</v>
       </c>
-      <c r="M25" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25">
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2117,23 +2195,26 @@
       <c r="L26">
         <v>24</v>
       </c>
-      <c r="M26" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26">
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26">
         <v>3</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2170,23 +2251,26 @@
       <c r="L27">
         <v>25</v>
       </c>
-      <c r="M27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27">
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27">
         <v>3</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2223,23 +2307,26 @@
       <c r="L28">
         <v>26</v>
       </c>
-      <c r="M28" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28">
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>1</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2276,23 +2363,26 @@
       <c r="L29">
         <v>27</v>
       </c>
-      <c r="M29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29">
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29">
         <v>3</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2329,23 +2419,26 @@
       <c r="L30">
         <v>28</v>
       </c>
-      <c r="M30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30">
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30">
         <v>155</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2356,7 +2449,7 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -2382,23 +2475,26 @@
       <c r="L31">
         <v>30</v>
       </c>
-      <c r="M31" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31">
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31">
         <v>201</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2409,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>32</v>
@@ -2435,23 +2531,26 @@
       <c r="L32">
         <v>32</v>
       </c>
-      <c r="M32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32">
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32">
         <v>226</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2462,7 +2561,7 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>34</v>
@@ -2488,23 +2587,26 @@
       <c r="L33">
         <v>34</v>
       </c>
-      <c r="M33" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33">
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33">
         <v>238</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2515,7 +2617,7 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>36</v>
@@ -2541,23 +2643,26 @@
       <c r="L34">
         <v>36</v>
       </c>
-      <c r="M34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34">
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34">
         <v>293</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>3</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2568,7 +2673,7 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>38</v>
@@ -2594,23 +2699,26 @@
       <c r="L35">
         <v>38</v>
       </c>
-      <c r="M35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N35">
+      <c r="M35">
+        <v>38</v>
+      </c>
+      <c r="N35" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35">
         <v>341</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>3</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2621,7 +2729,7 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>40</v>
@@ -2647,23 +2755,26 @@
       <c r="L36">
         <v>40</v>
       </c>
-      <c r="M36" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36">
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36">
         <v>413</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>6</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2674,7 +2785,7 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>42</v>
@@ -2700,23 +2811,26 @@
       <c r="L37">
         <v>42</v>
       </c>
-      <c r="M37" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37">
+      <c r="M37">
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37">
         <v>484</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>7</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2727,7 +2841,7 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>44</v>
@@ -2753,23 +2867,26 @@
       <c r="L38">
         <v>44</v>
       </c>
-      <c r="M38" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38">
+      <c r="M38">
+        <v>44</v>
+      </c>
+      <c r="N38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38">
         <v>515</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>7</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2780,7 +2897,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>46</v>
@@ -2806,23 +2923,26 @@
       <c r="L39">
         <v>46</v>
       </c>
-      <c r="M39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N39">
+      <c r="M39">
+        <v>46</v>
+      </c>
+      <c r="N39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39">
         <v>603</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>7</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2833,7 +2953,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>48</v>
@@ -2859,23 +2979,26 @@
       <c r="L40">
         <v>48</v>
       </c>
-      <c r="M40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N40">
+      <c r="M40">
+        <v>48</v>
+      </c>
+      <c r="N40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40">
         <v>733</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>9</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2886,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -2912,23 +3035,26 @@
       <c r="L41">
         <v>50</v>
       </c>
-      <c r="M41" t="s">
-        <v>55</v>
-      </c>
-      <c r="N41">
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="N41" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41">
         <v>849</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>15</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2939,7 +3065,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>52</v>
@@ -2965,23 +3091,26 @@
       <c r="L42">
         <v>52</v>
       </c>
-      <c r="M42" t="s">
-        <v>56</v>
-      </c>
-      <c r="N42">
+      <c r="M42">
+        <v>52</v>
+      </c>
+      <c r="N42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42">
         <v>966</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>16</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2992,7 +3121,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>54</v>
@@ -3018,23 +3147,26 @@
       <c r="L43">
         <v>54</v>
       </c>
-      <c r="M43" t="s">
-        <v>57</v>
-      </c>
-      <c r="N43">
+      <c r="M43">
+        <v>54</v>
+      </c>
+      <c r="N43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43">
         <v>1112</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>17</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3045,7 +3177,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E44">
         <v>56</v>
@@ -3071,23 +3203,26 @@
       <c r="L44">
         <v>56</v>
       </c>
-      <c r="M44" t="s">
-        <v>58</v>
-      </c>
-      <c r="N44">
+      <c r="M44">
+        <v>56</v>
+      </c>
+      <c r="N44" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44">
         <v>1209</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>18</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3098,7 +3233,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E45">
         <v>58</v>
@@ -3124,23 +3259,26 @@
       <c r="L45">
         <v>58</v>
       </c>
-      <c r="M45" t="s">
-        <v>59</v>
-      </c>
-      <c r="N45">
+      <c r="M45">
+        <v>58</v>
+      </c>
+      <c r="N45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O45">
         <v>1326</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>19</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3151,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>60</v>
@@ -3177,23 +3315,26 @@
       <c r="L46">
         <v>60</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
         <v>60</v>
       </c>
-      <c r="N46">
+      <c r="N46" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46">
         <v>1404</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>19</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3204,7 +3345,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>62</v>
@@ -3230,23 +3371,26 @@
       <c r="L47">
         <v>62</v>
       </c>
-      <c r="M47" t="s">
-        <v>61</v>
-      </c>
-      <c r="N47">
+      <c r="M47">
+        <v>62</v>
+      </c>
+      <c r="N47" t="s">
+        <v>62</v>
+      </c>
+      <c r="O47">
         <v>1454</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>31</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3257,7 +3401,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E48">
         <v>64</v>
@@ -3283,23 +3427,26 @@
       <c r="L48">
         <v>64</v>
       </c>
-      <c r="M48" t="s">
-        <v>62</v>
-      </c>
-      <c r="N48">
+      <c r="M48">
+        <v>64</v>
+      </c>
+      <c r="N48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48">
         <v>1530</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>36</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3310,7 +3457,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>66</v>
@@ -3336,23 +3483,26 @@
       <c r="L49">
         <v>66</v>
       </c>
-      <c r="M49" t="s">
-        <v>63</v>
-      </c>
-      <c r="N49">
+      <c r="M49">
+        <v>66</v>
+      </c>
+      <c r="N49" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49">
         <v>1628</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>40</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3363,7 +3513,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E50">
         <v>68</v>
@@ -3389,23 +3539,26 @@
       <c r="L50">
         <v>68</v>
       </c>
-      <c r="M50" t="s">
-        <v>64</v>
-      </c>
-      <c r="N50">
+      <c r="M50">
+        <v>68</v>
+      </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50">
         <v>1693</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>44</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3416,7 +3569,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E51">
         <v>70</v>
@@ -3442,23 +3595,26 @@
       <c r="L51">
         <v>70</v>
       </c>
-      <c r="M51" t="s">
-        <v>65</v>
-      </c>
-      <c r="N51">
+      <c r="M51">
+        <v>70</v>
+      </c>
+      <c r="N51" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51">
         <v>1761</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>45</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3469,7 +3625,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>72</v>
@@ -3495,23 +3651,26 @@
       <c r="L52">
         <v>72</v>
       </c>
-      <c r="M52" t="s">
-        <v>66</v>
-      </c>
-      <c r="N52">
+      <c r="M52">
+        <v>72</v>
+      </c>
+      <c r="N52" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52">
         <v>1804</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>45</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
       <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3522,7 +3681,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <v>74</v>
@@ -3548,23 +3707,26 @@
       <c r="L53">
         <v>74</v>
       </c>
-      <c r="M53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N53">
+      <c r="M53">
+        <v>74</v>
+      </c>
+      <c r="N53" t="s">
+        <v>68</v>
+      </c>
+      <c r="O53">
         <v>1847</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>47</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3575,7 +3737,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E54">
         <v>76</v>
@@ -3601,23 +3763,26 @@
       <c r="L54">
         <v>76</v>
       </c>
-      <c r="M54" t="s">
-        <v>68</v>
-      </c>
-      <c r="N54">
+      <c r="M54">
+        <v>76</v>
+      </c>
+      <c r="N54" t="s">
+        <v>69</v>
+      </c>
+      <c r="O54">
         <v>1930</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>53</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
       <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3628,7 +3793,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E55">
         <v>78</v>
@@ -3654,23 +3819,26 @@
       <c r="L55">
         <v>78</v>
       </c>
-      <c r="M55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55">
+      <c r="M55">
+        <v>78</v>
+      </c>
+      <c r="N55" t="s">
+        <v>70</v>
+      </c>
+      <c r="O55">
         <v>2012</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>60</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
       <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3681,7 +3849,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <v>80</v>
@@ -3707,23 +3875,26 @@
       <c r="L56">
         <v>80</v>
       </c>
-      <c r="M56" t="s">
-        <v>70</v>
-      </c>
-      <c r="N56">
+      <c r="M56">
+        <v>80</v>
+      </c>
+      <c r="N56" t="s">
+        <v>71</v>
+      </c>
+      <c r="O56">
         <v>2087</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>63</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
       <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3734,7 +3905,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>82</v>
@@ -3760,23 +3931,26 @@
       <c r="L57">
         <v>82</v>
       </c>
-      <c r="M57" t="s">
-        <v>71</v>
-      </c>
-      <c r="N57">
+      <c r="M57">
+        <v>82</v>
+      </c>
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+      <c r="O57">
         <v>2158</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>70</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
       <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3787,7 +3961,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E58">
         <v>84</v>
@@ -3813,23 +3987,26 @@
       <c r="L58">
         <v>84</v>
       </c>
-      <c r="M58" t="s">
-        <v>72</v>
-      </c>
-      <c r="N58">
+      <c r="M58">
+        <v>84</v>
+      </c>
+      <c r="N58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O58">
         <v>2213</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>71</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
       <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3840,7 +4017,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E59">
         <v>86</v>
@@ -3866,23 +4043,26 @@
       <c r="L59">
         <v>86</v>
       </c>
-      <c r="M59" t="s">
-        <v>73</v>
-      </c>
-      <c r="N59">
+      <c r="M59">
+        <v>86</v>
+      </c>
+      <c r="N59" t="s">
+        <v>74</v>
+      </c>
+      <c r="O59">
         <v>2268</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>71</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
       <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3893,7 +4073,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E60">
         <v>88</v>
@@ -3919,23 +4099,26 @@
       <c r="L60">
         <v>88</v>
       </c>
-      <c r="M60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N60">
+      <c r="M60">
+        <v>88</v>
+      </c>
+      <c r="N60" t="s">
+        <v>75</v>
+      </c>
+      <c r="O60">
         <v>2325</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>72</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
       <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3946,7 +4129,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E61">
         <v>90</v>
@@ -3972,23 +4155,26 @@
       <c r="L61">
         <v>90</v>
       </c>
-      <c r="M61" t="s">
-        <v>75</v>
-      </c>
-      <c r="N61">
+      <c r="M61">
+        <v>90</v>
+      </c>
+      <c r="N61" t="s">
+        <v>76</v>
+      </c>
+      <c r="O61">
         <v>2491</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>96</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
       <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3999,7 +4185,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E62">
         <v>92</v>
@@ -4025,23 +4211,26 @@
       <c r="L62">
         <v>92</v>
       </c>
-      <c r="M62" t="s">
-        <v>76</v>
-      </c>
-      <c r="N62">
+      <c r="M62">
+        <v>92</v>
+      </c>
+      <c r="N62" t="s">
+        <v>77</v>
+      </c>
+      <c r="O62">
         <v>2643</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>100</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
       <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4052,7 +4241,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E63">
         <v>94</v>
@@ -4078,23 +4267,26 @@
       <c r="L63">
         <v>94</v>
       </c>
-      <c r="M63" t="s">
-        <v>77</v>
-      </c>
-      <c r="N63">
+      <c r="M63">
+        <v>94</v>
+      </c>
+      <c r="N63" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63">
         <v>2826</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>102</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
       <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4105,7 +4297,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E64">
         <v>96</v>
@@ -4131,23 +4323,26 @@
       <c r="L64">
         <v>96</v>
       </c>
-      <c r="M64" t="s">
-        <v>78</v>
-      </c>
-      <c r="N64">
+      <c r="M64">
+        <v>96</v>
+      </c>
+      <c r="N64" t="s">
+        <v>79</v>
+      </c>
+      <c r="O64">
         <v>2943</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>111</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
       <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4158,7 +4353,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E65">
         <v>98</v>
@@ -4184,23 +4379,26 @@
       <c r="L65">
         <v>98</v>
       </c>
-      <c r="M65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N65">
+      <c r="M65">
+        <v>98</v>
+      </c>
+      <c r="N65" t="s">
+        <v>80</v>
+      </c>
+      <c r="O65">
         <v>2943</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>111</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
       <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4211,7 +4409,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -4237,23 +4435,26 @@
       <c r="L66">
         <v>100</v>
       </c>
-      <c r="M66" t="s">
-        <v>80</v>
-      </c>
-      <c r="N66">
+      <c r="M66">
+        <v>100</v>
+      </c>
+      <c r="N66" t="s">
+        <v>81</v>
+      </c>
+      <c r="O66">
         <v>3043</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>111</v>
       </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
       <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4264,7 +4465,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E67">
         <v>102</v>
@@ -4290,23 +4491,26 @@
       <c r="L67">
         <v>102</v>
       </c>
-      <c r="M67" t="s">
-        <v>81</v>
-      </c>
-      <c r="N67">
+      <c r="M67">
+        <v>102</v>
+      </c>
+      <c r="N67" t="s">
+        <v>82</v>
+      </c>
+      <c r="O67">
         <v>3141</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>113</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
       <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4317,7 +4521,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>104</v>
@@ -4343,23 +4547,26 @@
       <c r="L68">
         <v>104</v>
       </c>
-      <c r="M68" t="s">
-        <v>82</v>
-      </c>
-      <c r="N68">
+      <c r="M68">
+        <v>104</v>
+      </c>
+      <c r="N68" t="s">
+        <v>83</v>
+      </c>
+      <c r="O68">
         <v>3432</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>120</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
       <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4370,7 +4577,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E69">
         <v>106</v>
@@ -4396,23 +4603,26 @@
       <c r="L69">
         <v>106</v>
       </c>
-      <c r="M69" t="s">
-        <v>83</v>
-      </c>
-      <c r="N69">
+      <c r="M69">
+        <v>106</v>
+      </c>
+      <c r="N69" t="s">
+        <v>84</v>
+      </c>
+      <c r="O69">
         <v>3432</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>120</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
       <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4423,7 +4633,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E70">
         <v>108</v>
@@ -4449,23 +4659,26 @@
       <c r="L70">
         <v>108</v>
       </c>
-      <c r="M70" t="s">
-        <v>84</v>
-      </c>
-      <c r="N70">
+      <c r="M70">
+        <v>108</v>
+      </c>
+      <c r="N70" t="s">
+        <v>85</v>
+      </c>
+      <c r="O70">
         <v>3564</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>124</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
       <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4476,7 +4689,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E71">
         <v>110</v>
@@ -4502,23 +4715,26 @@
       <c r="L71">
         <v>110</v>
       </c>
-      <c r="M71" t="s">
-        <v>85</v>
-      </c>
-      <c r="N71">
+      <c r="M71">
+        <v>110</v>
+      </c>
+      <c r="N71" t="s">
+        <v>86</v>
+      </c>
+      <c r="O71">
         <v>3711</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>134</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
       <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4529,7 +4745,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E72">
         <v>112</v>
@@ -4555,23 +4771,26 @@
       <c r="L72">
         <v>112</v>
       </c>
-      <c r="M72" t="s">
-        <v>86</v>
-      </c>
-      <c r="N72">
+      <c r="M72">
+        <v>112</v>
+      </c>
+      <c r="N72" t="s">
+        <v>87</v>
+      </c>
+      <c r="O72">
         <v>3927</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>139</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
       <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4582,7 +4801,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E73">
         <v>114</v>
@@ -4608,23 +4827,26 @@
       <c r="L73">
         <v>114</v>
       </c>
-      <c r="M73" t="s">
-        <v>87</v>
-      </c>
-      <c r="N73">
+      <c r="M73">
+        <v>114</v>
+      </c>
+      <c r="N73" t="s">
+        <v>88</v>
+      </c>
+      <c r="O73">
         <v>3927</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>139</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
       <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4635,7 +4857,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="E74">
         <v>116</v>
@@ -4661,23 +4883,26 @@
       <c r="L74">
         <v>116</v>
       </c>
-      <c r="M74" t="s">
-        <v>88</v>
-      </c>
-      <c r="N74">
+      <c r="M74">
+        <v>116</v>
+      </c>
+      <c r="N74" t="s">
+        <v>89</v>
+      </c>
+      <c r="O74">
         <v>4020</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>144</v>
       </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
       <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4688,7 +4913,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="E75">
         <v>118</v>
@@ -4714,23 +4939,26 @@
       <c r="L75">
         <v>118</v>
       </c>
-      <c r="M75" t="s">
-        <v>89</v>
-      </c>
-      <c r="N75">
+      <c r="M75">
+        <v>118</v>
+      </c>
+      <c r="N75" t="s">
+        <v>90</v>
+      </c>
+      <c r="O75">
         <v>4319</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>158</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
       <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4741,7 +4969,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -4767,23 +4995,26 @@
       <c r="L76">
         <v>120</v>
       </c>
-      <c r="M76" t="s">
-        <v>90</v>
-      </c>
-      <c r="N76">
+      <c r="M76">
+        <v>120</v>
+      </c>
+      <c r="N76" t="s">
+        <v>91</v>
+      </c>
+      <c r="O76">
         <v>4319</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>158</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
       <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4794,7 +5025,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E77">
         <v>122</v>
@@ -4820,23 +5051,26 @@
       <c r="L77">
         <v>122</v>
       </c>
-      <c r="M77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N77">
+      <c r="M77">
+        <v>122</v>
+      </c>
+      <c r="N77" t="s">
+        <v>92</v>
+      </c>
+      <c r="O77">
         <v>4429</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>165</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
       <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4847,7 +5081,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E78">
         <v>124</v>
@@ -4873,23 +5107,26 @@
       <c r="L78">
         <v>124</v>
       </c>
-      <c r="M78" t="s">
-        <v>92</v>
-      </c>
-      <c r="N78">
+      <c r="M78">
+        <v>124</v>
+      </c>
+      <c r="N78" t="s">
+        <v>93</v>
+      </c>
+      <c r="O78">
         <v>4662</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>169</v>
       </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
       <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4900,7 +5137,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E79">
         <v>126</v>
@@ -4926,23 +5163,26 @@
       <c r="L79">
         <v>126</v>
       </c>
-      <c r="M79" t="s">
-        <v>93</v>
-      </c>
-      <c r="N79">
+      <c r="M79">
+        <v>126</v>
+      </c>
+      <c r="N79" t="s">
+        <v>94</v>
+      </c>
+      <c r="O79">
         <v>4776</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>175</v>
       </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
       <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4953,7 +5193,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E80">
         <v>128</v>
@@ -4979,23 +5219,26 @@
       <c r="L80">
         <v>128</v>
       </c>
-      <c r="M80" t="s">
-        <v>94</v>
-      </c>
-      <c r="N80">
+      <c r="M80">
+        <v>128</v>
+      </c>
+      <c r="N80" t="s">
+        <v>95</v>
+      </c>
+      <c r="O80">
         <v>5065</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>175</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
       <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5006,7 +5249,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E81">
         <v>130</v>
@@ -5032,23 +5275,26 @@
       <c r="L81">
         <v>130</v>
       </c>
-      <c r="M81" t="s">
-        <v>95</v>
-      </c>
-      <c r="N81">
+      <c r="M81">
+        <v>130</v>
+      </c>
+      <c r="N81" t="s">
+        <v>96</v>
+      </c>
+      <c r="O81">
         <v>5161</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>190</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
       <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5059,7 +5305,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E82">
         <v>132</v>
@@ -5085,23 +5331,26 @@
       <c r="L82">
         <v>132</v>
       </c>
-      <c r="M82" t="s">
-        <v>96</v>
-      </c>
-      <c r="N82">
+      <c r="M82">
+        <v>132</v>
+      </c>
+      <c r="N82" t="s">
+        <v>97</v>
+      </c>
+      <c r="O82">
         <v>5161</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>190</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
       <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5112,7 +5361,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E83">
         <v>134</v>
@@ -5138,23 +5387,26 @@
       <c r="L83">
         <v>134</v>
       </c>
-      <c r="M83" t="s">
-        <v>97</v>
-      </c>
-      <c r="N83">
+      <c r="M83">
+        <v>134</v>
+      </c>
+      <c r="N83" t="s">
+        <v>98</v>
+      </c>
+      <c r="O83">
         <v>5391</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>200</v>
       </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
       <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5165,7 +5417,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E84">
         <v>136</v>
@@ -5191,23 +5443,26 @@
       <c r="L84">
         <v>136</v>
       </c>
-      <c r="M84" t="s">
-        <v>98</v>
-      </c>
-      <c r="N84">
+      <c r="M84">
+        <v>136</v>
+      </c>
+      <c r="N84" t="s">
+        <v>99</v>
+      </c>
+      <c r="O84">
         <v>5391</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>200</v>
       </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
       <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5218,7 +5473,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E85">
         <v>138</v>
@@ -5244,23 +5499,26 @@
       <c r="L85">
         <v>138</v>
       </c>
-      <c r="M85" t="s">
-        <v>99</v>
-      </c>
-      <c r="N85">
+      <c r="M85">
+        <v>138</v>
+      </c>
+      <c r="N85" t="s">
+        <v>100</v>
+      </c>
+      <c r="O85">
         <v>5662</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>209</v>
       </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
       <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5271,7 +5529,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E86">
         <v>140</v>
@@ -5297,23 +5555,26 @@
       <c r="L86">
         <v>140</v>
       </c>
-      <c r="M86" t="s">
-        <v>100</v>
-      </c>
-      <c r="N86">
+      <c r="M86">
+        <v>140</v>
+      </c>
+      <c r="N86" t="s">
+        <v>101</v>
+      </c>
+      <c r="O86">
         <v>5836</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>209</v>
       </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
       <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5324,7 +5585,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="E87">
         <v>142</v>
@@ -5350,23 +5611,26 @@
       <c r="L87">
         <v>142</v>
       </c>
-      <c r="M87" t="s">
-        <v>101</v>
-      </c>
-      <c r="N87">
+      <c r="M87">
+        <v>142</v>
+      </c>
+      <c r="N87" t="s">
+        <v>102</v>
+      </c>
+      <c r="O87">
         <v>5836</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>209</v>
       </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
       <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5377,7 +5641,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E88">
         <v>144</v>
@@ -5403,23 +5667,26 @@
       <c r="L88">
         <v>144</v>
       </c>
-      <c r="M88" t="s">
-        <v>102</v>
-      </c>
-      <c r="N88">
+      <c r="M88">
+        <v>144</v>
+      </c>
+      <c r="N88" t="s">
+        <v>103</v>
+      </c>
+      <c r="O88">
         <v>6026</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>222</v>
       </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
       <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5430,7 +5697,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E89">
         <v>146</v>
@@ -5456,23 +5723,26 @@
       <c r="L89">
         <v>146</v>
       </c>
-      <c r="M89" t="s">
-        <v>103</v>
-      </c>
-      <c r="N89">
+      <c r="M89">
+        <v>146</v>
+      </c>
+      <c r="N89" t="s">
+        <v>104</v>
+      </c>
+      <c r="O89">
         <v>6140</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>230</v>
       </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
       <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5483,7 +5753,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E90">
         <v>148</v>
@@ -5509,23 +5779,26 @@
       <c r="L90">
         <v>148</v>
       </c>
-      <c r="M90" t="s">
-        <v>104</v>
-      </c>
-      <c r="N90">
+      <c r="M90">
+        <v>148</v>
+      </c>
+      <c r="N90" t="s">
+        <v>105</v>
+      </c>
+      <c r="O90">
         <v>6140</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>230</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
       <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5536,7 +5809,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E91">
         <v>150</v>
@@ -5562,23 +5835,26 @@
       <c r="L91">
         <v>150</v>
       </c>
-      <c r="M91" t="s">
-        <v>105</v>
-      </c>
-      <c r="N91">
+      <c r="M91">
+        <v>150</v>
+      </c>
+      <c r="N91" t="s">
+        <v>106</v>
+      </c>
+      <c r="O91">
         <v>6315</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>241</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
       <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5589,7 +5865,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="E92">
         <v>152</v>
@@ -5615,23 +5891,26 @@
       <c r="L92">
         <v>152</v>
       </c>
-      <c r="M92" t="s">
-        <v>106</v>
-      </c>
-      <c r="N92">
+      <c r="M92">
+        <v>152</v>
+      </c>
+      <c r="N92" t="s">
+        <v>107</v>
+      </c>
+      <c r="O92">
         <v>6559</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>249</v>
       </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
       <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5642,7 +5921,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="E93">
         <v>154</v>
@@ -5668,23 +5947,26 @@
       <c r="L93">
         <v>154</v>
       </c>
-      <c r="M93" t="s">
-        <v>107</v>
-      </c>
-      <c r="N93">
+      <c r="M93">
+        <v>154</v>
+      </c>
+      <c r="N93" t="s">
+        <v>108</v>
+      </c>
+      <c r="O93">
         <v>6559</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>249</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
       <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5695,7 +5977,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="E94">
         <v>156</v>
@@ -5721,23 +6003,26 @@
       <c r="L94">
         <v>156</v>
       </c>
-      <c r="M94" t="s">
-        <v>108</v>
-      </c>
-      <c r="N94">
+      <c r="M94">
+        <v>156</v>
+      </c>
+      <c r="N94" t="s">
+        <v>109</v>
+      </c>
+      <c r="O94">
         <v>6701</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>249</v>
       </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
       <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5748,7 +6033,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="E95">
         <v>158</v>
@@ -5774,23 +6059,26 @@
       <c r="L95">
         <v>158</v>
       </c>
-      <c r="M95" t="s">
-        <v>109</v>
-      </c>
-      <c r="N95">
+      <c r="M95">
+        <v>158</v>
+      </c>
+      <c r="N95" t="s">
+        <v>110</v>
+      </c>
+      <c r="O95">
         <v>6797</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>249</v>
       </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
       <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5801,7 +6089,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="E96">
         <v>160</v>
@@ -5827,23 +6115,26 @@
       <c r="L96">
         <v>160</v>
       </c>
-      <c r="M96" t="s">
-        <v>110</v>
-      </c>
-      <c r="N96">
+      <c r="M96">
+        <v>160</v>
+      </c>
+      <c r="N96" t="s">
+        <v>111</v>
+      </c>
+      <c r="O96">
         <v>6882</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>249</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
       <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5854,7 +6145,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="E97">
         <v>162</v>
@@ -5880,23 +6171,26 @@
       <c r="L97">
         <v>162</v>
       </c>
-      <c r="M97" t="s">
-        <v>111</v>
-      </c>
-      <c r="N97">
+      <c r="M97">
+        <v>162</v>
+      </c>
+      <c r="N97" t="s">
+        <v>112</v>
+      </c>
+      <c r="O97">
         <v>7100</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>260</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
       <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5907,7 +6201,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E98">
         <v>164</v>
@@ -5933,23 +6227,26 @@
       <c r="L98">
         <v>164</v>
       </c>
-      <c r="M98" t="s">
-        <v>112</v>
-      </c>
-      <c r="N98">
+      <c r="M98">
+        <v>164</v>
+      </c>
+      <c r="N98" t="s">
+        <v>113</v>
+      </c>
+      <c r="O98">
         <v>7100</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>260</v>
       </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
       <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5960,7 +6257,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E99">
         <v>166</v>
@@ -5986,23 +6283,26 @@
       <c r="L99">
         <v>166</v>
       </c>
-      <c r="M99" t="s">
-        <v>113</v>
-      </c>
-      <c r="N99">
+      <c r="M99">
+        <v>166</v>
+      </c>
+      <c r="N99" t="s">
+        <v>114</v>
+      </c>
+      <c r="O99">
         <v>7385</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>269</v>
       </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
       <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6013,7 +6313,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E100">
         <v>168</v>
@@ -6039,23 +6339,26 @@
       <c r="L100">
         <v>168</v>
       </c>
-      <c r="M100" t="s">
-        <v>114</v>
-      </c>
-      <c r="N100">
+      <c r="M100">
+        <v>168</v>
+      </c>
+      <c r="N100" t="s">
+        <v>115</v>
+      </c>
+      <c r="O100">
         <v>7481</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>269</v>
       </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
       <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6066,7 +6369,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="E101">
         <v>170</v>
@@ -6092,23 +6395,26 @@
       <c r="L101">
         <v>170</v>
       </c>
-      <c r="M101" t="s">
-        <v>115</v>
-      </c>
-      <c r="N101">
+      <c r="M101">
+        <v>170</v>
+      </c>
+      <c r="N101" t="s">
+        <v>116</v>
+      </c>
+      <c r="O101">
         <v>7481</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>269</v>
       </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
       <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6119,7 +6425,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="E102">
         <v>172</v>
@@ -6145,23 +6451,26 @@
       <c r="L102">
         <v>172</v>
       </c>
-      <c r="M102" t="s">
-        <v>116</v>
-      </c>
-      <c r="N102">
+      <c r="M102">
+        <v>172</v>
+      </c>
+      <c r="N102" t="s">
+        <v>117</v>
+      </c>
+      <c r="O102">
         <v>7554</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>269</v>
       </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
       <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6172,7 +6481,7 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="E103">
         <v>174</v>
@@ -6198,23 +6507,26 @@
       <c r="L103">
         <v>174</v>
       </c>
-      <c r="M103" t="s">
-        <v>117</v>
-      </c>
-      <c r="N103">
+      <c r="M103">
+        <v>174</v>
+      </c>
+      <c r="N103" t="s">
+        <v>118</v>
+      </c>
+      <c r="O103">
         <v>7674</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>276</v>
       </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
       <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6225,7 +6537,7 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="E104">
         <v>176</v>
@@ -6251,23 +6563,26 @@
       <c r="L104">
         <v>176</v>
       </c>
-      <c r="M104" t="s">
-        <v>118</v>
-      </c>
-      <c r="N104">
+      <c r="M104">
+        <v>176</v>
+      </c>
+      <c r="N104" t="s">
+        <v>119</v>
+      </c>
+      <c r="O104">
         <v>7798</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>283</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
       <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6278,7 +6593,7 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E105">
         <v>178</v>
@@ -6304,23 +6619,26 @@
       <c r="L105">
         <v>178</v>
       </c>
-      <c r="M105" t="s">
-        <v>119</v>
-      </c>
-      <c r="N105">
+      <c r="M105">
+        <v>178</v>
+      </c>
+      <c r="N105" t="s">
+        <v>120</v>
+      </c>
+      <c r="O105">
         <v>7940</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>288</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
       <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6331,7 +6649,7 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="E106">
         <v>180</v>
@@ -6357,23 +6675,26 @@
       <c r="L106">
         <v>180</v>
       </c>
-      <c r="M106" t="s">
-        <v>120</v>
-      </c>
-      <c r="N106">
+      <c r="M106">
+        <v>180</v>
+      </c>
+      <c r="N106" t="s">
+        <v>121</v>
+      </c>
+      <c r="O106">
         <v>8345</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>296</v>
       </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
       <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6384,7 +6705,7 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="E107">
         <v>182</v>
@@ -6410,23 +6731,26 @@
       <c r="L107">
         <v>182</v>
       </c>
-      <c r="M107" t="s">
-        <v>121</v>
-      </c>
-      <c r="N107">
+      <c r="M107">
+        <v>182</v>
+      </c>
+      <c r="N107" t="s">
+        <v>122</v>
+      </c>
+      <c r="O107">
         <v>8345</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>296</v>
       </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
       <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6437,7 +6761,7 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="E108">
         <v>184</v>
@@ -6463,23 +6787,26 @@
       <c r="L108">
         <v>184</v>
       </c>
-      <c r="M108" t="s">
-        <v>122</v>
-      </c>
-      <c r="N108">
+      <c r="M108">
+        <v>184</v>
+      </c>
+      <c r="N108" t="s">
+        <v>123</v>
+      </c>
+      <c r="O108">
         <v>8619</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>296</v>
       </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
       <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6490,7 +6817,7 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="E109">
         <v>186</v>
@@ -6516,23 +6843,26 @@
       <c r="L109">
         <v>186</v>
       </c>
-      <c r="M109" t="s">
-        <v>123</v>
-      </c>
-      <c r="N109">
+      <c r="M109">
+        <v>186</v>
+      </c>
+      <c r="N109" t="s">
+        <v>124</v>
+      </c>
+      <c r="O109">
         <v>8619</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>296</v>
       </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
       <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6543,7 +6873,7 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="E110">
         <v>188</v>
@@ -6569,23 +6899,26 @@
       <c r="L110">
         <v>188</v>
       </c>
-      <c r="M110" t="s">
-        <v>124</v>
-      </c>
-      <c r="N110">
+      <c r="M110">
+        <v>188</v>
+      </c>
+      <c r="N110" t="s">
+        <v>125</v>
+      </c>
+      <c r="O110">
         <v>8837</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>305</v>
       </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
       <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6596,7 +6929,7 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="E111">
         <v>190</v>
@@ -6622,39 +6955,45 @@
       <c r="L111">
         <v>190</v>
       </c>
-      <c r="M111" t="s">
-        <v>125</v>
-      </c>
-      <c r="N111">
+      <c r="M111">
+        <v>190</v>
+      </c>
+      <c r="N111" t="s">
+        <v>126</v>
+      </c>
+      <c r="O111">
         <v>8998</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>308</v>
       </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
       <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="M112" t="s">
-        <v>126</v>
-      </c>
-      <c r="N112">
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="N112" t="s">
+        <v>127</v>
+      </c>
+      <c r="O112">
         <v>8998</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>308</v>
       </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
       <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -755,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,8 +825,20 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -854,23 +878,35 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -910,23 +946,35 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>18</v>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -966,23 +1014,35 @@
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
-        <v>19</v>
+      <c r="N4">
+        <v>2</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1022,23 +1082,35 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>20</v>
+      <c r="N5">
+        <v>3</v>
       </c>
       <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1078,23 +1150,35 @@
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>21</v>
+      <c r="N6">
+        <v>4</v>
       </c>
       <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1134,23 +1218,35 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>22</v>
+      <c r="N7">
+        <v>5</v>
       </c>
       <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1190,23 +1286,35 @@
       <c r="M8">
         <v>6</v>
       </c>
-      <c r="N8" t="s">
-        <v>23</v>
+      <c r="N8">
+        <v>6</v>
       </c>
       <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1246,23 +1354,35 @@
       <c r="M9">
         <v>7</v>
       </c>
-      <c r="N9" t="s">
-        <v>24</v>
+      <c r="N9">
+        <v>7</v>
       </c>
       <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1302,23 +1422,35 @@
       <c r="M10">
         <v>8</v>
       </c>
-      <c r="N10" t="s">
-        <v>25</v>
+      <c r="N10">
+        <v>8</v>
       </c>
       <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10">
         <v>2</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1358,23 +1490,35 @@
       <c r="M11">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
-        <v>26</v>
+      <c r="N11">
+        <v>9</v>
       </c>
       <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1414,23 +1558,35 @@
       <c r="M12">
         <v>10</v>
       </c>
-      <c r="N12" t="s">
-        <v>27</v>
+      <c r="N12">
+        <v>10</v>
       </c>
       <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1470,23 +1626,35 @@
       <c r="M13">
         <v>11</v>
       </c>
-      <c r="N13" t="s">
-        <v>28</v>
+      <c r="N13">
+        <v>11</v>
       </c>
       <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>1</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1526,23 +1694,35 @@
       <c r="M14">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
-        <v>29</v>
+      <c r="N14">
+        <v>12</v>
       </c>
       <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>1</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1582,23 +1762,35 @@
       <c r="M15">
         <v>13</v>
       </c>
-      <c r="N15" t="s">
-        <v>30</v>
+      <c r="N15">
+        <v>13</v>
       </c>
       <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>1</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1638,23 +1830,35 @@
       <c r="M16">
         <v>14</v>
       </c>
-      <c r="N16" t="s">
-        <v>31</v>
+      <c r="N16">
+        <v>14</v>
       </c>
       <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1694,23 +1898,35 @@
       <c r="M17">
         <v>15</v>
       </c>
-      <c r="N17" t="s">
-        <v>32</v>
+      <c r="N17">
+        <v>15</v>
       </c>
       <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>1</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1750,23 +1966,35 @@
       <c r="M18">
         <v>16</v>
       </c>
-      <c r="N18" t="s">
-        <v>33</v>
+      <c r="N18">
+        <v>16</v>
       </c>
       <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>1</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1806,23 +2034,35 @@
       <c r="M19">
         <v>17</v>
       </c>
-      <c r="N19" t="s">
-        <v>34</v>
+      <c r="N19">
+        <v>17</v>
       </c>
       <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19">
         <v>2</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>1</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1862,23 +2102,35 @@
       <c r="M20">
         <v>18</v>
       </c>
-      <c r="N20" t="s">
-        <v>35</v>
+      <c r="N20">
+        <v>18</v>
       </c>
       <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>1</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1918,23 +2170,35 @@
       <c r="M21">
         <v>19</v>
       </c>
-      <c r="N21" t="s">
-        <v>36</v>
+      <c r="N21">
+        <v>19</v>
       </c>
       <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21">
         <v>2</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>1</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1974,23 +2238,35 @@
       <c r="M22">
         <v>20</v>
       </c>
-      <c r="N22" t="s">
-        <v>37</v>
+      <c r="N22">
+        <v>20</v>
       </c>
       <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22">
         <v>2</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>1</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2030,23 +2306,35 @@
       <c r="M23">
         <v>21</v>
       </c>
-      <c r="N23" t="s">
-        <v>38</v>
+      <c r="N23">
+        <v>21</v>
       </c>
       <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23">
         <v>2</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>1</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2086,23 +2374,35 @@
       <c r="M24">
         <v>22</v>
       </c>
-      <c r="N24" t="s">
-        <v>39</v>
+      <c r="N24">
+        <v>22</v>
       </c>
       <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>1</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2142,23 +2442,35 @@
       <c r="M25">
         <v>23</v>
       </c>
-      <c r="N25" t="s">
-        <v>40</v>
+      <c r="N25">
+        <v>23</v>
       </c>
       <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25">
         <v>3</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2198,23 +2510,35 @@
       <c r="M26">
         <v>24</v>
       </c>
-      <c r="N26" t="s">
-        <v>41</v>
+      <c r="N26">
+        <v>24</v>
       </c>
       <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26">
         <v>3</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>1</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2254,23 +2578,35 @@
       <c r="M27">
         <v>25</v>
       </c>
-      <c r="N27" t="s">
-        <v>42</v>
+      <c r="N27">
+        <v>25</v>
       </c>
       <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27">
         <v>3</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>1</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2310,23 +2646,35 @@
       <c r="M28">
         <v>26</v>
       </c>
-      <c r="N28" t="s">
-        <v>43</v>
+      <c r="N28">
+        <v>26</v>
       </c>
       <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>26</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28">
         <v>3</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>1</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2366,23 +2714,35 @@
       <c r="M29">
         <v>27</v>
       </c>
-      <c r="N29" t="s">
-        <v>44</v>
+      <c r="N29">
+        <v>27</v>
       </c>
       <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29">
         <v>3</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>1</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2422,23 +2782,35 @@
       <c r="M30">
         <v>28</v>
       </c>
-      <c r="N30" t="s">
-        <v>45</v>
+      <c r="N30">
+        <v>28</v>
       </c>
       <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>28</v>
+      </c>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30">
         <v>155</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2452,16 +2824,16 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31">
         <v>30</v>
@@ -2478,23 +2850,35 @@
       <c r="M31">
         <v>30</v>
       </c>
-      <c r="N31" t="s">
-        <v>46</v>
+      <c r="N31">
+        <v>30</v>
       </c>
       <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="R31" t="s">
+        <v>50</v>
+      </c>
+      <c r="S31">
         <v>201</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2508,16 +2892,16 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32">
         <v>32</v>
@@ -2534,23 +2918,35 @@
       <c r="M32">
         <v>32</v>
       </c>
-      <c r="N32" t="s">
-        <v>47</v>
+      <c r="N32">
+        <v>32</v>
       </c>
       <c r="O32">
+        <v>32</v>
+      </c>
+      <c r="P32">
+        <v>32</v>
+      </c>
+      <c r="Q32">
+        <v>32</v>
+      </c>
+      <c r="R32" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32">
         <v>226</v>
       </c>
-      <c r="P32">
+      <c r="T32">
         <v>1</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2564,16 +2960,16 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I33">
         <v>34</v>
@@ -2590,23 +2986,35 @@
       <c r="M33">
         <v>34</v>
       </c>
-      <c r="N33" t="s">
-        <v>48</v>
+      <c r="N33">
+        <v>34</v>
       </c>
       <c r="O33">
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>34</v>
+      </c>
+      <c r="Q33">
+        <v>34</v>
+      </c>
+      <c r="R33" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33">
         <v>238</v>
       </c>
-      <c r="P33">
+      <c r="T33">
         <v>2</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2620,16 +3028,16 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I34">
         <v>36</v>
@@ -2646,23 +3054,35 @@
       <c r="M34">
         <v>36</v>
       </c>
-      <c r="N34" t="s">
-        <v>49</v>
+      <c r="N34">
+        <v>36</v>
       </c>
       <c r="O34">
+        <v>36</v>
+      </c>
+      <c r="P34">
+        <v>36</v>
+      </c>
+      <c r="Q34">
+        <v>36</v>
+      </c>
+      <c r="R34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34">
         <v>293</v>
       </c>
-      <c r="P34">
+      <c r="T34">
         <v>3</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2676,16 +3096,16 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I35">
         <v>38</v>
@@ -2702,23 +3122,35 @@
       <c r="M35">
         <v>38</v>
       </c>
-      <c r="N35" t="s">
-        <v>50</v>
+      <c r="N35">
+        <v>38</v>
       </c>
       <c r="O35">
+        <v>38</v>
+      </c>
+      <c r="P35">
+        <v>38</v>
+      </c>
+      <c r="Q35">
+        <v>38</v>
+      </c>
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35">
         <v>341</v>
       </c>
-      <c r="P35">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2732,16 +3164,16 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <v>40</v>
@@ -2758,23 +3190,35 @@
       <c r="M36">
         <v>40</v>
       </c>
-      <c r="N36" t="s">
-        <v>51</v>
+      <c r="N36">
+        <v>40</v>
       </c>
       <c r="O36">
+        <v>40</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s">
+        <v>55</v>
+      </c>
+      <c r="S36">
         <v>413</v>
       </c>
-      <c r="P36">
+      <c r="T36">
         <v>6</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2788,16 +3232,16 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I37">
         <v>42</v>
@@ -2814,23 +3258,35 @@
       <c r="M37">
         <v>42</v>
       </c>
-      <c r="N37" t="s">
-        <v>52</v>
+      <c r="N37">
+        <v>42</v>
       </c>
       <c r="O37">
+        <v>42</v>
+      </c>
+      <c r="P37">
+        <v>42</v>
+      </c>
+      <c r="Q37">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37">
         <v>484</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>7</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2844,16 +3300,16 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>44</v>
@@ -2870,23 +3326,35 @@
       <c r="M38">
         <v>44</v>
       </c>
-      <c r="N38" t="s">
-        <v>53</v>
+      <c r="N38">
+        <v>44</v>
       </c>
       <c r="O38">
+        <v>44</v>
+      </c>
+      <c r="P38">
+        <v>44</v>
+      </c>
+      <c r="Q38">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38">
         <v>515</v>
       </c>
-      <c r="P38">
+      <c r="T38">
         <v>7</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2900,16 +3368,16 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>46</v>
@@ -2926,23 +3394,35 @@
       <c r="M39">
         <v>46</v>
       </c>
-      <c r="N39" t="s">
-        <v>54</v>
+      <c r="N39">
+        <v>46</v>
       </c>
       <c r="O39">
+        <v>46</v>
+      </c>
+      <c r="P39">
+        <v>46</v>
+      </c>
+      <c r="Q39">
+        <v>46</v>
+      </c>
+      <c r="R39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39">
         <v>603</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>7</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2956,16 +3436,16 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I40">
         <v>48</v>
@@ -2982,23 +3462,35 @@
       <c r="M40">
         <v>48</v>
       </c>
-      <c r="N40" t="s">
-        <v>55</v>
+      <c r="N40">
+        <v>48</v>
       </c>
       <c r="O40">
+        <v>48</v>
+      </c>
+      <c r="P40">
+        <v>48</v>
+      </c>
+      <c r="Q40">
+        <v>48</v>
+      </c>
+      <c r="R40" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40">
         <v>733</v>
       </c>
-      <c r="P40">
+      <c r="T40">
         <v>9</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3012,16 +3504,16 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I41">
         <v>50</v>
@@ -3038,23 +3530,35 @@
       <c r="M41">
         <v>50</v>
       </c>
-      <c r="N41" t="s">
-        <v>56</v>
+      <c r="N41">
+        <v>50</v>
       </c>
       <c r="O41">
+        <v>50</v>
+      </c>
+      <c r="P41">
+        <v>50</v>
+      </c>
+      <c r="Q41">
+        <v>50</v>
+      </c>
+      <c r="R41" t="s">
+        <v>60</v>
+      </c>
+      <c r="S41">
         <v>849</v>
       </c>
-      <c r="P41">
+      <c r="T41">
         <v>15</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3068,16 +3572,16 @@
         <v>40</v>
       </c>
       <c r="E42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I42">
         <v>52</v>
@@ -3094,23 +3598,35 @@
       <c r="M42">
         <v>52</v>
       </c>
-      <c r="N42" t="s">
-        <v>57</v>
+      <c r="N42">
+        <v>52</v>
       </c>
       <c r="O42">
+        <v>52</v>
+      </c>
+      <c r="P42">
+        <v>52</v>
+      </c>
+      <c r="Q42">
+        <v>52</v>
+      </c>
+      <c r="R42" t="s">
+        <v>61</v>
+      </c>
+      <c r="S42">
         <v>966</v>
       </c>
-      <c r="P42">
+      <c r="T42">
         <v>16</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3124,16 +3640,16 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I43">
         <v>54</v>
@@ -3150,23 +3666,35 @@
       <c r="M43">
         <v>54</v>
       </c>
-      <c r="N43" t="s">
-        <v>58</v>
+      <c r="N43">
+        <v>54</v>
       </c>
       <c r="O43">
+        <v>54</v>
+      </c>
+      <c r="P43">
+        <v>54</v>
+      </c>
+      <c r="Q43">
+        <v>54</v>
+      </c>
+      <c r="R43" t="s">
+        <v>62</v>
+      </c>
+      <c r="S43">
         <v>1112</v>
       </c>
-      <c r="P43">
+      <c r="T43">
         <v>17</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3180,16 +3708,16 @@
         <v>42</v>
       </c>
       <c r="E44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I44">
         <v>56</v>
@@ -3206,23 +3734,35 @@
       <c r="M44">
         <v>56</v>
       </c>
-      <c r="N44" t="s">
-        <v>59</v>
+      <c r="N44">
+        <v>56</v>
       </c>
       <c r="O44">
+        <v>56</v>
+      </c>
+      <c r="P44">
+        <v>56</v>
+      </c>
+      <c r="Q44">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>63</v>
+      </c>
+      <c r="S44">
         <v>1209</v>
       </c>
-      <c r="P44">
+      <c r="T44">
         <v>18</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3236,16 +3776,16 @@
         <v>43</v>
       </c>
       <c r="E45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I45">
         <v>58</v>
@@ -3262,23 +3802,35 @@
       <c r="M45">
         <v>58</v>
       </c>
-      <c r="N45" t="s">
-        <v>60</v>
+      <c r="N45">
+        <v>58</v>
       </c>
       <c r="O45">
+        <v>58</v>
+      </c>
+      <c r="P45">
+        <v>58</v>
+      </c>
+      <c r="Q45">
+        <v>58</v>
+      </c>
+      <c r="R45" t="s">
+        <v>64</v>
+      </c>
+      <c r="S45">
         <v>1326</v>
       </c>
-      <c r="P45">
+      <c r="T45">
         <v>19</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3292,16 +3844,16 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I46">
         <v>60</v>
@@ -3318,23 +3870,35 @@
       <c r="M46">
         <v>60</v>
       </c>
-      <c r="N46" t="s">
-        <v>61</v>
+      <c r="N46">
+        <v>60</v>
       </c>
       <c r="O46">
+        <v>60</v>
+      </c>
+      <c r="P46">
+        <v>60</v>
+      </c>
+      <c r="Q46">
+        <v>60</v>
+      </c>
+      <c r="R46" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46">
         <v>1404</v>
       </c>
-      <c r="P46">
+      <c r="T46">
         <v>19</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3348,16 +3912,16 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I47">
         <v>62</v>
@@ -3374,23 +3938,35 @@
       <c r="M47">
         <v>62</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47">
         <v>62</v>
       </c>
       <c r="O47">
+        <v>62</v>
+      </c>
+      <c r="P47">
+        <v>62</v>
+      </c>
+      <c r="Q47">
+        <v>62</v>
+      </c>
+      <c r="R47" t="s">
+        <v>66</v>
+      </c>
+      <c r="S47">
         <v>1454</v>
       </c>
-      <c r="P47">
+      <c r="T47">
         <v>31</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3404,16 +3980,16 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I48">
         <v>64</v>
@@ -3430,23 +4006,35 @@
       <c r="M48">
         <v>64</v>
       </c>
-      <c r="N48" t="s">
-        <v>63</v>
+      <c r="N48">
+        <v>64</v>
       </c>
       <c r="O48">
+        <v>64</v>
+      </c>
+      <c r="P48">
+        <v>64</v>
+      </c>
+      <c r="Q48">
+        <v>64</v>
+      </c>
+      <c r="R48" t="s">
+        <v>67</v>
+      </c>
+      <c r="S48">
         <v>1530</v>
       </c>
-      <c r="P48">
+      <c r="T48">
         <v>36</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3460,16 +4048,16 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I49">
         <v>66</v>
@@ -3486,23 +4074,35 @@
       <c r="M49">
         <v>66</v>
       </c>
-      <c r="N49" t="s">
-        <v>64</v>
+      <c r="N49">
+        <v>66</v>
       </c>
       <c r="O49">
+        <v>66</v>
+      </c>
+      <c r="P49">
+        <v>66</v>
+      </c>
+      <c r="Q49">
+        <v>66</v>
+      </c>
+      <c r="R49" t="s">
+        <v>68</v>
+      </c>
+      <c r="S49">
         <v>1628</v>
       </c>
-      <c r="P49">
+      <c r="T49">
         <v>40</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3516,16 +4116,16 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I50">
         <v>68</v>
@@ -3542,23 +4142,35 @@
       <c r="M50">
         <v>68</v>
       </c>
-      <c r="N50" t="s">
-        <v>65</v>
+      <c r="N50">
+        <v>68</v>
       </c>
       <c r="O50">
+        <v>68</v>
+      </c>
+      <c r="P50">
+        <v>68</v>
+      </c>
+      <c r="Q50">
+        <v>68</v>
+      </c>
+      <c r="R50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S50">
         <v>1693</v>
       </c>
-      <c r="P50">
+      <c r="T50">
         <v>44</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3572,16 +4184,16 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I51">
         <v>70</v>
@@ -3598,23 +4210,35 @@
       <c r="M51">
         <v>70</v>
       </c>
-      <c r="N51" t="s">
-        <v>66</v>
+      <c r="N51">
+        <v>70</v>
       </c>
       <c r="O51">
+        <v>70</v>
+      </c>
+      <c r="P51">
+        <v>70</v>
+      </c>
+      <c r="Q51">
+        <v>70</v>
+      </c>
+      <c r="R51" t="s">
+        <v>70</v>
+      </c>
+      <c r="S51">
         <v>1761</v>
       </c>
-      <c r="P51">
+      <c r="T51">
         <v>45</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3628,16 +4252,16 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I52">
         <v>72</v>
@@ -3654,23 +4278,35 @@
       <c r="M52">
         <v>72</v>
       </c>
-      <c r="N52" t="s">
-        <v>67</v>
+      <c r="N52">
+        <v>72</v>
       </c>
       <c r="O52">
+        <v>72</v>
+      </c>
+      <c r="P52">
+        <v>72</v>
+      </c>
+      <c r="Q52">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s">
+        <v>71</v>
+      </c>
+      <c r="S52">
         <v>1804</v>
       </c>
-      <c r="P52">
+      <c r="T52">
         <v>45</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3684,16 +4320,16 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I53">
         <v>74</v>
@@ -3710,23 +4346,35 @@
       <c r="M53">
         <v>74</v>
       </c>
-      <c r="N53" t="s">
-        <v>68</v>
+      <c r="N53">
+        <v>74</v>
       </c>
       <c r="O53">
+        <v>74</v>
+      </c>
+      <c r="P53">
+        <v>74</v>
+      </c>
+      <c r="Q53">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s">
+        <v>72</v>
+      </c>
+      <c r="S53">
         <v>1847</v>
       </c>
-      <c r="P53">
+      <c r="T53">
         <v>47</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3740,16 +4388,16 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I54">
         <v>76</v>
@@ -3766,23 +4414,35 @@
       <c r="M54">
         <v>76</v>
       </c>
-      <c r="N54" t="s">
-        <v>69</v>
+      <c r="N54">
+        <v>76</v>
       </c>
       <c r="O54">
+        <v>76</v>
+      </c>
+      <c r="P54">
+        <v>76</v>
+      </c>
+      <c r="Q54">
+        <v>76</v>
+      </c>
+      <c r="R54" t="s">
+        <v>73</v>
+      </c>
+      <c r="S54">
         <v>1930</v>
       </c>
-      <c r="P54">
+      <c r="T54">
         <v>53</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3796,16 +4456,16 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="H55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I55">
         <v>78</v>
@@ -3822,23 +4482,35 @@
       <c r="M55">
         <v>78</v>
       </c>
-      <c r="N55" t="s">
-        <v>70</v>
+      <c r="N55">
+        <v>78</v>
       </c>
       <c r="O55">
+        <v>78</v>
+      </c>
+      <c r="P55">
+        <v>78</v>
+      </c>
+      <c r="Q55">
+        <v>78</v>
+      </c>
+      <c r="R55" t="s">
+        <v>74</v>
+      </c>
+      <c r="S55">
         <v>2012</v>
       </c>
-      <c r="P55">
+      <c r="T55">
         <v>60</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3852,16 +4524,16 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I56">
         <v>80</v>
@@ -3878,23 +4550,35 @@
       <c r="M56">
         <v>80</v>
       </c>
-      <c r="N56" t="s">
-        <v>71</v>
+      <c r="N56">
+        <v>80</v>
       </c>
       <c r="O56">
+        <v>80</v>
+      </c>
+      <c r="P56">
+        <v>80</v>
+      </c>
+      <c r="Q56">
+        <v>80</v>
+      </c>
+      <c r="R56" t="s">
+        <v>75</v>
+      </c>
+      <c r="S56">
         <v>2087</v>
       </c>
-      <c r="P56">
+      <c r="T56">
         <v>63</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3908,16 +4592,16 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I57">
         <v>82</v>
@@ -3934,23 +4618,35 @@
       <c r="M57">
         <v>82</v>
       </c>
-      <c r="N57" t="s">
-        <v>72</v>
+      <c r="N57">
+        <v>82</v>
       </c>
       <c r="O57">
+        <v>82</v>
+      </c>
+      <c r="P57">
+        <v>82</v>
+      </c>
+      <c r="Q57">
+        <v>82</v>
+      </c>
+      <c r="R57" t="s">
+        <v>76</v>
+      </c>
+      <c r="S57">
         <v>2158</v>
       </c>
-      <c r="P57">
+      <c r="T57">
         <v>70</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3964,16 +4660,16 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I58">
         <v>84</v>
@@ -3990,23 +4686,35 @@
       <c r="M58">
         <v>84</v>
       </c>
-      <c r="N58" t="s">
-        <v>73</v>
+      <c r="N58">
+        <v>84</v>
       </c>
       <c r="O58">
+        <v>84</v>
+      </c>
+      <c r="P58">
+        <v>84</v>
+      </c>
+      <c r="Q58">
+        <v>84</v>
+      </c>
+      <c r="R58" t="s">
+        <v>77</v>
+      </c>
+      <c r="S58">
         <v>2213</v>
       </c>
-      <c r="P58">
+      <c r="T58">
         <v>71</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4020,16 +4728,16 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I59">
         <v>86</v>
@@ -4046,23 +4754,35 @@
       <c r="M59">
         <v>86</v>
       </c>
-      <c r="N59" t="s">
-        <v>74</v>
+      <c r="N59">
+        <v>86</v>
       </c>
       <c r="O59">
+        <v>86</v>
+      </c>
+      <c r="P59">
+        <v>86</v>
+      </c>
+      <c r="Q59">
+        <v>86</v>
+      </c>
+      <c r="R59" t="s">
+        <v>78</v>
+      </c>
+      <c r="S59">
         <v>2268</v>
       </c>
-      <c r="P59">
+      <c r="T59">
         <v>71</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4076,16 +4796,16 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="H60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I60">
         <v>88</v>
@@ -4102,23 +4822,35 @@
       <c r="M60">
         <v>88</v>
       </c>
-      <c r="N60" t="s">
-        <v>75</v>
+      <c r="N60">
+        <v>88</v>
       </c>
       <c r="O60">
+        <v>88</v>
+      </c>
+      <c r="P60">
+        <v>88</v>
+      </c>
+      <c r="Q60">
+        <v>88</v>
+      </c>
+      <c r="R60" t="s">
+        <v>79</v>
+      </c>
+      <c r="S60">
         <v>2325</v>
       </c>
-      <c r="P60">
+      <c r="T60">
         <v>72</v>
       </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4132,16 +4864,16 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I61">
         <v>90</v>
@@ -4158,23 +4890,35 @@
       <c r="M61">
         <v>90</v>
       </c>
-      <c r="N61" t="s">
-        <v>76</v>
+      <c r="N61">
+        <v>90</v>
       </c>
       <c r="O61">
+        <v>90</v>
+      </c>
+      <c r="P61">
+        <v>90</v>
+      </c>
+      <c r="Q61">
+        <v>90</v>
+      </c>
+      <c r="R61" t="s">
+        <v>80</v>
+      </c>
+      <c r="S61">
         <v>2491</v>
       </c>
-      <c r="P61">
+      <c r="T61">
         <v>96</v>
       </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4188,16 +4932,16 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I62">
         <v>92</v>
@@ -4214,23 +4958,35 @@
       <c r="M62">
         <v>92</v>
       </c>
-      <c r="N62" t="s">
-        <v>77</v>
+      <c r="N62">
+        <v>92</v>
       </c>
       <c r="O62">
+        <v>92</v>
+      </c>
+      <c r="P62">
+        <v>92</v>
+      </c>
+      <c r="Q62">
+        <v>92</v>
+      </c>
+      <c r="R62" t="s">
+        <v>81</v>
+      </c>
+      <c r="S62">
         <v>2643</v>
       </c>
-      <c r="P62">
+      <c r="T62">
         <v>100</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4244,16 +5000,16 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="H63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I63">
         <v>94</v>
@@ -4270,23 +5026,35 @@
       <c r="M63">
         <v>94</v>
       </c>
-      <c r="N63" t="s">
-        <v>78</v>
+      <c r="N63">
+        <v>94</v>
       </c>
       <c r="O63">
+        <v>94</v>
+      </c>
+      <c r="P63">
+        <v>94</v>
+      </c>
+      <c r="Q63">
+        <v>94</v>
+      </c>
+      <c r="R63" t="s">
+        <v>82</v>
+      </c>
+      <c r="S63">
         <v>2826</v>
       </c>
-      <c r="P63">
+      <c r="T63">
         <v>102</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4300,16 +5068,16 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="I64">
         <v>96</v>
@@ -4326,23 +5094,35 @@
       <c r="M64">
         <v>96</v>
       </c>
-      <c r="N64" t="s">
-        <v>79</v>
+      <c r="N64">
+        <v>96</v>
       </c>
       <c r="O64">
+        <v>96</v>
+      </c>
+      <c r="P64">
+        <v>96</v>
+      </c>
+      <c r="Q64">
+        <v>96</v>
+      </c>
+      <c r="R64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S64">
         <v>2943</v>
       </c>
-      <c r="P64">
+      <c r="T64">
         <v>111</v>
       </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4356,16 +5136,16 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I65">
         <v>98</v>
@@ -4382,23 +5162,35 @@
       <c r="M65">
         <v>98</v>
       </c>
-      <c r="N65" t="s">
-        <v>80</v>
+      <c r="N65">
+        <v>98</v>
       </c>
       <c r="O65">
+        <v>98</v>
+      </c>
+      <c r="P65">
+        <v>98</v>
+      </c>
+      <c r="Q65">
+        <v>98</v>
+      </c>
+      <c r="R65" t="s">
+        <v>84</v>
+      </c>
+      <c r="S65">
         <v>2943</v>
       </c>
-      <c r="P65">
+      <c r="T65">
         <v>111</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4412,16 +5204,16 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I66">
         <v>100</v>
@@ -4438,23 +5230,35 @@
       <c r="M66">
         <v>100</v>
       </c>
-      <c r="N66" t="s">
-        <v>81</v>
+      <c r="N66">
+        <v>100</v>
       </c>
       <c r="O66">
+        <v>100</v>
+      </c>
+      <c r="P66">
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <v>100</v>
+      </c>
+      <c r="R66" t="s">
+        <v>85</v>
+      </c>
+      <c r="S66">
         <v>3043</v>
       </c>
-      <c r="P66">
+      <c r="T66">
         <v>111</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4468,16 +5272,16 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="G67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="H67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="I67">
         <v>102</v>
@@ -4494,23 +5298,35 @@
       <c r="M67">
         <v>102</v>
       </c>
-      <c r="N67" t="s">
-        <v>82</v>
+      <c r="N67">
+        <v>102</v>
       </c>
       <c r="O67">
+        <v>102</v>
+      </c>
+      <c r="P67">
+        <v>102</v>
+      </c>
+      <c r="Q67">
+        <v>102</v>
+      </c>
+      <c r="R67" t="s">
+        <v>86</v>
+      </c>
+      <c r="S67">
         <v>3141</v>
       </c>
-      <c r="P67">
+      <c r="T67">
         <v>113</v>
       </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4524,16 +5340,16 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="G68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="H68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="I68">
         <v>104</v>
@@ -4550,23 +5366,35 @@
       <c r="M68">
         <v>104</v>
       </c>
-      <c r="N68" t="s">
-        <v>83</v>
+      <c r="N68">
+        <v>104</v>
       </c>
       <c r="O68">
+        <v>104</v>
+      </c>
+      <c r="P68">
+        <v>104</v>
+      </c>
+      <c r="Q68">
+        <v>104</v>
+      </c>
+      <c r="R68" t="s">
+        <v>87</v>
+      </c>
+      <c r="S68">
         <v>3432</v>
       </c>
-      <c r="P68">
+      <c r="T68">
         <v>120</v>
       </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4580,16 +5408,16 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="G69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="H69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="I69">
         <v>106</v>
@@ -4606,23 +5434,35 @@
       <c r="M69">
         <v>106</v>
       </c>
-      <c r="N69" t="s">
-        <v>84</v>
+      <c r="N69">
+        <v>106</v>
       </c>
       <c r="O69">
+        <v>106</v>
+      </c>
+      <c r="P69">
+        <v>106</v>
+      </c>
+      <c r="Q69">
+        <v>106</v>
+      </c>
+      <c r="R69" t="s">
+        <v>88</v>
+      </c>
+      <c r="S69">
         <v>3432</v>
       </c>
-      <c r="P69">
+      <c r="T69">
         <v>120</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4636,16 +5476,16 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="G70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="H70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="I70">
         <v>108</v>
@@ -4662,23 +5502,35 @@
       <c r="M70">
         <v>108</v>
       </c>
-      <c r="N70" t="s">
-        <v>85</v>
+      <c r="N70">
+        <v>108</v>
       </c>
       <c r="O70">
+        <v>108</v>
+      </c>
+      <c r="P70">
+        <v>108</v>
+      </c>
+      <c r="Q70">
+        <v>108</v>
+      </c>
+      <c r="R70" t="s">
+        <v>89</v>
+      </c>
+      <c r="S70">
         <v>3564</v>
       </c>
-      <c r="P70">
+      <c r="T70">
         <v>124</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4692,16 +5544,16 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="H71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="I71">
         <v>110</v>
@@ -4718,23 +5570,35 @@
       <c r="M71">
         <v>110</v>
       </c>
-      <c r="N71" t="s">
-        <v>86</v>
+      <c r="N71">
+        <v>110</v>
       </c>
       <c r="O71">
+        <v>110</v>
+      </c>
+      <c r="P71">
+        <v>110</v>
+      </c>
+      <c r="Q71">
+        <v>110</v>
+      </c>
+      <c r="R71" t="s">
+        <v>90</v>
+      </c>
+      <c r="S71">
         <v>3711</v>
       </c>
-      <c r="P71">
+      <c r="T71">
         <v>134</v>
       </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4748,16 +5612,16 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="H72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="I72">
         <v>112</v>
@@ -4774,23 +5638,35 @@
       <c r="M72">
         <v>112</v>
       </c>
-      <c r="N72" t="s">
-        <v>87</v>
+      <c r="N72">
+        <v>112</v>
       </c>
       <c r="O72">
+        <v>112</v>
+      </c>
+      <c r="P72">
+        <v>112</v>
+      </c>
+      <c r="Q72">
+        <v>112</v>
+      </c>
+      <c r="R72" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72">
         <v>3927</v>
       </c>
-      <c r="P72">
+      <c r="T72">
         <v>139</v>
       </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4804,16 +5680,16 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="G73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="H73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I73">
         <v>114</v>
@@ -4830,23 +5706,35 @@
       <c r="M73">
         <v>114</v>
       </c>
-      <c r="N73" t="s">
-        <v>88</v>
+      <c r="N73">
+        <v>114</v>
       </c>
       <c r="O73">
+        <v>114</v>
+      </c>
+      <c r="P73">
+        <v>114</v>
+      </c>
+      <c r="Q73">
+        <v>114</v>
+      </c>
+      <c r="R73" t="s">
+        <v>92</v>
+      </c>
+      <c r="S73">
         <v>3927</v>
       </c>
-      <c r="P73">
+      <c r="T73">
         <v>139</v>
       </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4860,16 +5748,16 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="G74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="I74">
         <v>116</v>
@@ -4886,23 +5774,35 @@
       <c r="M74">
         <v>116</v>
       </c>
-      <c r="N74" t="s">
-        <v>89</v>
+      <c r="N74">
+        <v>116</v>
       </c>
       <c r="O74">
+        <v>116</v>
+      </c>
+      <c r="P74">
+        <v>116</v>
+      </c>
+      <c r="Q74">
+        <v>116</v>
+      </c>
+      <c r="R74" t="s">
+        <v>93</v>
+      </c>
+      <c r="S74">
         <v>4020</v>
       </c>
-      <c r="P74">
+      <c r="T74">
         <v>144</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4916,16 +5816,16 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="I75">
         <v>118</v>
@@ -4942,23 +5842,35 @@
       <c r="M75">
         <v>118</v>
       </c>
-      <c r="N75" t="s">
-        <v>90</v>
+      <c r="N75">
+        <v>118</v>
       </c>
       <c r="O75">
+        <v>118</v>
+      </c>
+      <c r="P75">
+        <v>118</v>
+      </c>
+      <c r="Q75">
+        <v>118</v>
+      </c>
+      <c r="R75" t="s">
+        <v>94</v>
+      </c>
+      <c r="S75">
         <v>4319</v>
       </c>
-      <c r="P75">
+      <c r="T75">
         <v>158</v>
       </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4972,16 +5884,16 @@
         <v>74</v>
       </c>
       <c r="E76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="G76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="H76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="I76">
         <v>120</v>
@@ -4998,23 +5910,35 @@
       <c r="M76">
         <v>120</v>
       </c>
-      <c r="N76" t="s">
-        <v>91</v>
+      <c r="N76">
+        <v>120</v>
       </c>
       <c r="O76">
+        <v>120</v>
+      </c>
+      <c r="P76">
+        <v>120</v>
+      </c>
+      <c r="Q76">
+        <v>120</v>
+      </c>
+      <c r="R76" t="s">
+        <v>95</v>
+      </c>
+      <c r="S76">
         <v>4319</v>
       </c>
-      <c r="P76">
+      <c r="T76">
         <v>158</v>
       </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5028,16 +5952,16 @@
         <v>75</v>
       </c>
       <c r="E77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="G77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="H77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="I77">
         <v>122</v>
@@ -5054,23 +5978,35 @@
       <c r="M77">
         <v>122</v>
       </c>
-      <c r="N77" t="s">
-        <v>92</v>
+      <c r="N77">
+        <v>122</v>
       </c>
       <c r="O77">
+        <v>122</v>
+      </c>
+      <c r="P77">
+        <v>122</v>
+      </c>
+      <c r="Q77">
+        <v>122</v>
+      </c>
+      <c r="R77" t="s">
+        <v>96</v>
+      </c>
+      <c r="S77">
         <v>4429</v>
       </c>
-      <c r="P77">
+      <c r="T77">
         <v>165</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5084,16 +6020,16 @@
         <v>76</v>
       </c>
       <c r="E78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="G78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="H78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="I78">
         <v>124</v>
@@ -5110,23 +6046,35 @@
       <c r="M78">
         <v>124</v>
       </c>
-      <c r="N78" t="s">
-        <v>93</v>
+      <c r="N78">
+        <v>124</v>
       </c>
       <c r="O78">
+        <v>124</v>
+      </c>
+      <c r="P78">
+        <v>124</v>
+      </c>
+      <c r="Q78">
+        <v>124</v>
+      </c>
+      <c r="R78" t="s">
+        <v>97</v>
+      </c>
+      <c r="S78">
         <v>4662</v>
       </c>
-      <c r="P78">
+      <c r="T78">
         <v>169</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5140,16 +6088,16 @@
         <v>77</v>
       </c>
       <c r="E79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I79">
         <v>126</v>
@@ -5166,23 +6114,35 @@
       <c r="M79">
         <v>126</v>
       </c>
-      <c r="N79" t="s">
-        <v>94</v>
+      <c r="N79">
+        <v>126</v>
       </c>
       <c r="O79">
+        <v>126</v>
+      </c>
+      <c r="P79">
+        <v>126</v>
+      </c>
+      <c r="Q79">
+        <v>126</v>
+      </c>
+      <c r="R79" t="s">
+        <v>98</v>
+      </c>
+      <c r="S79">
         <v>4776</v>
       </c>
-      <c r="P79">
+      <c r="T79">
         <v>175</v>
       </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5196,16 +6156,16 @@
         <v>78</v>
       </c>
       <c r="E80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="H80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="I80">
         <v>128</v>
@@ -5222,23 +6182,35 @@
       <c r="M80">
         <v>128</v>
       </c>
-      <c r="N80" t="s">
-        <v>95</v>
+      <c r="N80">
+        <v>128</v>
       </c>
       <c r="O80">
+        <v>128</v>
+      </c>
+      <c r="P80">
+        <v>128</v>
+      </c>
+      <c r="Q80">
+        <v>128</v>
+      </c>
+      <c r="R80" t="s">
+        <v>99</v>
+      </c>
+      <c r="S80">
         <v>5065</v>
       </c>
-      <c r="P80">
+      <c r="T80">
         <v>175</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5252,16 +6224,16 @@
         <v>79</v>
       </c>
       <c r="E81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="G81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="H81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I81">
         <v>130</v>
@@ -5278,23 +6250,35 @@
       <c r="M81">
         <v>130</v>
       </c>
-      <c r="N81" t="s">
-        <v>96</v>
+      <c r="N81">
+        <v>130</v>
       </c>
       <c r="O81">
+        <v>130</v>
+      </c>
+      <c r="P81">
+        <v>130</v>
+      </c>
+      <c r="Q81">
+        <v>130</v>
+      </c>
+      <c r="R81" t="s">
+        <v>100</v>
+      </c>
+      <c r="S81">
         <v>5161</v>
       </c>
-      <c r="P81">
+      <c r="T81">
         <v>190</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5308,16 +6292,16 @@
         <v>80</v>
       </c>
       <c r="E82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="F82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="H82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="I82">
         <v>132</v>
@@ -5334,23 +6318,35 @@
       <c r="M82">
         <v>132</v>
       </c>
-      <c r="N82" t="s">
-        <v>97</v>
+      <c r="N82">
+        <v>132</v>
       </c>
       <c r="O82">
+        <v>132</v>
+      </c>
+      <c r="P82">
+        <v>132</v>
+      </c>
+      <c r="Q82">
+        <v>132</v>
+      </c>
+      <c r="R82" t="s">
+        <v>101</v>
+      </c>
+      <c r="S82">
         <v>5161</v>
       </c>
-      <c r="P82">
+      <c r="T82">
         <v>190</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5364,16 +6360,16 @@
         <v>81</v>
       </c>
       <c r="E83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="F83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="G83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="H83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I83">
         <v>134</v>
@@ -5390,23 +6386,35 @@
       <c r="M83">
         <v>134</v>
       </c>
-      <c r="N83" t="s">
-        <v>98</v>
+      <c r="N83">
+        <v>134</v>
       </c>
       <c r="O83">
+        <v>134</v>
+      </c>
+      <c r="P83">
+        <v>134</v>
+      </c>
+      <c r="Q83">
+        <v>134</v>
+      </c>
+      <c r="R83" t="s">
+        <v>102</v>
+      </c>
+      <c r="S83">
         <v>5391</v>
       </c>
-      <c r="P83">
+      <c r="T83">
         <v>200</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5420,16 +6428,16 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="F84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="G84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="H84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="I84">
         <v>136</v>
@@ -5446,23 +6454,35 @@
       <c r="M84">
         <v>136</v>
       </c>
-      <c r="N84" t="s">
-        <v>99</v>
+      <c r="N84">
+        <v>136</v>
       </c>
       <c r="O84">
+        <v>136</v>
+      </c>
+      <c r="P84">
+        <v>136</v>
+      </c>
+      <c r="Q84">
+        <v>136</v>
+      </c>
+      <c r="R84" t="s">
+        <v>103</v>
+      </c>
+      <c r="S84">
         <v>5391</v>
       </c>
-      <c r="P84">
+      <c r="T84">
         <v>200</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5476,16 +6496,16 @@
         <v>83</v>
       </c>
       <c r="E85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="F85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="G85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="H85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="I85">
         <v>138</v>
@@ -5502,23 +6522,35 @@
       <c r="M85">
         <v>138</v>
       </c>
-      <c r="N85" t="s">
-        <v>100</v>
+      <c r="N85">
+        <v>138</v>
       </c>
       <c r="O85">
+        <v>138</v>
+      </c>
+      <c r="P85">
+        <v>138</v>
+      </c>
+      <c r="Q85">
+        <v>138</v>
+      </c>
+      <c r="R85" t="s">
+        <v>104</v>
+      </c>
+      <c r="S85">
         <v>5662</v>
       </c>
-      <c r="P85">
+      <c r="T85">
         <v>209</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5532,16 +6564,16 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="F86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="G86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="I86">
         <v>140</v>
@@ -5558,23 +6590,35 @@
       <c r="M86">
         <v>140</v>
       </c>
-      <c r="N86" t="s">
-        <v>101</v>
+      <c r="N86">
+        <v>140</v>
       </c>
       <c r="O86">
+        <v>140</v>
+      </c>
+      <c r="P86">
+        <v>140</v>
+      </c>
+      <c r="Q86">
+        <v>140</v>
+      </c>
+      <c r="R86" t="s">
+        <v>105</v>
+      </c>
+      <c r="S86">
         <v>5836</v>
       </c>
-      <c r="P86">
+      <c r="T86">
         <v>209</v>
       </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5588,16 +6632,16 @@
         <v>85</v>
       </c>
       <c r="E87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="G87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="H87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="I87">
         <v>142</v>
@@ -5614,23 +6658,35 @@
       <c r="M87">
         <v>142</v>
       </c>
-      <c r="N87" t="s">
-        <v>102</v>
+      <c r="N87">
+        <v>142</v>
       </c>
       <c r="O87">
+        <v>142</v>
+      </c>
+      <c r="P87">
+        <v>142</v>
+      </c>
+      <c r="Q87">
+        <v>142</v>
+      </c>
+      <c r="R87" t="s">
+        <v>106</v>
+      </c>
+      <c r="S87">
         <v>5836</v>
       </c>
-      <c r="P87">
+      <c r="T87">
         <v>209</v>
       </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5644,16 +6700,16 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="F88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="G88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="H88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="I88">
         <v>144</v>
@@ -5670,23 +6726,35 @@
       <c r="M88">
         <v>144</v>
       </c>
-      <c r="N88" t="s">
-        <v>103</v>
+      <c r="N88">
+        <v>144</v>
       </c>
       <c r="O88">
+        <v>144</v>
+      </c>
+      <c r="P88">
+        <v>144</v>
+      </c>
+      <c r="Q88">
+        <v>144</v>
+      </c>
+      <c r="R88" t="s">
+        <v>107</v>
+      </c>
+      <c r="S88">
         <v>6026</v>
       </c>
-      <c r="P88">
+      <c r="T88">
         <v>222</v>
       </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5700,16 +6768,16 @@
         <v>87</v>
       </c>
       <c r="E89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="F89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="G89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="H89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="I89">
         <v>146</v>
@@ -5726,23 +6794,35 @@
       <c r="M89">
         <v>146</v>
       </c>
-      <c r="N89" t="s">
-        <v>104</v>
+      <c r="N89">
+        <v>146</v>
       </c>
       <c r="O89">
+        <v>146</v>
+      </c>
+      <c r="P89">
+        <v>146</v>
+      </c>
+      <c r="Q89">
+        <v>146</v>
+      </c>
+      <c r="R89" t="s">
+        <v>108</v>
+      </c>
+      <c r="S89">
         <v>6140</v>
       </c>
-      <c r="P89">
+      <c r="T89">
         <v>230</v>
       </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5756,16 +6836,16 @@
         <v>88</v>
       </c>
       <c r="E90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="F90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="G90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="H90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="I90">
         <v>148</v>
@@ -5782,23 +6862,35 @@
       <c r="M90">
         <v>148</v>
       </c>
-      <c r="N90" t="s">
-        <v>105</v>
+      <c r="N90">
+        <v>148</v>
       </c>
       <c r="O90">
+        <v>148</v>
+      </c>
+      <c r="P90">
+        <v>148</v>
+      </c>
+      <c r="Q90">
+        <v>148</v>
+      </c>
+      <c r="R90" t="s">
+        <v>109</v>
+      </c>
+      <c r="S90">
         <v>6140</v>
       </c>
-      <c r="P90">
+      <c r="T90">
         <v>230</v>
       </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5812,16 +6904,16 @@
         <v>89</v>
       </c>
       <c r="E91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="F91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="G91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="H91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="I91">
         <v>150</v>
@@ -5838,23 +6930,35 @@
       <c r="M91">
         <v>150</v>
       </c>
-      <c r="N91" t="s">
-        <v>106</v>
+      <c r="N91">
+        <v>150</v>
       </c>
       <c r="O91">
+        <v>150</v>
+      </c>
+      <c r="P91">
+        <v>150</v>
+      </c>
+      <c r="Q91">
+        <v>150</v>
+      </c>
+      <c r="R91" t="s">
+        <v>110</v>
+      </c>
+      <c r="S91">
         <v>6315</v>
       </c>
-      <c r="P91">
+      <c r="T91">
         <v>241</v>
       </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5868,16 +6972,16 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="F92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="G92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="H92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="I92">
         <v>152</v>
@@ -5894,23 +6998,35 @@
       <c r="M92">
         <v>152</v>
       </c>
-      <c r="N92" t="s">
-        <v>107</v>
+      <c r="N92">
+        <v>152</v>
       </c>
       <c r="O92">
+        <v>152</v>
+      </c>
+      <c r="P92">
+        <v>152</v>
+      </c>
+      <c r="Q92">
+        <v>152</v>
+      </c>
+      <c r="R92" t="s">
+        <v>111</v>
+      </c>
+      <c r="S92">
         <v>6559</v>
       </c>
-      <c r="P92">
+      <c r="T92">
         <v>249</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5924,16 +7040,16 @@
         <v>91</v>
       </c>
       <c r="E93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="G93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="I93">
         <v>154</v>
@@ -5950,23 +7066,35 @@
       <c r="M93">
         <v>154</v>
       </c>
-      <c r="N93" t="s">
-        <v>108</v>
+      <c r="N93">
+        <v>154</v>
       </c>
       <c r="O93">
+        <v>154</v>
+      </c>
+      <c r="P93">
+        <v>154</v>
+      </c>
+      <c r="Q93">
+        <v>154</v>
+      </c>
+      <c r="R93" t="s">
+        <v>112</v>
+      </c>
+      <c r="S93">
         <v>6559</v>
       </c>
-      <c r="P93">
+      <c r="T93">
         <v>249</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5980,16 +7108,16 @@
         <v>92</v>
       </c>
       <c r="E94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="F94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="G94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="H94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="I94">
         <v>156</v>
@@ -6006,23 +7134,35 @@
       <c r="M94">
         <v>156</v>
       </c>
-      <c r="N94" t="s">
-        <v>109</v>
+      <c r="N94">
+        <v>156</v>
       </c>
       <c r="O94">
+        <v>156</v>
+      </c>
+      <c r="P94">
+        <v>156</v>
+      </c>
+      <c r="Q94">
+        <v>156</v>
+      </c>
+      <c r="R94" t="s">
+        <v>113</v>
+      </c>
+      <c r="S94">
         <v>6701</v>
       </c>
-      <c r="P94">
+      <c r="T94">
         <v>249</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6036,16 +7176,16 @@
         <v>93</v>
       </c>
       <c r="E95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="G95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="H95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="I95">
         <v>158</v>
@@ -6062,23 +7202,35 @@
       <c r="M95">
         <v>158</v>
       </c>
-      <c r="N95" t="s">
-        <v>110</v>
+      <c r="N95">
+        <v>158</v>
       </c>
       <c r="O95">
+        <v>158</v>
+      </c>
+      <c r="P95">
+        <v>158</v>
+      </c>
+      <c r="Q95">
+        <v>158</v>
+      </c>
+      <c r="R95" t="s">
+        <v>114</v>
+      </c>
+      <c r="S95">
         <v>6797</v>
       </c>
-      <c r="P95">
+      <c r="T95">
         <v>249</v>
       </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6092,16 +7244,16 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="F96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="G96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="H96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="I96">
         <v>160</v>
@@ -6118,23 +7270,35 @@
       <c r="M96">
         <v>160</v>
       </c>
-      <c r="N96" t="s">
-        <v>111</v>
+      <c r="N96">
+        <v>160</v>
       </c>
       <c r="O96">
+        <v>160</v>
+      </c>
+      <c r="P96">
+        <v>160</v>
+      </c>
+      <c r="Q96">
+        <v>160</v>
+      </c>
+      <c r="R96" t="s">
+        <v>115</v>
+      </c>
+      <c r="S96">
         <v>6882</v>
       </c>
-      <c r="P96">
+      <c r="T96">
         <v>249</v>
       </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6148,16 +7312,16 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="G97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="H97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="I97">
         <v>162</v>
@@ -6174,23 +7338,35 @@
       <c r="M97">
         <v>162</v>
       </c>
-      <c r="N97" t="s">
-        <v>112</v>
+      <c r="N97">
+        <v>162</v>
       </c>
       <c r="O97">
+        <v>162</v>
+      </c>
+      <c r="P97">
+        <v>162</v>
+      </c>
+      <c r="Q97">
+        <v>162</v>
+      </c>
+      <c r="R97" t="s">
+        <v>116</v>
+      </c>
+      <c r="S97">
         <v>7100</v>
       </c>
-      <c r="P97">
+      <c r="T97">
         <v>260</v>
       </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6204,16 +7380,16 @@
         <v>96</v>
       </c>
       <c r="E98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="G98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="H98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="I98">
         <v>164</v>
@@ -6230,23 +7406,35 @@
       <c r="M98">
         <v>164</v>
       </c>
-      <c r="N98" t="s">
-        <v>113</v>
+      <c r="N98">
+        <v>164</v>
       </c>
       <c r="O98">
+        <v>164</v>
+      </c>
+      <c r="P98">
+        <v>164</v>
+      </c>
+      <c r="Q98">
+        <v>164</v>
+      </c>
+      <c r="R98" t="s">
+        <v>117</v>
+      </c>
+      <c r="S98">
         <v>7100</v>
       </c>
-      <c r="P98">
+      <c r="T98">
         <v>260</v>
       </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6260,16 +7448,16 @@
         <v>97</v>
       </c>
       <c r="E99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="F99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="G99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="H99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="I99">
         <v>166</v>
@@ -6286,23 +7474,35 @@
       <c r="M99">
         <v>166</v>
       </c>
-      <c r="N99" t="s">
-        <v>114</v>
+      <c r="N99">
+        <v>166</v>
       </c>
       <c r="O99">
+        <v>166</v>
+      </c>
+      <c r="P99">
+        <v>166</v>
+      </c>
+      <c r="Q99">
+        <v>166</v>
+      </c>
+      <c r="R99" t="s">
+        <v>118</v>
+      </c>
+      <c r="S99">
         <v>7385</v>
       </c>
-      <c r="P99">
+      <c r="T99">
         <v>269</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6316,16 +7516,16 @@
         <v>98</v>
       </c>
       <c r="E100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="G100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="H100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="I100">
         <v>168</v>
@@ -6342,23 +7542,35 @@
       <c r="M100">
         <v>168</v>
       </c>
-      <c r="N100" t="s">
-        <v>115</v>
+      <c r="N100">
+        <v>168</v>
       </c>
       <c r="O100">
+        <v>168</v>
+      </c>
+      <c r="P100">
+        <v>168</v>
+      </c>
+      <c r="Q100">
+        <v>168</v>
+      </c>
+      <c r="R100" t="s">
+        <v>119</v>
+      </c>
+      <c r="S100">
         <v>7481</v>
       </c>
-      <c r="P100">
+      <c r="T100">
         <v>269</v>
       </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6372,16 +7584,16 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="F101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="G101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="H101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="I101">
         <v>170</v>
@@ -6398,23 +7610,35 @@
       <c r="M101">
         <v>170</v>
       </c>
-      <c r="N101" t="s">
-        <v>116</v>
+      <c r="N101">
+        <v>170</v>
       </c>
       <c r="O101">
+        <v>170</v>
+      </c>
+      <c r="P101">
+        <v>170</v>
+      </c>
+      <c r="Q101">
+        <v>170</v>
+      </c>
+      <c r="R101" t="s">
+        <v>120</v>
+      </c>
+      <c r="S101">
         <v>7481</v>
       </c>
-      <c r="P101">
+      <c r="T101">
         <v>269</v>
       </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6428,16 +7652,16 @@
         <v>100</v>
       </c>
       <c r="E102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="G102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="H102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="I102">
         <v>172</v>
@@ -6454,23 +7678,35 @@
       <c r="M102">
         <v>172</v>
       </c>
-      <c r="N102" t="s">
-        <v>117</v>
+      <c r="N102">
+        <v>172</v>
       </c>
       <c r="O102">
+        <v>172</v>
+      </c>
+      <c r="P102">
+        <v>172</v>
+      </c>
+      <c r="Q102">
+        <v>172</v>
+      </c>
+      <c r="R102" t="s">
+        <v>121</v>
+      </c>
+      <c r="S102">
         <v>7554</v>
       </c>
-      <c r="P102">
+      <c r="T102">
         <v>269</v>
       </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6484,16 +7720,16 @@
         <v>101</v>
       </c>
       <c r="E103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="F103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="G103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="H103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="I103">
         <v>174</v>
@@ -6510,23 +7746,35 @@
       <c r="M103">
         <v>174</v>
       </c>
-      <c r="N103" t="s">
-        <v>118</v>
+      <c r="N103">
+        <v>174</v>
       </c>
       <c r="O103">
+        <v>174</v>
+      </c>
+      <c r="P103">
+        <v>174</v>
+      </c>
+      <c r="Q103">
+        <v>174</v>
+      </c>
+      <c r="R103" t="s">
+        <v>122</v>
+      </c>
+      <c r="S103">
         <v>7674</v>
       </c>
-      <c r="P103">
+      <c r="T103">
         <v>276</v>
       </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6540,16 +7788,16 @@
         <v>102</v>
       </c>
       <c r="E104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="F104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="G104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="H104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="I104">
         <v>176</v>
@@ -6566,23 +7814,35 @@
       <c r="M104">
         <v>176</v>
       </c>
-      <c r="N104" t="s">
-        <v>119</v>
+      <c r="N104">
+        <v>176</v>
       </c>
       <c r="O104">
+        <v>176</v>
+      </c>
+      <c r="P104">
+        <v>176</v>
+      </c>
+      <c r="Q104">
+        <v>176</v>
+      </c>
+      <c r="R104" t="s">
+        <v>123</v>
+      </c>
+      <c r="S104">
         <v>7798</v>
       </c>
-      <c r="P104">
+      <c r="T104">
         <v>283</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6596,16 +7856,16 @@
         <v>103</v>
       </c>
       <c r="E105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="F105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="G105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="H105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="I105">
         <v>178</v>
@@ -6622,23 +7882,35 @@
       <c r="M105">
         <v>178</v>
       </c>
-      <c r="N105" t="s">
-        <v>120</v>
+      <c r="N105">
+        <v>178</v>
       </c>
       <c r="O105">
+        <v>178</v>
+      </c>
+      <c r="P105">
+        <v>178</v>
+      </c>
+      <c r="Q105">
+        <v>178</v>
+      </c>
+      <c r="R105" t="s">
+        <v>124</v>
+      </c>
+      <c r="S105">
         <v>7940</v>
       </c>
-      <c r="P105">
+      <c r="T105">
         <v>288</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6652,16 +7924,16 @@
         <v>104</v>
       </c>
       <c r="E106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="F106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="G106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="H106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="I106">
         <v>180</v>
@@ -6678,23 +7950,35 @@
       <c r="M106">
         <v>180</v>
       </c>
-      <c r="N106" t="s">
-        <v>121</v>
+      <c r="N106">
+        <v>180</v>
       </c>
       <c r="O106">
+        <v>180</v>
+      </c>
+      <c r="P106">
+        <v>180</v>
+      </c>
+      <c r="Q106">
+        <v>180</v>
+      </c>
+      <c r="R106" t="s">
+        <v>125</v>
+      </c>
+      <c r="S106">
         <v>8345</v>
       </c>
-      <c r="P106">
+      <c r="T106">
         <v>296</v>
       </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6708,16 +7992,16 @@
         <v>105</v>
       </c>
       <c r="E107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="F107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="G107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="H107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="I107">
         <v>182</v>
@@ -6734,23 +8018,35 @@
       <c r="M107">
         <v>182</v>
       </c>
-      <c r="N107" t="s">
-        <v>122</v>
+      <c r="N107">
+        <v>182</v>
       </c>
       <c r="O107">
+        <v>182</v>
+      </c>
+      <c r="P107">
+        <v>182</v>
+      </c>
+      <c r="Q107">
+        <v>182</v>
+      </c>
+      <c r="R107" t="s">
+        <v>126</v>
+      </c>
+      <c r="S107">
         <v>8345</v>
       </c>
-      <c r="P107">
+      <c r="T107">
         <v>296</v>
       </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6764,16 +8060,16 @@
         <v>106</v>
       </c>
       <c r="E108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="F108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="G108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="I108">
         <v>184</v>
@@ -6790,23 +8086,35 @@
       <c r="M108">
         <v>184</v>
       </c>
-      <c r="N108" t="s">
-        <v>123</v>
+      <c r="N108">
+        <v>184</v>
       </c>
       <c r="O108">
+        <v>184</v>
+      </c>
+      <c r="P108">
+        <v>184</v>
+      </c>
+      <c r="Q108">
+        <v>184</v>
+      </c>
+      <c r="R108" t="s">
+        <v>127</v>
+      </c>
+      <c r="S108">
         <v>8619</v>
       </c>
-      <c r="P108">
+      <c r="T108">
         <v>296</v>
       </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:22">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6820,16 +8128,16 @@
         <v>107</v>
       </c>
       <c r="E109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="F109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="G109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="H109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="I109">
         <v>186</v>
@@ -6846,23 +8154,35 @@
       <c r="M109">
         <v>186</v>
       </c>
-      <c r="N109" t="s">
-        <v>124</v>
+      <c r="N109">
+        <v>186</v>
       </c>
       <c r="O109">
+        <v>186</v>
+      </c>
+      <c r="P109">
+        <v>186</v>
+      </c>
+      <c r="Q109">
+        <v>186</v>
+      </c>
+      <c r="R109" t="s">
+        <v>128</v>
+      </c>
+      <c r="S109">
         <v>8619</v>
       </c>
-      <c r="P109">
+      <c r="T109">
         <v>296</v>
       </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:22">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6876,16 +8196,16 @@
         <v>108</v>
       </c>
       <c r="E110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="F110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="G110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="H110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="I110">
         <v>188</v>
@@ -6902,23 +8222,35 @@
       <c r="M110">
         <v>188</v>
       </c>
-      <c r="N110" t="s">
-        <v>125</v>
+      <c r="N110">
+        <v>188</v>
       </c>
       <c r="O110">
+        <v>188</v>
+      </c>
+      <c r="P110">
+        <v>188</v>
+      </c>
+      <c r="Q110">
+        <v>188</v>
+      </c>
+      <c r="R110" t="s">
+        <v>129</v>
+      </c>
+      <c r="S110">
         <v>8837</v>
       </c>
-      <c r="P110">
+      <c r="T110">
         <v>305</v>
       </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:22">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6932,16 +8264,16 @@
         <v>109</v>
       </c>
       <c r="E111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="F111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="G111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="H111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="I111">
         <v>190</v>
@@ -6958,42 +8290,66 @@
       <c r="M111">
         <v>190</v>
       </c>
-      <c r="N111" t="s">
-        <v>126</v>
+      <c r="N111">
+        <v>190</v>
       </c>
       <c r="O111">
+        <v>190</v>
+      </c>
+      <c r="P111">
+        <v>190</v>
+      </c>
+      <c r="Q111">
+        <v>190</v>
+      </c>
+      <c r="R111" t="s">
+        <v>130</v>
+      </c>
+      <c r="S111">
         <v>8998</v>
       </c>
-      <c r="P111">
+      <c r="T111">
         <v>308</v>
       </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:22">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="N112" t="s">
-        <v>127</v>
-      </c>
-      <c r="O112">
+      <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+      <c r="F112">
+        <v>110</v>
+      </c>
+      <c r="R112" t="s">
+        <v>131</v>
+      </c>
+      <c r="S112">
         <v>8998</v>
       </c>
-      <c r="P112">
+      <c r="T112">
         <v>308</v>
       </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -767,13 +770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,8 +840,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -890,23 +896,26 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -958,14 +967,14 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3">
+      <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -973,8 +982,11 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1026,14 +1038,14 @@
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4">
+      <c r="R4">
         <v>2</v>
       </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1041,8 +1053,11 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1094,23 +1109,26 @@
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1162,23 +1180,26 @@
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6">
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1230,23 +1251,26 @@
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7">
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1298,23 +1322,26 @@
       <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8">
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1366,23 +1393,26 @@
       <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9">
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1434,23 +1464,26 @@
       <c r="Q10">
         <v>8</v>
       </c>
-      <c r="R10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10">
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1502,23 +1535,26 @@
       <c r="Q11">
         <v>9</v>
       </c>
-      <c r="R11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11">
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1570,23 +1606,26 @@
       <c r="Q12">
         <v>10</v>
       </c>
-      <c r="R12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12">
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>1</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1638,23 +1677,26 @@
       <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13">
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>1</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1706,23 +1748,26 @@
       <c r="Q14">
         <v>12</v>
       </c>
-      <c r="R14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14">
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>1</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1774,23 +1819,26 @@
       <c r="Q15">
         <v>13</v>
       </c>
-      <c r="R15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15">
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>1</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1842,23 +1890,26 @@
       <c r="Q16">
         <v>14</v>
       </c>
-      <c r="R16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16">
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>1</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1910,23 +1961,26 @@
       <c r="Q17">
         <v>15</v>
       </c>
-      <c r="R17" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17">
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>1</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1978,23 +2032,26 @@
       <c r="Q18">
         <v>16</v>
       </c>
-      <c r="R18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18">
+      <c r="R18">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>1</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2046,23 +2103,26 @@
       <c r="Q19">
         <v>17</v>
       </c>
-      <c r="R19" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19">
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <v>1</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2114,23 +2174,26 @@
       <c r="Q20">
         <v>18</v>
       </c>
-      <c r="R20" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20">
+      <c r="R20">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>1</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2182,23 +2245,26 @@
       <c r="Q21">
         <v>19</v>
       </c>
-      <c r="R21" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21">
+      <c r="R21">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21">
         <v>2</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>1</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2250,23 +2316,26 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22">
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22">
         <v>2</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>1</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2318,23 +2387,26 @@
       <c r="Q23">
         <v>21</v>
       </c>
-      <c r="R23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S23">
+      <c r="R23">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23">
         <v>2</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2386,23 +2458,26 @@
       <c r="Q24">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24">
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>1</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2454,23 +2529,26 @@
       <c r="Q25">
         <v>23</v>
       </c>
-      <c r="R25" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25">
+      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>1</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2522,23 +2600,26 @@
       <c r="Q26">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
-        <v>45</v>
-      </c>
-      <c r="S26">
+      <c r="R26">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>1</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2590,23 +2671,26 @@
       <c r="Q27">
         <v>25</v>
       </c>
-      <c r="R27" t="s">
-        <v>46</v>
-      </c>
-      <c r="S27">
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>1</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2658,23 +2742,26 @@
       <c r="Q28">
         <v>26</v>
       </c>
-      <c r="R28" t="s">
-        <v>47</v>
-      </c>
-      <c r="S28">
+      <c r="R28">
+        <v>26</v>
+      </c>
+      <c r="S28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>1</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2726,23 +2813,26 @@
       <c r="Q29">
         <v>27</v>
       </c>
-      <c r="R29" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29">
+      <c r="R29">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>1</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2794,23 +2884,26 @@
       <c r="Q30">
         <v>28</v>
       </c>
-      <c r="R30" t="s">
-        <v>49</v>
-      </c>
-      <c r="S30">
+      <c r="R30">
+        <v>28</v>
+      </c>
+      <c r="S30" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30">
         <v>155</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2836,7 +2929,7 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -2862,23 +2955,26 @@
       <c r="Q31">
         <v>30</v>
       </c>
-      <c r="R31" t="s">
-        <v>50</v>
-      </c>
-      <c r="S31">
+      <c r="R31">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31">
         <v>201</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2904,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J32">
         <v>32</v>
@@ -2930,23 +3026,26 @@
       <c r="Q32">
         <v>32</v>
       </c>
-      <c r="R32" t="s">
-        <v>51</v>
-      </c>
-      <c r="S32">
+      <c r="R32">
+        <v>32</v>
+      </c>
+      <c r="S32" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32">
         <v>226</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2972,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J33">
         <v>34</v>
@@ -2998,23 +3097,26 @@
       <c r="Q33">
         <v>34</v>
       </c>
-      <c r="R33" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33">
+      <c r="R33">
+        <v>34</v>
+      </c>
+      <c r="S33" t="s">
+        <v>53</v>
+      </c>
+      <c r="T33">
         <v>238</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3040,7 +3142,7 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J34">
         <v>36</v>
@@ -3066,23 +3168,26 @@
       <c r="Q34">
         <v>36</v>
       </c>
-      <c r="R34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S34">
+      <c r="R34">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34">
         <v>293</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>3</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3108,7 +3213,7 @@
         <v>33</v>
       </c>
       <c r="I35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J35">
         <v>38</v>
@@ -3134,23 +3239,26 @@
       <c r="Q35">
         <v>38</v>
       </c>
-      <c r="R35" t="s">
-        <v>54</v>
-      </c>
-      <c r="S35">
+      <c r="R35">
+        <v>38</v>
+      </c>
+      <c r="S35" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35">
         <v>341</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3176,7 +3284,7 @@
         <v>34</v>
       </c>
       <c r="I36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J36">
         <v>40</v>
@@ -3202,23 +3310,26 @@
       <c r="Q36">
         <v>40</v>
       </c>
-      <c r="R36" t="s">
-        <v>55</v>
-      </c>
-      <c r="S36">
+      <c r="R36">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s">
+        <v>56</v>
+      </c>
+      <c r="T36">
         <v>413</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>6</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3244,7 +3355,7 @@
         <v>35</v>
       </c>
       <c r="I37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J37">
         <v>42</v>
@@ -3270,23 +3381,26 @@
       <c r="Q37">
         <v>42</v>
       </c>
-      <c r="R37" t="s">
-        <v>56</v>
-      </c>
-      <c r="S37">
+      <c r="R37">
+        <v>42</v>
+      </c>
+      <c r="S37" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37">
         <v>484</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>7</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3312,7 +3426,7 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J38">
         <v>44</v>
@@ -3338,23 +3452,26 @@
       <c r="Q38">
         <v>44</v>
       </c>
-      <c r="R38" t="s">
-        <v>57</v>
-      </c>
-      <c r="S38">
+      <c r="R38">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38">
         <v>515</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>7</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3380,7 +3497,7 @@
         <v>37</v>
       </c>
       <c r="I39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J39">
         <v>46</v>
@@ -3406,23 +3523,26 @@
       <c r="Q39">
         <v>46</v>
       </c>
-      <c r="R39" t="s">
-        <v>58</v>
-      </c>
-      <c r="S39">
+      <c r="R39">
+        <v>46</v>
+      </c>
+      <c r="S39" t="s">
+        <v>59</v>
+      </c>
+      <c r="T39">
         <v>603</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>7</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3448,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>48</v>
@@ -3474,23 +3594,26 @@
       <c r="Q40">
         <v>48</v>
       </c>
-      <c r="R40" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40">
+      <c r="R40">
+        <v>48</v>
+      </c>
+      <c r="S40" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40">
         <v>733</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>9</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3516,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>50</v>
@@ -3542,23 +3665,26 @@
       <c r="Q41">
         <v>50</v>
       </c>
-      <c r="R41" t="s">
-        <v>60</v>
-      </c>
-      <c r="S41">
+      <c r="R41">
+        <v>50</v>
+      </c>
+      <c r="S41" t="s">
+        <v>61</v>
+      </c>
+      <c r="T41">
         <v>849</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>15</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3584,7 +3710,7 @@
         <v>40</v>
       </c>
       <c r="I42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>52</v>
@@ -3610,23 +3736,26 @@
       <c r="Q42">
         <v>52</v>
       </c>
-      <c r="R42" t="s">
-        <v>61</v>
-      </c>
-      <c r="S42">
+      <c r="R42">
+        <v>52</v>
+      </c>
+      <c r="S42" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42">
         <v>966</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>16</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3652,7 +3781,7 @@
         <v>41</v>
       </c>
       <c r="I43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>54</v>
@@ -3678,23 +3807,26 @@
       <c r="Q43">
         <v>54</v>
       </c>
-      <c r="R43" t="s">
-        <v>62</v>
-      </c>
-      <c r="S43">
+      <c r="R43">
+        <v>54</v>
+      </c>
+      <c r="S43" t="s">
+        <v>63</v>
+      </c>
+      <c r="T43">
         <v>1112</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>17</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3720,7 +3852,7 @@
         <v>42</v>
       </c>
       <c r="I44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>56</v>
@@ -3746,23 +3878,26 @@
       <c r="Q44">
         <v>56</v>
       </c>
-      <c r="R44" t="s">
-        <v>63</v>
-      </c>
-      <c r="S44">
+      <c r="R44">
+        <v>56</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+      <c r="T44">
         <v>1209</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>18</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3788,7 +3923,7 @@
         <v>43</v>
       </c>
       <c r="I45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>58</v>
@@ -3814,23 +3949,26 @@
       <c r="Q45">
         <v>58</v>
       </c>
-      <c r="R45" t="s">
-        <v>64</v>
-      </c>
-      <c r="S45">
+      <c r="R45">
+        <v>58</v>
+      </c>
+      <c r="S45" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45">
         <v>1326</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>19</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3856,7 +3994,7 @@
         <v>44</v>
       </c>
       <c r="I46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>60</v>
@@ -3882,23 +4020,26 @@
       <c r="Q46">
         <v>60</v>
       </c>
-      <c r="R46" t="s">
-        <v>65</v>
-      </c>
-      <c r="S46">
+      <c r="R46">
+        <v>60</v>
+      </c>
+      <c r="S46" t="s">
+        <v>66</v>
+      </c>
+      <c r="T46">
         <v>1404</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>19</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3924,7 +4065,7 @@
         <v>45</v>
       </c>
       <c r="I47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>62</v>
@@ -3950,23 +4091,26 @@
       <c r="Q47">
         <v>62</v>
       </c>
-      <c r="R47" t="s">
-        <v>66</v>
-      </c>
-      <c r="S47">
+      <c r="R47">
+        <v>62</v>
+      </c>
+      <c r="S47" t="s">
+        <v>67</v>
+      </c>
+      <c r="T47">
         <v>1454</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>31</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3992,7 +4136,7 @@
         <v>46</v>
       </c>
       <c r="I48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>64</v>
@@ -4018,23 +4162,26 @@
       <c r="Q48">
         <v>64</v>
       </c>
-      <c r="R48" t="s">
-        <v>67</v>
-      </c>
-      <c r="S48">
+      <c r="R48">
+        <v>64</v>
+      </c>
+      <c r="S48" t="s">
+        <v>68</v>
+      </c>
+      <c r="T48">
         <v>1530</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>36</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4060,7 +4207,7 @@
         <v>47</v>
       </c>
       <c r="I49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>66</v>
@@ -4086,23 +4233,26 @@
       <c r="Q49">
         <v>66</v>
       </c>
-      <c r="R49" t="s">
-        <v>68</v>
-      </c>
-      <c r="S49">
+      <c r="R49">
+        <v>66</v>
+      </c>
+      <c r="S49" t="s">
+        <v>69</v>
+      </c>
+      <c r="T49">
         <v>1628</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>40</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4128,7 +4278,7 @@
         <v>48</v>
       </c>
       <c r="I50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>68</v>
@@ -4154,23 +4304,26 @@
       <c r="Q50">
         <v>68</v>
       </c>
-      <c r="R50" t="s">
-        <v>69</v>
-      </c>
-      <c r="S50">
+      <c r="R50">
+        <v>68</v>
+      </c>
+      <c r="S50" t="s">
+        <v>70</v>
+      </c>
+      <c r="T50">
         <v>1693</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>44</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4196,7 +4349,7 @@
         <v>49</v>
       </c>
       <c r="I51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J51">
         <v>70</v>
@@ -4222,23 +4375,26 @@
       <c r="Q51">
         <v>70</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51">
         <v>70</v>
       </c>
-      <c r="S51">
+      <c r="S51" t="s">
+        <v>71</v>
+      </c>
+      <c r="T51">
         <v>1761</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>45</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
       <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4264,7 +4420,7 @@
         <v>50</v>
       </c>
       <c r="I52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>72</v>
@@ -4290,23 +4446,26 @@
       <c r="Q52">
         <v>72</v>
       </c>
-      <c r="R52" t="s">
-        <v>71</v>
-      </c>
-      <c r="S52">
+      <c r="R52">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s">
+        <v>72</v>
+      </c>
+      <c r="T52">
         <v>1804</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>45</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
       <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4332,7 +4491,7 @@
         <v>51</v>
       </c>
       <c r="I53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J53">
         <v>74</v>
@@ -4358,23 +4517,26 @@
       <c r="Q53">
         <v>74</v>
       </c>
-      <c r="R53" t="s">
-        <v>72</v>
-      </c>
-      <c r="S53">
+      <c r="R53">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s">
+        <v>73</v>
+      </c>
+      <c r="T53">
         <v>1847</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>47</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
       <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4400,7 +4562,7 @@
         <v>52</v>
       </c>
       <c r="I54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>76</v>
@@ -4426,23 +4588,26 @@
       <c r="Q54">
         <v>76</v>
       </c>
-      <c r="R54" t="s">
-        <v>73</v>
-      </c>
-      <c r="S54">
+      <c r="R54">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s">
+        <v>74</v>
+      </c>
+      <c r="T54">
         <v>1930</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>53</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
       <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4468,7 +4633,7 @@
         <v>53</v>
       </c>
       <c r="I55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>78</v>
@@ -4494,23 +4659,26 @@
       <c r="Q55">
         <v>78</v>
       </c>
-      <c r="R55" t="s">
-        <v>74</v>
-      </c>
-      <c r="S55">
+      <c r="R55">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s">
+        <v>75</v>
+      </c>
+      <c r="T55">
         <v>2012</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>60</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
       <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4536,7 +4704,7 @@
         <v>54</v>
       </c>
       <c r="I56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>80</v>
@@ -4562,23 +4730,26 @@
       <c r="Q56">
         <v>80</v>
       </c>
-      <c r="R56" t="s">
-        <v>75</v>
-      </c>
-      <c r="S56">
+      <c r="R56">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s">
+        <v>76</v>
+      </c>
+      <c r="T56">
         <v>2087</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>63</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
       <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:23">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4604,7 +4775,7 @@
         <v>55</v>
       </c>
       <c r="I57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>82</v>
@@ -4630,23 +4801,26 @@
       <c r="Q57">
         <v>82</v>
       </c>
-      <c r="R57" t="s">
-        <v>76</v>
-      </c>
-      <c r="S57">
+      <c r="R57">
+        <v>82</v>
+      </c>
+      <c r="S57" t="s">
+        <v>77</v>
+      </c>
+      <c r="T57">
         <v>2158</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>70</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
       <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:23">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4672,7 +4846,7 @@
         <v>56</v>
       </c>
       <c r="I58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J58">
         <v>84</v>
@@ -4698,23 +4872,26 @@
       <c r="Q58">
         <v>84</v>
       </c>
-      <c r="R58" t="s">
-        <v>77</v>
-      </c>
-      <c r="S58">
+      <c r="R58">
+        <v>84</v>
+      </c>
+      <c r="S58" t="s">
+        <v>78</v>
+      </c>
+      <c r="T58">
         <v>2213</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>71</v>
       </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
       <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:23">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4740,7 +4917,7 @@
         <v>57</v>
       </c>
       <c r="I59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <v>86</v>
@@ -4766,23 +4943,26 @@
       <c r="Q59">
         <v>86</v>
       </c>
-      <c r="R59" t="s">
-        <v>78</v>
-      </c>
-      <c r="S59">
+      <c r="R59">
+        <v>86</v>
+      </c>
+      <c r="S59" t="s">
+        <v>79</v>
+      </c>
+      <c r="T59">
         <v>2268</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>71</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
       <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:23">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4808,7 +4988,7 @@
         <v>58</v>
       </c>
       <c r="I60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="J60">
         <v>88</v>
@@ -4834,23 +5014,26 @@
       <c r="Q60">
         <v>88</v>
       </c>
-      <c r="R60" t="s">
-        <v>79</v>
-      </c>
-      <c r="S60">
+      <c r="R60">
+        <v>88</v>
+      </c>
+      <c r="S60" t="s">
+        <v>80</v>
+      </c>
+      <c r="T60">
         <v>2325</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>72</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
       <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:23">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4876,7 +5059,7 @@
         <v>59</v>
       </c>
       <c r="I61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J61">
         <v>90</v>
@@ -4902,23 +5085,26 @@
       <c r="Q61">
         <v>90</v>
       </c>
-      <c r="R61" t="s">
-        <v>80</v>
-      </c>
-      <c r="S61">
+      <c r="R61">
+        <v>90</v>
+      </c>
+      <c r="S61" t="s">
+        <v>81</v>
+      </c>
+      <c r="T61">
         <v>2491</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>96</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
       <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:23">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4944,7 +5130,7 @@
         <v>60</v>
       </c>
       <c r="I62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="J62">
         <v>92</v>
@@ -4970,23 +5156,26 @@
       <c r="Q62">
         <v>92</v>
       </c>
-      <c r="R62" t="s">
-        <v>81</v>
-      </c>
-      <c r="S62">
+      <c r="R62">
+        <v>92</v>
+      </c>
+      <c r="S62" t="s">
+        <v>82</v>
+      </c>
+      <c r="T62">
         <v>2643</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>100</v>
       </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
       <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:23">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5012,7 +5201,7 @@
         <v>61</v>
       </c>
       <c r="I63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J63">
         <v>94</v>
@@ -5038,23 +5227,26 @@
       <c r="Q63">
         <v>94</v>
       </c>
-      <c r="R63" t="s">
-        <v>82</v>
-      </c>
-      <c r="S63">
+      <c r="R63">
+        <v>94</v>
+      </c>
+      <c r="S63" t="s">
+        <v>83</v>
+      </c>
+      <c r="T63">
         <v>2826</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>102</v>
       </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
       <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:23">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5080,7 +5272,7 @@
         <v>62</v>
       </c>
       <c r="I64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J64">
         <v>96</v>
@@ -5106,23 +5298,26 @@
       <c r="Q64">
         <v>96</v>
       </c>
-      <c r="R64" t="s">
-        <v>83</v>
-      </c>
-      <c r="S64">
+      <c r="R64">
+        <v>96</v>
+      </c>
+      <c r="S64" t="s">
+        <v>84</v>
+      </c>
+      <c r="T64">
         <v>2943</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>111</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
       <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:23">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5148,7 +5343,7 @@
         <v>63</v>
       </c>
       <c r="I65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J65">
         <v>98</v>
@@ -5174,23 +5369,26 @@
       <c r="Q65">
         <v>98</v>
       </c>
-      <c r="R65" t="s">
-        <v>84</v>
-      </c>
-      <c r="S65">
+      <c r="R65">
+        <v>98</v>
+      </c>
+      <c r="S65" t="s">
+        <v>85</v>
+      </c>
+      <c r="T65">
         <v>2943</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>111</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
       <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:23">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5216,7 +5414,7 @@
         <v>64</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J66">
         <v>100</v>
@@ -5242,23 +5440,26 @@
       <c r="Q66">
         <v>100</v>
       </c>
-      <c r="R66" t="s">
-        <v>85</v>
-      </c>
-      <c r="S66">
+      <c r="R66">
+        <v>100</v>
+      </c>
+      <c r="S66" t="s">
+        <v>86</v>
+      </c>
+      <c r="T66">
         <v>3043</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>111</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
       <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:23">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5284,7 +5485,7 @@
         <v>65</v>
       </c>
       <c r="I67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="J67">
         <v>102</v>
@@ -5310,23 +5511,26 @@
       <c r="Q67">
         <v>102</v>
       </c>
-      <c r="R67" t="s">
-        <v>86</v>
-      </c>
-      <c r="S67">
+      <c r="R67">
+        <v>102</v>
+      </c>
+      <c r="S67" t="s">
+        <v>87</v>
+      </c>
+      <c r="T67">
         <v>3141</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>113</v>
       </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
       <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:23">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5352,7 +5556,7 @@
         <v>66</v>
       </c>
       <c r="I68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J68">
         <v>104</v>
@@ -5378,23 +5582,26 @@
       <c r="Q68">
         <v>104</v>
       </c>
-      <c r="R68" t="s">
-        <v>87</v>
-      </c>
-      <c r="S68">
+      <c r="R68">
+        <v>104</v>
+      </c>
+      <c r="S68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T68">
         <v>3432</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>120</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
       <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:23">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5420,7 +5627,7 @@
         <v>67</v>
       </c>
       <c r="I69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="J69">
         <v>106</v>
@@ -5446,23 +5653,26 @@
       <c r="Q69">
         <v>106</v>
       </c>
-      <c r="R69" t="s">
-        <v>88</v>
-      </c>
-      <c r="S69">
+      <c r="R69">
+        <v>106</v>
+      </c>
+      <c r="S69" t="s">
+        <v>89</v>
+      </c>
+      <c r="T69">
         <v>3432</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>120</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
       <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:23">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5488,7 +5698,7 @@
         <v>68</v>
       </c>
       <c r="I70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="J70">
         <v>108</v>
@@ -5514,23 +5724,26 @@
       <c r="Q70">
         <v>108</v>
       </c>
-      <c r="R70" t="s">
-        <v>89</v>
-      </c>
-      <c r="S70">
+      <c r="R70">
+        <v>108</v>
+      </c>
+      <c r="S70" t="s">
+        <v>90</v>
+      </c>
+      <c r="T70">
         <v>3564</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>124</v>
       </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
       <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:23">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5556,7 +5769,7 @@
         <v>69</v>
       </c>
       <c r="I71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="J71">
         <v>110</v>
@@ -5582,23 +5795,26 @@
       <c r="Q71">
         <v>110</v>
       </c>
-      <c r="R71" t="s">
-        <v>90</v>
-      </c>
-      <c r="S71">
+      <c r="R71">
+        <v>110</v>
+      </c>
+      <c r="S71" t="s">
+        <v>91</v>
+      </c>
+      <c r="T71">
         <v>3711</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>134</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
       <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:23">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5624,7 +5840,7 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="J72">
         <v>112</v>
@@ -5650,23 +5866,26 @@
       <c r="Q72">
         <v>112</v>
       </c>
-      <c r="R72" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72">
+      <c r="R72">
+        <v>112</v>
+      </c>
+      <c r="S72" t="s">
+        <v>92</v>
+      </c>
+      <c r="T72">
         <v>3927</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>139</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
       <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:23">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5692,7 +5911,7 @@
         <v>71</v>
       </c>
       <c r="I73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="J73">
         <v>114</v>
@@ -5718,23 +5937,26 @@
       <c r="Q73">
         <v>114</v>
       </c>
-      <c r="R73" t="s">
-        <v>92</v>
-      </c>
-      <c r="S73">
+      <c r="R73">
+        <v>114</v>
+      </c>
+      <c r="S73" t="s">
+        <v>93</v>
+      </c>
+      <c r="T73">
         <v>3927</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>139</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
       <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:23">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5760,7 +5982,7 @@
         <v>72</v>
       </c>
       <c r="I74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="J74">
         <v>116</v>
@@ -5786,23 +6008,26 @@
       <c r="Q74">
         <v>116</v>
       </c>
-      <c r="R74" t="s">
-        <v>93</v>
-      </c>
-      <c r="S74">
+      <c r="R74">
+        <v>116</v>
+      </c>
+      <c r="S74" t="s">
+        <v>94</v>
+      </c>
+      <c r="T74">
         <v>4020</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>144</v>
       </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
       <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:23">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5828,7 +6053,7 @@
         <v>73</v>
       </c>
       <c r="I75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J75">
         <v>118</v>
@@ -5854,23 +6079,26 @@
       <c r="Q75">
         <v>118</v>
       </c>
-      <c r="R75" t="s">
-        <v>94</v>
-      </c>
-      <c r="S75">
+      <c r="R75">
+        <v>118</v>
+      </c>
+      <c r="S75" t="s">
+        <v>95</v>
+      </c>
+      <c r="T75">
         <v>4319</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>158</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
       <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:23">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5896,7 +6124,7 @@
         <v>74</v>
       </c>
       <c r="I76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="J76">
         <v>120</v>
@@ -5922,23 +6150,26 @@
       <c r="Q76">
         <v>120</v>
       </c>
-      <c r="R76" t="s">
-        <v>95</v>
-      </c>
-      <c r="S76">
+      <c r="R76">
+        <v>120</v>
+      </c>
+      <c r="S76" t="s">
+        <v>96</v>
+      </c>
+      <c r="T76">
         <v>4319</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>158</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
       <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5964,7 +6195,7 @@
         <v>75</v>
       </c>
       <c r="I77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="J77">
         <v>122</v>
@@ -5990,23 +6221,26 @@
       <c r="Q77">
         <v>122</v>
       </c>
-      <c r="R77" t="s">
-        <v>96</v>
-      </c>
-      <c r="S77">
+      <c r="R77">
+        <v>122</v>
+      </c>
+      <c r="S77" t="s">
+        <v>97</v>
+      </c>
+      <c r="T77">
         <v>4429</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>165</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
       <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:23">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6032,7 +6266,7 @@
         <v>76</v>
       </c>
       <c r="I78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J78">
         <v>124</v>
@@ -6058,23 +6292,26 @@
       <c r="Q78">
         <v>124</v>
       </c>
-      <c r="R78" t="s">
-        <v>97</v>
-      </c>
-      <c r="S78">
+      <c r="R78">
+        <v>124</v>
+      </c>
+      <c r="S78" t="s">
+        <v>98</v>
+      </c>
+      <c r="T78">
         <v>4662</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>169</v>
       </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
       <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:23">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6100,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="I79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J79">
         <v>126</v>
@@ -6126,23 +6363,26 @@
       <c r="Q79">
         <v>126</v>
       </c>
-      <c r="R79" t="s">
-        <v>98</v>
-      </c>
-      <c r="S79">
+      <c r="R79">
+        <v>126</v>
+      </c>
+      <c r="S79" t="s">
+        <v>99</v>
+      </c>
+      <c r="T79">
         <v>4776</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>175</v>
       </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
       <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:23">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6168,7 +6408,7 @@
         <v>78</v>
       </c>
       <c r="I80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="J80">
         <v>128</v>
@@ -6194,23 +6434,26 @@
       <c r="Q80">
         <v>128</v>
       </c>
-      <c r="R80" t="s">
-        <v>99</v>
-      </c>
-      <c r="S80">
+      <c r="R80">
+        <v>128</v>
+      </c>
+      <c r="S80" t="s">
+        <v>100</v>
+      </c>
+      <c r="T80">
         <v>5065</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>175</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
       <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:23">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6236,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="I81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="J81">
         <v>130</v>
@@ -6262,23 +6505,26 @@
       <c r="Q81">
         <v>130</v>
       </c>
-      <c r="R81" t="s">
-        <v>100</v>
-      </c>
-      <c r="S81">
+      <c r="R81">
+        <v>130</v>
+      </c>
+      <c r="S81" t="s">
+        <v>101</v>
+      </c>
+      <c r="T81">
         <v>5161</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>190</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
       <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:23">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6304,7 +6550,7 @@
         <v>80</v>
       </c>
       <c r="I82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="J82">
         <v>132</v>
@@ -6330,23 +6576,26 @@
       <c r="Q82">
         <v>132</v>
       </c>
-      <c r="R82" t="s">
-        <v>101</v>
-      </c>
-      <c r="S82">
+      <c r="R82">
+        <v>132</v>
+      </c>
+      <c r="S82" t="s">
+        <v>102</v>
+      </c>
+      <c r="T82">
         <v>5161</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>190</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
       <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:23">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6372,7 +6621,7 @@
         <v>81</v>
       </c>
       <c r="I83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="J83">
         <v>134</v>
@@ -6398,23 +6647,26 @@
       <c r="Q83">
         <v>134</v>
       </c>
-      <c r="R83" t="s">
-        <v>102</v>
-      </c>
-      <c r="S83">
+      <c r="R83">
+        <v>134</v>
+      </c>
+      <c r="S83" t="s">
+        <v>103</v>
+      </c>
+      <c r="T83">
         <v>5391</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>200</v>
       </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
       <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:23">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6440,7 +6692,7 @@
         <v>82</v>
       </c>
       <c r="I84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="J84">
         <v>136</v>
@@ -6466,23 +6718,26 @@
       <c r="Q84">
         <v>136</v>
       </c>
-      <c r="R84" t="s">
-        <v>103</v>
-      </c>
-      <c r="S84">
+      <c r="R84">
+        <v>136</v>
+      </c>
+      <c r="S84" t="s">
+        <v>104</v>
+      </c>
+      <c r="T84">
         <v>5391</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>200</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
       <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:23">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6508,7 +6763,7 @@
         <v>83</v>
       </c>
       <c r="I85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="J85">
         <v>138</v>
@@ -6534,23 +6789,26 @@
       <c r="Q85">
         <v>138</v>
       </c>
-      <c r="R85" t="s">
-        <v>104</v>
-      </c>
-      <c r="S85">
+      <c r="R85">
+        <v>138</v>
+      </c>
+      <c r="S85" t="s">
+        <v>105</v>
+      </c>
+      <c r="T85">
         <v>5662</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>209</v>
       </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
       <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:23">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6576,7 +6834,7 @@
         <v>84</v>
       </c>
       <c r="I86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="J86">
         <v>140</v>
@@ -6602,23 +6860,26 @@
       <c r="Q86">
         <v>140</v>
       </c>
-      <c r="R86" t="s">
-        <v>105</v>
-      </c>
-      <c r="S86">
+      <c r="R86">
+        <v>140</v>
+      </c>
+      <c r="S86" t="s">
+        <v>106</v>
+      </c>
+      <c r="T86">
         <v>5836</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>209</v>
       </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
       <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:23">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6644,7 +6905,7 @@
         <v>85</v>
       </c>
       <c r="I87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="J87">
         <v>142</v>
@@ -6670,23 +6931,26 @@
       <c r="Q87">
         <v>142</v>
       </c>
-      <c r="R87" t="s">
-        <v>106</v>
-      </c>
-      <c r="S87">
+      <c r="R87">
+        <v>142</v>
+      </c>
+      <c r="S87" t="s">
+        <v>107</v>
+      </c>
+      <c r="T87">
         <v>5836</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>209</v>
       </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
       <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:23">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6712,7 +6976,7 @@
         <v>86</v>
       </c>
       <c r="I88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="J88">
         <v>144</v>
@@ -6738,23 +7002,26 @@
       <c r="Q88">
         <v>144</v>
       </c>
-      <c r="R88" t="s">
-        <v>107</v>
-      </c>
-      <c r="S88">
+      <c r="R88">
+        <v>144</v>
+      </c>
+      <c r="S88" t="s">
+        <v>108</v>
+      </c>
+      <c r="T88">
         <v>6026</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>222</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
       <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:23">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6780,7 +7047,7 @@
         <v>87</v>
       </c>
       <c r="I89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="J89">
         <v>146</v>
@@ -6806,23 +7073,26 @@
       <c r="Q89">
         <v>146</v>
       </c>
-      <c r="R89" t="s">
-        <v>108</v>
-      </c>
-      <c r="S89">
+      <c r="R89">
+        <v>146</v>
+      </c>
+      <c r="S89" t="s">
+        <v>109</v>
+      </c>
+      <c r="T89">
         <v>6140</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>230</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
       <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:23">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6848,7 +7118,7 @@
         <v>88</v>
       </c>
       <c r="I90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="J90">
         <v>148</v>
@@ -6874,23 +7144,26 @@
       <c r="Q90">
         <v>148</v>
       </c>
-      <c r="R90" t="s">
-        <v>109</v>
-      </c>
-      <c r="S90">
+      <c r="R90">
+        <v>148</v>
+      </c>
+      <c r="S90" t="s">
+        <v>110</v>
+      </c>
+      <c r="T90">
         <v>6140</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>230</v>
       </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
       <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:23">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6916,7 +7189,7 @@
         <v>89</v>
       </c>
       <c r="I91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="J91">
         <v>150</v>
@@ -6942,23 +7215,26 @@
       <c r="Q91">
         <v>150</v>
       </c>
-      <c r="R91" t="s">
-        <v>110</v>
-      </c>
-      <c r="S91">
+      <c r="R91">
+        <v>150</v>
+      </c>
+      <c r="S91" t="s">
+        <v>111</v>
+      </c>
+      <c r="T91">
         <v>6315</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>241</v>
       </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
       <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:23">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6984,7 +7260,7 @@
         <v>90</v>
       </c>
       <c r="I92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="J92">
         <v>152</v>
@@ -7010,23 +7286,26 @@
       <c r="Q92">
         <v>152</v>
       </c>
-      <c r="R92" t="s">
-        <v>111</v>
-      </c>
-      <c r="S92">
+      <c r="R92">
+        <v>152</v>
+      </c>
+      <c r="S92" t="s">
+        <v>112</v>
+      </c>
+      <c r="T92">
         <v>6559</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>249</v>
       </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
       <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:23">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7052,7 +7331,7 @@
         <v>91</v>
       </c>
       <c r="I93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="J93">
         <v>154</v>
@@ -7078,23 +7357,26 @@
       <c r="Q93">
         <v>154</v>
       </c>
-      <c r="R93" t="s">
-        <v>112</v>
-      </c>
-      <c r="S93">
+      <c r="R93">
+        <v>154</v>
+      </c>
+      <c r="S93" t="s">
+        <v>113</v>
+      </c>
+      <c r="T93">
         <v>6559</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>249</v>
       </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
       <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:23">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7120,7 +7402,7 @@
         <v>92</v>
       </c>
       <c r="I94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="J94">
         <v>156</v>
@@ -7146,23 +7428,26 @@
       <c r="Q94">
         <v>156</v>
       </c>
-      <c r="R94" t="s">
-        <v>113</v>
-      </c>
-      <c r="S94">
+      <c r="R94">
+        <v>156</v>
+      </c>
+      <c r="S94" t="s">
+        <v>114</v>
+      </c>
+      <c r="T94">
         <v>6701</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>249</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
       <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:23">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7188,7 +7473,7 @@
         <v>93</v>
       </c>
       <c r="I95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="J95">
         <v>158</v>
@@ -7214,23 +7499,26 @@
       <c r="Q95">
         <v>158</v>
       </c>
-      <c r="R95" t="s">
-        <v>114</v>
-      </c>
-      <c r="S95">
+      <c r="R95">
+        <v>158</v>
+      </c>
+      <c r="S95" t="s">
+        <v>115</v>
+      </c>
+      <c r="T95">
         <v>6797</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>249</v>
       </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
       <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:23">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7256,7 +7544,7 @@
         <v>94</v>
       </c>
       <c r="I96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="J96">
         <v>160</v>
@@ -7282,23 +7570,26 @@
       <c r="Q96">
         <v>160</v>
       </c>
-      <c r="R96" t="s">
-        <v>115</v>
-      </c>
-      <c r="S96">
+      <c r="R96">
+        <v>160</v>
+      </c>
+      <c r="S96" t="s">
+        <v>116</v>
+      </c>
+      <c r="T96">
         <v>6882</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>249</v>
       </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
       <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:23">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7324,7 +7615,7 @@
         <v>95</v>
       </c>
       <c r="I97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="J97">
         <v>162</v>
@@ -7350,23 +7641,26 @@
       <c r="Q97">
         <v>162</v>
       </c>
-      <c r="R97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S97">
+      <c r="R97">
+        <v>162</v>
+      </c>
+      <c r="S97" t="s">
+        <v>117</v>
+      </c>
+      <c r="T97">
         <v>7100</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>260</v>
       </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
       <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:23">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7392,7 +7686,7 @@
         <v>96</v>
       </c>
       <c r="I98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="J98">
         <v>164</v>
@@ -7418,23 +7712,26 @@
       <c r="Q98">
         <v>164</v>
       </c>
-      <c r="R98" t="s">
-        <v>117</v>
-      </c>
-      <c r="S98">
+      <c r="R98">
+        <v>164</v>
+      </c>
+      <c r="S98" t="s">
+        <v>118</v>
+      </c>
+      <c r="T98">
         <v>7100</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>260</v>
       </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
       <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:23">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7460,7 +7757,7 @@
         <v>97</v>
       </c>
       <c r="I99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="J99">
         <v>166</v>
@@ -7486,23 +7783,26 @@
       <c r="Q99">
         <v>166</v>
       </c>
-      <c r="R99" t="s">
-        <v>118</v>
-      </c>
-      <c r="S99">
+      <c r="R99">
+        <v>166</v>
+      </c>
+      <c r="S99" t="s">
+        <v>119</v>
+      </c>
+      <c r="T99">
         <v>7385</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>269</v>
       </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
       <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:23">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7528,7 +7828,7 @@
         <v>98</v>
       </c>
       <c r="I100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="J100">
         <v>168</v>
@@ -7554,23 +7854,26 @@
       <c r="Q100">
         <v>168</v>
       </c>
-      <c r="R100" t="s">
-        <v>119</v>
-      </c>
-      <c r="S100">
+      <c r="R100">
+        <v>168</v>
+      </c>
+      <c r="S100" t="s">
+        <v>120</v>
+      </c>
+      <c r="T100">
         <v>7481</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>269</v>
       </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
       <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:23">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7596,7 +7899,7 @@
         <v>99</v>
       </c>
       <c r="I101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="J101">
         <v>170</v>
@@ -7622,23 +7925,26 @@
       <c r="Q101">
         <v>170</v>
       </c>
-      <c r="R101" t="s">
-        <v>120</v>
-      </c>
-      <c r="S101">
+      <c r="R101">
+        <v>170</v>
+      </c>
+      <c r="S101" t="s">
+        <v>121</v>
+      </c>
+      <c r="T101">
         <v>7481</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>269</v>
       </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
       <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:23">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7664,7 +7970,7 @@
         <v>100</v>
       </c>
       <c r="I102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="J102">
         <v>172</v>
@@ -7690,23 +7996,26 @@
       <c r="Q102">
         <v>172</v>
       </c>
-      <c r="R102" t="s">
-        <v>121</v>
-      </c>
-      <c r="S102">
+      <c r="R102">
+        <v>172</v>
+      </c>
+      <c r="S102" t="s">
+        <v>122</v>
+      </c>
+      <c r="T102">
         <v>7554</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <v>269</v>
       </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
       <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:23">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7732,7 +8041,7 @@
         <v>101</v>
       </c>
       <c r="I103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="J103">
         <v>174</v>
@@ -7758,23 +8067,26 @@
       <c r="Q103">
         <v>174</v>
       </c>
-      <c r="R103" t="s">
-        <v>122</v>
-      </c>
-      <c r="S103">
+      <c r="R103">
+        <v>174</v>
+      </c>
+      <c r="S103" t="s">
+        <v>123</v>
+      </c>
+      <c r="T103">
         <v>7674</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <v>276</v>
       </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
       <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:23">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7800,7 +8112,7 @@
         <v>102</v>
       </c>
       <c r="I104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="J104">
         <v>176</v>
@@ -7826,23 +8138,26 @@
       <c r="Q104">
         <v>176</v>
       </c>
-      <c r="R104" t="s">
-        <v>123</v>
-      </c>
-      <c r="S104">
+      <c r="R104">
+        <v>176</v>
+      </c>
+      <c r="S104" t="s">
+        <v>124</v>
+      </c>
+      <c r="T104">
         <v>7798</v>
       </c>
-      <c r="T104">
+      <c r="U104">
         <v>283</v>
       </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
       <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:23">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7868,7 +8183,7 @@
         <v>103</v>
       </c>
       <c r="I105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="J105">
         <v>178</v>
@@ -7894,23 +8209,26 @@
       <c r="Q105">
         <v>178</v>
       </c>
-      <c r="R105" t="s">
-        <v>124</v>
-      </c>
-      <c r="S105">
+      <c r="R105">
+        <v>178</v>
+      </c>
+      <c r="S105" t="s">
+        <v>125</v>
+      </c>
+      <c r="T105">
         <v>7940</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <v>288</v>
       </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
       <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:23">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7936,7 +8254,7 @@
         <v>104</v>
       </c>
       <c r="I106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="J106">
         <v>180</v>
@@ -7962,23 +8280,26 @@
       <c r="Q106">
         <v>180</v>
       </c>
-      <c r="R106" t="s">
-        <v>125</v>
-      </c>
-      <c r="S106">
+      <c r="R106">
+        <v>180</v>
+      </c>
+      <c r="S106" t="s">
+        <v>126</v>
+      </c>
+      <c r="T106">
         <v>8345</v>
       </c>
-      <c r="T106">
+      <c r="U106">
         <v>296</v>
       </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
       <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:23">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8004,7 +8325,7 @@
         <v>105</v>
       </c>
       <c r="I107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="J107">
         <v>182</v>
@@ -8030,23 +8351,26 @@
       <c r="Q107">
         <v>182</v>
       </c>
-      <c r="R107" t="s">
-        <v>126</v>
-      </c>
-      <c r="S107">
+      <c r="R107">
+        <v>182</v>
+      </c>
+      <c r="S107" t="s">
+        <v>127</v>
+      </c>
+      <c r="T107">
         <v>8345</v>
       </c>
-      <c r="T107">
+      <c r="U107">
         <v>296</v>
       </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
       <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:23">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8072,7 +8396,7 @@
         <v>106</v>
       </c>
       <c r="I108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="J108">
         <v>184</v>
@@ -8098,23 +8422,26 @@
       <c r="Q108">
         <v>184</v>
       </c>
-      <c r="R108" t="s">
-        <v>127</v>
-      </c>
-      <c r="S108">
+      <c r="R108">
+        <v>184</v>
+      </c>
+      <c r="S108" t="s">
+        <v>128</v>
+      </c>
+      <c r="T108">
         <v>8619</v>
       </c>
-      <c r="T108">
+      <c r="U108">
         <v>296</v>
       </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
       <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:23">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8140,7 +8467,7 @@
         <v>107</v>
       </c>
       <c r="I109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="J109">
         <v>186</v>
@@ -8166,23 +8493,26 @@
       <c r="Q109">
         <v>186</v>
       </c>
-      <c r="R109" t="s">
-        <v>128</v>
-      </c>
-      <c r="S109">
+      <c r="R109">
+        <v>186</v>
+      </c>
+      <c r="S109" t="s">
+        <v>129</v>
+      </c>
+      <c r="T109">
         <v>8619</v>
       </c>
-      <c r="T109">
+      <c r="U109">
         <v>296</v>
       </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
       <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:23">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8208,7 +8538,7 @@
         <v>108</v>
       </c>
       <c r="I110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="J110">
         <v>188</v>
@@ -8234,23 +8564,26 @@
       <c r="Q110">
         <v>188</v>
       </c>
-      <c r="R110" t="s">
-        <v>129</v>
-      </c>
-      <c r="S110">
+      <c r="R110">
+        <v>188</v>
+      </c>
+      <c r="S110" t="s">
+        <v>130</v>
+      </c>
+      <c r="T110">
         <v>8837</v>
       </c>
-      <c r="T110">
+      <c r="U110">
         <v>305</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
       <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:23">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8276,7 +8609,7 @@
         <v>109</v>
       </c>
       <c r="I111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="J111">
         <v>190</v>
@@ -8302,23 +8635,26 @@
       <c r="Q111">
         <v>190</v>
       </c>
-      <c r="R111" t="s">
-        <v>130</v>
-      </c>
-      <c r="S111">
+      <c r="R111">
+        <v>190</v>
+      </c>
+      <c r="S111" t="s">
+        <v>131</v>
+      </c>
+      <c r="T111">
         <v>8998</v>
       </c>
-      <c r="T111">
+      <c r="U111">
         <v>308</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
       <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:23">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8337,19 +8673,22 @@
       <c r="F112">
         <v>110</v>
       </c>
-      <c r="R112" t="s">
-        <v>131</v>
-      </c>
-      <c r="S112">
+      <c r="G112">
+        <v>110</v>
+      </c>
+      <c r="S112" t="s">
+        <v>132</v>
+      </c>
+      <c r="T112">
         <v>8998</v>
       </c>
-      <c r="T112">
+      <c r="U112">
         <v>308</v>
       </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
       <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -770,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,8 +846,11 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -899,23 +905,26 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,14 +979,14 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3">
+      <c r="S3">
         <v>1</v>
       </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -985,8 +994,11 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1041,14 +1053,14 @@
       <c r="R4">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4">
+      <c r="S4">
         <v>2</v>
       </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
       <c r="U4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1056,8 +1068,11 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1112,23 +1127,26 @@
       <c r="R5">
         <v>3</v>
       </c>
-      <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1183,23 +1201,26 @@
       <c r="R6">
         <v>4</v>
       </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1254,23 +1275,26 @@
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7">
         <v>2</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1325,23 +1349,26 @@
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8">
         <v>2</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1396,23 +1423,26 @@
       <c r="R9">
         <v>7</v>
       </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9">
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1467,23 +1497,26 @@
       <c r="R10">
         <v>8</v>
       </c>
-      <c r="S10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10">
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1538,23 +1571,26 @@
       <c r="R11">
         <v>9</v>
       </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11">
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1609,23 +1645,26 @@
       <c r="R12">
         <v>10</v>
       </c>
-      <c r="S12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12">
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12">
         <v>2</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>1</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1680,23 +1719,26 @@
       <c r="R13">
         <v>11</v>
       </c>
-      <c r="S13" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>1</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1751,23 +1793,26 @@
       <c r="R14">
         <v>12</v>
       </c>
-      <c r="S14" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14">
         <v>2</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>1</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1822,23 +1867,26 @@
       <c r="R15">
         <v>13</v>
       </c>
-      <c r="S15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15">
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15">
         <v>2</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>1</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1893,23 +1941,26 @@
       <c r="R16">
         <v>14</v>
       </c>
-      <c r="S16" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16">
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>1</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1964,23 +2015,26 @@
       <c r="R17">
         <v>15</v>
       </c>
-      <c r="S17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T17">
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17">
         <v>2</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>1</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2035,23 +2089,26 @@
       <c r="R18">
         <v>16</v>
       </c>
-      <c r="S18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T18">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18">
         <v>2</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
       <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>1</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2106,23 +2163,26 @@
       <c r="R19">
         <v>17</v>
       </c>
-      <c r="S19" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19">
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19">
         <v>2</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>1</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2177,23 +2237,26 @@
       <c r="R20">
         <v>18</v>
       </c>
-      <c r="S20" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20">
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20">
         <v>2</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>1</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2248,23 +2311,26 @@
       <c r="R21">
         <v>19</v>
       </c>
-      <c r="S21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T21">
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21">
         <v>2</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>1</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2319,23 +2385,26 @@
       <c r="R22">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22">
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22">
         <v>2</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>1</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2390,23 +2459,26 @@
       <c r="R23">
         <v>21</v>
       </c>
-      <c r="S23" t="s">
-        <v>43</v>
-      </c>
-      <c r="T23">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23">
         <v>2</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>1</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2461,23 +2533,26 @@
       <c r="R24">
         <v>22</v>
       </c>
-      <c r="S24" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24">
         <v>2</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>1</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2532,23 +2607,26 @@
       <c r="R25">
         <v>23</v>
       </c>
-      <c r="S25" t="s">
-        <v>45</v>
-      </c>
-      <c r="T25">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25">
         <v>3</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>1</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2603,23 +2681,26 @@
       <c r="R26">
         <v>24</v>
       </c>
-      <c r="S26" t="s">
-        <v>46</v>
-      </c>
-      <c r="T26">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26">
         <v>3</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>1</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2674,23 +2755,26 @@
       <c r="R27">
         <v>25</v>
       </c>
-      <c r="S27" t="s">
-        <v>47</v>
-      </c>
-      <c r="T27">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27">
         <v>3</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>1</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2745,23 +2829,26 @@
       <c r="R28">
         <v>26</v>
       </c>
-      <c r="S28" t="s">
-        <v>48</v>
-      </c>
-      <c r="T28">
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28">
         <v>3</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>1</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2816,23 +2903,26 @@
       <c r="R29">
         <v>27</v>
       </c>
-      <c r="S29" t="s">
-        <v>49</v>
-      </c>
-      <c r="T29">
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29">
         <v>3</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>1</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2887,23 +2977,26 @@
       <c r="R30">
         <v>28</v>
       </c>
-      <c r="S30" t="s">
-        <v>50</v>
-      </c>
-      <c r="T30">
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30">
         <v>155</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2932,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K31">
         <v>30</v>
@@ -2958,23 +3051,26 @@
       <c r="R31">
         <v>30</v>
       </c>
-      <c r="S31" t="s">
-        <v>51</v>
-      </c>
-      <c r="T31">
+      <c r="S31">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31">
         <v>201</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3003,7 +3099,7 @@
         <v>30</v>
       </c>
       <c r="J32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K32">
         <v>32</v>
@@ -3029,23 +3125,26 @@
       <c r="R32">
         <v>32</v>
       </c>
-      <c r="S32" t="s">
-        <v>52</v>
-      </c>
-      <c r="T32">
+      <c r="S32">
+        <v>32</v>
+      </c>
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32">
         <v>226</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
       <c r="W32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3074,7 +3173,7 @@
         <v>31</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K33">
         <v>34</v>
@@ -3100,23 +3199,26 @@
       <c r="R33">
         <v>34</v>
       </c>
-      <c r="S33" t="s">
-        <v>53</v>
-      </c>
-      <c r="T33">
+      <c r="S33">
+        <v>34</v>
+      </c>
+      <c r="T33" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33">
         <v>238</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>2</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3145,7 +3247,7 @@
         <v>32</v>
       </c>
       <c r="J34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K34">
         <v>36</v>
@@ -3171,23 +3273,26 @@
       <c r="R34">
         <v>36</v>
       </c>
-      <c r="S34" t="s">
-        <v>54</v>
-      </c>
-      <c r="T34">
+      <c r="S34">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34">
         <v>293</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
       <c r="W34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3216,7 +3321,7 @@
         <v>33</v>
       </c>
       <c r="J35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K35">
         <v>38</v>
@@ -3242,23 +3347,26 @@
       <c r="R35">
         <v>38</v>
       </c>
-      <c r="S35" t="s">
-        <v>55</v>
-      </c>
-      <c r="T35">
+      <c r="S35">
+        <v>38</v>
+      </c>
+      <c r="T35" t="s">
+        <v>56</v>
+      </c>
+      <c r="U35">
         <v>341</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3287,7 +3395,7 @@
         <v>34</v>
       </c>
       <c r="J36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K36">
         <v>40</v>
@@ -3313,23 +3421,26 @@
       <c r="R36">
         <v>40</v>
       </c>
-      <c r="S36" t="s">
-        <v>56</v>
-      </c>
-      <c r="T36">
+      <c r="S36">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36">
         <v>413</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>6</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3358,7 +3469,7 @@
         <v>35</v>
       </c>
       <c r="J37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K37">
         <v>42</v>
@@ -3384,23 +3495,26 @@
       <c r="R37">
         <v>42</v>
       </c>
-      <c r="S37" t="s">
-        <v>57</v>
-      </c>
-      <c r="T37">
+      <c r="S37">
+        <v>42</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37">
         <v>484</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>7</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
       <c r="W37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3429,7 +3543,7 @@
         <v>36</v>
       </c>
       <c r="J38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K38">
         <v>44</v>
@@ -3455,23 +3569,26 @@
       <c r="R38">
         <v>44</v>
       </c>
-      <c r="S38" t="s">
-        <v>58</v>
-      </c>
-      <c r="T38">
+      <c r="S38">
+        <v>44</v>
+      </c>
+      <c r="T38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U38">
         <v>515</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>7</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
       <c r="W38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3500,7 +3617,7 @@
         <v>37</v>
       </c>
       <c r="J39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K39">
         <v>46</v>
@@ -3526,23 +3643,26 @@
       <c r="R39">
         <v>46</v>
       </c>
-      <c r="S39" t="s">
-        <v>59</v>
-      </c>
-      <c r="T39">
+      <c r="S39">
+        <v>46</v>
+      </c>
+      <c r="T39" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39">
         <v>603</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>7</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3571,7 +3691,7 @@
         <v>38</v>
       </c>
       <c r="J40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K40">
         <v>48</v>
@@ -3597,23 +3717,26 @@
       <c r="R40">
         <v>48</v>
       </c>
-      <c r="S40" t="s">
-        <v>60</v>
-      </c>
-      <c r="T40">
+      <c r="S40">
+        <v>48</v>
+      </c>
+      <c r="T40" t="s">
+        <v>61</v>
+      </c>
+      <c r="U40">
         <v>733</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>9</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3642,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="J41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>50</v>
@@ -3668,23 +3791,26 @@
       <c r="R41">
         <v>50</v>
       </c>
-      <c r="S41" t="s">
-        <v>61</v>
-      </c>
-      <c r="T41">
+      <c r="S41">
+        <v>50</v>
+      </c>
+      <c r="T41" t="s">
+        <v>62</v>
+      </c>
+      <c r="U41">
         <v>849</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>15</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3713,7 +3839,7 @@
         <v>40</v>
       </c>
       <c r="J42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>52</v>
@@ -3739,23 +3865,26 @@
       <c r="R42">
         <v>52</v>
       </c>
-      <c r="S42" t="s">
-        <v>62</v>
-      </c>
-      <c r="T42">
+      <c r="S42">
+        <v>52</v>
+      </c>
+      <c r="T42" t="s">
+        <v>63</v>
+      </c>
+      <c r="U42">
         <v>966</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>16</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3784,7 +3913,7 @@
         <v>41</v>
       </c>
       <c r="J43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>54</v>
@@ -3810,23 +3939,26 @@
       <c r="R43">
         <v>54</v>
       </c>
-      <c r="S43" t="s">
-        <v>63</v>
-      </c>
-      <c r="T43">
+      <c r="S43">
+        <v>54</v>
+      </c>
+      <c r="T43" t="s">
+        <v>64</v>
+      </c>
+      <c r="U43">
         <v>1112</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>17</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
       <c r="W43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3855,7 +3987,7 @@
         <v>42</v>
       </c>
       <c r="J44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>56</v>
@@ -3881,23 +4013,26 @@
       <c r="R44">
         <v>56</v>
       </c>
-      <c r="S44" t="s">
-        <v>64</v>
-      </c>
-      <c r="T44">
+      <c r="S44">
+        <v>56</v>
+      </c>
+      <c r="T44" t="s">
+        <v>65</v>
+      </c>
+      <c r="U44">
         <v>1209</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>18</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
       <c r="W44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3926,7 +4061,7 @@
         <v>43</v>
       </c>
       <c r="J45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>58</v>
@@ -3952,23 +4087,26 @@
       <c r="R45">
         <v>58</v>
       </c>
-      <c r="S45" t="s">
-        <v>65</v>
-      </c>
-      <c r="T45">
+      <c r="S45">
+        <v>58</v>
+      </c>
+      <c r="T45" t="s">
+        <v>66</v>
+      </c>
+      <c r="U45">
         <v>1326</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>19</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3997,7 +4135,7 @@
         <v>44</v>
       </c>
       <c r="J46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>60</v>
@@ -4023,23 +4161,26 @@
       <c r="R46">
         <v>60</v>
       </c>
-      <c r="S46" t="s">
-        <v>66</v>
-      </c>
-      <c r="T46">
+      <c r="S46">
+        <v>60</v>
+      </c>
+      <c r="T46" t="s">
+        <v>67</v>
+      </c>
+      <c r="U46">
         <v>1404</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>19</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4068,7 +4209,7 @@
         <v>45</v>
       </c>
       <c r="J47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>62</v>
@@ -4094,23 +4235,26 @@
       <c r="R47">
         <v>62</v>
       </c>
-      <c r="S47" t="s">
-        <v>67</v>
-      </c>
-      <c r="T47">
+      <c r="S47">
+        <v>62</v>
+      </c>
+      <c r="T47" t="s">
+        <v>68</v>
+      </c>
+      <c r="U47">
         <v>1454</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>31</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4139,7 +4283,7 @@
         <v>46</v>
       </c>
       <c r="J48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>64</v>
@@ -4165,23 +4309,26 @@
       <c r="R48">
         <v>64</v>
       </c>
-      <c r="S48" t="s">
-        <v>68</v>
-      </c>
-      <c r="T48">
+      <c r="S48">
+        <v>64</v>
+      </c>
+      <c r="T48" t="s">
+        <v>69</v>
+      </c>
+      <c r="U48">
         <v>1530</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>36</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4210,7 +4357,7 @@
         <v>47</v>
       </c>
       <c r="J49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>66</v>
@@ -4236,23 +4383,26 @@
       <c r="R49">
         <v>66</v>
       </c>
-      <c r="S49" t="s">
-        <v>69</v>
-      </c>
-      <c r="T49">
+      <c r="S49">
+        <v>66</v>
+      </c>
+      <c r="T49" t="s">
+        <v>70</v>
+      </c>
+      <c r="U49">
         <v>1628</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>40</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4281,7 +4431,7 @@
         <v>48</v>
       </c>
       <c r="J50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>68</v>
@@ -4307,23 +4457,26 @@
       <c r="R50">
         <v>68</v>
       </c>
-      <c r="S50" t="s">
-        <v>70</v>
-      </c>
-      <c r="T50">
+      <c r="S50">
+        <v>68</v>
+      </c>
+      <c r="T50" t="s">
+        <v>71</v>
+      </c>
+      <c r="U50">
         <v>1693</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>44</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4352,7 +4505,7 @@
         <v>49</v>
       </c>
       <c r="J51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>70</v>
@@ -4378,23 +4531,26 @@
       <c r="R51">
         <v>70</v>
       </c>
-      <c r="S51" t="s">
-        <v>71</v>
-      </c>
-      <c r="T51">
+      <c r="S51">
+        <v>70</v>
+      </c>
+      <c r="T51" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51">
         <v>1761</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>45</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
       <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4423,7 +4579,7 @@
         <v>50</v>
       </c>
       <c r="J52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>72</v>
@@ -4449,23 +4605,26 @@
       <c r="R52">
         <v>72</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S52">
         <v>72</v>
       </c>
-      <c r="T52">
+      <c r="T52" t="s">
+        <v>73</v>
+      </c>
+      <c r="U52">
         <v>1804</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>45</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
       <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4494,7 +4653,7 @@
         <v>51</v>
       </c>
       <c r="J53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K53">
         <v>74</v>
@@ -4520,23 +4679,26 @@
       <c r="R53">
         <v>74</v>
       </c>
-      <c r="S53" t="s">
-        <v>73</v>
-      </c>
-      <c r="T53">
+      <c r="S53">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s">
+        <v>74</v>
+      </c>
+      <c r="U53">
         <v>1847</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>47</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
       <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4565,7 +4727,7 @@
         <v>52</v>
       </c>
       <c r="J54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="K54">
         <v>76</v>
@@ -4591,23 +4753,26 @@
       <c r="R54">
         <v>76</v>
       </c>
-      <c r="S54" t="s">
-        <v>74</v>
-      </c>
-      <c r="T54">
+      <c r="S54">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s">
+        <v>75</v>
+      </c>
+      <c r="U54">
         <v>1930</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>53</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
       <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4636,7 +4801,7 @@
         <v>53</v>
       </c>
       <c r="J55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K55">
         <v>78</v>
@@ -4662,23 +4827,26 @@
       <c r="R55">
         <v>78</v>
       </c>
-      <c r="S55" t="s">
-        <v>75</v>
-      </c>
-      <c r="T55">
+      <c r="S55">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s">
+        <v>76</v>
+      </c>
+      <c r="U55">
         <v>2012</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>60</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
       <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4707,7 +4875,7 @@
         <v>54</v>
       </c>
       <c r="J56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K56">
         <v>80</v>
@@ -4733,23 +4901,26 @@
       <c r="R56">
         <v>80</v>
       </c>
-      <c r="S56" t="s">
-        <v>76</v>
-      </c>
-      <c r="T56">
+      <c r="S56">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s">
+        <v>77</v>
+      </c>
+      <c r="U56">
         <v>2087</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>63</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
       <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4778,7 +4949,7 @@
         <v>55</v>
       </c>
       <c r="J57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="K57">
         <v>82</v>
@@ -4804,23 +4975,26 @@
       <c r="R57">
         <v>82</v>
       </c>
-      <c r="S57" t="s">
-        <v>77</v>
-      </c>
-      <c r="T57">
+      <c r="S57">
+        <v>82</v>
+      </c>
+      <c r="T57" t="s">
+        <v>78</v>
+      </c>
+      <c r="U57">
         <v>2158</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>70</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
       <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4849,7 +5023,7 @@
         <v>56</v>
       </c>
       <c r="J58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="K58">
         <v>84</v>
@@ -4875,23 +5049,26 @@
       <c r="R58">
         <v>84</v>
       </c>
-      <c r="S58" t="s">
-        <v>78</v>
-      </c>
-      <c r="T58">
+      <c r="S58">
+        <v>84</v>
+      </c>
+      <c r="T58" t="s">
+        <v>79</v>
+      </c>
+      <c r="U58">
         <v>2213</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>71</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
       <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4920,7 +5097,7 @@
         <v>57</v>
       </c>
       <c r="J59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="K59">
         <v>86</v>
@@ -4946,23 +5123,26 @@
       <c r="R59">
         <v>86</v>
       </c>
-      <c r="S59" t="s">
-        <v>79</v>
-      </c>
-      <c r="T59">
+      <c r="S59">
+        <v>86</v>
+      </c>
+      <c r="T59" t="s">
+        <v>80</v>
+      </c>
+      <c r="U59">
         <v>2268</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>71</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
       <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4991,7 +5171,7 @@
         <v>58</v>
       </c>
       <c r="J60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="K60">
         <v>88</v>
@@ -5017,23 +5197,26 @@
       <c r="R60">
         <v>88</v>
       </c>
-      <c r="S60" t="s">
-        <v>80</v>
-      </c>
-      <c r="T60">
+      <c r="S60">
+        <v>88</v>
+      </c>
+      <c r="T60" t="s">
+        <v>81</v>
+      </c>
+      <c r="U60">
         <v>2325</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>72</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5062,7 +5245,7 @@
         <v>59</v>
       </c>
       <c r="J61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K61">
         <v>90</v>
@@ -5088,23 +5271,26 @@
       <c r="R61">
         <v>90</v>
       </c>
-      <c r="S61" t="s">
-        <v>81</v>
-      </c>
-      <c r="T61">
+      <c r="S61">
+        <v>90</v>
+      </c>
+      <c r="T61" t="s">
+        <v>82</v>
+      </c>
+      <c r="U61">
         <v>2491</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>96</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
       <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5133,7 +5319,7 @@
         <v>60</v>
       </c>
       <c r="J62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K62">
         <v>92</v>
@@ -5159,23 +5345,26 @@
       <c r="R62">
         <v>92</v>
       </c>
-      <c r="S62" t="s">
-        <v>82</v>
-      </c>
-      <c r="T62">
+      <c r="S62">
+        <v>92</v>
+      </c>
+      <c r="T62" t="s">
+        <v>83</v>
+      </c>
+      <c r="U62">
         <v>2643</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>100</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
       <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5204,7 +5393,7 @@
         <v>61</v>
       </c>
       <c r="J63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="K63">
         <v>94</v>
@@ -5230,23 +5419,26 @@
       <c r="R63">
         <v>94</v>
       </c>
-      <c r="S63" t="s">
-        <v>83</v>
-      </c>
-      <c r="T63">
+      <c r="S63">
+        <v>94</v>
+      </c>
+      <c r="T63" t="s">
+        <v>84</v>
+      </c>
+      <c r="U63">
         <v>2826</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>102</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
       <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5275,7 +5467,7 @@
         <v>62</v>
       </c>
       <c r="J64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="K64">
         <v>96</v>
@@ -5301,23 +5493,26 @@
       <c r="R64">
         <v>96</v>
       </c>
-      <c r="S64" t="s">
-        <v>84</v>
-      </c>
-      <c r="T64">
+      <c r="S64">
+        <v>96</v>
+      </c>
+      <c r="T64" t="s">
+        <v>85</v>
+      </c>
+      <c r="U64">
         <v>2943</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>111</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
       <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5346,7 +5541,7 @@
         <v>63</v>
       </c>
       <c r="J65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="K65">
         <v>98</v>
@@ -5372,23 +5567,26 @@
       <c r="R65">
         <v>98</v>
       </c>
-      <c r="S65" t="s">
-        <v>85</v>
-      </c>
-      <c r="T65">
+      <c r="S65">
+        <v>98</v>
+      </c>
+      <c r="T65" t="s">
+        <v>86</v>
+      </c>
+      <c r="U65">
         <v>2943</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>111</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
       <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5417,7 +5615,7 @@
         <v>64</v>
       </c>
       <c r="J66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K66">
         <v>100</v>
@@ -5443,23 +5641,26 @@
       <c r="R66">
         <v>100</v>
       </c>
-      <c r="S66" t="s">
-        <v>86</v>
-      </c>
-      <c r="T66">
+      <c r="S66">
+        <v>100</v>
+      </c>
+      <c r="T66" t="s">
+        <v>87</v>
+      </c>
+      <c r="U66">
         <v>3043</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>111</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
       <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5488,7 +5689,7 @@
         <v>65</v>
       </c>
       <c r="J67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="K67">
         <v>102</v>
@@ -5514,23 +5715,26 @@
       <c r="R67">
         <v>102</v>
       </c>
-      <c r="S67" t="s">
-        <v>87</v>
-      </c>
-      <c r="T67">
+      <c r="S67">
+        <v>102</v>
+      </c>
+      <c r="T67" t="s">
+        <v>88</v>
+      </c>
+      <c r="U67">
         <v>3141</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>113</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
       <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5559,7 +5763,7 @@
         <v>66</v>
       </c>
       <c r="J68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K68">
         <v>104</v>
@@ -5585,23 +5789,26 @@
       <c r="R68">
         <v>104</v>
       </c>
-      <c r="S68" t="s">
-        <v>88</v>
-      </c>
-      <c r="T68">
+      <c r="S68">
+        <v>104</v>
+      </c>
+      <c r="T68" t="s">
+        <v>89</v>
+      </c>
+      <c r="U68">
         <v>3432</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>120</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
       <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5630,7 +5837,7 @@
         <v>67</v>
       </c>
       <c r="J69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="K69">
         <v>106</v>
@@ -5656,23 +5863,26 @@
       <c r="R69">
         <v>106</v>
       </c>
-      <c r="S69" t="s">
-        <v>89</v>
-      </c>
-      <c r="T69">
+      <c r="S69">
+        <v>106</v>
+      </c>
+      <c r="T69" t="s">
+        <v>90</v>
+      </c>
+      <c r="U69">
         <v>3432</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>120</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
       <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5701,7 +5911,7 @@
         <v>68</v>
       </c>
       <c r="J70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K70">
         <v>108</v>
@@ -5727,23 +5937,26 @@
       <c r="R70">
         <v>108</v>
       </c>
-      <c r="S70" t="s">
-        <v>90</v>
-      </c>
-      <c r="T70">
+      <c r="S70">
+        <v>108</v>
+      </c>
+      <c r="T70" t="s">
+        <v>91</v>
+      </c>
+      <c r="U70">
         <v>3564</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>124</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
       <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5772,7 +5985,7 @@
         <v>69</v>
       </c>
       <c r="J71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="K71">
         <v>110</v>
@@ -5798,23 +6011,26 @@
       <c r="R71">
         <v>110</v>
       </c>
-      <c r="S71" t="s">
-        <v>91</v>
-      </c>
-      <c r="T71">
+      <c r="S71">
+        <v>110</v>
+      </c>
+      <c r="T71" t="s">
+        <v>92</v>
+      </c>
+      <c r="U71">
         <v>3711</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>134</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
       <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5843,7 +6059,7 @@
         <v>70</v>
       </c>
       <c r="J72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="K72">
         <v>112</v>
@@ -5869,23 +6085,26 @@
       <c r="R72">
         <v>112</v>
       </c>
-      <c r="S72" t="s">
-        <v>92</v>
-      </c>
-      <c r="T72">
+      <c r="S72">
+        <v>112</v>
+      </c>
+      <c r="T72" t="s">
+        <v>93</v>
+      </c>
+      <c r="U72">
         <v>3927</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>139</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
       <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5914,7 +6133,7 @@
         <v>71</v>
       </c>
       <c r="J73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="K73">
         <v>114</v>
@@ -5940,23 +6159,26 @@
       <c r="R73">
         <v>114</v>
       </c>
-      <c r="S73" t="s">
-        <v>93</v>
-      </c>
-      <c r="T73">
+      <c r="S73">
+        <v>114</v>
+      </c>
+      <c r="T73" t="s">
+        <v>94</v>
+      </c>
+      <c r="U73">
         <v>3927</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>139</v>
       </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
       <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5985,7 +6207,7 @@
         <v>72</v>
       </c>
       <c r="J74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K74">
         <v>116</v>
@@ -6011,23 +6233,26 @@
       <c r="R74">
         <v>116</v>
       </c>
-      <c r="S74" t="s">
-        <v>94</v>
-      </c>
-      <c r="T74">
+      <c r="S74">
+        <v>116</v>
+      </c>
+      <c r="T74" t="s">
+        <v>95</v>
+      </c>
+      <c r="U74">
         <v>4020</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>144</v>
       </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
       <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6056,7 +6281,7 @@
         <v>73</v>
       </c>
       <c r="J75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K75">
         <v>118</v>
@@ -6082,23 +6307,26 @@
       <c r="R75">
         <v>118</v>
       </c>
-      <c r="S75" t="s">
-        <v>95</v>
-      </c>
-      <c r="T75">
+      <c r="S75">
+        <v>118</v>
+      </c>
+      <c r="T75" t="s">
+        <v>96</v>
+      </c>
+      <c r="U75">
         <v>4319</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>158</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
       <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6127,7 +6355,7 @@
         <v>74</v>
       </c>
       <c r="J76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="K76">
         <v>120</v>
@@ -6153,23 +6381,26 @@
       <c r="R76">
         <v>120</v>
       </c>
-      <c r="S76" t="s">
-        <v>96</v>
-      </c>
-      <c r="T76">
+      <c r="S76">
+        <v>120</v>
+      </c>
+      <c r="T76" t="s">
+        <v>97</v>
+      </c>
+      <c r="U76">
         <v>4319</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>158</v>
       </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
       <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6198,7 +6429,7 @@
         <v>75</v>
       </c>
       <c r="J77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="K77">
         <v>122</v>
@@ -6224,23 +6455,26 @@
       <c r="R77">
         <v>122</v>
       </c>
-      <c r="S77" t="s">
-        <v>97</v>
-      </c>
-      <c r="T77">
+      <c r="S77">
+        <v>122</v>
+      </c>
+      <c r="T77" t="s">
+        <v>98</v>
+      </c>
+      <c r="U77">
         <v>4429</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>165</v>
       </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
       <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6269,7 +6503,7 @@
         <v>76</v>
       </c>
       <c r="J78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="K78">
         <v>124</v>
@@ -6295,23 +6529,26 @@
       <c r="R78">
         <v>124</v>
       </c>
-      <c r="S78" t="s">
-        <v>98</v>
-      </c>
-      <c r="T78">
+      <c r="S78">
+        <v>124</v>
+      </c>
+      <c r="T78" t="s">
+        <v>99</v>
+      </c>
+      <c r="U78">
         <v>4662</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>169</v>
       </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
       <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6340,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="J79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K79">
         <v>126</v>
@@ -6366,23 +6603,26 @@
       <c r="R79">
         <v>126</v>
       </c>
-      <c r="S79" t="s">
-        <v>99</v>
-      </c>
-      <c r="T79">
+      <c r="S79">
+        <v>126</v>
+      </c>
+      <c r="T79" t="s">
+        <v>100</v>
+      </c>
+      <c r="U79">
         <v>4776</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>175</v>
       </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
       <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6411,7 +6651,7 @@
         <v>78</v>
       </c>
       <c r="J80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="K80">
         <v>128</v>
@@ -6437,23 +6677,26 @@
       <c r="R80">
         <v>128</v>
       </c>
-      <c r="S80" t="s">
-        <v>100</v>
-      </c>
-      <c r="T80">
+      <c r="S80">
+        <v>128</v>
+      </c>
+      <c r="T80" t="s">
+        <v>101</v>
+      </c>
+      <c r="U80">
         <v>5065</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>175</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
       <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6482,7 +6725,7 @@
         <v>79</v>
       </c>
       <c r="J81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K81">
         <v>130</v>
@@ -6508,23 +6751,26 @@
       <c r="R81">
         <v>130</v>
       </c>
-      <c r="S81" t="s">
-        <v>101</v>
-      </c>
-      <c r="T81">
+      <c r="S81">
+        <v>130</v>
+      </c>
+      <c r="T81" t="s">
+        <v>102</v>
+      </c>
+      <c r="U81">
         <v>5161</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>190</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
       <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6553,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="J82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K82">
         <v>132</v>
@@ -6579,23 +6825,26 @@
       <c r="R82">
         <v>132</v>
       </c>
-      <c r="S82" t="s">
-        <v>102</v>
-      </c>
-      <c r="T82">
+      <c r="S82">
+        <v>132</v>
+      </c>
+      <c r="T82" t="s">
+        <v>103</v>
+      </c>
+      <c r="U82">
         <v>5161</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>190</v>
       </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
       <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6624,7 +6873,7 @@
         <v>81</v>
       </c>
       <c r="J83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K83">
         <v>134</v>
@@ -6650,23 +6899,26 @@
       <c r="R83">
         <v>134</v>
       </c>
-      <c r="S83" t="s">
-        <v>103</v>
-      </c>
-      <c r="T83">
+      <c r="S83">
+        <v>134</v>
+      </c>
+      <c r="T83" t="s">
+        <v>104</v>
+      </c>
+      <c r="U83">
         <v>5391</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>200</v>
       </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
       <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6695,7 +6947,7 @@
         <v>82</v>
       </c>
       <c r="J84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="K84">
         <v>136</v>
@@ -6721,23 +6973,26 @@
       <c r="R84">
         <v>136</v>
       </c>
-      <c r="S84" t="s">
-        <v>104</v>
-      </c>
-      <c r="T84">
+      <c r="S84">
+        <v>136</v>
+      </c>
+      <c r="T84" t="s">
+        <v>105</v>
+      </c>
+      <c r="U84">
         <v>5391</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>200</v>
       </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
       <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6766,7 +7021,7 @@
         <v>83</v>
       </c>
       <c r="J85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K85">
         <v>138</v>
@@ -6792,23 +7047,26 @@
       <c r="R85">
         <v>138</v>
       </c>
-      <c r="S85" t="s">
-        <v>105</v>
-      </c>
-      <c r="T85">
+      <c r="S85">
+        <v>138</v>
+      </c>
+      <c r="T85" t="s">
+        <v>106</v>
+      </c>
+      <c r="U85">
         <v>5662</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>209</v>
       </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
       <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6837,7 +7095,7 @@
         <v>84</v>
       </c>
       <c r="J86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K86">
         <v>140</v>
@@ -6863,23 +7121,26 @@
       <c r="R86">
         <v>140</v>
       </c>
-      <c r="S86" t="s">
-        <v>106</v>
-      </c>
-      <c r="T86">
+      <c r="S86">
+        <v>140</v>
+      </c>
+      <c r="T86" t="s">
+        <v>107</v>
+      </c>
+      <c r="U86">
         <v>5836</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>209</v>
       </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
       <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6908,7 +7169,7 @@
         <v>85</v>
       </c>
       <c r="J87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="K87">
         <v>142</v>
@@ -6934,23 +7195,26 @@
       <c r="R87">
         <v>142</v>
       </c>
-      <c r="S87" t="s">
-        <v>107</v>
-      </c>
-      <c r="T87">
+      <c r="S87">
+        <v>142</v>
+      </c>
+      <c r="T87" t="s">
+        <v>108</v>
+      </c>
+      <c r="U87">
         <v>5836</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>209</v>
       </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
       <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6979,7 +7243,7 @@
         <v>86</v>
       </c>
       <c r="J88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="K88">
         <v>144</v>
@@ -7005,23 +7269,26 @@
       <c r="R88">
         <v>144</v>
       </c>
-      <c r="S88" t="s">
-        <v>108</v>
-      </c>
-      <c r="T88">
+      <c r="S88">
+        <v>144</v>
+      </c>
+      <c r="T88" t="s">
+        <v>109</v>
+      </c>
+      <c r="U88">
         <v>6026</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>222</v>
       </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
       <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7050,7 +7317,7 @@
         <v>87</v>
       </c>
       <c r="J89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="K89">
         <v>146</v>
@@ -7076,23 +7343,26 @@
       <c r="R89">
         <v>146</v>
       </c>
-      <c r="S89" t="s">
-        <v>109</v>
-      </c>
-      <c r="T89">
+      <c r="S89">
+        <v>146</v>
+      </c>
+      <c r="T89" t="s">
+        <v>110</v>
+      </c>
+      <c r="U89">
         <v>6140</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>230</v>
       </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
       <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7121,7 +7391,7 @@
         <v>88</v>
       </c>
       <c r="J90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="K90">
         <v>148</v>
@@ -7147,23 +7417,26 @@
       <c r="R90">
         <v>148</v>
       </c>
-      <c r="S90" t="s">
-        <v>110</v>
-      </c>
-      <c r="T90">
+      <c r="S90">
+        <v>148</v>
+      </c>
+      <c r="T90" t="s">
+        <v>111</v>
+      </c>
+      <c r="U90">
         <v>6140</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>230</v>
       </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
       <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7192,7 +7465,7 @@
         <v>89</v>
       </c>
       <c r="J91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="K91">
         <v>150</v>
@@ -7218,23 +7491,26 @@
       <c r="R91">
         <v>150</v>
       </c>
-      <c r="S91" t="s">
-        <v>111</v>
-      </c>
-      <c r="T91">
+      <c r="S91">
+        <v>150</v>
+      </c>
+      <c r="T91" t="s">
+        <v>112</v>
+      </c>
+      <c r="U91">
         <v>6315</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>241</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
       <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7263,7 +7539,7 @@
         <v>90</v>
       </c>
       <c r="J92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="K92">
         <v>152</v>
@@ -7289,23 +7565,26 @@
       <c r="R92">
         <v>152</v>
       </c>
-      <c r="S92" t="s">
-        <v>112</v>
-      </c>
-      <c r="T92">
+      <c r="S92">
+        <v>152</v>
+      </c>
+      <c r="T92" t="s">
+        <v>113</v>
+      </c>
+      <c r="U92">
         <v>6559</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>249</v>
       </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
       <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7334,7 +7613,7 @@
         <v>91</v>
       </c>
       <c r="J93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K93">
         <v>154</v>
@@ -7360,23 +7639,26 @@
       <c r="R93">
         <v>154</v>
       </c>
-      <c r="S93" t="s">
-        <v>113</v>
-      </c>
-      <c r="T93">
+      <c r="S93">
+        <v>154</v>
+      </c>
+      <c r="T93" t="s">
+        <v>114</v>
+      </c>
+      <c r="U93">
         <v>6559</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>249</v>
       </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
       <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7405,7 +7687,7 @@
         <v>92</v>
       </c>
       <c r="J94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="K94">
         <v>156</v>
@@ -7431,23 +7713,26 @@
       <c r="R94">
         <v>156</v>
       </c>
-      <c r="S94" t="s">
-        <v>114</v>
-      </c>
-      <c r="T94">
+      <c r="S94">
+        <v>156</v>
+      </c>
+      <c r="T94" t="s">
+        <v>115</v>
+      </c>
+      <c r="U94">
         <v>6701</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>249</v>
       </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
       <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7476,7 +7761,7 @@
         <v>93</v>
       </c>
       <c r="J95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="K95">
         <v>158</v>
@@ -7502,23 +7787,26 @@
       <c r="R95">
         <v>158</v>
       </c>
-      <c r="S95" t="s">
-        <v>115</v>
-      </c>
-      <c r="T95">
+      <c r="S95">
+        <v>158</v>
+      </c>
+      <c r="T95" t="s">
+        <v>116</v>
+      </c>
+      <c r="U95">
         <v>6797</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>249</v>
       </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
       <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7547,7 +7835,7 @@
         <v>94</v>
       </c>
       <c r="J96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="K96">
         <v>160</v>
@@ -7573,23 +7861,26 @@
       <c r="R96">
         <v>160</v>
       </c>
-      <c r="S96" t="s">
-        <v>116</v>
-      </c>
-      <c r="T96">
+      <c r="S96">
+        <v>160</v>
+      </c>
+      <c r="T96" t="s">
+        <v>117</v>
+      </c>
+      <c r="U96">
         <v>6882</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>249</v>
       </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
       <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7618,7 +7909,7 @@
         <v>95</v>
       </c>
       <c r="J97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="K97">
         <v>162</v>
@@ -7644,23 +7935,26 @@
       <c r="R97">
         <v>162</v>
       </c>
-      <c r="S97" t="s">
-        <v>117</v>
-      </c>
-      <c r="T97">
+      <c r="S97">
+        <v>162</v>
+      </c>
+      <c r="T97" t="s">
+        <v>118</v>
+      </c>
+      <c r="U97">
         <v>7100</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>260</v>
       </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
       <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7689,7 +7983,7 @@
         <v>96</v>
       </c>
       <c r="J98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="K98">
         <v>164</v>
@@ -7715,23 +8009,26 @@
       <c r="R98">
         <v>164</v>
       </c>
-      <c r="S98" t="s">
-        <v>118</v>
-      </c>
-      <c r="T98">
+      <c r="S98">
+        <v>164</v>
+      </c>
+      <c r="T98" t="s">
+        <v>119</v>
+      </c>
+      <c r="U98">
         <v>7100</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>260</v>
       </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
       <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7760,7 +8057,7 @@
         <v>97</v>
       </c>
       <c r="J99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="K99">
         <v>166</v>
@@ -7786,23 +8083,26 @@
       <c r="R99">
         <v>166</v>
       </c>
-      <c r="S99" t="s">
-        <v>119</v>
-      </c>
-      <c r="T99">
+      <c r="S99">
+        <v>166</v>
+      </c>
+      <c r="T99" t="s">
+        <v>120</v>
+      </c>
+      <c r="U99">
         <v>7385</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>269</v>
       </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
       <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7831,7 +8131,7 @@
         <v>98</v>
       </c>
       <c r="J100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="K100">
         <v>168</v>
@@ -7857,23 +8157,26 @@
       <c r="R100">
         <v>168</v>
       </c>
-      <c r="S100" t="s">
-        <v>120</v>
-      </c>
-      <c r="T100">
+      <c r="S100">
+        <v>168</v>
+      </c>
+      <c r="T100" t="s">
+        <v>121</v>
+      </c>
+      <c r="U100">
         <v>7481</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>269</v>
       </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
       <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7902,7 +8205,7 @@
         <v>99</v>
       </c>
       <c r="J101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="K101">
         <v>170</v>
@@ -7928,23 +8231,26 @@
       <c r="R101">
         <v>170</v>
       </c>
-      <c r="S101" t="s">
-        <v>121</v>
-      </c>
-      <c r="T101">
+      <c r="S101">
+        <v>170</v>
+      </c>
+      <c r="T101" t="s">
+        <v>122</v>
+      </c>
+      <c r="U101">
         <v>7481</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>269</v>
       </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
       <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7973,7 +8279,7 @@
         <v>100</v>
       </c>
       <c r="J102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="K102">
         <v>172</v>
@@ -7999,23 +8305,26 @@
       <c r="R102">
         <v>172</v>
       </c>
-      <c r="S102" t="s">
-        <v>122</v>
-      </c>
-      <c r="T102">
+      <c r="S102">
+        <v>172</v>
+      </c>
+      <c r="T102" t="s">
+        <v>123</v>
+      </c>
+      <c r="U102">
         <v>7554</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>269</v>
       </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
       <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8044,7 +8353,7 @@
         <v>101</v>
       </c>
       <c r="J103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K103">
         <v>174</v>
@@ -8070,23 +8379,26 @@
       <c r="R103">
         <v>174</v>
       </c>
-      <c r="S103" t="s">
-        <v>123</v>
-      </c>
-      <c r="T103">
+      <c r="S103">
+        <v>174</v>
+      </c>
+      <c r="T103" t="s">
+        <v>124</v>
+      </c>
+      <c r="U103">
         <v>7674</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>276</v>
       </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
       <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8115,7 +8427,7 @@
         <v>102</v>
       </c>
       <c r="J104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="K104">
         <v>176</v>
@@ -8141,23 +8453,26 @@
       <c r="R104">
         <v>176</v>
       </c>
-      <c r="S104" t="s">
-        <v>124</v>
-      </c>
-      <c r="T104">
+      <c r="S104">
+        <v>176</v>
+      </c>
+      <c r="T104" t="s">
+        <v>125</v>
+      </c>
+      <c r="U104">
         <v>7798</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>283</v>
       </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
       <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8186,7 +8501,7 @@
         <v>103</v>
       </c>
       <c r="J105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="K105">
         <v>178</v>
@@ -8212,23 +8527,26 @@
       <c r="R105">
         <v>178</v>
       </c>
-      <c r="S105" t="s">
-        <v>125</v>
-      </c>
-      <c r="T105">
+      <c r="S105">
+        <v>178</v>
+      </c>
+      <c r="T105" t="s">
+        <v>126</v>
+      </c>
+      <c r="U105">
         <v>7940</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>288</v>
       </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
       <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8257,7 +8575,7 @@
         <v>104</v>
       </c>
       <c r="J106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="K106">
         <v>180</v>
@@ -8283,23 +8601,26 @@
       <c r="R106">
         <v>180</v>
       </c>
-      <c r="S106" t="s">
-        <v>126</v>
-      </c>
-      <c r="T106">
+      <c r="S106">
+        <v>180</v>
+      </c>
+      <c r="T106" t="s">
+        <v>127</v>
+      </c>
+      <c r="U106">
         <v>8345</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>296</v>
       </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
       <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8328,7 +8649,7 @@
         <v>105</v>
       </c>
       <c r="J107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="K107">
         <v>182</v>
@@ -8354,23 +8675,26 @@
       <c r="R107">
         <v>182</v>
       </c>
-      <c r="S107" t="s">
-        <v>127</v>
-      </c>
-      <c r="T107">
+      <c r="S107">
+        <v>182</v>
+      </c>
+      <c r="T107" t="s">
+        <v>128</v>
+      </c>
+      <c r="U107">
         <v>8345</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>296</v>
       </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
       <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8399,7 +8723,7 @@
         <v>106</v>
       </c>
       <c r="J108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="K108">
         <v>184</v>
@@ -8425,23 +8749,26 @@
       <c r="R108">
         <v>184</v>
       </c>
-      <c r="S108" t="s">
-        <v>128</v>
-      </c>
-      <c r="T108">
+      <c r="S108">
+        <v>184</v>
+      </c>
+      <c r="T108" t="s">
+        <v>129</v>
+      </c>
+      <c r="U108">
         <v>8619</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>296</v>
       </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
       <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8470,7 +8797,7 @@
         <v>107</v>
       </c>
       <c r="J109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="K109">
         <v>186</v>
@@ -8496,23 +8823,26 @@
       <c r="R109">
         <v>186</v>
       </c>
-      <c r="S109" t="s">
-        <v>129</v>
-      </c>
-      <c r="T109">
+      <c r="S109">
+        <v>186</v>
+      </c>
+      <c r="T109" t="s">
+        <v>130</v>
+      </c>
+      <c r="U109">
         <v>8619</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>296</v>
       </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
       <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8541,7 +8871,7 @@
         <v>108</v>
       </c>
       <c r="J110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="K110">
         <v>188</v>
@@ -8567,23 +8897,26 @@
       <c r="R110">
         <v>188</v>
       </c>
-      <c r="S110" t="s">
-        <v>130</v>
-      </c>
-      <c r="T110">
+      <c r="S110">
+        <v>188</v>
+      </c>
+      <c r="T110" t="s">
+        <v>131</v>
+      </c>
+      <c r="U110">
         <v>8837</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>305</v>
       </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
       <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8612,7 +8945,7 @@
         <v>109</v>
       </c>
       <c r="J111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="K111">
         <v>190</v>
@@ -8638,23 +8971,26 @@
       <c r="R111">
         <v>190</v>
       </c>
-      <c r="S111" t="s">
-        <v>131</v>
-      </c>
-      <c r="T111">
+      <c r="S111">
+        <v>190</v>
+      </c>
+      <c r="T111" t="s">
+        <v>132</v>
+      </c>
+      <c r="U111">
         <v>8998</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>308</v>
       </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
       <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8676,19 +9012,22 @@
       <c r="G112">
         <v>110</v>
       </c>
-      <c r="S112" t="s">
-        <v>132</v>
-      </c>
-      <c r="T112">
+      <c r="H112">
+        <v>110</v>
+      </c>
+      <c r="T112" t="s">
+        <v>133</v>
+      </c>
+      <c r="U112">
         <v>8998</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>308</v>
       </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
       <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -773,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X112"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +852,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -908,23 +914,26 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -982,14 +991,14 @@
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>1</v>
       </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -997,8 +1006,11 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1056,14 +1068,14 @@
       <c r="S4">
         <v>2</v>
       </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>2</v>
       </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
       <c r="V4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1071,8 +1083,11 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1130,23 +1145,26 @@
       <c r="S5">
         <v>3</v>
       </c>
-      <c r="T5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1204,23 +1222,26 @@
       <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6">
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6">
         <v>2</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1278,23 +1299,26 @@
       <c r="S7">
         <v>5</v>
       </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7">
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7">
         <v>2</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1352,23 +1376,26 @@
       <c r="S8">
         <v>6</v>
       </c>
-      <c r="T8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8">
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1426,23 +1453,26 @@
       <c r="S9">
         <v>7</v>
       </c>
-      <c r="T9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9">
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1500,23 +1530,26 @@
       <c r="S10">
         <v>8</v>
       </c>
-      <c r="T10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10">
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1574,23 +1607,26 @@
       <c r="S11">
         <v>9</v>
       </c>
-      <c r="T11" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11">
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1648,23 +1684,26 @@
       <c r="S12">
         <v>10</v>
       </c>
-      <c r="T12" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12">
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12">
         <v>2</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>1</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1722,23 +1761,26 @@
       <c r="S13">
         <v>11</v>
       </c>
-      <c r="T13" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13">
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>1</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1796,23 +1838,26 @@
       <c r="S14">
         <v>12</v>
       </c>
-      <c r="T14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14">
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>1</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1870,23 +1915,26 @@
       <c r="S15">
         <v>13</v>
       </c>
-      <c r="T15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15">
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15">
         <v>2</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1944,23 +1992,26 @@
       <c r="S16">
         <v>14</v>
       </c>
-      <c r="T16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U16">
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>1</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2018,23 +2069,26 @@
       <c r="S17">
         <v>15</v>
       </c>
-      <c r="T17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U17">
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17">
         <v>2</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
       <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>1</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2092,23 +2146,26 @@
       <c r="S18">
         <v>16</v>
       </c>
-      <c r="T18" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18">
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>1</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2166,23 +2223,26 @@
       <c r="S19">
         <v>17</v>
       </c>
-      <c r="T19" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19">
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="U19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
       <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>1</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2240,23 +2300,26 @@
       <c r="S20">
         <v>18</v>
       </c>
-      <c r="T20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20">
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
       <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2314,23 +2377,26 @@
       <c r="S21">
         <v>19</v>
       </c>
-      <c r="T21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21">
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21">
         <v>2</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>1</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2388,23 +2454,26 @@
       <c r="S22">
         <v>20</v>
       </c>
-      <c r="T22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U22">
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
       <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2462,23 +2531,26 @@
       <c r="S23">
         <v>21</v>
       </c>
-      <c r="T23" t="s">
-        <v>44</v>
-      </c>
-      <c r="U23">
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="U23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23">
         <v>2</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
       <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>1</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2536,23 +2608,26 @@
       <c r="S24">
         <v>22</v>
       </c>
-      <c r="T24" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24">
+      <c r="T24">
+        <v>22</v>
+      </c>
+      <c r="U24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24">
         <v>2</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>1</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2610,23 +2685,26 @@
       <c r="S25">
         <v>23</v>
       </c>
-      <c r="T25" t="s">
-        <v>46</v>
-      </c>
-      <c r="U25">
+      <c r="T25">
+        <v>23</v>
+      </c>
+      <c r="U25" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25">
         <v>3</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>1</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2684,23 +2762,26 @@
       <c r="S26">
         <v>24</v>
       </c>
-      <c r="T26" t="s">
-        <v>47</v>
-      </c>
-      <c r="U26">
+      <c r="T26">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26">
         <v>3</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <v>1</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2758,23 +2839,26 @@
       <c r="S27">
         <v>25</v>
       </c>
-      <c r="T27" t="s">
-        <v>48</v>
-      </c>
-      <c r="U27">
+      <c r="T27">
+        <v>25</v>
+      </c>
+      <c r="U27" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
       <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2832,23 +2916,26 @@
       <c r="S28">
         <v>26</v>
       </c>
-      <c r="T28" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28">
+      <c r="T28">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28">
         <v>3</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
         <v>1</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2906,23 +2993,26 @@
       <c r="S29">
         <v>27</v>
       </c>
-      <c r="T29" t="s">
-        <v>50</v>
-      </c>
-      <c r="U29">
+      <c r="T29">
+        <v>27</v>
+      </c>
+      <c r="U29" t="s">
+        <v>51</v>
+      </c>
+      <c r="V29">
         <v>3</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
       <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <v>1</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2980,23 +3070,26 @@
       <c r="S30">
         <v>28</v>
       </c>
-      <c r="T30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U30">
+      <c r="T30">
+        <v>28</v>
+      </c>
+      <c r="U30" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30">
         <v>155</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3028,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="K31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -3054,23 +3147,26 @@
       <c r="S31">
         <v>30</v>
       </c>
-      <c r="T31" t="s">
-        <v>52</v>
-      </c>
-      <c r="U31">
+      <c r="T31">
+        <v>30</v>
+      </c>
+      <c r="U31" t="s">
+        <v>53</v>
+      </c>
+      <c r="V31">
         <v>201</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
       <c r="X31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3102,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="K32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L32">
         <v>32</v>
@@ -3128,23 +3224,26 @@
       <c r="S32">
         <v>32</v>
       </c>
-      <c r="T32" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32">
+      <c r="T32">
+        <v>32</v>
+      </c>
+      <c r="U32" t="s">
+        <v>54</v>
+      </c>
+      <c r="V32">
         <v>226</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
       <c r="X32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3176,7 +3275,7 @@
         <v>31</v>
       </c>
       <c r="K33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L33">
         <v>34</v>
@@ -3202,23 +3301,26 @@
       <c r="S33">
         <v>34</v>
       </c>
-      <c r="T33" t="s">
-        <v>54</v>
-      </c>
-      <c r="U33">
+      <c r="T33">
+        <v>34</v>
+      </c>
+      <c r="U33" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33">
         <v>238</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>2</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
       <c r="X33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3250,7 +3352,7 @@
         <v>32</v>
       </c>
       <c r="K34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L34">
         <v>36</v>
@@ -3276,23 +3378,26 @@
       <c r="S34">
         <v>36</v>
       </c>
-      <c r="T34" t="s">
-        <v>55</v>
-      </c>
-      <c r="U34">
+      <c r="T34">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s">
+        <v>56</v>
+      </c>
+      <c r="V34">
         <v>293</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>3</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3324,7 +3429,7 @@
         <v>33</v>
       </c>
       <c r="K35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L35">
         <v>38</v>
@@ -3350,23 +3455,26 @@
       <c r="S35">
         <v>38</v>
       </c>
-      <c r="T35" t="s">
-        <v>56</v>
-      </c>
-      <c r="U35">
+      <c r="T35">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s">
+        <v>57</v>
+      </c>
+      <c r="V35">
         <v>341</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>3</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3398,7 +3506,7 @@
         <v>34</v>
       </c>
       <c r="K36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L36">
         <v>40</v>
@@ -3424,23 +3532,26 @@
       <c r="S36">
         <v>40</v>
       </c>
-      <c r="T36" t="s">
-        <v>57</v>
-      </c>
-      <c r="U36">
+      <c r="T36">
+        <v>40</v>
+      </c>
+      <c r="U36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36">
         <v>413</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>6</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
       <c r="X36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3472,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="K37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L37">
         <v>42</v>
@@ -3498,23 +3609,26 @@
       <c r="S37">
         <v>42</v>
       </c>
-      <c r="T37" t="s">
-        <v>58</v>
-      </c>
-      <c r="U37">
+      <c r="T37">
+        <v>42</v>
+      </c>
+      <c r="U37" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37">
         <v>484</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>7</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
       <c r="X37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3546,7 +3660,7 @@
         <v>36</v>
       </c>
       <c r="K38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L38">
         <v>44</v>
@@ -3572,23 +3686,26 @@
       <c r="S38">
         <v>44</v>
       </c>
-      <c r="T38" t="s">
-        <v>59</v>
-      </c>
-      <c r="U38">
+      <c r="T38">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38">
         <v>515</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>7</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
       <c r="X38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3620,7 +3737,7 @@
         <v>37</v>
       </c>
       <c r="K39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L39">
         <v>46</v>
@@ -3646,23 +3763,26 @@
       <c r="S39">
         <v>46</v>
       </c>
-      <c r="T39" t="s">
-        <v>60</v>
-      </c>
-      <c r="U39">
+      <c r="T39">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>61</v>
+      </c>
+      <c r="V39">
         <v>603</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>7</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
       <c r="X39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3694,7 +3814,7 @@
         <v>38</v>
       </c>
       <c r="K40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>48</v>
@@ -3720,23 +3840,26 @@
       <c r="S40">
         <v>48</v>
       </c>
-      <c r="T40" t="s">
-        <v>61</v>
-      </c>
-      <c r="U40">
+      <c r="T40">
+        <v>48</v>
+      </c>
+      <c r="U40" t="s">
+        <v>62</v>
+      </c>
+      <c r="V40">
         <v>733</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>9</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
       <c r="X40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3768,7 +3891,7 @@
         <v>39</v>
       </c>
       <c r="K41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -3794,23 +3917,26 @@
       <c r="S41">
         <v>50</v>
       </c>
-      <c r="T41" t="s">
-        <v>62</v>
-      </c>
-      <c r="U41">
+      <c r="T41">
+        <v>50</v>
+      </c>
+      <c r="U41" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41">
         <v>849</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>15</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
       <c r="X41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3842,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="K42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L42">
         <v>52</v>
@@ -3868,23 +3994,26 @@
       <c r="S42">
         <v>52</v>
       </c>
-      <c r="T42" t="s">
-        <v>63</v>
-      </c>
-      <c r="U42">
+      <c r="T42">
+        <v>52</v>
+      </c>
+      <c r="U42" t="s">
+        <v>64</v>
+      </c>
+      <c r="V42">
         <v>966</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>16</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
       <c r="X42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3916,7 +4045,7 @@
         <v>41</v>
       </c>
       <c r="K43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L43">
         <v>54</v>
@@ -3942,23 +4071,26 @@
       <c r="S43">
         <v>54</v>
       </c>
-      <c r="T43" t="s">
-        <v>64</v>
-      </c>
-      <c r="U43">
+      <c r="T43">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>65</v>
+      </c>
+      <c r="V43">
         <v>1112</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>17</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
       <c r="X43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3990,7 +4122,7 @@
         <v>42</v>
       </c>
       <c r="K44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L44">
         <v>56</v>
@@ -4016,23 +4148,26 @@
       <c r="S44">
         <v>56</v>
       </c>
-      <c r="T44" t="s">
-        <v>65</v>
-      </c>
-      <c r="U44">
+      <c r="T44">
+        <v>56</v>
+      </c>
+      <c r="U44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V44">
         <v>1209</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>18</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
       <c r="X44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4064,7 +4199,7 @@
         <v>43</v>
       </c>
       <c r="K45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L45">
         <v>58</v>
@@ -4090,23 +4225,26 @@
       <c r="S45">
         <v>58</v>
       </c>
-      <c r="T45" t="s">
-        <v>66</v>
-      </c>
-      <c r="U45">
+      <c r="T45">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>67</v>
+      </c>
+      <c r="V45">
         <v>1326</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>19</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
       <c r="X45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4138,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="K46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L46">
         <v>60</v>
@@ -4164,23 +4302,26 @@
       <c r="S46">
         <v>60</v>
       </c>
-      <c r="T46" t="s">
-        <v>67</v>
-      </c>
-      <c r="U46">
+      <c r="T46">
+        <v>60</v>
+      </c>
+      <c r="U46" t="s">
+        <v>68</v>
+      </c>
+      <c r="V46">
         <v>1404</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>19</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
       <c r="X46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4212,7 +4353,7 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L47">
         <v>62</v>
@@ -4238,23 +4379,26 @@
       <c r="S47">
         <v>62</v>
       </c>
-      <c r="T47" t="s">
-        <v>68</v>
-      </c>
-      <c r="U47">
+      <c r="T47">
+        <v>62</v>
+      </c>
+      <c r="U47" t="s">
+        <v>69</v>
+      </c>
+      <c r="V47">
         <v>1454</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>31</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
       <c r="X47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4286,7 +4430,7 @@
         <v>46</v>
       </c>
       <c r="K48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L48">
         <v>64</v>
@@ -4312,23 +4456,26 @@
       <c r="S48">
         <v>64</v>
       </c>
-      <c r="T48" t="s">
-        <v>69</v>
-      </c>
-      <c r="U48">
+      <c r="T48">
+        <v>64</v>
+      </c>
+      <c r="U48" t="s">
+        <v>70</v>
+      </c>
+      <c r="V48">
         <v>1530</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>36</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
       <c r="X48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4360,7 +4507,7 @@
         <v>47</v>
       </c>
       <c r="K49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L49">
         <v>66</v>
@@ -4386,23 +4533,26 @@
       <c r="S49">
         <v>66</v>
       </c>
-      <c r="T49" t="s">
-        <v>70</v>
-      </c>
-      <c r="U49">
+      <c r="T49">
+        <v>66</v>
+      </c>
+      <c r="U49" t="s">
+        <v>71</v>
+      </c>
+      <c r="V49">
         <v>1628</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>40</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
       <c r="X49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4434,7 +4584,7 @@
         <v>48</v>
       </c>
       <c r="K50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L50">
         <v>68</v>
@@ -4460,23 +4610,26 @@
       <c r="S50">
         <v>68</v>
       </c>
-      <c r="T50" t="s">
-        <v>71</v>
-      </c>
-      <c r="U50">
+      <c r="T50">
+        <v>68</v>
+      </c>
+      <c r="U50" t="s">
+        <v>72</v>
+      </c>
+      <c r="V50">
         <v>1693</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>44</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
       <c r="X50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4508,7 +4661,7 @@
         <v>49</v>
       </c>
       <c r="K51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L51">
         <v>70</v>
@@ -4534,23 +4687,26 @@
       <c r="S51">
         <v>70</v>
       </c>
-      <c r="T51" t="s">
-        <v>72</v>
-      </c>
-      <c r="U51">
+      <c r="T51">
+        <v>70</v>
+      </c>
+      <c r="U51" t="s">
+        <v>73</v>
+      </c>
+      <c r="V51">
         <v>1761</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>45</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
       <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4582,7 +4738,7 @@
         <v>50</v>
       </c>
       <c r="K52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="L52">
         <v>72</v>
@@ -4608,23 +4764,26 @@
       <c r="S52">
         <v>72</v>
       </c>
-      <c r="T52" t="s">
-        <v>73</v>
-      </c>
-      <c r="U52">
+      <c r="T52">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s">
+        <v>74</v>
+      </c>
+      <c r="V52">
         <v>1804</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>45</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
       <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4656,7 +4815,7 @@
         <v>51</v>
       </c>
       <c r="K53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L53">
         <v>74</v>
@@ -4682,23 +4841,26 @@
       <c r="S53">
         <v>74</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53">
         <v>74</v>
       </c>
-      <c r="U53">
+      <c r="U53" t="s">
+        <v>75</v>
+      </c>
+      <c r="V53">
         <v>1847</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>47</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
       <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4730,7 +4892,7 @@
         <v>52</v>
       </c>
       <c r="K54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L54">
         <v>76</v>
@@ -4756,23 +4918,26 @@
       <c r="S54">
         <v>76</v>
       </c>
-      <c r="T54" t="s">
-        <v>75</v>
-      </c>
-      <c r="U54">
+      <c r="T54">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54">
         <v>1930</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>53</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
       <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4804,7 +4969,7 @@
         <v>53</v>
       </c>
       <c r="K55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="L55">
         <v>78</v>
@@ -4830,23 +4995,26 @@
       <c r="S55">
         <v>78</v>
       </c>
-      <c r="T55" t="s">
-        <v>76</v>
-      </c>
-      <c r="U55">
+      <c r="T55">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s">
+        <v>77</v>
+      </c>
+      <c r="V55">
         <v>2012</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>60</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
       <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4878,7 +5046,7 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L56">
         <v>80</v>
@@ -4904,23 +5072,26 @@
       <c r="S56">
         <v>80</v>
       </c>
-      <c r="T56" t="s">
-        <v>77</v>
-      </c>
-      <c r="U56">
+      <c r="T56">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s">
+        <v>78</v>
+      </c>
+      <c r="V56">
         <v>2087</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>63</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
       <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4952,7 +5123,7 @@
         <v>55</v>
       </c>
       <c r="K57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="L57">
         <v>82</v>
@@ -4978,23 +5149,26 @@
       <c r="S57">
         <v>82</v>
       </c>
-      <c r="T57" t="s">
-        <v>78</v>
-      </c>
-      <c r="U57">
+      <c r="T57">
+        <v>82</v>
+      </c>
+      <c r="U57" t="s">
+        <v>79</v>
+      </c>
+      <c r="V57">
         <v>2158</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>70</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
       <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5026,7 +5200,7 @@
         <v>56</v>
       </c>
       <c r="K58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L58">
         <v>84</v>
@@ -5052,23 +5226,26 @@
       <c r="S58">
         <v>84</v>
       </c>
-      <c r="T58" t="s">
-        <v>79</v>
-      </c>
-      <c r="U58">
+      <c r="T58">
+        <v>84</v>
+      </c>
+      <c r="U58" t="s">
+        <v>80</v>
+      </c>
+      <c r="V58">
         <v>2213</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>71</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
       <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5100,7 +5277,7 @@
         <v>57</v>
       </c>
       <c r="K59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L59">
         <v>86</v>
@@ -5126,23 +5303,26 @@
       <c r="S59">
         <v>86</v>
       </c>
-      <c r="T59" t="s">
-        <v>80</v>
-      </c>
-      <c r="U59">
+      <c r="T59">
+        <v>86</v>
+      </c>
+      <c r="U59" t="s">
+        <v>81</v>
+      </c>
+      <c r="V59">
         <v>2268</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>71</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
       <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5174,7 +5354,7 @@
         <v>58</v>
       </c>
       <c r="K60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="L60">
         <v>88</v>
@@ -5200,23 +5380,26 @@
       <c r="S60">
         <v>88</v>
       </c>
-      <c r="T60" t="s">
-        <v>81</v>
-      </c>
-      <c r="U60">
+      <c r="T60">
+        <v>88</v>
+      </c>
+      <c r="U60" t="s">
+        <v>82</v>
+      </c>
+      <c r="V60">
         <v>2325</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>72</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
       <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5248,7 +5431,7 @@
         <v>59</v>
       </c>
       <c r="K61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="L61">
         <v>90</v>
@@ -5274,23 +5457,26 @@
       <c r="S61">
         <v>90</v>
       </c>
-      <c r="T61" t="s">
-        <v>82</v>
-      </c>
-      <c r="U61">
+      <c r="T61">
+        <v>90</v>
+      </c>
+      <c r="U61" t="s">
+        <v>83</v>
+      </c>
+      <c r="V61">
         <v>2491</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>96</v>
       </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
       <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5322,7 +5508,7 @@
         <v>60</v>
       </c>
       <c r="K62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="L62">
         <v>92</v>
@@ -5348,23 +5534,26 @@
       <c r="S62">
         <v>92</v>
       </c>
-      <c r="T62" t="s">
-        <v>83</v>
-      </c>
-      <c r="U62">
+      <c r="T62">
+        <v>92</v>
+      </c>
+      <c r="U62" t="s">
+        <v>84</v>
+      </c>
+      <c r="V62">
         <v>2643</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>100</v>
       </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
       <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5396,7 +5585,7 @@
         <v>61</v>
       </c>
       <c r="K63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L63">
         <v>94</v>
@@ -5422,23 +5611,26 @@
       <c r="S63">
         <v>94</v>
       </c>
-      <c r="T63" t="s">
-        <v>84</v>
-      </c>
-      <c r="U63">
+      <c r="T63">
+        <v>94</v>
+      </c>
+      <c r="U63" t="s">
+        <v>85</v>
+      </c>
+      <c r="V63">
         <v>2826</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>102</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
       <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5470,7 +5662,7 @@
         <v>62</v>
       </c>
       <c r="K64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L64">
         <v>96</v>
@@ -5496,23 +5688,26 @@
       <c r="S64">
         <v>96</v>
       </c>
-      <c r="T64" t="s">
-        <v>85</v>
-      </c>
-      <c r="U64">
+      <c r="T64">
+        <v>96</v>
+      </c>
+      <c r="U64" t="s">
+        <v>86</v>
+      </c>
+      <c r="V64">
         <v>2943</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>111</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
       <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5544,7 +5739,7 @@
         <v>63</v>
       </c>
       <c r="K65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L65">
         <v>98</v>
@@ -5570,23 +5765,26 @@
       <c r="S65">
         <v>98</v>
       </c>
-      <c r="T65" t="s">
-        <v>86</v>
-      </c>
-      <c r="U65">
+      <c r="T65">
+        <v>98</v>
+      </c>
+      <c r="U65" t="s">
+        <v>87</v>
+      </c>
+      <c r="V65">
         <v>2943</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>111</v>
       </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
       <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5618,7 +5816,7 @@
         <v>64</v>
       </c>
       <c r="K66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L66">
         <v>100</v>
@@ -5644,23 +5842,26 @@
       <c r="S66">
         <v>100</v>
       </c>
-      <c r="T66" t="s">
-        <v>87</v>
-      </c>
-      <c r="U66">
+      <c r="T66">
+        <v>100</v>
+      </c>
+      <c r="U66" t="s">
+        <v>88</v>
+      </c>
+      <c r="V66">
         <v>3043</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>111</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
       <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5692,7 +5893,7 @@
         <v>65</v>
       </c>
       <c r="K67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="L67">
         <v>102</v>
@@ -5718,23 +5919,26 @@
       <c r="S67">
         <v>102</v>
       </c>
-      <c r="T67" t="s">
-        <v>88</v>
-      </c>
-      <c r="U67">
+      <c r="T67">
+        <v>102</v>
+      </c>
+      <c r="U67" t="s">
+        <v>89</v>
+      </c>
+      <c r="V67">
         <v>3141</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>113</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
       <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5766,7 +5970,7 @@
         <v>66</v>
       </c>
       <c r="K68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="L68">
         <v>104</v>
@@ -5792,23 +5996,26 @@
       <c r="S68">
         <v>104</v>
       </c>
-      <c r="T68" t="s">
-        <v>89</v>
-      </c>
-      <c r="U68">
+      <c r="T68">
+        <v>104</v>
+      </c>
+      <c r="U68" t="s">
+        <v>90</v>
+      </c>
+      <c r="V68">
         <v>3432</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>120</v>
       </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
       <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5840,7 +6047,7 @@
         <v>67</v>
       </c>
       <c r="K69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="L69">
         <v>106</v>
@@ -5866,23 +6073,26 @@
       <c r="S69">
         <v>106</v>
       </c>
-      <c r="T69" t="s">
-        <v>90</v>
-      </c>
-      <c r="U69">
+      <c r="T69">
+        <v>106</v>
+      </c>
+      <c r="U69" t="s">
+        <v>91</v>
+      </c>
+      <c r="V69">
         <v>3432</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>120</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
       <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5914,7 +6124,7 @@
         <v>68</v>
       </c>
       <c r="K70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L70">
         <v>108</v>
@@ -5940,23 +6150,26 @@
       <c r="S70">
         <v>108</v>
       </c>
-      <c r="T70" t="s">
-        <v>91</v>
-      </c>
-      <c r="U70">
+      <c r="T70">
+        <v>108</v>
+      </c>
+      <c r="U70" t="s">
+        <v>92</v>
+      </c>
+      <c r="V70">
         <v>3564</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>124</v>
       </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
       <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5988,7 +6201,7 @@
         <v>69</v>
       </c>
       <c r="K71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="L71">
         <v>110</v>
@@ -6014,23 +6227,26 @@
       <c r="S71">
         <v>110</v>
       </c>
-      <c r="T71" t="s">
-        <v>92</v>
-      </c>
-      <c r="U71">
+      <c r="T71">
+        <v>110</v>
+      </c>
+      <c r="U71" t="s">
+        <v>93</v>
+      </c>
+      <c r="V71">
         <v>3711</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>134</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
       <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6062,7 +6278,7 @@
         <v>70</v>
       </c>
       <c r="K72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="L72">
         <v>112</v>
@@ -6088,23 +6304,26 @@
       <c r="S72">
         <v>112</v>
       </c>
-      <c r="T72" t="s">
-        <v>93</v>
-      </c>
-      <c r="U72">
+      <c r="T72">
+        <v>112</v>
+      </c>
+      <c r="U72" t="s">
+        <v>94</v>
+      </c>
+      <c r="V72">
         <v>3927</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>139</v>
       </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
       <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6136,7 +6355,7 @@
         <v>71</v>
       </c>
       <c r="K73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="L73">
         <v>114</v>
@@ -6162,23 +6381,26 @@
       <c r="S73">
         <v>114</v>
       </c>
-      <c r="T73" t="s">
-        <v>94</v>
-      </c>
-      <c r="U73">
+      <c r="T73">
+        <v>114</v>
+      </c>
+      <c r="U73" t="s">
+        <v>95</v>
+      </c>
+      <c r="V73">
         <v>3927</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>139</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
       <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6210,7 +6432,7 @@
         <v>72</v>
       </c>
       <c r="K74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L74">
         <v>116</v>
@@ -6236,23 +6458,26 @@
       <c r="S74">
         <v>116</v>
       </c>
-      <c r="T74" t="s">
-        <v>95</v>
-      </c>
-      <c r="U74">
+      <c r="T74">
+        <v>116</v>
+      </c>
+      <c r="U74" t="s">
+        <v>96</v>
+      </c>
+      <c r="V74">
         <v>4020</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>144</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
       <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6284,7 +6509,7 @@
         <v>73</v>
       </c>
       <c r="K75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L75">
         <v>118</v>
@@ -6310,23 +6535,26 @@
       <c r="S75">
         <v>118</v>
       </c>
-      <c r="T75" t="s">
-        <v>96</v>
-      </c>
-      <c r="U75">
+      <c r="T75">
+        <v>118</v>
+      </c>
+      <c r="U75" t="s">
+        <v>97</v>
+      </c>
+      <c r="V75">
         <v>4319</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>158</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
       <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6358,7 +6586,7 @@
         <v>74</v>
       </c>
       <c r="K76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="L76">
         <v>120</v>
@@ -6384,23 +6612,26 @@
       <c r="S76">
         <v>120</v>
       </c>
-      <c r="T76" t="s">
-        <v>97</v>
-      </c>
-      <c r="U76">
+      <c r="T76">
+        <v>120</v>
+      </c>
+      <c r="U76" t="s">
+        <v>98</v>
+      </c>
+      <c r="V76">
         <v>4319</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>158</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
       <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6432,7 +6663,7 @@
         <v>75</v>
       </c>
       <c r="K77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="L77">
         <v>122</v>
@@ -6458,23 +6689,26 @@
       <c r="S77">
         <v>122</v>
       </c>
-      <c r="T77" t="s">
-        <v>98</v>
-      </c>
-      <c r="U77">
+      <c r="T77">
+        <v>122</v>
+      </c>
+      <c r="U77" t="s">
+        <v>99</v>
+      </c>
+      <c r="V77">
         <v>4429</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>165</v>
       </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
       <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6506,7 +6740,7 @@
         <v>76</v>
       </c>
       <c r="K78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="L78">
         <v>124</v>
@@ -6532,23 +6766,26 @@
       <c r="S78">
         <v>124</v>
       </c>
-      <c r="T78" t="s">
-        <v>99</v>
-      </c>
-      <c r="U78">
+      <c r="T78">
+        <v>124</v>
+      </c>
+      <c r="U78" t="s">
+        <v>100</v>
+      </c>
+      <c r="V78">
         <v>4662</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>169</v>
       </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
       <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6580,7 +6817,7 @@
         <v>77</v>
       </c>
       <c r="K79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="L79">
         <v>126</v>
@@ -6606,23 +6843,26 @@
       <c r="S79">
         <v>126</v>
       </c>
-      <c r="T79" t="s">
-        <v>100</v>
-      </c>
-      <c r="U79">
+      <c r="T79">
+        <v>126</v>
+      </c>
+      <c r="U79" t="s">
+        <v>101</v>
+      </c>
+      <c r="V79">
         <v>4776</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>175</v>
       </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
       <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6654,7 +6894,7 @@
         <v>78</v>
       </c>
       <c r="K80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="L80">
         <v>128</v>
@@ -6680,23 +6920,26 @@
       <c r="S80">
         <v>128</v>
       </c>
-      <c r="T80" t="s">
-        <v>101</v>
-      </c>
-      <c r="U80">
+      <c r="T80">
+        <v>128</v>
+      </c>
+      <c r="U80" t="s">
+        <v>102</v>
+      </c>
+      <c r="V80">
         <v>5065</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>175</v>
       </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
       <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6728,7 +6971,7 @@
         <v>79</v>
       </c>
       <c r="K81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="L81">
         <v>130</v>
@@ -6754,23 +6997,26 @@
       <c r="S81">
         <v>130</v>
       </c>
-      <c r="T81" t="s">
-        <v>102</v>
-      </c>
-      <c r="U81">
+      <c r="T81">
+        <v>130</v>
+      </c>
+      <c r="U81" t="s">
+        <v>103</v>
+      </c>
+      <c r="V81">
         <v>5161</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>190</v>
       </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
       <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6802,7 +7048,7 @@
         <v>80</v>
       </c>
       <c r="K82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="L82">
         <v>132</v>
@@ -6828,23 +7074,26 @@
       <c r="S82">
         <v>132</v>
       </c>
-      <c r="T82" t="s">
-        <v>103</v>
-      </c>
-      <c r="U82">
+      <c r="T82">
+        <v>132</v>
+      </c>
+      <c r="U82" t="s">
+        <v>104</v>
+      </c>
+      <c r="V82">
         <v>5161</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>190</v>
       </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
       <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6876,7 +7125,7 @@
         <v>81</v>
       </c>
       <c r="K83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="L83">
         <v>134</v>
@@ -6902,23 +7151,26 @@
       <c r="S83">
         <v>134</v>
       </c>
-      <c r="T83" t="s">
-        <v>104</v>
-      </c>
-      <c r="U83">
+      <c r="T83">
+        <v>134</v>
+      </c>
+      <c r="U83" t="s">
+        <v>105</v>
+      </c>
+      <c r="V83">
         <v>5391</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>200</v>
       </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
       <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6950,7 +7202,7 @@
         <v>82</v>
       </c>
       <c r="K84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="L84">
         <v>136</v>
@@ -6976,23 +7228,26 @@
       <c r="S84">
         <v>136</v>
       </c>
-      <c r="T84" t="s">
-        <v>105</v>
-      </c>
-      <c r="U84">
+      <c r="T84">
+        <v>136</v>
+      </c>
+      <c r="U84" t="s">
+        <v>106</v>
+      </c>
+      <c r="V84">
         <v>5391</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>200</v>
       </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
       <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7024,7 +7279,7 @@
         <v>83</v>
       </c>
       <c r="K85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="L85">
         <v>138</v>
@@ -7050,23 +7305,26 @@
       <c r="S85">
         <v>138</v>
       </c>
-      <c r="T85" t="s">
-        <v>106</v>
-      </c>
-      <c r="U85">
+      <c r="T85">
+        <v>138</v>
+      </c>
+      <c r="U85" t="s">
+        <v>107</v>
+      </c>
+      <c r="V85">
         <v>5662</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>209</v>
       </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
       <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7098,7 +7356,7 @@
         <v>84</v>
       </c>
       <c r="K86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="L86">
         <v>140</v>
@@ -7124,23 +7382,26 @@
       <c r="S86">
         <v>140</v>
       </c>
-      <c r="T86" t="s">
-        <v>107</v>
-      </c>
-      <c r="U86">
+      <c r="T86">
+        <v>140</v>
+      </c>
+      <c r="U86" t="s">
+        <v>108</v>
+      </c>
+      <c r="V86">
         <v>5836</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>209</v>
       </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
       <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7172,7 +7433,7 @@
         <v>85</v>
       </c>
       <c r="K87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="L87">
         <v>142</v>
@@ -7198,23 +7459,26 @@
       <c r="S87">
         <v>142</v>
       </c>
-      <c r="T87" t="s">
-        <v>108</v>
-      </c>
-      <c r="U87">
+      <c r="T87">
+        <v>142</v>
+      </c>
+      <c r="U87" t="s">
+        <v>109</v>
+      </c>
+      <c r="V87">
         <v>5836</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>209</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
       <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7246,7 +7510,7 @@
         <v>86</v>
       </c>
       <c r="K88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="L88">
         <v>144</v>
@@ -7272,23 +7536,26 @@
       <c r="S88">
         <v>144</v>
       </c>
-      <c r="T88" t="s">
-        <v>109</v>
-      </c>
-      <c r="U88">
+      <c r="T88">
+        <v>144</v>
+      </c>
+      <c r="U88" t="s">
+        <v>110</v>
+      </c>
+      <c r="V88">
         <v>6026</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>222</v>
       </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
       <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7320,7 +7587,7 @@
         <v>87</v>
       </c>
       <c r="K89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="L89">
         <v>146</v>
@@ -7346,23 +7613,26 @@
       <c r="S89">
         <v>146</v>
       </c>
-      <c r="T89" t="s">
-        <v>110</v>
-      </c>
-      <c r="U89">
+      <c r="T89">
+        <v>146</v>
+      </c>
+      <c r="U89" t="s">
+        <v>111</v>
+      </c>
+      <c r="V89">
         <v>6140</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>230</v>
       </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
       <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7394,7 +7664,7 @@
         <v>88</v>
       </c>
       <c r="K90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="L90">
         <v>148</v>
@@ -7420,23 +7690,26 @@
       <c r="S90">
         <v>148</v>
       </c>
-      <c r="T90" t="s">
-        <v>111</v>
-      </c>
-      <c r="U90">
+      <c r="T90">
+        <v>148</v>
+      </c>
+      <c r="U90" t="s">
+        <v>112</v>
+      </c>
+      <c r="V90">
         <v>6140</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>230</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
       <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7468,7 +7741,7 @@
         <v>89</v>
       </c>
       <c r="K91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="L91">
         <v>150</v>
@@ -7494,23 +7767,26 @@
       <c r="S91">
         <v>150</v>
       </c>
-      <c r="T91" t="s">
-        <v>112</v>
-      </c>
-      <c r="U91">
+      <c r="T91">
+        <v>150</v>
+      </c>
+      <c r="U91" t="s">
+        <v>113</v>
+      </c>
+      <c r="V91">
         <v>6315</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>241</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
       <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7542,7 +7818,7 @@
         <v>90</v>
       </c>
       <c r="K92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="L92">
         <v>152</v>
@@ -7568,23 +7844,26 @@
       <c r="S92">
         <v>152</v>
       </c>
-      <c r="T92" t="s">
-        <v>113</v>
-      </c>
-      <c r="U92">
+      <c r="T92">
+        <v>152</v>
+      </c>
+      <c r="U92" t="s">
+        <v>114</v>
+      </c>
+      <c r="V92">
         <v>6559</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>249</v>
       </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
       <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7616,7 +7895,7 @@
         <v>91</v>
       </c>
       <c r="K93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="L93">
         <v>154</v>
@@ -7642,23 +7921,26 @@
       <c r="S93">
         <v>154</v>
       </c>
-      <c r="T93" t="s">
-        <v>114</v>
-      </c>
-      <c r="U93">
+      <c r="T93">
+        <v>154</v>
+      </c>
+      <c r="U93" t="s">
+        <v>115</v>
+      </c>
+      <c r="V93">
         <v>6559</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>249</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
       <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7690,7 +7972,7 @@
         <v>92</v>
       </c>
       <c r="K94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L94">
         <v>156</v>
@@ -7716,23 +7998,26 @@
       <c r="S94">
         <v>156</v>
       </c>
-      <c r="T94" t="s">
-        <v>115</v>
-      </c>
-      <c r="U94">
+      <c r="T94">
+        <v>156</v>
+      </c>
+      <c r="U94" t="s">
+        <v>116</v>
+      </c>
+      <c r="V94">
         <v>6701</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>249</v>
       </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
       <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7764,7 +8049,7 @@
         <v>93</v>
       </c>
       <c r="K95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="L95">
         <v>158</v>
@@ -7790,23 +8075,26 @@
       <c r="S95">
         <v>158</v>
       </c>
-      <c r="T95" t="s">
-        <v>116</v>
-      </c>
-      <c r="U95">
+      <c r="T95">
+        <v>158</v>
+      </c>
+      <c r="U95" t="s">
+        <v>117</v>
+      </c>
+      <c r="V95">
         <v>6797</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>249</v>
       </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
       <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7838,7 +8126,7 @@
         <v>94</v>
       </c>
       <c r="K96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="L96">
         <v>160</v>
@@ -7864,23 +8152,26 @@
       <c r="S96">
         <v>160</v>
       </c>
-      <c r="T96" t="s">
-        <v>117</v>
-      </c>
-      <c r="U96">
+      <c r="T96">
+        <v>160</v>
+      </c>
+      <c r="U96" t="s">
+        <v>118</v>
+      </c>
+      <c r="V96">
         <v>6882</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>249</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
       <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7912,7 +8203,7 @@
         <v>95</v>
       </c>
       <c r="K97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="L97">
         <v>162</v>
@@ -7938,23 +8229,26 @@
       <c r="S97">
         <v>162</v>
       </c>
-      <c r="T97" t="s">
-        <v>118</v>
-      </c>
-      <c r="U97">
+      <c r="T97">
+        <v>162</v>
+      </c>
+      <c r="U97" t="s">
+        <v>119</v>
+      </c>
+      <c r="V97">
         <v>7100</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>260</v>
       </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
       <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7986,7 +8280,7 @@
         <v>96</v>
       </c>
       <c r="K98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L98">
         <v>164</v>
@@ -8012,23 +8306,26 @@
       <c r="S98">
         <v>164</v>
       </c>
-      <c r="T98" t="s">
-        <v>119</v>
-      </c>
-      <c r="U98">
+      <c r="T98">
+        <v>164</v>
+      </c>
+      <c r="U98" t="s">
+        <v>120</v>
+      </c>
+      <c r="V98">
         <v>7100</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>260</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
       <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8060,7 +8357,7 @@
         <v>97</v>
       </c>
       <c r="K99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="L99">
         <v>166</v>
@@ -8086,23 +8383,26 @@
       <c r="S99">
         <v>166</v>
       </c>
-      <c r="T99" t="s">
-        <v>120</v>
-      </c>
-      <c r="U99">
+      <c r="T99">
+        <v>166</v>
+      </c>
+      <c r="U99" t="s">
+        <v>121</v>
+      </c>
+      <c r="V99">
         <v>7385</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>269</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
       <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8134,7 +8434,7 @@
         <v>98</v>
       </c>
       <c r="K100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L100">
         <v>168</v>
@@ -8160,23 +8460,26 @@
       <c r="S100">
         <v>168</v>
       </c>
-      <c r="T100" t="s">
-        <v>121</v>
-      </c>
-      <c r="U100">
+      <c r="T100">
+        <v>168</v>
+      </c>
+      <c r="U100" t="s">
+        <v>122</v>
+      </c>
+      <c r="V100">
         <v>7481</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>269</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
       <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8208,7 +8511,7 @@
         <v>99</v>
       </c>
       <c r="K101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="L101">
         <v>170</v>
@@ -8234,23 +8537,26 @@
       <c r="S101">
         <v>170</v>
       </c>
-      <c r="T101" t="s">
-        <v>122</v>
-      </c>
-      <c r="U101">
+      <c r="T101">
+        <v>170</v>
+      </c>
+      <c r="U101" t="s">
+        <v>123</v>
+      </c>
+      <c r="V101">
         <v>7481</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>269</v>
       </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
       <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8282,7 +8588,7 @@
         <v>100</v>
       </c>
       <c r="K102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="L102">
         <v>172</v>
@@ -8308,23 +8614,26 @@
       <c r="S102">
         <v>172</v>
       </c>
-      <c r="T102" t="s">
-        <v>123</v>
-      </c>
-      <c r="U102">
+      <c r="T102">
+        <v>172</v>
+      </c>
+      <c r="U102" t="s">
+        <v>124</v>
+      </c>
+      <c r="V102">
         <v>7554</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>269</v>
       </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
       <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8356,7 +8665,7 @@
         <v>101</v>
       </c>
       <c r="K103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="L103">
         <v>174</v>
@@ -8382,23 +8691,26 @@
       <c r="S103">
         <v>174</v>
       </c>
-      <c r="T103" t="s">
-        <v>124</v>
-      </c>
-      <c r="U103">
+      <c r="T103">
+        <v>174</v>
+      </c>
+      <c r="U103" t="s">
+        <v>125</v>
+      </c>
+      <c r="V103">
         <v>7674</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>276</v>
       </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
       <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8430,7 +8742,7 @@
         <v>102</v>
       </c>
       <c r="K104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="L104">
         <v>176</v>
@@ -8456,23 +8768,26 @@
       <c r="S104">
         <v>176</v>
       </c>
-      <c r="T104" t="s">
-        <v>125</v>
-      </c>
-      <c r="U104">
+      <c r="T104">
+        <v>176</v>
+      </c>
+      <c r="U104" t="s">
+        <v>126</v>
+      </c>
+      <c r="V104">
         <v>7798</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>283</v>
       </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
       <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8504,7 +8819,7 @@
         <v>103</v>
       </c>
       <c r="K105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="L105">
         <v>178</v>
@@ -8530,23 +8845,26 @@
       <c r="S105">
         <v>178</v>
       </c>
-      <c r="T105" t="s">
-        <v>126</v>
-      </c>
-      <c r="U105">
+      <c r="T105">
+        <v>178</v>
+      </c>
+      <c r="U105" t="s">
+        <v>127</v>
+      </c>
+      <c r="V105">
         <v>7940</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>288</v>
       </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
       <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8578,7 +8896,7 @@
         <v>104</v>
       </c>
       <c r="K106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L106">
         <v>180</v>
@@ -8604,23 +8922,26 @@
       <c r="S106">
         <v>180</v>
       </c>
-      <c r="T106" t="s">
-        <v>127</v>
-      </c>
-      <c r="U106">
+      <c r="T106">
+        <v>180</v>
+      </c>
+      <c r="U106" t="s">
+        <v>128</v>
+      </c>
+      <c r="V106">
         <v>8345</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>296</v>
       </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
       <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8652,7 +8973,7 @@
         <v>105</v>
       </c>
       <c r="K107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="L107">
         <v>182</v>
@@ -8678,23 +8999,26 @@
       <c r="S107">
         <v>182</v>
       </c>
-      <c r="T107" t="s">
-        <v>128</v>
-      </c>
-      <c r="U107">
+      <c r="T107">
+        <v>182</v>
+      </c>
+      <c r="U107" t="s">
+        <v>129</v>
+      </c>
+      <c r="V107">
         <v>8345</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>296</v>
       </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
       <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8726,7 +9050,7 @@
         <v>106</v>
       </c>
       <c r="K108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L108">
         <v>184</v>
@@ -8752,23 +9076,26 @@
       <c r="S108">
         <v>184</v>
       </c>
-      <c r="T108" t="s">
-        <v>129</v>
-      </c>
-      <c r="U108">
+      <c r="T108">
+        <v>184</v>
+      </c>
+      <c r="U108" t="s">
+        <v>130</v>
+      </c>
+      <c r="V108">
         <v>8619</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>296</v>
       </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
       <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8800,7 +9127,7 @@
         <v>107</v>
       </c>
       <c r="K109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="L109">
         <v>186</v>
@@ -8826,23 +9153,26 @@
       <c r="S109">
         <v>186</v>
       </c>
-      <c r="T109" t="s">
-        <v>130</v>
-      </c>
-      <c r="U109">
+      <c r="T109">
+        <v>186</v>
+      </c>
+      <c r="U109" t="s">
+        <v>131</v>
+      </c>
+      <c r="V109">
         <v>8619</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>296</v>
       </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
       <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8874,7 +9204,7 @@
         <v>108</v>
       </c>
       <c r="K110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="L110">
         <v>188</v>
@@ -8900,23 +9230,26 @@
       <c r="S110">
         <v>188</v>
       </c>
-      <c r="T110" t="s">
-        <v>131</v>
-      </c>
-      <c r="U110">
+      <c r="T110">
+        <v>188</v>
+      </c>
+      <c r="U110" t="s">
+        <v>132</v>
+      </c>
+      <c r="V110">
         <v>8837</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>305</v>
       </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
       <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8948,7 +9281,7 @@
         <v>109</v>
       </c>
       <c r="K111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="L111">
         <v>190</v>
@@ -8974,23 +9307,26 @@
       <c r="S111">
         <v>190</v>
       </c>
-      <c r="T111" t="s">
-        <v>132</v>
-      </c>
-      <c r="U111">
+      <c r="T111">
+        <v>190</v>
+      </c>
+      <c r="U111" t="s">
+        <v>133</v>
+      </c>
+      <c r="V111">
         <v>8998</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>308</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
       <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9015,19 +9351,22 @@
       <c r="H112">
         <v>110</v>
       </c>
-      <c r="T112" t="s">
-        <v>133</v>
-      </c>
-      <c r="U112">
+      <c r="I112">
+        <v>110</v>
+      </c>
+      <c r="U112" t="s">
+        <v>134</v>
+      </c>
+      <c r="V112">
         <v>8998</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>308</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
       <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -776,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,8 +858,11 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -917,23 +923,26 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -994,14 +1003,14 @@
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3">
+      <c r="U3">
         <v>1</v>
       </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1009,8 +1018,11 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1071,14 +1083,14 @@
       <c r="T4">
         <v>2</v>
       </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4">
+      <c r="U4">
         <v>2</v>
       </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1086,8 +1098,11 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1148,23 +1163,26 @@
       <c r="T5">
         <v>3</v>
       </c>
-      <c r="U5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5">
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5">
         <v>2</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1225,23 +1243,26 @@
       <c r="T6">
         <v>4</v>
       </c>
-      <c r="U6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6">
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6">
         <v>2</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1302,23 +1323,26 @@
       <c r="T7">
         <v>5</v>
       </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7">
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1379,23 +1403,26 @@
       <c r="T8">
         <v>6</v>
       </c>
-      <c r="U8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8">
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8">
         <v>2</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1456,23 +1483,26 @@
       <c r="T9">
         <v>7</v>
       </c>
-      <c r="U9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9">
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9">
         <v>2</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1533,23 +1563,26 @@
       <c r="T10">
         <v>8</v>
       </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10">
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10">
         <v>2</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1610,23 +1643,26 @@
       <c r="T11">
         <v>9</v>
       </c>
-      <c r="U11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11">
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11">
         <v>2</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1687,23 +1723,26 @@
       <c r="T12">
         <v>10</v>
       </c>
-      <c r="U12" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12">
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12">
         <v>2</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>1</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1764,23 +1803,26 @@
       <c r="T13">
         <v>11</v>
       </c>
-      <c r="U13" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13">
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13">
         <v>2</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1841,23 +1883,26 @@
       <c r="T14">
         <v>12</v>
       </c>
-      <c r="U14" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14">
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14">
         <v>2</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>1</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1918,23 +1963,26 @@
       <c r="T15">
         <v>13</v>
       </c>
-      <c r="U15" t="s">
-        <v>37</v>
-      </c>
-      <c r="V15">
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15">
         <v>2</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>1</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1995,23 +2043,26 @@
       <c r="T16">
         <v>14</v>
       </c>
-      <c r="U16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16">
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16">
         <v>2</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>1</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2072,23 +2123,26 @@
       <c r="T17">
         <v>15</v>
       </c>
-      <c r="U17" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17">
+      <c r="U17">
+        <v>15</v>
+      </c>
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17">
         <v>2</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2149,23 +2203,26 @@
       <c r="T18">
         <v>16</v>
       </c>
-      <c r="U18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V18">
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18">
         <v>2</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2226,23 +2283,26 @@
       <c r="T19">
         <v>17</v>
       </c>
-      <c r="U19" t="s">
-        <v>41</v>
-      </c>
-      <c r="V19">
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19">
         <v>2</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2303,23 +2363,26 @@
       <c r="T20">
         <v>18</v>
       </c>
-      <c r="U20" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20">
+      <c r="U20">
+        <v>18</v>
+      </c>
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20">
         <v>2</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2380,23 +2443,26 @@
       <c r="T21">
         <v>19</v>
       </c>
-      <c r="U21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21">
+      <c r="U21">
+        <v>19</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21">
         <v>2</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2457,23 +2523,26 @@
       <c r="T22">
         <v>20</v>
       </c>
-      <c r="U22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V22">
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22">
         <v>2</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2534,23 +2603,26 @@
       <c r="T23">
         <v>21</v>
       </c>
-      <c r="U23" t="s">
-        <v>45</v>
-      </c>
-      <c r="V23">
+      <c r="U23">
+        <v>21</v>
+      </c>
+      <c r="V23" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23">
         <v>2</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2611,23 +2683,26 @@
       <c r="T24">
         <v>22</v>
       </c>
-      <c r="U24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V24">
+      <c r="U24">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24">
         <v>2</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2688,23 +2763,26 @@
       <c r="T25">
         <v>23</v>
       </c>
-      <c r="U25" t="s">
-        <v>47</v>
-      </c>
-      <c r="V25">
+      <c r="U25">
+        <v>23</v>
+      </c>
+      <c r="V25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25">
         <v>3</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2765,23 +2843,26 @@
       <c r="T26">
         <v>24</v>
       </c>
-      <c r="U26" t="s">
-        <v>48</v>
-      </c>
-      <c r="V26">
+      <c r="U26">
+        <v>24</v>
+      </c>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26">
         <v>3</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
       <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2842,23 +2923,26 @@
       <c r="T27">
         <v>25</v>
       </c>
-      <c r="U27" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27">
+      <c r="U27">
+        <v>25</v>
+      </c>
+      <c r="V27" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27">
         <v>3</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2919,23 +3003,26 @@
       <c r="T28">
         <v>26</v>
       </c>
-      <c r="U28" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28">
+      <c r="U28">
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28">
         <v>3</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
       <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2996,23 +3083,26 @@
       <c r="T29">
         <v>27</v>
       </c>
-      <c r="U29" t="s">
-        <v>51</v>
-      </c>
-      <c r="V29">
+      <c r="U29">
+        <v>27</v>
+      </c>
+      <c r="V29" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29">
         <v>3</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
       <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3073,23 +3163,26 @@
       <c r="T30">
         <v>28</v>
       </c>
-      <c r="U30" t="s">
-        <v>52</v>
-      </c>
-      <c r="V30">
+      <c r="U30">
+        <v>28</v>
+      </c>
+      <c r="V30" t="s">
+        <v>53</v>
+      </c>
+      <c r="W30">
         <v>155</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
       <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3124,7 +3217,7 @@
         <v>29</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31">
         <v>30</v>
@@ -3150,23 +3243,26 @@
       <c r="T31">
         <v>30</v>
       </c>
-      <c r="U31" t="s">
-        <v>53</v>
-      </c>
-      <c r="V31">
+      <c r="U31">
+        <v>30</v>
+      </c>
+      <c r="V31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31">
         <v>201</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1</v>
       </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3201,7 +3297,7 @@
         <v>30</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M32">
         <v>32</v>
@@ -3227,23 +3323,26 @@
       <c r="T32">
         <v>32</v>
       </c>
-      <c r="U32" t="s">
-        <v>54</v>
-      </c>
-      <c r="V32">
+      <c r="U32">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
+        <v>55</v>
+      </c>
+      <c r="W32">
         <v>226</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1</v>
       </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3278,7 +3377,7 @@
         <v>31</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M33">
         <v>34</v>
@@ -3304,23 +3403,26 @@
       <c r="T33">
         <v>34</v>
       </c>
-      <c r="U33" t="s">
-        <v>55</v>
-      </c>
-      <c r="V33">
+      <c r="U33">
+        <v>34</v>
+      </c>
+      <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33">
         <v>238</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3355,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M34">
         <v>36</v>
@@ -3381,23 +3483,26 @@
       <c r="T34">
         <v>36</v>
       </c>
-      <c r="U34" t="s">
-        <v>56</v>
-      </c>
-      <c r="V34">
+      <c r="U34">
+        <v>36</v>
+      </c>
+      <c r="V34" t="s">
+        <v>57</v>
+      </c>
+      <c r="W34">
         <v>293</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3432,7 +3537,7 @@
         <v>33</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M35">
         <v>38</v>
@@ -3458,23 +3563,26 @@
       <c r="T35">
         <v>38</v>
       </c>
-      <c r="U35" t="s">
-        <v>57</v>
-      </c>
-      <c r="V35">
+      <c r="U35">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35">
         <v>341</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3</v>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3509,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M36">
         <v>40</v>
@@ -3535,23 +3643,26 @@
       <c r="T36">
         <v>40</v>
       </c>
-      <c r="U36" t="s">
-        <v>58</v>
-      </c>
-      <c r="V36">
+      <c r="U36">
+        <v>40</v>
+      </c>
+      <c r="V36" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36">
         <v>413</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>6</v>
       </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3586,7 +3697,7 @@
         <v>35</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M37">
         <v>42</v>
@@ -3612,23 +3723,26 @@
       <c r="T37">
         <v>42</v>
       </c>
-      <c r="U37" t="s">
-        <v>59</v>
-      </c>
-      <c r="V37">
+      <c r="U37">
+        <v>42</v>
+      </c>
+      <c r="V37" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37">
         <v>484</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>7</v>
       </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3663,7 +3777,7 @@
         <v>36</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M38">
         <v>44</v>
@@ -3689,23 +3803,26 @@
       <c r="T38">
         <v>44</v>
       </c>
-      <c r="U38" t="s">
-        <v>60</v>
-      </c>
-      <c r="V38">
+      <c r="U38">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s">
+        <v>61</v>
+      </c>
+      <c r="W38">
         <v>515</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>7</v>
       </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3740,7 +3857,7 @@
         <v>37</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M39">
         <v>46</v>
@@ -3766,23 +3883,26 @@
       <c r="T39">
         <v>46</v>
       </c>
-      <c r="U39" t="s">
-        <v>61</v>
-      </c>
-      <c r="V39">
+      <c r="U39">
+        <v>46</v>
+      </c>
+      <c r="V39" t="s">
+        <v>62</v>
+      </c>
+      <c r="W39">
         <v>603</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>7</v>
       </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3817,7 +3937,7 @@
         <v>38</v>
       </c>
       <c r="L40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M40">
         <v>48</v>
@@ -3843,23 +3963,26 @@
       <c r="T40">
         <v>48</v>
       </c>
-      <c r="U40" t="s">
-        <v>62</v>
-      </c>
-      <c r="V40">
+      <c r="U40">
+        <v>48</v>
+      </c>
+      <c r="V40" t="s">
+        <v>63</v>
+      </c>
+      <c r="W40">
         <v>733</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>9</v>
       </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3894,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M41">
         <v>50</v>
@@ -3920,23 +4043,26 @@
       <c r="T41">
         <v>50</v>
       </c>
-      <c r="U41" t="s">
-        <v>63</v>
-      </c>
-      <c r="V41">
+      <c r="U41">
+        <v>50</v>
+      </c>
+      <c r="V41" t="s">
+        <v>64</v>
+      </c>
+      <c r="W41">
         <v>849</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>15</v>
       </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3971,7 +4097,7 @@
         <v>40</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M42">
         <v>52</v>
@@ -3997,23 +4123,26 @@
       <c r="T42">
         <v>52</v>
       </c>
-      <c r="U42" t="s">
-        <v>64</v>
-      </c>
-      <c r="V42">
+      <c r="U42">
+        <v>52</v>
+      </c>
+      <c r="V42" t="s">
+        <v>65</v>
+      </c>
+      <c r="W42">
         <v>966</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>16</v>
       </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4048,7 +4177,7 @@
         <v>41</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M43">
         <v>54</v>
@@ -4074,23 +4203,26 @@
       <c r="T43">
         <v>54</v>
       </c>
-      <c r="U43" t="s">
-        <v>65</v>
-      </c>
-      <c r="V43">
+      <c r="U43">
+        <v>54</v>
+      </c>
+      <c r="V43" t="s">
+        <v>66</v>
+      </c>
+      <c r="W43">
         <v>1112</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>17</v>
       </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4125,7 +4257,7 @@
         <v>42</v>
       </c>
       <c r="L44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M44">
         <v>56</v>
@@ -4151,23 +4283,26 @@
       <c r="T44">
         <v>56</v>
       </c>
-      <c r="U44" t="s">
-        <v>66</v>
-      </c>
-      <c r="V44">
+      <c r="U44">
+        <v>56</v>
+      </c>
+      <c r="V44" t="s">
+        <v>67</v>
+      </c>
+      <c r="W44">
         <v>1209</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>18</v>
       </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4202,7 +4337,7 @@
         <v>43</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M45">
         <v>58</v>
@@ -4228,23 +4363,26 @@
       <c r="T45">
         <v>58</v>
       </c>
-      <c r="U45" t="s">
-        <v>67</v>
-      </c>
-      <c r="V45">
+      <c r="U45">
+        <v>58</v>
+      </c>
+      <c r="V45" t="s">
+        <v>68</v>
+      </c>
+      <c r="W45">
         <v>1326</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>19</v>
       </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4279,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M46">
         <v>60</v>
@@ -4305,23 +4443,26 @@
       <c r="T46">
         <v>60</v>
       </c>
-      <c r="U46" t="s">
-        <v>68</v>
-      </c>
-      <c r="V46">
+      <c r="U46">
+        <v>60</v>
+      </c>
+      <c r="V46" t="s">
+        <v>69</v>
+      </c>
+      <c r="W46">
         <v>1404</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>19</v>
       </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4356,7 +4497,7 @@
         <v>45</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M47">
         <v>62</v>
@@ -4382,23 +4523,26 @@
       <c r="T47">
         <v>62</v>
       </c>
-      <c r="U47" t="s">
-        <v>69</v>
-      </c>
-      <c r="V47">
+      <c r="U47">
+        <v>62</v>
+      </c>
+      <c r="V47" t="s">
+        <v>70</v>
+      </c>
+      <c r="W47">
         <v>1454</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>31</v>
       </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4433,7 +4577,7 @@
         <v>46</v>
       </c>
       <c r="L48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M48">
         <v>64</v>
@@ -4459,23 +4603,26 @@
       <c r="T48">
         <v>64</v>
       </c>
-      <c r="U48" t="s">
-        <v>70</v>
-      </c>
-      <c r="V48">
+      <c r="U48">
+        <v>64</v>
+      </c>
+      <c r="V48" t="s">
+        <v>71</v>
+      </c>
+      <c r="W48">
         <v>1530</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>36</v>
       </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4510,7 +4657,7 @@
         <v>47</v>
       </c>
       <c r="L49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M49">
         <v>66</v>
@@ -4536,23 +4683,26 @@
       <c r="T49">
         <v>66</v>
       </c>
-      <c r="U49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V49">
+      <c r="U49">
+        <v>66</v>
+      </c>
+      <c r="V49" t="s">
+        <v>72</v>
+      </c>
+      <c r="W49">
         <v>1628</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>40</v>
       </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4587,7 +4737,7 @@
         <v>48</v>
       </c>
       <c r="L50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M50">
         <v>68</v>
@@ -4613,23 +4763,26 @@
       <c r="T50">
         <v>68</v>
       </c>
-      <c r="U50" t="s">
-        <v>72</v>
-      </c>
-      <c r="V50">
+      <c r="U50">
+        <v>68</v>
+      </c>
+      <c r="V50" t="s">
+        <v>73</v>
+      </c>
+      <c r="W50">
         <v>1693</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>44</v>
       </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4664,7 +4817,7 @@
         <v>49</v>
       </c>
       <c r="L51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M51">
         <v>70</v>
@@ -4690,23 +4843,26 @@
       <c r="T51">
         <v>70</v>
       </c>
-      <c r="U51" t="s">
-        <v>73</v>
-      </c>
-      <c r="V51">
+      <c r="U51">
+        <v>70</v>
+      </c>
+      <c r="V51" t="s">
+        <v>74</v>
+      </c>
+      <c r="W51">
         <v>1761</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>45</v>
       </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
       <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:26">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4741,7 +4897,7 @@
         <v>50</v>
       </c>
       <c r="L52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M52">
         <v>72</v>
@@ -4767,23 +4923,26 @@
       <c r="T52">
         <v>72</v>
       </c>
-      <c r="U52" t="s">
-        <v>74</v>
-      </c>
-      <c r="V52">
+      <c r="U52">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s">
+        <v>75</v>
+      </c>
+      <c r="W52">
         <v>1804</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>45</v>
       </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
       <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:26">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4818,7 +4977,7 @@
         <v>51</v>
       </c>
       <c r="L53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="M53">
         <v>74</v>
@@ -4844,23 +5003,26 @@
       <c r="T53">
         <v>74</v>
       </c>
-      <c r="U53" t="s">
-        <v>75</v>
-      </c>
-      <c r="V53">
+      <c r="U53">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s">
+        <v>76</v>
+      </c>
+      <c r="W53">
         <v>1847</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>47</v>
       </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
       <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:26">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4895,7 +5057,7 @@
         <v>52</v>
       </c>
       <c r="L54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="M54">
         <v>76</v>
@@ -4921,23 +5083,26 @@
       <c r="T54">
         <v>76</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U54">
         <v>76</v>
       </c>
-      <c r="V54">
+      <c r="V54" t="s">
+        <v>77</v>
+      </c>
+      <c r="W54">
         <v>1930</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>53</v>
       </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
       <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:26">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4972,7 +5137,7 @@
         <v>53</v>
       </c>
       <c r="L55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="M55">
         <v>78</v>
@@ -4998,23 +5163,26 @@
       <c r="T55">
         <v>78</v>
       </c>
-      <c r="U55" t="s">
-        <v>77</v>
-      </c>
-      <c r="V55">
+      <c r="U55">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s">
+        <v>78</v>
+      </c>
+      <c r="W55">
         <v>2012</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>60</v>
       </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
       <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:26">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5049,7 +5217,7 @@
         <v>54</v>
       </c>
       <c r="L56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="M56">
         <v>80</v>
@@ -5075,23 +5243,26 @@
       <c r="T56">
         <v>80</v>
       </c>
-      <c r="U56" t="s">
-        <v>78</v>
-      </c>
-      <c r="V56">
+      <c r="U56">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s">
+        <v>79</v>
+      </c>
+      <c r="W56">
         <v>2087</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>63</v>
       </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
       <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:26">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5126,7 +5297,7 @@
         <v>55</v>
       </c>
       <c r="L57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M57">
         <v>82</v>
@@ -5152,23 +5323,26 @@
       <c r="T57">
         <v>82</v>
       </c>
-      <c r="U57" t="s">
-        <v>79</v>
-      </c>
-      <c r="V57">
+      <c r="U57">
+        <v>82</v>
+      </c>
+      <c r="V57" t="s">
+        <v>80</v>
+      </c>
+      <c r="W57">
         <v>2158</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>70</v>
       </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
       <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:26">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5203,7 +5377,7 @@
         <v>56</v>
       </c>
       <c r="L58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M58">
         <v>84</v>
@@ -5229,23 +5403,26 @@
       <c r="T58">
         <v>84</v>
       </c>
-      <c r="U58" t="s">
-        <v>80</v>
-      </c>
-      <c r="V58">
+      <c r="U58">
+        <v>84</v>
+      </c>
+      <c r="V58" t="s">
+        <v>81</v>
+      </c>
+      <c r="W58">
         <v>2213</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>71</v>
       </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
       <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:26">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5280,7 +5457,7 @@
         <v>57</v>
       </c>
       <c r="L59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="M59">
         <v>86</v>
@@ -5306,23 +5483,26 @@
       <c r="T59">
         <v>86</v>
       </c>
-      <c r="U59" t="s">
-        <v>81</v>
-      </c>
-      <c r="V59">
+      <c r="U59">
+        <v>86</v>
+      </c>
+      <c r="V59" t="s">
+        <v>82</v>
+      </c>
+      <c r="W59">
         <v>2268</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>71</v>
       </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
       <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:26">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5357,7 +5537,7 @@
         <v>58</v>
       </c>
       <c r="L60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M60">
         <v>88</v>
@@ -5383,23 +5563,26 @@
       <c r="T60">
         <v>88</v>
       </c>
-      <c r="U60" t="s">
-        <v>82</v>
-      </c>
-      <c r="V60">
+      <c r="U60">
+        <v>88</v>
+      </c>
+      <c r="V60" t="s">
+        <v>83</v>
+      </c>
+      <c r="W60">
         <v>2325</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>72</v>
       </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
       <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:26">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5434,7 +5617,7 @@
         <v>59</v>
       </c>
       <c r="L61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="M61">
         <v>90</v>
@@ -5460,23 +5643,26 @@
       <c r="T61">
         <v>90</v>
       </c>
-      <c r="U61" t="s">
-        <v>83</v>
-      </c>
-      <c r="V61">
+      <c r="U61">
+        <v>90</v>
+      </c>
+      <c r="V61" t="s">
+        <v>84</v>
+      </c>
+      <c r="W61">
         <v>2491</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>96</v>
       </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
       <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:26">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5511,7 +5697,7 @@
         <v>60</v>
       </c>
       <c r="L62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M62">
         <v>92</v>
@@ -5537,23 +5723,26 @@
       <c r="T62">
         <v>92</v>
       </c>
-      <c r="U62" t="s">
-        <v>84</v>
-      </c>
-      <c r="V62">
+      <c r="U62">
+        <v>92</v>
+      </c>
+      <c r="V62" t="s">
+        <v>85</v>
+      </c>
+      <c r="W62">
         <v>2643</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>100</v>
       </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
       <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:26">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5588,7 +5777,7 @@
         <v>61</v>
       </c>
       <c r="L63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="M63">
         <v>94</v>
@@ -5614,23 +5803,26 @@
       <c r="T63">
         <v>94</v>
       </c>
-      <c r="U63" t="s">
-        <v>85</v>
-      </c>
-      <c r="V63">
+      <c r="U63">
+        <v>94</v>
+      </c>
+      <c r="V63" t="s">
+        <v>86</v>
+      </c>
+      <c r="W63">
         <v>2826</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>102</v>
       </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
       <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:26">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5665,7 +5857,7 @@
         <v>62</v>
       </c>
       <c r="L64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="M64">
         <v>96</v>
@@ -5691,23 +5883,26 @@
       <c r="T64">
         <v>96</v>
       </c>
-      <c r="U64" t="s">
-        <v>86</v>
-      </c>
-      <c r="V64">
+      <c r="U64">
+        <v>96</v>
+      </c>
+      <c r="V64" t="s">
+        <v>87</v>
+      </c>
+      <c r="W64">
         <v>2943</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>111</v>
       </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
       <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:26">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5742,7 +5937,7 @@
         <v>63</v>
       </c>
       <c r="L65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="M65">
         <v>98</v>
@@ -5768,23 +5963,26 @@
       <c r="T65">
         <v>98</v>
       </c>
-      <c r="U65" t="s">
-        <v>87</v>
-      </c>
-      <c r="V65">
+      <c r="U65">
+        <v>98</v>
+      </c>
+      <c r="V65" t="s">
+        <v>88</v>
+      </c>
+      <c r="W65">
         <v>2943</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>111</v>
       </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
       <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:26">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5819,7 +6017,7 @@
         <v>64</v>
       </c>
       <c r="L66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M66">
         <v>100</v>
@@ -5845,23 +6043,26 @@
       <c r="T66">
         <v>100</v>
       </c>
-      <c r="U66" t="s">
-        <v>88</v>
-      </c>
-      <c r="V66">
+      <c r="U66">
+        <v>100</v>
+      </c>
+      <c r="V66" t="s">
+        <v>89</v>
+      </c>
+      <c r="W66">
         <v>3043</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>111</v>
       </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
       <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:26">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5896,7 +6097,7 @@
         <v>65</v>
       </c>
       <c r="L67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M67">
         <v>102</v>
@@ -5922,23 +6123,26 @@
       <c r="T67">
         <v>102</v>
       </c>
-      <c r="U67" t="s">
-        <v>89</v>
-      </c>
-      <c r="V67">
+      <c r="U67">
+        <v>102</v>
+      </c>
+      <c r="V67" t="s">
+        <v>90</v>
+      </c>
+      <c r="W67">
         <v>3141</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>113</v>
       </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
       <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:26">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5973,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="L68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M68">
         <v>104</v>
@@ -5999,23 +6203,26 @@
       <c r="T68">
         <v>104</v>
       </c>
-      <c r="U68" t="s">
-        <v>90</v>
-      </c>
-      <c r="V68">
+      <c r="U68">
+        <v>104</v>
+      </c>
+      <c r="V68" t="s">
+        <v>91</v>
+      </c>
+      <c r="W68">
         <v>3432</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>120</v>
       </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
       <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:26">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6050,7 +6257,7 @@
         <v>67</v>
       </c>
       <c r="L69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="M69">
         <v>106</v>
@@ -6076,23 +6283,26 @@
       <c r="T69">
         <v>106</v>
       </c>
-      <c r="U69" t="s">
-        <v>91</v>
-      </c>
-      <c r="V69">
+      <c r="U69">
+        <v>106</v>
+      </c>
+      <c r="V69" t="s">
+        <v>92</v>
+      </c>
+      <c r="W69">
         <v>3432</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>120</v>
       </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
       <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:26">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6127,7 +6337,7 @@
         <v>68</v>
       </c>
       <c r="L70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="M70">
         <v>108</v>
@@ -6153,23 +6363,26 @@
       <c r="T70">
         <v>108</v>
       </c>
-      <c r="U70" t="s">
-        <v>92</v>
-      </c>
-      <c r="V70">
+      <c r="U70">
+        <v>108</v>
+      </c>
+      <c r="V70" t="s">
+        <v>93</v>
+      </c>
+      <c r="W70">
         <v>3564</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>124</v>
       </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
       <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:26">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6204,7 +6417,7 @@
         <v>69</v>
       </c>
       <c r="L71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="M71">
         <v>110</v>
@@ -6230,23 +6443,26 @@
       <c r="T71">
         <v>110</v>
       </c>
-      <c r="U71" t="s">
-        <v>93</v>
-      </c>
-      <c r="V71">
+      <c r="U71">
+        <v>110</v>
+      </c>
+      <c r="V71" t="s">
+        <v>94</v>
+      </c>
+      <c r="W71">
         <v>3711</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>134</v>
       </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
       <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:26">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6281,7 +6497,7 @@
         <v>70</v>
       </c>
       <c r="L72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M72">
         <v>112</v>
@@ -6307,23 +6523,26 @@
       <c r="T72">
         <v>112</v>
       </c>
-      <c r="U72" t="s">
-        <v>94</v>
-      </c>
-      <c r="V72">
+      <c r="U72">
+        <v>112</v>
+      </c>
+      <c r="V72" t="s">
+        <v>95</v>
+      </c>
+      <c r="W72">
         <v>3927</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>139</v>
       </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
       <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:26">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6358,7 +6577,7 @@
         <v>71</v>
       </c>
       <c r="L73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="M73">
         <v>114</v>
@@ -6384,23 +6603,26 @@
       <c r="T73">
         <v>114</v>
       </c>
-      <c r="U73" t="s">
-        <v>95</v>
-      </c>
-      <c r="V73">
+      <c r="U73">
+        <v>114</v>
+      </c>
+      <c r="V73" t="s">
+        <v>96</v>
+      </c>
+      <c r="W73">
         <v>3927</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>139</v>
       </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
       <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:26">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6435,7 +6657,7 @@
         <v>72</v>
       </c>
       <c r="L74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="M74">
         <v>116</v>
@@ -6461,23 +6683,26 @@
       <c r="T74">
         <v>116</v>
       </c>
-      <c r="U74" t="s">
-        <v>96</v>
-      </c>
-      <c r="V74">
+      <c r="U74">
+        <v>116</v>
+      </c>
+      <c r="V74" t="s">
+        <v>97</v>
+      </c>
+      <c r="W74">
         <v>4020</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>144</v>
       </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
       <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:26">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6512,7 +6737,7 @@
         <v>73</v>
       </c>
       <c r="L75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="M75">
         <v>118</v>
@@ -6538,23 +6763,26 @@
       <c r="T75">
         <v>118</v>
       </c>
-      <c r="U75" t="s">
-        <v>97</v>
-      </c>
-      <c r="V75">
+      <c r="U75">
+        <v>118</v>
+      </c>
+      <c r="V75" t="s">
+        <v>98</v>
+      </c>
+      <c r="W75">
         <v>4319</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>158</v>
       </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
       <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:26">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6589,7 +6817,7 @@
         <v>74</v>
       </c>
       <c r="L76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="M76">
         <v>120</v>
@@ -6615,23 +6843,26 @@
       <c r="T76">
         <v>120</v>
       </c>
-      <c r="U76" t="s">
-        <v>98</v>
-      </c>
-      <c r="V76">
+      <c r="U76">
+        <v>120</v>
+      </c>
+      <c r="V76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W76">
         <v>4319</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>158</v>
       </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
       <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:26">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6666,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="L77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="M77">
         <v>122</v>
@@ -6692,23 +6923,26 @@
       <c r="T77">
         <v>122</v>
       </c>
-      <c r="U77" t="s">
-        <v>99</v>
-      </c>
-      <c r="V77">
+      <c r="U77">
+        <v>122</v>
+      </c>
+      <c r="V77" t="s">
+        <v>100</v>
+      </c>
+      <c r="W77">
         <v>4429</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>165</v>
       </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
       <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:26">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6743,7 +6977,7 @@
         <v>76</v>
       </c>
       <c r="L78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="M78">
         <v>124</v>
@@ -6769,23 +7003,26 @@
       <c r="T78">
         <v>124</v>
       </c>
-      <c r="U78" t="s">
-        <v>100</v>
-      </c>
-      <c r="V78">
+      <c r="U78">
+        <v>124</v>
+      </c>
+      <c r="V78" t="s">
+        <v>101</v>
+      </c>
+      <c r="W78">
         <v>4662</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>169</v>
       </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
       <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:26">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6820,7 +7057,7 @@
         <v>77</v>
       </c>
       <c r="L79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="M79">
         <v>126</v>
@@ -6846,23 +7083,26 @@
       <c r="T79">
         <v>126</v>
       </c>
-      <c r="U79" t="s">
-        <v>101</v>
-      </c>
-      <c r="V79">
+      <c r="U79">
+        <v>126</v>
+      </c>
+      <c r="V79" t="s">
+        <v>102</v>
+      </c>
+      <c r="W79">
         <v>4776</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>175</v>
       </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
       <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:26">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6897,7 +7137,7 @@
         <v>78</v>
       </c>
       <c r="L80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="M80">
         <v>128</v>
@@ -6923,23 +7163,26 @@
       <c r="T80">
         <v>128</v>
       </c>
-      <c r="U80" t="s">
-        <v>102</v>
-      </c>
-      <c r="V80">
+      <c r="U80">
+        <v>128</v>
+      </c>
+      <c r="V80" t="s">
+        <v>103</v>
+      </c>
+      <c r="W80">
         <v>5065</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>175</v>
       </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
       <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:26">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6974,7 +7217,7 @@
         <v>79</v>
       </c>
       <c r="L81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="M81">
         <v>130</v>
@@ -7000,23 +7243,26 @@
       <c r="T81">
         <v>130</v>
       </c>
-      <c r="U81" t="s">
-        <v>103</v>
-      </c>
-      <c r="V81">
+      <c r="U81">
+        <v>130</v>
+      </c>
+      <c r="V81" t="s">
+        <v>104</v>
+      </c>
+      <c r="W81">
         <v>5161</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>190</v>
       </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
       <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:26">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7051,7 +7297,7 @@
         <v>80</v>
       </c>
       <c r="L82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M82">
         <v>132</v>
@@ -7077,23 +7323,26 @@
       <c r="T82">
         <v>132</v>
       </c>
-      <c r="U82" t="s">
-        <v>104</v>
-      </c>
-      <c r="V82">
+      <c r="U82">
+        <v>132</v>
+      </c>
+      <c r="V82" t="s">
+        <v>105</v>
+      </c>
+      <c r="W82">
         <v>5161</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>190</v>
       </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
       <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:26">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7128,7 +7377,7 @@
         <v>81</v>
       </c>
       <c r="L83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="M83">
         <v>134</v>
@@ -7154,23 +7403,26 @@
       <c r="T83">
         <v>134</v>
       </c>
-      <c r="U83" t="s">
-        <v>105</v>
-      </c>
-      <c r="V83">
+      <c r="U83">
+        <v>134</v>
+      </c>
+      <c r="V83" t="s">
+        <v>106</v>
+      </c>
+      <c r="W83">
         <v>5391</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>200</v>
       </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
       <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:26">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7205,7 +7457,7 @@
         <v>82</v>
       </c>
       <c r="L84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="M84">
         <v>136</v>
@@ -7231,23 +7483,26 @@
       <c r="T84">
         <v>136</v>
       </c>
-      <c r="U84" t="s">
-        <v>106</v>
-      </c>
-      <c r="V84">
+      <c r="U84">
+        <v>136</v>
+      </c>
+      <c r="V84" t="s">
+        <v>107</v>
+      </c>
+      <c r="W84">
         <v>5391</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>200</v>
       </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
       <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:26">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7282,7 +7537,7 @@
         <v>83</v>
       </c>
       <c r="L85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="M85">
         <v>138</v>
@@ -7308,23 +7563,26 @@
       <c r="T85">
         <v>138</v>
       </c>
-      <c r="U85" t="s">
-        <v>107</v>
-      </c>
-      <c r="V85">
+      <c r="U85">
+        <v>138</v>
+      </c>
+      <c r="V85" t="s">
+        <v>108</v>
+      </c>
+      <c r="W85">
         <v>5662</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>209</v>
       </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
       <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:26">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7359,7 +7617,7 @@
         <v>84</v>
       </c>
       <c r="L86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="M86">
         <v>140</v>
@@ -7385,23 +7643,26 @@
       <c r="T86">
         <v>140</v>
       </c>
-      <c r="U86" t="s">
-        <v>108</v>
-      </c>
-      <c r="V86">
+      <c r="U86">
+        <v>140</v>
+      </c>
+      <c r="V86" t="s">
+        <v>109</v>
+      </c>
+      <c r="W86">
         <v>5836</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>209</v>
       </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
       <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:26">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7436,7 +7697,7 @@
         <v>85</v>
       </c>
       <c r="L87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="M87">
         <v>142</v>
@@ -7462,23 +7723,26 @@
       <c r="T87">
         <v>142</v>
       </c>
-      <c r="U87" t="s">
-        <v>109</v>
-      </c>
-      <c r="V87">
+      <c r="U87">
+        <v>142</v>
+      </c>
+      <c r="V87" t="s">
+        <v>110</v>
+      </c>
+      <c r="W87">
         <v>5836</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>209</v>
       </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
       <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:26">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7513,7 +7777,7 @@
         <v>86</v>
       </c>
       <c r="L88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="M88">
         <v>144</v>
@@ -7539,23 +7803,26 @@
       <c r="T88">
         <v>144</v>
       </c>
-      <c r="U88" t="s">
-        <v>110</v>
-      </c>
-      <c r="V88">
+      <c r="U88">
+        <v>144</v>
+      </c>
+      <c r="V88" t="s">
+        <v>111</v>
+      </c>
+      <c r="W88">
         <v>6026</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>222</v>
       </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
       <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:26">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7590,7 +7857,7 @@
         <v>87</v>
       </c>
       <c r="L89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="M89">
         <v>146</v>
@@ -7616,23 +7883,26 @@
       <c r="T89">
         <v>146</v>
       </c>
-      <c r="U89" t="s">
-        <v>111</v>
-      </c>
-      <c r="V89">
+      <c r="U89">
+        <v>146</v>
+      </c>
+      <c r="V89" t="s">
+        <v>112</v>
+      </c>
+      <c r="W89">
         <v>6140</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>230</v>
       </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
       <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:26">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7667,7 +7937,7 @@
         <v>88</v>
       </c>
       <c r="L90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="M90">
         <v>148</v>
@@ -7693,23 +7963,26 @@
       <c r="T90">
         <v>148</v>
       </c>
-      <c r="U90" t="s">
-        <v>112</v>
-      </c>
-      <c r="V90">
+      <c r="U90">
+        <v>148</v>
+      </c>
+      <c r="V90" t="s">
+        <v>113</v>
+      </c>
+      <c r="W90">
         <v>6140</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>230</v>
       </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
       <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:26">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7744,7 +8017,7 @@
         <v>89</v>
       </c>
       <c r="L91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="M91">
         <v>150</v>
@@ -7770,23 +8043,26 @@
       <c r="T91">
         <v>150</v>
       </c>
-      <c r="U91" t="s">
-        <v>113</v>
-      </c>
-      <c r="V91">
+      <c r="U91">
+        <v>150</v>
+      </c>
+      <c r="V91" t="s">
+        <v>114</v>
+      </c>
+      <c r="W91">
         <v>6315</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>241</v>
       </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
       <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:26">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7821,7 +8097,7 @@
         <v>90</v>
       </c>
       <c r="L92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="M92">
         <v>152</v>
@@ -7847,23 +8123,26 @@
       <c r="T92">
         <v>152</v>
       </c>
-      <c r="U92" t="s">
-        <v>114</v>
-      </c>
-      <c r="V92">
+      <c r="U92">
+        <v>152</v>
+      </c>
+      <c r="V92" t="s">
+        <v>115</v>
+      </c>
+      <c r="W92">
         <v>6559</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>249</v>
       </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
       <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:26">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7898,7 +8177,7 @@
         <v>91</v>
       </c>
       <c r="L93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="M93">
         <v>154</v>
@@ -7924,23 +8203,26 @@
       <c r="T93">
         <v>154</v>
       </c>
-      <c r="U93" t="s">
-        <v>115</v>
-      </c>
-      <c r="V93">
+      <c r="U93">
+        <v>154</v>
+      </c>
+      <c r="V93" t="s">
+        <v>116</v>
+      </c>
+      <c r="W93">
         <v>6559</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>249</v>
       </c>
-      <c r="X93">
-        <v>0</v>
-      </c>
       <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:26">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7975,7 +8257,7 @@
         <v>92</v>
       </c>
       <c r="L94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="M94">
         <v>156</v>
@@ -8001,23 +8283,26 @@
       <c r="T94">
         <v>156</v>
       </c>
-      <c r="U94" t="s">
-        <v>116</v>
-      </c>
-      <c r="V94">
+      <c r="U94">
+        <v>156</v>
+      </c>
+      <c r="V94" t="s">
+        <v>117</v>
+      </c>
+      <c r="W94">
         <v>6701</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>249</v>
       </c>
-      <c r="X94">
-        <v>0</v>
-      </c>
       <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:26">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8052,7 +8337,7 @@
         <v>93</v>
       </c>
       <c r="L95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="M95">
         <v>158</v>
@@ -8078,23 +8363,26 @@
       <c r="T95">
         <v>158</v>
       </c>
-      <c r="U95" t="s">
-        <v>117</v>
-      </c>
-      <c r="V95">
+      <c r="U95">
+        <v>158</v>
+      </c>
+      <c r="V95" t="s">
+        <v>118</v>
+      </c>
+      <c r="W95">
         <v>6797</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>249</v>
       </c>
-      <c r="X95">
-        <v>0</v>
-      </c>
       <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:26">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8129,7 +8417,7 @@
         <v>94</v>
       </c>
       <c r="L96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="M96">
         <v>160</v>
@@ -8155,23 +8443,26 @@
       <c r="T96">
         <v>160</v>
       </c>
-      <c r="U96" t="s">
-        <v>118</v>
-      </c>
-      <c r="V96">
+      <c r="U96">
+        <v>160</v>
+      </c>
+      <c r="V96" t="s">
+        <v>119</v>
+      </c>
+      <c r="W96">
         <v>6882</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>249</v>
       </c>
-      <c r="X96">
-        <v>0</v>
-      </c>
       <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:26">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8206,7 +8497,7 @@
         <v>95</v>
       </c>
       <c r="L97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="M97">
         <v>162</v>
@@ -8232,23 +8523,26 @@
       <c r="T97">
         <v>162</v>
       </c>
-      <c r="U97" t="s">
-        <v>119</v>
-      </c>
-      <c r="V97">
+      <c r="U97">
+        <v>162</v>
+      </c>
+      <c r="V97" t="s">
+        <v>120</v>
+      </c>
+      <c r="W97">
         <v>7100</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>260</v>
       </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
       <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:26">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8283,7 +8577,7 @@
         <v>96</v>
       </c>
       <c r="L98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="M98">
         <v>164</v>
@@ -8309,23 +8603,26 @@
       <c r="T98">
         <v>164</v>
       </c>
-      <c r="U98" t="s">
-        <v>120</v>
-      </c>
-      <c r="V98">
+      <c r="U98">
+        <v>164</v>
+      </c>
+      <c r="V98" t="s">
+        <v>121</v>
+      </c>
+      <c r="W98">
         <v>7100</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>260</v>
       </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
       <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:26">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8360,7 +8657,7 @@
         <v>97</v>
       </c>
       <c r="L99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="M99">
         <v>166</v>
@@ -8386,23 +8683,26 @@
       <c r="T99">
         <v>166</v>
       </c>
-      <c r="U99" t="s">
-        <v>121</v>
-      </c>
-      <c r="V99">
+      <c r="U99">
+        <v>166</v>
+      </c>
+      <c r="V99" t="s">
+        <v>122</v>
+      </c>
+      <c r="W99">
         <v>7385</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>269</v>
       </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
       <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:26">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8437,7 +8737,7 @@
         <v>98</v>
       </c>
       <c r="L100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M100">
         <v>168</v>
@@ -8463,23 +8763,26 @@
       <c r="T100">
         <v>168</v>
       </c>
-      <c r="U100" t="s">
-        <v>122</v>
-      </c>
-      <c r="V100">
+      <c r="U100">
+        <v>168</v>
+      </c>
+      <c r="V100" t="s">
+        <v>123</v>
+      </c>
+      <c r="W100">
         <v>7481</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>269</v>
       </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
       <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:26">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8514,7 +8817,7 @@
         <v>99</v>
       </c>
       <c r="L101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="M101">
         <v>170</v>
@@ -8540,23 +8843,26 @@
       <c r="T101">
         <v>170</v>
       </c>
-      <c r="U101" t="s">
-        <v>123</v>
-      </c>
-      <c r="V101">
+      <c r="U101">
+        <v>170</v>
+      </c>
+      <c r="V101" t="s">
+        <v>124</v>
+      </c>
+      <c r="W101">
         <v>7481</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>269</v>
       </c>
-      <c r="X101">
-        <v>0</v>
-      </c>
       <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:26">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8591,7 +8897,7 @@
         <v>100</v>
       </c>
       <c r="L102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="M102">
         <v>172</v>
@@ -8617,23 +8923,26 @@
       <c r="T102">
         <v>172</v>
       </c>
-      <c r="U102" t="s">
-        <v>124</v>
-      </c>
-      <c r="V102">
+      <c r="U102">
+        <v>172</v>
+      </c>
+      <c r="V102" t="s">
+        <v>125</v>
+      </c>
+      <c r="W102">
         <v>7554</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>269</v>
       </c>
-      <c r="X102">
-        <v>0</v>
-      </c>
       <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:26">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8668,7 +8977,7 @@
         <v>101</v>
       </c>
       <c r="L103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="M103">
         <v>174</v>
@@ -8694,23 +9003,26 @@
       <c r="T103">
         <v>174</v>
       </c>
-      <c r="U103" t="s">
-        <v>125</v>
-      </c>
-      <c r="V103">
+      <c r="U103">
+        <v>174</v>
+      </c>
+      <c r="V103" t="s">
+        <v>126</v>
+      </c>
+      <c r="W103">
         <v>7674</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>276</v>
       </c>
-      <c r="X103">
-        <v>0</v>
-      </c>
       <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:26">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8745,7 +9057,7 @@
         <v>102</v>
       </c>
       <c r="L104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="M104">
         <v>176</v>
@@ -8771,23 +9083,26 @@
       <c r="T104">
         <v>176</v>
       </c>
-      <c r="U104" t="s">
-        <v>126</v>
-      </c>
-      <c r="V104">
+      <c r="U104">
+        <v>176</v>
+      </c>
+      <c r="V104" t="s">
+        <v>127</v>
+      </c>
+      <c r="W104">
         <v>7798</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>283</v>
       </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
       <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:26">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8822,7 +9137,7 @@
         <v>103</v>
       </c>
       <c r="L105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="M105">
         <v>178</v>
@@ -8848,23 +9163,26 @@
       <c r="T105">
         <v>178</v>
       </c>
-      <c r="U105" t="s">
-        <v>127</v>
-      </c>
-      <c r="V105">
+      <c r="U105">
+        <v>178</v>
+      </c>
+      <c r="V105" t="s">
+        <v>128</v>
+      </c>
+      <c r="W105">
         <v>7940</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>288</v>
       </c>
-      <c r="X105">
-        <v>0</v>
-      </c>
       <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:26">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8899,7 +9217,7 @@
         <v>104</v>
       </c>
       <c r="L106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="M106">
         <v>180</v>
@@ -8925,23 +9243,26 @@
       <c r="T106">
         <v>180</v>
       </c>
-      <c r="U106" t="s">
-        <v>128</v>
-      </c>
-      <c r="V106">
+      <c r="U106">
+        <v>180</v>
+      </c>
+      <c r="V106" t="s">
+        <v>129</v>
+      </c>
+      <c r="W106">
         <v>8345</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>296</v>
       </c>
-      <c r="X106">
-        <v>0</v>
-      </c>
       <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:26">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8976,7 +9297,7 @@
         <v>105</v>
       </c>
       <c r="L107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="M107">
         <v>182</v>
@@ -9002,23 +9323,26 @@
       <c r="T107">
         <v>182</v>
       </c>
-      <c r="U107" t="s">
-        <v>129</v>
-      </c>
-      <c r="V107">
+      <c r="U107">
+        <v>182</v>
+      </c>
+      <c r="V107" t="s">
+        <v>130</v>
+      </c>
+      <c r="W107">
         <v>8345</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>296</v>
       </c>
-      <c r="X107">
-        <v>0</v>
-      </c>
       <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:26">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9053,7 +9377,7 @@
         <v>106</v>
       </c>
       <c r="L108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="M108">
         <v>184</v>
@@ -9079,23 +9403,26 @@
       <c r="T108">
         <v>184</v>
       </c>
-      <c r="U108" t="s">
-        <v>130</v>
-      </c>
-      <c r="V108">
+      <c r="U108">
+        <v>184</v>
+      </c>
+      <c r="V108" t="s">
+        <v>131</v>
+      </c>
+      <c r="W108">
         <v>8619</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>296</v>
       </c>
-      <c r="X108">
-        <v>0</v>
-      </c>
       <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:26">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9130,7 +9457,7 @@
         <v>107</v>
       </c>
       <c r="L109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="M109">
         <v>186</v>
@@ -9156,23 +9483,26 @@
       <c r="T109">
         <v>186</v>
       </c>
-      <c r="U109" t="s">
-        <v>131</v>
-      </c>
-      <c r="V109">
+      <c r="U109">
+        <v>186</v>
+      </c>
+      <c r="V109" t="s">
+        <v>132</v>
+      </c>
+      <c r="W109">
         <v>8619</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>296</v>
       </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
       <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:26">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9207,7 +9537,7 @@
         <v>108</v>
       </c>
       <c r="L110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="M110">
         <v>188</v>
@@ -9233,23 +9563,26 @@
       <c r="T110">
         <v>188</v>
       </c>
-      <c r="U110" t="s">
-        <v>132</v>
-      </c>
-      <c r="V110">
+      <c r="U110">
+        <v>188</v>
+      </c>
+      <c r="V110" t="s">
+        <v>133</v>
+      </c>
+      <c r="W110">
         <v>8837</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>305</v>
       </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
       <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:26">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9284,7 +9617,7 @@
         <v>109</v>
       </c>
       <c r="L111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="M111">
         <v>190</v>
@@ -9310,23 +9643,26 @@
       <c r="T111">
         <v>190</v>
       </c>
-      <c r="U111" t="s">
-        <v>133</v>
-      </c>
-      <c r="V111">
+      <c r="U111">
+        <v>190</v>
+      </c>
+      <c r="V111" t="s">
+        <v>134</v>
+      </c>
+      <c r="W111">
         <v>8998</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>308</v>
       </c>
-      <c r="X111">
-        <v>0</v>
-      </c>
       <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:26">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9354,19 +9690,22 @@
       <c r="I112">
         <v>110</v>
       </c>
-      <c r="U112" t="s">
-        <v>134</v>
-      </c>
-      <c r="V112">
+      <c r="J112">
+        <v>110</v>
+      </c>
+      <c r="V112" t="s">
+        <v>135</v>
+      </c>
+      <c r="W112">
         <v>8998</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>308</v>
       </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
       <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -779,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +864,11 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -926,23 +932,26 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1006,14 +1015,14 @@
       <c r="U3">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3">
+      <c r="V3">
         <v>1</v>
       </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1021,8 +1030,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1086,14 +1098,14 @@
       <c r="U4">
         <v>2</v>
       </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4">
+      <c r="V4">
         <v>2</v>
       </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
       <c r="X4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1101,8 +1113,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1166,23 +1181,26 @@
       <c r="U5">
         <v>3</v>
       </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5">
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5">
         <v>2</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1246,23 +1264,26 @@
       <c r="U6">
         <v>4</v>
       </c>
-      <c r="V6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6">
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6">
         <v>2</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1326,23 +1347,26 @@
       <c r="U7">
         <v>5</v>
       </c>
-      <c r="V7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7">
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7">
         <v>2</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1406,23 +1430,26 @@
       <c r="U8">
         <v>6</v>
       </c>
-      <c r="V8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8">
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8">
         <v>2</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1486,23 +1513,26 @@
       <c r="U9">
         <v>7</v>
       </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9">
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9">
         <v>2</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1566,23 +1596,26 @@
       <c r="U10">
         <v>8</v>
       </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10">
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
         <v>2</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1646,23 +1679,26 @@
       <c r="U11">
         <v>9</v>
       </c>
-      <c r="V11" t="s">
-        <v>34</v>
-      </c>
-      <c r="W11">
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11">
         <v>2</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1726,23 +1762,26 @@
       <c r="U12">
         <v>10</v>
       </c>
-      <c r="V12" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12">
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12">
         <v>2</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1806,23 +1845,26 @@
       <c r="U13">
         <v>11</v>
       </c>
-      <c r="V13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13">
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>1</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1886,23 +1928,26 @@
       <c r="U14">
         <v>12</v>
       </c>
-      <c r="V14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14">
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>1</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1966,23 +2011,26 @@
       <c r="U15">
         <v>13</v>
       </c>
-      <c r="V15" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15">
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15">
         <v>2</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2046,23 +2094,26 @@
       <c r="U16">
         <v>14</v>
       </c>
-      <c r="V16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16">
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16">
         <v>2</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2126,23 +2177,26 @@
       <c r="U17">
         <v>15</v>
       </c>
-      <c r="V17" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17">
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17">
         <v>2</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2206,23 +2260,26 @@
       <c r="U18">
         <v>16</v>
       </c>
-      <c r="V18" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18">
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18">
         <v>2</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>1</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2286,23 +2343,26 @@
       <c r="U19">
         <v>17</v>
       </c>
-      <c r="V19" t="s">
-        <v>42</v>
-      </c>
-      <c r="W19">
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2366,23 +2426,26 @@
       <c r="U20">
         <v>18</v>
       </c>
-      <c r="V20" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20">
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20">
         <v>2</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
       <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2446,23 +2509,26 @@
       <c r="U21">
         <v>19</v>
       </c>
-      <c r="V21" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21">
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21">
         <v>2</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
       <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2526,23 +2592,26 @@
       <c r="U22">
         <v>20</v>
       </c>
-      <c r="V22" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22">
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22">
         <v>2</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>1</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2606,23 +2675,26 @@
       <c r="U23">
         <v>21</v>
       </c>
-      <c r="V23" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23">
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23">
         <v>2</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2686,23 +2758,26 @@
       <c r="U24">
         <v>22</v>
       </c>
-      <c r="V24" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24">
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24">
         <v>2</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>1</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2766,23 +2841,26 @@
       <c r="U25">
         <v>23</v>
       </c>
-      <c r="V25" t="s">
-        <v>48</v>
-      </c>
-      <c r="W25">
+      <c r="V25">
+        <v>23</v>
+      </c>
+      <c r="W25" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>1</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2846,23 +2924,26 @@
       <c r="U26">
         <v>24</v>
       </c>
-      <c r="V26" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26">
+      <c r="V26">
+        <v>24</v>
+      </c>
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>1</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2926,23 +3007,26 @@
       <c r="U27">
         <v>25</v>
       </c>
-      <c r="V27" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27">
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27">
         <v>3</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>1</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3006,23 +3090,26 @@
       <c r="U28">
         <v>26</v>
       </c>
-      <c r="V28" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28">
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28">
         <v>3</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>1</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3086,23 +3173,26 @@
       <c r="U29">
         <v>27</v>
       </c>
-      <c r="V29" t="s">
-        <v>52</v>
-      </c>
-      <c r="W29">
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29">
         <v>3</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
       <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>1</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3166,23 +3256,26 @@
       <c r="U30">
         <v>28</v>
       </c>
-      <c r="V30" t="s">
-        <v>53</v>
-      </c>
-      <c r="W30">
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30">
         <v>155</v>
       </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3220,7 +3313,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>30</v>
@@ -3246,23 +3339,26 @@
       <c r="U31">
         <v>30</v>
       </c>
-      <c r="V31" t="s">
-        <v>54</v>
-      </c>
-      <c r="W31">
+      <c r="V31">
+        <v>30</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31">
         <v>201</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3300,7 +3396,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>32</v>
@@ -3326,23 +3422,26 @@
       <c r="U32">
         <v>32</v>
       </c>
-      <c r="V32" t="s">
-        <v>55</v>
-      </c>
-      <c r="W32">
+      <c r="V32">
+        <v>32</v>
+      </c>
+      <c r="W32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32">
         <v>226</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3380,7 +3479,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>34</v>
@@ -3406,23 +3505,26 @@
       <c r="U33">
         <v>34</v>
       </c>
-      <c r="V33" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33">
+      <c r="V33">
+        <v>34</v>
+      </c>
+      <c r="W33" t="s">
+        <v>57</v>
+      </c>
+      <c r="X33">
         <v>238</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3460,7 +3562,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>36</v>
@@ -3486,23 +3588,26 @@
       <c r="U34">
         <v>36</v>
       </c>
-      <c r="V34" t="s">
-        <v>57</v>
-      </c>
-      <c r="W34">
+      <c r="V34">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X34">
         <v>293</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>3</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3540,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>38</v>
@@ -3566,23 +3671,26 @@
       <c r="U35">
         <v>38</v>
       </c>
-      <c r="V35" t="s">
-        <v>58</v>
-      </c>
-      <c r="W35">
+      <c r="V35">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s">
+        <v>59</v>
+      </c>
+      <c r="X35">
         <v>341</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>3</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3620,7 +3728,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>40</v>
@@ -3646,23 +3754,26 @@
       <c r="U36">
         <v>40</v>
       </c>
-      <c r="V36" t="s">
-        <v>59</v>
-      </c>
-      <c r="W36">
+      <c r="V36">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s">
+        <v>60</v>
+      </c>
+      <c r="X36">
         <v>413</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>6</v>
       </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3700,7 +3811,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>42</v>
@@ -3726,23 +3837,26 @@
       <c r="U37">
         <v>42</v>
       </c>
-      <c r="V37" t="s">
-        <v>60</v>
-      </c>
-      <c r="W37">
+      <c r="V37">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+      <c r="X37">
         <v>484</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>7</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3780,7 +3894,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>44</v>
@@ -3806,23 +3920,26 @@
       <c r="U38">
         <v>44</v>
       </c>
-      <c r="V38" t="s">
-        <v>61</v>
-      </c>
-      <c r="W38">
+      <c r="V38">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s">
+        <v>62</v>
+      </c>
+      <c r="X38">
         <v>515</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>7</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3860,7 +3977,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>46</v>
@@ -3886,23 +4003,26 @@
       <c r="U39">
         <v>46</v>
       </c>
-      <c r="V39" t="s">
-        <v>62</v>
-      </c>
-      <c r="W39">
+      <c r="V39">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s">
+        <v>63</v>
+      </c>
+      <c r="X39">
         <v>603</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>7</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3940,7 +4060,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>48</v>
@@ -3966,23 +4086,26 @@
       <c r="U40">
         <v>48</v>
       </c>
-      <c r="V40" t="s">
-        <v>63</v>
-      </c>
-      <c r="W40">
+      <c r="V40">
+        <v>48</v>
+      </c>
+      <c r="W40" t="s">
+        <v>64</v>
+      </c>
+      <c r="X40">
         <v>733</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>9</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4020,7 +4143,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>50</v>
@@ -4046,23 +4169,26 @@
       <c r="U41">
         <v>50</v>
       </c>
-      <c r="V41" t="s">
-        <v>64</v>
-      </c>
-      <c r="W41">
+      <c r="V41">
+        <v>50</v>
+      </c>
+      <c r="W41" t="s">
+        <v>65</v>
+      </c>
+      <c r="X41">
         <v>849</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>15</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4100,7 +4226,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>52</v>
@@ -4126,23 +4252,26 @@
       <c r="U42">
         <v>52</v>
       </c>
-      <c r="V42" t="s">
-        <v>65</v>
-      </c>
-      <c r="W42">
+      <c r="V42">
+        <v>52</v>
+      </c>
+      <c r="W42" t="s">
+        <v>66</v>
+      </c>
+      <c r="X42">
         <v>966</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>16</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4180,7 +4309,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N43">
         <v>54</v>
@@ -4206,23 +4335,26 @@
       <c r="U43">
         <v>54</v>
       </c>
-      <c r="V43" t="s">
-        <v>66</v>
-      </c>
-      <c r="W43">
+      <c r="V43">
+        <v>54</v>
+      </c>
+      <c r="W43" t="s">
+        <v>67</v>
+      </c>
+      <c r="X43">
         <v>1112</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>17</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4260,7 +4392,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>56</v>
@@ -4286,23 +4418,26 @@
       <c r="U44">
         <v>56</v>
       </c>
-      <c r="V44" t="s">
-        <v>67</v>
-      </c>
-      <c r="W44">
+      <c r="V44">
+        <v>56</v>
+      </c>
+      <c r="W44" t="s">
+        <v>68</v>
+      </c>
+      <c r="X44">
         <v>1209</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>18</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4340,7 +4475,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>58</v>
@@ -4366,23 +4501,26 @@
       <c r="U45">
         <v>58</v>
       </c>
-      <c r="V45" t="s">
-        <v>68</v>
-      </c>
-      <c r="W45">
+      <c r="V45">
+        <v>58</v>
+      </c>
+      <c r="W45" t="s">
+        <v>69</v>
+      </c>
+      <c r="X45">
         <v>1326</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>19</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4420,7 +4558,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N46">
         <v>60</v>
@@ -4446,23 +4584,26 @@
       <c r="U46">
         <v>60</v>
       </c>
-      <c r="V46" t="s">
-        <v>69</v>
-      </c>
-      <c r="W46">
+      <c r="V46">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>70</v>
+      </c>
+      <c r="X46">
         <v>1404</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>19</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4500,7 +4641,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N47">
         <v>62</v>
@@ -4526,23 +4667,26 @@
       <c r="U47">
         <v>62</v>
       </c>
-      <c r="V47" t="s">
-        <v>70</v>
-      </c>
-      <c r="W47">
+      <c r="V47">
+        <v>62</v>
+      </c>
+      <c r="W47" t="s">
+        <v>71</v>
+      </c>
+      <c r="X47">
         <v>1454</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>31</v>
       </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4580,7 +4724,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>64</v>
@@ -4606,23 +4750,26 @@
       <c r="U48">
         <v>64</v>
       </c>
-      <c r="V48" t="s">
-        <v>71</v>
-      </c>
-      <c r="W48">
+      <c r="V48">
+        <v>64</v>
+      </c>
+      <c r="W48" t="s">
+        <v>72</v>
+      </c>
+      <c r="X48">
         <v>1530</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>36</v>
       </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4660,7 +4807,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>66</v>
@@ -4686,23 +4833,26 @@
       <c r="U49">
         <v>66</v>
       </c>
-      <c r="V49" t="s">
-        <v>72</v>
-      </c>
-      <c r="W49">
+      <c r="V49">
+        <v>66</v>
+      </c>
+      <c r="W49" t="s">
+        <v>73</v>
+      </c>
+      <c r="X49">
         <v>1628</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>40</v>
       </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4740,7 +4890,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N50">
         <v>68</v>
@@ -4766,23 +4916,26 @@
       <c r="U50">
         <v>68</v>
       </c>
-      <c r="V50" t="s">
-        <v>73</v>
-      </c>
-      <c r="W50">
+      <c r="V50">
+        <v>68</v>
+      </c>
+      <c r="W50" t="s">
+        <v>74</v>
+      </c>
+      <c r="X50">
         <v>1693</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>44</v>
       </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4820,7 +4973,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N51">
         <v>70</v>
@@ -4846,23 +4999,26 @@
       <c r="U51">
         <v>70</v>
       </c>
-      <c r="V51" t="s">
-        <v>74</v>
-      </c>
-      <c r="W51">
+      <c r="V51">
+        <v>70</v>
+      </c>
+      <c r="W51" t="s">
+        <v>75</v>
+      </c>
+      <c r="X51">
         <v>1761</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>45</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
       <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4900,7 +5056,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N52">
         <v>72</v>
@@ -4926,23 +5082,26 @@
       <c r="U52">
         <v>72</v>
       </c>
-      <c r="V52" t="s">
-        <v>75</v>
-      </c>
-      <c r="W52">
+      <c r="V52">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s">
+        <v>76</v>
+      </c>
+      <c r="X52">
         <v>1804</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>45</v>
       </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
       <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4980,7 +5139,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="N53">
         <v>74</v>
@@ -5006,23 +5165,26 @@
       <c r="U53">
         <v>74</v>
       </c>
-      <c r="V53" t="s">
-        <v>76</v>
-      </c>
-      <c r="W53">
+      <c r="V53">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X53">
         <v>1847</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>47</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
       <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5060,7 +5222,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N54">
         <v>76</v>
@@ -5086,23 +5248,26 @@
       <c r="U54">
         <v>76</v>
       </c>
-      <c r="V54" t="s">
-        <v>77</v>
-      </c>
-      <c r="W54">
+      <c r="V54">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s">
+        <v>78</v>
+      </c>
+      <c r="X54">
         <v>1930</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>53</v>
       </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
       <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5140,7 +5305,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="N55">
         <v>78</v>
@@ -5166,23 +5331,26 @@
       <c r="U55">
         <v>78</v>
       </c>
-      <c r="V55" t="s">
+      <c r="V55">
         <v>78</v>
       </c>
-      <c r="W55">
+      <c r="W55" t="s">
+        <v>79</v>
+      </c>
+      <c r="X55">
         <v>2012</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>60</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
       <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5220,7 +5388,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N56">
         <v>80</v>
@@ -5246,23 +5414,26 @@
       <c r="U56">
         <v>80</v>
       </c>
-      <c r="V56" t="s">
-        <v>79</v>
-      </c>
-      <c r="W56">
+      <c r="V56">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s">
+        <v>80</v>
+      </c>
+      <c r="X56">
         <v>2087</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>63</v>
       </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
       <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5300,7 +5471,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="N57">
         <v>82</v>
@@ -5326,23 +5497,26 @@
       <c r="U57">
         <v>82</v>
       </c>
-      <c r="V57" t="s">
-        <v>80</v>
-      </c>
-      <c r="W57">
+      <c r="V57">
+        <v>82</v>
+      </c>
+      <c r="W57" t="s">
+        <v>81</v>
+      </c>
+      <c r="X57">
         <v>2158</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>70</v>
       </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
       <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5380,7 +5554,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="N58">
         <v>84</v>
@@ -5406,23 +5580,26 @@
       <c r="U58">
         <v>84</v>
       </c>
-      <c r="V58" t="s">
-        <v>81</v>
-      </c>
-      <c r="W58">
+      <c r="V58">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s">
+        <v>82</v>
+      </c>
+      <c r="X58">
         <v>2213</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>71</v>
       </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
       <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5460,7 +5637,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="N59">
         <v>86</v>
@@ -5486,23 +5663,26 @@
       <c r="U59">
         <v>86</v>
       </c>
-      <c r="V59" t="s">
-        <v>82</v>
-      </c>
-      <c r="W59">
+      <c r="V59">
+        <v>86</v>
+      </c>
+      <c r="W59" t="s">
+        <v>83</v>
+      </c>
+      <c r="X59">
         <v>2268</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>71</v>
       </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
       <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5540,7 +5720,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="N60">
         <v>88</v>
@@ -5566,23 +5746,26 @@
       <c r="U60">
         <v>88</v>
       </c>
-      <c r="V60" t="s">
-        <v>83</v>
-      </c>
-      <c r="W60">
+      <c r="V60">
+        <v>88</v>
+      </c>
+      <c r="W60" t="s">
+        <v>84</v>
+      </c>
+      <c r="X60">
         <v>2325</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>72</v>
       </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
       <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5620,7 +5803,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="N61">
         <v>90</v>
@@ -5646,23 +5829,26 @@
       <c r="U61">
         <v>90</v>
       </c>
-      <c r="V61" t="s">
-        <v>84</v>
-      </c>
-      <c r="W61">
+      <c r="V61">
+        <v>90</v>
+      </c>
+      <c r="W61" t="s">
+        <v>85</v>
+      </c>
+      <c r="X61">
         <v>2491</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>96</v>
       </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
       <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5700,7 +5886,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="N62">
         <v>92</v>
@@ -5726,23 +5912,26 @@
       <c r="U62">
         <v>92</v>
       </c>
-      <c r="V62" t="s">
-        <v>85</v>
-      </c>
-      <c r="W62">
+      <c r="V62">
+        <v>92</v>
+      </c>
+      <c r="W62" t="s">
+        <v>86</v>
+      </c>
+      <c r="X62">
         <v>2643</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>100</v>
       </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
       <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5780,7 +5969,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="N63">
         <v>94</v>
@@ -5806,23 +5995,26 @@
       <c r="U63">
         <v>94</v>
       </c>
-      <c r="V63" t="s">
-        <v>86</v>
-      </c>
-      <c r="W63">
+      <c r="V63">
+        <v>94</v>
+      </c>
+      <c r="W63" t="s">
+        <v>87</v>
+      </c>
+      <c r="X63">
         <v>2826</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>102</v>
       </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
       <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5860,7 +6052,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="N64">
         <v>96</v>
@@ -5886,23 +6078,26 @@
       <c r="U64">
         <v>96</v>
       </c>
-      <c r="V64" t="s">
-        <v>87</v>
-      </c>
-      <c r="W64">
+      <c r="V64">
+        <v>96</v>
+      </c>
+      <c r="W64" t="s">
+        <v>88</v>
+      </c>
+      <c r="X64">
         <v>2943</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>111</v>
       </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
       <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5940,7 +6135,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N65">
         <v>98</v>
@@ -5966,23 +6161,26 @@
       <c r="U65">
         <v>98</v>
       </c>
-      <c r="V65" t="s">
-        <v>88</v>
-      </c>
-      <c r="W65">
+      <c r="V65">
+        <v>98</v>
+      </c>
+      <c r="W65" t="s">
+        <v>89</v>
+      </c>
+      <c r="X65">
         <v>2943</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>111</v>
       </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
       <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6020,7 +6218,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N66">
         <v>100</v>
@@ -6046,23 +6244,26 @@
       <c r="U66">
         <v>100</v>
       </c>
-      <c r="V66" t="s">
-        <v>89</v>
-      </c>
-      <c r="W66">
+      <c r="V66">
+        <v>100</v>
+      </c>
+      <c r="W66" t="s">
+        <v>90</v>
+      </c>
+      <c r="X66">
         <v>3043</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>111</v>
       </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
       <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6100,7 +6301,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N67">
         <v>102</v>
@@ -6126,23 +6327,26 @@
       <c r="U67">
         <v>102</v>
       </c>
-      <c r="V67" t="s">
-        <v>90</v>
-      </c>
-      <c r="W67">
+      <c r="V67">
+        <v>102</v>
+      </c>
+      <c r="W67" t="s">
+        <v>91</v>
+      </c>
+      <c r="X67">
         <v>3141</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>113</v>
       </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
       <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6180,7 +6384,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N68">
         <v>104</v>
@@ -6206,23 +6410,26 @@
       <c r="U68">
         <v>104</v>
       </c>
-      <c r="V68" t="s">
-        <v>91</v>
-      </c>
-      <c r="W68">
+      <c r="V68">
+        <v>104</v>
+      </c>
+      <c r="W68" t="s">
+        <v>92</v>
+      </c>
+      <c r="X68">
         <v>3432</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>120</v>
       </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
       <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6260,7 +6467,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N69">
         <v>106</v>
@@ -6286,23 +6493,26 @@
       <c r="U69">
         <v>106</v>
       </c>
-      <c r="V69" t="s">
-        <v>92</v>
-      </c>
-      <c r="W69">
+      <c r="V69">
+        <v>106</v>
+      </c>
+      <c r="W69" t="s">
+        <v>93</v>
+      </c>
+      <c r="X69">
         <v>3432</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>120</v>
       </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
       <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6340,7 +6550,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="N70">
         <v>108</v>
@@ -6366,23 +6576,26 @@
       <c r="U70">
         <v>108</v>
       </c>
-      <c r="V70" t="s">
-        <v>93</v>
-      </c>
-      <c r="W70">
+      <c r="V70">
+        <v>108</v>
+      </c>
+      <c r="W70" t="s">
+        <v>94</v>
+      </c>
+      <c r="X70">
         <v>3564</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>124</v>
       </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
       <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6420,7 +6633,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="N71">
         <v>110</v>
@@ -6446,23 +6659,26 @@
       <c r="U71">
         <v>110</v>
       </c>
-      <c r="V71" t="s">
-        <v>94</v>
-      </c>
-      <c r="W71">
+      <c r="V71">
+        <v>110</v>
+      </c>
+      <c r="W71" t="s">
+        <v>95</v>
+      </c>
+      <c r="X71">
         <v>3711</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>134</v>
       </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6500,7 +6716,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="N72">
         <v>112</v>
@@ -6526,23 +6742,26 @@
       <c r="U72">
         <v>112</v>
       </c>
-      <c r="V72" t="s">
-        <v>95</v>
-      </c>
-      <c r="W72">
+      <c r="V72">
+        <v>112</v>
+      </c>
+      <c r="W72" t="s">
+        <v>96</v>
+      </c>
+      <c r="X72">
         <v>3927</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>139</v>
       </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
       <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6580,7 +6799,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="N73">
         <v>114</v>
@@ -6606,23 +6825,26 @@
       <c r="U73">
         <v>114</v>
       </c>
-      <c r="V73" t="s">
-        <v>96</v>
-      </c>
-      <c r="W73">
+      <c r="V73">
+        <v>114</v>
+      </c>
+      <c r="W73" t="s">
+        <v>97</v>
+      </c>
+      <c r="X73">
         <v>3927</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>139</v>
       </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
       <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6660,7 +6882,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="N74">
         <v>116</v>
@@ -6686,23 +6908,26 @@
       <c r="U74">
         <v>116</v>
       </c>
-      <c r="V74" t="s">
-        <v>97</v>
-      </c>
-      <c r="W74">
+      <c r="V74">
+        <v>116</v>
+      </c>
+      <c r="W74" t="s">
+        <v>98</v>
+      </c>
+      <c r="X74">
         <v>4020</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>144</v>
       </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
       <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6740,7 +6965,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="N75">
         <v>118</v>
@@ -6766,23 +6991,26 @@
       <c r="U75">
         <v>118</v>
       </c>
-      <c r="V75" t="s">
-        <v>98</v>
-      </c>
-      <c r="W75">
+      <c r="V75">
+        <v>118</v>
+      </c>
+      <c r="W75" t="s">
+        <v>99</v>
+      </c>
+      <c r="X75">
         <v>4319</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>158</v>
       </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
       <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6820,7 +7048,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="N76">
         <v>120</v>
@@ -6846,23 +7074,26 @@
       <c r="U76">
         <v>120</v>
       </c>
-      <c r="V76" t="s">
-        <v>99</v>
-      </c>
-      <c r="W76">
+      <c r="V76">
+        <v>120</v>
+      </c>
+      <c r="W76" t="s">
+        <v>100</v>
+      </c>
+      <c r="X76">
         <v>4319</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>158</v>
       </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
       <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6900,7 +7131,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="N77">
         <v>122</v>
@@ -6926,23 +7157,26 @@
       <c r="U77">
         <v>122</v>
       </c>
-      <c r="V77" t="s">
-        <v>100</v>
-      </c>
-      <c r="W77">
+      <c r="V77">
+        <v>122</v>
+      </c>
+      <c r="W77" t="s">
+        <v>101</v>
+      </c>
+      <c r="X77">
         <v>4429</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>165</v>
       </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
       <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6980,7 +7214,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="N78">
         <v>124</v>
@@ -7006,23 +7240,26 @@
       <c r="U78">
         <v>124</v>
       </c>
-      <c r="V78" t="s">
-        <v>101</v>
-      </c>
-      <c r="W78">
+      <c r="V78">
+        <v>124</v>
+      </c>
+      <c r="W78" t="s">
+        <v>102</v>
+      </c>
+      <c r="X78">
         <v>4662</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>169</v>
       </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
       <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7060,7 +7297,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="N79">
         <v>126</v>
@@ -7086,23 +7323,26 @@
       <c r="U79">
         <v>126</v>
       </c>
-      <c r="V79" t="s">
-        <v>102</v>
-      </c>
-      <c r="W79">
+      <c r="V79">
+        <v>126</v>
+      </c>
+      <c r="W79" t="s">
+        <v>103</v>
+      </c>
+      <c r="X79">
         <v>4776</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>175</v>
       </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
       <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7140,7 +7380,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="N80">
         <v>128</v>
@@ -7166,23 +7406,26 @@
       <c r="U80">
         <v>128</v>
       </c>
-      <c r="V80" t="s">
-        <v>103</v>
-      </c>
-      <c r="W80">
+      <c r="V80">
+        <v>128</v>
+      </c>
+      <c r="W80" t="s">
+        <v>104</v>
+      </c>
+      <c r="X80">
         <v>5065</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>175</v>
       </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
       <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7220,7 +7463,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="N81">
         <v>130</v>
@@ -7246,23 +7489,26 @@
       <c r="U81">
         <v>130</v>
       </c>
-      <c r="V81" t="s">
-        <v>104</v>
-      </c>
-      <c r="W81">
+      <c r="V81">
+        <v>130</v>
+      </c>
+      <c r="W81" t="s">
+        <v>105</v>
+      </c>
+      <c r="X81">
         <v>5161</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>190</v>
       </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
       <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7300,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="N82">
         <v>132</v>
@@ -7326,23 +7572,26 @@
       <c r="U82">
         <v>132</v>
       </c>
-      <c r="V82" t="s">
-        <v>105</v>
-      </c>
-      <c r="W82">
+      <c r="V82">
+        <v>132</v>
+      </c>
+      <c r="W82" t="s">
+        <v>106</v>
+      </c>
+      <c r="X82">
         <v>5161</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>190</v>
       </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
       <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7380,7 +7629,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="N83">
         <v>134</v>
@@ -7406,23 +7655,26 @@
       <c r="U83">
         <v>134</v>
       </c>
-      <c r="V83" t="s">
-        <v>106</v>
-      </c>
-      <c r="W83">
+      <c r="V83">
+        <v>134</v>
+      </c>
+      <c r="W83" t="s">
+        <v>107</v>
+      </c>
+      <c r="X83">
         <v>5391</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>200</v>
       </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
       <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7460,7 +7712,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="N84">
         <v>136</v>
@@ -7486,23 +7738,26 @@
       <c r="U84">
         <v>136</v>
       </c>
-      <c r="V84" t="s">
-        <v>107</v>
-      </c>
-      <c r="W84">
+      <c r="V84">
+        <v>136</v>
+      </c>
+      <c r="W84" t="s">
+        <v>108</v>
+      </c>
+      <c r="X84">
         <v>5391</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>200</v>
       </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
       <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7540,7 +7795,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N85">
         <v>138</v>
@@ -7566,23 +7821,26 @@
       <c r="U85">
         <v>138</v>
       </c>
-      <c r="V85" t="s">
-        <v>108</v>
-      </c>
-      <c r="W85">
+      <c r="V85">
+        <v>138</v>
+      </c>
+      <c r="W85" t="s">
+        <v>109</v>
+      </c>
+      <c r="X85">
         <v>5662</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>209</v>
       </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
       <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7620,7 +7878,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="N86">
         <v>140</v>
@@ -7646,23 +7904,26 @@
       <c r="U86">
         <v>140</v>
       </c>
-      <c r="V86" t="s">
-        <v>109</v>
-      </c>
-      <c r="W86">
+      <c r="V86">
+        <v>140</v>
+      </c>
+      <c r="W86" t="s">
+        <v>110</v>
+      </c>
+      <c r="X86">
         <v>5836</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>209</v>
       </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
       <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7700,7 +7961,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N87">
         <v>142</v>
@@ -7726,23 +7987,26 @@
       <c r="U87">
         <v>142</v>
       </c>
-      <c r="V87" t="s">
-        <v>110</v>
-      </c>
-      <c r="W87">
+      <c r="V87">
+        <v>142</v>
+      </c>
+      <c r="W87" t="s">
+        <v>111</v>
+      </c>
+      <c r="X87">
         <v>5836</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>209</v>
       </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
       <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7780,7 +8044,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="N88">
         <v>144</v>
@@ -7806,23 +8070,26 @@
       <c r="U88">
         <v>144</v>
       </c>
-      <c r="V88" t="s">
-        <v>111</v>
-      </c>
-      <c r="W88">
+      <c r="V88">
+        <v>144</v>
+      </c>
+      <c r="W88" t="s">
+        <v>112</v>
+      </c>
+      <c r="X88">
         <v>6026</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>222</v>
       </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
       <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7860,7 +8127,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="N89">
         <v>146</v>
@@ -7886,23 +8153,26 @@
       <c r="U89">
         <v>146</v>
       </c>
-      <c r="V89" t="s">
-        <v>112</v>
-      </c>
-      <c r="W89">
+      <c r="V89">
+        <v>146</v>
+      </c>
+      <c r="W89" t="s">
+        <v>113</v>
+      </c>
+      <c r="X89">
         <v>6140</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>230</v>
       </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
       <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7940,7 +8210,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="N90">
         <v>148</v>
@@ -7966,23 +8236,26 @@
       <c r="U90">
         <v>148</v>
       </c>
-      <c r="V90" t="s">
-        <v>113</v>
-      </c>
-      <c r="W90">
+      <c r="V90">
+        <v>148</v>
+      </c>
+      <c r="W90" t="s">
+        <v>114</v>
+      </c>
+      <c r="X90">
         <v>6140</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>230</v>
       </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
       <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8020,7 +8293,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="N91">
         <v>150</v>
@@ -8046,23 +8319,26 @@
       <c r="U91">
         <v>150</v>
       </c>
-      <c r="V91" t="s">
-        <v>114</v>
-      </c>
-      <c r="W91">
+      <c r="V91">
+        <v>150</v>
+      </c>
+      <c r="W91" t="s">
+        <v>115</v>
+      </c>
+      <c r="X91">
         <v>6315</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>241</v>
       </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
       <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:27">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8100,7 +8376,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="N92">
         <v>152</v>
@@ -8126,23 +8402,26 @@
       <c r="U92">
         <v>152</v>
       </c>
-      <c r="V92" t="s">
-        <v>115</v>
-      </c>
-      <c r="W92">
+      <c r="V92">
+        <v>152</v>
+      </c>
+      <c r="W92" t="s">
+        <v>116</v>
+      </c>
+      <c r="X92">
         <v>6559</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>249</v>
       </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
       <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:27">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8180,7 +8459,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="N93">
         <v>154</v>
@@ -8206,23 +8485,26 @@
       <c r="U93">
         <v>154</v>
       </c>
-      <c r="V93" t="s">
-        <v>116</v>
-      </c>
-      <c r="W93">
+      <c r="V93">
+        <v>154</v>
+      </c>
+      <c r="W93" t="s">
+        <v>117</v>
+      </c>
+      <c r="X93">
         <v>6559</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>249</v>
       </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
       <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:27">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8260,7 +8542,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="N94">
         <v>156</v>
@@ -8286,23 +8568,26 @@
       <c r="U94">
         <v>156</v>
       </c>
-      <c r="V94" t="s">
-        <v>117</v>
-      </c>
-      <c r="W94">
+      <c r="V94">
+        <v>156</v>
+      </c>
+      <c r="W94" t="s">
+        <v>118</v>
+      </c>
+      <c r="X94">
         <v>6701</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>249</v>
       </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
       <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:27">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8340,7 +8625,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="N95">
         <v>158</v>
@@ -8366,23 +8651,26 @@
       <c r="U95">
         <v>158</v>
       </c>
-      <c r="V95" t="s">
-        <v>118</v>
-      </c>
-      <c r="W95">
+      <c r="V95">
+        <v>158</v>
+      </c>
+      <c r="W95" t="s">
+        <v>119</v>
+      </c>
+      <c r="X95">
         <v>6797</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>249</v>
       </c>
-      <c r="Y95">
-        <v>0</v>
-      </c>
       <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:27">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8420,7 +8708,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="N96">
         <v>160</v>
@@ -8446,23 +8734,26 @@
       <c r="U96">
         <v>160</v>
       </c>
-      <c r="V96" t="s">
-        <v>119</v>
-      </c>
-      <c r="W96">
+      <c r="V96">
+        <v>160</v>
+      </c>
+      <c r="W96" t="s">
+        <v>120</v>
+      </c>
+      <c r="X96">
         <v>6882</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>249</v>
       </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
       <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:27">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8500,7 +8791,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="N97">
         <v>162</v>
@@ -8526,23 +8817,26 @@
       <c r="U97">
         <v>162</v>
       </c>
-      <c r="V97" t="s">
-        <v>120</v>
-      </c>
-      <c r="W97">
+      <c r="V97">
+        <v>162</v>
+      </c>
+      <c r="W97" t="s">
+        <v>121</v>
+      </c>
+      <c r="X97">
         <v>7100</v>
       </c>
-      <c r="X97">
+      <c r="Y97">
         <v>260</v>
       </c>
-      <c r="Y97">
-        <v>0</v>
-      </c>
       <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:27">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8580,7 +8874,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="N98">
         <v>164</v>
@@ -8606,23 +8900,26 @@
       <c r="U98">
         <v>164</v>
       </c>
-      <c r="V98" t="s">
-        <v>121</v>
-      </c>
-      <c r="W98">
+      <c r="V98">
+        <v>164</v>
+      </c>
+      <c r="W98" t="s">
+        <v>122</v>
+      </c>
+      <c r="X98">
         <v>7100</v>
       </c>
-      <c r="X98">
+      <c r="Y98">
         <v>260</v>
       </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
       <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:27">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8660,7 +8957,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="N99">
         <v>166</v>
@@ -8686,23 +8983,26 @@
       <c r="U99">
         <v>166</v>
       </c>
-      <c r="V99" t="s">
-        <v>122</v>
-      </c>
-      <c r="W99">
+      <c r="V99">
+        <v>166</v>
+      </c>
+      <c r="W99" t="s">
+        <v>123</v>
+      </c>
+      <c r="X99">
         <v>7385</v>
       </c>
-      <c r="X99">
+      <c r="Y99">
         <v>269</v>
       </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
       <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:27">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8740,7 +9040,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="N100">
         <v>168</v>
@@ -8766,23 +9066,26 @@
       <c r="U100">
         <v>168</v>
       </c>
-      <c r="V100" t="s">
-        <v>123</v>
-      </c>
-      <c r="W100">
+      <c r="V100">
+        <v>168</v>
+      </c>
+      <c r="W100" t="s">
+        <v>124</v>
+      </c>
+      <c r="X100">
         <v>7481</v>
       </c>
-      <c r="X100">
+      <c r="Y100">
         <v>269</v>
       </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
       <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:27">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8820,7 +9123,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="N101">
         <v>170</v>
@@ -8846,23 +9149,26 @@
       <c r="U101">
         <v>170</v>
       </c>
-      <c r="V101" t="s">
-        <v>124</v>
-      </c>
-      <c r="W101">
+      <c r="V101">
+        <v>170</v>
+      </c>
+      <c r="W101" t="s">
+        <v>125</v>
+      </c>
+      <c r="X101">
         <v>7481</v>
       </c>
-      <c r="X101">
+      <c r="Y101">
         <v>269</v>
       </c>
-      <c r="Y101">
-        <v>0</v>
-      </c>
       <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:27">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8900,7 +9206,7 @@
         <v>100</v>
       </c>
       <c r="M102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="N102">
         <v>172</v>
@@ -8926,23 +9232,26 @@
       <c r="U102">
         <v>172</v>
       </c>
-      <c r="V102" t="s">
-        <v>125</v>
-      </c>
-      <c r="W102">
+      <c r="V102">
+        <v>172</v>
+      </c>
+      <c r="W102" t="s">
+        <v>126</v>
+      </c>
+      <c r="X102">
         <v>7554</v>
       </c>
-      <c r="X102">
+      <c r="Y102">
         <v>269</v>
       </c>
-      <c r="Y102">
-        <v>0</v>
-      </c>
       <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:27">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8980,7 +9289,7 @@
         <v>101</v>
       </c>
       <c r="M103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="N103">
         <v>174</v>
@@ -9006,23 +9315,26 @@
       <c r="U103">
         <v>174</v>
       </c>
-      <c r="V103" t="s">
-        <v>126</v>
-      </c>
-      <c r="W103">
+      <c r="V103">
+        <v>174</v>
+      </c>
+      <c r="W103" t="s">
+        <v>127</v>
+      </c>
+      <c r="X103">
         <v>7674</v>
       </c>
-      <c r="X103">
+      <c r="Y103">
         <v>276</v>
       </c>
-      <c r="Y103">
-        <v>0</v>
-      </c>
       <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:27">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9060,7 +9372,7 @@
         <v>102</v>
       </c>
       <c r="M104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="N104">
         <v>176</v>
@@ -9086,23 +9398,26 @@
       <c r="U104">
         <v>176</v>
       </c>
-      <c r="V104" t="s">
-        <v>127</v>
-      </c>
-      <c r="W104">
+      <c r="V104">
+        <v>176</v>
+      </c>
+      <c r="W104" t="s">
+        <v>128</v>
+      </c>
+      <c r="X104">
         <v>7798</v>
       </c>
-      <c r="X104">
+      <c r="Y104">
         <v>283</v>
       </c>
-      <c r="Y104">
-        <v>0</v>
-      </c>
       <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:27">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9140,7 +9455,7 @@
         <v>103</v>
       </c>
       <c r="M105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="N105">
         <v>178</v>
@@ -9166,23 +9481,26 @@
       <c r="U105">
         <v>178</v>
       </c>
-      <c r="V105" t="s">
-        <v>128</v>
-      </c>
-      <c r="W105">
+      <c r="V105">
+        <v>178</v>
+      </c>
+      <c r="W105" t="s">
+        <v>129</v>
+      </c>
+      <c r="X105">
         <v>7940</v>
       </c>
-      <c r="X105">
+      <c r="Y105">
         <v>288</v>
       </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
       <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:27">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9220,7 +9538,7 @@
         <v>104</v>
       </c>
       <c r="M106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="N106">
         <v>180</v>
@@ -9246,23 +9564,26 @@
       <c r="U106">
         <v>180</v>
       </c>
-      <c r="V106" t="s">
-        <v>129</v>
-      </c>
-      <c r="W106">
+      <c r="V106">
+        <v>180</v>
+      </c>
+      <c r="W106" t="s">
+        <v>130</v>
+      </c>
+      <c r="X106">
         <v>8345</v>
       </c>
-      <c r="X106">
+      <c r="Y106">
         <v>296</v>
       </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
       <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:27">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9300,7 +9621,7 @@
         <v>105</v>
       </c>
       <c r="M107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="N107">
         <v>182</v>
@@ -9326,23 +9647,26 @@
       <c r="U107">
         <v>182</v>
       </c>
-      <c r="V107" t="s">
-        <v>130</v>
-      </c>
-      <c r="W107">
+      <c r="V107">
+        <v>182</v>
+      </c>
+      <c r="W107" t="s">
+        <v>131</v>
+      </c>
+      <c r="X107">
         <v>8345</v>
       </c>
-      <c r="X107">
+      <c r="Y107">
         <v>296</v>
       </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
       <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:27">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9380,7 +9704,7 @@
         <v>106</v>
       </c>
       <c r="M108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="N108">
         <v>184</v>
@@ -9406,23 +9730,26 @@
       <c r="U108">
         <v>184</v>
       </c>
-      <c r="V108" t="s">
-        <v>131</v>
-      </c>
-      <c r="W108">
+      <c r="V108">
+        <v>184</v>
+      </c>
+      <c r="W108" t="s">
+        <v>132</v>
+      </c>
+      <c r="X108">
         <v>8619</v>
       </c>
-      <c r="X108">
+      <c r="Y108">
         <v>296</v>
       </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
       <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:27">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9460,7 +9787,7 @@
         <v>107</v>
       </c>
       <c r="M109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="N109">
         <v>186</v>
@@ -9486,23 +9813,26 @@
       <c r="U109">
         <v>186</v>
       </c>
-      <c r="V109" t="s">
-        <v>132</v>
-      </c>
-      <c r="W109">
+      <c r="V109">
+        <v>186</v>
+      </c>
+      <c r="W109" t="s">
+        <v>133</v>
+      </c>
+      <c r="X109">
         <v>8619</v>
       </c>
-      <c r="X109">
+      <c r="Y109">
         <v>296</v>
       </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
       <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:27">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9540,7 +9870,7 @@
         <v>108</v>
       </c>
       <c r="M110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="N110">
         <v>188</v>
@@ -9566,23 +9896,26 @@
       <c r="U110">
         <v>188</v>
       </c>
-      <c r="V110" t="s">
-        <v>133</v>
-      </c>
-      <c r="W110">
+      <c r="V110">
+        <v>188</v>
+      </c>
+      <c r="W110" t="s">
+        <v>134</v>
+      </c>
+      <c r="X110">
         <v>8837</v>
       </c>
-      <c r="X110">
+      <c r="Y110">
         <v>305</v>
       </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
       <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:27">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9620,7 +9953,7 @@
         <v>109</v>
       </c>
       <c r="M111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="N111">
         <v>190</v>
@@ -9646,23 +9979,26 @@
       <c r="U111">
         <v>190</v>
       </c>
-      <c r="V111" t="s">
-        <v>134</v>
-      </c>
-      <c r="W111">
+      <c r="V111">
+        <v>190</v>
+      </c>
+      <c r="W111" t="s">
+        <v>135</v>
+      </c>
+      <c r="X111">
         <v>8998</v>
       </c>
-      <c r="X111">
+      <c r="Y111">
         <v>308</v>
       </c>
-      <c r="Y111">
-        <v>0</v>
-      </c>
       <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:27">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9693,19 +10029,22 @@
       <c r="J112">
         <v>110</v>
       </c>
-      <c r="V112" t="s">
-        <v>135</v>
-      </c>
-      <c r="W112">
+      <c r="K112">
+        <v>110</v>
+      </c>
+      <c r="W112" t="s">
+        <v>136</v>
+      </c>
+      <c r="X112">
         <v>8998</v>
       </c>
-      <c r="X112">
+      <c r="Y112">
         <v>308</v>
       </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
       <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -782,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AG112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:33">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,8 +885,26 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:33">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -935,23 +971,41 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>26</v>
+      <c r="W2">
+        <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1018,23 +1072,41 @@
       <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
-        <v>27</v>
+      <c r="W3">
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:33">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1101,23 +1173,41 @@
       <c r="V4">
         <v>2</v>
       </c>
-      <c r="W4" t="s">
-        <v>28</v>
+      <c r="W4">
+        <v>2</v>
       </c>
       <c r="X4">
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:33">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1184,23 +1274,41 @@
       <c r="V5">
         <v>3</v>
       </c>
-      <c r="W5" t="s">
-        <v>29</v>
+      <c r="W5">
+        <v>3</v>
       </c>
       <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5">
         <v>2</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:33">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1267,23 +1375,41 @@
       <c r="V6">
         <v>4</v>
       </c>
-      <c r="W6" t="s">
-        <v>30</v>
+      <c r="W6">
+        <v>4</v>
       </c>
       <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6">
         <v>2</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:33">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1350,23 +1476,41 @@
       <c r="V7">
         <v>5</v>
       </c>
-      <c r="W7" t="s">
-        <v>31</v>
+      <c r="W7">
+        <v>5</v>
       </c>
       <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1433,23 +1577,41 @@
       <c r="V8">
         <v>6</v>
       </c>
-      <c r="W8" t="s">
-        <v>32</v>
+      <c r="W8">
+        <v>6</v>
       </c>
       <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8">
         <v>2</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:33">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1516,23 +1678,41 @@
       <c r="V9">
         <v>7</v>
       </c>
-      <c r="W9" t="s">
-        <v>33</v>
+      <c r="W9">
+        <v>7</v>
       </c>
       <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9">
         <v>2</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1599,23 +1779,41 @@
       <c r="V10">
         <v>8</v>
       </c>
-      <c r="W10" t="s">
-        <v>34</v>
+      <c r="W10">
+        <v>8</v>
       </c>
       <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD10">
         <v>2</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:33">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1682,23 +1880,41 @@
       <c r="V11">
         <v>9</v>
       </c>
-      <c r="W11" t="s">
-        <v>35</v>
+      <c r="W11">
+        <v>9</v>
       </c>
       <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11">
         <v>2</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:33">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1765,23 +1981,41 @@
       <c r="V12">
         <v>10</v>
       </c>
-      <c r="W12" t="s">
-        <v>36</v>
+      <c r="W12">
+        <v>10</v>
       </c>
       <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12">
         <v>2</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>1</v>
       </c>
-      <c r="AA12">
+      <c r="AG12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:33">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1848,23 +2082,41 @@
       <c r="V13">
         <v>11</v>
       </c>
-      <c r="W13" t="s">
-        <v>37</v>
+      <c r="W13">
+        <v>11</v>
       </c>
       <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13">
         <v>2</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>1</v>
       </c>
-      <c r="AA13">
+      <c r="AG13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:33">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1931,23 +2183,41 @@
       <c r="V14">
         <v>12</v>
       </c>
-      <c r="W14" t="s">
-        <v>38</v>
+      <c r="W14">
+        <v>12</v>
       </c>
       <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14">
         <v>2</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>1</v>
       </c>
-      <c r="AA14">
+      <c r="AG14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:33">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2014,23 +2284,41 @@
       <c r="V15">
         <v>13</v>
       </c>
-      <c r="W15" t="s">
-        <v>39</v>
+      <c r="W15">
+        <v>13</v>
       </c>
       <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15">
+        <v>13</v>
+      </c>
+      <c r="Z15">
+        <v>13</v>
+      </c>
+      <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15">
         <v>2</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>1</v>
       </c>
-      <c r="AA15">
+      <c r="AG15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:33">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2097,23 +2385,41 @@
       <c r="V16">
         <v>14</v>
       </c>
-      <c r="W16" t="s">
-        <v>40</v>
+      <c r="W16">
+        <v>14</v>
       </c>
       <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="Y16">
+        <v>14</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD16">
         <v>2</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>1</v>
       </c>
-      <c r="AA16">
+      <c r="AG16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:33">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2180,23 +2486,41 @@
       <c r="V17">
         <v>15</v>
       </c>
-      <c r="W17" t="s">
-        <v>41</v>
+      <c r="W17">
+        <v>15</v>
       </c>
       <c r="X17">
+        <v>15</v>
+      </c>
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+      <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17">
         <v>2</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>1</v>
       </c>
-      <c r="AA17">
+      <c r="AG17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:33">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2263,23 +2587,41 @@
       <c r="V18">
         <v>16</v>
       </c>
-      <c r="W18" t="s">
-        <v>42</v>
+      <c r="W18">
+        <v>16</v>
       </c>
       <c r="X18">
+        <v>16</v>
+      </c>
+      <c r="Y18">
+        <v>16</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD18">
         <v>2</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>1</v>
       </c>
-      <c r="AA18">
+      <c r="AG18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:33">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2346,23 +2688,41 @@
       <c r="V19">
         <v>17</v>
       </c>
-      <c r="W19" t="s">
-        <v>43</v>
+      <c r="W19">
+        <v>17</v>
       </c>
       <c r="X19">
+        <v>17</v>
+      </c>
+      <c r="Y19">
+        <v>17</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+      <c r="AA19">
+        <v>17</v>
+      </c>
+      <c r="AB19">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19">
         <v>2</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>1</v>
       </c>
-      <c r="AA19">
+      <c r="AG19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:33">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2429,23 +2789,41 @@
       <c r="V20">
         <v>18</v>
       </c>
-      <c r="W20" t="s">
-        <v>44</v>
+      <c r="W20">
+        <v>18</v>
       </c>
       <c r="X20">
+        <v>18</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>18</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD20">
         <v>2</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>1</v>
       </c>
-      <c r="AA20">
+      <c r="AG20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:33">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2512,23 +2890,41 @@
       <c r="V21">
         <v>19</v>
       </c>
-      <c r="W21" t="s">
-        <v>45</v>
+      <c r="W21">
+        <v>19</v>
       </c>
       <c r="X21">
+        <v>19</v>
+      </c>
+      <c r="Y21">
+        <v>19</v>
+      </c>
+      <c r="Z21">
+        <v>19</v>
+      </c>
+      <c r="AA21">
+        <v>19</v>
+      </c>
+      <c r="AB21">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21">
         <v>2</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>1</v>
       </c>
-      <c r="AA21">
+      <c r="AG21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:33">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2595,23 +2991,41 @@
       <c r="V22">
         <v>20</v>
       </c>
-      <c r="W22" t="s">
-        <v>46</v>
+      <c r="W22">
+        <v>20</v>
       </c>
       <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>20</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+      <c r="AA22">
+        <v>20</v>
+      </c>
+      <c r="AB22">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD22">
         <v>2</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
         <v>1</v>
       </c>
-      <c r="AA22">
+      <c r="AG22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:33">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2678,23 +3092,41 @@
       <c r="V23">
         <v>21</v>
       </c>
-      <c r="W23" t="s">
-        <v>47</v>
+      <c r="W23">
+        <v>21</v>
       </c>
       <c r="X23">
+        <v>21</v>
+      </c>
+      <c r="Y23">
+        <v>21</v>
+      </c>
+      <c r="Z23">
+        <v>21</v>
+      </c>
+      <c r="AA23">
+        <v>21</v>
+      </c>
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD23">
         <v>2</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>1</v>
       </c>
-      <c r="AA23">
+      <c r="AG23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:33">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2761,23 +3193,41 @@
       <c r="V24">
         <v>22</v>
       </c>
-      <c r="W24" t="s">
-        <v>48</v>
+      <c r="W24">
+        <v>22</v>
       </c>
       <c r="X24">
+        <v>22</v>
+      </c>
+      <c r="Y24">
+        <v>22</v>
+      </c>
+      <c r="Z24">
+        <v>22</v>
+      </c>
+      <c r="AA24">
+        <v>22</v>
+      </c>
+      <c r="AB24">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD24">
         <v>2</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>1</v>
       </c>
-      <c r="AA24">
+      <c r="AG24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:33">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2844,23 +3294,41 @@
       <c r="V25">
         <v>23</v>
       </c>
-      <c r="W25" t="s">
-        <v>49</v>
+      <c r="W25">
+        <v>23</v>
       </c>
       <c r="X25">
+        <v>23</v>
+      </c>
+      <c r="Y25">
+        <v>23</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+      <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD25">
         <v>3</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>1</v>
       </c>
-      <c r="AA25">
+      <c r="AG25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:33">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2927,23 +3395,41 @@
       <c r="V26">
         <v>24</v>
       </c>
-      <c r="W26" t="s">
-        <v>50</v>
+      <c r="W26">
+        <v>24</v>
       </c>
       <c r="X26">
+        <v>24</v>
+      </c>
+      <c r="Y26">
+        <v>24</v>
+      </c>
+      <c r="Z26">
+        <v>24</v>
+      </c>
+      <c r="AA26">
+        <v>24</v>
+      </c>
+      <c r="AB26">
+        <v>24</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26">
         <v>3</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>1</v>
       </c>
-      <c r="AA26">
+      <c r="AG26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:33">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3010,23 +3496,41 @@
       <c r="V27">
         <v>25</v>
       </c>
-      <c r="W27" t="s">
-        <v>51</v>
+      <c r="W27">
+        <v>25</v>
       </c>
       <c r="X27">
+        <v>25</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>25</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD27">
         <v>3</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
         <v>1</v>
       </c>
-      <c r="AA27">
+      <c r="AG27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:33">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3093,23 +3597,41 @@
       <c r="V28">
         <v>26</v>
       </c>
-      <c r="W28" t="s">
-        <v>52</v>
+      <c r="W28">
+        <v>26</v>
       </c>
       <c r="X28">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>26</v>
+      </c>
+      <c r="Z28">
+        <v>26</v>
+      </c>
+      <c r="AA28">
+        <v>26</v>
+      </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD28">
         <v>3</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>1</v>
       </c>
-      <c r="AA28">
+      <c r="AG28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:33">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3176,23 +3698,41 @@
       <c r="V29">
         <v>27</v>
       </c>
-      <c r="W29" t="s">
-        <v>53</v>
+      <c r="W29">
+        <v>27</v>
       </c>
       <c r="X29">
+        <v>27</v>
+      </c>
+      <c r="Y29">
+        <v>27</v>
+      </c>
+      <c r="Z29">
+        <v>27</v>
+      </c>
+      <c r="AA29">
+        <v>27</v>
+      </c>
+      <c r="AB29">
+        <v>27</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD29">
         <v>3</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>1</v>
       </c>
-      <c r="AA29">
+      <c r="AG29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:33">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3259,23 +3799,41 @@
       <c r="V30">
         <v>28</v>
       </c>
-      <c r="W30" t="s">
-        <v>54</v>
+      <c r="W30">
+        <v>28</v>
       </c>
       <c r="X30">
+        <v>28</v>
+      </c>
+      <c r="Y30">
+        <v>28</v>
+      </c>
+      <c r="Z30">
+        <v>28</v>
+      </c>
+      <c r="AA30">
+        <v>28</v>
+      </c>
+      <c r="AB30">
+        <v>28</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD30">
         <v>155</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:33">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3316,22 +3874,22 @@
         <v>29</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T31">
         <v>30</v>
@@ -3342,23 +3900,41 @@
       <c r="V31">
         <v>30</v>
       </c>
-      <c r="W31" t="s">
-        <v>55</v>
+      <c r="W31">
+        <v>30</v>
       </c>
       <c r="X31">
+        <v>30</v>
+      </c>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+      <c r="Z31">
+        <v>30</v>
+      </c>
+      <c r="AA31">
+        <v>30</v>
+      </c>
+      <c r="AB31">
+        <v>30</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD31">
         <v>201</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>1</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:33">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3399,22 +3975,22 @@
         <v>30</v>
       </c>
       <c r="N32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T32">
         <v>32</v>
@@ -3425,23 +4001,41 @@
       <c r="V32">
         <v>32</v>
       </c>
-      <c r="W32" t="s">
-        <v>56</v>
+      <c r="W32">
+        <v>32</v>
       </c>
       <c r="X32">
+        <v>32</v>
+      </c>
+      <c r="Y32">
+        <v>32</v>
+      </c>
+      <c r="Z32">
+        <v>32</v>
+      </c>
+      <c r="AA32">
+        <v>32</v>
+      </c>
+      <c r="AB32">
+        <v>32</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD32">
         <v>226</v>
       </c>
-      <c r="Y32">
+      <c r="AE32">
         <v>1</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:33">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3482,22 +4076,22 @@
         <v>31</v>
       </c>
       <c r="N33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T33">
         <v>34</v>
@@ -3508,23 +4102,41 @@
       <c r="V33">
         <v>34</v>
       </c>
-      <c r="W33" t="s">
-        <v>57</v>
+      <c r="W33">
+        <v>34</v>
       </c>
       <c r="X33">
+        <v>34</v>
+      </c>
+      <c r="Y33">
+        <v>34</v>
+      </c>
+      <c r="Z33">
+        <v>34</v>
+      </c>
+      <c r="AA33">
+        <v>34</v>
+      </c>
+      <c r="AB33">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD33">
         <v>238</v>
       </c>
-      <c r="Y33">
+      <c r="AE33">
         <v>2</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:33">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3565,22 +4177,22 @@
         <v>32</v>
       </c>
       <c r="N34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T34">
         <v>36</v>
@@ -3591,23 +4203,41 @@
       <c r="V34">
         <v>36</v>
       </c>
-      <c r="W34" t="s">
-        <v>58</v>
+      <c r="W34">
+        <v>36</v>
       </c>
       <c r="X34">
+        <v>36</v>
+      </c>
+      <c r="Y34">
+        <v>36</v>
+      </c>
+      <c r="Z34">
+        <v>36</v>
+      </c>
+      <c r="AA34">
+        <v>36</v>
+      </c>
+      <c r="AB34">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD34">
         <v>293</v>
       </c>
-      <c r="Y34">
+      <c r="AE34">
         <v>3</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:33">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3648,22 +4278,22 @@
         <v>33</v>
       </c>
       <c r="N35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T35">
         <v>38</v>
@@ -3674,23 +4304,41 @@
       <c r="V35">
         <v>38</v>
       </c>
-      <c r="W35" t="s">
-        <v>59</v>
+      <c r="W35">
+        <v>38</v>
       </c>
       <c r="X35">
+        <v>38</v>
+      </c>
+      <c r="Y35">
+        <v>38</v>
+      </c>
+      <c r="Z35">
+        <v>38</v>
+      </c>
+      <c r="AA35">
+        <v>38</v>
+      </c>
+      <c r="AB35">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD35">
         <v>341</v>
       </c>
-      <c r="Y35">
+      <c r="AE35">
         <v>3</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:33">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3731,22 +4379,22 @@
         <v>34</v>
       </c>
       <c r="N36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T36">
         <v>40</v>
@@ -3757,23 +4405,41 @@
       <c r="V36">
         <v>40</v>
       </c>
-      <c r="W36" t="s">
-        <v>60</v>
+      <c r="W36">
+        <v>40</v>
       </c>
       <c r="X36">
+        <v>40</v>
+      </c>
+      <c r="Y36">
+        <v>40</v>
+      </c>
+      <c r="Z36">
+        <v>40</v>
+      </c>
+      <c r="AA36">
+        <v>40</v>
+      </c>
+      <c r="AB36">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD36">
         <v>413</v>
       </c>
-      <c r="Y36">
+      <c r="AE36">
         <v>6</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:33">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3814,22 +4480,22 @@
         <v>35</v>
       </c>
       <c r="N37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T37">
         <v>42</v>
@@ -3840,23 +4506,41 @@
       <c r="V37">
         <v>42</v>
       </c>
-      <c r="W37" t="s">
-        <v>61</v>
+      <c r="W37">
+        <v>42</v>
       </c>
       <c r="X37">
+        <v>42</v>
+      </c>
+      <c r="Y37">
+        <v>42</v>
+      </c>
+      <c r="Z37">
+        <v>42</v>
+      </c>
+      <c r="AA37">
+        <v>42</v>
+      </c>
+      <c r="AB37">
+        <v>42</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD37">
         <v>484</v>
       </c>
-      <c r="Y37">
+      <c r="AE37">
         <v>7</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:33">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3897,22 +4581,22 @@
         <v>36</v>
       </c>
       <c r="N38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="T38">
         <v>44</v>
@@ -3923,23 +4607,41 @@
       <c r="V38">
         <v>44</v>
       </c>
-      <c r="W38" t="s">
-        <v>62</v>
+      <c r="W38">
+        <v>44</v>
       </c>
       <c r="X38">
+        <v>44</v>
+      </c>
+      <c r="Y38">
+        <v>44</v>
+      </c>
+      <c r="Z38">
+        <v>44</v>
+      </c>
+      <c r="AA38">
+        <v>44</v>
+      </c>
+      <c r="AB38">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD38">
         <v>515</v>
       </c>
-      <c r="Y38">
+      <c r="AE38">
         <v>7</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:33">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3980,22 +4682,22 @@
         <v>37</v>
       </c>
       <c r="N39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T39">
         <v>46</v>
@@ -4006,23 +4708,41 @@
       <c r="V39">
         <v>46</v>
       </c>
-      <c r="W39" t="s">
-        <v>63</v>
+      <c r="W39">
+        <v>46</v>
       </c>
       <c r="X39">
+        <v>46</v>
+      </c>
+      <c r="Y39">
+        <v>46</v>
+      </c>
+      <c r="Z39">
+        <v>46</v>
+      </c>
+      <c r="AA39">
+        <v>46</v>
+      </c>
+      <c r="AB39">
+        <v>46</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD39">
         <v>603</v>
       </c>
-      <c r="Y39">
+      <c r="AE39">
         <v>7</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:33">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4063,22 +4783,22 @@
         <v>38</v>
       </c>
       <c r="N40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="P40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="S40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="T40">
         <v>48</v>
@@ -4089,23 +4809,41 @@
       <c r="V40">
         <v>48</v>
       </c>
-      <c r="W40" t="s">
-        <v>64</v>
+      <c r="W40">
+        <v>48</v>
       </c>
       <c r="X40">
+        <v>48</v>
+      </c>
+      <c r="Y40">
+        <v>48</v>
+      </c>
+      <c r="Z40">
+        <v>48</v>
+      </c>
+      <c r="AA40">
+        <v>48</v>
+      </c>
+      <c r="AB40">
+        <v>48</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD40">
         <v>733</v>
       </c>
-      <c r="Y40">
+      <c r="AE40">
         <v>9</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:33">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4146,22 +4884,22 @@
         <v>39</v>
       </c>
       <c r="N41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Q41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="R41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T41">
         <v>50</v>
@@ -4172,23 +4910,41 @@
       <c r="V41">
         <v>50</v>
       </c>
-      <c r="W41" t="s">
-        <v>65</v>
+      <c r="W41">
+        <v>50</v>
       </c>
       <c r="X41">
+        <v>50</v>
+      </c>
+      <c r="Y41">
+        <v>50</v>
+      </c>
+      <c r="Z41">
+        <v>50</v>
+      </c>
+      <c r="AA41">
+        <v>50</v>
+      </c>
+      <c r="AB41">
+        <v>50</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD41">
         <v>849</v>
       </c>
-      <c r="Y41">
+      <c r="AE41">
         <v>15</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:33">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4229,22 +4985,22 @@
         <v>40</v>
       </c>
       <c r="N42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="P42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="R42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="T42">
         <v>52</v>
@@ -4255,23 +5011,41 @@
       <c r="V42">
         <v>52</v>
       </c>
-      <c r="W42" t="s">
-        <v>66</v>
+      <c r="W42">
+        <v>52</v>
       </c>
       <c r="X42">
+        <v>52</v>
+      </c>
+      <c r="Y42">
+        <v>52</v>
+      </c>
+      <c r="Z42">
+        <v>52</v>
+      </c>
+      <c r="AA42">
+        <v>52</v>
+      </c>
+      <c r="AB42">
+        <v>52</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD42">
         <v>966</v>
       </c>
-      <c r="Y42">
+      <c r="AE42">
         <v>16</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:33">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4312,22 +5086,22 @@
         <v>41</v>
       </c>
       <c r="N43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="R43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="S43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="T43">
         <v>54</v>
@@ -4338,23 +5112,41 @@
       <c r="V43">
         <v>54</v>
       </c>
-      <c r="W43" t="s">
-        <v>67</v>
+      <c r="W43">
+        <v>54</v>
       </c>
       <c r="X43">
+        <v>54</v>
+      </c>
+      <c r="Y43">
+        <v>54</v>
+      </c>
+      <c r="Z43">
+        <v>54</v>
+      </c>
+      <c r="AA43">
+        <v>54</v>
+      </c>
+      <c r="AB43">
+        <v>54</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD43">
         <v>1112</v>
       </c>
-      <c r="Y43">
+      <c r="AE43">
         <v>17</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:33">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4395,22 +5187,22 @@
         <v>42</v>
       </c>
       <c r="N44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="S44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="T44">
         <v>56</v>
@@ -4421,23 +5213,41 @@
       <c r="V44">
         <v>56</v>
       </c>
-      <c r="W44" t="s">
-        <v>68</v>
+      <c r="W44">
+        <v>56</v>
       </c>
       <c r="X44">
+        <v>56</v>
+      </c>
+      <c r="Y44">
+        <v>56</v>
+      </c>
+      <c r="Z44">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>56</v>
+      </c>
+      <c r="AB44">
+        <v>56</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD44">
         <v>1209</v>
       </c>
-      <c r="Y44">
+      <c r="AE44">
         <v>18</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:33">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4478,22 +5288,22 @@
         <v>43</v>
       </c>
       <c r="N45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="Q45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="R45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="S45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="T45">
         <v>58</v>
@@ -4504,23 +5314,41 @@
       <c r="V45">
         <v>58</v>
       </c>
-      <c r="W45" t="s">
-        <v>69</v>
+      <c r="W45">
+        <v>58</v>
       </c>
       <c r="X45">
+        <v>58</v>
+      </c>
+      <c r="Y45">
+        <v>58</v>
+      </c>
+      <c r="Z45">
+        <v>58</v>
+      </c>
+      <c r="AA45">
+        <v>58</v>
+      </c>
+      <c r="AB45">
+        <v>58</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD45">
         <v>1326</v>
       </c>
-      <c r="Y45">
+      <c r="AE45">
         <v>19</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:33">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4561,22 +5389,22 @@
         <v>44</v>
       </c>
       <c r="N46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="R46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="S46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="T46">
         <v>60</v>
@@ -4587,23 +5415,41 @@
       <c r="V46">
         <v>60</v>
       </c>
-      <c r="W46" t="s">
-        <v>70</v>
+      <c r="W46">
+        <v>60</v>
       </c>
       <c r="X46">
+        <v>60</v>
+      </c>
+      <c r="Y46">
+        <v>60</v>
+      </c>
+      <c r="Z46">
+        <v>60</v>
+      </c>
+      <c r="AA46">
+        <v>60</v>
+      </c>
+      <c r="AB46">
+        <v>60</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD46">
         <v>1404</v>
       </c>
-      <c r="Y46">
+      <c r="AE46">
         <v>19</v>
       </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:33">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4644,22 +5490,22 @@
         <v>45</v>
       </c>
       <c r="N47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="P47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Q47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="R47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="S47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="T47">
         <v>62</v>
@@ -4670,23 +5516,41 @@
       <c r="V47">
         <v>62</v>
       </c>
-      <c r="W47" t="s">
-        <v>71</v>
+      <c r="W47">
+        <v>62</v>
       </c>
       <c r="X47">
+        <v>62</v>
+      </c>
+      <c r="Y47">
+        <v>62</v>
+      </c>
+      <c r="Z47">
+        <v>62</v>
+      </c>
+      <c r="AA47">
+        <v>62</v>
+      </c>
+      <c r="AB47">
+        <v>62</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD47">
         <v>1454</v>
       </c>
-      <c r="Y47">
+      <c r="AE47">
         <v>31</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:33">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4727,22 +5591,22 @@
         <v>46</v>
       </c>
       <c r="N48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="P48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="Q48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="R48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="S48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="T48">
         <v>64</v>
@@ -4753,23 +5617,41 @@
       <c r="V48">
         <v>64</v>
       </c>
-      <c r="W48" t="s">
-        <v>72</v>
+      <c r="W48">
+        <v>64</v>
       </c>
       <c r="X48">
+        <v>64</v>
+      </c>
+      <c r="Y48">
+        <v>64</v>
+      </c>
+      <c r="Z48">
+        <v>64</v>
+      </c>
+      <c r="AA48">
+        <v>64</v>
+      </c>
+      <c r="AB48">
+        <v>64</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD48">
         <v>1530</v>
       </c>
-      <c r="Y48">
+      <c r="AE48">
         <v>36</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:33">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4810,22 +5692,22 @@
         <v>47</v>
       </c>
       <c r="N49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Q49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="R49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="T49">
         <v>66</v>
@@ -4836,23 +5718,41 @@
       <c r="V49">
         <v>66</v>
       </c>
-      <c r="W49" t="s">
-        <v>73</v>
+      <c r="W49">
+        <v>66</v>
       </c>
       <c r="X49">
+        <v>66</v>
+      </c>
+      <c r="Y49">
+        <v>66</v>
+      </c>
+      <c r="Z49">
+        <v>66</v>
+      </c>
+      <c r="AA49">
+        <v>66</v>
+      </c>
+      <c r="AB49">
+        <v>66</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD49">
         <v>1628</v>
       </c>
-      <c r="Y49">
+      <c r="AE49">
         <v>40</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:33">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4893,22 +5793,22 @@
         <v>48</v>
       </c>
       <c r="N50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="P50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="Q50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="R50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="S50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="T50">
         <v>68</v>
@@ -4919,23 +5819,41 @@
       <c r="V50">
         <v>68</v>
       </c>
-      <c r="W50" t="s">
-        <v>74</v>
+      <c r="W50">
+        <v>68</v>
       </c>
       <c r="X50">
+        <v>68</v>
+      </c>
+      <c r="Y50">
+        <v>68</v>
+      </c>
+      <c r="Z50">
+        <v>68</v>
+      </c>
+      <c r="AA50">
+        <v>68</v>
+      </c>
+      <c r="AB50">
+        <v>68</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD50">
         <v>1693</v>
       </c>
-      <c r="Y50">
+      <c r="AE50">
         <v>44</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:33">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4976,22 +5894,22 @@
         <v>49</v>
       </c>
       <c r="N51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="O51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="R51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="T51">
         <v>70</v>
@@ -5002,23 +5920,41 @@
       <c r="V51">
         <v>70</v>
       </c>
-      <c r="W51" t="s">
-        <v>75</v>
+      <c r="W51">
+        <v>70</v>
       </c>
       <c r="X51">
+        <v>70</v>
+      </c>
+      <c r="Y51">
+        <v>70</v>
+      </c>
+      <c r="Z51">
+        <v>70</v>
+      </c>
+      <c r="AA51">
+        <v>70</v>
+      </c>
+      <c r="AB51">
+        <v>70</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD51">
         <v>1761</v>
       </c>
-      <c r="Y51">
+      <c r="AE51">
         <v>45</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:33">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5059,22 +5995,22 @@
         <v>50</v>
       </c>
       <c r="N52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="P52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="Q52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="R52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="S52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="T52">
         <v>72</v>
@@ -5085,23 +6021,41 @@
       <c r="V52">
         <v>72</v>
       </c>
-      <c r="W52" t="s">
-        <v>76</v>
+      <c r="W52">
+        <v>72</v>
       </c>
       <c r="X52">
+        <v>72</v>
+      </c>
+      <c r="Y52">
+        <v>72</v>
+      </c>
+      <c r="Z52">
+        <v>72</v>
+      </c>
+      <c r="AA52">
+        <v>72</v>
+      </c>
+      <c r="AB52">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD52">
         <v>1804</v>
       </c>
-      <c r="Y52">
+      <c r="AE52">
         <v>45</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:33">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5142,22 +6096,22 @@
         <v>51</v>
       </c>
       <c r="N53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="Q53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="R53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="S53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="T53">
         <v>74</v>
@@ -5168,23 +6122,41 @@
       <c r="V53">
         <v>74</v>
       </c>
-      <c r="W53" t="s">
-        <v>77</v>
+      <c r="W53">
+        <v>74</v>
       </c>
       <c r="X53">
+        <v>74</v>
+      </c>
+      <c r="Y53">
+        <v>74</v>
+      </c>
+      <c r="Z53">
+        <v>74</v>
+      </c>
+      <c r="AA53">
+        <v>74</v>
+      </c>
+      <c r="AB53">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD53">
         <v>1847</v>
       </c>
-      <c r="Y53">
+      <c r="AE53">
         <v>47</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:33">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5225,22 +6197,22 @@
         <v>52</v>
       </c>
       <c r="N54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Q54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="R54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="S54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="T54">
         <v>76</v>
@@ -5251,23 +6223,41 @@
       <c r="V54">
         <v>76</v>
       </c>
-      <c r="W54" t="s">
-        <v>78</v>
+      <c r="W54">
+        <v>76</v>
       </c>
       <c r="X54">
+        <v>76</v>
+      </c>
+      <c r="Y54">
+        <v>76</v>
+      </c>
+      <c r="Z54">
+        <v>76</v>
+      </c>
+      <c r="AA54">
+        <v>76</v>
+      </c>
+      <c r="AB54">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD54">
         <v>1930</v>
       </c>
-      <c r="Y54">
+      <c r="AE54">
         <v>53</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:33">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5308,22 +6298,22 @@
         <v>53</v>
       </c>
       <c r="N55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="Q55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="R55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="S55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="T55">
         <v>78</v>
@@ -5334,23 +6324,41 @@
       <c r="V55">
         <v>78</v>
       </c>
-      <c r="W55" t="s">
-        <v>79</v>
+      <c r="W55">
+        <v>78</v>
       </c>
       <c r="X55">
+        <v>78</v>
+      </c>
+      <c r="Y55">
+        <v>78</v>
+      </c>
+      <c r="Z55">
+        <v>78</v>
+      </c>
+      <c r="AA55">
+        <v>78</v>
+      </c>
+      <c r="AB55">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD55">
         <v>2012</v>
       </c>
-      <c r="Y55">
+      <c r="AE55">
         <v>60</v>
       </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:33">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5391,22 +6399,22 @@
         <v>54</v>
       </c>
       <c r="N56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Q56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="S56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="T56">
         <v>80</v>
@@ -5417,23 +6425,41 @@
       <c r="V56">
         <v>80</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56">
         <v>80</v>
       </c>
       <c r="X56">
+        <v>80</v>
+      </c>
+      <c r="Y56">
+        <v>80</v>
+      </c>
+      <c r="Z56">
+        <v>80</v>
+      </c>
+      <c r="AA56">
+        <v>80</v>
+      </c>
+      <c r="AB56">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD56">
         <v>2087</v>
       </c>
-      <c r="Y56">
+      <c r="AE56">
         <v>63</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:33">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5474,22 +6500,22 @@
         <v>55</v>
       </c>
       <c r="N57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="O57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="R57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="S57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="T57">
         <v>82</v>
@@ -5500,23 +6526,41 @@
       <c r="V57">
         <v>82</v>
       </c>
-      <c r="W57" t="s">
-        <v>81</v>
+      <c r="W57">
+        <v>82</v>
       </c>
       <c r="X57">
+        <v>82</v>
+      </c>
+      <c r="Y57">
+        <v>82</v>
+      </c>
+      <c r="Z57">
+        <v>82</v>
+      </c>
+      <c r="AA57">
+        <v>82</v>
+      </c>
+      <c r="AB57">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD57">
         <v>2158</v>
       </c>
-      <c r="Y57">
+      <c r="AE57">
         <v>70</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:33">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5557,22 +6601,22 @@
         <v>56</v>
       </c>
       <c r="N58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="P58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="Q58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="S58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="T58">
         <v>84</v>
@@ -5583,23 +6627,41 @@
       <c r="V58">
         <v>84</v>
       </c>
-      <c r="W58" t="s">
-        <v>82</v>
+      <c r="W58">
+        <v>84</v>
       </c>
       <c r="X58">
+        <v>84</v>
+      </c>
+      <c r="Y58">
+        <v>84</v>
+      </c>
+      <c r="Z58">
+        <v>84</v>
+      </c>
+      <c r="AA58">
+        <v>84</v>
+      </c>
+      <c r="AB58">
+        <v>84</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD58">
         <v>2213</v>
       </c>
-      <c r="Y58">
+      <c r="AE58">
         <v>71</v>
       </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:33">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5640,22 +6702,22 @@
         <v>57</v>
       </c>
       <c r="N59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="R59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="S59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="T59">
         <v>86</v>
@@ -5666,23 +6728,41 @@
       <c r="V59">
         <v>86</v>
       </c>
-      <c r="W59" t="s">
-        <v>83</v>
+      <c r="W59">
+        <v>86</v>
       </c>
       <c r="X59">
+        <v>86</v>
+      </c>
+      <c r="Y59">
+        <v>86</v>
+      </c>
+      <c r="Z59">
+        <v>86</v>
+      </c>
+      <c r="AA59">
+        <v>86</v>
+      </c>
+      <c r="AB59">
+        <v>86</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD59">
         <v>2268</v>
       </c>
-      <c r="Y59">
+      <c r="AE59">
         <v>71</v>
       </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:33">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5723,22 +6803,22 @@
         <v>58</v>
       </c>
       <c r="N60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="O60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="P60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="Q60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="R60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="S60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="T60">
         <v>88</v>
@@ -5749,23 +6829,41 @@
       <c r="V60">
         <v>88</v>
       </c>
-      <c r="W60" t="s">
-        <v>84</v>
+      <c r="W60">
+        <v>88</v>
       </c>
       <c r="X60">
+        <v>88</v>
+      </c>
+      <c r="Y60">
+        <v>88</v>
+      </c>
+      <c r="Z60">
+        <v>88</v>
+      </c>
+      <c r="AA60">
+        <v>88</v>
+      </c>
+      <c r="AB60">
+        <v>88</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD60">
         <v>2325</v>
       </c>
-      <c r="Y60">
+      <c r="AE60">
         <v>72</v>
       </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:33">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5806,22 +6904,22 @@
         <v>59</v>
       </c>
       <c r="N61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="O61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="Q61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="R61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="S61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="T61">
         <v>90</v>
@@ -5832,23 +6930,41 @@
       <c r="V61">
         <v>90</v>
       </c>
-      <c r="W61" t="s">
-        <v>85</v>
+      <c r="W61">
+        <v>90</v>
       </c>
       <c r="X61">
+        <v>90</v>
+      </c>
+      <c r="Y61">
+        <v>90</v>
+      </c>
+      <c r="Z61">
+        <v>90</v>
+      </c>
+      <c r="AA61">
+        <v>90</v>
+      </c>
+      <c r="AB61">
+        <v>90</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD61">
         <v>2491</v>
       </c>
-      <c r="Y61">
+      <c r="AE61">
         <v>96</v>
       </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:33">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5889,22 +7005,22 @@
         <v>60</v>
       </c>
       <c r="N62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="O62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="S62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="T62">
         <v>92</v>
@@ -5915,23 +7031,41 @@
       <c r="V62">
         <v>92</v>
       </c>
-      <c r="W62" t="s">
-        <v>86</v>
+      <c r="W62">
+        <v>92</v>
       </c>
       <c r="X62">
+        <v>92</v>
+      </c>
+      <c r="Y62">
+        <v>92</v>
+      </c>
+      <c r="Z62">
+        <v>92</v>
+      </c>
+      <c r="AA62">
+        <v>92</v>
+      </c>
+      <c r="AB62">
+        <v>92</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD62">
         <v>2643</v>
       </c>
-      <c r="Y62">
+      <c r="AE62">
         <v>100</v>
       </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:33">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5972,22 +7106,22 @@
         <v>61</v>
       </c>
       <c r="N63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="O63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="Q63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="R63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="S63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="T63">
         <v>94</v>
@@ -5998,23 +7132,41 @@
       <c r="V63">
         <v>94</v>
       </c>
-      <c r="W63" t="s">
-        <v>87</v>
+      <c r="W63">
+        <v>94</v>
       </c>
       <c r="X63">
+        <v>94</v>
+      </c>
+      <c r="Y63">
+        <v>94</v>
+      </c>
+      <c r="Z63">
+        <v>94</v>
+      </c>
+      <c r="AA63">
+        <v>94</v>
+      </c>
+      <c r="AB63">
+        <v>94</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD63">
         <v>2826</v>
       </c>
-      <c r="Y63">
+      <c r="AE63">
         <v>102</v>
       </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:33">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6055,22 +7207,22 @@
         <v>62</v>
       </c>
       <c r="N64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="O64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="P64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="R64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="S64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="T64">
         <v>96</v>
@@ -6081,23 +7233,41 @@
       <c r="V64">
         <v>96</v>
       </c>
-      <c r="W64" t="s">
-        <v>88</v>
+      <c r="W64">
+        <v>96</v>
       </c>
       <c r="X64">
+        <v>96</v>
+      </c>
+      <c r="Y64">
+        <v>96</v>
+      </c>
+      <c r="Z64">
+        <v>96</v>
+      </c>
+      <c r="AA64">
+        <v>96</v>
+      </c>
+      <c r="AB64">
+        <v>96</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD64">
         <v>2943</v>
       </c>
-      <c r="Y64">
+      <c r="AE64">
         <v>111</v>
       </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:33">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6138,22 +7308,22 @@
         <v>63</v>
       </c>
       <c r="N65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="O65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="P65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="Q65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="R65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="S65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="T65">
         <v>98</v>
@@ -6164,23 +7334,41 @@
       <c r="V65">
         <v>98</v>
       </c>
-      <c r="W65" t="s">
-        <v>89</v>
+      <c r="W65">
+        <v>98</v>
       </c>
       <c r="X65">
+        <v>98</v>
+      </c>
+      <c r="Y65">
+        <v>98</v>
+      </c>
+      <c r="Z65">
+        <v>98</v>
+      </c>
+      <c r="AA65">
+        <v>98</v>
+      </c>
+      <c r="AB65">
+        <v>98</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD65">
         <v>2943</v>
       </c>
-      <c r="Y65">
+      <c r="AE65">
         <v>111</v>
       </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:33">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6221,22 +7409,22 @@
         <v>64</v>
       </c>
       <c r="N66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="P66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="Q66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="R66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="S66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="T66">
         <v>100</v>
@@ -6247,23 +7435,41 @@
       <c r="V66">
         <v>100</v>
       </c>
-      <c r="W66" t="s">
-        <v>90</v>
+      <c r="W66">
+        <v>100</v>
       </c>
       <c r="X66">
+        <v>100</v>
+      </c>
+      <c r="Y66">
+        <v>100</v>
+      </c>
+      <c r="Z66">
+        <v>100</v>
+      </c>
+      <c r="AA66">
+        <v>100</v>
+      </c>
+      <c r="AB66">
+        <v>100</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD66">
         <v>3043</v>
       </c>
-      <c r="Y66">
+      <c r="AE66">
         <v>111</v>
       </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:33">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6304,22 +7510,22 @@
         <v>65</v>
       </c>
       <c r="N67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="O67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="P67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="Q67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="R67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="S67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="T67">
         <v>102</v>
@@ -6330,23 +7536,41 @@
       <c r="V67">
         <v>102</v>
       </c>
-      <c r="W67" t="s">
-        <v>91</v>
+      <c r="W67">
+        <v>102</v>
       </c>
       <c r="X67">
+        <v>102</v>
+      </c>
+      <c r="Y67">
+        <v>102</v>
+      </c>
+      <c r="Z67">
+        <v>102</v>
+      </c>
+      <c r="AA67">
+        <v>102</v>
+      </c>
+      <c r="AB67">
+        <v>102</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD67">
         <v>3141</v>
       </c>
-      <c r="Y67">
+      <c r="AE67">
         <v>113</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:33">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6387,22 +7611,22 @@
         <v>66</v>
       </c>
       <c r="N68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="O68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="P68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="Q68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="R68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="S68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="T68">
         <v>104</v>
@@ -6413,23 +7637,41 @@
       <c r="V68">
         <v>104</v>
       </c>
-      <c r="W68" t="s">
-        <v>92</v>
+      <c r="W68">
+        <v>104</v>
       </c>
       <c r="X68">
+        <v>104</v>
+      </c>
+      <c r="Y68">
+        <v>104</v>
+      </c>
+      <c r="Z68">
+        <v>104</v>
+      </c>
+      <c r="AA68">
+        <v>104</v>
+      </c>
+      <c r="AB68">
+        <v>104</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD68">
         <v>3432</v>
       </c>
-      <c r="Y68">
+      <c r="AE68">
         <v>120</v>
       </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:33">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6470,22 +7712,22 @@
         <v>67</v>
       </c>
       <c r="N69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="O69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="P69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="Q69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="R69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="S69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="T69">
         <v>106</v>
@@ -6496,23 +7738,41 @@
       <c r="V69">
         <v>106</v>
       </c>
-      <c r="W69" t="s">
-        <v>93</v>
+      <c r="W69">
+        <v>106</v>
       </c>
       <c r="X69">
+        <v>106</v>
+      </c>
+      <c r="Y69">
+        <v>106</v>
+      </c>
+      <c r="Z69">
+        <v>106</v>
+      </c>
+      <c r="AA69">
+        <v>106</v>
+      </c>
+      <c r="AB69">
+        <v>106</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD69">
         <v>3432</v>
       </c>
-      <c r="Y69">
+      <c r="AE69">
         <v>120</v>
       </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:33">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6553,22 +7813,22 @@
         <v>68</v>
       </c>
       <c r="N70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="P70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="Q70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="R70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="S70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="T70">
         <v>108</v>
@@ -6579,23 +7839,41 @@
       <c r="V70">
         <v>108</v>
       </c>
-      <c r="W70" t="s">
-        <v>94</v>
+      <c r="W70">
+        <v>108</v>
       </c>
       <c r="X70">
+        <v>108</v>
+      </c>
+      <c r="Y70">
+        <v>108</v>
+      </c>
+      <c r="Z70">
+        <v>108</v>
+      </c>
+      <c r="AA70">
+        <v>108</v>
+      </c>
+      <c r="AB70">
+        <v>108</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD70">
         <v>3564</v>
       </c>
-      <c r="Y70">
+      <c r="AE70">
         <v>124</v>
       </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:33">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6636,22 +7914,22 @@
         <v>69</v>
       </c>
       <c r="N71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="O71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="P71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="Q71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="R71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="S71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="T71">
         <v>110</v>
@@ -6662,23 +7940,41 @@
       <c r="V71">
         <v>110</v>
       </c>
-      <c r="W71" t="s">
-        <v>95</v>
+      <c r="W71">
+        <v>110</v>
       </c>
       <c r="X71">
+        <v>110</v>
+      </c>
+      <c r="Y71">
+        <v>110</v>
+      </c>
+      <c r="Z71">
+        <v>110</v>
+      </c>
+      <c r="AA71">
+        <v>110</v>
+      </c>
+      <c r="AB71">
+        <v>110</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD71">
         <v>3711</v>
       </c>
-      <c r="Y71">
+      <c r="AE71">
         <v>134</v>
       </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:33">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6719,22 +8015,22 @@
         <v>70</v>
       </c>
       <c r="N72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="O72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="P72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="Q72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="R72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="S72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="T72">
         <v>112</v>
@@ -6745,23 +8041,41 @@
       <c r="V72">
         <v>112</v>
       </c>
-      <c r="W72" t="s">
-        <v>96</v>
+      <c r="W72">
+        <v>112</v>
       </c>
       <c r="X72">
+        <v>112</v>
+      </c>
+      <c r="Y72">
+        <v>112</v>
+      </c>
+      <c r="Z72">
+        <v>112</v>
+      </c>
+      <c r="AA72">
+        <v>112</v>
+      </c>
+      <c r="AB72">
+        <v>112</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD72">
         <v>3927</v>
       </c>
-      <c r="Y72">
+      <c r="AE72">
         <v>139</v>
       </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:33">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6802,22 +8116,22 @@
         <v>71</v>
       </c>
       <c r="N73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="O73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="P73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="Q73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="R73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="S73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="T73">
         <v>114</v>
@@ -6828,23 +8142,41 @@
       <c r="V73">
         <v>114</v>
       </c>
-      <c r="W73" t="s">
-        <v>97</v>
+      <c r="W73">
+        <v>114</v>
       </c>
       <c r="X73">
+        <v>114</v>
+      </c>
+      <c r="Y73">
+        <v>114</v>
+      </c>
+      <c r="Z73">
+        <v>114</v>
+      </c>
+      <c r="AA73">
+        <v>114</v>
+      </c>
+      <c r="AB73">
+        <v>114</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD73">
         <v>3927</v>
       </c>
-      <c r="Y73">
+      <c r="AE73">
         <v>139</v>
       </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:33">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6885,22 +8217,22 @@
         <v>72</v>
       </c>
       <c r="N74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="O74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="P74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="Q74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="R74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="S74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="T74">
         <v>116</v>
@@ -6911,23 +8243,41 @@
       <c r="V74">
         <v>116</v>
       </c>
-      <c r="W74" t="s">
-        <v>98</v>
+      <c r="W74">
+        <v>116</v>
       </c>
       <c r="X74">
+        <v>116</v>
+      </c>
+      <c r="Y74">
+        <v>116</v>
+      </c>
+      <c r="Z74">
+        <v>116</v>
+      </c>
+      <c r="AA74">
+        <v>116</v>
+      </c>
+      <c r="AB74">
+        <v>116</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD74">
         <v>4020</v>
       </c>
-      <c r="Y74">
+      <c r="AE74">
         <v>144</v>
       </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:33">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6968,22 +8318,22 @@
         <v>73</v>
       </c>
       <c r="N75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="P75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="Q75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="R75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="T75">
         <v>118</v>
@@ -6994,23 +8344,41 @@
       <c r="V75">
         <v>118</v>
       </c>
-      <c r="W75" t="s">
-        <v>99</v>
+      <c r="W75">
+        <v>118</v>
       </c>
       <c r="X75">
+        <v>118</v>
+      </c>
+      <c r="Y75">
+        <v>118</v>
+      </c>
+      <c r="Z75">
+        <v>118</v>
+      </c>
+      <c r="AA75">
+        <v>118</v>
+      </c>
+      <c r="AB75">
+        <v>118</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD75">
         <v>4319</v>
       </c>
-      <c r="Y75">
+      <c r="AE75">
         <v>158</v>
       </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:33">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7051,22 +8419,22 @@
         <v>74</v>
       </c>
       <c r="N76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="O76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="P76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="Q76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="R76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="S76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="T76">
         <v>120</v>
@@ -7077,23 +8445,41 @@
       <c r="V76">
         <v>120</v>
       </c>
-      <c r="W76" t="s">
-        <v>100</v>
+      <c r="W76">
+        <v>120</v>
       </c>
       <c r="X76">
+        <v>120</v>
+      </c>
+      <c r="Y76">
+        <v>120</v>
+      </c>
+      <c r="Z76">
+        <v>120</v>
+      </c>
+      <c r="AA76">
+        <v>120</v>
+      </c>
+      <c r="AB76">
+        <v>120</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD76">
         <v>4319</v>
       </c>
-      <c r="Y76">
+      <c r="AE76">
         <v>158</v>
       </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:33">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7134,22 +8520,22 @@
         <v>75</v>
       </c>
       <c r="N77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="O77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="P77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Q77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="R77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="S77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="T77">
         <v>122</v>
@@ -7160,23 +8546,41 @@
       <c r="V77">
         <v>122</v>
       </c>
-      <c r="W77" t="s">
-        <v>101</v>
+      <c r="W77">
+        <v>122</v>
       </c>
       <c r="X77">
+        <v>122</v>
+      </c>
+      <c r="Y77">
+        <v>122</v>
+      </c>
+      <c r="Z77">
+        <v>122</v>
+      </c>
+      <c r="AA77">
+        <v>122</v>
+      </c>
+      <c r="AB77">
+        <v>122</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD77">
         <v>4429</v>
       </c>
-      <c r="Y77">
+      <c r="AE77">
         <v>165</v>
       </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:33">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7217,22 +8621,22 @@
         <v>76</v>
       </c>
       <c r="N78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="O78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="P78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="Q78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="R78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="S78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="T78">
         <v>124</v>
@@ -7243,23 +8647,41 @@
       <c r="V78">
         <v>124</v>
       </c>
-      <c r="W78" t="s">
-        <v>102</v>
+      <c r="W78">
+        <v>124</v>
       </c>
       <c r="X78">
+        <v>124</v>
+      </c>
+      <c r="Y78">
+        <v>124</v>
+      </c>
+      <c r="Z78">
+        <v>124</v>
+      </c>
+      <c r="AA78">
+        <v>124</v>
+      </c>
+      <c r="AB78">
+        <v>124</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD78">
         <v>4662</v>
       </c>
-      <c r="Y78">
+      <c r="AE78">
         <v>169</v>
       </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:33">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7300,22 +8722,22 @@
         <v>77</v>
       </c>
       <c r="N79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="O79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="P79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Q79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="R79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="S79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="T79">
         <v>126</v>
@@ -7326,23 +8748,41 @@
       <c r="V79">
         <v>126</v>
       </c>
-      <c r="W79" t="s">
-        <v>103</v>
+      <c r="W79">
+        <v>126</v>
       </c>
       <c r="X79">
+        <v>126</v>
+      </c>
+      <c r="Y79">
+        <v>126</v>
+      </c>
+      <c r="Z79">
+        <v>126</v>
+      </c>
+      <c r="AA79">
+        <v>126</v>
+      </c>
+      <c r="AB79">
+        <v>126</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD79">
         <v>4776</v>
       </c>
-      <c r="Y79">
+      <c r="AE79">
         <v>175</v>
       </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:33">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7383,22 +8823,22 @@
         <v>78</v>
       </c>
       <c r="N80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="O80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="P80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="Q80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="R80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="S80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="T80">
         <v>128</v>
@@ -7409,23 +8849,41 @@
       <c r="V80">
         <v>128</v>
       </c>
-      <c r="W80" t="s">
-        <v>104</v>
+      <c r="W80">
+        <v>128</v>
       </c>
       <c r="X80">
+        <v>128</v>
+      </c>
+      <c r="Y80">
+        <v>128</v>
+      </c>
+      <c r="Z80">
+        <v>128</v>
+      </c>
+      <c r="AA80">
+        <v>128</v>
+      </c>
+      <c r="AB80">
+        <v>128</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD80">
         <v>5065</v>
       </c>
-      <c r="Y80">
+      <c r="AE80">
         <v>175</v>
       </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:33">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7466,22 +8924,22 @@
         <v>79</v>
       </c>
       <c r="N81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="O81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="P81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="Q81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="R81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="S81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="T81">
         <v>130</v>
@@ -7492,23 +8950,41 @@
       <c r="V81">
         <v>130</v>
       </c>
-      <c r="W81" t="s">
-        <v>105</v>
+      <c r="W81">
+        <v>130</v>
       </c>
       <c r="X81">
+        <v>130</v>
+      </c>
+      <c r="Y81">
+        <v>130</v>
+      </c>
+      <c r="Z81">
+        <v>130</v>
+      </c>
+      <c r="AA81">
+        <v>130</v>
+      </c>
+      <c r="AB81">
+        <v>130</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD81">
         <v>5161</v>
       </c>
-      <c r="Y81">
+      <c r="AE81">
         <v>190</v>
       </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:33">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7549,22 +9025,22 @@
         <v>80</v>
       </c>
       <c r="N82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="P82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="Q82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="R82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="S82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="T82">
         <v>132</v>
@@ -7575,23 +9051,41 @@
       <c r="V82">
         <v>132</v>
       </c>
-      <c r="W82" t="s">
-        <v>106</v>
+      <c r="W82">
+        <v>132</v>
       </c>
       <c r="X82">
+        <v>132</v>
+      </c>
+      <c r="Y82">
+        <v>132</v>
+      </c>
+      <c r="Z82">
+        <v>132</v>
+      </c>
+      <c r="AA82">
+        <v>132</v>
+      </c>
+      <c r="AB82">
+        <v>132</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD82">
         <v>5161</v>
       </c>
-      <c r="Y82">
+      <c r="AE82">
         <v>190</v>
       </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:33">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7632,22 +9126,22 @@
         <v>81</v>
       </c>
       <c r="N83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="O83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="P83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="Q83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="R83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="S83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="T83">
         <v>134</v>
@@ -7658,23 +9152,41 @@
       <c r="V83">
         <v>134</v>
       </c>
-      <c r="W83" t="s">
-        <v>107</v>
+      <c r="W83">
+        <v>134</v>
       </c>
       <c r="X83">
+        <v>134</v>
+      </c>
+      <c r="Y83">
+        <v>134</v>
+      </c>
+      <c r="Z83">
+        <v>134</v>
+      </c>
+      <c r="AA83">
+        <v>134</v>
+      </c>
+      <c r="AB83">
+        <v>134</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD83">
         <v>5391</v>
       </c>
-      <c r="Y83">
+      <c r="AE83">
         <v>200</v>
       </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:33">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7715,22 +9227,22 @@
         <v>82</v>
       </c>
       <c r="N84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="O84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="P84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="Q84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="R84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="S84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="T84">
         <v>136</v>
@@ -7741,23 +9253,41 @@
       <c r="V84">
         <v>136</v>
       </c>
-      <c r="W84" t="s">
-        <v>108</v>
+      <c r="W84">
+        <v>136</v>
       </c>
       <c r="X84">
+        <v>136</v>
+      </c>
+      <c r="Y84">
+        <v>136</v>
+      </c>
+      <c r="Z84">
+        <v>136</v>
+      </c>
+      <c r="AA84">
+        <v>136</v>
+      </c>
+      <c r="AB84">
+        <v>136</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD84">
         <v>5391</v>
       </c>
-      <c r="Y84">
+      <c r="AE84">
         <v>200</v>
       </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:33">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7798,22 +9328,22 @@
         <v>83</v>
       </c>
       <c r="N85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="O85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="P85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="Q85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="R85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="S85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="T85">
         <v>138</v>
@@ -7824,23 +9354,41 @@
       <c r="V85">
         <v>138</v>
       </c>
-      <c r="W85" t="s">
-        <v>109</v>
+      <c r="W85">
+        <v>138</v>
       </c>
       <c r="X85">
+        <v>138</v>
+      </c>
+      <c r="Y85">
+        <v>138</v>
+      </c>
+      <c r="Z85">
+        <v>138</v>
+      </c>
+      <c r="AA85">
+        <v>138</v>
+      </c>
+      <c r="AB85">
+        <v>138</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD85">
         <v>5662</v>
       </c>
-      <c r="Y85">
+      <c r="AE85">
         <v>209</v>
       </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:33">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7881,22 +9429,22 @@
         <v>84</v>
       </c>
       <c r="N86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="O86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="P86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="Q86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="R86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="S86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="T86">
         <v>140</v>
@@ -7907,23 +9455,41 @@
       <c r="V86">
         <v>140</v>
       </c>
-      <c r="W86" t="s">
-        <v>110</v>
+      <c r="W86">
+        <v>140</v>
       </c>
       <c r="X86">
+        <v>140</v>
+      </c>
+      <c r="Y86">
+        <v>140</v>
+      </c>
+      <c r="Z86">
+        <v>140</v>
+      </c>
+      <c r="AA86">
+        <v>140</v>
+      </c>
+      <c r="AB86">
+        <v>140</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD86">
         <v>5836</v>
       </c>
-      <c r="Y86">
+      <c r="AE86">
         <v>209</v>
       </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:33">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7964,22 +9530,22 @@
         <v>85</v>
       </c>
       <c r="N87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="O87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="P87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="Q87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="R87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="S87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="T87">
         <v>142</v>
@@ -7990,23 +9556,41 @@
       <c r="V87">
         <v>142</v>
       </c>
-      <c r="W87" t="s">
-        <v>111</v>
+      <c r="W87">
+        <v>142</v>
       </c>
       <c r="X87">
+        <v>142</v>
+      </c>
+      <c r="Y87">
+        <v>142</v>
+      </c>
+      <c r="Z87">
+        <v>142</v>
+      </c>
+      <c r="AA87">
+        <v>142</v>
+      </c>
+      <c r="AB87">
+        <v>142</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD87">
         <v>5836</v>
       </c>
-      <c r="Y87">
+      <c r="AE87">
         <v>209</v>
       </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:33">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8047,22 +9631,22 @@
         <v>86</v>
       </c>
       <c r="N88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="O88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="P88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="Q88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="R88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="S88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="T88">
         <v>144</v>
@@ -8073,23 +9657,41 @@
       <c r="V88">
         <v>144</v>
       </c>
-      <c r="W88" t="s">
-        <v>112</v>
+      <c r="W88">
+        <v>144</v>
       </c>
       <c r="X88">
+        <v>144</v>
+      </c>
+      <c r="Y88">
+        <v>144</v>
+      </c>
+      <c r="Z88">
+        <v>144</v>
+      </c>
+      <c r="AA88">
+        <v>144</v>
+      </c>
+      <c r="AB88">
+        <v>144</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD88">
         <v>6026</v>
       </c>
-      <c r="Y88">
+      <c r="AE88">
         <v>222</v>
       </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:33">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8130,22 +9732,22 @@
         <v>87</v>
       </c>
       <c r="N89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="O89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="P89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="Q89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="R89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="S89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="T89">
         <v>146</v>
@@ -8156,23 +9758,41 @@
       <c r="V89">
         <v>146</v>
       </c>
-      <c r="W89" t="s">
-        <v>113</v>
+      <c r="W89">
+        <v>146</v>
       </c>
       <c r="X89">
+        <v>146</v>
+      </c>
+      <c r="Y89">
+        <v>146</v>
+      </c>
+      <c r="Z89">
+        <v>146</v>
+      </c>
+      <c r="AA89">
+        <v>146</v>
+      </c>
+      <c r="AB89">
+        <v>146</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD89">
         <v>6140</v>
       </c>
-      <c r="Y89">
+      <c r="AE89">
         <v>230</v>
       </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
-      <c r="AA89">
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:33">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8213,22 +9833,22 @@
         <v>88</v>
       </c>
       <c r="N90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="O90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="P90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="Q90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="R90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="S90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="T90">
         <v>148</v>
@@ -8239,23 +9859,41 @@
       <c r="V90">
         <v>148</v>
       </c>
-      <c r="W90" t="s">
-        <v>114</v>
+      <c r="W90">
+        <v>148</v>
       </c>
       <c r="X90">
+        <v>148</v>
+      </c>
+      <c r="Y90">
+        <v>148</v>
+      </c>
+      <c r="Z90">
+        <v>148</v>
+      </c>
+      <c r="AA90">
+        <v>148</v>
+      </c>
+      <c r="AB90">
+        <v>148</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD90">
         <v>6140</v>
       </c>
-      <c r="Y90">
+      <c r="AE90">
         <v>230</v>
       </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AA90">
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:33">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8296,22 +9934,22 @@
         <v>89</v>
       </c>
       <c r="N91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="O91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="P91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="Q91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="R91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="S91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="T91">
         <v>150</v>
@@ -8322,23 +9960,41 @@
       <c r="V91">
         <v>150</v>
       </c>
-      <c r="W91" t="s">
-        <v>115</v>
+      <c r="W91">
+        <v>150</v>
       </c>
       <c r="X91">
+        <v>150</v>
+      </c>
+      <c r="Y91">
+        <v>150</v>
+      </c>
+      <c r="Z91">
+        <v>150</v>
+      </c>
+      <c r="AA91">
+        <v>150</v>
+      </c>
+      <c r="AB91">
+        <v>150</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD91">
         <v>6315</v>
       </c>
-      <c r="Y91">
+      <c r="AE91">
         <v>241</v>
       </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
-      <c r="AA91">
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:33">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8379,22 +10035,22 @@
         <v>90</v>
       </c>
       <c r="N92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="O92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="P92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="Q92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="R92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="S92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="T92">
         <v>152</v>
@@ -8405,23 +10061,41 @@
       <c r="V92">
         <v>152</v>
       </c>
-      <c r="W92" t="s">
-        <v>116</v>
+      <c r="W92">
+        <v>152</v>
       </c>
       <c r="X92">
+        <v>152</v>
+      </c>
+      <c r="Y92">
+        <v>152</v>
+      </c>
+      <c r="Z92">
+        <v>152</v>
+      </c>
+      <c r="AA92">
+        <v>152</v>
+      </c>
+      <c r="AB92">
+        <v>152</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD92">
         <v>6559</v>
       </c>
-      <c r="Y92">
+      <c r="AE92">
         <v>249</v>
       </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AA92">
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:33">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8462,22 +10136,22 @@
         <v>91</v>
       </c>
       <c r="N93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="P93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="Q93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="R93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="S93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="T93">
         <v>154</v>
@@ -8488,23 +10162,41 @@
       <c r="V93">
         <v>154</v>
       </c>
-      <c r="W93" t="s">
-        <v>117</v>
+      <c r="W93">
+        <v>154</v>
       </c>
       <c r="X93">
+        <v>154</v>
+      </c>
+      <c r="Y93">
+        <v>154</v>
+      </c>
+      <c r="Z93">
+        <v>154</v>
+      </c>
+      <c r="AA93">
+        <v>154</v>
+      </c>
+      <c r="AB93">
+        <v>154</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD93">
         <v>6559</v>
       </c>
-      <c r="Y93">
+      <c r="AE93">
         <v>249</v>
       </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93">
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:33">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8545,22 +10237,22 @@
         <v>92</v>
       </c>
       <c r="N94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="O94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="P94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="Q94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="R94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="S94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="T94">
         <v>156</v>
@@ -8571,23 +10263,41 @@
       <c r="V94">
         <v>156</v>
       </c>
-      <c r="W94" t="s">
-        <v>118</v>
+      <c r="W94">
+        <v>156</v>
       </c>
       <c r="X94">
+        <v>156</v>
+      </c>
+      <c r="Y94">
+        <v>156</v>
+      </c>
+      <c r="Z94">
+        <v>156</v>
+      </c>
+      <c r="AA94">
+        <v>156</v>
+      </c>
+      <c r="AB94">
+        <v>156</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD94">
         <v>6701</v>
       </c>
-      <c r="Y94">
+      <c r="AE94">
         <v>249</v>
       </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:33">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8628,22 +10338,22 @@
         <v>93</v>
       </c>
       <c r="N95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="O95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="P95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="Q95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="R95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="S95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="T95">
         <v>158</v>
@@ -8654,23 +10364,41 @@
       <c r="V95">
         <v>158</v>
       </c>
-      <c r="W95" t="s">
-        <v>119</v>
+      <c r="W95">
+        <v>158</v>
       </c>
       <c r="X95">
+        <v>158</v>
+      </c>
+      <c r="Y95">
+        <v>158</v>
+      </c>
+      <c r="Z95">
+        <v>158</v>
+      </c>
+      <c r="AA95">
+        <v>158</v>
+      </c>
+      <c r="AB95">
+        <v>158</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD95">
         <v>6797</v>
       </c>
-      <c r="Y95">
+      <c r="AE95">
         <v>249</v>
       </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
-      <c r="AA95">
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:33">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8711,22 +10439,22 @@
         <v>94</v>
       </c>
       <c r="N96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="O96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="P96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="Q96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="R96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="S96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="T96">
         <v>160</v>
@@ -8737,23 +10465,41 @@
       <c r="V96">
         <v>160</v>
       </c>
-      <c r="W96" t="s">
-        <v>120</v>
+      <c r="W96">
+        <v>160</v>
       </c>
       <c r="X96">
+        <v>160</v>
+      </c>
+      <c r="Y96">
+        <v>160</v>
+      </c>
+      <c r="Z96">
+        <v>160</v>
+      </c>
+      <c r="AA96">
+        <v>160</v>
+      </c>
+      <c r="AB96">
+        <v>160</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD96">
         <v>6882</v>
       </c>
-      <c r="Y96">
+      <c r="AE96">
         <v>249</v>
       </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:33">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8794,22 +10540,22 @@
         <v>95</v>
       </c>
       <c r="N97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="O97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="P97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="Q97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="R97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="S97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="T97">
         <v>162</v>
@@ -8820,23 +10566,41 @@
       <c r="V97">
         <v>162</v>
       </c>
-      <c r="W97" t="s">
-        <v>121</v>
+      <c r="W97">
+        <v>162</v>
       </c>
       <c r="X97">
+        <v>162</v>
+      </c>
+      <c r="Y97">
+        <v>162</v>
+      </c>
+      <c r="Z97">
+        <v>162</v>
+      </c>
+      <c r="AA97">
+        <v>162</v>
+      </c>
+      <c r="AB97">
+        <v>162</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD97">
         <v>7100</v>
       </c>
-      <c r="Y97">
+      <c r="AE97">
         <v>260</v>
       </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
-      <c r="AA97">
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:33">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8877,22 +10641,22 @@
         <v>96</v>
       </c>
       <c r="N98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="O98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="P98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="Q98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="R98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="S98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="T98">
         <v>164</v>
@@ -8903,23 +10667,41 @@
       <c r="V98">
         <v>164</v>
       </c>
-      <c r="W98" t="s">
-        <v>122</v>
+      <c r="W98">
+        <v>164</v>
       </c>
       <c r="X98">
+        <v>164</v>
+      </c>
+      <c r="Y98">
+        <v>164</v>
+      </c>
+      <c r="Z98">
+        <v>164</v>
+      </c>
+      <c r="AA98">
+        <v>164</v>
+      </c>
+      <c r="AB98">
+        <v>164</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD98">
         <v>7100</v>
       </c>
-      <c r="Y98">
+      <c r="AE98">
         <v>260</v>
       </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-      <c r="AA98">
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:33">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8960,22 +10742,22 @@
         <v>97</v>
       </c>
       <c r="N99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="O99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="P99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="Q99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="R99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="S99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="T99">
         <v>166</v>
@@ -8986,23 +10768,41 @@
       <c r="V99">
         <v>166</v>
       </c>
-      <c r="W99" t="s">
-        <v>123</v>
+      <c r="W99">
+        <v>166</v>
       </c>
       <c r="X99">
+        <v>166</v>
+      </c>
+      <c r="Y99">
+        <v>166</v>
+      </c>
+      <c r="Z99">
+        <v>166</v>
+      </c>
+      <c r="AA99">
+        <v>166</v>
+      </c>
+      <c r="AB99">
+        <v>166</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD99">
         <v>7385</v>
       </c>
-      <c r="Y99">
+      <c r="AE99">
         <v>269</v>
       </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:33">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9043,22 +10843,22 @@
         <v>98</v>
       </c>
       <c r="N100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="O100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="P100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="Q100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="R100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="S100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="T100">
         <v>168</v>
@@ -9069,23 +10869,41 @@
       <c r="V100">
         <v>168</v>
       </c>
-      <c r="W100" t="s">
-        <v>124</v>
+      <c r="W100">
+        <v>168</v>
       </c>
       <c r="X100">
+        <v>168</v>
+      </c>
+      <c r="Y100">
+        <v>168</v>
+      </c>
+      <c r="Z100">
+        <v>168</v>
+      </c>
+      <c r="AA100">
+        <v>168</v>
+      </c>
+      <c r="AB100">
+        <v>168</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD100">
         <v>7481</v>
       </c>
-      <c r="Y100">
+      <c r="AE100">
         <v>269</v>
       </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:33">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9126,22 +10944,22 @@
         <v>99</v>
       </c>
       <c r="N101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="O101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="P101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="Q101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="R101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="S101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="T101">
         <v>170</v>
@@ -9152,23 +10970,41 @@
       <c r="V101">
         <v>170</v>
       </c>
-      <c r="W101" t="s">
-        <v>125</v>
+      <c r="W101">
+        <v>170</v>
       </c>
       <c r="X101">
+        <v>170</v>
+      </c>
+      <c r="Y101">
+        <v>170</v>
+      </c>
+      <c r="Z101">
+        <v>170</v>
+      </c>
+      <c r="AA101">
+        <v>170</v>
+      </c>
+      <c r="AB101">
+        <v>170</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD101">
         <v>7481</v>
       </c>
-      <c r="Y101">
+      <c r="AE101">
         <v>269</v>
       </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
-      <c r="AA101">
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:33">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9209,22 +11045,22 @@
         <v>100</v>
       </c>
       <c r="N102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="O102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="P102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="Q102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="R102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="S102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="T102">
         <v>172</v>
@@ -9235,23 +11071,41 @@
       <c r="V102">
         <v>172</v>
       </c>
-      <c r="W102" t="s">
-        <v>126</v>
+      <c r="W102">
+        <v>172</v>
       </c>
       <c r="X102">
+        <v>172</v>
+      </c>
+      <c r="Y102">
+        <v>172</v>
+      </c>
+      <c r="Z102">
+        <v>172</v>
+      </c>
+      <c r="AA102">
+        <v>172</v>
+      </c>
+      <c r="AB102">
+        <v>172</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD102">
         <v>7554</v>
       </c>
-      <c r="Y102">
+      <c r="AE102">
         <v>269</v>
       </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
-      <c r="AA102">
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:33">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9292,22 +11146,22 @@
         <v>101</v>
       </c>
       <c r="N103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="O103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="P103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="Q103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="R103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="S103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="T103">
         <v>174</v>
@@ -9318,23 +11172,41 @@
       <c r="V103">
         <v>174</v>
       </c>
-      <c r="W103" t="s">
-        <v>127</v>
+      <c r="W103">
+        <v>174</v>
       </c>
       <c r="X103">
+        <v>174</v>
+      </c>
+      <c r="Y103">
+        <v>174</v>
+      </c>
+      <c r="Z103">
+        <v>174</v>
+      </c>
+      <c r="AA103">
+        <v>174</v>
+      </c>
+      <c r="AB103">
+        <v>174</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD103">
         <v>7674</v>
       </c>
-      <c r="Y103">
+      <c r="AE103">
         <v>276</v>
       </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:33">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9375,22 +11247,22 @@
         <v>102</v>
       </c>
       <c r="N104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="P104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="Q104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="R104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="S104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="T104">
         <v>176</v>
@@ -9401,23 +11273,41 @@
       <c r="V104">
         <v>176</v>
       </c>
-      <c r="W104" t="s">
-        <v>128</v>
+      <c r="W104">
+        <v>176</v>
       </c>
       <c r="X104">
+        <v>176</v>
+      </c>
+      <c r="Y104">
+        <v>176</v>
+      </c>
+      <c r="Z104">
+        <v>176</v>
+      </c>
+      <c r="AA104">
+        <v>176</v>
+      </c>
+      <c r="AB104">
+        <v>176</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD104">
         <v>7798</v>
       </c>
-      <c r="Y104">
+      <c r="AE104">
         <v>283</v>
       </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:33">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9458,22 +11348,22 @@
         <v>103</v>
       </c>
       <c r="N105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="O105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="P105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="Q105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="R105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="S105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="T105">
         <v>178</v>
@@ -9484,23 +11374,41 @@
       <c r="V105">
         <v>178</v>
       </c>
-      <c r="W105" t="s">
-        <v>129</v>
+      <c r="W105">
+        <v>178</v>
       </c>
       <c r="X105">
+        <v>178</v>
+      </c>
+      <c r="Y105">
+        <v>178</v>
+      </c>
+      <c r="Z105">
+        <v>178</v>
+      </c>
+      <c r="AA105">
+        <v>178</v>
+      </c>
+      <c r="AB105">
+        <v>178</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD105">
         <v>7940</v>
       </c>
-      <c r="Y105">
+      <c r="AE105">
         <v>288</v>
       </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AA105">
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:33">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9541,22 +11449,22 @@
         <v>104</v>
       </c>
       <c r="N106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="O106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="P106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="Q106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="R106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="S106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="T106">
         <v>180</v>
@@ -9567,23 +11475,41 @@
       <c r="V106">
         <v>180</v>
       </c>
-      <c r="W106" t="s">
-        <v>130</v>
+      <c r="W106">
+        <v>180</v>
       </c>
       <c r="X106">
+        <v>180</v>
+      </c>
+      <c r="Y106">
+        <v>180</v>
+      </c>
+      <c r="Z106">
+        <v>180</v>
+      </c>
+      <c r="AA106">
+        <v>180</v>
+      </c>
+      <c r="AB106">
+        <v>180</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD106">
         <v>8345</v>
       </c>
-      <c r="Y106">
+      <c r="AE106">
         <v>296</v>
       </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
-      <c r="AA106">
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:33">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9624,22 +11550,22 @@
         <v>105</v>
       </c>
       <c r="N107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="O107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="P107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="Q107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="R107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="S107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="T107">
         <v>182</v>
@@ -9650,23 +11576,41 @@
       <c r="V107">
         <v>182</v>
       </c>
-      <c r="W107" t="s">
-        <v>131</v>
+      <c r="W107">
+        <v>182</v>
       </c>
       <c r="X107">
+        <v>182</v>
+      </c>
+      <c r="Y107">
+        <v>182</v>
+      </c>
+      <c r="Z107">
+        <v>182</v>
+      </c>
+      <c r="AA107">
+        <v>182</v>
+      </c>
+      <c r="AB107">
+        <v>182</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD107">
         <v>8345</v>
       </c>
-      <c r="Y107">
+      <c r="AE107">
         <v>296</v>
       </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:33">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9707,22 +11651,22 @@
         <v>106</v>
       </c>
       <c r="N108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="O108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="P108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="R108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="S108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="T108">
         <v>184</v>
@@ -9733,23 +11677,41 @@
       <c r="V108">
         <v>184</v>
       </c>
-      <c r="W108" t="s">
-        <v>132</v>
+      <c r="W108">
+        <v>184</v>
       </c>
       <c r="X108">
+        <v>184</v>
+      </c>
+      <c r="Y108">
+        <v>184</v>
+      </c>
+      <c r="Z108">
+        <v>184</v>
+      </c>
+      <c r="AA108">
+        <v>184</v>
+      </c>
+      <c r="AB108">
+        <v>184</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD108">
         <v>8619</v>
       </c>
-      <c r="Y108">
+      <c r="AE108">
         <v>296</v>
       </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
-      <c r="AA108">
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:33">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9790,22 +11752,22 @@
         <v>107</v>
       </c>
       <c r="N109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="O109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="P109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="Q109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="R109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="S109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="T109">
         <v>186</v>
@@ -9816,23 +11778,41 @@
       <c r="V109">
         <v>186</v>
       </c>
-      <c r="W109" t="s">
-        <v>133</v>
+      <c r="W109">
+        <v>186</v>
       </c>
       <c r="X109">
+        <v>186</v>
+      </c>
+      <c r="Y109">
+        <v>186</v>
+      </c>
+      <c r="Z109">
+        <v>186</v>
+      </c>
+      <c r="AA109">
+        <v>186</v>
+      </c>
+      <c r="AB109">
+        <v>186</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD109">
         <v>8619</v>
       </c>
-      <c r="Y109">
+      <c r="AE109">
         <v>296</v>
       </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:33">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9873,22 +11853,22 @@
         <v>108</v>
       </c>
       <c r="N110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="O110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="P110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="Q110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="R110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="S110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="T110">
         <v>188</v>
@@ -9899,23 +11879,41 @@
       <c r="V110">
         <v>188</v>
       </c>
-      <c r="W110" t="s">
-        <v>134</v>
+      <c r="W110">
+        <v>188</v>
       </c>
       <c r="X110">
+        <v>188</v>
+      </c>
+      <c r="Y110">
+        <v>188</v>
+      </c>
+      <c r="Z110">
+        <v>188</v>
+      </c>
+      <c r="AA110">
+        <v>188</v>
+      </c>
+      <c r="AB110">
+        <v>188</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD110">
         <v>8837</v>
       </c>
-      <c r="Y110">
+      <c r="AE110">
         <v>305</v>
       </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AA110">
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:33">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9956,22 +11954,22 @@
         <v>109</v>
       </c>
       <c r="N111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="O111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="P111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="Q111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="R111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="S111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="T111">
         <v>190</v>
@@ -9982,23 +11980,41 @@
       <c r="V111">
         <v>190</v>
       </c>
-      <c r="W111" t="s">
-        <v>135</v>
+      <c r="W111">
+        <v>190</v>
       </c>
       <c r="X111">
+        <v>190</v>
+      </c>
+      <c r="Y111">
+        <v>190</v>
+      </c>
+      <c r="Z111">
+        <v>190</v>
+      </c>
+      <c r="AA111">
+        <v>190</v>
+      </c>
+      <c r="AB111">
+        <v>190</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD111">
         <v>8998</v>
       </c>
-      <c r="Y111">
+      <c r="AE111">
         <v>308</v>
       </c>
-      <c r="Z111">
-        <v>0</v>
-      </c>
-      <c r="AA111">
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:33">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10032,19 +12048,37 @@
       <c r="K112">
         <v>110</v>
       </c>
-      <c r="W112" t="s">
-        <v>136</v>
-      </c>
-      <c r="X112">
+      <c r="L112">
+        <v>110</v>
+      </c>
+      <c r="M112">
+        <v>110</v>
+      </c>
+      <c r="N112">
+        <v>110</v>
+      </c>
+      <c r="O112">
+        <v>110</v>
+      </c>
+      <c r="P112">
+        <v>110</v>
+      </c>
+      <c r="Q112">
+        <v>110</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD112">
         <v>8998</v>
       </c>
-      <c r="Y112">
+      <c r="AE112">
         <v>308</v>
       </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -800,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG112"/>
+  <dimension ref="A1:AH112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +906,11 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -989,23 +995,26 @@
       <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AC2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1090,14 +1099,14 @@
       <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AC3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3">
+      <c r="AC3">
         <v>1</v>
       </c>
+      <c r="AD3" t="s">
+        <v>34</v>
+      </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1105,8 +1114,11 @@
       <c r="AG3">
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1191,14 +1203,14 @@
       <c r="AB4">
         <v>2</v>
       </c>
-      <c r="AC4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4">
+      <c r="AC4">
         <v>2</v>
       </c>
+      <c r="AD4" t="s">
+        <v>35</v>
+      </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1206,8 +1218,11 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1292,23 +1307,26 @@
       <c r="AB5">
         <v>3</v>
       </c>
-      <c r="AC5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD5">
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5">
         <v>2</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1393,23 +1411,26 @@
       <c r="AB6">
         <v>4</v>
       </c>
-      <c r="AC6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD6">
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6">
         <v>2</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1494,23 +1515,26 @@
       <c r="AB7">
         <v>5</v>
       </c>
-      <c r="AC7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7">
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7">
         <v>2</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1595,23 +1619,26 @@
       <c r="AB8">
         <v>6</v>
       </c>
-      <c r="AC8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8">
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE8">
         <v>2</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1696,23 +1723,26 @@
       <c r="AB9">
         <v>7</v>
       </c>
-      <c r="AC9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD9">
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9">
         <v>2</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1797,23 +1827,26 @@
       <c r="AB10">
         <v>8</v>
       </c>
-      <c r="AC10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD10">
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10">
         <v>2</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1898,23 +1931,26 @@
       <c r="AB11">
         <v>9</v>
       </c>
-      <c r="AC11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD11">
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11">
         <v>2</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1999,23 +2035,26 @@
       <c r="AB12">
         <v>10</v>
       </c>
-      <c r="AC12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD12">
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12">
         <v>2</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
       <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>1</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2100,23 +2139,26 @@
       <c r="AB13">
         <v>11</v>
       </c>
-      <c r="AC13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD13">
+      <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13">
         <v>2</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>1</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2201,23 +2243,26 @@
       <c r="AB14">
         <v>12</v>
       </c>
-      <c r="AC14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD14">
+      <c r="AC14">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14">
         <v>2</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
       <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
         <v>1</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2302,23 +2347,26 @@
       <c r="AB15">
         <v>13</v>
       </c>
-      <c r="AC15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD15">
+      <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE15">
         <v>2</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
       <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>1</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2403,23 +2451,26 @@
       <c r="AB16">
         <v>14</v>
       </c>
-      <c r="AC16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD16">
+      <c r="AC16">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE16">
         <v>2</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
       <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>1</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:34">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2504,23 +2555,26 @@
       <c r="AB17">
         <v>15</v>
       </c>
-      <c r="AC17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17">
+      <c r="AC17">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17">
         <v>2</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
       <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>1</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:34">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2605,23 +2659,26 @@
       <c r="AB18">
         <v>16</v>
       </c>
-      <c r="AC18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD18">
+      <c r="AC18">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE18">
         <v>2</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>1</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:34">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2706,23 +2763,26 @@
       <c r="AB19">
         <v>17</v>
       </c>
-      <c r="AC19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD19">
+      <c r="AC19">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE19">
         <v>2</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
       <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>1</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:34">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2807,23 +2867,26 @@
       <c r="AB20">
         <v>18</v>
       </c>
-      <c r="AC20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD20">
+      <c r="AC20">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE20">
         <v>2</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
       <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>1</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:34">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2908,23 +2971,26 @@
       <c r="AB21">
         <v>19</v>
       </c>
-      <c r="AC21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD21">
+      <c r="AC21">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE21">
         <v>2</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>1</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:34">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3009,23 +3075,26 @@
       <c r="AB22">
         <v>20</v>
       </c>
-      <c r="AC22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD22">
+      <c r="AC22">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE22">
         <v>2</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>1</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:34">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3110,23 +3179,26 @@
       <c r="AB23">
         <v>21</v>
       </c>
-      <c r="AC23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD23">
+      <c r="AC23">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE23">
         <v>2</v>
       </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>1</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:34">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3211,23 +3283,26 @@
       <c r="AB24">
         <v>22</v>
       </c>
-      <c r="AC24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD24">
+      <c r="AC24">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE24">
         <v>2</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>1</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:34">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3312,23 +3387,26 @@
       <c r="AB25">
         <v>23</v>
       </c>
-      <c r="AC25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD25">
+      <c r="AC25">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25">
         <v>3</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>1</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:34">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3413,23 +3491,26 @@
       <c r="AB26">
         <v>24</v>
       </c>
-      <c r="AC26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD26">
+      <c r="AC26">
+        <v>24</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE26">
         <v>3</v>
       </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
       <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>1</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:34">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3514,23 +3595,26 @@
       <c r="AB27">
         <v>25</v>
       </c>
-      <c r="AC27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD27">
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE27">
         <v>3</v>
       </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
       <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>1</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:34">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3615,23 +3699,26 @@
       <c r="AB28">
         <v>26</v>
       </c>
-      <c r="AC28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD28">
+      <c r="AC28">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE28">
         <v>3</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
       <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
         <v>1</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:34">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3716,23 +3803,26 @@
       <c r="AB29">
         <v>27</v>
       </c>
-      <c r="AC29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD29">
+      <c r="AC29">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE29">
         <v>3</v>
       </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
       <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
         <v>1</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:34">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3817,23 +3907,26 @@
       <c r="AB30">
         <v>28</v>
       </c>
-      <c r="AC30" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD30">
+      <c r="AC30">
+        <v>28</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE30">
         <v>155</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
       <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:34">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3892,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31">
         <v>30</v>
@@ -3918,23 +4011,26 @@
       <c r="AB31">
         <v>30</v>
       </c>
-      <c r="AC31" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD31">
+      <c r="AC31">
+        <v>30</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE31">
         <v>201</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1</v>
       </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
       <c r="AG31">
         <v>0</v>
       </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:34">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3993,7 +4089,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U32">
         <v>32</v>
@@ -4019,23 +4115,26 @@
       <c r="AB32">
         <v>32</v>
       </c>
-      <c r="AC32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD32">
+      <c r="AC32">
+        <v>32</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE32">
         <v>226</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1</v>
       </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
       <c r="AG32">
         <v>0</v>
       </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:34">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4094,7 +4193,7 @@
         <v>31</v>
       </c>
       <c r="T33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U33">
         <v>34</v>
@@ -4120,23 +4219,26 @@
       <c r="AB33">
         <v>34</v>
       </c>
-      <c r="AC33" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD33">
+      <c r="AC33">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE33">
         <v>238</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>2</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
       <c r="AG33">
         <v>0</v>
       </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:34">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4195,7 +4297,7 @@
         <v>32</v>
       </c>
       <c r="T34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U34">
         <v>36</v>
@@ -4221,23 +4323,26 @@
       <c r="AB34">
         <v>36</v>
       </c>
-      <c r="AC34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD34">
+      <c r="AC34">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE34">
         <v>293</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>3</v>
       </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
       <c r="AG34">
         <v>0</v>
       </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:34">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4296,7 +4401,7 @@
         <v>33</v>
       </c>
       <c r="T35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U35">
         <v>38</v>
@@ -4322,23 +4427,26 @@
       <c r="AB35">
         <v>38</v>
       </c>
-      <c r="AC35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD35">
+      <c r="AC35">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35">
         <v>341</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>3</v>
       </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
       <c r="AG35">
         <v>0</v>
       </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:34">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4397,7 +4505,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="U36">
         <v>40</v>
@@ -4423,23 +4531,26 @@
       <c r="AB36">
         <v>40</v>
       </c>
-      <c r="AC36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD36">
+      <c r="AC36">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE36">
         <v>413</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>6</v>
       </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
       <c r="AG36">
         <v>0</v>
       </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:34">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4498,7 +4609,7 @@
         <v>35</v>
       </c>
       <c r="T37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="U37">
         <v>42</v>
@@ -4524,23 +4635,26 @@
       <c r="AB37">
         <v>42</v>
       </c>
-      <c r="AC37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD37">
+      <c r="AC37">
+        <v>42</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE37">
         <v>484</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>7</v>
       </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
       <c r="AG37">
         <v>0</v>
       </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:34">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4599,7 +4713,7 @@
         <v>36</v>
       </c>
       <c r="T38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="U38">
         <v>44</v>
@@ -4625,23 +4739,26 @@
       <c r="AB38">
         <v>44</v>
       </c>
-      <c r="AC38" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD38">
+      <c r="AC38">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE38">
         <v>515</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>7</v>
       </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
       <c r="AG38">
         <v>0</v>
       </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:34">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4700,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="T39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="U39">
         <v>46</v>
@@ -4726,23 +4843,26 @@
       <c r="AB39">
         <v>46</v>
       </c>
-      <c r="AC39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD39">
+      <c r="AC39">
+        <v>46</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE39">
         <v>603</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>7</v>
       </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
       <c r="AG39">
         <v>0</v>
       </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:34">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4801,7 +4921,7 @@
         <v>38</v>
       </c>
       <c r="T40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U40">
         <v>48</v>
@@ -4827,23 +4947,26 @@
       <c r="AB40">
         <v>48</v>
       </c>
-      <c r="AC40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD40">
+      <c r="AC40">
+        <v>48</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE40">
         <v>733</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
       <c r="AG40">
         <v>0</v>
       </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:34">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4902,7 +5025,7 @@
         <v>39</v>
       </c>
       <c r="T41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="U41">
         <v>50</v>
@@ -4928,23 +5051,26 @@
       <c r="AB41">
         <v>50</v>
       </c>
-      <c r="AC41" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD41">
+      <c r="AC41">
+        <v>50</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE41">
         <v>849</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>15</v>
       </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
       <c r="AG41">
         <v>0</v>
       </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:34">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5003,7 +5129,7 @@
         <v>40</v>
       </c>
       <c r="T42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="U42">
         <v>52</v>
@@ -5029,23 +5155,26 @@
       <c r="AB42">
         <v>52</v>
       </c>
-      <c r="AC42" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD42">
+      <c r="AC42">
+        <v>52</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE42">
         <v>966</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>16</v>
       </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
       <c r="AG42">
         <v>0</v>
       </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:34">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5104,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="T43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="U43">
         <v>54</v>
@@ -5130,23 +5259,26 @@
       <c r="AB43">
         <v>54</v>
       </c>
-      <c r="AC43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD43">
+      <c r="AC43">
+        <v>54</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE43">
         <v>1112</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>17</v>
       </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
       <c r="AG43">
         <v>0</v>
       </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:34">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5205,7 +5337,7 @@
         <v>42</v>
       </c>
       <c r="T44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="U44">
         <v>56</v>
@@ -5231,23 +5363,26 @@
       <c r="AB44">
         <v>56</v>
       </c>
-      <c r="AC44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD44">
+      <c r="AC44">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE44">
         <v>1209</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>18</v>
       </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
       <c r="AG44">
         <v>0</v>
       </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:34">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5306,7 +5441,7 @@
         <v>43</v>
       </c>
       <c r="T45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="U45">
         <v>58</v>
@@ -5332,23 +5467,26 @@
       <c r="AB45">
         <v>58</v>
       </c>
-      <c r="AC45" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD45">
+      <c r="AC45">
+        <v>58</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE45">
         <v>1326</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>19</v>
       </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
       <c r="AG45">
         <v>0</v>
       </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:34">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5407,7 +5545,7 @@
         <v>44</v>
       </c>
       <c r="T46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="U46">
         <v>60</v>
@@ -5433,23 +5571,26 @@
       <c r="AB46">
         <v>60</v>
       </c>
-      <c r="AC46" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD46">
+      <c r="AC46">
+        <v>60</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE46">
         <v>1404</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>19</v>
       </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
       <c r="AG46">
         <v>0</v>
       </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:34">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5508,7 +5649,7 @@
         <v>45</v>
       </c>
       <c r="T47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="U47">
         <v>62</v>
@@ -5534,23 +5675,26 @@
       <c r="AB47">
         <v>62</v>
       </c>
-      <c r="AC47" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD47">
+      <c r="AC47">
+        <v>62</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE47">
         <v>1454</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>31</v>
       </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
       <c r="AG47">
         <v>0</v>
       </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:34">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5609,7 +5753,7 @@
         <v>46</v>
       </c>
       <c r="T48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="U48">
         <v>64</v>
@@ -5635,23 +5779,26 @@
       <c r="AB48">
         <v>64</v>
       </c>
-      <c r="AC48" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD48">
+      <c r="AC48">
+        <v>64</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE48">
         <v>1530</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>36</v>
       </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
       <c r="AG48">
         <v>0</v>
       </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:34">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5710,7 +5857,7 @@
         <v>47</v>
       </c>
       <c r="T49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="U49">
         <v>66</v>
@@ -5736,23 +5883,26 @@
       <c r="AB49">
         <v>66</v>
       </c>
-      <c r="AC49" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD49">
+      <c r="AC49">
+        <v>66</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE49">
         <v>1628</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>40</v>
       </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
       <c r="AG49">
         <v>0</v>
       </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:34">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5811,7 +5961,7 @@
         <v>48</v>
       </c>
       <c r="T50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="U50">
         <v>68</v>
@@ -5837,23 +5987,26 @@
       <c r="AB50">
         <v>68</v>
       </c>
-      <c r="AC50" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD50">
+      <c r="AC50">
+        <v>68</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE50">
         <v>1693</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>44</v>
       </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
       <c r="AG50">
         <v>0</v>
       </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:34">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5912,7 +6065,7 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="U51">
         <v>70</v>
@@ -5938,23 +6091,26 @@
       <c r="AB51">
         <v>70</v>
       </c>
-      <c r="AC51" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD51">
+      <c r="AC51">
+        <v>70</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE51">
         <v>1761</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>45</v>
       </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
       <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:34">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6013,7 +6169,7 @@
         <v>50</v>
       </c>
       <c r="T52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="U52">
         <v>72</v>
@@ -6039,23 +6195,26 @@
       <c r="AB52">
         <v>72</v>
       </c>
-      <c r="AC52" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD52">
+      <c r="AC52">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE52">
         <v>1804</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>45</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
       <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:34">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6114,7 +6273,7 @@
         <v>51</v>
       </c>
       <c r="T53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U53">
         <v>74</v>
@@ -6140,23 +6299,26 @@
       <c r="AB53">
         <v>74</v>
       </c>
-      <c r="AC53" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD53">
+      <c r="AC53">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE53">
         <v>1847</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>47</v>
       </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
       <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:34">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6215,7 +6377,7 @@
         <v>52</v>
       </c>
       <c r="T54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="U54">
         <v>76</v>
@@ -6241,23 +6403,26 @@
       <c r="AB54">
         <v>76</v>
       </c>
-      <c r="AC54" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD54">
+      <c r="AC54">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE54">
         <v>1930</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>53</v>
       </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
       <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:34">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6316,7 +6481,7 @@
         <v>53</v>
       </c>
       <c r="T55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="U55">
         <v>78</v>
@@ -6342,23 +6507,26 @@
       <c r="AB55">
         <v>78</v>
       </c>
-      <c r="AC55" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD55">
+      <c r="AC55">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE55">
         <v>2012</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>60</v>
       </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
       <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:34">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6417,7 +6585,7 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="U56">
         <v>80</v>
@@ -6443,23 +6611,26 @@
       <c r="AB56">
         <v>80</v>
       </c>
-      <c r="AC56" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD56">
+      <c r="AC56">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE56">
         <v>2087</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>63</v>
       </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
       <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:34">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6518,7 +6689,7 @@
         <v>55</v>
       </c>
       <c r="T57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="U57">
         <v>82</v>
@@ -6544,23 +6715,26 @@
       <c r="AB57">
         <v>82</v>
       </c>
-      <c r="AC57" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD57">
+      <c r="AC57">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE57">
         <v>2158</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>70</v>
       </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
       <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:34">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6619,7 +6793,7 @@
         <v>56</v>
       </c>
       <c r="T58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="U58">
         <v>84</v>
@@ -6645,23 +6819,26 @@
       <c r="AB58">
         <v>84</v>
       </c>
-      <c r="AC58" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD58">
+      <c r="AC58">
+        <v>84</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE58">
         <v>2213</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>71</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
       <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:34">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6720,7 +6897,7 @@
         <v>57</v>
       </c>
       <c r="T59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="U59">
         <v>86</v>
@@ -6746,23 +6923,26 @@
       <c r="AB59">
         <v>86</v>
       </c>
-      <c r="AC59" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD59">
+      <c r="AC59">
+        <v>86</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE59">
         <v>2268</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>71</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
       <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:34">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6821,7 +7001,7 @@
         <v>58</v>
       </c>
       <c r="T60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="U60">
         <v>88</v>
@@ -6847,23 +7027,26 @@
       <c r="AB60">
         <v>88</v>
       </c>
-      <c r="AC60" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD60">
+      <c r="AC60">
+        <v>88</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE60">
         <v>2325</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>72</v>
       </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
       <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:34">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6922,7 +7105,7 @@
         <v>59</v>
       </c>
       <c r="T61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="U61">
         <v>90</v>
@@ -6948,23 +7131,26 @@
       <c r="AB61">
         <v>90</v>
       </c>
-      <c r="AC61" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD61">
+      <c r="AC61">
+        <v>90</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE61">
         <v>2491</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>96</v>
       </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
       <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:34">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7023,7 +7209,7 @@
         <v>60</v>
       </c>
       <c r="T62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="U62">
         <v>92</v>
@@ -7049,23 +7235,26 @@
       <c r="AB62">
         <v>92</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AC62">
         <v>92</v>
       </c>
-      <c r="AD62">
+      <c r="AD62" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE62">
         <v>2643</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>100</v>
       </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
       <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:34">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7124,7 +7313,7 @@
         <v>61</v>
       </c>
       <c r="T63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="U63">
         <v>94</v>
@@ -7150,23 +7339,26 @@
       <c r="AB63">
         <v>94</v>
       </c>
-      <c r="AC63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD63">
+      <c r="AC63">
+        <v>94</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE63">
         <v>2826</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>102</v>
       </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
       <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:34">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7225,7 +7417,7 @@
         <v>62</v>
       </c>
       <c r="T64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="U64">
         <v>96</v>
@@ -7251,23 +7443,26 @@
       <c r="AB64">
         <v>96</v>
       </c>
-      <c r="AC64" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD64">
+      <c r="AC64">
+        <v>96</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE64">
         <v>2943</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>111</v>
       </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
       <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:34">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7326,7 +7521,7 @@
         <v>63</v>
       </c>
       <c r="T65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="U65">
         <v>98</v>
@@ -7352,23 +7547,26 @@
       <c r="AB65">
         <v>98</v>
       </c>
-      <c r="AC65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD65">
+      <c r="AC65">
+        <v>98</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE65">
         <v>2943</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>111</v>
       </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
       <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:34">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7427,7 +7625,7 @@
         <v>64</v>
       </c>
       <c r="T66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="U66">
         <v>100</v>
@@ -7453,23 +7651,26 @@
       <c r="AB66">
         <v>100</v>
       </c>
-      <c r="AC66" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD66">
+      <c r="AC66">
+        <v>100</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE66">
         <v>3043</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>111</v>
       </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
       <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:34">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7528,7 +7729,7 @@
         <v>65</v>
       </c>
       <c r="T67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="U67">
         <v>102</v>
@@ -7554,23 +7755,26 @@
       <c r="AB67">
         <v>102</v>
       </c>
-      <c r="AC67" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD67">
+      <c r="AC67">
+        <v>102</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE67">
         <v>3141</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>113</v>
       </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
       <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:34">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7629,7 +7833,7 @@
         <v>66</v>
       </c>
       <c r="T68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="U68">
         <v>104</v>
@@ -7655,23 +7859,26 @@
       <c r="AB68">
         <v>104</v>
       </c>
-      <c r="AC68" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD68">
+      <c r="AC68">
+        <v>104</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE68">
         <v>3432</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>120</v>
       </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
       <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:34">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7730,7 +7937,7 @@
         <v>67</v>
       </c>
       <c r="T69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="U69">
         <v>106</v>
@@ -7756,23 +7963,26 @@
       <c r="AB69">
         <v>106</v>
       </c>
-      <c r="AC69" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD69">
+      <c r="AC69">
+        <v>106</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE69">
         <v>3432</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>120</v>
       </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
       <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:34">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7831,7 +8041,7 @@
         <v>68</v>
       </c>
       <c r="T70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="U70">
         <v>108</v>
@@ -7857,23 +8067,26 @@
       <c r="AB70">
         <v>108</v>
       </c>
-      <c r="AC70" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD70">
+      <c r="AC70">
+        <v>108</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE70">
         <v>3564</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>124</v>
       </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
       <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:34">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7932,7 +8145,7 @@
         <v>69</v>
       </c>
       <c r="T71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="U71">
         <v>110</v>
@@ -7958,23 +8171,26 @@
       <c r="AB71">
         <v>110</v>
       </c>
-      <c r="AC71" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD71">
+      <c r="AC71">
+        <v>110</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE71">
         <v>3711</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>134</v>
       </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
       <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:34">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8033,7 +8249,7 @@
         <v>70</v>
       </c>
       <c r="T72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="U72">
         <v>112</v>
@@ -8059,23 +8275,26 @@
       <c r="AB72">
         <v>112</v>
       </c>
-      <c r="AC72" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD72">
+      <c r="AC72">
+        <v>112</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE72">
         <v>3927</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>139</v>
       </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
       <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:34">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8134,7 +8353,7 @@
         <v>71</v>
       </c>
       <c r="T73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="U73">
         <v>114</v>
@@ -8160,23 +8379,26 @@
       <c r="AB73">
         <v>114</v>
       </c>
-      <c r="AC73" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD73">
+      <c r="AC73">
+        <v>114</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE73">
         <v>3927</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>139</v>
       </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
       <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:34">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8235,7 +8457,7 @@
         <v>72</v>
       </c>
       <c r="T74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="U74">
         <v>116</v>
@@ -8261,23 +8483,26 @@
       <c r="AB74">
         <v>116</v>
       </c>
-      <c r="AC74" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD74">
+      <c r="AC74">
+        <v>116</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE74">
         <v>4020</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>144</v>
       </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
       <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:34">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8336,7 +8561,7 @@
         <v>73</v>
       </c>
       <c r="T75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="U75">
         <v>118</v>
@@ -8362,23 +8587,26 @@
       <c r="AB75">
         <v>118</v>
       </c>
-      <c r="AC75" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD75">
+      <c r="AC75">
+        <v>118</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE75">
         <v>4319</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>158</v>
       </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
       <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:34">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8437,7 +8665,7 @@
         <v>74</v>
       </c>
       <c r="T76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="U76">
         <v>120</v>
@@ -8463,23 +8691,26 @@
       <c r="AB76">
         <v>120</v>
       </c>
-      <c r="AC76" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD76">
+      <c r="AC76">
+        <v>120</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE76">
         <v>4319</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>158</v>
       </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
       <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:34">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8538,7 +8769,7 @@
         <v>75</v>
       </c>
       <c r="T77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="U77">
         <v>122</v>
@@ -8564,23 +8795,26 @@
       <c r="AB77">
         <v>122</v>
       </c>
-      <c r="AC77" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD77">
+      <c r="AC77">
+        <v>122</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE77">
         <v>4429</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>165</v>
       </c>
-      <c r="AF77">
-        <v>0</v>
-      </c>
       <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:34">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8639,7 +8873,7 @@
         <v>76</v>
       </c>
       <c r="T78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="U78">
         <v>124</v>
@@ -8665,23 +8899,26 @@
       <c r="AB78">
         <v>124</v>
       </c>
-      <c r="AC78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD78">
+      <c r="AC78">
+        <v>124</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE78">
         <v>4662</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>169</v>
       </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
       <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:34">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8740,7 +8977,7 @@
         <v>77</v>
       </c>
       <c r="T79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="U79">
         <v>126</v>
@@ -8766,23 +9003,26 @@
       <c r="AB79">
         <v>126</v>
       </c>
-      <c r="AC79" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD79">
+      <c r="AC79">
+        <v>126</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE79">
         <v>4776</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>175</v>
       </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
       <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:34">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8841,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="T80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="U80">
         <v>128</v>
@@ -8867,23 +9107,26 @@
       <c r="AB80">
         <v>128</v>
       </c>
-      <c r="AC80" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD80">
+      <c r="AC80">
+        <v>128</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE80">
         <v>5065</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>175</v>
       </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
       <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:34">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8942,7 +9185,7 @@
         <v>79</v>
       </c>
       <c r="T81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="U81">
         <v>130</v>
@@ -8968,23 +9211,26 @@
       <c r="AB81">
         <v>130</v>
       </c>
-      <c r="AC81" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD81">
+      <c r="AC81">
+        <v>130</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE81">
         <v>5161</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>190</v>
       </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
       <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:34">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9043,7 +9289,7 @@
         <v>80</v>
       </c>
       <c r="T82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="U82">
         <v>132</v>
@@ -9069,23 +9315,26 @@
       <c r="AB82">
         <v>132</v>
       </c>
-      <c r="AC82" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD82">
+      <c r="AC82">
+        <v>132</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE82">
         <v>5161</v>
       </c>
-      <c r="AE82">
+      <c r="AF82">
         <v>190</v>
       </c>
-      <c r="AF82">
-        <v>0</v>
-      </c>
       <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:34">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9144,7 +9393,7 @@
         <v>81</v>
       </c>
       <c r="T83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="U83">
         <v>134</v>
@@ -9170,23 +9419,26 @@
       <c r="AB83">
         <v>134</v>
       </c>
-      <c r="AC83" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD83">
+      <c r="AC83">
+        <v>134</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE83">
         <v>5391</v>
       </c>
-      <c r="AE83">
+      <c r="AF83">
         <v>200</v>
       </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
       <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:34">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9245,7 +9497,7 @@
         <v>82</v>
       </c>
       <c r="T84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="U84">
         <v>136</v>
@@ -9271,23 +9523,26 @@
       <c r="AB84">
         <v>136</v>
       </c>
-      <c r="AC84" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD84">
+      <c r="AC84">
+        <v>136</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE84">
         <v>5391</v>
       </c>
-      <c r="AE84">
+      <c r="AF84">
         <v>200</v>
       </c>
-      <c r="AF84">
-        <v>0</v>
-      </c>
       <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:34">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9346,7 +9601,7 @@
         <v>83</v>
       </c>
       <c r="T85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="U85">
         <v>138</v>
@@ -9372,23 +9627,26 @@
       <c r="AB85">
         <v>138</v>
       </c>
-      <c r="AC85" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD85">
+      <c r="AC85">
+        <v>138</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE85">
         <v>5662</v>
       </c>
-      <c r="AE85">
+      <c r="AF85">
         <v>209</v>
       </c>
-      <c r="AF85">
-        <v>0</v>
-      </c>
       <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:34">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9447,7 +9705,7 @@
         <v>84</v>
       </c>
       <c r="T86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="U86">
         <v>140</v>
@@ -9473,23 +9731,26 @@
       <c r="AB86">
         <v>140</v>
       </c>
-      <c r="AC86" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD86">
+      <c r="AC86">
+        <v>140</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE86">
         <v>5836</v>
       </c>
-      <c r="AE86">
+      <c r="AF86">
         <v>209</v>
       </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
       <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:34">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9548,7 +9809,7 @@
         <v>85</v>
       </c>
       <c r="T87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="U87">
         <v>142</v>
@@ -9574,23 +9835,26 @@
       <c r="AB87">
         <v>142</v>
       </c>
-      <c r="AC87" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD87">
+      <c r="AC87">
+        <v>142</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE87">
         <v>5836</v>
       </c>
-      <c r="AE87">
+      <c r="AF87">
         <v>209</v>
       </c>
-      <c r="AF87">
-        <v>0</v>
-      </c>
       <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:34">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9649,7 +9913,7 @@
         <v>86</v>
       </c>
       <c r="T88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="U88">
         <v>144</v>
@@ -9675,23 +9939,26 @@
       <c r="AB88">
         <v>144</v>
       </c>
-      <c r="AC88" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD88">
+      <c r="AC88">
+        <v>144</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE88">
         <v>6026</v>
       </c>
-      <c r="AE88">
+      <c r="AF88">
         <v>222</v>
       </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
       <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:34">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9750,7 +10017,7 @@
         <v>87</v>
       </c>
       <c r="T89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="U89">
         <v>146</v>
@@ -9776,23 +10043,26 @@
       <c r="AB89">
         <v>146</v>
       </c>
-      <c r="AC89" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD89">
+      <c r="AC89">
+        <v>146</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE89">
         <v>6140</v>
       </c>
-      <c r="AE89">
+      <c r="AF89">
         <v>230</v>
       </c>
-      <c r="AF89">
-        <v>0</v>
-      </c>
       <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:34">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9851,7 +10121,7 @@
         <v>88</v>
       </c>
       <c r="T90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="U90">
         <v>148</v>
@@ -9877,23 +10147,26 @@
       <c r="AB90">
         <v>148</v>
       </c>
-      <c r="AC90" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD90">
+      <c r="AC90">
+        <v>148</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE90">
         <v>6140</v>
       </c>
-      <c r="AE90">
+      <c r="AF90">
         <v>230</v>
       </c>
-      <c r="AF90">
-        <v>0</v>
-      </c>
       <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:34">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9952,7 +10225,7 @@
         <v>89</v>
       </c>
       <c r="T91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="U91">
         <v>150</v>
@@ -9978,23 +10251,26 @@
       <c r="AB91">
         <v>150</v>
       </c>
-      <c r="AC91" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD91">
+      <c r="AC91">
+        <v>150</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE91">
         <v>6315</v>
       </c>
-      <c r="AE91">
+      <c r="AF91">
         <v>241</v>
       </c>
-      <c r="AF91">
-        <v>0</v>
-      </c>
       <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:34">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10053,7 +10329,7 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="U92">
         <v>152</v>
@@ -10079,23 +10355,26 @@
       <c r="AB92">
         <v>152</v>
       </c>
-      <c r="AC92" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD92">
+      <c r="AC92">
+        <v>152</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE92">
         <v>6559</v>
       </c>
-      <c r="AE92">
+      <c r="AF92">
         <v>249</v>
       </c>
-      <c r="AF92">
-        <v>0</v>
-      </c>
       <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:34">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10154,7 +10433,7 @@
         <v>91</v>
       </c>
       <c r="T93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="U93">
         <v>154</v>
@@ -10180,23 +10459,26 @@
       <c r="AB93">
         <v>154</v>
       </c>
-      <c r="AC93" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD93">
+      <c r="AC93">
+        <v>154</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE93">
         <v>6559</v>
       </c>
-      <c r="AE93">
+      <c r="AF93">
         <v>249</v>
       </c>
-      <c r="AF93">
-        <v>0</v>
-      </c>
       <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:34">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10255,7 +10537,7 @@
         <v>92</v>
       </c>
       <c r="T94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="U94">
         <v>156</v>
@@ -10281,23 +10563,26 @@
       <c r="AB94">
         <v>156</v>
       </c>
-      <c r="AC94" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD94">
+      <c r="AC94">
+        <v>156</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE94">
         <v>6701</v>
       </c>
-      <c r="AE94">
+      <c r="AF94">
         <v>249</v>
       </c>
-      <c r="AF94">
-        <v>0</v>
-      </c>
       <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:34">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10356,7 +10641,7 @@
         <v>93</v>
       </c>
       <c r="T95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="U95">
         <v>158</v>
@@ -10382,23 +10667,26 @@
       <c r="AB95">
         <v>158</v>
       </c>
-      <c r="AC95" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD95">
+      <c r="AC95">
+        <v>158</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE95">
         <v>6797</v>
       </c>
-      <c r="AE95">
+      <c r="AF95">
         <v>249</v>
       </c>
-      <c r="AF95">
-        <v>0</v>
-      </c>
       <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:34">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10457,7 +10745,7 @@
         <v>94</v>
       </c>
       <c r="T96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="U96">
         <v>160</v>
@@ -10483,23 +10771,26 @@
       <c r="AB96">
         <v>160</v>
       </c>
-      <c r="AC96" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD96">
+      <c r="AC96">
+        <v>160</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE96">
         <v>6882</v>
       </c>
-      <c r="AE96">
+      <c r="AF96">
         <v>249</v>
       </c>
-      <c r="AF96">
-        <v>0</v>
-      </c>
       <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:34">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10558,7 +10849,7 @@
         <v>95</v>
       </c>
       <c r="T97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="U97">
         <v>162</v>
@@ -10584,23 +10875,26 @@
       <c r="AB97">
         <v>162</v>
       </c>
-      <c r="AC97" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD97">
+      <c r="AC97">
+        <v>162</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE97">
         <v>7100</v>
       </c>
-      <c r="AE97">
+      <c r="AF97">
         <v>260</v>
       </c>
-      <c r="AF97">
-        <v>0</v>
-      </c>
       <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:34">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10659,7 +10953,7 @@
         <v>96</v>
       </c>
       <c r="T98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="U98">
         <v>164</v>
@@ -10685,23 +10979,26 @@
       <c r="AB98">
         <v>164</v>
       </c>
-      <c r="AC98" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD98">
+      <c r="AC98">
+        <v>164</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE98">
         <v>7100</v>
       </c>
-      <c r="AE98">
+      <c r="AF98">
         <v>260</v>
       </c>
-      <c r="AF98">
-        <v>0</v>
-      </c>
       <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:34">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10760,7 +11057,7 @@
         <v>97</v>
       </c>
       <c r="T99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="U99">
         <v>166</v>
@@ -10786,23 +11083,26 @@
       <c r="AB99">
         <v>166</v>
       </c>
-      <c r="AC99" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD99">
+      <c r="AC99">
+        <v>166</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE99">
         <v>7385</v>
       </c>
-      <c r="AE99">
+      <c r="AF99">
         <v>269</v>
       </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
       <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:34">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10861,7 +11161,7 @@
         <v>98</v>
       </c>
       <c r="T100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="U100">
         <v>168</v>
@@ -10887,23 +11187,26 @@
       <c r="AB100">
         <v>168</v>
       </c>
-      <c r="AC100" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD100">
+      <c r="AC100">
+        <v>168</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE100">
         <v>7481</v>
       </c>
-      <c r="AE100">
+      <c r="AF100">
         <v>269</v>
       </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
       <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:34">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10962,7 +11265,7 @@
         <v>99</v>
       </c>
       <c r="T101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="U101">
         <v>170</v>
@@ -10988,23 +11291,26 @@
       <c r="AB101">
         <v>170</v>
       </c>
-      <c r="AC101" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD101">
+      <c r="AC101">
+        <v>170</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE101">
         <v>7481</v>
       </c>
-      <c r="AE101">
+      <c r="AF101">
         <v>269</v>
       </c>
-      <c r="AF101">
-        <v>0</v>
-      </c>
       <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:34">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11063,7 +11369,7 @@
         <v>100</v>
       </c>
       <c r="T102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="U102">
         <v>172</v>
@@ -11089,23 +11395,26 @@
       <c r="AB102">
         <v>172</v>
       </c>
-      <c r="AC102" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD102">
+      <c r="AC102">
+        <v>172</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE102">
         <v>7554</v>
       </c>
-      <c r="AE102">
+      <c r="AF102">
         <v>269</v>
       </c>
-      <c r="AF102">
-        <v>0</v>
-      </c>
       <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:34">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11164,7 +11473,7 @@
         <v>101</v>
       </c>
       <c r="T103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="U103">
         <v>174</v>
@@ -11190,23 +11499,26 @@
       <c r="AB103">
         <v>174</v>
       </c>
-      <c r="AC103" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD103">
+      <c r="AC103">
+        <v>174</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE103">
         <v>7674</v>
       </c>
-      <c r="AE103">
+      <c r="AF103">
         <v>276</v>
       </c>
-      <c r="AF103">
-        <v>0</v>
-      </c>
       <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:34">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11265,7 +11577,7 @@
         <v>102</v>
       </c>
       <c r="T104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="U104">
         <v>176</v>
@@ -11291,23 +11603,26 @@
       <c r="AB104">
         <v>176</v>
       </c>
-      <c r="AC104" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD104">
+      <c r="AC104">
+        <v>176</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE104">
         <v>7798</v>
       </c>
-      <c r="AE104">
+      <c r="AF104">
         <v>283</v>
       </c>
-      <c r="AF104">
-        <v>0</v>
-      </c>
       <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:34">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11366,7 +11681,7 @@
         <v>103</v>
       </c>
       <c r="T105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="U105">
         <v>178</v>
@@ -11392,23 +11707,26 @@
       <c r="AB105">
         <v>178</v>
       </c>
-      <c r="AC105" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD105">
+      <c r="AC105">
+        <v>178</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE105">
         <v>7940</v>
       </c>
-      <c r="AE105">
+      <c r="AF105">
         <v>288</v>
       </c>
-      <c r="AF105">
-        <v>0</v>
-      </c>
       <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:34">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11467,7 +11785,7 @@
         <v>104</v>
       </c>
       <c r="T106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="U106">
         <v>180</v>
@@ -11493,23 +11811,26 @@
       <c r="AB106">
         <v>180</v>
       </c>
-      <c r="AC106" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD106">
+      <c r="AC106">
+        <v>180</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE106">
         <v>8345</v>
       </c>
-      <c r="AE106">
+      <c r="AF106">
         <v>296</v>
       </c>
-      <c r="AF106">
-        <v>0</v>
-      </c>
       <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:34">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11568,7 +11889,7 @@
         <v>105</v>
       </c>
       <c r="T107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="U107">
         <v>182</v>
@@ -11594,23 +11915,26 @@
       <c r="AB107">
         <v>182</v>
       </c>
-      <c r="AC107" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD107">
+      <c r="AC107">
+        <v>182</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE107">
         <v>8345</v>
       </c>
-      <c r="AE107">
+      <c r="AF107">
         <v>296</v>
       </c>
-      <c r="AF107">
-        <v>0</v>
-      </c>
       <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:34">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11669,7 +11993,7 @@
         <v>106</v>
       </c>
       <c r="T108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="U108">
         <v>184</v>
@@ -11695,23 +12019,26 @@
       <c r="AB108">
         <v>184</v>
       </c>
-      <c r="AC108" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD108">
+      <c r="AC108">
+        <v>184</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE108">
         <v>8619</v>
       </c>
-      <c r="AE108">
+      <c r="AF108">
         <v>296</v>
       </c>
-      <c r="AF108">
-        <v>0</v>
-      </c>
       <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:34">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11770,7 +12097,7 @@
         <v>107</v>
       </c>
       <c r="T109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="U109">
         <v>186</v>
@@ -11796,23 +12123,26 @@
       <c r="AB109">
         <v>186</v>
       </c>
-      <c r="AC109" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD109">
+      <c r="AC109">
+        <v>186</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE109">
         <v>8619</v>
       </c>
-      <c r="AE109">
+      <c r="AF109">
         <v>296</v>
       </c>
-      <c r="AF109">
-        <v>0</v>
-      </c>
       <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:34">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11871,7 +12201,7 @@
         <v>108</v>
       </c>
       <c r="T110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="U110">
         <v>188</v>
@@ -11897,23 +12227,26 @@
       <c r="AB110">
         <v>188</v>
       </c>
-      <c r="AC110" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD110">
+      <c r="AC110">
+        <v>188</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE110">
         <v>8837</v>
       </c>
-      <c r="AE110">
+      <c r="AF110">
         <v>305</v>
       </c>
-      <c r="AF110">
-        <v>0</v>
-      </c>
       <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:34">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11972,7 +12305,7 @@
         <v>109</v>
       </c>
       <c r="T111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="U111">
         <v>190</v>
@@ -11998,23 +12331,26 @@
       <c r="AB111">
         <v>190</v>
       </c>
-      <c r="AC111" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD111">
+      <c r="AC111">
+        <v>190</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE111">
         <v>8998</v>
       </c>
-      <c r="AE111">
+      <c r="AF111">
         <v>308</v>
       </c>
-      <c r="AF111">
-        <v>0</v>
-      </c>
       <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:34">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12066,19 +12402,22 @@
       <c r="Q112">
         <v>110</v>
       </c>
-      <c r="AC112" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD112">
+      <c r="R112">
+        <v>110</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE112">
         <v>8998</v>
       </c>
-      <c r="AE112">
+      <c r="AF112">
         <v>308</v>
       </c>
-      <c r="AF112">
-        <v>0</v>
-      </c>
       <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -803,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH112"/>
+  <dimension ref="A1:AI112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +912,11 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -998,23 +1004,26 @@
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1102,14 +1111,14 @@
       <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AD3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE3">
+      <c r="AD3">
         <v>1</v>
       </c>
+      <c r="AE3" t="s">
+        <v>35</v>
+      </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1117,8 +1126,11 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1206,14 +1218,14 @@
       <c r="AC4">
         <v>2</v>
       </c>
-      <c r="AD4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE4">
+      <c r="AD4">
         <v>2</v>
       </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1221,8 +1233,11 @@
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1310,23 +1325,26 @@
       <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AD5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE5">
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5">
         <v>2</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1414,23 +1432,26 @@
       <c r="AC6">
         <v>4</v>
       </c>
-      <c r="AD6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE6">
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6">
         <v>2</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1518,23 +1539,26 @@
       <c r="AC7">
         <v>5</v>
       </c>
-      <c r="AD7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE7">
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7">
         <v>2</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1622,23 +1646,26 @@
       <c r="AC8">
         <v>6</v>
       </c>
-      <c r="AD8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE8">
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8">
         <v>2</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1726,23 +1753,26 @@
       <c r="AC9">
         <v>7</v>
       </c>
-      <c r="AD9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE9">
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9">
         <v>2</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1830,23 +1860,26 @@
       <c r="AC10">
         <v>8</v>
       </c>
-      <c r="AD10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE10">
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF10">
         <v>2</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1934,23 +1967,26 @@
       <c r="AC11">
         <v>9</v>
       </c>
-      <c r="AD11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE11">
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11">
         <v>2</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2038,23 +2074,26 @@
       <c r="AC12">
         <v>10</v>
       </c>
-      <c r="AD12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE12">
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12">
         <v>2</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
       <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <v>1</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2142,23 +2181,26 @@
       <c r="AC13">
         <v>11</v>
       </c>
-      <c r="AD13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE13">
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13">
         <v>2</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
       <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>1</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2246,23 +2288,26 @@
       <c r="AC14">
         <v>12</v>
       </c>
-      <c r="AD14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE14">
+      <c r="AD14">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF14">
         <v>2</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
         <v>1</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2350,23 +2395,26 @@
       <c r="AC15">
         <v>13</v>
       </c>
-      <c r="AD15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE15">
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF15">
         <v>2</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>1</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2454,23 +2502,26 @@
       <c r="AC16">
         <v>14</v>
       </c>
-      <c r="AD16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE16">
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF16">
         <v>2</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>1</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2558,23 +2609,26 @@
       <c r="AC17">
         <v>15</v>
       </c>
-      <c r="AD17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE17">
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF17">
         <v>2</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
       <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>1</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2662,23 +2716,26 @@
       <c r="AC18">
         <v>16</v>
       </c>
-      <c r="AD18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE18">
+      <c r="AD18">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF18">
         <v>2</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
       <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <v>1</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2766,23 +2823,26 @@
       <c r="AC19">
         <v>17</v>
       </c>
-      <c r="AD19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE19">
+      <c r="AD19">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19">
         <v>2</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
       <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <v>1</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2870,23 +2930,26 @@
       <c r="AC20">
         <v>18</v>
       </c>
-      <c r="AD20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE20">
+      <c r="AD20">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF20">
         <v>2</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
       <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>1</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2974,23 +3037,26 @@
       <c r="AC21">
         <v>19</v>
       </c>
-      <c r="AD21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE21">
+      <c r="AD21">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF21">
         <v>2</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
       <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>1</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3078,23 +3144,26 @@
       <c r="AC22">
         <v>20</v>
       </c>
-      <c r="AD22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE22">
+      <c r="AD22">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF22">
         <v>2</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
       <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>1</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3182,23 +3251,26 @@
       <c r="AC23">
         <v>21</v>
       </c>
-      <c r="AD23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE23">
+      <c r="AD23">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF23">
         <v>2</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
       <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>1</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3286,23 +3358,26 @@
       <c r="AC24">
         <v>22</v>
       </c>
-      <c r="AD24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE24">
+      <c r="AD24">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24">
         <v>2</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
       <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>1</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3390,23 +3465,26 @@
       <c r="AC25">
         <v>23</v>
       </c>
-      <c r="AD25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE25">
+      <c r="AD25">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF25">
         <v>3</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
       <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>1</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3494,23 +3572,26 @@
       <c r="AC26">
         <v>24</v>
       </c>
-      <c r="AD26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE26">
+      <c r="AD26">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF26">
         <v>3</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>1</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3598,23 +3679,26 @@
       <c r="AC27">
         <v>25</v>
       </c>
-      <c r="AD27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE27">
+      <c r="AD27">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF27">
         <v>3</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
       <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
         <v>1</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3702,23 +3786,26 @@
       <c r="AC28">
         <v>26</v>
       </c>
-      <c r="AD28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE28">
+      <c r="AD28">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF28">
         <v>3</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
       <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>1</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3806,23 +3893,26 @@
       <c r="AC29">
         <v>27</v>
       </c>
-      <c r="AD29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE29">
+      <c r="AD29">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF29">
         <v>3</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
       <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>1</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3910,23 +4000,26 @@
       <c r="AC30">
         <v>28</v>
       </c>
-      <c r="AD30" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE30">
+      <c r="AD30">
+        <v>28</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF30">
         <v>155</v>
       </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
       <c r="AG30">
         <v>0</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3988,7 +4081,7 @@
         <v>29</v>
       </c>
       <c r="U31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V31">
         <v>30</v>
@@ -4014,23 +4107,26 @@
       <c r="AC31">
         <v>30</v>
       </c>
-      <c r="AD31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE31">
+      <c r="AD31">
+        <v>30</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF31">
         <v>201</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
       <c r="AH31">
         <v>0</v>
       </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4092,7 +4188,7 @@
         <v>30</v>
       </c>
       <c r="U32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V32">
         <v>32</v>
@@ -4118,23 +4214,26 @@
       <c r="AC32">
         <v>32</v>
       </c>
-      <c r="AD32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE32">
+      <c r="AD32">
+        <v>32</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF32">
         <v>226</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
       <c r="AH32">
         <v>0</v>
       </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4196,7 +4295,7 @@
         <v>31</v>
       </c>
       <c r="U33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V33">
         <v>34</v>
@@ -4222,23 +4321,26 @@
       <c r="AC33">
         <v>34</v>
       </c>
-      <c r="AD33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE33">
+      <c r="AD33">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF33">
         <v>238</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>2</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
       <c r="AH33">
         <v>0</v>
       </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4300,7 +4402,7 @@
         <v>32</v>
       </c>
       <c r="U34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V34">
         <v>36</v>
@@ -4326,23 +4428,26 @@
       <c r="AC34">
         <v>36</v>
       </c>
-      <c r="AD34" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE34">
+      <c r="AD34">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF34">
         <v>293</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>3</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
       <c r="AH34">
         <v>0</v>
       </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4404,7 +4509,7 @@
         <v>33</v>
       </c>
       <c r="U35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V35">
         <v>38</v>
@@ -4430,23 +4535,26 @@
       <c r="AC35">
         <v>38</v>
       </c>
-      <c r="AD35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE35">
+      <c r="AD35">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF35">
         <v>341</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>3</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
       <c r="AH35">
         <v>0</v>
       </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4508,7 +4616,7 @@
         <v>34</v>
       </c>
       <c r="U36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V36">
         <v>40</v>
@@ -4534,23 +4642,26 @@
       <c r="AC36">
         <v>40</v>
       </c>
-      <c r="AD36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE36">
+      <c r="AD36">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF36">
         <v>413</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>6</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
       <c r="AH36">
         <v>0</v>
       </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4612,7 +4723,7 @@
         <v>35</v>
       </c>
       <c r="U37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V37">
         <v>42</v>
@@ -4638,23 +4749,26 @@
       <c r="AC37">
         <v>42</v>
       </c>
-      <c r="AD37" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE37">
+      <c r="AD37">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF37">
         <v>484</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>7</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
       <c r="AH37">
         <v>0</v>
       </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4716,7 +4830,7 @@
         <v>36</v>
       </c>
       <c r="U38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="V38">
         <v>44</v>
@@ -4742,23 +4856,26 @@
       <c r="AC38">
         <v>44</v>
       </c>
-      <c r="AD38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE38">
+      <c r="AD38">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF38">
         <v>515</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>7</v>
       </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
       <c r="AH38">
         <v>0</v>
       </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4820,7 +4937,7 @@
         <v>37</v>
       </c>
       <c r="U39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="V39">
         <v>46</v>
@@ -4846,23 +4963,26 @@
       <c r="AC39">
         <v>46</v>
       </c>
-      <c r="AD39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE39">
+      <c r="AD39">
+        <v>46</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF39">
         <v>603</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>7</v>
       </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
       <c r="AH39">
         <v>0</v>
       </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4924,7 +5044,7 @@
         <v>38</v>
       </c>
       <c r="U40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="V40">
         <v>48</v>
@@ -4950,23 +5070,26 @@
       <c r="AC40">
         <v>48</v>
       </c>
-      <c r="AD40" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE40">
+      <c r="AD40">
+        <v>48</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF40">
         <v>733</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>9</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
       <c r="AH40">
         <v>0</v>
       </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5028,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="U41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="V41">
         <v>50</v>
@@ -5054,23 +5177,26 @@
       <c r="AC41">
         <v>50</v>
       </c>
-      <c r="AD41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE41">
+      <c r="AD41">
+        <v>50</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF41">
         <v>849</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>15</v>
       </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
       <c r="AH41">
         <v>0</v>
       </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5132,7 +5258,7 @@
         <v>40</v>
       </c>
       <c r="U42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="V42">
         <v>52</v>
@@ -5158,23 +5284,26 @@
       <c r="AC42">
         <v>52</v>
       </c>
-      <c r="AD42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE42">
+      <c r="AD42">
+        <v>52</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF42">
         <v>966</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>16</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
       <c r="AH42">
         <v>0</v>
       </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5236,7 +5365,7 @@
         <v>41</v>
       </c>
       <c r="U43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="V43">
         <v>54</v>
@@ -5262,23 +5391,26 @@
       <c r="AC43">
         <v>54</v>
       </c>
-      <c r="AD43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE43">
+      <c r="AD43">
+        <v>54</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF43">
         <v>1112</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>17</v>
       </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
       <c r="AH43">
         <v>0</v>
       </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5340,7 +5472,7 @@
         <v>42</v>
       </c>
       <c r="U44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="V44">
         <v>56</v>
@@ -5366,23 +5498,26 @@
       <c r="AC44">
         <v>56</v>
       </c>
-      <c r="AD44" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE44">
+      <c r="AD44">
+        <v>56</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF44">
         <v>1209</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>18</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
       <c r="AH44">
         <v>0</v>
       </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5444,7 +5579,7 @@
         <v>43</v>
       </c>
       <c r="U45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="V45">
         <v>58</v>
@@ -5470,23 +5605,26 @@
       <c r="AC45">
         <v>58</v>
       </c>
-      <c r="AD45" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE45">
+      <c r="AD45">
+        <v>58</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF45">
         <v>1326</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>19</v>
       </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
       <c r="AH45">
         <v>0</v>
       </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5548,7 +5686,7 @@
         <v>44</v>
       </c>
       <c r="U46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="V46">
         <v>60</v>
@@ -5574,23 +5712,26 @@
       <c r="AC46">
         <v>60</v>
       </c>
-      <c r="AD46" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE46">
+      <c r="AD46">
+        <v>60</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF46">
         <v>1404</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>19</v>
       </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
       <c r="AH46">
         <v>0</v>
       </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5652,7 +5793,7 @@
         <v>45</v>
       </c>
       <c r="U47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V47">
         <v>62</v>
@@ -5678,23 +5819,26 @@
       <c r="AC47">
         <v>62</v>
       </c>
-      <c r="AD47" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE47">
+      <c r="AD47">
+        <v>62</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF47">
         <v>1454</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>31</v>
       </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
       <c r="AH47">
         <v>0</v>
       </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5756,7 +5900,7 @@
         <v>46</v>
       </c>
       <c r="U48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="V48">
         <v>64</v>
@@ -5782,23 +5926,26 @@
       <c r="AC48">
         <v>64</v>
       </c>
-      <c r="AD48" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE48">
+      <c r="AD48">
+        <v>64</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF48">
         <v>1530</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>36</v>
       </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
       <c r="AH48">
         <v>0</v>
       </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5860,7 +6007,7 @@
         <v>47</v>
       </c>
       <c r="U49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="V49">
         <v>66</v>
@@ -5886,23 +6033,26 @@
       <c r="AC49">
         <v>66</v>
       </c>
-      <c r="AD49" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE49">
+      <c r="AD49">
+        <v>66</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF49">
         <v>1628</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>40</v>
       </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
       <c r="AH49">
         <v>0</v>
       </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5964,7 +6114,7 @@
         <v>48</v>
       </c>
       <c r="U50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="V50">
         <v>68</v>
@@ -5990,23 +6140,26 @@
       <c r="AC50">
         <v>68</v>
       </c>
-      <c r="AD50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE50">
+      <c r="AD50">
+        <v>68</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF50">
         <v>1693</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>44</v>
       </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
       <c r="AH50">
         <v>0</v>
       </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6068,7 +6221,7 @@
         <v>49</v>
       </c>
       <c r="U51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="V51">
         <v>70</v>
@@ -6094,23 +6247,26 @@
       <c r="AC51">
         <v>70</v>
       </c>
-      <c r="AD51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE51">
+      <c r="AD51">
+        <v>70</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF51">
         <v>1761</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>45</v>
       </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
       <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6172,7 +6328,7 @@
         <v>50</v>
       </c>
       <c r="U52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="V52">
         <v>72</v>
@@ -6198,23 +6354,26 @@
       <c r="AC52">
         <v>72</v>
       </c>
-      <c r="AD52" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE52">
+      <c r="AD52">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF52">
         <v>1804</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>45</v>
       </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
       <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6276,7 +6435,7 @@
         <v>51</v>
       </c>
       <c r="U53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V53">
         <v>74</v>
@@ -6302,23 +6461,26 @@
       <c r="AC53">
         <v>74</v>
       </c>
-      <c r="AD53" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE53">
+      <c r="AD53">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF53">
         <v>1847</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>47</v>
       </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
       <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6380,7 +6542,7 @@
         <v>52</v>
       </c>
       <c r="U54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="V54">
         <v>76</v>
@@ -6406,23 +6568,26 @@
       <c r="AC54">
         <v>76</v>
       </c>
-      <c r="AD54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE54">
+      <c r="AD54">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF54">
         <v>1930</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>53</v>
       </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
       <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6484,7 +6649,7 @@
         <v>53</v>
       </c>
       <c r="U55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="V55">
         <v>78</v>
@@ -6510,23 +6675,26 @@
       <c r="AC55">
         <v>78</v>
       </c>
-      <c r="AD55" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE55">
+      <c r="AD55">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF55">
         <v>2012</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>60</v>
       </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
       <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6588,7 +6756,7 @@
         <v>54</v>
       </c>
       <c r="U56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="V56">
         <v>80</v>
@@ -6614,23 +6782,26 @@
       <c r="AC56">
         <v>80</v>
       </c>
-      <c r="AD56" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE56">
+      <c r="AD56">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF56">
         <v>2087</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>63</v>
       </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
       <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6692,7 +6863,7 @@
         <v>55</v>
       </c>
       <c r="U57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="V57">
         <v>82</v>
@@ -6718,23 +6889,26 @@
       <c r="AC57">
         <v>82</v>
       </c>
-      <c r="AD57" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE57">
+      <c r="AD57">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF57">
         <v>2158</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>70</v>
       </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
       <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6796,7 +6970,7 @@
         <v>56</v>
       </c>
       <c r="U58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="V58">
         <v>84</v>
@@ -6822,23 +6996,26 @@
       <c r="AC58">
         <v>84</v>
       </c>
-      <c r="AD58" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE58">
+      <c r="AD58">
+        <v>84</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF58">
         <v>2213</v>
       </c>
-      <c r="AF58">
+      <c r="AG58">
         <v>71</v>
       </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
       <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6900,7 +7077,7 @@
         <v>57</v>
       </c>
       <c r="U59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="V59">
         <v>86</v>
@@ -6926,23 +7103,26 @@
       <c r="AC59">
         <v>86</v>
       </c>
-      <c r="AD59" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE59">
+      <c r="AD59">
+        <v>86</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF59">
         <v>2268</v>
       </c>
-      <c r="AF59">
+      <c r="AG59">
         <v>71</v>
       </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
       <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7004,7 +7184,7 @@
         <v>58</v>
       </c>
       <c r="U60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="V60">
         <v>88</v>
@@ -7030,23 +7210,26 @@
       <c r="AC60">
         <v>88</v>
       </c>
-      <c r="AD60" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE60">
+      <c r="AD60">
+        <v>88</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF60">
         <v>2325</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>72</v>
       </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
       <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7108,7 +7291,7 @@
         <v>59</v>
       </c>
       <c r="U61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="V61">
         <v>90</v>
@@ -7134,23 +7317,26 @@
       <c r="AC61">
         <v>90</v>
       </c>
-      <c r="AD61" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE61">
+      <c r="AD61">
+        <v>90</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF61">
         <v>2491</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>96</v>
       </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
       <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7212,7 +7398,7 @@
         <v>60</v>
       </c>
       <c r="U62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="V62">
         <v>92</v>
@@ -7238,23 +7424,26 @@
       <c r="AC62">
         <v>92</v>
       </c>
-      <c r="AD62" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE62">
+      <c r="AD62">
+        <v>92</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF62">
         <v>2643</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>100</v>
       </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
       <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7316,7 +7505,7 @@
         <v>61</v>
       </c>
       <c r="U63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="V63">
         <v>94</v>
@@ -7342,23 +7531,26 @@
       <c r="AC63">
         <v>94</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD63">
         <v>94</v>
       </c>
-      <c r="AE63">
+      <c r="AE63" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF63">
         <v>2826</v>
       </c>
-      <c r="AF63">
+      <c r="AG63">
         <v>102</v>
       </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
       <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7420,7 +7612,7 @@
         <v>62</v>
       </c>
       <c r="U64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="V64">
         <v>96</v>
@@ -7446,23 +7638,26 @@
       <c r="AC64">
         <v>96</v>
       </c>
-      <c r="AD64" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE64">
+      <c r="AD64">
+        <v>96</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF64">
         <v>2943</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <v>111</v>
       </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
       <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7524,7 +7719,7 @@
         <v>63</v>
       </c>
       <c r="U65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="V65">
         <v>98</v>
@@ -7550,23 +7745,26 @@
       <c r="AC65">
         <v>98</v>
       </c>
-      <c r="AD65" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE65">
+      <c r="AD65">
+        <v>98</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF65">
         <v>2943</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <v>111</v>
       </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
       <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7628,7 +7826,7 @@
         <v>64</v>
       </c>
       <c r="U66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="V66">
         <v>100</v>
@@ -7654,23 +7852,26 @@
       <c r="AC66">
         <v>100</v>
       </c>
-      <c r="AD66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE66">
+      <c r="AD66">
+        <v>100</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF66">
         <v>3043</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <v>111</v>
       </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
       <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7732,7 +7933,7 @@
         <v>65</v>
       </c>
       <c r="U67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="V67">
         <v>102</v>
@@ -7758,23 +7959,26 @@
       <c r="AC67">
         <v>102</v>
       </c>
-      <c r="AD67" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE67">
+      <c r="AD67">
+        <v>102</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF67">
         <v>3141</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <v>113</v>
       </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
       <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7836,7 +8040,7 @@
         <v>66</v>
       </c>
       <c r="U68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="V68">
         <v>104</v>
@@ -7862,23 +8066,26 @@
       <c r="AC68">
         <v>104</v>
       </c>
-      <c r="AD68" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE68">
+      <c r="AD68">
+        <v>104</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF68">
         <v>3432</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <v>120</v>
       </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
       <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7940,7 +8147,7 @@
         <v>67</v>
       </c>
       <c r="U69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="V69">
         <v>106</v>
@@ -7966,23 +8173,26 @@
       <c r="AC69">
         <v>106</v>
       </c>
-      <c r="AD69" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE69">
+      <c r="AD69">
+        <v>106</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF69">
         <v>3432</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <v>120</v>
       </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
       <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8044,7 +8254,7 @@
         <v>68</v>
       </c>
       <c r="U70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="V70">
         <v>108</v>
@@ -8070,23 +8280,26 @@
       <c r="AC70">
         <v>108</v>
       </c>
-      <c r="AD70" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE70">
+      <c r="AD70">
+        <v>108</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF70">
         <v>3564</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <v>124</v>
       </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
       <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8148,7 +8361,7 @@
         <v>69</v>
       </c>
       <c r="U71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="V71">
         <v>110</v>
@@ -8174,23 +8387,26 @@
       <c r="AC71">
         <v>110</v>
       </c>
-      <c r="AD71" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE71">
+      <c r="AD71">
+        <v>110</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF71">
         <v>3711</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>134</v>
       </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
       <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8252,7 +8468,7 @@
         <v>70</v>
       </c>
       <c r="U72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="V72">
         <v>112</v>
@@ -8278,23 +8494,26 @@
       <c r="AC72">
         <v>112</v>
       </c>
-      <c r="AD72" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE72">
+      <c r="AD72">
+        <v>112</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF72">
         <v>3927</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <v>139</v>
       </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
       <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8356,7 +8575,7 @@
         <v>71</v>
       </c>
       <c r="U73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="V73">
         <v>114</v>
@@ -8382,23 +8601,26 @@
       <c r="AC73">
         <v>114</v>
       </c>
-      <c r="AD73" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE73">
+      <c r="AD73">
+        <v>114</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF73">
         <v>3927</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <v>139</v>
       </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
       <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8460,7 +8682,7 @@
         <v>72</v>
       </c>
       <c r="U74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="V74">
         <v>116</v>
@@ -8486,23 +8708,26 @@
       <c r="AC74">
         <v>116</v>
       </c>
-      <c r="AD74" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE74">
+      <c r="AD74">
+        <v>116</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF74">
         <v>4020</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <v>144</v>
       </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
       <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8564,7 +8789,7 @@
         <v>73</v>
       </c>
       <c r="U75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="V75">
         <v>118</v>
@@ -8590,23 +8815,26 @@
       <c r="AC75">
         <v>118</v>
       </c>
-      <c r="AD75" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE75">
+      <c r="AD75">
+        <v>118</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF75">
         <v>4319</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <v>158</v>
       </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
       <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8668,7 +8896,7 @@
         <v>74</v>
       </c>
       <c r="U76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="V76">
         <v>120</v>
@@ -8694,23 +8922,26 @@
       <c r="AC76">
         <v>120</v>
       </c>
-      <c r="AD76" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE76">
+      <c r="AD76">
+        <v>120</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF76">
         <v>4319</v>
       </c>
-      <c r="AF76">
+      <c r="AG76">
         <v>158</v>
       </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
       <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8772,7 +9003,7 @@
         <v>75</v>
       </c>
       <c r="U77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="V77">
         <v>122</v>
@@ -8798,23 +9029,26 @@
       <c r="AC77">
         <v>122</v>
       </c>
-      <c r="AD77" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE77">
+      <c r="AD77">
+        <v>122</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF77">
         <v>4429</v>
       </c>
-      <c r="AF77">
+      <c r="AG77">
         <v>165</v>
       </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
       <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8876,7 +9110,7 @@
         <v>76</v>
       </c>
       <c r="U78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="V78">
         <v>124</v>
@@ -8902,23 +9136,26 @@
       <c r="AC78">
         <v>124</v>
       </c>
-      <c r="AD78" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE78">
+      <c r="AD78">
+        <v>124</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF78">
         <v>4662</v>
       </c>
-      <c r="AF78">
+      <c r="AG78">
         <v>169</v>
       </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
       <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8980,7 +9217,7 @@
         <v>77</v>
       </c>
       <c r="U79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="V79">
         <v>126</v>
@@ -9006,23 +9243,26 @@
       <c r="AC79">
         <v>126</v>
       </c>
-      <c r="AD79" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE79">
+      <c r="AD79">
+        <v>126</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF79">
         <v>4776</v>
       </c>
-      <c r="AF79">
+      <c r="AG79">
         <v>175</v>
       </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
       <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9084,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="U80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="V80">
         <v>128</v>
@@ -9110,23 +9350,26 @@
       <c r="AC80">
         <v>128</v>
       </c>
-      <c r="AD80" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE80">
+      <c r="AD80">
+        <v>128</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF80">
         <v>5065</v>
       </c>
-      <c r="AF80">
+      <c r="AG80">
         <v>175</v>
       </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
       <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9188,7 +9431,7 @@
         <v>79</v>
       </c>
       <c r="U81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="V81">
         <v>130</v>
@@ -9214,23 +9457,26 @@
       <c r="AC81">
         <v>130</v>
       </c>
-      <c r="AD81" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE81">
+      <c r="AD81">
+        <v>130</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF81">
         <v>5161</v>
       </c>
-      <c r="AF81">
+      <c r="AG81">
         <v>190</v>
       </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
       <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9292,7 +9538,7 @@
         <v>80</v>
       </c>
       <c r="U82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="V82">
         <v>132</v>
@@ -9318,23 +9564,26 @@
       <c r="AC82">
         <v>132</v>
       </c>
-      <c r="AD82" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE82">
+      <c r="AD82">
+        <v>132</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF82">
         <v>5161</v>
       </c>
-      <c r="AF82">
+      <c r="AG82">
         <v>190</v>
       </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
       <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9396,7 +9645,7 @@
         <v>81</v>
       </c>
       <c r="U83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="V83">
         <v>134</v>
@@ -9422,23 +9671,26 @@
       <c r="AC83">
         <v>134</v>
       </c>
-      <c r="AD83" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE83">
+      <c r="AD83">
+        <v>134</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF83">
         <v>5391</v>
       </c>
-      <c r="AF83">
+      <c r="AG83">
         <v>200</v>
       </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
       <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9500,7 +9752,7 @@
         <v>82</v>
       </c>
       <c r="U84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="V84">
         <v>136</v>
@@ -9526,23 +9778,26 @@
       <c r="AC84">
         <v>136</v>
       </c>
-      <c r="AD84" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE84">
+      <c r="AD84">
+        <v>136</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF84">
         <v>5391</v>
       </c>
-      <c r="AF84">
+      <c r="AG84">
         <v>200</v>
       </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
       <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9604,7 +9859,7 @@
         <v>83</v>
       </c>
       <c r="U85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="V85">
         <v>138</v>
@@ -9630,23 +9885,26 @@
       <c r="AC85">
         <v>138</v>
       </c>
-      <c r="AD85" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE85">
+      <c r="AD85">
+        <v>138</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF85">
         <v>5662</v>
       </c>
-      <c r="AF85">
+      <c r="AG85">
         <v>209</v>
       </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
       <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9708,7 +9966,7 @@
         <v>84</v>
       </c>
       <c r="U86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="V86">
         <v>140</v>
@@ -9734,23 +9992,26 @@
       <c r="AC86">
         <v>140</v>
       </c>
-      <c r="AD86" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE86">
+      <c r="AD86">
+        <v>140</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF86">
         <v>5836</v>
       </c>
-      <c r="AF86">
+      <c r="AG86">
         <v>209</v>
       </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
       <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9812,7 +10073,7 @@
         <v>85</v>
       </c>
       <c r="U87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="V87">
         <v>142</v>
@@ -9838,23 +10099,26 @@
       <c r="AC87">
         <v>142</v>
       </c>
-      <c r="AD87" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE87">
+      <c r="AD87">
+        <v>142</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF87">
         <v>5836</v>
       </c>
-      <c r="AF87">
+      <c r="AG87">
         <v>209</v>
       </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
       <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9916,7 +10180,7 @@
         <v>86</v>
       </c>
       <c r="U88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="V88">
         <v>144</v>
@@ -9942,23 +10206,26 @@
       <c r="AC88">
         <v>144</v>
       </c>
-      <c r="AD88" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE88">
+      <c r="AD88">
+        <v>144</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF88">
         <v>6026</v>
       </c>
-      <c r="AF88">
+      <c r="AG88">
         <v>222</v>
       </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
       <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10020,7 +10287,7 @@
         <v>87</v>
       </c>
       <c r="U89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="V89">
         <v>146</v>
@@ -10046,23 +10313,26 @@
       <c r="AC89">
         <v>146</v>
       </c>
-      <c r="AD89" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE89">
+      <c r="AD89">
+        <v>146</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF89">
         <v>6140</v>
       </c>
-      <c r="AF89">
+      <c r="AG89">
         <v>230</v>
       </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
       <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10124,7 +10394,7 @@
         <v>88</v>
       </c>
       <c r="U90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="V90">
         <v>148</v>
@@ -10150,23 +10420,26 @@
       <c r="AC90">
         <v>148</v>
       </c>
-      <c r="AD90" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE90">
+      <c r="AD90">
+        <v>148</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF90">
         <v>6140</v>
       </c>
-      <c r="AF90">
+      <c r="AG90">
         <v>230</v>
       </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
       <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10228,7 +10501,7 @@
         <v>89</v>
       </c>
       <c r="U91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="V91">
         <v>150</v>
@@ -10254,23 +10527,26 @@
       <c r="AC91">
         <v>150</v>
       </c>
-      <c r="AD91" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE91">
+      <c r="AD91">
+        <v>150</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF91">
         <v>6315</v>
       </c>
-      <c r="AF91">
+      <c r="AG91">
         <v>241</v>
       </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
       <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10332,7 +10608,7 @@
         <v>90</v>
       </c>
       <c r="U92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="V92">
         <v>152</v>
@@ -10358,23 +10634,26 @@
       <c r="AC92">
         <v>152</v>
       </c>
-      <c r="AD92" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE92">
+      <c r="AD92">
+        <v>152</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF92">
         <v>6559</v>
       </c>
-      <c r="AF92">
+      <c r="AG92">
         <v>249</v>
       </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
       <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10436,7 +10715,7 @@
         <v>91</v>
       </c>
       <c r="U93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="V93">
         <v>154</v>
@@ -10462,23 +10741,26 @@
       <c r="AC93">
         <v>154</v>
       </c>
-      <c r="AD93" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE93">
+      <c r="AD93">
+        <v>154</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF93">
         <v>6559</v>
       </c>
-      <c r="AF93">
+      <c r="AG93">
         <v>249</v>
       </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
       <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10540,7 +10822,7 @@
         <v>92</v>
       </c>
       <c r="U94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="V94">
         <v>156</v>
@@ -10566,23 +10848,26 @@
       <c r="AC94">
         <v>156</v>
       </c>
-      <c r="AD94" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE94">
+      <c r="AD94">
+        <v>156</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF94">
         <v>6701</v>
       </c>
-      <c r="AF94">
+      <c r="AG94">
         <v>249</v>
       </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
       <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10644,7 +10929,7 @@
         <v>93</v>
       </c>
       <c r="U95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="V95">
         <v>158</v>
@@ -10670,23 +10955,26 @@
       <c r="AC95">
         <v>158</v>
       </c>
-      <c r="AD95" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE95">
+      <c r="AD95">
+        <v>158</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF95">
         <v>6797</v>
       </c>
-      <c r="AF95">
+      <c r="AG95">
         <v>249</v>
       </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
       <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10748,7 +11036,7 @@
         <v>94</v>
       </c>
       <c r="U96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="V96">
         <v>160</v>
@@ -10774,23 +11062,26 @@
       <c r="AC96">
         <v>160</v>
       </c>
-      <c r="AD96" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE96">
+      <c r="AD96">
+        <v>160</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF96">
         <v>6882</v>
       </c>
-      <c r="AF96">
+      <c r="AG96">
         <v>249</v>
       </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
       <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10852,7 +11143,7 @@
         <v>95</v>
       </c>
       <c r="U97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="V97">
         <v>162</v>
@@ -10878,23 +11169,26 @@
       <c r="AC97">
         <v>162</v>
       </c>
-      <c r="AD97" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE97">
+      <c r="AD97">
+        <v>162</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF97">
         <v>7100</v>
       </c>
-      <c r="AF97">
+      <c r="AG97">
         <v>260</v>
       </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
       <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10956,7 +11250,7 @@
         <v>96</v>
       </c>
       <c r="U98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="V98">
         <v>164</v>
@@ -10982,23 +11276,26 @@
       <c r="AC98">
         <v>164</v>
       </c>
-      <c r="AD98" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE98">
+      <c r="AD98">
+        <v>164</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF98">
         <v>7100</v>
       </c>
-      <c r="AF98">
+      <c r="AG98">
         <v>260</v>
       </c>
-      <c r="AG98">
-        <v>0</v>
-      </c>
       <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11060,7 +11357,7 @@
         <v>97</v>
       </c>
       <c r="U99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="V99">
         <v>166</v>
@@ -11086,23 +11383,26 @@
       <c r="AC99">
         <v>166</v>
       </c>
-      <c r="AD99" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE99">
+      <c r="AD99">
+        <v>166</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF99">
         <v>7385</v>
       </c>
-      <c r="AF99">
+      <c r="AG99">
         <v>269</v>
       </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
       <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -11164,7 +11464,7 @@
         <v>98</v>
       </c>
       <c r="U100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="V100">
         <v>168</v>
@@ -11190,23 +11490,26 @@
       <c r="AC100">
         <v>168</v>
       </c>
-      <c r="AD100" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE100">
+      <c r="AD100">
+        <v>168</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF100">
         <v>7481</v>
       </c>
-      <c r="AF100">
+      <c r="AG100">
         <v>269</v>
       </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
       <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -11268,7 +11571,7 @@
         <v>99</v>
       </c>
       <c r="U101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="V101">
         <v>170</v>
@@ -11294,23 +11597,26 @@
       <c r="AC101">
         <v>170</v>
       </c>
-      <c r="AD101" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE101">
+      <c r="AD101">
+        <v>170</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF101">
         <v>7481</v>
       </c>
-      <c r="AF101">
+      <c r="AG101">
         <v>269</v>
       </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
       <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11372,7 +11678,7 @@
         <v>100</v>
       </c>
       <c r="U102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="V102">
         <v>172</v>
@@ -11398,23 +11704,26 @@
       <c r="AC102">
         <v>172</v>
       </c>
-      <c r="AD102" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE102">
+      <c r="AD102">
+        <v>172</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF102">
         <v>7554</v>
       </c>
-      <c r="AF102">
+      <c r="AG102">
         <v>269</v>
       </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
       <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11476,7 +11785,7 @@
         <v>101</v>
       </c>
       <c r="U103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="V103">
         <v>174</v>
@@ -11502,23 +11811,26 @@
       <c r="AC103">
         <v>174</v>
       </c>
-      <c r="AD103" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE103">
+      <c r="AD103">
+        <v>174</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF103">
         <v>7674</v>
       </c>
-      <c r="AF103">
+      <c r="AG103">
         <v>276</v>
       </c>
-      <c r="AG103">
-        <v>0</v>
-      </c>
       <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11580,7 +11892,7 @@
         <v>102</v>
       </c>
       <c r="U104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="V104">
         <v>176</v>
@@ -11606,23 +11918,26 @@
       <c r="AC104">
         <v>176</v>
       </c>
-      <c r="AD104" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE104">
+      <c r="AD104">
+        <v>176</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF104">
         <v>7798</v>
       </c>
-      <c r="AF104">
+      <c r="AG104">
         <v>283</v>
       </c>
-      <c r="AG104">
-        <v>0</v>
-      </c>
       <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11684,7 +11999,7 @@
         <v>103</v>
       </c>
       <c r="U105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="V105">
         <v>178</v>
@@ -11710,23 +12025,26 @@
       <c r="AC105">
         <v>178</v>
       </c>
-      <c r="AD105" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE105">
+      <c r="AD105">
+        <v>178</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF105">
         <v>7940</v>
       </c>
-      <c r="AF105">
+      <c r="AG105">
         <v>288</v>
       </c>
-      <c r="AG105">
-        <v>0</v>
-      </c>
       <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11788,7 +12106,7 @@
         <v>104</v>
       </c>
       <c r="U106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="V106">
         <v>180</v>
@@ -11814,23 +12132,26 @@
       <c r="AC106">
         <v>180</v>
       </c>
-      <c r="AD106" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE106">
+      <c r="AD106">
+        <v>180</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF106">
         <v>8345</v>
       </c>
-      <c r="AF106">
+      <c r="AG106">
         <v>296</v>
       </c>
-      <c r="AG106">
-        <v>0</v>
-      </c>
       <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11892,7 +12213,7 @@
         <v>105</v>
       </c>
       <c r="U107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="V107">
         <v>182</v>
@@ -11918,23 +12239,26 @@
       <c r="AC107">
         <v>182</v>
       </c>
-      <c r="AD107" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE107">
+      <c r="AD107">
+        <v>182</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF107">
         <v>8345</v>
       </c>
-      <c r="AF107">
+      <c r="AG107">
         <v>296</v>
       </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
       <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11996,7 +12320,7 @@
         <v>106</v>
       </c>
       <c r="U108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="V108">
         <v>184</v>
@@ -12022,23 +12346,26 @@
       <c r="AC108">
         <v>184</v>
       </c>
-      <c r="AD108" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE108">
+      <c r="AD108">
+        <v>184</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF108">
         <v>8619</v>
       </c>
-      <c r="AF108">
+      <c r="AG108">
         <v>296</v>
       </c>
-      <c r="AG108">
-        <v>0</v>
-      </c>
       <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12100,7 +12427,7 @@
         <v>107</v>
       </c>
       <c r="U109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="V109">
         <v>186</v>
@@ -12126,23 +12453,26 @@
       <c r="AC109">
         <v>186</v>
       </c>
-      <c r="AD109" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE109">
+      <c r="AD109">
+        <v>186</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF109">
         <v>8619</v>
       </c>
-      <c r="AF109">
+      <c r="AG109">
         <v>296</v>
       </c>
-      <c r="AG109">
-        <v>0</v>
-      </c>
       <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12204,7 +12534,7 @@
         <v>108</v>
       </c>
       <c r="U110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="V110">
         <v>188</v>
@@ -12230,23 +12560,26 @@
       <c r="AC110">
         <v>188</v>
       </c>
-      <c r="AD110" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE110">
+      <c r="AD110">
+        <v>188</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF110">
         <v>8837</v>
       </c>
-      <c r="AF110">
+      <c r="AG110">
         <v>305</v>
       </c>
-      <c r="AG110">
-        <v>0</v>
-      </c>
       <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12308,7 +12641,7 @@
         <v>109</v>
       </c>
       <c r="U111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="V111">
         <v>190</v>
@@ -12334,23 +12667,26 @@
       <c r="AC111">
         <v>190</v>
       </c>
-      <c r="AD111" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE111">
+      <c r="AD111">
+        <v>190</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF111">
         <v>8998</v>
       </c>
-      <c r="AF111">
+      <c r="AG111">
         <v>308</v>
       </c>
-      <c r="AG111">
-        <v>0</v>
-      </c>
       <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12405,19 +12741,22 @@
       <c r="R112">
         <v>110</v>
       </c>
-      <c r="AD112" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE112">
+      <c r="S112">
+        <v>110</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF112">
         <v>8998</v>
       </c>
-      <c r="AF112">
+      <c r="AG112">
         <v>308</v>
       </c>
-      <c r="AG112">
-        <v>0</v>
-      </c>
       <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
         <v>8690</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t>06-12-2020</t>
+  </si>
+  <si>
+    <t>06-13-2020</t>
   </si>
 </sst>
 </file>
@@ -806,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI112"/>
+  <dimension ref="A1:AJ113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,8 +921,11 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1007,23 +1016,26 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2">
         <v>1</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1114,14 +1126,14 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3">
+      <c r="AE3">
         <v>1</v>
       </c>
+      <c r="AF3" t="s">
+        <v>36</v>
+      </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1129,8 +1141,11 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1221,14 +1236,14 @@
       <c r="AD4">
         <v>2</v>
       </c>
-      <c r="AE4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4">
+      <c r="AE4">
         <v>2</v>
       </c>
+      <c r="AF4" t="s">
+        <v>37</v>
+      </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1236,8 +1251,11 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1328,23 +1346,26 @@
       <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AE5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF5">
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5">
         <v>2</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1435,23 +1456,26 @@
       <c r="AD6">
         <v>4</v>
       </c>
-      <c r="AE6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6">
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG6">
         <v>2</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1542,23 +1566,26 @@
       <c r="AD7">
         <v>5</v>
       </c>
-      <c r="AE7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF7">
+      <c r="AE7">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7">
         <v>2</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1649,23 +1676,26 @@
       <c r="AD8">
         <v>6</v>
       </c>
-      <c r="AE8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8">
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8">
         <v>2</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1756,23 +1786,26 @@
       <c r="AD9">
         <v>7</v>
       </c>
-      <c r="AE9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF9">
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9">
         <v>2</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1863,23 +1896,26 @@
       <c r="AD10">
         <v>8</v>
       </c>
-      <c r="AE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF10">
+      <c r="AE10">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG10">
         <v>2</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1970,23 +2006,26 @@
       <c r="AD11">
         <v>9</v>
       </c>
-      <c r="AE11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF11">
+      <c r="AE11">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11">
         <v>2</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2077,23 +2116,26 @@
       <c r="AD12">
         <v>10</v>
       </c>
-      <c r="AE12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF12">
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG12">
         <v>2</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>1</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2184,23 +2226,26 @@
       <c r="AD13">
         <v>11</v>
       </c>
-      <c r="AE13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF13">
+      <c r="AE13">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13">
         <v>2</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>1</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2291,23 +2336,26 @@
       <c r="AD14">
         <v>12</v>
       </c>
-      <c r="AE14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF14">
+      <c r="AE14">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG14">
         <v>2</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>1</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2398,23 +2446,26 @@
       <c r="AD15">
         <v>13</v>
       </c>
-      <c r="AE15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF15">
+      <c r="AE15">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG15">
         <v>2</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
         <v>1</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2505,23 +2556,26 @@
       <c r="AD16">
         <v>14</v>
       </c>
-      <c r="AE16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF16">
+      <c r="AE16">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16">
         <v>2</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>1</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:36">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2612,23 +2666,26 @@
       <c r="AD17">
         <v>15</v>
       </c>
-      <c r="AE17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF17">
+      <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG17">
         <v>2</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>1</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:36">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2719,23 +2776,26 @@
       <c r="AD18">
         <v>16</v>
       </c>
-      <c r="AE18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF18">
+      <c r="AE18">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG18">
         <v>2</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>1</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:36">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2826,23 +2886,26 @@
       <c r="AD19">
         <v>17</v>
       </c>
-      <c r="AE19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF19">
+      <c r="AE19">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG19">
         <v>2</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
       <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>1</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:36">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2933,23 +2996,26 @@
       <c r="AD20">
         <v>18</v>
       </c>
-      <c r="AE20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF20">
+      <c r="AE20">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG20">
         <v>2</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
         <v>1</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:36">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3040,23 +3106,26 @@
       <c r="AD21">
         <v>19</v>
       </c>
-      <c r="AE21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF21">
+      <c r="AE21">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG21">
         <v>2</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
       <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>1</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:36">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3147,23 +3216,26 @@
       <c r="AD22">
         <v>20</v>
       </c>
-      <c r="AE22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF22">
+      <c r="AE22">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG22">
         <v>2</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <v>1</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:36">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3254,23 +3326,26 @@
       <c r="AD23">
         <v>21</v>
       </c>
-      <c r="AE23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF23">
+      <c r="AE23">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23">
         <v>2</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
         <v>1</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:36">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3361,23 +3436,26 @@
       <c r="AD24">
         <v>22</v>
       </c>
-      <c r="AE24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF24">
+      <c r="AE24">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG24">
         <v>2</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
         <v>1</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3468,23 +3546,26 @@
       <c r="AD25">
         <v>23</v>
       </c>
-      <c r="AE25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25">
+      <c r="AE25">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG25">
         <v>3</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
         <v>1</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:36">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3575,23 +3656,26 @@
       <c r="AD26">
         <v>24</v>
       </c>
-      <c r="AE26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF26">
+      <c r="AE26">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG26">
         <v>3</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
         <v>1</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:36">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3682,23 +3766,26 @@
       <c r="AD27">
         <v>25</v>
       </c>
-      <c r="AE27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF27">
+      <c r="AE27">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG27">
         <v>3</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
       <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
         <v>1</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:36">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3789,23 +3876,26 @@
       <c r="AD28">
         <v>26</v>
       </c>
-      <c r="AE28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF28">
+      <c r="AE28">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG28">
         <v>3</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
       <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>1</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:36">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3896,23 +3986,26 @@
       <c r="AD29">
         <v>27</v>
       </c>
-      <c r="AE29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF29">
+      <c r="AE29">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG29">
         <v>3</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
       <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
         <v>1</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:36">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4003,23 +4096,26 @@
       <c r="AD30">
         <v>28</v>
       </c>
-      <c r="AE30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF30">
+      <c r="AE30">
+        <v>28</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG30">
         <v>155</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
       </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:36">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4084,7 +4180,7 @@
         <v>29</v>
       </c>
       <c r="V31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W31">
         <v>30</v>
@@ -4110,23 +4206,26 @@
       <c r="AD31">
         <v>30</v>
       </c>
-      <c r="AE31" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF31">
+      <c r="AE31">
+        <v>30</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG31">
         <v>201</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1</v>
       </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
       <c r="AI31">
         <v>0</v>
       </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:36">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4191,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="V32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W32">
         <v>32</v>
@@ -4217,23 +4316,26 @@
       <c r="AD32">
         <v>32</v>
       </c>
-      <c r="AE32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF32">
+      <c r="AE32">
+        <v>32</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG32">
         <v>226</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1</v>
       </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
       <c r="AI32">
         <v>0</v>
       </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:36">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4298,7 +4400,7 @@
         <v>31</v>
       </c>
       <c r="V33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W33">
         <v>34</v>
@@ -4324,23 +4426,26 @@
       <c r="AD33">
         <v>34</v>
       </c>
-      <c r="AE33" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF33">
+      <c r="AE33">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG33">
         <v>238</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>2</v>
       </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
       <c r="AI33">
         <v>0</v>
       </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:36">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4405,7 +4510,7 @@
         <v>32</v>
       </c>
       <c r="V34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W34">
         <v>36</v>
@@ -4431,23 +4536,26 @@
       <c r="AD34">
         <v>36</v>
       </c>
-      <c r="AE34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF34">
+      <c r="AE34">
+        <v>36</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG34">
         <v>293</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>3</v>
       </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
       <c r="AI34">
         <v>0</v>
       </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:36">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4512,7 +4620,7 @@
         <v>33</v>
       </c>
       <c r="V35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W35">
         <v>38</v>
@@ -4538,23 +4646,26 @@
       <c r="AD35">
         <v>38</v>
       </c>
-      <c r="AE35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF35">
+      <c r="AE35">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG35">
         <v>341</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>3</v>
       </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:36">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4619,7 +4730,7 @@
         <v>34</v>
       </c>
       <c r="V36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="W36">
         <v>40</v>
@@ -4645,23 +4756,26 @@
       <c r="AD36">
         <v>40</v>
       </c>
-      <c r="AE36" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF36">
+      <c r="AE36">
+        <v>40</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG36">
         <v>413</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>6</v>
       </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
       <c r="AI36">
         <v>0</v>
       </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:36">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4726,7 +4840,7 @@
         <v>35</v>
       </c>
       <c r="V37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="W37">
         <v>42</v>
@@ -4752,23 +4866,26 @@
       <c r="AD37">
         <v>42</v>
       </c>
-      <c r="AE37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF37">
+      <c r="AE37">
+        <v>42</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG37">
         <v>484</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>7</v>
       </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
       <c r="AI37">
         <v>0</v>
       </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:36">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4833,7 +4950,7 @@
         <v>36</v>
       </c>
       <c r="V38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W38">
         <v>44</v>
@@ -4859,23 +4976,26 @@
       <c r="AD38">
         <v>44</v>
       </c>
-      <c r="AE38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF38">
+      <c r="AE38">
+        <v>44</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG38">
         <v>515</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>7</v>
       </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
       <c r="AI38">
         <v>0</v>
       </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:36">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4940,7 +5060,7 @@
         <v>37</v>
       </c>
       <c r="V39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="W39">
         <v>46</v>
@@ -4966,23 +5086,26 @@
       <c r="AD39">
         <v>46</v>
       </c>
-      <c r="AE39" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF39">
+      <c r="AE39">
+        <v>46</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG39">
         <v>603</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>7</v>
       </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
       <c r="AI39">
         <v>0</v>
       </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:36">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5047,7 +5170,7 @@
         <v>38</v>
       </c>
       <c r="V40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W40">
         <v>48</v>
@@ -5073,23 +5196,26 @@
       <c r="AD40">
         <v>48</v>
       </c>
-      <c r="AE40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF40">
+      <c r="AE40">
+        <v>48</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG40">
         <v>733</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>9</v>
       </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
       <c r="AI40">
         <v>0</v>
       </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:36">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5154,7 +5280,7 @@
         <v>39</v>
       </c>
       <c r="V41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="W41">
         <v>50</v>
@@ -5180,23 +5306,26 @@
       <c r="AD41">
         <v>50</v>
       </c>
-      <c r="AE41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF41">
+      <c r="AE41">
+        <v>50</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG41">
         <v>849</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>15</v>
       </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:36">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5261,7 +5390,7 @@
         <v>40</v>
       </c>
       <c r="V42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W42">
         <v>52</v>
@@ -5287,23 +5416,26 @@
       <c r="AD42">
         <v>52</v>
       </c>
-      <c r="AE42" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF42">
+      <c r="AE42">
+        <v>52</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG42">
         <v>966</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>16</v>
       </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
       <c r="AI42">
         <v>0</v>
       </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:36">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5368,7 +5500,7 @@
         <v>41</v>
       </c>
       <c r="V43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="W43">
         <v>54</v>
@@ -5394,23 +5526,26 @@
       <c r="AD43">
         <v>54</v>
       </c>
-      <c r="AE43" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF43">
+      <c r="AE43">
+        <v>54</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG43">
         <v>1112</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>17</v>
       </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:36">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5475,7 +5610,7 @@
         <v>42</v>
       </c>
       <c r="V44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="W44">
         <v>56</v>
@@ -5501,23 +5636,26 @@
       <c r="AD44">
         <v>56</v>
       </c>
-      <c r="AE44" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF44">
+      <c r="AE44">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG44">
         <v>1209</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>18</v>
       </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
       <c r="AI44">
         <v>0</v>
       </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:36">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5582,7 +5720,7 @@
         <v>43</v>
       </c>
       <c r="V45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="W45">
         <v>58</v>
@@ -5608,23 +5746,26 @@
       <c r="AD45">
         <v>58</v>
       </c>
-      <c r="AE45" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF45">
+      <c r="AE45">
+        <v>58</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG45">
         <v>1326</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>19</v>
       </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:36">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5689,7 +5830,7 @@
         <v>44</v>
       </c>
       <c r="V46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="W46">
         <v>60</v>
@@ -5715,23 +5856,26 @@
       <c r="AD46">
         <v>60</v>
       </c>
-      <c r="AE46" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF46">
+      <c r="AE46">
+        <v>60</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG46">
         <v>1404</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>19</v>
       </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:36">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5796,7 +5940,7 @@
         <v>45</v>
       </c>
       <c r="V47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="W47">
         <v>62</v>
@@ -5822,23 +5966,26 @@
       <c r="AD47">
         <v>62</v>
       </c>
-      <c r="AE47" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF47">
+      <c r="AE47">
+        <v>62</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG47">
         <v>1454</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>31</v>
       </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:36">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5903,7 +6050,7 @@
         <v>46</v>
       </c>
       <c r="V48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W48">
         <v>64</v>
@@ -5929,23 +6076,26 @@
       <c r="AD48">
         <v>64</v>
       </c>
-      <c r="AE48" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF48">
+      <c r="AE48">
+        <v>64</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG48">
         <v>1530</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>36</v>
       </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:36">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6010,7 +6160,7 @@
         <v>47</v>
       </c>
       <c r="V49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="W49">
         <v>66</v>
@@ -6036,23 +6186,26 @@
       <c r="AD49">
         <v>66</v>
       </c>
-      <c r="AE49" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF49">
+      <c r="AE49">
+        <v>66</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG49">
         <v>1628</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>40</v>
       </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
       <c r="AI49">
         <v>0</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:36">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6117,7 +6270,7 @@
         <v>48</v>
       </c>
       <c r="V50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="W50">
         <v>68</v>
@@ -6143,23 +6296,26 @@
       <c r="AD50">
         <v>68</v>
       </c>
-      <c r="AE50" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF50">
+      <c r="AE50">
+        <v>68</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG50">
         <v>1693</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>44</v>
       </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:36">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6224,7 +6380,7 @@
         <v>49</v>
       </c>
       <c r="V51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="W51">
         <v>70</v>
@@ -6250,23 +6406,26 @@
       <c r="AD51">
         <v>70</v>
       </c>
-      <c r="AE51" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF51">
+      <c r="AE51">
+        <v>70</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG51">
         <v>1761</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>45</v>
       </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:36">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6331,7 +6490,7 @@
         <v>50</v>
       </c>
       <c r="V52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="W52">
         <v>72</v>
@@ -6357,23 +6516,26 @@
       <c r="AD52">
         <v>72</v>
       </c>
-      <c r="AE52" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF52">
+      <c r="AE52">
+        <v>72</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG52">
         <v>1804</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>45</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:36">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6438,7 +6600,7 @@
         <v>51</v>
       </c>
       <c r="V53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W53">
         <v>74</v>
@@ -6464,23 +6626,26 @@
       <c r="AD53">
         <v>74</v>
       </c>
-      <c r="AE53" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF53">
+      <c r="AE53">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG53">
         <v>1847</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>47</v>
       </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:36">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6545,7 +6710,7 @@
         <v>52</v>
       </c>
       <c r="V54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="W54">
         <v>76</v>
@@ -6571,23 +6736,26 @@
       <c r="AD54">
         <v>76</v>
       </c>
-      <c r="AE54" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF54">
+      <c r="AE54">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG54">
         <v>1930</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>53</v>
       </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:36">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6652,7 +6820,7 @@
         <v>53</v>
       </c>
       <c r="V55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="W55">
         <v>78</v>
@@ -6678,23 +6846,26 @@
       <c r="AD55">
         <v>78</v>
       </c>
-      <c r="AE55" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF55">
+      <c r="AE55">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG55">
         <v>2012</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>60</v>
       </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:36">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6759,7 +6930,7 @@
         <v>54</v>
       </c>
       <c r="V56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="W56">
         <v>80</v>
@@ -6785,23 +6956,26 @@
       <c r="AD56">
         <v>80</v>
       </c>
-      <c r="AE56" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF56">
+      <c r="AE56">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG56">
         <v>2087</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>63</v>
       </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:36">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6866,7 +7040,7 @@
         <v>55</v>
       </c>
       <c r="V57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="W57">
         <v>82</v>
@@ -6892,23 +7066,26 @@
       <c r="AD57">
         <v>82</v>
       </c>
-      <c r="AE57" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF57">
+      <c r="AE57">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG57">
         <v>2158</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>70</v>
       </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:36">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6973,7 +7150,7 @@
         <v>56</v>
       </c>
       <c r="V58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="W58">
         <v>84</v>
@@ -6999,23 +7176,26 @@
       <c r="AD58">
         <v>84</v>
       </c>
-      <c r="AE58" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF58">
+      <c r="AE58">
+        <v>84</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG58">
         <v>2213</v>
       </c>
-      <c r="AG58">
+      <c r="AH58">
         <v>71</v>
       </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:36">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7080,7 +7260,7 @@
         <v>57</v>
       </c>
       <c r="V59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="W59">
         <v>86</v>
@@ -7106,23 +7286,26 @@
       <c r="AD59">
         <v>86</v>
       </c>
-      <c r="AE59" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF59">
+      <c r="AE59">
+        <v>86</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG59">
         <v>2268</v>
       </c>
-      <c r="AG59">
+      <c r="AH59">
         <v>71</v>
       </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:36">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7187,7 +7370,7 @@
         <v>58</v>
       </c>
       <c r="V60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="W60">
         <v>88</v>
@@ -7213,23 +7396,26 @@
       <c r="AD60">
         <v>88</v>
       </c>
-      <c r="AE60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF60">
+      <c r="AE60">
+        <v>88</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG60">
         <v>2325</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>72</v>
       </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:36">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7294,7 +7480,7 @@
         <v>59</v>
       </c>
       <c r="V61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="W61">
         <v>90</v>
@@ -7320,23 +7506,26 @@
       <c r="AD61">
         <v>90</v>
       </c>
-      <c r="AE61" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF61">
+      <c r="AE61">
+        <v>90</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG61">
         <v>2491</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>96</v>
       </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:36">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7401,7 +7590,7 @@
         <v>60</v>
       </c>
       <c r="V62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="W62">
         <v>92</v>
@@ -7427,23 +7616,26 @@
       <c r="AD62">
         <v>92</v>
       </c>
-      <c r="AE62" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF62">
+      <c r="AE62">
+        <v>92</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG62">
         <v>2643</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>100</v>
       </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:36">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7508,7 +7700,7 @@
         <v>61</v>
       </c>
       <c r="V63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="W63">
         <v>94</v>
@@ -7534,23 +7726,26 @@
       <c r="AD63">
         <v>94</v>
       </c>
-      <c r="AE63" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF63">
+      <c r="AE63">
+        <v>94</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG63">
         <v>2826</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>102</v>
       </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:36">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7615,7 +7810,7 @@
         <v>62</v>
       </c>
       <c r="V64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="W64">
         <v>96</v>
@@ -7641,23 +7836,26 @@
       <c r="AD64">
         <v>96</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AE64">
         <v>96</v>
       </c>
-      <c r="AF64">
+      <c r="AF64" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG64">
         <v>2943</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>111</v>
       </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:36">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7722,7 +7920,7 @@
         <v>63</v>
       </c>
       <c r="V65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="W65">
         <v>98</v>
@@ -7748,23 +7946,26 @@
       <c r="AD65">
         <v>98</v>
       </c>
-      <c r="AE65" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF65">
+      <c r="AE65">
+        <v>98</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG65">
         <v>2943</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>111</v>
       </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:36">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7829,7 +8030,7 @@
         <v>64</v>
       </c>
       <c r="V66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="W66">
         <v>100</v>
@@ -7855,23 +8056,26 @@
       <c r="AD66">
         <v>100</v>
       </c>
-      <c r="AE66" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF66">
+      <c r="AE66">
+        <v>100</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG66">
         <v>3043</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>111</v>
       </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:36">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7936,7 +8140,7 @@
         <v>65</v>
       </c>
       <c r="V67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="W67">
         <v>102</v>
@@ -7962,23 +8166,26 @@
       <c r="AD67">
         <v>102</v>
       </c>
-      <c r="AE67" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF67">
+      <c r="AE67">
+        <v>102</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG67">
         <v>3141</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>113</v>
       </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:36">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8043,7 +8250,7 @@
         <v>66</v>
       </c>
       <c r="V68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="W68">
         <v>104</v>
@@ -8069,23 +8276,26 @@
       <c r="AD68">
         <v>104</v>
       </c>
-      <c r="AE68" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF68">
+      <c r="AE68">
+        <v>104</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG68">
         <v>3432</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>120</v>
       </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:36">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8150,7 +8360,7 @@
         <v>67</v>
       </c>
       <c r="V69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="W69">
         <v>106</v>
@@ -8176,23 +8386,26 @@
       <c r="AD69">
         <v>106</v>
       </c>
-      <c r="AE69" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF69">
+      <c r="AE69">
+        <v>106</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG69">
         <v>3432</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>120</v>
       </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:36">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8257,7 +8470,7 @@
         <v>68</v>
       </c>
       <c r="V70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="W70">
         <v>108</v>
@@ -8283,23 +8496,26 @@
       <c r="AD70">
         <v>108</v>
       </c>
-      <c r="AE70" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF70">
+      <c r="AE70">
+        <v>108</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG70">
         <v>3564</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>124</v>
       </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:36">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8364,7 +8580,7 @@
         <v>69</v>
       </c>
       <c r="V71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="W71">
         <v>110</v>
@@ -8390,23 +8606,26 @@
       <c r="AD71">
         <v>110</v>
       </c>
-      <c r="AE71" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF71">
+      <c r="AE71">
+        <v>110</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG71">
         <v>3711</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>134</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:36">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8471,7 +8690,7 @@
         <v>70</v>
       </c>
       <c r="V72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="W72">
         <v>112</v>
@@ -8497,23 +8716,26 @@
       <c r="AD72">
         <v>112</v>
       </c>
-      <c r="AE72" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF72">
+      <c r="AE72">
+        <v>112</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG72">
         <v>3927</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <v>139</v>
       </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:36">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8578,7 +8800,7 @@
         <v>71</v>
       </c>
       <c r="V73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="W73">
         <v>114</v>
@@ -8604,23 +8826,26 @@
       <c r="AD73">
         <v>114</v>
       </c>
-      <c r="AE73" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF73">
+      <c r="AE73">
+        <v>114</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG73">
         <v>3927</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>139</v>
       </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:36">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8685,7 +8910,7 @@
         <v>72</v>
       </c>
       <c r="V74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="W74">
         <v>116</v>
@@ -8711,23 +8936,26 @@
       <c r="AD74">
         <v>116</v>
       </c>
-      <c r="AE74" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF74">
+      <c r="AE74">
+        <v>116</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG74">
         <v>4020</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>144</v>
       </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:36">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8792,7 +9020,7 @@
         <v>73</v>
       </c>
       <c r="V75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="W75">
         <v>118</v>
@@ -8818,23 +9046,26 @@
       <c r="AD75">
         <v>118</v>
       </c>
-      <c r="AE75" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF75">
+      <c r="AE75">
+        <v>118</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG75">
         <v>4319</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>158</v>
       </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:36">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8899,7 +9130,7 @@
         <v>74</v>
       </c>
       <c r="V76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="W76">
         <v>120</v>
@@ -8925,23 +9156,26 @@
       <c r="AD76">
         <v>120</v>
       </c>
-      <c r="AE76" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF76">
+      <c r="AE76">
+        <v>120</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG76">
         <v>4319</v>
       </c>
-      <c r="AG76">
+      <c r="AH76">
         <v>158</v>
       </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:36">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9006,7 +9240,7 @@
         <v>75</v>
       </c>
       <c r="V77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="W77">
         <v>122</v>
@@ -9032,23 +9266,26 @@
       <c r="AD77">
         <v>122</v>
       </c>
-      <c r="AE77" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF77">
+      <c r="AE77">
+        <v>122</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG77">
         <v>4429</v>
       </c>
-      <c r="AG77">
+      <c r="AH77">
         <v>165</v>
       </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:36">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9113,7 +9350,7 @@
         <v>76</v>
       </c>
       <c r="V78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="W78">
         <v>124</v>
@@ -9139,23 +9376,26 @@
       <c r="AD78">
         <v>124</v>
       </c>
-      <c r="AE78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF78">
+      <c r="AE78">
+        <v>124</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG78">
         <v>4662</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <v>169</v>
       </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:36">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9220,7 +9460,7 @@
         <v>77</v>
       </c>
       <c r="V79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="W79">
         <v>126</v>
@@ -9246,23 +9486,26 @@
       <c r="AD79">
         <v>126</v>
       </c>
-      <c r="AE79" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF79">
+      <c r="AE79">
+        <v>126</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG79">
         <v>4776</v>
       </c>
-      <c r="AG79">
+      <c r="AH79">
         <v>175</v>
       </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:36">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9327,7 +9570,7 @@
         <v>78</v>
       </c>
       <c r="V80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="W80">
         <v>128</v>
@@ -9353,23 +9596,26 @@
       <c r="AD80">
         <v>128</v>
       </c>
-      <c r="AE80" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF80">
+      <c r="AE80">
+        <v>128</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG80">
         <v>5065</v>
       </c>
-      <c r="AG80">
+      <c r="AH80">
         <v>175</v>
       </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:36">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9434,7 +9680,7 @@
         <v>79</v>
       </c>
       <c r="V81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="W81">
         <v>130</v>
@@ -9460,23 +9706,26 @@
       <c r="AD81">
         <v>130</v>
       </c>
-      <c r="AE81" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF81">
+      <c r="AE81">
+        <v>130</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG81">
         <v>5161</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>190</v>
       </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:36">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9541,7 +9790,7 @@
         <v>80</v>
       </c>
       <c r="V82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="W82">
         <v>132</v>
@@ -9567,23 +9816,26 @@
       <c r="AD82">
         <v>132</v>
       </c>
-      <c r="AE82" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF82">
+      <c r="AE82">
+        <v>132</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG82">
         <v>5161</v>
       </c>
-      <c r="AG82">
+      <c r="AH82">
         <v>190</v>
       </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:36">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9648,7 +9900,7 @@
         <v>81</v>
       </c>
       <c r="V83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="W83">
         <v>134</v>
@@ -9674,23 +9926,26 @@
       <c r="AD83">
         <v>134</v>
       </c>
-      <c r="AE83" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF83">
+      <c r="AE83">
+        <v>134</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG83">
         <v>5391</v>
       </c>
-      <c r="AG83">
+      <c r="AH83">
         <v>200</v>
       </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:36">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9755,7 +10010,7 @@
         <v>82</v>
       </c>
       <c r="V84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="W84">
         <v>136</v>
@@ -9781,23 +10036,26 @@
       <c r="AD84">
         <v>136</v>
       </c>
-      <c r="AE84" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF84">
+      <c r="AE84">
+        <v>136</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG84">
         <v>5391</v>
       </c>
-      <c r="AG84">
+      <c r="AH84">
         <v>200</v>
       </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:36">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9862,7 +10120,7 @@
         <v>83</v>
       </c>
       <c r="V85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="W85">
         <v>138</v>
@@ -9888,23 +10146,26 @@
       <c r="AD85">
         <v>138</v>
       </c>
-      <c r="AE85" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF85">
+      <c r="AE85">
+        <v>138</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG85">
         <v>5662</v>
       </c>
-      <c r="AG85">
+      <c r="AH85">
         <v>209</v>
       </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:36">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9969,7 +10230,7 @@
         <v>84</v>
       </c>
       <c r="V86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="W86">
         <v>140</v>
@@ -9995,23 +10256,26 @@
       <c r="AD86">
         <v>140</v>
       </c>
-      <c r="AE86" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF86">
+      <c r="AE86">
+        <v>140</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG86">
         <v>5836</v>
       </c>
-      <c r="AG86">
+      <c r="AH86">
         <v>209</v>
       </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:36">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10076,7 +10340,7 @@
         <v>85</v>
       </c>
       <c r="V87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="W87">
         <v>142</v>
@@ -10102,23 +10366,26 @@
       <c r="AD87">
         <v>142</v>
       </c>
-      <c r="AE87" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF87">
+      <c r="AE87">
+        <v>142</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG87">
         <v>5836</v>
       </c>
-      <c r="AG87">
+      <c r="AH87">
         <v>209</v>
       </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:36">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10183,7 +10450,7 @@
         <v>86</v>
       </c>
       <c r="V88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="W88">
         <v>144</v>
@@ -10209,23 +10476,26 @@
       <c r="AD88">
         <v>144</v>
       </c>
-      <c r="AE88" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF88">
+      <c r="AE88">
+        <v>144</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG88">
         <v>6026</v>
       </c>
-      <c r="AG88">
+      <c r="AH88">
         <v>222</v>
       </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:36">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10290,7 +10560,7 @@
         <v>87</v>
       </c>
       <c r="V89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="W89">
         <v>146</v>
@@ -10316,23 +10586,26 @@
       <c r="AD89">
         <v>146</v>
       </c>
-      <c r="AE89" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF89">
+      <c r="AE89">
+        <v>146</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG89">
         <v>6140</v>
       </c>
-      <c r="AG89">
+      <c r="AH89">
         <v>230</v>
       </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:36">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10397,7 +10670,7 @@
         <v>88</v>
       </c>
       <c r="V90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="W90">
         <v>148</v>
@@ -10423,23 +10696,26 @@
       <c r="AD90">
         <v>148</v>
       </c>
-      <c r="AE90" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF90">
+      <c r="AE90">
+        <v>148</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG90">
         <v>6140</v>
       </c>
-      <c r="AG90">
+      <c r="AH90">
         <v>230</v>
       </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:36">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10504,7 +10780,7 @@
         <v>89</v>
       </c>
       <c r="V91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="W91">
         <v>150</v>
@@ -10530,23 +10806,26 @@
       <c r="AD91">
         <v>150</v>
       </c>
-      <c r="AE91" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF91">
+      <c r="AE91">
+        <v>150</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG91">
         <v>6315</v>
       </c>
-      <c r="AG91">
+      <c r="AH91">
         <v>241</v>
       </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:36">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10611,7 +10890,7 @@
         <v>90</v>
       </c>
       <c r="V92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="W92">
         <v>152</v>
@@ -10637,23 +10916,26 @@
       <c r="AD92">
         <v>152</v>
       </c>
-      <c r="AE92" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF92">
+      <c r="AE92">
+        <v>152</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG92">
         <v>6559</v>
       </c>
-      <c r="AG92">
+      <c r="AH92">
         <v>249</v>
       </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:36">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10718,7 +11000,7 @@
         <v>91</v>
       </c>
       <c r="V93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="W93">
         <v>154</v>
@@ -10744,23 +11026,26 @@
       <c r="AD93">
         <v>154</v>
       </c>
-      <c r="AE93" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF93">
+      <c r="AE93">
+        <v>154</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG93">
         <v>6559</v>
       </c>
-      <c r="AG93">
+      <c r="AH93">
         <v>249</v>
       </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:36">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10825,7 +11110,7 @@
         <v>92</v>
       </c>
       <c r="V94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="W94">
         <v>156</v>
@@ -10851,23 +11136,26 @@
       <c r="AD94">
         <v>156</v>
       </c>
-      <c r="AE94" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF94">
+      <c r="AE94">
+        <v>156</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG94">
         <v>6701</v>
       </c>
-      <c r="AG94">
+      <c r="AH94">
         <v>249</v>
       </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
       <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:36">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10932,7 +11220,7 @@
         <v>93</v>
       </c>
       <c r="V95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="W95">
         <v>158</v>
@@ -10958,23 +11246,26 @@
       <c r="AD95">
         <v>158</v>
       </c>
-      <c r="AE95" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF95">
+      <c r="AE95">
+        <v>158</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG95">
         <v>6797</v>
       </c>
-      <c r="AG95">
+      <c r="AH95">
         <v>249</v>
       </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
       <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:36">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11039,7 +11330,7 @@
         <v>94</v>
       </c>
       <c r="V96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="W96">
         <v>160</v>
@@ -11065,23 +11356,26 @@
       <c r="AD96">
         <v>160</v>
       </c>
-      <c r="AE96" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF96">
+      <c r="AE96">
+        <v>160</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG96">
         <v>6882</v>
       </c>
-      <c r="AG96">
+      <c r="AH96">
         <v>249</v>
       </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
       <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:36">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11146,7 +11440,7 @@
         <v>95</v>
       </c>
       <c r="V97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="W97">
         <v>162</v>
@@ -11172,23 +11466,26 @@
       <c r="AD97">
         <v>162</v>
       </c>
-      <c r="AE97" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF97">
+      <c r="AE97">
+        <v>162</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG97">
         <v>7100</v>
       </c>
-      <c r="AG97">
+      <c r="AH97">
         <v>260</v>
       </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
       <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:36">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11253,7 +11550,7 @@
         <v>96</v>
       </c>
       <c r="V98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="W98">
         <v>164</v>
@@ -11279,23 +11576,26 @@
       <c r="AD98">
         <v>164</v>
       </c>
-      <c r="AE98" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF98">
+      <c r="AE98">
+        <v>164</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG98">
         <v>7100</v>
       </c>
-      <c r="AG98">
+      <c r="AH98">
         <v>260</v>
       </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
       <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:36">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11360,7 +11660,7 @@
         <v>97</v>
       </c>
       <c r="V99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="W99">
         <v>166</v>
@@ -11386,23 +11686,26 @@
       <c r="AD99">
         <v>166</v>
       </c>
-      <c r="AE99" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF99">
+      <c r="AE99">
+        <v>166</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG99">
         <v>7385</v>
       </c>
-      <c r="AG99">
+      <c r="AH99">
         <v>269</v>
       </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
       <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:36">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -11467,7 +11770,7 @@
         <v>98</v>
       </c>
       <c r="V100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="W100">
         <v>168</v>
@@ -11493,23 +11796,26 @@
       <c r="AD100">
         <v>168</v>
       </c>
-      <c r="AE100" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF100">
+      <c r="AE100">
+        <v>168</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG100">
         <v>7481</v>
       </c>
-      <c r="AG100">
+      <c r="AH100">
         <v>269</v>
       </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
       <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:36">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -11574,7 +11880,7 @@
         <v>99</v>
       </c>
       <c r="V101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="W101">
         <v>170</v>
@@ -11600,23 +11906,26 @@
       <c r="AD101">
         <v>170</v>
       </c>
-      <c r="AE101" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF101">
+      <c r="AE101">
+        <v>170</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG101">
         <v>7481</v>
       </c>
-      <c r="AG101">
+      <c r="AH101">
         <v>269</v>
       </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
       <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:36">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11681,7 +11990,7 @@
         <v>100</v>
       </c>
       <c r="V102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="W102">
         <v>172</v>
@@ -11707,23 +12016,26 @@
       <c r="AD102">
         <v>172</v>
       </c>
-      <c r="AE102" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF102">
+      <c r="AE102">
+        <v>172</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG102">
         <v>7554</v>
       </c>
-      <c r="AG102">
+      <c r="AH102">
         <v>269</v>
       </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
       <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:36">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11788,7 +12100,7 @@
         <v>101</v>
       </c>
       <c r="V103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="W103">
         <v>174</v>
@@ -11814,23 +12126,26 @@
       <c r="AD103">
         <v>174</v>
       </c>
-      <c r="AE103" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF103">
+      <c r="AE103">
+        <v>174</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG103">
         <v>7674</v>
       </c>
-      <c r="AG103">
+      <c r="AH103">
         <v>276</v>
       </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
       <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:36">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11895,7 +12210,7 @@
         <v>102</v>
       </c>
       <c r="V104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="W104">
         <v>176</v>
@@ -11921,23 +12236,26 @@
       <c r="AD104">
         <v>176</v>
       </c>
-      <c r="AE104" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF104">
+      <c r="AE104">
+        <v>176</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG104">
         <v>7798</v>
       </c>
-      <c r="AG104">
+      <c r="AH104">
         <v>283</v>
       </c>
-      <c r="AH104">
-        <v>0</v>
-      </c>
       <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:36">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12002,7 +12320,7 @@
         <v>103</v>
       </c>
       <c r="V105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="W105">
         <v>178</v>
@@ -12028,23 +12346,26 @@
       <c r="AD105">
         <v>178</v>
       </c>
-      <c r="AE105" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF105">
+      <c r="AE105">
+        <v>178</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG105">
         <v>7940</v>
       </c>
-      <c r="AG105">
+      <c r="AH105">
         <v>288</v>
       </c>
-      <c r="AH105">
-        <v>0</v>
-      </c>
       <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:36">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12109,7 +12430,7 @@
         <v>104</v>
       </c>
       <c r="V106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="W106">
         <v>180</v>
@@ -12135,23 +12456,26 @@
       <c r="AD106">
         <v>180</v>
       </c>
-      <c r="AE106" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF106">
+      <c r="AE106">
+        <v>180</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG106">
         <v>8345</v>
       </c>
-      <c r="AG106">
+      <c r="AH106">
         <v>296</v>
       </c>
-      <c r="AH106">
-        <v>0</v>
-      </c>
       <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:36">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12216,7 +12540,7 @@
         <v>105</v>
       </c>
       <c r="V107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="W107">
         <v>182</v>
@@ -12242,23 +12566,26 @@
       <c r="AD107">
         <v>182</v>
       </c>
-      <c r="AE107" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF107">
+      <c r="AE107">
+        <v>182</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG107">
         <v>8345</v>
       </c>
-      <c r="AG107">
+      <c r="AH107">
         <v>296</v>
       </c>
-      <c r="AH107">
-        <v>0</v>
-      </c>
       <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:36">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12323,7 +12650,7 @@
         <v>106</v>
       </c>
       <c r="V108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="W108">
         <v>184</v>
@@ -12349,23 +12676,26 @@
       <c r="AD108">
         <v>184</v>
       </c>
-      <c r="AE108" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF108">
+      <c r="AE108">
+        <v>184</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG108">
         <v>8619</v>
       </c>
-      <c r="AG108">
+      <c r="AH108">
         <v>296</v>
       </c>
-      <c r="AH108">
-        <v>0</v>
-      </c>
       <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:36">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12430,7 +12760,7 @@
         <v>107</v>
       </c>
       <c r="V109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="W109">
         <v>186</v>
@@ -12456,23 +12786,26 @@
       <c r="AD109">
         <v>186</v>
       </c>
-      <c r="AE109" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF109">
+      <c r="AE109">
+        <v>186</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG109">
         <v>8619</v>
       </c>
-      <c r="AG109">
+      <c r="AH109">
         <v>296</v>
       </c>
-      <c r="AH109">
-        <v>0</v>
-      </c>
       <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:36">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12537,7 +12870,7 @@
         <v>108</v>
       </c>
       <c r="V110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="W110">
         <v>188</v>
@@ -12563,23 +12896,26 @@
       <c r="AD110">
         <v>188</v>
       </c>
-      <c r="AE110" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF110">
+      <c r="AE110">
+        <v>188</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG110">
         <v>8837</v>
       </c>
-      <c r="AG110">
+      <c r="AH110">
         <v>305</v>
       </c>
-      <c r="AH110">
-        <v>0</v>
-      </c>
       <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:36">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12644,7 +12980,7 @@
         <v>109</v>
       </c>
       <c r="V111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="W111">
         <v>190</v>
@@ -12670,23 +13006,26 @@
       <c r="AD111">
         <v>190</v>
       </c>
-      <c r="AE111" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF111">
+      <c r="AE111">
+        <v>190</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG111">
         <v>8998</v>
       </c>
-      <c r="AG111">
+      <c r="AH111">
         <v>308</v>
       </c>
-      <c r="AH111">
-        <v>0</v>
-      </c>
       <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:36">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12744,20 +13083,43 @@
       <c r="S112">
         <v>110</v>
       </c>
-      <c r="AE112" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF112">
+      <c r="T112">
+        <v>110</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG112">
         <v>8998</v>
       </c>
-      <c r="AG112">
+      <c r="AH112">
         <v>308</v>
       </c>
-      <c r="AH112">
-        <v>0</v>
-      </c>
       <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
         <v>8690</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG113">
+        <v>9314</v>
+      </c>
+      <c r="AH113">
+        <v>319</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>8995</v>
       </c>
     </row>
   </sheetData>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -770,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,8 +855,23 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -893,23 +923,38 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>21</v>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -961,23 +1006,38 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>22</v>
+      <c r="R3">
+        <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1029,23 +1089,38 @@
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
-        <v>23</v>
+      <c r="R4">
+        <v>2</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1097,23 +1172,38 @@
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" t="s">
-        <v>24</v>
+      <c r="R5">
+        <v>3</v>
       </c>
       <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5">
         <v>2</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1165,23 +1255,38 @@
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
-        <v>25</v>
+      <c r="R6">
+        <v>4</v>
       </c>
       <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6">
         <v>2</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1233,23 +1338,38 @@
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
-        <v>26</v>
+      <c r="R7">
+        <v>5</v>
       </c>
       <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7">
         <v>2</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1301,23 +1421,38 @@
       <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8" t="s">
-        <v>27</v>
+      <c r="R8">
+        <v>6</v>
       </c>
       <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8">
         <v>2</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1369,23 +1504,38 @@
       <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
-        <v>28</v>
+      <c r="R9">
+        <v>7</v>
       </c>
       <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9">
         <v>2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1437,23 +1587,38 @@
       <c r="Q10">
         <v>8</v>
       </c>
-      <c r="R10" t="s">
-        <v>29</v>
+      <c r="R10">
+        <v>8</v>
       </c>
       <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
         <v>2</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1505,23 +1670,38 @@
       <c r="Q11">
         <v>9</v>
       </c>
-      <c r="R11" t="s">
-        <v>30</v>
+      <c r="R11">
+        <v>9</v>
       </c>
       <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11">
         <v>2</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1573,23 +1753,38 @@
       <c r="Q12">
         <v>10</v>
       </c>
-      <c r="R12" t="s">
-        <v>31</v>
+      <c r="R12">
+        <v>10</v>
       </c>
       <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12">
         <v>2</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1641,23 +1836,38 @@
       <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
-        <v>32</v>
+      <c r="R13">
+        <v>11</v>
       </c>
       <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>1</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1709,23 +1919,38 @@
       <c r="Q14">
         <v>12</v>
       </c>
-      <c r="R14" t="s">
-        <v>33</v>
+      <c r="R14">
+        <v>12</v>
       </c>
       <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>1</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1777,23 +2002,38 @@
       <c r="Q15">
         <v>13</v>
       </c>
-      <c r="R15" t="s">
-        <v>34</v>
+      <c r="R15">
+        <v>13</v>
       </c>
       <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15">
         <v>2</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1845,23 +2085,38 @@
       <c r="Q16">
         <v>14</v>
       </c>
-      <c r="R16" t="s">
-        <v>35</v>
+      <c r="R16">
+        <v>14</v>
       </c>
       <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16">
         <v>2</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1913,23 +2168,38 @@
       <c r="Q17">
         <v>15</v>
       </c>
-      <c r="R17" t="s">
-        <v>36</v>
+      <c r="R17">
+        <v>15</v>
       </c>
       <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="U17">
+        <v>15</v>
+      </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17">
         <v>2</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1981,23 +2251,38 @@
       <c r="Q18">
         <v>16</v>
       </c>
-      <c r="R18" t="s">
-        <v>37</v>
+      <c r="R18">
+        <v>16</v>
       </c>
       <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18">
         <v>2</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>1</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2049,23 +2334,38 @@
       <c r="Q19">
         <v>17</v>
       </c>
-      <c r="R19" t="s">
-        <v>38</v>
+      <c r="R19">
+        <v>17</v>
       </c>
       <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2117,23 +2417,38 @@
       <c r="Q20">
         <v>18</v>
       </c>
-      <c r="R20" t="s">
-        <v>39</v>
+      <c r="R20">
+        <v>18</v>
       </c>
       <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <v>18</v>
+      </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20">
         <v>2</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2185,23 +2500,38 @@
       <c r="Q21">
         <v>19</v>
       </c>
-      <c r="R21" t="s">
-        <v>40</v>
+      <c r="R21">
+        <v>19</v>
       </c>
       <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="U21">
+        <v>19</v>
+      </c>
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21">
         <v>2</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2253,23 +2583,38 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
-        <v>41</v>
+      <c r="R22">
+        <v>20</v>
       </c>
       <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22">
         <v>2</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>1</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2321,23 +2666,38 @@
       <c r="Q23">
         <v>21</v>
       </c>
-      <c r="R23" t="s">
-        <v>42</v>
+      <c r="R23">
+        <v>21</v>
       </c>
       <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="U23">
+        <v>21</v>
+      </c>
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23">
         <v>2</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2389,23 +2749,38 @@
       <c r="Q24">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
-        <v>43</v>
+      <c r="R24">
+        <v>22</v>
       </c>
       <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>22</v>
+      </c>
+      <c r="U24">
+        <v>22</v>
+      </c>
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24">
         <v>2</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>1</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2457,23 +2832,38 @@
       <c r="Q25">
         <v>23</v>
       </c>
-      <c r="R25" t="s">
-        <v>44</v>
+      <c r="R25">
+        <v>23</v>
       </c>
       <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>23</v>
+      </c>
+      <c r="U25">
+        <v>23</v>
+      </c>
+      <c r="V25">
+        <v>23</v>
+      </c>
+      <c r="W25" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>1</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2525,23 +2915,38 @@
       <c r="Q26">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
-        <v>45</v>
+      <c r="R26">
+        <v>24</v>
       </c>
       <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>24</v>
+      </c>
+      <c r="U26">
+        <v>24</v>
+      </c>
+      <c r="V26">
+        <v>24</v>
+      </c>
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>1</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2593,23 +2998,38 @@
       <c r="Q27">
         <v>25</v>
       </c>
-      <c r="R27" t="s">
-        <v>46</v>
+      <c r="R27">
+        <v>25</v>
       </c>
       <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>25</v>
+      </c>
+      <c r="U27">
+        <v>25</v>
+      </c>
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27">
         <v>3</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>1</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2661,23 +3081,38 @@
       <c r="Q28">
         <v>26</v>
       </c>
-      <c r="R28" t="s">
-        <v>47</v>
+      <c r="R28">
+        <v>26</v>
       </c>
       <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>26</v>
+      </c>
+      <c r="U28">
+        <v>26</v>
+      </c>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28">
         <v>3</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>1</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2729,23 +3164,38 @@
       <c r="Q29">
         <v>27</v>
       </c>
-      <c r="R29" t="s">
-        <v>48</v>
+      <c r="R29">
+        <v>27</v>
       </c>
       <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>27</v>
+      </c>
+      <c r="U29">
+        <v>27</v>
+      </c>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29">
         <v>3</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>1</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2797,23 +3247,38 @@
       <c r="Q30">
         <v>28</v>
       </c>
-      <c r="R30" t="s">
-        <v>49</v>
+      <c r="R30">
+        <v>28</v>
       </c>
       <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>28</v>
+      </c>
+      <c r="U30">
+        <v>28</v>
+      </c>
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30">
         <v>155</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2839,19 +3304,19 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>30</v>
@@ -2865,23 +3330,38 @@
       <c r="Q31">
         <v>30</v>
       </c>
-      <c r="R31" t="s">
-        <v>50</v>
+      <c r="R31">
+        <v>30</v>
       </c>
       <c r="S31">
+        <v>30</v>
+      </c>
+      <c r="T31">
+        <v>30</v>
+      </c>
+      <c r="U31">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>30</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31">
         <v>201</v>
       </c>
-      <c r="T31">
+      <c r="Y31">
         <v>1</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2907,19 +3387,19 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>32</v>
@@ -2933,23 +3413,38 @@
       <c r="Q32">
         <v>32</v>
       </c>
-      <c r="R32" t="s">
-        <v>51</v>
+      <c r="R32">
+        <v>32</v>
       </c>
       <c r="S32">
+        <v>32</v>
+      </c>
+      <c r="T32">
+        <v>32</v>
+      </c>
+      <c r="U32">
+        <v>32</v>
+      </c>
+      <c r="V32">
+        <v>32</v>
+      </c>
+      <c r="W32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32">
         <v>226</v>
       </c>
-      <c r="T32">
+      <c r="Y32">
         <v>1</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2975,19 +3470,19 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>34</v>
@@ -3001,23 +3496,38 @@
       <c r="Q33">
         <v>34</v>
       </c>
-      <c r="R33" t="s">
-        <v>52</v>
+      <c r="R33">
+        <v>34</v>
       </c>
       <c r="S33">
+        <v>34</v>
+      </c>
+      <c r="T33">
+        <v>34</v>
+      </c>
+      <c r="U33">
+        <v>34</v>
+      </c>
+      <c r="V33">
+        <v>34</v>
+      </c>
+      <c r="W33" t="s">
+        <v>57</v>
+      </c>
+      <c r="X33">
         <v>238</v>
       </c>
-      <c r="T33">
+      <c r="Y33">
         <v>2</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3043,19 +3553,19 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>36</v>
@@ -3069,23 +3579,38 @@
       <c r="Q34">
         <v>36</v>
       </c>
-      <c r="R34" t="s">
-        <v>53</v>
+      <c r="R34">
+        <v>36</v>
       </c>
       <c r="S34">
+        <v>36</v>
+      </c>
+      <c r="T34">
+        <v>36</v>
+      </c>
+      <c r="U34">
+        <v>36</v>
+      </c>
+      <c r="V34">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X34">
         <v>293</v>
       </c>
-      <c r="T34">
+      <c r="Y34">
         <v>3</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3111,19 +3636,19 @@
         <v>33</v>
       </c>
       <c r="I35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>38</v>
@@ -3137,23 +3662,38 @@
       <c r="Q35">
         <v>38</v>
       </c>
-      <c r="R35" t="s">
-        <v>54</v>
+      <c r="R35">
+        <v>38</v>
       </c>
       <c r="S35">
+        <v>38</v>
+      </c>
+      <c r="T35">
+        <v>38</v>
+      </c>
+      <c r="U35">
+        <v>38</v>
+      </c>
+      <c r="V35">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s">
+        <v>59</v>
+      </c>
+      <c r="X35">
         <v>341</v>
       </c>
-      <c r="T35">
+      <c r="Y35">
         <v>3</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3179,19 +3719,19 @@
         <v>34</v>
       </c>
       <c r="I36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>40</v>
@@ -3205,23 +3745,38 @@
       <c r="Q36">
         <v>40</v>
       </c>
-      <c r="R36" t="s">
-        <v>55</v>
+      <c r="R36">
+        <v>40</v>
       </c>
       <c r="S36">
+        <v>40</v>
+      </c>
+      <c r="T36">
+        <v>40</v>
+      </c>
+      <c r="U36">
+        <v>40</v>
+      </c>
+      <c r="V36">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s">
+        <v>60</v>
+      </c>
+      <c r="X36">
         <v>413</v>
       </c>
-      <c r="T36">
+      <c r="Y36">
         <v>6</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3247,19 +3802,19 @@
         <v>35</v>
       </c>
       <c r="I37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>42</v>
@@ -3273,23 +3828,38 @@
       <c r="Q37">
         <v>42</v>
       </c>
-      <c r="R37" t="s">
-        <v>56</v>
+      <c r="R37">
+        <v>42</v>
       </c>
       <c r="S37">
+        <v>42</v>
+      </c>
+      <c r="T37">
+        <v>42</v>
+      </c>
+      <c r="U37">
+        <v>42</v>
+      </c>
+      <c r="V37">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+      <c r="X37">
         <v>484</v>
       </c>
-      <c r="T37">
+      <c r="Y37">
         <v>7</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3315,19 +3885,19 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>44</v>
@@ -3341,23 +3911,38 @@
       <c r="Q38">
         <v>44</v>
       </c>
-      <c r="R38" t="s">
-        <v>57</v>
+      <c r="R38">
+        <v>44</v>
       </c>
       <c r="S38">
+        <v>44</v>
+      </c>
+      <c r="T38">
+        <v>44</v>
+      </c>
+      <c r="U38">
+        <v>44</v>
+      </c>
+      <c r="V38">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s">
+        <v>62</v>
+      </c>
+      <c r="X38">
         <v>515</v>
       </c>
-      <c r="T38">
+      <c r="Y38">
         <v>7</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3383,19 +3968,19 @@
         <v>37</v>
       </c>
       <c r="I39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>46</v>
@@ -3409,23 +3994,38 @@
       <c r="Q39">
         <v>46</v>
       </c>
-      <c r="R39" t="s">
-        <v>58</v>
+      <c r="R39">
+        <v>46</v>
       </c>
       <c r="S39">
+        <v>46</v>
+      </c>
+      <c r="T39">
+        <v>46</v>
+      </c>
+      <c r="U39">
+        <v>46</v>
+      </c>
+      <c r="V39">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s">
+        <v>63</v>
+      </c>
+      <c r="X39">
         <v>603</v>
       </c>
-      <c r="T39">
+      <c r="Y39">
         <v>7</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3451,19 +4051,19 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>48</v>
@@ -3477,23 +4077,38 @@
       <c r="Q40">
         <v>48</v>
       </c>
-      <c r="R40" t="s">
-        <v>59</v>
+      <c r="R40">
+        <v>48</v>
       </c>
       <c r="S40">
+        <v>48</v>
+      </c>
+      <c r="T40">
+        <v>48</v>
+      </c>
+      <c r="U40">
+        <v>48</v>
+      </c>
+      <c r="V40">
+        <v>48</v>
+      </c>
+      <c r="W40" t="s">
+        <v>64</v>
+      </c>
+      <c r="X40">
         <v>733</v>
       </c>
-      <c r="T40">
+      <c r="Y40">
         <v>9</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3519,19 +4134,19 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>50</v>
@@ -3545,23 +4160,38 @@
       <c r="Q41">
         <v>50</v>
       </c>
-      <c r="R41" t="s">
-        <v>60</v>
+      <c r="R41">
+        <v>50</v>
       </c>
       <c r="S41">
+        <v>50</v>
+      </c>
+      <c r="T41">
+        <v>50</v>
+      </c>
+      <c r="U41">
+        <v>50</v>
+      </c>
+      <c r="V41">
+        <v>50</v>
+      </c>
+      <c r="W41" t="s">
+        <v>65</v>
+      </c>
+      <c r="X41">
         <v>849</v>
       </c>
-      <c r="T41">
+      <c r="Y41">
         <v>15</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3587,19 +4217,19 @@
         <v>40</v>
       </c>
       <c r="I42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>52</v>
@@ -3613,23 +4243,38 @@
       <c r="Q42">
         <v>52</v>
       </c>
-      <c r="R42" t="s">
-        <v>61</v>
+      <c r="R42">
+        <v>52</v>
       </c>
       <c r="S42">
+        <v>52</v>
+      </c>
+      <c r="T42">
+        <v>52</v>
+      </c>
+      <c r="U42">
+        <v>52</v>
+      </c>
+      <c r="V42">
+        <v>52</v>
+      </c>
+      <c r="W42" t="s">
+        <v>66</v>
+      </c>
+      <c r="X42">
         <v>966</v>
       </c>
-      <c r="T42">
+      <c r="Y42">
         <v>16</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3655,19 +4300,19 @@
         <v>41</v>
       </c>
       <c r="I43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N43">
         <v>54</v>
@@ -3681,23 +4326,38 @@
       <c r="Q43">
         <v>54</v>
       </c>
-      <c r="R43" t="s">
-        <v>62</v>
+      <c r="R43">
+        <v>54</v>
       </c>
       <c r="S43">
+        <v>54</v>
+      </c>
+      <c r="T43">
+        <v>54</v>
+      </c>
+      <c r="U43">
+        <v>54</v>
+      </c>
+      <c r="V43">
+        <v>54</v>
+      </c>
+      <c r="W43" t="s">
+        <v>67</v>
+      </c>
+      <c r="X43">
         <v>1112</v>
       </c>
-      <c r="T43">
+      <c r="Y43">
         <v>17</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3723,19 +4383,19 @@
         <v>42</v>
       </c>
       <c r="I44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>56</v>
@@ -3749,23 +4409,38 @@
       <c r="Q44">
         <v>56</v>
       </c>
-      <c r="R44" t="s">
-        <v>63</v>
+      <c r="R44">
+        <v>56</v>
       </c>
       <c r="S44">
+        <v>56</v>
+      </c>
+      <c r="T44">
+        <v>56</v>
+      </c>
+      <c r="U44">
+        <v>56</v>
+      </c>
+      <c r="V44">
+        <v>56</v>
+      </c>
+      <c r="W44" t="s">
+        <v>68</v>
+      </c>
+      <c r="X44">
         <v>1209</v>
       </c>
-      <c r="T44">
+      <c r="Y44">
         <v>18</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3791,19 +4466,19 @@
         <v>43</v>
       </c>
       <c r="I45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>58</v>
@@ -3817,23 +4492,38 @@
       <c r="Q45">
         <v>58</v>
       </c>
-      <c r="R45" t="s">
-        <v>64</v>
+      <c r="R45">
+        <v>58</v>
       </c>
       <c r="S45">
+        <v>58</v>
+      </c>
+      <c r="T45">
+        <v>58</v>
+      </c>
+      <c r="U45">
+        <v>58</v>
+      </c>
+      <c r="V45">
+        <v>58</v>
+      </c>
+      <c r="W45" t="s">
+        <v>69</v>
+      </c>
+      <c r="X45">
         <v>1326</v>
       </c>
-      <c r="T45">
+      <c r="Y45">
         <v>19</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3859,19 +4549,19 @@
         <v>44</v>
       </c>
       <c r="I46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N46">
         <v>60</v>
@@ -3885,23 +4575,38 @@
       <c r="Q46">
         <v>60</v>
       </c>
-      <c r="R46" t="s">
-        <v>65</v>
+      <c r="R46">
+        <v>60</v>
       </c>
       <c r="S46">
+        <v>60</v>
+      </c>
+      <c r="T46">
+        <v>60</v>
+      </c>
+      <c r="U46">
+        <v>60</v>
+      </c>
+      <c r="V46">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>70</v>
+      </c>
+      <c r="X46">
         <v>1404</v>
       </c>
-      <c r="T46">
+      <c r="Y46">
         <v>19</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3927,19 +4632,19 @@
         <v>45</v>
       </c>
       <c r="I47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N47">
         <v>62</v>
@@ -3953,23 +4658,38 @@
       <c r="Q47">
         <v>62</v>
       </c>
-      <c r="R47" t="s">
-        <v>66</v>
+      <c r="R47">
+        <v>62</v>
       </c>
       <c r="S47">
+        <v>62</v>
+      </c>
+      <c r="T47">
+        <v>62</v>
+      </c>
+      <c r="U47">
+        <v>62</v>
+      </c>
+      <c r="V47">
+        <v>62</v>
+      </c>
+      <c r="W47" t="s">
+        <v>71</v>
+      </c>
+      <c r="X47">
         <v>1454</v>
       </c>
-      <c r="T47">
+      <c r="Y47">
         <v>31</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3995,19 +4715,19 @@
         <v>46</v>
       </c>
       <c r="I48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>64</v>
@@ -4021,23 +4741,38 @@
       <c r="Q48">
         <v>64</v>
       </c>
-      <c r="R48" t="s">
-        <v>67</v>
+      <c r="R48">
+        <v>64</v>
       </c>
       <c r="S48">
+        <v>64</v>
+      </c>
+      <c r="T48">
+        <v>64</v>
+      </c>
+      <c r="U48">
+        <v>64</v>
+      </c>
+      <c r="V48">
+        <v>64</v>
+      </c>
+      <c r="W48" t="s">
+        <v>72</v>
+      </c>
+      <c r="X48">
         <v>1530</v>
       </c>
-      <c r="T48">
+      <c r="Y48">
         <v>36</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4063,19 +4798,19 @@
         <v>47</v>
       </c>
       <c r="I49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>66</v>
@@ -4089,23 +4824,38 @@
       <c r="Q49">
         <v>66</v>
       </c>
-      <c r="R49" t="s">
-        <v>68</v>
+      <c r="R49">
+        <v>66</v>
       </c>
       <c r="S49">
+        <v>66</v>
+      </c>
+      <c r="T49">
+        <v>66</v>
+      </c>
+      <c r="U49">
+        <v>66</v>
+      </c>
+      <c r="V49">
+        <v>66</v>
+      </c>
+      <c r="W49" t="s">
+        <v>73</v>
+      </c>
+      <c r="X49">
         <v>1628</v>
       </c>
-      <c r="T49">
+      <c r="Y49">
         <v>40</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4131,19 +4881,19 @@
         <v>48</v>
       </c>
       <c r="I50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N50">
         <v>68</v>
@@ -4157,23 +4907,38 @@
       <c r="Q50">
         <v>68</v>
       </c>
-      <c r="R50" t="s">
-        <v>69</v>
+      <c r="R50">
+        <v>68</v>
       </c>
       <c r="S50">
+        <v>68</v>
+      </c>
+      <c r="T50">
+        <v>68</v>
+      </c>
+      <c r="U50">
+        <v>68</v>
+      </c>
+      <c r="V50">
+        <v>68</v>
+      </c>
+      <c r="W50" t="s">
+        <v>74</v>
+      </c>
+      <c r="X50">
         <v>1693</v>
       </c>
-      <c r="T50">
+      <c r="Y50">
         <v>44</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4199,19 +4964,19 @@
         <v>49</v>
       </c>
       <c r="I51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N51">
         <v>70</v>
@@ -4225,23 +4990,38 @@
       <c r="Q51">
         <v>70</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51">
         <v>70</v>
       </c>
       <c r="S51">
+        <v>70</v>
+      </c>
+      <c r="T51">
+        <v>70</v>
+      </c>
+      <c r="U51">
+        <v>70</v>
+      </c>
+      <c r="V51">
+        <v>70</v>
+      </c>
+      <c r="W51" t="s">
+        <v>75</v>
+      </c>
+      <c r="X51">
         <v>1761</v>
       </c>
-      <c r="T51">
+      <c r="Y51">
         <v>45</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4267,19 +5047,19 @@
         <v>50</v>
       </c>
       <c r="I52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="L52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N52">
         <v>72</v>
@@ -4293,23 +5073,38 @@
       <c r="Q52">
         <v>72</v>
       </c>
-      <c r="R52" t="s">
-        <v>71</v>
+      <c r="R52">
+        <v>72</v>
       </c>
       <c r="S52">
+        <v>72</v>
+      </c>
+      <c r="T52">
+        <v>72</v>
+      </c>
+      <c r="U52">
+        <v>72</v>
+      </c>
+      <c r="V52">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s">
+        <v>76</v>
+      </c>
+      <c r="X52">
         <v>1804</v>
       </c>
-      <c r="T52">
+      <c r="Y52">
         <v>45</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4335,19 +5130,19 @@
         <v>51</v>
       </c>
       <c r="I53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="M53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="N53">
         <v>74</v>
@@ -4361,23 +5156,38 @@
       <c r="Q53">
         <v>74</v>
       </c>
-      <c r="R53" t="s">
-        <v>72</v>
+      <c r="R53">
+        <v>74</v>
       </c>
       <c r="S53">
+        <v>74</v>
+      </c>
+      <c r="T53">
+        <v>74</v>
+      </c>
+      <c r="U53">
+        <v>74</v>
+      </c>
+      <c r="V53">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X53">
         <v>1847</v>
       </c>
-      <c r="T53">
+      <c r="Y53">
         <v>47</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4403,19 +5213,19 @@
         <v>52</v>
       </c>
       <c r="I54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="J54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="M54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N54">
         <v>76</v>
@@ -4429,23 +5239,38 @@
       <c r="Q54">
         <v>76</v>
       </c>
-      <c r="R54" t="s">
-        <v>73</v>
+      <c r="R54">
+        <v>76</v>
       </c>
       <c r="S54">
+        <v>76</v>
+      </c>
+      <c r="T54">
+        <v>76</v>
+      </c>
+      <c r="U54">
+        <v>76</v>
+      </c>
+      <c r="V54">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s">
+        <v>78</v>
+      </c>
+      <c r="X54">
         <v>1930</v>
       </c>
-      <c r="T54">
+      <c r="Y54">
         <v>53</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4471,19 +5296,19 @@
         <v>53</v>
       </c>
       <c r="I55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="L55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="M55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="N55">
         <v>78</v>
@@ -4497,23 +5322,38 @@
       <c r="Q55">
         <v>78</v>
       </c>
-      <c r="R55" t="s">
-        <v>74</v>
+      <c r="R55">
+        <v>78</v>
       </c>
       <c r="S55">
+        <v>78</v>
+      </c>
+      <c r="T55">
+        <v>78</v>
+      </c>
+      <c r="U55">
+        <v>78</v>
+      </c>
+      <c r="V55">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s">
+        <v>79</v>
+      </c>
+      <c r="X55">
         <v>2012</v>
       </c>
-      <c r="T55">
+      <c r="Y55">
         <v>60</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4539,19 +5379,19 @@
         <v>54</v>
       </c>
       <c r="I56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="L56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="M56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N56">
         <v>80</v>
@@ -4565,23 +5405,38 @@
       <c r="Q56">
         <v>80</v>
       </c>
-      <c r="R56" t="s">
-        <v>75</v>
+      <c r="R56">
+        <v>80</v>
       </c>
       <c r="S56">
+        <v>80</v>
+      </c>
+      <c r="T56">
+        <v>80</v>
+      </c>
+      <c r="U56">
+        <v>80</v>
+      </c>
+      <c r="V56">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s">
+        <v>80</v>
+      </c>
+      <c r="X56">
         <v>2087</v>
       </c>
-      <c r="T56">
+      <c r="Y56">
         <v>63</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4607,19 +5462,19 @@
         <v>55</v>
       </c>
       <c r="I57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="K57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="L57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="N57">
         <v>82</v>
@@ -4633,23 +5488,38 @@
       <c r="Q57">
         <v>82</v>
       </c>
-      <c r="R57" t="s">
-        <v>76</v>
+      <c r="R57">
+        <v>82</v>
       </c>
       <c r="S57">
+        <v>82</v>
+      </c>
+      <c r="T57">
+        <v>82</v>
+      </c>
+      <c r="U57">
+        <v>82</v>
+      </c>
+      <c r="V57">
+        <v>82</v>
+      </c>
+      <c r="W57" t="s">
+        <v>81</v>
+      </c>
+      <c r="X57">
         <v>2158</v>
       </c>
-      <c r="T57">
+      <c r="Y57">
         <v>70</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4675,19 +5545,19 @@
         <v>56</v>
       </c>
       <c r="I58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="K58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="N58">
         <v>84</v>
@@ -4701,23 +5571,38 @@
       <c r="Q58">
         <v>84</v>
       </c>
-      <c r="R58" t="s">
-        <v>77</v>
+      <c r="R58">
+        <v>84</v>
       </c>
       <c r="S58">
+        <v>84</v>
+      </c>
+      <c r="T58">
+        <v>84</v>
+      </c>
+      <c r="U58">
+        <v>84</v>
+      </c>
+      <c r="V58">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s">
+        <v>82</v>
+      </c>
+      <c r="X58">
         <v>2213</v>
       </c>
-      <c r="T58">
+      <c r="Y58">
         <v>71</v>
       </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4743,19 +5628,19 @@
         <v>57</v>
       </c>
       <c r="I59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="K59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="M59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="N59">
         <v>86</v>
@@ -4769,23 +5654,38 @@
       <c r="Q59">
         <v>86</v>
       </c>
-      <c r="R59" t="s">
-        <v>78</v>
+      <c r="R59">
+        <v>86</v>
       </c>
       <c r="S59">
+        <v>86</v>
+      </c>
+      <c r="T59">
+        <v>86</v>
+      </c>
+      <c r="U59">
+        <v>86</v>
+      </c>
+      <c r="V59">
+        <v>86</v>
+      </c>
+      <c r="W59" t="s">
+        <v>83</v>
+      </c>
+      <c r="X59">
         <v>2268</v>
       </c>
-      <c r="T59">
+      <c r="Y59">
         <v>71</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4811,19 +5711,19 @@
         <v>58</v>
       </c>
       <c r="I60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="J60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="K60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="L60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="N60">
         <v>88</v>
@@ -4837,23 +5737,38 @@
       <c r="Q60">
         <v>88</v>
       </c>
-      <c r="R60" t="s">
-        <v>79</v>
+      <c r="R60">
+        <v>88</v>
       </c>
       <c r="S60">
+        <v>88</v>
+      </c>
+      <c r="T60">
+        <v>88</v>
+      </c>
+      <c r="U60">
+        <v>88</v>
+      </c>
+      <c r="V60">
+        <v>88</v>
+      </c>
+      <c r="W60" t="s">
+        <v>84</v>
+      </c>
+      <c r="X60">
         <v>2325</v>
       </c>
-      <c r="T60">
+      <c r="Y60">
         <v>72</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4879,19 +5794,19 @@
         <v>59</v>
       </c>
       <c r="I61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="L61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="M61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="N61">
         <v>90</v>
@@ -4905,23 +5820,38 @@
       <c r="Q61">
         <v>90</v>
       </c>
-      <c r="R61" t="s">
-        <v>80</v>
+      <c r="R61">
+        <v>90</v>
       </c>
       <c r="S61">
+        <v>90</v>
+      </c>
+      <c r="T61">
+        <v>90</v>
+      </c>
+      <c r="U61">
+        <v>90</v>
+      </c>
+      <c r="V61">
+        <v>90</v>
+      </c>
+      <c r="W61" t="s">
+        <v>85</v>
+      </c>
+      <c r="X61">
         <v>2491</v>
       </c>
-      <c r="T61">
+      <c r="Y61">
         <v>96</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4947,19 +5877,19 @@
         <v>60</v>
       </c>
       <c r="I62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="J62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="L62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="N62">
         <v>92</v>
@@ -4973,23 +5903,38 @@
       <c r="Q62">
         <v>92</v>
       </c>
-      <c r="R62" t="s">
-        <v>81</v>
+      <c r="R62">
+        <v>92</v>
       </c>
       <c r="S62">
+        <v>92</v>
+      </c>
+      <c r="T62">
+        <v>92</v>
+      </c>
+      <c r="U62">
+        <v>92</v>
+      </c>
+      <c r="V62">
+        <v>92</v>
+      </c>
+      <c r="W62" t="s">
+        <v>86</v>
+      </c>
+      <c r="X62">
         <v>2643</v>
       </c>
-      <c r="T62">
+      <c r="Y62">
         <v>100</v>
       </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5015,19 +5960,19 @@
         <v>61</v>
       </c>
       <c r="I63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="K63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="M63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="N63">
         <v>94</v>
@@ -5041,23 +5986,38 @@
       <c r="Q63">
         <v>94</v>
       </c>
-      <c r="R63" t="s">
-        <v>82</v>
+      <c r="R63">
+        <v>94</v>
       </c>
       <c r="S63">
+        <v>94</v>
+      </c>
+      <c r="T63">
+        <v>94</v>
+      </c>
+      <c r="U63">
+        <v>94</v>
+      </c>
+      <c r="V63">
+        <v>94</v>
+      </c>
+      <c r="W63" t="s">
+        <v>87</v>
+      </c>
+      <c r="X63">
         <v>2826</v>
       </c>
-      <c r="T63">
+      <c r="Y63">
         <v>102</v>
       </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5083,19 +6043,19 @@
         <v>62</v>
       </c>
       <c r="I64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="J64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="K64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="M64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="N64">
         <v>96</v>
@@ -5109,23 +6069,38 @@
       <c r="Q64">
         <v>96</v>
       </c>
-      <c r="R64" t="s">
-        <v>83</v>
+      <c r="R64">
+        <v>96</v>
       </c>
       <c r="S64">
+        <v>96</v>
+      </c>
+      <c r="T64">
+        <v>96</v>
+      </c>
+      <c r="U64">
+        <v>96</v>
+      </c>
+      <c r="V64">
+        <v>96</v>
+      </c>
+      <c r="W64" t="s">
+        <v>88</v>
+      </c>
+      <c r="X64">
         <v>2943</v>
       </c>
-      <c r="T64">
+      <c r="Y64">
         <v>111</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5151,19 +6126,19 @@
         <v>63</v>
       </c>
       <c r="I65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="K65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="M65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N65">
         <v>98</v>
@@ -5177,23 +6152,38 @@
       <c r="Q65">
         <v>98</v>
       </c>
-      <c r="R65" t="s">
-        <v>84</v>
+      <c r="R65">
+        <v>98</v>
       </c>
       <c r="S65">
+        <v>98</v>
+      </c>
+      <c r="T65">
+        <v>98</v>
+      </c>
+      <c r="U65">
+        <v>98</v>
+      </c>
+      <c r="V65">
+        <v>98</v>
+      </c>
+      <c r="W65" t="s">
+        <v>89</v>
+      </c>
+      <c r="X65">
         <v>2943</v>
       </c>
-      <c r="T65">
+      <c r="Y65">
         <v>111</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5219,19 +6209,19 @@
         <v>64</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N66">
         <v>100</v>
@@ -5245,23 +6235,38 @@
       <c r="Q66">
         <v>100</v>
       </c>
-      <c r="R66" t="s">
-        <v>85</v>
+      <c r="R66">
+        <v>100</v>
       </c>
       <c r="S66">
+        <v>100</v>
+      </c>
+      <c r="T66">
+        <v>100</v>
+      </c>
+      <c r="U66">
+        <v>100</v>
+      </c>
+      <c r="V66">
+        <v>100</v>
+      </c>
+      <c r="W66" t="s">
+        <v>90</v>
+      </c>
+      <c r="X66">
         <v>3043</v>
       </c>
-      <c r="T66">
+      <c r="Y66">
         <v>111</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5287,19 +6292,19 @@
         <v>65</v>
       </c>
       <c r="I67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="J67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="K67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="L67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N67">
         <v>102</v>
@@ -5313,23 +6318,38 @@
       <c r="Q67">
         <v>102</v>
       </c>
-      <c r="R67" t="s">
-        <v>86</v>
+      <c r="R67">
+        <v>102</v>
       </c>
       <c r="S67">
+        <v>102</v>
+      </c>
+      <c r="T67">
+        <v>102</v>
+      </c>
+      <c r="U67">
+        <v>102</v>
+      </c>
+      <c r="V67">
+        <v>102</v>
+      </c>
+      <c r="W67" t="s">
+        <v>91</v>
+      </c>
+      <c r="X67">
         <v>3141</v>
       </c>
-      <c r="T67">
+      <c r="Y67">
         <v>113</v>
       </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5355,19 +6375,19 @@
         <v>66</v>
       </c>
       <c r="I68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="L68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N68">
         <v>104</v>
@@ -5381,23 +6401,38 @@
       <c r="Q68">
         <v>104</v>
       </c>
-      <c r="R68" t="s">
-        <v>87</v>
+      <c r="R68">
+        <v>104</v>
       </c>
       <c r="S68">
+        <v>104</v>
+      </c>
+      <c r="T68">
+        <v>104</v>
+      </c>
+      <c r="U68">
+        <v>104</v>
+      </c>
+      <c r="V68">
+        <v>104</v>
+      </c>
+      <c r="W68" t="s">
+        <v>92</v>
+      </c>
+      <c r="X68">
         <v>3432</v>
       </c>
-      <c r="T68">
+      <c r="Y68">
         <v>120</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5423,19 +6458,19 @@
         <v>67</v>
       </c>
       <c r="I69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="J69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="K69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="L69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="M69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N69">
         <v>106</v>
@@ -5449,23 +6484,38 @@
       <c r="Q69">
         <v>106</v>
       </c>
-      <c r="R69" t="s">
-        <v>88</v>
+      <c r="R69">
+        <v>106</v>
       </c>
       <c r="S69">
+        <v>106</v>
+      </c>
+      <c r="T69">
+        <v>106</v>
+      </c>
+      <c r="U69">
+        <v>106</v>
+      </c>
+      <c r="V69">
+        <v>106</v>
+      </c>
+      <c r="W69" t="s">
+        <v>93</v>
+      </c>
+      <c r="X69">
         <v>3432</v>
       </c>
-      <c r="T69">
+      <c r="Y69">
         <v>120</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5491,19 +6541,19 @@
         <v>68</v>
       </c>
       <c r="I70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="J70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="M70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="N70">
         <v>108</v>
@@ -5517,23 +6567,38 @@
       <c r="Q70">
         <v>108</v>
       </c>
-      <c r="R70" t="s">
-        <v>89</v>
+      <c r="R70">
+        <v>108</v>
       </c>
       <c r="S70">
+        <v>108</v>
+      </c>
+      <c r="T70">
+        <v>108</v>
+      </c>
+      <c r="U70">
+        <v>108</v>
+      </c>
+      <c r="V70">
+        <v>108</v>
+      </c>
+      <c r="W70" t="s">
+        <v>94</v>
+      </c>
+      <c r="X70">
         <v>3564</v>
       </c>
-      <c r="T70">
+      <c r="Y70">
         <v>124</v>
       </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5559,19 +6624,19 @@
         <v>69</v>
       </c>
       <c r="I71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="J71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="K71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="L71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="M71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="N71">
         <v>110</v>
@@ -5585,23 +6650,38 @@
       <c r="Q71">
         <v>110</v>
       </c>
-      <c r="R71" t="s">
-        <v>90</v>
+      <c r="R71">
+        <v>110</v>
       </c>
       <c r="S71">
+        <v>110</v>
+      </c>
+      <c r="T71">
+        <v>110</v>
+      </c>
+      <c r="U71">
+        <v>110</v>
+      </c>
+      <c r="V71">
+        <v>110</v>
+      </c>
+      <c r="W71" t="s">
+        <v>95</v>
+      </c>
+      <c r="X71">
         <v>3711</v>
       </c>
-      <c r="T71">
+      <c r="Y71">
         <v>134</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5627,19 +6707,19 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="J72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="K72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="L72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="N72">
         <v>112</v>
@@ -5653,23 +6733,38 @@
       <c r="Q72">
         <v>112</v>
       </c>
-      <c r="R72" t="s">
-        <v>91</v>
+      <c r="R72">
+        <v>112</v>
       </c>
       <c r="S72">
+        <v>112</v>
+      </c>
+      <c r="T72">
+        <v>112</v>
+      </c>
+      <c r="U72">
+        <v>112</v>
+      </c>
+      <c r="V72">
+        <v>112</v>
+      </c>
+      <c r="W72" t="s">
+        <v>96</v>
+      </c>
+      <c r="X72">
         <v>3927</v>
       </c>
-      <c r="T72">
+      <c r="Y72">
         <v>139</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5695,19 +6790,19 @@
         <v>71</v>
       </c>
       <c r="I73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="J73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="K73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="L73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="M73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="N73">
         <v>114</v>
@@ -5721,23 +6816,38 @@
       <c r="Q73">
         <v>114</v>
       </c>
-      <c r="R73" t="s">
-        <v>92</v>
+      <c r="R73">
+        <v>114</v>
       </c>
       <c r="S73">
+        <v>114</v>
+      </c>
+      <c r="T73">
+        <v>114</v>
+      </c>
+      <c r="U73">
+        <v>114</v>
+      </c>
+      <c r="V73">
+        <v>114</v>
+      </c>
+      <c r="W73" t="s">
+        <v>97</v>
+      </c>
+      <c r="X73">
         <v>3927</v>
       </c>
-      <c r="T73">
+      <c r="Y73">
         <v>139</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5763,19 +6873,19 @@
         <v>72</v>
       </c>
       <c r="I74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="J74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="M74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="N74">
         <v>116</v>
@@ -5789,23 +6899,38 @@
       <c r="Q74">
         <v>116</v>
       </c>
-      <c r="R74" t="s">
-        <v>93</v>
+      <c r="R74">
+        <v>116</v>
       </c>
       <c r="S74">
+        <v>116</v>
+      </c>
+      <c r="T74">
+        <v>116</v>
+      </c>
+      <c r="U74">
+        <v>116</v>
+      </c>
+      <c r="V74">
+        <v>116</v>
+      </c>
+      <c r="W74" t="s">
+        <v>98</v>
+      </c>
+      <c r="X74">
         <v>4020</v>
       </c>
-      <c r="T74">
+      <c r="Y74">
         <v>144</v>
       </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5831,19 +6956,19 @@
         <v>73</v>
       </c>
       <c r="I75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="M75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="N75">
         <v>118</v>
@@ -5857,23 +6982,38 @@
       <c r="Q75">
         <v>118</v>
       </c>
-      <c r="R75" t="s">
-        <v>94</v>
+      <c r="R75">
+        <v>118</v>
       </c>
       <c r="S75">
+        <v>118</v>
+      </c>
+      <c r="T75">
+        <v>118</v>
+      </c>
+      <c r="U75">
+        <v>118</v>
+      </c>
+      <c r="V75">
+        <v>118</v>
+      </c>
+      <c r="W75" t="s">
+        <v>99</v>
+      </c>
+      <c r="X75">
         <v>4319</v>
       </c>
-      <c r="T75">
+      <c r="Y75">
         <v>158</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5899,19 +7039,19 @@
         <v>74</v>
       </c>
       <c r="I76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="J76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="K76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="L76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="M76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="N76">
         <v>120</v>
@@ -5925,23 +7065,38 @@
       <c r="Q76">
         <v>120</v>
       </c>
-      <c r="R76" t="s">
-        <v>95</v>
+      <c r="R76">
+        <v>120</v>
       </c>
       <c r="S76">
+        <v>120</v>
+      </c>
+      <c r="T76">
+        <v>120</v>
+      </c>
+      <c r="U76">
+        <v>120</v>
+      </c>
+      <c r="V76">
+        <v>120</v>
+      </c>
+      <c r="W76" t="s">
+        <v>100</v>
+      </c>
+      <c r="X76">
         <v>4319</v>
       </c>
-      <c r="T76">
+      <c r="Y76">
         <v>158</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5967,19 +7122,19 @@
         <v>75</v>
       </c>
       <c r="I77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="J77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="K77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="L77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="M77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="N77">
         <v>122</v>
@@ -5993,23 +7148,38 @@
       <c r="Q77">
         <v>122</v>
       </c>
-      <c r="R77" t="s">
-        <v>96</v>
+      <c r="R77">
+        <v>122</v>
       </c>
       <c r="S77">
+        <v>122</v>
+      </c>
+      <c r="T77">
+        <v>122</v>
+      </c>
+      <c r="U77">
+        <v>122</v>
+      </c>
+      <c r="V77">
+        <v>122</v>
+      </c>
+      <c r="W77" t="s">
+        <v>101</v>
+      </c>
+      <c r="X77">
         <v>4429</v>
       </c>
-      <c r="T77">
+      <c r="Y77">
         <v>165</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6035,19 +7205,19 @@
         <v>76</v>
       </c>
       <c r="I78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="K78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="L78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="M78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="N78">
         <v>124</v>
@@ -6061,23 +7231,38 @@
       <c r="Q78">
         <v>124</v>
       </c>
-      <c r="R78" t="s">
-        <v>97</v>
+      <c r="R78">
+        <v>124</v>
       </c>
       <c r="S78">
+        <v>124</v>
+      </c>
+      <c r="T78">
+        <v>124</v>
+      </c>
+      <c r="U78">
+        <v>124</v>
+      </c>
+      <c r="V78">
+        <v>124</v>
+      </c>
+      <c r="W78" t="s">
+        <v>102</v>
+      </c>
+      <c r="X78">
         <v>4662</v>
       </c>
-      <c r="T78">
+      <c r="Y78">
         <v>169</v>
       </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6103,19 +7288,19 @@
         <v>77</v>
       </c>
       <c r="I79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="L79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="M79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="N79">
         <v>126</v>
@@ -6129,23 +7314,38 @@
       <c r="Q79">
         <v>126</v>
       </c>
-      <c r="R79" t="s">
-        <v>98</v>
+      <c r="R79">
+        <v>126</v>
       </c>
       <c r="S79">
+        <v>126</v>
+      </c>
+      <c r="T79">
+        <v>126</v>
+      </c>
+      <c r="U79">
+        <v>126</v>
+      </c>
+      <c r="V79">
+        <v>126</v>
+      </c>
+      <c r="W79" t="s">
+        <v>103</v>
+      </c>
+      <c r="X79">
         <v>4776</v>
       </c>
-      <c r="T79">
+      <c r="Y79">
         <v>175</v>
       </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6171,19 +7371,19 @@
         <v>78</v>
       </c>
       <c r="I80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="J80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="K80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="L80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="M80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="N80">
         <v>128</v>
@@ -6197,23 +7397,38 @@
       <c r="Q80">
         <v>128</v>
       </c>
-      <c r="R80" t="s">
-        <v>99</v>
+      <c r="R80">
+        <v>128</v>
       </c>
       <c r="S80">
+        <v>128</v>
+      </c>
+      <c r="T80">
+        <v>128</v>
+      </c>
+      <c r="U80">
+        <v>128</v>
+      </c>
+      <c r="V80">
+        <v>128</v>
+      </c>
+      <c r="W80" t="s">
+        <v>104</v>
+      </c>
+      <c r="X80">
         <v>5065</v>
       </c>
-      <c r="T80">
+      <c r="Y80">
         <v>175</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6239,19 +7454,19 @@
         <v>79</v>
       </c>
       <c r="I81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="J81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="L81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="M81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="N81">
         <v>130</v>
@@ -6265,23 +7480,38 @@
       <c r="Q81">
         <v>130</v>
       </c>
-      <c r="R81" t="s">
-        <v>100</v>
+      <c r="R81">
+        <v>130</v>
       </c>
       <c r="S81">
+        <v>130</v>
+      </c>
+      <c r="T81">
+        <v>130</v>
+      </c>
+      <c r="U81">
+        <v>130</v>
+      </c>
+      <c r="V81">
+        <v>130</v>
+      </c>
+      <c r="W81" t="s">
+        <v>105</v>
+      </c>
+      <c r="X81">
         <v>5161</v>
       </c>
-      <c r="T81">
+      <c r="Y81">
         <v>190</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6307,19 +7537,19 @@
         <v>80</v>
       </c>
       <c r="I82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="J82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="L82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="N82">
         <v>132</v>
@@ -6333,23 +7563,38 @@
       <c r="Q82">
         <v>132</v>
       </c>
-      <c r="R82" t="s">
-        <v>101</v>
+      <c r="R82">
+        <v>132</v>
       </c>
       <c r="S82">
+        <v>132</v>
+      </c>
+      <c r="T82">
+        <v>132</v>
+      </c>
+      <c r="U82">
+        <v>132</v>
+      </c>
+      <c r="V82">
+        <v>132</v>
+      </c>
+      <c r="W82" t="s">
+        <v>106</v>
+      </c>
+      <c r="X82">
         <v>5161</v>
       </c>
-      <c r="T82">
+      <c r="Y82">
         <v>190</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6375,19 +7620,19 @@
         <v>81</v>
       </c>
       <c r="I83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="J83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="L83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="M83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="N83">
         <v>134</v>
@@ -6401,23 +7646,38 @@
       <c r="Q83">
         <v>134</v>
       </c>
-      <c r="R83" t="s">
-        <v>102</v>
+      <c r="R83">
+        <v>134</v>
       </c>
       <c r="S83">
+        <v>134</v>
+      </c>
+      <c r="T83">
+        <v>134</v>
+      </c>
+      <c r="U83">
+        <v>134</v>
+      </c>
+      <c r="V83">
+        <v>134</v>
+      </c>
+      <c r="W83" t="s">
+        <v>107</v>
+      </c>
+      <c r="X83">
         <v>5391</v>
       </c>
-      <c r="T83">
+      <c r="Y83">
         <v>200</v>
       </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6443,19 +7703,19 @@
         <v>82</v>
       </c>
       <c r="I84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="J84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="K84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="L84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="M84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="N84">
         <v>136</v>
@@ -6469,23 +7729,38 @@
       <c r="Q84">
         <v>136</v>
       </c>
-      <c r="R84" t="s">
-        <v>103</v>
+      <c r="R84">
+        <v>136</v>
       </c>
       <c r="S84">
+        <v>136</v>
+      </c>
+      <c r="T84">
+        <v>136</v>
+      </c>
+      <c r="U84">
+        <v>136</v>
+      </c>
+      <c r="V84">
+        <v>136</v>
+      </c>
+      <c r="W84" t="s">
+        <v>108</v>
+      </c>
+      <c r="X84">
         <v>5391</v>
       </c>
-      <c r="T84">
+      <c r="Y84">
         <v>200</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6511,19 +7786,19 @@
         <v>83</v>
       </c>
       <c r="I85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="J85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="L85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="M85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N85">
         <v>138</v>
@@ -6537,23 +7812,38 @@
       <c r="Q85">
         <v>138</v>
       </c>
-      <c r="R85" t="s">
-        <v>104</v>
+      <c r="R85">
+        <v>138</v>
       </c>
       <c r="S85">
+        <v>138</v>
+      </c>
+      <c r="T85">
+        <v>138</v>
+      </c>
+      <c r="U85">
+        <v>138</v>
+      </c>
+      <c r="V85">
+        <v>138</v>
+      </c>
+      <c r="W85" t="s">
+        <v>109</v>
+      </c>
+      <c r="X85">
         <v>5662</v>
       </c>
-      <c r="T85">
+      <c r="Y85">
         <v>209</v>
       </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6579,19 +7869,19 @@
         <v>84</v>
       </c>
       <c r="I86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="J86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="L86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="M86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="N86">
         <v>140</v>
@@ -6605,23 +7895,38 @@
       <c r="Q86">
         <v>140</v>
       </c>
-      <c r="R86" t="s">
-        <v>105</v>
+      <c r="R86">
+        <v>140</v>
       </c>
       <c r="S86">
+        <v>140</v>
+      </c>
+      <c r="T86">
+        <v>140</v>
+      </c>
+      <c r="U86">
+        <v>140</v>
+      </c>
+      <c r="V86">
+        <v>140</v>
+      </c>
+      <c r="W86" t="s">
+        <v>110</v>
+      </c>
+      <c r="X86">
         <v>5836</v>
       </c>
-      <c r="T86">
+      <c r="Y86">
         <v>209</v>
       </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6647,19 +7952,19 @@
         <v>85</v>
       </c>
       <c r="I87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="J87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="K87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="L87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="M87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N87">
         <v>142</v>
@@ -6673,23 +7978,38 @@
       <c r="Q87">
         <v>142</v>
       </c>
-      <c r="R87" t="s">
-        <v>106</v>
+      <c r="R87">
+        <v>142</v>
       </c>
       <c r="S87">
+        <v>142</v>
+      </c>
+      <c r="T87">
+        <v>142</v>
+      </c>
+      <c r="U87">
+        <v>142</v>
+      </c>
+      <c r="V87">
+        <v>142</v>
+      </c>
+      <c r="W87" t="s">
+        <v>111</v>
+      </c>
+      <c r="X87">
         <v>5836</v>
       </c>
-      <c r="T87">
+      <c r="Y87">
         <v>209</v>
       </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6715,19 +8035,19 @@
         <v>86</v>
       </c>
       <c r="I88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="J88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="K88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="L88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="M88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="N88">
         <v>144</v>
@@ -6741,23 +8061,38 @@
       <c r="Q88">
         <v>144</v>
       </c>
-      <c r="R88" t="s">
-        <v>107</v>
+      <c r="R88">
+        <v>144</v>
       </c>
       <c r="S88">
+        <v>144</v>
+      </c>
+      <c r="T88">
+        <v>144</v>
+      </c>
+      <c r="U88">
+        <v>144</v>
+      </c>
+      <c r="V88">
+        <v>144</v>
+      </c>
+      <c r="W88" t="s">
+        <v>112</v>
+      </c>
+      <c r="X88">
         <v>6026</v>
       </c>
-      <c r="T88">
+      <c r="Y88">
         <v>222</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6783,19 +8118,19 @@
         <v>87</v>
       </c>
       <c r="I89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="J89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="K89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="L89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="M89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="N89">
         <v>146</v>
@@ -6809,23 +8144,38 @@
       <c r="Q89">
         <v>146</v>
       </c>
-      <c r="R89" t="s">
-        <v>108</v>
+      <c r="R89">
+        <v>146</v>
       </c>
       <c r="S89">
+        <v>146</v>
+      </c>
+      <c r="T89">
+        <v>146</v>
+      </c>
+      <c r="U89">
+        <v>146</v>
+      </c>
+      <c r="V89">
+        <v>146</v>
+      </c>
+      <c r="W89" t="s">
+        <v>113</v>
+      </c>
+      <c r="X89">
         <v>6140</v>
       </c>
-      <c r="T89">
+      <c r="Y89">
         <v>230</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6851,19 +8201,19 @@
         <v>88</v>
       </c>
       <c r="I90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="J90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="K90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="L90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="M90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="N90">
         <v>148</v>
@@ -6877,23 +8227,38 @@
       <c r="Q90">
         <v>148</v>
       </c>
-      <c r="R90" t="s">
-        <v>109</v>
+      <c r="R90">
+        <v>148</v>
       </c>
       <c r="S90">
+        <v>148</v>
+      </c>
+      <c r="T90">
+        <v>148</v>
+      </c>
+      <c r="U90">
+        <v>148</v>
+      </c>
+      <c r="V90">
+        <v>148</v>
+      </c>
+      <c r="W90" t="s">
+        <v>114</v>
+      </c>
+      <c r="X90">
         <v>6140</v>
       </c>
-      <c r="T90">
+      <c r="Y90">
         <v>230</v>
       </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6919,19 +8284,19 @@
         <v>89</v>
       </c>
       <c r="I91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="J91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="K91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="L91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="M91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="N91">
         <v>150</v>
@@ -6945,23 +8310,38 @@
       <c r="Q91">
         <v>150</v>
       </c>
-      <c r="R91" t="s">
-        <v>110</v>
+      <c r="R91">
+        <v>150</v>
       </c>
       <c r="S91">
+        <v>150</v>
+      </c>
+      <c r="T91">
+        <v>150</v>
+      </c>
+      <c r="U91">
+        <v>150</v>
+      </c>
+      <c r="V91">
+        <v>150</v>
+      </c>
+      <c r="W91" t="s">
+        <v>115</v>
+      </c>
+      <c r="X91">
         <v>6315</v>
       </c>
-      <c r="T91">
+      <c r="Y91">
         <v>241</v>
       </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:27">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6987,19 +8367,19 @@
         <v>90</v>
       </c>
       <c r="I92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="J92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="K92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="L92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="M92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="N92">
         <v>152</v>
@@ -7013,23 +8393,38 @@
       <c r="Q92">
         <v>152</v>
       </c>
-      <c r="R92" t="s">
-        <v>111</v>
+      <c r="R92">
+        <v>152</v>
       </c>
       <c r="S92">
+        <v>152</v>
+      </c>
+      <c r="T92">
+        <v>152</v>
+      </c>
+      <c r="U92">
+        <v>152</v>
+      </c>
+      <c r="V92">
+        <v>152</v>
+      </c>
+      <c r="W92" t="s">
+        <v>116</v>
+      </c>
+      <c r="X92">
         <v>6559</v>
       </c>
-      <c r="T92">
+      <c r="Y92">
         <v>249</v>
       </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:27">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7055,19 +8450,19 @@
         <v>91</v>
       </c>
       <c r="I93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="J93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="L93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="M93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="N93">
         <v>154</v>
@@ -7081,23 +8476,38 @@
       <c r="Q93">
         <v>154</v>
       </c>
-      <c r="R93" t="s">
-        <v>112</v>
+      <c r="R93">
+        <v>154</v>
       </c>
       <c r="S93">
+        <v>154</v>
+      </c>
+      <c r="T93">
+        <v>154</v>
+      </c>
+      <c r="U93">
+        <v>154</v>
+      </c>
+      <c r="V93">
+        <v>154</v>
+      </c>
+      <c r="W93" t="s">
+        <v>117</v>
+      </c>
+      <c r="X93">
         <v>6559</v>
       </c>
-      <c r="T93">
+      <c r="Y93">
         <v>249</v>
       </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:27">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7123,19 +8533,19 @@
         <v>92</v>
       </c>
       <c r="I94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="J94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="K94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="M94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="N94">
         <v>156</v>
@@ -7149,23 +8559,38 @@
       <c r="Q94">
         <v>156</v>
       </c>
-      <c r="R94" t="s">
-        <v>113</v>
+      <c r="R94">
+        <v>156</v>
       </c>
       <c r="S94">
+        <v>156</v>
+      </c>
+      <c r="T94">
+        <v>156</v>
+      </c>
+      <c r="U94">
+        <v>156</v>
+      </c>
+      <c r="V94">
+        <v>156</v>
+      </c>
+      <c r="W94" t="s">
+        <v>118</v>
+      </c>
+      <c r="X94">
         <v>6701</v>
       </c>
-      <c r="T94">
+      <c r="Y94">
         <v>249</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:27">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7191,19 +8616,19 @@
         <v>93</v>
       </c>
       <c r="I95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="J95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="K95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="L95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="M95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="N95">
         <v>158</v>
@@ -7217,23 +8642,38 @@
       <c r="Q95">
         <v>158</v>
       </c>
-      <c r="R95" t="s">
-        <v>114</v>
+      <c r="R95">
+        <v>158</v>
       </c>
       <c r="S95">
+        <v>158</v>
+      </c>
+      <c r="T95">
+        <v>158</v>
+      </c>
+      <c r="U95">
+        <v>158</v>
+      </c>
+      <c r="V95">
+        <v>158</v>
+      </c>
+      <c r="W95" t="s">
+        <v>119</v>
+      </c>
+      <c r="X95">
         <v>6797</v>
       </c>
-      <c r="T95">
+      <c r="Y95">
         <v>249</v>
       </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:27">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7259,19 +8699,19 @@
         <v>94</v>
       </c>
       <c r="I96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="J96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="K96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="L96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="M96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="N96">
         <v>160</v>
@@ -7285,23 +8725,38 @@
       <c r="Q96">
         <v>160</v>
       </c>
-      <c r="R96" t="s">
-        <v>115</v>
+      <c r="R96">
+        <v>160</v>
       </c>
       <c r="S96">
+        <v>160</v>
+      </c>
+      <c r="T96">
+        <v>160</v>
+      </c>
+      <c r="U96">
+        <v>160</v>
+      </c>
+      <c r="V96">
+        <v>160</v>
+      </c>
+      <c r="W96" t="s">
+        <v>120</v>
+      </c>
+      <c r="X96">
         <v>6882</v>
       </c>
-      <c r="T96">
+      <c r="Y96">
         <v>249</v>
       </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:27">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7327,19 +8782,19 @@
         <v>95</v>
       </c>
       <c r="I97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="J97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="K97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="L97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="M97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="N97">
         <v>162</v>
@@ -7353,23 +8808,38 @@
       <c r="Q97">
         <v>162</v>
       </c>
-      <c r="R97" t="s">
-        <v>116</v>
+      <c r="R97">
+        <v>162</v>
       </c>
       <c r="S97">
+        <v>162</v>
+      </c>
+      <c r="T97">
+        <v>162</v>
+      </c>
+      <c r="U97">
+        <v>162</v>
+      </c>
+      <c r="V97">
+        <v>162</v>
+      </c>
+      <c r="W97" t="s">
+        <v>121</v>
+      </c>
+      <c r="X97">
         <v>7100</v>
       </c>
-      <c r="T97">
+      <c r="Y97">
         <v>260</v>
       </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:27">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7395,19 +8865,19 @@
         <v>96</v>
       </c>
       <c r="I98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="J98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="K98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="M98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="N98">
         <v>164</v>
@@ -7421,23 +8891,38 @@
       <c r="Q98">
         <v>164</v>
       </c>
-      <c r="R98" t="s">
-        <v>117</v>
+      <c r="R98">
+        <v>164</v>
       </c>
       <c r="S98">
+        <v>164</v>
+      </c>
+      <c r="T98">
+        <v>164</v>
+      </c>
+      <c r="U98">
+        <v>164</v>
+      </c>
+      <c r="V98">
+        <v>164</v>
+      </c>
+      <c r="W98" t="s">
+        <v>122</v>
+      </c>
+      <c r="X98">
         <v>7100</v>
       </c>
-      <c r="T98">
+      <c r="Y98">
         <v>260</v>
       </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:27">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7463,19 +8948,19 @@
         <v>97</v>
       </c>
       <c r="I99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="J99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="K99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="L99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="M99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="N99">
         <v>166</v>
@@ -7489,23 +8974,38 @@
       <c r="Q99">
         <v>166</v>
       </c>
-      <c r="R99" t="s">
-        <v>118</v>
+      <c r="R99">
+        <v>166</v>
       </c>
       <c r="S99">
+        <v>166</v>
+      </c>
+      <c r="T99">
+        <v>166</v>
+      </c>
+      <c r="U99">
+        <v>166</v>
+      </c>
+      <c r="V99">
+        <v>166</v>
+      </c>
+      <c r="W99" t="s">
+        <v>123</v>
+      </c>
+      <c r="X99">
         <v>7385</v>
       </c>
-      <c r="T99">
+      <c r="Y99">
         <v>269</v>
       </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:27">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7531,19 +9031,19 @@
         <v>98</v>
       </c>
       <c r="I100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="J100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="K100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="N100">
         <v>168</v>
@@ -7557,23 +9057,38 @@
       <c r="Q100">
         <v>168</v>
       </c>
-      <c r="R100" t="s">
-        <v>119</v>
+      <c r="R100">
+        <v>168</v>
       </c>
       <c r="S100">
+        <v>168</v>
+      </c>
+      <c r="T100">
+        <v>168</v>
+      </c>
+      <c r="U100">
+        <v>168</v>
+      </c>
+      <c r="V100">
+        <v>168</v>
+      </c>
+      <c r="W100" t="s">
+        <v>124</v>
+      </c>
+      <c r="X100">
         <v>7481</v>
       </c>
-      <c r="T100">
+      <c r="Y100">
         <v>269</v>
       </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:27">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7599,19 +9114,19 @@
         <v>99</v>
       </c>
       <c r="I101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="J101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="K101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="L101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="M101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="N101">
         <v>170</v>
@@ -7625,23 +9140,38 @@
       <c r="Q101">
         <v>170</v>
       </c>
-      <c r="R101" t="s">
-        <v>120</v>
+      <c r="R101">
+        <v>170</v>
       </c>
       <c r="S101">
+        <v>170</v>
+      </c>
+      <c r="T101">
+        <v>170</v>
+      </c>
+      <c r="U101">
+        <v>170</v>
+      </c>
+      <c r="V101">
+        <v>170</v>
+      </c>
+      <c r="W101" t="s">
+        <v>125</v>
+      </c>
+      <c r="X101">
         <v>7481</v>
       </c>
-      <c r="T101">
+      <c r="Y101">
         <v>269</v>
       </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101">
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:27">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7667,19 +9197,19 @@
         <v>100</v>
       </c>
       <c r="I102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="J102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="K102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="L102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="M102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="N102">
         <v>172</v>
@@ -7693,23 +9223,38 @@
       <c r="Q102">
         <v>172</v>
       </c>
-      <c r="R102" t="s">
-        <v>121</v>
+      <c r="R102">
+        <v>172</v>
       </c>
       <c r="S102">
+        <v>172</v>
+      </c>
+      <c r="T102">
+        <v>172</v>
+      </c>
+      <c r="U102">
+        <v>172</v>
+      </c>
+      <c r="V102">
+        <v>172</v>
+      </c>
+      <c r="W102" t="s">
+        <v>126</v>
+      </c>
+      <c r="X102">
         <v>7554</v>
       </c>
-      <c r="T102">
+      <c r="Y102">
         <v>269</v>
       </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102">
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:27">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7735,19 +9280,19 @@
         <v>101</v>
       </c>
       <c r="I103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="J103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="L103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="M103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="N103">
         <v>174</v>
@@ -7761,23 +9306,38 @@
       <c r="Q103">
         <v>174</v>
       </c>
-      <c r="R103" t="s">
-        <v>122</v>
+      <c r="R103">
+        <v>174</v>
       </c>
       <c r="S103">
+        <v>174</v>
+      </c>
+      <c r="T103">
+        <v>174</v>
+      </c>
+      <c r="U103">
+        <v>174</v>
+      </c>
+      <c r="V103">
+        <v>174</v>
+      </c>
+      <c r="W103" t="s">
+        <v>127</v>
+      </c>
+      <c r="X103">
         <v>7674</v>
       </c>
-      <c r="T103">
+      <c r="Y103">
         <v>276</v>
       </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103">
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:27">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7803,19 +9363,19 @@
         <v>102</v>
       </c>
       <c r="I104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="J104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="K104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="L104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="M104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="N104">
         <v>176</v>
@@ -7829,23 +9389,38 @@
       <c r="Q104">
         <v>176</v>
       </c>
-      <c r="R104" t="s">
-        <v>123</v>
+      <c r="R104">
+        <v>176</v>
       </c>
       <c r="S104">
+        <v>176</v>
+      </c>
+      <c r="T104">
+        <v>176</v>
+      </c>
+      <c r="U104">
+        <v>176</v>
+      </c>
+      <c r="V104">
+        <v>176</v>
+      </c>
+      <c r="W104" t="s">
+        <v>128</v>
+      </c>
+      <c r="X104">
         <v>7798</v>
       </c>
-      <c r="T104">
+      <c r="Y104">
         <v>283</v>
       </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104">
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:27">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7871,19 +9446,19 @@
         <v>103</v>
       </c>
       <c r="I105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="J105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="K105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="L105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="M105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="N105">
         <v>178</v>
@@ -7897,23 +9472,38 @@
       <c r="Q105">
         <v>178</v>
       </c>
-      <c r="R105" t="s">
-        <v>124</v>
+      <c r="R105">
+        <v>178</v>
       </c>
       <c r="S105">
+        <v>178</v>
+      </c>
+      <c r="T105">
+        <v>178</v>
+      </c>
+      <c r="U105">
+        <v>178</v>
+      </c>
+      <c r="V105">
+        <v>178</v>
+      </c>
+      <c r="W105" t="s">
+        <v>129</v>
+      </c>
+      <c r="X105">
         <v>7940</v>
       </c>
-      <c r="T105">
+      <c r="Y105">
         <v>288</v>
       </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-      <c r="V105">
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:27">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7939,19 +9529,19 @@
         <v>104</v>
       </c>
       <c r="I106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="J106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="K106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="M106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="N106">
         <v>180</v>
@@ -7965,23 +9555,38 @@
       <c r="Q106">
         <v>180</v>
       </c>
-      <c r="R106" t="s">
-        <v>125</v>
+      <c r="R106">
+        <v>180</v>
       </c>
       <c r="S106">
+        <v>180</v>
+      </c>
+      <c r="T106">
+        <v>180</v>
+      </c>
+      <c r="U106">
+        <v>180</v>
+      </c>
+      <c r="V106">
+        <v>180</v>
+      </c>
+      <c r="W106" t="s">
+        <v>130</v>
+      </c>
+      <c r="X106">
         <v>8345</v>
       </c>
-      <c r="T106">
+      <c r="Y106">
         <v>296</v>
       </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106">
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:27">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8007,19 +9612,19 @@
         <v>105</v>
       </c>
       <c r="I107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="J107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="K107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="L107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="M107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="N107">
         <v>182</v>
@@ -8033,23 +9638,38 @@
       <c r="Q107">
         <v>182</v>
       </c>
-      <c r="R107" t="s">
-        <v>126</v>
+      <c r="R107">
+        <v>182</v>
       </c>
       <c r="S107">
+        <v>182</v>
+      </c>
+      <c r="T107">
+        <v>182</v>
+      </c>
+      <c r="U107">
+        <v>182</v>
+      </c>
+      <c r="V107">
+        <v>182</v>
+      </c>
+      <c r="W107" t="s">
+        <v>131</v>
+      </c>
+      <c r="X107">
         <v>8345</v>
       </c>
-      <c r="T107">
+      <c r="Y107">
         <v>296</v>
       </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="V107">
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:27">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8075,19 +9695,19 @@
         <v>106</v>
       </c>
       <c r="I108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="J108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="K108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="M108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="N108">
         <v>184</v>
@@ -8101,23 +9721,38 @@
       <c r="Q108">
         <v>184</v>
       </c>
-      <c r="R108" t="s">
-        <v>127</v>
+      <c r="R108">
+        <v>184</v>
       </c>
       <c r="S108">
+        <v>184</v>
+      </c>
+      <c r="T108">
+        <v>184</v>
+      </c>
+      <c r="U108">
+        <v>184</v>
+      </c>
+      <c r="V108">
+        <v>184</v>
+      </c>
+      <c r="W108" t="s">
+        <v>132</v>
+      </c>
+      <c r="X108">
         <v>8619</v>
       </c>
-      <c r="T108">
+      <c r="Y108">
         <v>296</v>
       </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-      <c r="V108">
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:27">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8143,19 +9778,19 @@
         <v>107</v>
       </c>
       <c r="I109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="J109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="K109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="L109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="M109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="N109">
         <v>186</v>
@@ -8169,23 +9804,38 @@
       <c r="Q109">
         <v>186</v>
       </c>
-      <c r="R109" t="s">
-        <v>128</v>
+      <c r="R109">
+        <v>186</v>
       </c>
       <c r="S109">
+        <v>186</v>
+      </c>
+      <c r="T109">
+        <v>186</v>
+      </c>
+      <c r="U109">
+        <v>186</v>
+      </c>
+      <c r="V109">
+        <v>186</v>
+      </c>
+      <c r="W109" t="s">
+        <v>133</v>
+      </c>
+      <c r="X109">
         <v>8619</v>
       </c>
-      <c r="T109">
+      <c r="Y109">
         <v>296</v>
       </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109">
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:27">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8211,19 +9861,19 @@
         <v>108</v>
       </c>
       <c r="I110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="J110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="K110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="L110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="M110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="N110">
         <v>188</v>
@@ -8237,23 +9887,38 @@
       <c r="Q110">
         <v>188</v>
       </c>
-      <c r="R110" t="s">
-        <v>129</v>
+      <c r="R110">
+        <v>188</v>
       </c>
       <c r="S110">
+        <v>188</v>
+      </c>
+      <c r="T110">
+        <v>188</v>
+      </c>
+      <c r="U110">
+        <v>188</v>
+      </c>
+      <c r="V110">
+        <v>188</v>
+      </c>
+      <c r="W110" t="s">
+        <v>134</v>
+      </c>
+      <c r="X110">
         <v>8837</v>
       </c>
-      <c r="T110">
+      <c r="Y110">
         <v>305</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-      <c r="V110">
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:27">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8279,19 +9944,19 @@
         <v>109</v>
       </c>
       <c r="I111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="J111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="K111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="L111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="M111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="N111">
         <v>190</v>
@@ -8305,23 +9970,38 @@
       <c r="Q111">
         <v>190</v>
       </c>
-      <c r="R111" t="s">
-        <v>130</v>
+      <c r="R111">
+        <v>190</v>
       </c>
       <c r="S111">
+        <v>190</v>
+      </c>
+      <c r="T111">
+        <v>190</v>
+      </c>
+      <c r="U111">
+        <v>190</v>
+      </c>
+      <c r="V111">
+        <v>190</v>
+      </c>
+      <c r="W111" t="s">
+        <v>135</v>
+      </c>
+      <c r="X111">
         <v>8998</v>
       </c>
-      <c r="T111">
+      <c r="Y111">
         <v>308</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111">
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:27">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8340,23 +10020,38 @@
       <c r="F112">
         <v>110</v>
       </c>
-      <c r="R112" t="s">
-        <v>131</v>
-      </c>
-      <c r="S112">
+      <c r="G112">
+        <v>110</v>
+      </c>
+      <c r="H112">
+        <v>110</v>
+      </c>
+      <c r="I112">
+        <v>110</v>
+      </c>
+      <c r="J112">
+        <v>110</v>
+      </c>
+      <c r="K112">
+        <v>110</v>
+      </c>
+      <c r="W112" t="s">
+        <v>136</v>
+      </c>
+      <c r="X112">
         <v>8998</v>
       </c>
-      <c r="T112">
+      <c r="Y112">
         <v>308</v>
       </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
-      <c r="V112">
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
         <v>8690</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:27">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8369,19 +10064,34 @@
       <c r="D113">
         <v>111</v>
       </c>
-      <c r="R113" t="s">
-        <v>132</v>
-      </c>
-      <c r="S113">
+      <c r="E113">
+        <v>111</v>
+      </c>
+      <c r="F113">
+        <v>111</v>
+      </c>
+      <c r="G113">
+        <v>111</v>
+      </c>
+      <c r="H113">
+        <v>111</v>
+      </c>
+      <c r="I113">
+        <v>111</v>
+      </c>
+      <c r="W113" t="s">
+        <v>137</v>
+      </c>
+      <c r="X113">
         <v>9314</v>
       </c>
-      <c r="T113">
+      <c r="Y113">
         <v>319</v>
       </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-      <c r="V113">
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
         <v>8995</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>06-13-2020</t>
+  </si>
+  <si>
+    <t>06-14-2020</t>
   </si>
 </sst>
 </file>
@@ -785,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,8 +876,11 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -938,23 +947,26 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1021,14 +1033,14 @@
       <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3">
+      <c r="W3">
         <v>1</v>
       </c>
+      <c r="X3" t="s">
+        <v>28</v>
+      </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1036,8 +1048,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1104,14 +1119,14 @@
       <c r="V4">
         <v>2</v>
       </c>
-      <c r="W4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4">
+      <c r="W4">
         <v>2</v>
       </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1119,8 +1134,11 @@
       <c r="AA4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1187,23 +1205,26 @@
       <c r="V5">
         <v>3</v>
       </c>
-      <c r="W5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5">
         <v>2</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1270,23 +1291,26 @@
       <c r="V6">
         <v>4</v>
       </c>
-      <c r="W6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1353,23 +1377,26 @@
       <c r="V7">
         <v>5</v>
       </c>
-      <c r="W7" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1436,23 +1463,26 @@
       <c r="V8">
         <v>6</v>
       </c>
-      <c r="W8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8">
         <v>2</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1519,23 +1549,26 @@
       <c r="V9">
         <v>7</v>
       </c>
-      <c r="W9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9">
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9">
         <v>2</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1602,23 +1635,26 @@
       <c r="V10">
         <v>8</v>
       </c>
-      <c r="W10" t="s">
-        <v>34</v>
-      </c>
-      <c r="X10">
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10">
         <v>2</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1685,23 +1721,26 @@
       <c r="V11">
         <v>9</v>
       </c>
-      <c r="W11" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11">
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1768,23 +1807,26 @@
       <c r="V12">
         <v>10</v>
       </c>
-      <c r="W12" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12">
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12">
         <v>2</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>1</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1851,23 +1893,26 @@
       <c r="V13">
         <v>11</v>
       </c>
-      <c r="W13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13">
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13">
         <v>2</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
         <v>1</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1934,23 +1979,26 @@
       <c r="V14">
         <v>12</v>
       </c>
-      <c r="W14" t="s">
-        <v>38</v>
-      </c>
-      <c r="X14">
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14">
         <v>2</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
       <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>1</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2017,23 +2065,26 @@
       <c r="V15">
         <v>13</v>
       </c>
-      <c r="W15" t="s">
-        <v>39</v>
-      </c>
-      <c r="X15">
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15">
         <v>2</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2100,23 +2151,26 @@
       <c r="V16">
         <v>14</v>
       </c>
-      <c r="W16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X16">
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16">
         <v>2</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>1</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2183,23 +2237,26 @@
       <c r="V17">
         <v>15</v>
       </c>
-      <c r="W17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17">
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17">
         <v>2</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>1</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2266,23 +2323,26 @@
       <c r="V18">
         <v>16</v>
       </c>
-      <c r="W18" t="s">
-        <v>42</v>
-      </c>
-      <c r="X18">
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18">
         <v>2</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2349,23 +2409,26 @@
       <c r="V19">
         <v>17</v>
       </c>
-      <c r="W19" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19">
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>1</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2432,23 +2495,26 @@
       <c r="V20">
         <v>18</v>
       </c>
-      <c r="W20" t="s">
-        <v>44</v>
-      </c>
-      <c r="X20">
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20">
         <v>2</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
       <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2515,23 +2581,26 @@
       <c r="V21">
         <v>19</v>
       </c>
-      <c r="W21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21">
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21">
         <v>2</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2598,23 +2667,26 @@
       <c r="V22">
         <v>20</v>
       </c>
-      <c r="W22" t="s">
-        <v>46</v>
-      </c>
-      <c r="X22">
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22">
         <v>2</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
       <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2681,23 +2753,26 @@
       <c r="V23">
         <v>21</v>
       </c>
-      <c r="W23" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23">
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23">
         <v>2</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
       <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2764,23 +2839,26 @@
       <c r="V24">
         <v>22</v>
       </c>
-      <c r="W24" t="s">
-        <v>48</v>
-      </c>
-      <c r="X24">
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24">
         <v>2</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <v>1</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2847,23 +2925,26 @@
       <c r="V25">
         <v>23</v>
       </c>
-      <c r="W25" t="s">
-        <v>49</v>
-      </c>
-      <c r="X25">
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y25">
         <v>3</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <v>1</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2930,23 +3011,26 @@
       <c r="V26">
         <v>24</v>
       </c>
-      <c r="W26" t="s">
-        <v>50</v>
-      </c>
-      <c r="X26">
+      <c r="W26">
+        <v>24</v>
+      </c>
+      <c r="X26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y26">
         <v>3</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>1</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3013,23 +3097,26 @@
       <c r="V27">
         <v>25</v>
       </c>
-      <c r="W27" t="s">
-        <v>51</v>
-      </c>
-      <c r="X27">
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y27">
         <v>3</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
       <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <v>1</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3096,23 +3183,26 @@
       <c r="V28">
         <v>26</v>
       </c>
-      <c r="W28" t="s">
-        <v>52</v>
-      </c>
-      <c r="X28">
+      <c r="W28">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y28">
         <v>3</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
       <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
         <v>1</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3179,23 +3269,26 @@
       <c r="V29">
         <v>27</v>
       </c>
-      <c r="W29" t="s">
-        <v>53</v>
-      </c>
-      <c r="X29">
+      <c r="W29">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y29">
         <v>3</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3262,23 +3355,26 @@
       <c r="V30">
         <v>28</v>
       </c>
-      <c r="W30" t="s">
-        <v>54</v>
-      </c>
-      <c r="X30">
+      <c r="W30">
+        <v>28</v>
+      </c>
+      <c r="X30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30">
         <v>155</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3319,7 +3415,7 @@
         <v>29</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O31">
         <v>30</v>
@@ -3345,23 +3441,26 @@
       <c r="V31">
         <v>30</v>
       </c>
-      <c r="W31" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31">
+      <c r="W31">
+        <v>30</v>
+      </c>
+      <c r="X31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y31">
         <v>201</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
       <c r="AA31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3402,7 +3501,7 @@
         <v>30</v>
       </c>
       <c r="N32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O32">
         <v>32</v>
@@ -3428,23 +3527,26 @@
       <c r="V32">
         <v>32</v>
       </c>
-      <c r="W32" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32">
+      <c r="W32">
+        <v>32</v>
+      </c>
+      <c r="X32" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32">
         <v>226</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
       <c r="AA32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3485,7 +3587,7 @@
         <v>31</v>
       </c>
       <c r="N33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O33">
         <v>34</v>
@@ -3511,23 +3613,26 @@
       <c r="V33">
         <v>34</v>
       </c>
-      <c r="W33" t="s">
-        <v>57</v>
-      </c>
-      <c r="X33">
+      <c r="W33">
+        <v>34</v>
+      </c>
+      <c r="X33" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y33">
         <v>238</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
       <c r="AA33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3568,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="N34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O34">
         <v>36</v>
@@ -3594,23 +3699,26 @@
       <c r="V34">
         <v>36</v>
       </c>
-      <c r="W34" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34">
+      <c r="W34">
+        <v>36</v>
+      </c>
+      <c r="X34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y34">
         <v>293</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
       <c r="AA34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3651,7 +3759,7 @@
         <v>33</v>
       </c>
       <c r="N35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O35">
         <v>38</v>
@@ -3677,23 +3785,26 @@
       <c r="V35">
         <v>38</v>
       </c>
-      <c r="W35" t="s">
-        <v>59</v>
-      </c>
-      <c r="X35">
+      <c r="W35">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y35">
         <v>341</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
       <c r="AA35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3734,7 +3845,7 @@
         <v>34</v>
       </c>
       <c r="N36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O36">
         <v>40</v>
@@ -3760,23 +3871,26 @@
       <c r="V36">
         <v>40</v>
       </c>
-      <c r="W36" t="s">
-        <v>60</v>
-      </c>
-      <c r="X36">
+      <c r="W36">
+        <v>40</v>
+      </c>
+      <c r="X36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y36">
         <v>413</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>6</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
       <c r="AA36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3817,7 +3931,7 @@
         <v>35</v>
       </c>
       <c r="N37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O37">
         <v>42</v>
@@ -3843,23 +3957,26 @@
       <c r="V37">
         <v>42</v>
       </c>
-      <c r="W37" t="s">
-        <v>61</v>
-      </c>
-      <c r="X37">
+      <c r="W37">
+        <v>42</v>
+      </c>
+      <c r="X37" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y37">
         <v>484</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>7</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
       <c r="AA37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3900,7 +4017,7 @@
         <v>36</v>
       </c>
       <c r="N38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O38">
         <v>44</v>
@@ -3926,23 +4043,26 @@
       <c r="V38">
         <v>44</v>
       </c>
-      <c r="W38" t="s">
-        <v>62</v>
-      </c>
-      <c r="X38">
+      <c r="W38">
+        <v>44</v>
+      </c>
+      <c r="X38" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y38">
         <v>515</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>7</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
       <c r="AA38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3983,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="N39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O39">
         <v>46</v>
@@ -4009,23 +4129,26 @@
       <c r="V39">
         <v>46</v>
       </c>
-      <c r="W39" t="s">
-        <v>63</v>
-      </c>
-      <c r="X39">
+      <c r="W39">
+        <v>46</v>
+      </c>
+      <c r="X39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y39">
         <v>603</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>7</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
       <c r="AA39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4066,7 +4189,7 @@
         <v>38</v>
       </c>
       <c r="N40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O40">
         <v>48</v>
@@ -4092,23 +4215,26 @@
       <c r="V40">
         <v>48</v>
       </c>
-      <c r="W40" t="s">
-        <v>64</v>
-      </c>
-      <c r="X40">
+      <c r="W40">
+        <v>48</v>
+      </c>
+      <c r="X40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y40">
         <v>733</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>9</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
       <c r="AA40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4149,7 +4275,7 @@
         <v>39</v>
       </c>
       <c r="N41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O41">
         <v>50</v>
@@ -4175,23 +4301,26 @@
       <c r="V41">
         <v>50</v>
       </c>
-      <c r="W41" t="s">
-        <v>65</v>
-      </c>
-      <c r="X41">
+      <c r="W41">
+        <v>50</v>
+      </c>
+      <c r="X41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y41">
         <v>849</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>15</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
       <c r="AA41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4232,7 +4361,7 @@
         <v>40</v>
       </c>
       <c r="N42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O42">
         <v>52</v>
@@ -4258,23 +4387,26 @@
       <c r="V42">
         <v>52</v>
       </c>
-      <c r="W42" t="s">
-        <v>66</v>
-      </c>
-      <c r="X42">
+      <c r="W42">
+        <v>52</v>
+      </c>
+      <c r="X42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y42">
         <v>966</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>16</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
       <c r="AA42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4315,7 +4447,7 @@
         <v>41</v>
       </c>
       <c r="N43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O43">
         <v>54</v>
@@ -4341,23 +4473,26 @@
       <c r="V43">
         <v>54</v>
       </c>
-      <c r="W43" t="s">
-        <v>67</v>
-      </c>
-      <c r="X43">
+      <c r="W43">
+        <v>54</v>
+      </c>
+      <c r="X43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y43">
         <v>1112</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>17</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
       <c r="AA43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4398,7 +4533,7 @@
         <v>42</v>
       </c>
       <c r="N44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O44">
         <v>56</v>
@@ -4424,23 +4559,26 @@
       <c r="V44">
         <v>56</v>
       </c>
-      <c r="W44" t="s">
-        <v>68</v>
-      </c>
-      <c r="X44">
+      <c r="W44">
+        <v>56</v>
+      </c>
+      <c r="X44" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y44">
         <v>1209</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>18</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
       <c r="AA44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4481,7 +4619,7 @@
         <v>43</v>
       </c>
       <c r="N45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O45">
         <v>58</v>
@@ -4507,23 +4645,26 @@
       <c r="V45">
         <v>58</v>
       </c>
-      <c r="W45" t="s">
-        <v>69</v>
-      </c>
-      <c r="X45">
+      <c r="W45">
+        <v>58</v>
+      </c>
+      <c r="X45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45">
         <v>1326</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>19</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
       <c r="AA45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4564,7 +4705,7 @@
         <v>44</v>
       </c>
       <c r="N46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O46">
         <v>60</v>
@@ -4590,23 +4731,26 @@
       <c r="V46">
         <v>60</v>
       </c>
-      <c r="W46" t="s">
-        <v>70</v>
-      </c>
-      <c r="X46">
+      <c r="W46">
+        <v>60</v>
+      </c>
+      <c r="X46" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y46">
         <v>1404</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>19</v>
       </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
       <c r="AA46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4647,7 +4791,7 @@
         <v>45</v>
       </c>
       <c r="N47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O47">
         <v>62</v>
@@ -4673,23 +4817,26 @@
       <c r="V47">
         <v>62</v>
       </c>
-      <c r="W47" t="s">
-        <v>71</v>
-      </c>
-      <c r="X47">
+      <c r="W47">
+        <v>62</v>
+      </c>
+      <c r="X47" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y47">
         <v>1454</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>31</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
       <c r="AA47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4730,7 +4877,7 @@
         <v>46</v>
       </c>
       <c r="N48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O48">
         <v>64</v>
@@ -4756,23 +4903,26 @@
       <c r="V48">
         <v>64</v>
       </c>
-      <c r="W48" t="s">
-        <v>72</v>
-      </c>
-      <c r="X48">
+      <c r="W48">
+        <v>64</v>
+      </c>
+      <c r="X48" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y48">
         <v>1530</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>36</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
       <c r="AA48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4813,7 +4963,7 @@
         <v>47</v>
       </c>
       <c r="N49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O49">
         <v>66</v>
@@ -4839,23 +4989,26 @@
       <c r="V49">
         <v>66</v>
       </c>
-      <c r="W49" t="s">
-        <v>73</v>
-      </c>
-      <c r="X49">
+      <c r="W49">
+        <v>66</v>
+      </c>
+      <c r="X49" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y49">
         <v>1628</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>40</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
       <c r="AA49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4896,7 +5049,7 @@
         <v>48</v>
       </c>
       <c r="N50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O50">
         <v>68</v>
@@ -4922,23 +5075,26 @@
       <c r="V50">
         <v>68</v>
       </c>
-      <c r="W50" t="s">
-        <v>74</v>
-      </c>
-      <c r="X50">
+      <c r="W50">
+        <v>68</v>
+      </c>
+      <c r="X50" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y50">
         <v>1693</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>44</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
       <c r="AA50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4979,7 +5135,7 @@
         <v>49</v>
       </c>
       <c r="N51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="O51">
         <v>70</v>
@@ -5005,23 +5161,26 @@
       <c r="V51">
         <v>70</v>
       </c>
-      <c r="W51" t="s">
-        <v>75</v>
-      </c>
-      <c r="X51">
+      <c r="W51">
+        <v>70</v>
+      </c>
+      <c r="X51" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y51">
         <v>1761</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>45</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
       <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5062,7 +5221,7 @@
         <v>50</v>
       </c>
       <c r="N52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O52">
         <v>72</v>
@@ -5088,23 +5247,26 @@
       <c r="V52">
         <v>72</v>
       </c>
-      <c r="W52" t="s">
-        <v>76</v>
-      </c>
-      <c r="X52">
+      <c r="W52">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y52">
         <v>1804</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>45</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
       <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5145,7 +5307,7 @@
         <v>51</v>
       </c>
       <c r="N53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O53">
         <v>74</v>
@@ -5171,23 +5333,26 @@
       <c r="V53">
         <v>74</v>
       </c>
-      <c r="W53" t="s">
-        <v>77</v>
-      </c>
-      <c r="X53">
+      <c r="W53">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y53">
         <v>1847</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>47</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
       <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5228,7 +5393,7 @@
         <v>52</v>
       </c>
       <c r="N54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O54">
         <v>76</v>
@@ -5254,23 +5419,26 @@
       <c r="V54">
         <v>76</v>
       </c>
-      <c r="W54" t="s">
-        <v>78</v>
-      </c>
-      <c r="X54">
+      <c r="W54">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y54">
         <v>1930</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>53</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
       <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5311,7 +5479,7 @@
         <v>53</v>
       </c>
       <c r="N55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O55">
         <v>78</v>
@@ -5337,23 +5505,26 @@
       <c r="V55">
         <v>78</v>
       </c>
-      <c r="W55" t="s">
-        <v>79</v>
-      </c>
-      <c r="X55">
+      <c r="W55">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y55">
         <v>2012</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>60</v>
       </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
       <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5394,7 +5565,7 @@
         <v>54</v>
       </c>
       <c r="N56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O56">
         <v>80</v>
@@ -5420,23 +5591,26 @@
       <c r="V56">
         <v>80</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56">
         <v>80</v>
       </c>
-      <c r="X56">
+      <c r="X56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y56">
         <v>2087</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>63</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
       <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5477,7 +5651,7 @@
         <v>55</v>
       </c>
       <c r="N57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="O57">
         <v>82</v>
@@ -5503,23 +5677,26 @@
       <c r="V57">
         <v>82</v>
       </c>
-      <c r="W57" t="s">
-        <v>81</v>
-      </c>
-      <c r="X57">
+      <c r="W57">
+        <v>82</v>
+      </c>
+      <c r="X57" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y57">
         <v>2158</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>70</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
       <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5560,7 +5737,7 @@
         <v>56</v>
       </c>
       <c r="N58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O58">
         <v>84</v>
@@ -5586,23 +5763,26 @@
       <c r="V58">
         <v>84</v>
       </c>
-      <c r="W58" t="s">
-        <v>82</v>
-      </c>
-      <c r="X58">
+      <c r="W58">
+        <v>84</v>
+      </c>
+      <c r="X58" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y58">
         <v>2213</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>71</v>
       </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
       <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5643,7 +5823,7 @@
         <v>57</v>
       </c>
       <c r="N59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O59">
         <v>86</v>
@@ -5669,23 +5849,26 @@
       <c r="V59">
         <v>86</v>
       </c>
-      <c r="W59" t="s">
-        <v>83</v>
-      </c>
-      <c r="X59">
+      <c r="W59">
+        <v>86</v>
+      </c>
+      <c r="X59" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y59">
         <v>2268</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>71</v>
       </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
       <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5726,7 +5909,7 @@
         <v>58</v>
       </c>
       <c r="N60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="O60">
         <v>88</v>
@@ -5752,23 +5935,26 @@
       <c r="V60">
         <v>88</v>
       </c>
-      <c r="W60" t="s">
-        <v>84</v>
-      </c>
-      <c r="X60">
+      <c r="W60">
+        <v>88</v>
+      </c>
+      <c r="X60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y60">
         <v>2325</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>72</v>
       </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
       <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5809,7 +5995,7 @@
         <v>59</v>
       </c>
       <c r="N61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="O61">
         <v>90</v>
@@ -5835,23 +6021,26 @@
       <c r="V61">
         <v>90</v>
       </c>
-      <c r="W61" t="s">
-        <v>85</v>
-      </c>
-      <c r="X61">
+      <c r="W61">
+        <v>90</v>
+      </c>
+      <c r="X61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y61">
         <v>2491</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>96</v>
       </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
       <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5892,7 +6081,7 @@
         <v>60</v>
       </c>
       <c r="N62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="O62">
         <v>92</v>
@@ -5918,23 +6107,26 @@
       <c r="V62">
         <v>92</v>
       </c>
-      <c r="W62" t="s">
-        <v>86</v>
-      </c>
-      <c r="X62">
+      <c r="W62">
+        <v>92</v>
+      </c>
+      <c r="X62" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y62">
         <v>2643</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>100</v>
       </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
       <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5975,7 +6167,7 @@
         <v>61</v>
       </c>
       <c r="N63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="O63">
         <v>94</v>
@@ -6001,23 +6193,26 @@
       <c r="V63">
         <v>94</v>
       </c>
-      <c r="W63" t="s">
-        <v>87</v>
-      </c>
-      <c r="X63">
+      <c r="W63">
+        <v>94</v>
+      </c>
+      <c r="X63" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y63">
         <v>2826</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>102</v>
       </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
       <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6058,7 +6253,7 @@
         <v>62</v>
       </c>
       <c r="N64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="O64">
         <v>96</v>
@@ -6084,23 +6279,26 @@
       <c r="V64">
         <v>96</v>
       </c>
-      <c r="W64" t="s">
-        <v>88</v>
-      </c>
-      <c r="X64">
+      <c r="W64">
+        <v>96</v>
+      </c>
+      <c r="X64" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y64">
         <v>2943</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>111</v>
       </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
       <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6141,7 +6339,7 @@
         <v>63</v>
       </c>
       <c r="N65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="O65">
         <v>98</v>
@@ -6167,23 +6365,26 @@
       <c r="V65">
         <v>98</v>
       </c>
-      <c r="W65" t="s">
-        <v>89</v>
-      </c>
-      <c r="X65">
+      <c r="W65">
+        <v>98</v>
+      </c>
+      <c r="X65" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y65">
         <v>2943</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>111</v>
       </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
       <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6224,7 +6425,7 @@
         <v>64</v>
       </c>
       <c r="N66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O66">
         <v>100</v>
@@ -6250,23 +6451,26 @@
       <c r="V66">
         <v>100</v>
       </c>
-      <c r="W66" t="s">
-        <v>90</v>
-      </c>
-      <c r="X66">
+      <c r="W66">
+        <v>100</v>
+      </c>
+      <c r="X66" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y66">
         <v>3043</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>111</v>
       </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
       <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6307,7 +6511,7 @@
         <v>65</v>
       </c>
       <c r="N67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="O67">
         <v>102</v>
@@ -6333,23 +6537,26 @@
       <c r="V67">
         <v>102</v>
       </c>
-      <c r="W67" t="s">
-        <v>91</v>
-      </c>
-      <c r="X67">
+      <c r="W67">
+        <v>102</v>
+      </c>
+      <c r="X67" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y67">
         <v>3141</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>113</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
       <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6390,7 +6597,7 @@
         <v>66</v>
       </c>
       <c r="N68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="O68">
         <v>104</v>
@@ -6416,23 +6623,26 @@
       <c r="V68">
         <v>104</v>
       </c>
-      <c r="W68" t="s">
-        <v>92</v>
-      </c>
-      <c r="X68">
+      <c r="W68">
+        <v>104</v>
+      </c>
+      <c r="X68" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y68">
         <v>3432</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>120</v>
       </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
       <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6473,7 +6683,7 @@
         <v>67</v>
       </c>
       <c r="N69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="O69">
         <v>106</v>
@@ -6499,23 +6709,26 @@
       <c r="V69">
         <v>106</v>
       </c>
-      <c r="W69" t="s">
-        <v>93</v>
-      </c>
-      <c r="X69">
+      <c r="W69">
+        <v>106</v>
+      </c>
+      <c r="X69" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y69">
         <v>3432</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>120</v>
       </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
       <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6556,7 +6769,7 @@
         <v>68</v>
       </c>
       <c r="N70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O70">
         <v>108</v>
@@ -6582,23 +6795,26 @@
       <c r="V70">
         <v>108</v>
       </c>
-      <c r="W70" t="s">
-        <v>94</v>
-      </c>
-      <c r="X70">
+      <c r="W70">
+        <v>108</v>
+      </c>
+      <c r="X70" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y70">
         <v>3564</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>124</v>
       </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
       <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6639,7 +6855,7 @@
         <v>69</v>
       </c>
       <c r="N71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="O71">
         <v>110</v>
@@ -6665,23 +6881,26 @@
       <c r="V71">
         <v>110</v>
       </c>
-      <c r="W71" t="s">
-        <v>95</v>
-      </c>
-      <c r="X71">
+      <c r="W71">
+        <v>110</v>
+      </c>
+      <c r="X71" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y71">
         <v>3711</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>134</v>
       </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
       <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6722,7 +6941,7 @@
         <v>70</v>
       </c>
       <c r="N72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="O72">
         <v>112</v>
@@ -6748,23 +6967,26 @@
       <c r="V72">
         <v>112</v>
       </c>
-      <c r="W72" t="s">
-        <v>96</v>
-      </c>
-      <c r="X72">
+      <c r="W72">
+        <v>112</v>
+      </c>
+      <c r="X72" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y72">
         <v>3927</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>139</v>
       </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
       <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6805,7 +7027,7 @@
         <v>71</v>
       </c>
       <c r="N73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="O73">
         <v>114</v>
@@ -6831,23 +7053,26 @@
       <c r="V73">
         <v>114</v>
       </c>
-      <c r="W73" t="s">
-        <v>97</v>
-      </c>
-      <c r="X73">
+      <c r="W73">
+        <v>114</v>
+      </c>
+      <c r="X73" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y73">
         <v>3927</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>139</v>
       </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
       <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6888,7 +7113,7 @@
         <v>72</v>
       </c>
       <c r="N74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="O74">
         <v>116</v>
@@ -6914,23 +7139,26 @@
       <c r="V74">
         <v>116</v>
       </c>
-      <c r="W74" t="s">
-        <v>98</v>
-      </c>
-      <c r="X74">
+      <c r="W74">
+        <v>116</v>
+      </c>
+      <c r="X74" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y74">
         <v>4020</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>144</v>
       </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
       <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6971,7 +7199,7 @@
         <v>73</v>
       </c>
       <c r="N75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O75">
         <v>118</v>
@@ -6997,23 +7225,26 @@
       <c r="V75">
         <v>118</v>
       </c>
-      <c r="W75" t="s">
-        <v>99</v>
-      </c>
-      <c r="X75">
+      <c r="W75">
+        <v>118</v>
+      </c>
+      <c r="X75" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y75">
         <v>4319</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>158</v>
       </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
       <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7054,7 +7285,7 @@
         <v>74</v>
       </c>
       <c r="N76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="O76">
         <v>120</v>
@@ -7080,23 +7311,26 @@
       <c r="V76">
         <v>120</v>
       </c>
-      <c r="W76" t="s">
-        <v>100</v>
-      </c>
-      <c r="X76">
+      <c r="W76">
+        <v>120</v>
+      </c>
+      <c r="X76" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y76">
         <v>4319</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>158</v>
       </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
       <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7137,7 +7371,7 @@
         <v>75</v>
       </c>
       <c r="N77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="O77">
         <v>122</v>
@@ -7163,23 +7397,26 @@
       <c r="V77">
         <v>122</v>
       </c>
-      <c r="W77" t="s">
-        <v>101</v>
-      </c>
-      <c r="X77">
+      <c r="W77">
+        <v>122</v>
+      </c>
+      <c r="X77" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y77">
         <v>4429</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>165</v>
       </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
       <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7220,7 +7457,7 @@
         <v>76</v>
       </c>
       <c r="N78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="O78">
         <v>124</v>
@@ -7246,23 +7483,26 @@
       <c r="V78">
         <v>124</v>
       </c>
-      <c r="W78" t="s">
-        <v>102</v>
-      </c>
-      <c r="X78">
+      <c r="W78">
+        <v>124</v>
+      </c>
+      <c r="X78" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y78">
         <v>4662</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>169</v>
       </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
       <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7303,7 +7543,7 @@
         <v>77</v>
       </c>
       <c r="N79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="O79">
         <v>126</v>
@@ -7329,23 +7569,26 @@
       <c r="V79">
         <v>126</v>
       </c>
-      <c r="W79" t="s">
-        <v>103</v>
-      </c>
-      <c r="X79">
+      <c r="W79">
+        <v>126</v>
+      </c>
+      <c r="X79" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y79">
         <v>4776</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>175</v>
       </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
       <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7386,7 +7629,7 @@
         <v>78</v>
       </c>
       <c r="N80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="O80">
         <v>128</v>
@@ -7412,23 +7655,26 @@
       <c r="V80">
         <v>128</v>
       </c>
-      <c r="W80" t="s">
-        <v>104</v>
-      </c>
-      <c r="X80">
+      <c r="W80">
+        <v>128</v>
+      </c>
+      <c r="X80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y80">
         <v>5065</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>175</v>
       </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
       <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7469,7 +7715,7 @@
         <v>79</v>
       </c>
       <c r="N81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="O81">
         <v>130</v>
@@ -7495,23 +7741,26 @@
       <c r="V81">
         <v>130</v>
       </c>
-      <c r="W81" t="s">
-        <v>105</v>
-      </c>
-      <c r="X81">
+      <c r="W81">
+        <v>130</v>
+      </c>
+      <c r="X81" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y81">
         <v>5161</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>190</v>
       </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
       <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7552,7 +7801,7 @@
         <v>80</v>
       </c>
       <c r="N82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O82">
         <v>132</v>
@@ -7578,23 +7827,26 @@
       <c r="V82">
         <v>132</v>
       </c>
-      <c r="W82" t="s">
-        <v>106</v>
-      </c>
-      <c r="X82">
+      <c r="W82">
+        <v>132</v>
+      </c>
+      <c r="X82" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y82">
         <v>5161</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>190</v>
       </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
       <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7635,7 +7887,7 @@
         <v>81</v>
       </c>
       <c r="N83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="O83">
         <v>134</v>
@@ -7661,23 +7913,26 @@
       <c r="V83">
         <v>134</v>
       </c>
-      <c r="W83" t="s">
-        <v>107</v>
-      </c>
-      <c r="X83">
+      <c r="W83">
+        <v>134</v>
+      </c>
+      <c r="X83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y83">
         <v>5391</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>200</v>
       </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
       <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7718,7 +7973,7 @@
         <v>82</v>
       </c>
       <c r="N84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="O84">
         <v>136</v>
@@ -7744,23 +7999,26 @@
       <c r="V84">
         <v>136</v>
       </c>
-      <c r="W84" t="s">
-        <v>108</v>
-      </c>
-      <c r="X84">
+      <c r="W84">
+        <v>136</v>
+      </c>
+      <c r="X84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y84">
         <v>5391</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>200</v>
       </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
       <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7801,7 +8059,7 @@
         <v>83</v>
       </c>
       <c r="N85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="O85">
         <v>138</v>
@@ -7827,23 +8085,26 @@
       <c r="V85">
         <v>138</v>
       </c>
-      <c r="W85" t="s">
-        <v>109</v>
-      </c>
-      <c r="X85">
+      <c r="W85">
+        <v>138</v>
+      </c>
+      <c r="X85" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y85">
         <v>5662</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>209</v>
       </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
       <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7884,7 +8145,7 @@
         <v>84</v>
       </c>
       <c r="N86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="O86">
         <v>140</v>
@@ -7910,23 +8171,26 @@
       <c r="V86">
         <v>140</v>
       </c>
-      <c r="W86" t="s">
-        <v>110</v>
-      </c>
-      <c r="X86">
+      <c r="W86">
+        <v>140</v>
+      </c>
+      <c r="X86" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y86">
         <v>5836</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>209</v>
       </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
       <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7967,7 +8231,7 @@
         <v>85</v>
       </c>
       <c r="N87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="O87">
         <v>142</v>
@@ -7993,23 +8257,26 @@
       <c r="V87">
         <v>142</v>
       </c>
-      <c r="W87" t="s">
-        <v>111</v>
-      </c>
-      <c r="X87">
+      <c r="W87">
+        <v>142</v>
+      </c>
+      <c r="X87" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y87">
         <v>5836</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>209</v>
       </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
       <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8050,7 +8317,7 @@
         <v>86</v>
       </c>
       <c r="N88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="O88">
         <v>144</v>
@@ -8076,23 +8343,26 @@
       <c r="V88">
         <v>144</v>
       </c>
-      <c r="W88" t="s">
-        <v>112</v>
-      </c>
-      <c r="X88">
+      <c r="W88">
+        <v>144</v>
+      </c>
+      <c r="X88" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y88">
         <v>6026</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>222</v>
       </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
       <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8133,7 +8403,7 @@
         <v>87</v>
       </c>
       <c r="N89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="O89">
         <v>146</v>
@@ -8159,23 +8429,26 @@
       <c r="V89">
         <v>146</v>
       </c>
-      <c r="W89" t="s">
-        <v>113</v>
-      </c>
-      <c r="X89">
+      <c r="W89">
+        <v>146</v>
+      </c>
+      <c r="X89" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y89">
         <v>6140</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>230</v>
       </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
       <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8216,7 +8489,7 @@
         <v>88</v>
       </c>
       <c r="N90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="O90">
         <v>148</v>
@@ -8242,23 +8515,26 @@
       <c r="V90">
         <v>148</v>
       </c>
-      <c r="W90" t="s">
-        <v>114</v>
-      </c>
-      <c r="X90">
+      <c r="W90">
+        <v>148</v>
+      </c>
+      <c r="X90" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y90">
         <v>6140</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>230</v>
       </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
       <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8299,7 +8575,7 @@
         <v>89</v>
       </c>
       <c r="N91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="O91">
         <v>150</v>
@@ -8325,23 +8601,26 @@
       <c r="V91">
         <v>150</v>
       </c>
-      <c r="W91" t="s">
-        <v>115</v>
-      </c>
-      <c r="X91">
+      <c r="W91">
+        <v>150</v>
+      </c>
+      <c r="X91" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y91">
         <v>6315</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>241</v>
       </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
       <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8382,7 +8661,7 @@
         <v>90</v>
       </c>
       <c r="N92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="O92">
         <v>152</v>
@@ -8408,23 +8687,26 @@
       <c r="V92">
         <v>152</v>
       </c>
-      <c r="W92" t="s">
-        <v>116</v>
-      </c>
-      <c r="X92">
+      <c r="W92">
+        <v>152</v>
+      </c>
+      <c r="X92" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y92">
         <v>6559</v>
       </c>
-      <c r="Y92">
+      <c r="Z92">
         <v>249</v>
       </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
       <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:28">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8465,7 +8747,7 @@
         <v>91</v>
       </c>
       <c r="N93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O93">
         <v>154</v>
@@ -8491,23 +8773,26 @@
       <c r="V93">
         <v>154</v>
       </c>
-      <c r="W93" t="s">
-        <v>117</v>
-      </c>
-      <c r="X93">
+      <c r="W93">
+        <v>154</v>
+      </c>
+      <c r="X93" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y93">
         <v>6559</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>249</v>
       </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
       <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:28">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8548,7 +8833,7 @@
         <v>92</v>
       </c>
       <c r="N94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="O94">
         <v>156</v>
@@ -8574,23 +8859,26 @@
       <c r="V94">
         <v>156</v>
       </c>
-      <c r="W94" t="s">
-        <v>118</v>
-      </c>
-      <c r="X94">
+      <c r="W94">
+        <v>156</v>
+      </c>
+      <c r="X94" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y94">
         <v>6701</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>249</v>
       </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
       <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:28">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8631,7 +8919,7 @@
         <v>93</v>
       </c>
       <c r="N95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="O95">
         <v>158</v>
@@ -8657,23 +8945,26 @@
       <c r="V95">
         <v>158</v>
       </c>
-      <c r="W95" t="s">
-        <v>119</v>
-      </c>
-      <c r="X95">
+      <c r="W95">
+        <v>158</v>
+      </c>
+      <c r="X95" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y95">
         <v>6797</v>
       </c>
-      <c r="Y95">
+      <c r="Z95">
         <v>249</v>
       </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
       <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:28">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8714,7 +9005,7 @@
         <v>94</v>
       </c>
       <c r="N96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="O96">
         <v>160</v>
@@ -8740,23 +9031,26 @@
       <c r="V96">
         <v>160</v>
       </c>
-      <c r="W96" t="s">
-        <v>120</v>
-      </c>
-      <c r="X96">
+      <c r="W96">
+        <v>160</v>
+      </c>
+      <c r="X96" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y96">
         <v>6882</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>249</v>
       </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
       <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8797,7 +9091,7 @@
         <v>95</v>
       </c>
       <c r="N97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="O97">
         <v>162</v>
@@ -8823,23 +9117,26 @@
       <c r="V97">
         <v>162</v>
       </c>
-      <c r="W97" t="s">
-        <v>121</v>
-      </c>
-      <c r="X97">
+      <c r="W97">
+        <v>162</v>
+      </c>
+      <c r="X97" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y97">
         <v>7100</v>
       </c>
-      <c r="Y97">
+      <c r="Z97">
         <v>260</v>
       </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
       <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:28">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8880,7 +9177,7 @@
         <v>96</v>
       </c>
       <c r="N98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="O98">
         <v>164</v>
@@ -8906,23 +9203,26 @@
       <c r="V98">
         <v>164</v>
       </c>
-      <c r="W98" t="s">
-        <v>122</v>
-      </c>
-      <c r="X98">
+      <c r="W98">
+        <v>164</v>
+      </c>
+      <c r="X98" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y98">
         <v>7100</v>
       </c>
-      <c r="Y98">
+      <c r="Z98">
         <v>260</v>
       </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
       <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:28">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8963,7 +9263,7 @@
         <v>97</v>
       </c>
       <c r="N99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="O99">
         <v>166</v>
@@ -8989,23 +9289,26 @@
       <c r="V99">
         <v>166</v>
       </c>
-      <c r="W99" t="s">
-        <v>123</v>
-      </c>
-      <c r="X99">
+      <c r="W99">
+        <v>166</v>
+      </c>
+      <c r="X99" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y99">
         <v>7385</v>
       </c>
-      <c r="Y99">
+      <c r="Z99">
         <v>269</v>
       </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
       <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:28">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9046,7 +9349,7 @@
         <v>98</v>
       </c>
       <c r="N100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="O100">
         <v>168</v>
@@ -9072,23 +9375,26 @@
       <c r="V100">
         <v>168</v>
       </c>
-      <c r="W100" t="s">
-        <v>124</v>
-      </c>
-      <c r="X100">
+      <c r="W100">
+        <v>168</v>
+      </c>
+      <c r="X100" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y100">
         <v>7481</v>
       </c>
-      <c r="Y100">
+      <c r="Z100">
         <v>269</v>
       </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
       <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:28">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9129,7 +9435,7 @@
         <v>99</v>
       </c>
       <c r="N101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="O101">
         <v>170</v>
@@ -9155,23 +9461,26 @@
       <c r="V101">
         <v>170</v>
       </c>
-      <c r="W101" t="s">
-        <v>125</v>
-      </c>
-      <c r="X101">
+      <c r="W101">
+        <v>170</v>
+      </c>
+      <c r="X101" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y101">
         <v>7481</v>
       </c>
-      <c r="Y101">
+      <c r="Z101">
         <v>269</v>
       </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
       <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:28">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9212,7 +9521,7 @@
         <v>100</v>
       </c>
       <c r="N102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="O102">
         <v>172</v>
@@ -9238,23 +9547,26 @@
       <c r="V102">
         <v>172</v>
       </c>
-      <c r="W102" t="s">
-        <v>126</v>
-      </c>
-      <c r="X102">
+      <c r="W102">
+        <v>172</v>
+      </c>
+      <c r="X102" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y102">
         <v>7554</v>
       </c>
-      <c r="Y102">
+      <c r="Z102">
         <v>269</v>
       </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
       <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:28">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9295,7 +9607,7 @@
         <v>101</v>
       </c>
       <c r="N103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="O103">
         <v>174</v>
@@ -9321,23 +9633,26 @@
       <c r="V103">
         <v>174</v>
       </c>
-      <c r="W103" t="s">
-        <v>127</v>
-      </c>
-      <c r="X103">
+      <c r="W103">
+        <v>174</v>
+      </c>
+      <c r="X103" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y103">
         <v>7674</v>
       </c>
-      <c r="Y103">
+      <c r="Z103">
         <v>276</v>
       </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
       <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:28">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9378,7 +9693,7 @@
         <v>102</v>
       </c>
       <c r="N104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O104">
         <v>176</v>
@@ -9404,23 +9719,26 @@
       <c r="V104">
         <v>176</v>
       </c>
-      <c r="W104" t="s">
-        <v>128</v>
-      </c>
-      <c r="X104">
+      <c r="W104">
+        <v>176</v>
+      </c>
+      <c r="X104" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y104">
         <v>7798</v>
       </c>
-      <c r="Y104">
+      <c r="Z104">
         <v>283</v>
       </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
       <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:28">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9461,7 +9779,7 @@
         <v>103</v>
       </c>
       <c r="N105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="O105">
         <v>178</v>
@@ -9487,23 +9805,26 @@
       <c r="V105">
         <v>178</v>
       </c>
-      <c r="W105" t="s">
-        <v>129</v>
-      </c>
-      <c r="X105">
+      <c r="W105">
+        <v>178</v>
+      </c>
+      <c r="X105" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y105">
         <v>7940</v>
       </c>
-      <c r="Y105">
+      <c r="Z105">
         <v>288</v>
       </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
       <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:28">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9544,7 +9865,7 @@
         <v>104</v>
       </c>
       <c r="N106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="O106">
         <v>180</v>
@@ -9570,23 +9891,26 @@
       <c r="V106">
         <v>180</v>
       </c>
-      <c r="W106" t="s">
-        <v>130</v>
-      </c>
-      <c r="X106">
+      <c r="W106">
+        <v>180</v>
+      </c>
+      <c r="X106" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y106">
         <v>8345</v>
       </c>
-      <c r="Y106">
+      <c r="Z106">
         <v>296</v>
       </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
       <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:28">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9627,7 +9951,7 @@
         <v>105</v>
       </c>
       <c r="N107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="O107">
         <v>182</v>
@@ -9653,23 +9977,26 @@
       <c r="V107">
         <v>182</v>
       </c>
-      <c r="W107" t="s">
-        <v>131</v>
-      </c>
-      <c r="X107">
+      <c r="W107">
+        <v>182</v>
+      </c>
+      <c r="X107" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y107">
         <v>8345</v>
       </c>
-      <c r="Y107">
+      <c r="Z107">
         <v>296</v>
       </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
       <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:28">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9710,7 +10037,7 @@
         <v>106</v>
       </c>
       <c r="N108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="O108">
         <v>184</v>
@@ -9736,23 +10063,26 @@
       <c r="V108">
         <v>184</v>
       </c>
-      <c r="W108" t="s">
-        <v>132</v>
-      </c>
-      <c r="X108">
+      <c r="W108">
+        <v>184</v>
+      </c>
+      <c r="X108" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y108">
         <v>8619</v>
       </c>
-      <c r="Y108">
+      <c r="Z108">
         <v>296</v>
       </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
       <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:28">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9793,7 +10123,7 @@
         <v>107</v>
       </c>
       <c r="N109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="O109">
         <v>186</v>
@@ -9819,23 +10149,26 @@
       <c r="V109">
         <v>186</v>
       </c>
-      <c r="W109" t="s">
-        <v>133</v>
-      </c>
-      <c r="X109">
+      <c r="W109">
+        <v>186</v>
+      </c>
+      <c r="X109" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y109">
         <v>8619</v>
       </c>
-      <c r="Y109">
+      <c r="Z109">
         <v>296</v>
       </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
       <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:28">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9876,7 +10209,7 @@
         <v>108</v>
       </c>
       <c r="N110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="O110">
         <v>188</v>
@@ -9902,23 +10235,26 @@
       <c r="V110">
         <v>188</v>
       </c>
-      <c r="W110" t="s">
-        <v>134</v>
-      </c>
-      <c r="X110">
+      <c r="W110">
+        <v>188</v>
+      </c>
+      <c r="X110" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y110">
         <v>8837</v>
       </c>
-      <c r="Y110">
+      <c r="Z110">
         <v>305</v>
       </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
       <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:28">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9959,7 +10295,7 @@
         <v>109</v>
       </c>
       <c r="N111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="O111">
         <v>190</v>
@@ -9985,23 +10321,26 @@
       <c r="V111">
         <v>190</v>
       </c>
-      <c r="W111" t="s">
-        <v>135</v>
-      </c>
-      <c r="X111">
+      <c r="W111">
+        <v>190</v>
+      </c>
+      <c r="X111" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y111">
         <v>8998</v>
       </c>
-      <c r="Y111">
+      <c r="Z111">
         <v>308</v>
       </c>
-      <c r="Z111">
-        <v>0</v>
-      </c>
       <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:28">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10035,23 +10374,26 @@
       <c r="K112">
         <v>110</v>
       </c>
-      <c r="W112" t="s">
-        <v>136</v>
-      </c>
-      <c r="X112">
+      <c r="L112">
+        <v>110</v>
+      </c>
+      <c r="X112" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y112">
         <v>8998</v>
       </c>
-      <c r="Y112">
+      <c r="Z112">
         <v>308</v>
       </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
       <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
         <v>8690</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:28">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10079,20 +10421,43 @@
       <c r="I113">
         <v>111</v>
       </c>
-      <c r="W113" t="s">
-        <v>137</v>
-      </c>
-      <c r="X113">
+      <c r="J113">
+        <v>111</v>
+      </c>
+      <c r="X113" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y113">
         <v>9314</v>
       </c>
-      <c r="Y113">
+      <c r="Z113">
         <v>319</v>
       </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
       <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
         <v>8995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="X114" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y114">
+        <v>9440</v>
+      </c>
+      <c r="Z114">
+        <v>319</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>9121</v>
       </c>
     </row>
   </sheetData>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -434,6 +437,12 @@
   </si>
   <si>
     <t>06-14-2020</t>
+  </si>
+  <si>
+    <t>06-15-2020</t>
+  </si>
+  <si>
+    <t>06-16-2020</t>
   </si>
 </sst>
 </file>
@@ -791,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +888,11 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -950,23 +962,26 @@
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2">
         <v>1</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1036,14 +1051,14 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3">
+      <c r="X3">
         <v>1</v>
       </c>
+      <c r="Y3" t="s">
+        <v>29</v>
+      </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1051,8 +1066,11 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1122,14 +1140,14 @@
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4">
+      <c r="X4">
         <v>2</v>
       </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1137,8 +1155,11 @@
       <c r="AB4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1208,23 +1229,26 @@
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5">
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5">
         <v>2</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1294,23 +1318,26 @@
       <c r="W6">
         <v>4</v>
       </c>
-      <c r="X6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6">
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6">
         <v>2</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1380,23 +1407,26 @@
       <c r="W7">
         <v>5</v>
       </c>
-      <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7">
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7">
         <v>2</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1466,23 +1496,26 @@
       <c r="W8">
         <v>6</v>
       </c>
-      <c r="X8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8">
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8">
         <v>2</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1552,23 +1585,26 @@
       <c r="W9">
         <v>7</v>
       </c>
-      <c r="X9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9">
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9">
         <v>2</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1638,23 +1674,26 @@
       <c r="W10">
         <v>8</v>
       </c>
-      <c r="X10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10">
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10">
         <v>2</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1724,23 +1763,26 @@
       <c r="W11">
         <v>9</v>
       </c>
-      <c r="X11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y11">
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11">
         <v>2</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1810,23 +1852,26 @@
       <c r="W12">
         <v>10</v>
       </c>
-      <c r="X12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12">
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12">
         <v>2</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1896,23 +1941,26 @@
       <c r="W13">
         <v>11</v>
       </c>
-      <c r="X13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13">
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1982,23 +2030,26 @@
       <c r="W14">
         <v>12</v>
       </c>
-      <c r="X14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14">
+      <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14">
         <v>2</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
       <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2068,23 +2119,26 @@
       <c r="W15">
         <v>13</v>
       </c>
-      <c r="X15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15">
+      <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15">
         <v>2</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
       <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>1</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2154,23 +2208,26 @@
       <c r="W16">
         <v>14</v>
       </c>
-      <c r="X16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16">
+      <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2240,23 +2297,26 @@
       <c r="W17">
         <v>15</v>
       </c>
-      <c r="X17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17">
+      <c r="X17">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17">
         <v>2</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2326,23 +2386,26 @@
       <c r="W18">
         <v>16</v>
       </c>
-      <c r="X18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18">
+      <c r="X18">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18">
         <v>2</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>1</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2412,23 +2475,26 @@
       <c r="W19">
         <v>17</v>
       </c>
-      <c r="X19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19">
+      <c r="X19">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19">
         <v>2</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
       <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2498,23 +2564,26 @@
       <c r="W20">
         <v>18</v>
       </c>
-      <c r="X20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y20">
+      <c r="X20">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
       <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2584,23 +2653,26 @@
       <c r="W21">
         <v>19</v>
       </c>
-      <c r="X21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y21">
+      <c r="X21">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z21">
         <v>2</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
       <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>1</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2670,23 +2742,26 @@
       <c r="W22">
         <v>20</v>
       </c>
-      <c r="X22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y22">
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z22">
         <v>2</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
       <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2756,23 +2831,26 @@
       <c r="W23">
         <v>21</v>
       </c>
-      <c r="X23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y23">
+      <c r="X23">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z23">
         <v>2</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2842,23 +2920,26 @@
       <c r="W24">
         <v>22</v>
       </c>
-      <c r="X24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y24">
+      <c r="X24">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z24">
         <v>2</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
       <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>1</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2928,23 +3009,26 @@
       <c r="W25">
         <v>23</v>
       </c>
-      <c r="X25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y25">
+      <c r="X25">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z25">
         <v>3</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3014,23 +3098,26 @@
       <c r="W26">
         <v>24</v>
       </c>
-      <c r="X26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y26">
+      <c r="X26">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3100,23 +3187,26 @@
       <c r="W27">
         <v>25</v>
       </c>
-      <c r="X27" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y27">
+      <c r="X27">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z27">
         <v>3</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
       <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3186,23 +3276,26 @@
       <c r="W28">
         <v>26</v>
       </c>
-      <c r="X28" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y28">
+      <c r="X28">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z28">
         <v>3</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
       <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>1</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3272,23 +3365,26 @@
       <c r="W29">
         <v>27</v>
       </c>
-      <c r="X29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y29">
+      <c r="X29">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z29">
         <v>3</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
       <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
         <v>1</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3358,23 +3454,26 @@
       <c r="W30">
         <v>28</v>
       </c>
-      <c r="X30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y30">
+      <c r="X30">
+        <v>28</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z30">
         <v>155</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3418,7 +3517,7 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P31">
         <v>30</v>
@@ -3444,23 +3543,26 @@
       <c r="W31">
         <v>30</v>
       </c>
-      <c r="X31" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y31">
+      <c r="X31">
+        <v>30</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z31">
         <v>201</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1</v>
       </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
       <c r="AB31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3504,7 +3606,7 @@
         <v>30</v>
       </c>
       <c r="O32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P32">
         <v>32</v>
@@ -3530,23 +3632,26 @@
       <c r="W32">
         <v>32</v>
       </c>
-      <c r="X32" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y32">
+      <c r="X32">
+        <v>32</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32">
         <v>226</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1</v>
       </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
       <c r="AB32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3590,7 +3695,7 @@
         <v>31</v>
       </c>
       <c r="O33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P33">
         <v>34</v>
@@ -3616,23 +3721,26 @@
       <c r="W33">
         <v>34</v>
       </c>
-      <c r="X33" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y33">
+      <c r="X33">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z33">
         <v>238</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>2</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
       <c r="AB33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3676,7 +3784,7 @@
         <v>32</v>
       </c>
       <c r="O34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P34">
         <v>36</v>
@@ -3702,23 +3810,26 @@
       <c r="W34">
         <v>36</v>
       </c>
-      <c r="X34" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y34">
+      <c r="X34">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z34">
         <v>293</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>3</v>
       </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
       <c r="AB34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3762,7 +3873,7 @@
         <v>33</v>
       </c>
       <c r="O35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P35">
         <v>38</v>
@@ -3788,23 +3899,26 @@
       <c r="W35">
         <v>38</v>
       </c>
-      <c r="X35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y35">
+      <c r="X35">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z35">
         <v>341</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3</v>
       </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
       <c r="AB35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3848,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="O36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P36">
         <v>40</v>
@@ -3874,23 +3988,26 @@
       <c r="W36">
         <v>40</v>
       </c>
-      <c r="X36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y36">
+      <c r="X36">
+        <v>40</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z36">
         <v>413</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>6</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
       <c r="AB36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3934,7 +4051,7 @@
         <v>35</v>
       </c>
       <c r="O37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P37">
         <v>42</v>
@@ -3960,23 +4077,26 @@
       <c r="W37">
         <v>42</v>
       </c>
-      <c r="X37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y37">
+      <c r="X37">
+        <v>42</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z37">
         <v>484</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>7</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
       <c r="AB37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4020,7 +4140,7 @@
         <v>36</v>
       </c>
       <c r="O38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P38">
         <v>44</v>
@@ -4046,23 +4166,26 @@
       <c r="W38">
         <v>44</v>
       </c>
-      <c r="X38" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y38">
+      <c r="X38">
+        <v>44</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z38">
         <v>515</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>7</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
       <c r="AB38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4106,7 +4229,7 @@
         <v>37</v>
       </c>
       <c r="O39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P39">
         <v>46</v>
@@ -4132,23 +4255,26 @@
       <c r="W39">
         <v>46</v>
       </c>
-      <c r="X39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39">
+      <c r="X39">
+        <v>46</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z39">
         <v>603</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>7</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
       <c r="AB39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4192,7 +4318,7 @@
         <v>38</v>
       </c>
       <c r="O40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="P40">
         <v>48</v>
@@ -4218,23 +4344,26 @@
       <c r="W40">
         <v>48</v>
       </c>
-      <c r="X40" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y40">
+      <c r="X40">
+        <v>48</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z40">
         <v>733</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>9</v>
       </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
       <c r="AB40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4278,7 +4407,7 @@
         <v>39</v>
       </c>
       <c r="O41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P41">
         <v>50</v>
@@ -4304,23 +4433,26 @@
       <c r="W41">
         <v>50</v>
       </c>
-      <c r="X41" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y41">
+      <c r="X41">
+        <v>50</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z41">
         <v>849</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>15</v>
       </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
       <c r="AB41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4364,7 +4496,7 @@
         <v>40</v>
       </c>
       <c r="O42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="P42">
         <v>52</v>
@@ -4390,23 +4522,26 @@
       <c r="W42">
         <v>52</v>
       </c>
-      <c r="X42" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y42">
+      <c r="X42">
+        <v>52</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42">
         <v>966</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>16</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4450,7 +4585,7 @@
         <v>41</v>
       </c>
       <c r="O43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P43">
         <v>54</v>
@@ -4476,23 +4611,26 @@
       <c r="W43">
         <v>54</v>
       </c>
-      <c r="X43" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y43">
+      <c r="X43">
+        <v>54</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43">
         <v>1112</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>17</v>
       </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
       <c r="AB43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4536,7 +4674,7 @@
         <v>42</v>
       </c>
       <c r="O44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P44">
         <v>56</v>
@@ -4562,23 +4700,26 @@
       <c r="W44">
         <v>56</v>
       </c>
-      <c r="X44" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y44">
+      <c r="X44">
+        <v>56</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z44">
         <v>1209</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>18</v>
       </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
       <c r="AB44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4622,7 +4763,7 @@
         <v>43</v>
       </c>
       <c r="O45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P45">
         <v>58</v>
@@ -4648,23 +4789,26 @@
       <c r="W45">
         <v>58</v>
       </c>
-      <c r="X45" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y45">
+      <c r="X45">
+        <v>58</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z45">
         <v>1326</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>19</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4708,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="O46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P46">
         <v>60</v>
@@ -4734,23 +4878,26 @@
       <c r="W46">
         <v>60</v>
       </c>
-      <c r="X46" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y46">
+      <c r="X46">
+        <v>60</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z46">
         <v>1404</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>19</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
       <c r="AB46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4794,7 +4941,7 @@
         <v>45</v>
       </c>
       <c r="O47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="P47">
         <v>62</v>
@@ -4820,23 +4967,26 @@
       <c r="W47">
         <v>62</v>
       </c>
-      <c r="X47" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y47">
+      <c r="X47">
+        <v>62</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z47">
         <v>1454</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>31</v>
       </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
       <c r="AB47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4880,7 +5030,7 @@
         <v>46</v>
       </c>
       <c r="O48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="P48">
         <v>64</v>
@@ -4906,23 +5056,26 @@
       <c r="W48">
         <v>64</v>
       </c>
-      <c r="X48" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y48">
+      <c r="X48">
+        <v>64</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z48">
         <v>1530</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>36</v>
       </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
       <c r="AB48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4966,7 +5119,7 @@
         <v>47</v>
       </c>
       <c r="O49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P49">
         <v>66</v>
@@ -4992,23 +5145,26 @@
       <c r="W49">
         <v>66</v>
       </c>
-      <c r="X49" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y49">
+      <c r="X49">
+        <v>66</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z49">
         <v>1628</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>40</v>
       </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
       <c r="AB49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5052,7 +5208,7 @@
         <v>48</v>
       </c>
       <c r="O50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="P50">
         <v>68</v>
@@ -5078,23 +5234,26 @@
       <c r="W50">
         <v>68</v>
       </c>
-      <c r="X50" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y50">
+      <c r="X50">
+        <v>68</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z50">
         <v>1693</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>44</v>
       </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
       <c r="AB50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5138,7 +5297,7 @@
         <v>49</v>
       </c>
       <c r="O51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P51">
         <v>70</v>
@@ -5164,23 +5323,26 @@
       <c r="W51">
         <v>70</v>
       </c>
-      <c r="X51" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y51">
+      <c r="X51">
+        <v>70</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z51">
         <v>1761</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>45</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:29">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5224,7 +5386,7 @@
         <v>50</v>
       </c>
       <c r="O52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="P52">
         <v>72</v>
@@ -5250,23 +5412,26 @@
       <c r="W52">
         <v>72</v>
       </c>
-      <c r="X52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y52">
+      <c r="X52">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z52">
         <v>1804</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>45</v>
       </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
       <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:29">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5310,7 +5475,7 @@
         <v>51</v>
       </c>
       <c r="O53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P53">
         <v>74</v>
@@ -5336,23 +5501,26 @@
       <c r="W53">
         <v>74</v>
       </c>
-      <c r="X53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y53">
+      <c r="X53">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z53">
         <v>1847</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>47</v>
       </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
       <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:29">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5396,7 +5564,7 @@
         <v>52</v>
       </c>
       <c r="O54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P54">
         <v>76</v>
@@ -5422,23 +5590,26 @@
       <c r="W54">
         <v>76</v>
       </c>
-      <c r="X54" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y54">
+      <c r="X54">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z54">
         <v>1930</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>53</v>
       </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
       <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:29">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5482,7 +5653,7 @@
         <v>53</v>
       </c>
       <c r="O55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P55">
         <v>78</v>
@@ -5508,23 +5679,26 @@
       <c r="W55">
         <v>78</v>
       </c>
-      <c r="X55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y55">
+      <c r="X55">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z55">
         <v>2012</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>60</v>
       </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
       <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:29">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5568,7 +5742,7 @@
         <v>54</v>
       </c>
       <c r="O56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P56">
         <v>80</v>
@@ -5594,23 +5768,26 @@
       <c r="W56">
         <v>80</v>
       </c>
-      <c r="X56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y56">
+      <c r="X56">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z56">
         <v>2087</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>63</v>
       </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
       <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:29">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5654,7 +5831,7 @@
         <v>55</v>
       </c>
       <c r="O57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P57">
         <v>82</v>
@@ -5680,23 +5857,26 @@
       <c r="W57">
         <v>82</v>
       </c>
-      <c r="X57" t="s">
+      <c r="X57">
         <v>82</v>
       </c>
-      <c r="Y57">
+      <c r="Y57" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z57">
         <v>2158</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>70</v>
       </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
       <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:29">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5740,7 +5920,7 @@
         <v>56</v>
       </c>
       <c r="O58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="P58">
         <v>84</v>
@@ -5766,23 +5946,26 @@
       <c r="W58">
         <v>84</v>
       </c>
-      <c r="X58" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y58">
+      <c r="X58">
+        <v>84</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z58">
         <v>2213</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>71</v>
       </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
       <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:29">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5826,7 +6009,7 @@
         <v>57</v>
       </c>
       <c r="O59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P59">
         <v>86</v>
@@ -5852,23 +6035,26 @@
       <c r="W59">
         <v>86</v>
       </c>
-      <c r="X59" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y59">
+      <c r="X59">
+        <v>86</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z59">
         <v>2268</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>71</v>
       </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
       <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:29">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5912,7 +6098,7 @@
         <v>58</v>
       </c>
       <c r="O60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="P60">
         <v>88</v>
@@ -5938,23 +6124,26 @@
       <c r="W60">
         <v>88</v>
       </c>
-      <c r="X60" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y60">
+      <c r="X60">
+        <v>88</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z60">
         <v>2325</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>72</v>
       </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
       <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:29">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5998,7 +6187,7 @@
         <v>59</v>
       </c>
       <c r="O61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P61">
         <v>90</v>
@@ -6024,23 +6213,26 @@
       <c r="W61">
         <v>90</v>
       </c>
-      <c r="X61" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y61">
+      <c r="X61">
+        <v>90</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z61">
         <v>2491</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>96</v>
       </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
       <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:29">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6084,7 +6276,7 @@
         <v>60</v>
       </c>
       <c r="O62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P62">
         <v>92</v>
@@ -6110,23 +6302,26 @@
       <c r="W62">
         <v>92</v>
       </c>
-      <c r="X62" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y62">
+      <c r="X62">
+        <v>92</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z62">
         <v>2643</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>100</v>
       </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
       <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:29">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6170,7 +6365,7 @@
         <v>61</v>
       </c>
       <c r="O63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P63">
         <v>94</v>
@@ -6196,23 +6391,26 @@
       <c r="W63">
         <v>94</v>
       </c>
-      <c r="X63" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y63">
+      <c r="X63">
+        <v>94</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z63">
         <v>2826</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>102</v>
       </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
       <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:29">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6256,7 +6454,7 @@
         <v>62</v>
       </c>
       <c r="O64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="P64">
         <v>96</v>
@@ -6282,23 +6480,26 @@
       <c r="W64">
         <v>96</v>
       </c>
-      <c r="X64" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y64">
+      <c r="X64">
+        <v>96</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z64">
         <v>2943</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>111</v>
       </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
       <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:29">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6342,7 +6543,7 @@
         <v>63</v>
       </c>
       <c r="O65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="P65">
         <v>98</v>
@@ -6368,23 +6569,26 @@
       <c r="W65">
         <v>98</v>
       </c>
-      <c r="X65" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y65">
+      <c r="X65">
+        <v>98</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z65">
         <v>2943</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>111</v>
       </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
       <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:29">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6428,7 +6632,7 @@
         <v>64</v>
       </c>
       <c r="O66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="P66">
         <v>100</v>
@@ -6454,23 +6658,26 @@
       <c r="W66">
         <v>100</v>
       </c>
-      <c r="X66" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y66">
+      <c r="X66">
+        <v>100</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z66">
         <v>3043</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>111</v>
       </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
       <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:29">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6514,7 +6721,7 @@
         <v>65</v>
       </c>
       <c r="O67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="P67">
         <v>102</v>
@@ -6540,23 +6747,26 @@
       <c r="W67">
         <v>102</v>
       </c>
-      <c r="X67" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y67">
+      <c r="X67">
+        <v>102</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z67">
         <v>3141</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>113</v>
       </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
       <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:29">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6600,7 +6810,7 @@
         <v>66</v>
       </c>
       <c r="O68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="P68">
         <v>104</v>
@@ -6626,23 +6836,26 @@
       <c r="W68">
         <v>104</v>
       </c>
-      <c r="X68" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y68">
+      <c r="X68">
+        <v>104</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z68">
         <v>3432</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>120</v>
       </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
       <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:29">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6686,7 +6899,7 @@
         <v>67</v>
       </c>
       <c r="O69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="P69">
         <v>106</v>
@@ -6712,23 +6925,26 @@
       <c r="W69">
         <v>106</v>
       </c>
-      <c r="X69" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y69">
+      <c r="X69">
+        <v>106</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z69">
         <v>3432</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>120</v>
       </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
       <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:29">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6772,7 +6988,7 @@
         <v>68</v>
       </c>
       <c r="O70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="P70">
         <v>108</v>
@@ -6798,23 +7014,26 @@
       <c r="W70">
         <v>108</v>
       </c>
-      <c r="X70" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y70">
+      <c r="X70">
+        <v>108</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z70">
         <v>3564</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>124</v>
       </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
       <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:29">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6858,7 +7077,7 @@
         <v>69</v>
       </c>
       <c r="O71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="P71">
         <v>110</v>
@@ -6884,23 +7103,26 @@
       <c r="W71">
         <v>110</v>
       </c>
-      <c r="X71" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y71">
+      <c r="X71">
+        <v>110</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z71">
         <v>3711</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>134</v>
       </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
       <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:29">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6944,7 +7166,7 @@
         <v>70</v>
       </c>
       <c r="O72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="P72">
         <v>112</v>
@@ -6970,23 +7192,26 @@
       <c r="W72">
         <v>112</v>
       </c>
-      <c r="X72" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y72">
+      <c r="X72">
+        <v>112</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z72">
         <v>3927</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>139</v>
       </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
       <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:29">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7030,7 +7255,7 @@
         <v>71</v>
       </c>
       <c r="O73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="P73">
         <v>114</v>
@@ -7056,23 +7281,26 @@
       <c r="W73">
         <v>114</v>
       </c>
-      <c r="X73" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y73">
+      <c r="X73">
+        <v>114</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z73">
         <v>3927</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>139</v>
       </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
       <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:29">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7116,7 +7344,7 @@
         <v>72</v>
       </c>
       <c r="O74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="P74">
         <v>116</v>
@@ -7142,23 +7370,26 @@
       <c r="W74">
         <v>116</v>
       </c>
-      <c r="X74" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y74">
+      <c r="X74">
+        <v>116</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z74">
         <v>4020</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>144</v>
       </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
       <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:29">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7202,7 +7433,7 @@
         <v>73</v>
       </c>
       <c r="O75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="P75">
         <v>118</v>
@@ -7228,23 +7459,26 @@
       <c r="W75">
         <v>118</v>
       </c>
-      <c r="X75" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y75">
+      <c r="X75">
+        <v>118</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z75">
         <v>4319</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>158</v>
       </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
       <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:29">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7288,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="O76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="P76">
         <v>120</v>
@@ -7314,23 +7548,26 @@
       <c r="W76">
         <v>120</v>
       </c>
-      <c r="X76" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y76">
+      <c r="X76">
+        <v>120</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z76">
         <v>4319</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>158</v>
       </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
       <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:29">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7374,7 +7611,7 @@
         <v>75</v>
       </c>
       <c r="O77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="P77">
         <v>122</v>
@@ -7400,23 +7637,26 @@
       <c r="W77">
         <v>122</v>
       </c>
-      <c r="X77" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y77">
+      <c r="X77">
+        <v>122</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z77">
         <v>4429</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>165</v>
       </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
       <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:29">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7460,7 +7700,7 @@
         <v>76</v>
       </c>
       <c r="O78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="P78">
         <v>124</v>
@@ -7486,23 +7726,26 @@
       <c r="W78">
         <v>124</v>
       </c>
-      <c r="X78" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y78">
+      <c r="X78">
+        <v>124</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z78">
         <v>4662</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>169</v>
       </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
       <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:29">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7546,7 +7789,7 @@
         <v>77</v>
       </c>
       <c r="O79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="P79">
         <v>126</v>
@@ -7572,23 +7815,26 @@
       <c r="W79">
         <v>126</v>
       </c>
-      <c r="X79" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y79">
+      <c r="X79">
+        <v>126</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z79">
         <v>4776</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>175</v>
       </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
       <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:29">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7632,7 +7878,7 @@
         <v>78</v>
       </c>
       <c r="O80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="P80">
         <v>128</v>
@@ -7658,23 +7904,26 @@
       <c r="W80">
         <v>128</v>
       </c>
-      <c r="X80" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y80">
+      <c r="X80">
+        <v>128</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z80">
         <v>5065</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>175</v>
       </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
       <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:29">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7718,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="O81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="P81">
         <v>130</v>
@@ -7744,23 +7993,26 @@
       <c r="W81">
         <v>130</v>
       </c>
-      <c r="X81" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y81">
+      <c r="X81">
+        <v>130</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z81">
         <v>5161</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>190</v>
       </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
       <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:29">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7804,7 +8056,7 @@
         <v>80</v>
       </c>
       <c r="O82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="P82">
         <v>132</v>
@@ -7830,23 +8082,26 @@
       <c r="W82">
         <v>132</v>
       </c>
-      <c r="X82" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y82">
+      <c r="X82">
+        <v>132</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z82">
         <v>5161</v>
       </c>
-      <c r="Z82">
+      <c r="AA82">
         <v>190</v>
       </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
       <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:29">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7890,7 +8145,7 @@
         <v>81</v>
       </c>
       <c r="O83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="P83">
         <v>134</v>
@@ -7916,23 +8171,26 @@
       <c r="W83">
         <v>134</v>
       </c>
-      <c r="X83" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y83">
+      <c r="X83">
+        <v>134</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z83">
         <v>5391</v>
       </c>
-      <c r="Z83">
+      <c r="AA83">
         <v>200</v>
       </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
       <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:29">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7976,7 +8234,7 @@
         <v>82</v>
       </c>
       <c r="O84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="P84">
         <v>136</v>
@@ -8002,23 +8260,26 @@
       <c r="W84">
         <v>136</v>
       </c>
-      <c r="X84" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y84">
+      <c r="X84">
+        <v>136</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z84">
         <v>5391</v>
       </c>
-      <c r="Z84">
+      <c r="AA84">
         <v>200</v>
       </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
       <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:29">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8062,7 +8323,7 @@
         <v>83</v>
       </c>
       <c r="O85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="P85">
         <v>138</v>
@@ -8088,23 +8349,26 @@
       <c r="W85">
         <v>138</v>
       </c>
-      <c r="X85" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y85">
+      <c r="X85">
+        <v>138</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z85">
         <v>5662</v>
       </c>
-      <c r="Z85">
+      <c r="AA85">
         <v>209</v>
       </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
       <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:29">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8148,7 +8412,7 @@
         <v>84</v>
       </c>
       <c r="O86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="P86">
         <v>140</v>
@@ -8174,23 +8438,26 @@
       <c r="W86">
         <v>140</v>
       </c>
-      <c r="X86" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y86">
+      <c r="X86">
+        <v>140</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z86">
         <v>5836</v>
       </c>
-      <c r="Z86">
+      <c r="AA86">
         <v>209</v>
       </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
       <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:29">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8234,7 +8501,7 @@
         <v>85</v>
       </c>
       <c r="O87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="P87">
         <v>142</v>
@@ -8260,23 +8527,26 @@
       <c r="W87">
         <v>142</v>
       </c>
-      <c r="X87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y87">
+      <c r="X87">
+        <v>142</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z87">
         <v>5836</v>
       </c>
-      <c r="Z87">
+      <c r="AA87">
         <v>209</v>
       </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
       <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:29">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8320,7 +8590,7 @@
         <v>86</v>
       </c>
       <c r="O88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="P88">
         <v>144</v>
@@ -8346,23 +8616,26 @@
       <c r="W88">
         <v>144</v>
       </c>
-      <c r="X88" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y88">
+      <c r="X88">
+        <v>144</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z88">
         <v>6026</v>
       </c>
-      <c r="Z88">
+      <c r="AA88">
         <v>222</v>
       </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
       <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:29">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8406,7 +8679,7 @@
         <v>87</v>
       </c>
       <c r="O89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="P89">
         <v>146</v>
@@ -8432,23 +8705,26 @@
       <c r="W89">
         <v>146</v>
       </c>
-      <c r="X89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y89">
+      <c r="X89">
+        <v>146</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z89">
         <v>6140</v>
       </c>
-      <c r="Z89">
+      <c r="AA89">
         <v>230</v>
       </c>
-      <c r="AA89">
-        <v>0</v>
-      </c>
       <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:29">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8492,7 +8768,7 @@
         <v>88</v>
       </c>
       <c r="O90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="P90">
         <v>148</v>
@@ -8518,23 +8794,26 @@
       <c r="W90">
         <v>148</v>
       </c>
-      <c r="X90" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y90">
+      <c r="X90">
+        <v>148</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z90">
         <v>6140</v>
       </c>
-      <c r="Z90">
+      <c r="AA90">
         <v>230</v>
       </c>
-      <c r="AA90">
-        <v>0</v>
-      </c>
       <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:29">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8578,7 +8857,7 @@
         <v>89</v>
       </c>
       <c r="O91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="P91">
         <v>150</v>
@@ -8604,23 +8883,26 @@
       <c r="W91">
         <v>150</v>
       </c>
-      <c r="X91" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y91">
+      <c r="X91">
+        <v>150</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z91">
         <v>6315</v>
       </c>
-      <c r="Z91">
+      <c r="AA91">
         <v>241</v>
       </c>
-      <c r="AA91">
-        <v>0</v>
-      </c>
       <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:29">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8664,7 +8946,7 @@
         <v>90</v>
       </c>
       <c r="O92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="P92">
         <v>152</v>
@@ -8690,23 +8972,26 @@
       <c r="W92">
         <v>152</v>
       </c>
-      <c r="X92" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y92">
+      <c r="X92">
+        <v>152</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z92">
         <v>6559</v>
       </c>
-      <c r="Z92">
+      <c r="AA92">
         <v>249</v>
       </c>
-      <c r="AA92">
-        <v>0</v>
-      </c>
       <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:29">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8750,7 +9035,7 @@
         <v>91</v>
       </c>
       <c r="O93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="P93">
         <v>154</v>
@@ -8776,23 +9061,26 @@
       <c r="W93">
         <v>154</v>
       </c>
-      <c r="X93" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y93">
+      <c r="X93">
+        <v>154</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z93">
         <v>6559</v>
       </c>
-      <c r="Z93">
+      <c r="AA93">
         <v>249</v>
       </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
       <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:29">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8836,7 +9124,7 @@
         <v>92</v>
       </c>
       <c r="O94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="P94">
         <v>156</v>
@@ -8862,23 +9150,26 @@
       <c r="W94">
         <v>156</v>
       </c>
-      <c r="X94" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y94">
+      <c r="X94">
+        <v>156</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z94">
         <v>6701</v>
       </c>
-      <c r="Z94">
+      <c r="AA94">
         <v>249</v>
       </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
       <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:29">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8922,7 +9213,7 @@
         <v>93</v>
       </c>
       <c r="O95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="P95">
         <v>158</v>
@@ -8948,23 +9239,26 @@
       <c r="W95">
         <v>158</v>
       </c>
-      <c r="X95" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y95">
+      <c r="X95">
+        <v>158</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z95">
         <v>6797</v>
       </c>
-      <c r="Z95">
+      <c r="AA95">
         <v>249</v>
       </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
       <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:29">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9008,7 +9302,7 @@
         <v>94</v>
       </c>
       <c r="O96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="P96">
         <v>160</v>
@@ -9034,23 +9328,26 @@
       <c r="W96">
         <v>160</v>
       </c>
-      <c r="X96" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y96">
+      <c r="X96">
+        <v>160</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z96">
         <v>6882</v>
       </c>
-      <c r="Z96">
+      <c r="AA96">
         <v>249</v>
       </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
       <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9094,7 +9391,7 @@
         <v>95</v>
       </c>
       <c r="O97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="P97">
         <v>162</v>
@@ -9120,23 +9417,26 @@
       <c r="W97">
         <v>162</v>
       </c>
-      <c r="X97" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y97">
+      <c r="X97">
+        <v>162</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z97">
         <v>7100</v>
       </c>
-      <c r="Z97">
+      <c r="AA97">
         <v>260</v>
       </c>
-      <c r="AA97">
-        <v>0</v>
-      </c>
       <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:29">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9180,7 +9480,7 @@
         <v>96</v>
       </c>
       <c r="O98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="P98">
         <v>164</v>
@@ -9206,23 +9506,26 @@
       <c r="W98">
         <v>164</v>
       </c>
-      <c r="X98" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y98">
+      <c r="X98">
+        <v>164</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z98">
         <v>7100</v>
       </c>
-      <c r="Z98">
+      <c r="AA98">
         <v>260</v>
       </c>
-      <c r="AA98">
-        <v>0</v>
-      </c>
       <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:29">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9266,7 +9569,7 @@
         <v>97</v>
       </c>
       <c r="O99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="P99">
         <v>166</v>
@@ -9292,23 +9595,26 @@
       <c r="W99">
         <v>166</v>
       </c>
-      <c r="X99" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y99">
+      <c r="X99">
+        <v>166</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z99">
         <v>7385</v>
       </c>
-      <c r="Z99">
+      <c r="AA99">
         <v>269</v>
       </c>
-      <c r="AA99">
-        <v>0</v>
-      </c>
       <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:29">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9352,7 +9658,7 @@
         <v>98</v>
       </c>
       <c r="O100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="P100">
         <v>168</v>
@@ -9378,23 +9684,26 @@
       <c r="W100">
         <v>168</v>
       </c>
-      <c r="X100" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y100">
+      <c r="X100">
+        <v>168</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z100">
         <v>7481</v>
       </c>
-      <c r="Z100">
+      <c r="AA100">
         <v>269</v>
       </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
       <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:29">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9438,7 +9747,7 @@
         <v>99</v>
       </c>
       <c r="O101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="P101">
         <v>170</v>
@@ -9464,23 +9773,26 @@
       <c r="W101">
         <v>170</v>
       </c>
-      <c r="X101" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y101">
+      <c r="X101">
+        <v>170</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101">
         <v>7481</v>
       </c>
-      <c r="Z101">
+      <c r="AA101">
         <v>269</v>
       </c>
-      <c r="AA101">
-        <v>0</v>
-      </c>
       <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:29">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9524,7 +9836,7 @@
         <v>100</v>
       </c>
       <c r="O102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="P102">
         <v>172</v>
@@ -9550,23 +9862,26 @@
       <c r="W102">
         <v>172</v>
       </c>
-      <c r="X102" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y102">
+      <c r="X102">
+        <v>172</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z102">
         <v>7554</v>
       </c>
-      <c r="Z102">
+      <c r="AA102">
         <v>269</v>
       </c>
-      <c r="AA102">
-        <v>0</v>
-      </c>
       <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:29">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9610,7 +9925,7 @@
         <v>101</v>
       </c>
       <c r="O103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="P103">
         <v>174</v>
@@ -9636,23 +9951,26 @@
       <c r="W103">
         <v>174</v>
       </c>
-      <c r="X103" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y103">
+      <c r="X103">
+        <v>174</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z103">
         <v>7674</v>
       </c>
-      <c r="Z103">
+      <c r="AA103">
         <v>276</v>
       </c>
-      <c r="AA103">
-        <v>0</v>
-      </c>
       <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:29">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9696,7 +10014,7 @@
         <v>102</v>
       </c>
       <c r="O104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="P104">
         <v>176</v>
@@ -9722,23 +10040,26 @@
       <c r="W104">
         <v>176</v>
       </c>
-      <c r="X104" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y104">
+      <c r="X104">
+        <v>176</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z104">
         <v>7798</v>
       </c>
-      <c r="Z104">
+      <c r="AA104">
         <v>283</v>
       </c>
-      <c r="AA104">
-        <v>0</v>
-      </c>
       <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:29">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9782,7 +10103,7 @@
         <v>103</v>
       </c>
       <c r="O105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="P105">
         <v>178</v>
@@ -9808,23 +10129,26 @@
       <c r="W105">
         <v>178</v>
       </c>
-      <c r="X105" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y105">
+      <c r="X105">
+        <v>178</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z105">
         <v>7940</v>
       </c>
-      <c r="Z105">
+      <c r="AA105">
         <v>288</v>
       </c>
-      <c r="AA105">
-        <v>0</v>
-      </c>
       <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:29">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9868,7 +10192,7 @@
         <v>104</v>
       </c>
       <c r="O106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="P106">
         <v>180</v>
@@ -9894,23 +10218,26 @@
       <c r="W106">
         <v>180</v>
       </c>
-      <c r="X106" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y106">
+      <c r="X106">
+        <v>180</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z106">
         <v>8345</v>
       </c>
-      <c r="Z106">
+      <c r="AA106">
         <v>296</v>
       </c>
-      <c r="AA106">
-        <v>0</v>
-      </c>
       <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:29">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9954,7 +10281,7 @@
         <v>105</v>
       </c>
       <c r="O107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="P107">
         <v>182</v>
@@ -9980,23 +10307,26 @@
       <c r="W107">
         <v>182</v>
       </c>
-      <c r="X107" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y107">
+      <c r="X107">
+        <v>182</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z107">
         <v>8345</v>
       </c>
-      <c r="Z107">
+      <c r="AA107">
         <v>296</v>
       </c>
-      <c r="AA107">
-        <v>0</v>
-      </c>
       <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:29">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10040,7 +10370,7 @@
         <v>106</v>
       </c>
       <c r="O108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="P108">
         <v>184</v>
@@ -10066,23 +10396,26 @@
       <c r="W108">
         <v>184</v>
       </c>
-      <c r="X108" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y108">
+      <c r="X108">
+        <v>184</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z108">
         <v>8619</v>
       </c>
-      <c r="Z108">
+      <c r="AA108">
         <v>296</v>
       </c>
-      <c r="AA108">
-        <v>0</v>
-      </c>
       <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:29">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10126,7 +10459,7 @@
         <v>107</v>
       </c>
       <c r="O109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="P109">
         <v>186</v>
@@ -10152,23 +10485,26 @@
       <c r="W109">
         <v>186</v>
       </c>
-      <c r="X109" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y109">
+      <c r="X109">
+        <v>186</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z109">
         <v>8619</v>
       </c>
-      <c r="Z109">
+      <c r="AA109">
         <v>296</v>
       </c>
-      <c r="AA109">
-        <v>0</v>
-      </c>
       <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:29">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10212,7 +10548,7 @@
         <v>108</v>
       </c>
       <c r="O110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="P110">
         <v>188</v>
@@ -10238,23 +10574,26 @@
       <c r="W110">
         <v>188</v>
       </c>
-      <c r="X110" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y110">
+      <c r="X110">
+        <v>188</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z110">
         <v>8837</v>
       </c>
-      <c r="Z110">
+      <c r="AA110">
         <v>305</v>
       </c>
-      <c r="AA110">
-        <v>0</v>
-      </c>
       <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:29">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10298,7 +10637,7 @@
         <v>109</v>
       </c>
       <c r="O111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="P111">
         <v>190</v>
@@ -10324,23 +10663,26 @@
       <c r="W111">
         <v>190</v>
       </c>
-      <c r="X111" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y111">
+      <c r="X111">
+        <v>190</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z111">
         <v>8998</v>
       </c>
-      <c r="Z111">
+      <c r="AA111">
         <v>308</v>
       </c>
-      <c r="AA111">
-        <v>0</v>
-      </c>
       <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:29">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10377,23 +10719,26 @@
       <c r="L112">
         <v>110</v>
       </c>
-      <c r="X112" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y112">
+      <c r="M112">
+        <v>110</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z112">
         <v>8998</v>
       </c>
-      <c r="Z112">
+      <c r="AA112">
         <v>308</v>
       </c>
-      <c r="AA112">
-        <v>0</v>
-      </c>
       <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
         <v>8690</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10424,40 +10769,86 @@
       <c r="J113">
         <v>111</v>
       </c>
-      <c r="X113" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y113">
+      <c r="K113">
+        <v>111</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z113">
         <v>9314</v>
       </c>
-      <c r="Z113">
+      <c r="AA113">
         <v>319</v>
       </c>
-      <c r="AA113">
-        <v>0</v>
-      </c>
       <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
         <v>8995</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:29">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="X114" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y114">
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z114">
         <v>9440</v>
       </c>
-      <c r="Z114">
+      <c r="AA114">
         <v>319</v>
       </c>
-      <c r="AA114">
-        <v>0</v>
-      </c>
       <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
         <v>9121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z115">
+        <v>9610</v>
+      </c>
+      <c r="AA115">
+        <v>320</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z116">
+        <v>9730</v>
+      </c>
+      <c r="AA116">
+        <v>323</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>9407</v>
       </c>
     </row>
   </sheetData>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -443,6 +446,9 @@
   </si>
   <si>
     <t>06-16-2020</t>
+  </si>
+  <si>
+    <t>06-17-2020</t>
   </si>
 </sst>
 </file>
@@ -800,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AD117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -965,23 +974,26 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2">
         <v>1</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1054,14 +1066,14 @@
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3">
+      <c r="Y3">
         <v>1</v>
       </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1069,8 +1081,11 @@
       <c r="AC3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1143,14 +1158,14 @@
       <c r="X4">
         <v>2</v>
       </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4">
+      <c r="Y4">
         <v>2</v>
       </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1158,8 +1173,11 @@
       <c r="AC4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1232,23 +1250,26 @@
       <c r="X5">
         <v>3</v>
       </c>
-      <c r="Y5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5">
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5">
         <v>2</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1321,23 +1342,26 @@
       <c r="X6">
         <v>4</v>
       </c>
-      <c r="Y6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6">
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1410,23 +1434,26 @@
       <c r="X7">
         <v>5</v>
       </c>
-      <c r="Y7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7">
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7">
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1499,23 +1526,26 @@
       <c r="X8">
         <v>6</v>
       </c>
-      <c r="Y8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8">
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1588,23 +1618,26 @@
       <c r="X9">
         <v>7</v>
       </c>
-      <c r="Y9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9">
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9">
         <v>2</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1677,23 +1710,26 @@
       <c r="X10">
         <v>8</v>
       </c>
-      <c r="Y10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10">
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10">
         <v>2</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1766,23 +1802,26 @@
       <c r="X11">
         <v>9</v>
       </c>
-      <c r="Y11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11">
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11">
         <v>2</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1855,23 +1894,26 @@
       <c r="X12">
         <v>10</v>
       </c>
-      <c r="Y12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12">
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12">
         <v>2</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>1</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1944,23 +1986,26 @@
       <c r="X13">
         <v>11</v>
       </c>
-      <c r="Y13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13">
+      <c r="Y13">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13">
         <v>2</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
       <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>1</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2033,23 +2078,26 @@
       <c r="X14">
         <v>12</v>
       </c>
-      <c r="Y14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14">
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14">
         <v>2</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2122,23 +2170,26 @@
       <c r="X15">
         <v>13</v>
       </c>
-      <c r="Y15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z15">
+      <c r="Y15">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15">
         <v>2</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>1</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2211,23 +2262,26 @@
       <c r="X16">
         <v>14</v>
       </c>
-      <c r="Y16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z16">
+      <c r="Y16">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA16">
         <v>2</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2300,23 +2354,26 @@
       <c r="X17">
         <v>15</v>
       </c>
-      <c r="Y17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17">
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17">
         <v>2</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
         <v>1</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2389,23 +2446,26 @@
       <c r="X18">
         <v>16</v>
       </c>
-      <c r="Y18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z18">
+      <c r="Y18">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18">
         <v>2</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
       <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
         <v>1</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2478,23 +2538,26 @@
       <c r="X19">
         <v>17</v>
       </c>
-      <c r="Y19" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z19">
+      <c r="Y19">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA19">
         <v>2</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
       <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
         <v>1</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2567,23 +2630,26 @@
       <c r="X20">
         <v>18</v>
       </c>
-      <c r="Y20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z20">
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA20">
         <v>2</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
         <v>1</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2656,23 +2722,26 @@
       <c r="X21">
         <v>19</v>
       </c>
-      <c r="Y21" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z21">
+      <c r="Y21">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21">
         <v>2</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>1</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2745,23 +2814,26 @@
       <c r="X22">
         <v>20</v>
       </c>
-      <c r="Y22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z22">
+      <c r="Y22">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22">
         <v>2</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>1</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2834,23 +2906,26 @@
       <c r="X23">
         <v>21</v>
       </c>
-      <c r="Y23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z23">
+      <c r="Y23">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23">
         <v>2</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>1</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2923,23 +2998,26 @@
       <c r="X24">
         <v>22</v>
       </c>
-      <c r="Y24" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z24">
+      <c r="Y24">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA24">
         <v>2</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>1</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3012,23 +3090,26 @@
       <c r="X25">
         <v>23</v>
       </c>
-      <c r="Y25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z25">
+      <c r="Y25">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA25">
         <v>3</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3101,23 +3182,26 @@
       <c r="X26">
         <v>24</v>
       </c>
-      <c r="Y26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z26">
+      <c r="Y26">
+        <v>24</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26">
         <v>3</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
       <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3190,23 +3274,26 @@
       <c r="X27">
         <v>25</v>
       </c>
-      <c r="Y27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z27">
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA27">
         <v>3</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
       <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <v>1</v>
       </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3279,23 +3366,26 @@
       <c r="X28">
         <v>26</v>
       </c>
-      <c r="Y28" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z28">
+      <c r="Y28">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA28">
         <v>3</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
       <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
         <v>1</v>
       </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3368,23 +3458,26 @@
       <c r="X29">
         <v>27</v>
       </c>
-      <c r="Y29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z29">
+      <c r="Y29">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
         <v>3</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
       <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <v>1</v>
       </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3457,23 +3550,26 @@
       <c r="X30">
         <v>28</v>
       </c>
-      <c r="Y30" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z30">
+      <c r="Y30">
+        <v>28</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA30">
         <v>155</v>
       </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3520,7 +3616,7 @@
         <v>29</v>
       </c>
       <c r="P31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q31">
         <v>30</v>
@@ -3546,23 +3642,26 @@
       <c r="X31">
         <v>30</v>
       </c>
-      <c r="Y31" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z31">
+      <c r="Y31">
+        <v>30</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA31">
         <v>201</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1</v>
       </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
       <c r="AC31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3609,7 +3708,7 @@
         <v>30</v>
       </c>
       <c r="P32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q32">
         <v>32</v>
@@ -3635,23 +3734,26 @@
       <c r="X32">
         <v>32</v>
       </c>
-      <c r="Y32" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z32">
+      <c r="Y32">
+        <v>32</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA32">
         <v>226</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
       <c r="AC32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3698,7 +3800,7 @@
         <v>31</v>
       </c>
       <c r="P33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q33">
         <v>34</v>
@@ -3724,23 +3826,26 @@
       <c r="X33">
         <v>34</v>
       </c>
-      <c r="Y33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z33">
+      <c r="Y33">
+        <v>34</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA33">
         <v>238</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>2</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
       <c r="AC33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3787,7 +3892,7 @@
         <v>32</v>
       </c>
       <c r="P34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q34">
         <v>36</v>
@@ -3813,23 +3918,26 @@
       <c r="X34">
         <v>36</v>
       </c>
-      <c r="Y34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z34">
+      <c r="Y34">
+        <v>36</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34">
         <v>293</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>3</v>
       </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
       <c r="AC34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3876,7 +3984,7 @@
         <v>33</v>
       </c>
       <c r="P35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q35">
         <v>38</v>
@@ -3902,23 +4010,26 @@
       <c r="X35">
         <v>38</v>
       </c>
-      <c r="Y35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z35">
+      <c r="Y35">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA35">
         <v>341</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>3</v>
       </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3965,7 +4076,7 @@
         <v>34</v>
       </c>
       <c r="P36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q36">
         <v>40</v>
@@ -3991,23 +4102,26 @@
       <c r="X36">
         <v>40</v>
       </c>
-      <c r="Y36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z36">
+      <c r="Y36">
+        <v>40</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36">
         <v>413</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>6</v>
       </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
       <c r="AC36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4054,7 +4168,7 @@
         <v>35</v>
       </c>
       <c r="P37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q37">
         <v>42</v>
@@ -4080,23 +4194,26 @@
       <c r="X37">
         <v>42</v>
       </c>
-      <c r="Y37" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z37">
+      <c r="Y37">
+        <v>42</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA37">
         <v>484</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>7</v>
       </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4143,7 +4260,7 @@
         <v>36</v>
       </c>
       <c r="P38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q38">
         <v>44</v>
@@ -4169,23 +4286,26 @@
       <c r="X38">
         <v>44</v>
       </c>
-      <c r="Y38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z38">
+      <c r="Y38">
+        <v>44</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA38">
         <v>515</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>7</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
       <c r="AC38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4232,7 +4352,7 @@
         <v>37</v>
       </c>
       <c r="P39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q39">
         <v>46</v>
@@ -4258,23 +4378,26 @@
       <c r="X39">
         <v>46</v>
       </c>
-      <c r="Y39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z39">
+      <c r="Y39">
+        <v>46</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39">
         <v>603</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>7</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4321,7 +4444,7 @@
         <v>38</v>
       </c>
       <c r="P40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q40">
         <v>48</v>
@@ -4347,23 +4470,26 @@
       <c r="X40">
         <v>48</v>
       </c>
-      <c r="Y40" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z40">
+      <c r="Y40">
+        <v>48</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA40">
         <v>733</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>9</v>
       </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
       <c r="AC40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4410,7 +4536,7 @@
         <v>39</v>
       </c>
       <c r="P41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Q41">
         <v>50</v>
@@ -4436,23 +4562,26 @@
       <c r="X41">
         <v>50</v>
       </c>
-      <c r="Y41" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z41">
+      <c r="Y41">
+        <v>50</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA41">
         <v>849</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>15</v>
       </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4499,7 +4628,7 @@
         <v>40</v>
       </c>
       <c r="P42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q42">
         <v>52</v>
@@ -4525,23 +4654,26 @@
       <c r="X42">
         <v>52</v>
       </c>
-      <c r="Y42" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z42">
+      <c r="Y42">
+        <v>52</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA42">
         <v>966</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>16</v>
       </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
       <c r="AC42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4588,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="P43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q43">
         <v>54</v>
@@ -4614,23 +4746,26 @@
       <c r="X43">
         <v>54</v>
       </c>
-      <c r="Y43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z43">
+      <c r="Y43">
+        <v>54</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA43">
         <v>1112</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>17</v>
       </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
       <c r="AC43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4677,7 +4812,7 @@
         <v>42</v>
       </c>
       <c r="P44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q44">
         <v>56</v>
@@ -4703,23 +4838,26 @@
       <c r="X44">
         <v>56</v>
       </c>
-      <c r="Y44" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z44">
+      <c r="Y44">
+        <v>56</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA44">
         <v>1209</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>18</v>
       </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4766,7 +4904,7 @@
         <v>43</v>
       </c>
       <c r="P45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="Q45">
         <v>58</v>
@@ -4792,23 +4930,26 @@
       <c r="X45">
         <v>58</v>
       </c>
-      <c r="Y45" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z45">
+      <c r="Y45">
+        <v>58</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA45">
         <v>1326</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>19</v>
       </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
       <c r="AC45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4855,7 +4996,7 @@
         <v>44</v>
       </c>
       <c r="P46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q46">
         <v>60</v>
@@ -4881,23 +5022,26 @@
       <c r="X46">
         <v>60</v>
       </c>
-      <c r="Y46" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z46">
+      <c r="Y46">
+        <v>60</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA46">
         <v>1404</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>19</v>
       </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
       <c r="AC46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4944,7 +5088,7 @@
         <v>45</v>
       </c>
       <c r="P47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Q47">
         <v>62</v>
@@ -4970,23 +5114,26 @@
       <c r="X47">
         <v>62</v>
       </c>
-      <c r="Y47" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z47">
+      <c r="Y47">
+        <v>62</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA47">
         <v>1454</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>31</v>
       </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
       <c r="AC47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5033,7 +5180,7 @@
         <v>46</v>
       </c>
       <c r="P48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="Q48">
         <v>64</v>
@@ -5059,23 +5206,26 @@
       <c r="X48">
         <v>64</v>
       </c>
-      <c r="Y48" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z48">
+      <c r="Y48">
+        <v>64</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA48">
         <v>1530</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>36</v>
       </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
       <c r="AC48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5122,7 +5272,7 @@
         <v>47</v>
       </c>
       <c r="P49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Q49">
         <v>66</v>
@@ -5148,23 +5298,26 @@
       <c r="X49">
         <v>66</v>
       </c>
-      <c r="Y49" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z49">
+      <c r="Y49">
+        <v>66</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA49">
         <v>1628</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>40</v>
       </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
       <c r="AC49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5211,7 +5364,7 @@
         <v>48</v>
       </c>
       <c r="P50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="Q50">
         <v>68</v>
@@ -5237,23 +5390,26 @@
       <c r="X50">
         <v>68</v>
       </c>
-      <c r="Y50" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z50">
+      <c r="Y50">
+        <v>68</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA50">
         <v>1693</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>44</v>
       </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
       <c r="AC50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5300,7 +5456,7 @@
         <v>49</v>
       </c>
       <c r="P51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q51">
         <v>70</v>
@@ -5326,23 +5482,26 @@
       <c r="X51">
         <v>70</v>
       </c>
-      <c r="Y51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z51">
+      <c r="Y51">
+        <v>70</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA51">
         <v>1761</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>45</v>
       </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
       <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5389,7 +5548,7 @@
         <v>50</v>
       </c>
       <c r="P52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="Q52">
         <v>72</v>
@@ -5415,23 +5574,26 @@
       <c r="X52">
         <v>72</v>
       </c>
-      <c r="Y52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z52">
+      <c r="Y52">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA52">
         <v>1804</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>45</v>
       </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
       <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5478,7 +5640,7 @@
         <v>51</v>
       </c>
       <c r="P53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="Q53">
         <v>74</v>
@@ -5504,23 +5666,26 @@
       <c r="X53">
         <v>74</v>
       </c>
-      <c r="Y53" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z53">
+      <c r="Y53">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA53">
         <v>1847</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>47</v>
       </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
       <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5567,7 +5732,7 @@
         <v>52</v>
       </c>
       <c r="P54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Q54">
         <v>76</v>
@@ -5593,23 +5758,26 @@
       <c r="X54">
         <v>76</v>
       </c>
-      <c r="Y54" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z54">
+      <c r="Y54">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA54">
         <v>1930</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>53</v>
       </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
       <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5656,7 +5824,7 @@
         <v>53</v>
       </c>
       <c r="P55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="Q55">
         <v>78</v>
@@ -5682,23 +5850,26 @@
       <c r="X55">
         <v>78</v>
       </c>
-      <c r="Y55" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z55">
+      <c r="Y55">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA55">
         <v>2012</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>60</v>
       </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
       <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5745,7 +5916,7 @@
         <v>54</v>
       </c>
       <c r="P56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Q56">
         <v>80</v>
@@ -5771,23 +5942,26 @@
       <c r="X56">
         <v>80</v>
       </c>
-      <c r="Y56" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z56">
+      <c r="Y56">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA56">
         <v>2087</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>63</v>
       </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
       <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5834,7 +6008,7 @@
         <v>55</v>
       </c>
       <c r="P57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="Q57">
         <v>82</v>
@@ -5860,23 +6034,26 @@
       <c r="X57">
         <v>82</v>
       </c>
-      <c r="Y57" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z57">
+      <c r="Y57">
+        <v>82</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA57">
         <v>2158</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>70</v>
       </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
       <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5923,7 +6100,7 @@
         <v>56</v>
       </c>
       <c r="P58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="Q58">
         <v>84</v>
@@ -5949,23 +6126,26 @@
       <c r="X58">
         <v>84</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Y58">
         <v>84</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA58">
         <v>2213</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>71</v>
       </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
       <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6012,7 +6192,7 @@
         <v>57</v>
       </c>
       <c r="P59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q59">
         <v>86</v>
@@ -6038,23 +6218,26 @@
       <c r="X59">
         <v>86</v>
       </c>
-      <c r="Y59" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z59">
+      <c r="Y59">
+        <v>86</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA59">
         <v>2268</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>71</v>
       </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
       <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6101,7 +6284,7 @@
         <v>58</v>
       </c>
       <c r="P60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="Q60">
         <v>88</v>
@@ -6127,23 +6310,26 @@
       <c r="X60">
         <v>88</v>
       </c>
-      <c r="Y60" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z60">
+      <c r="Y60">
+        <v>88</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA60">
         <v>2325</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>72</v>
       </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
       <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6190,7 +6376,7 @@
         <v>59</v>
       </c>
       <c r="P61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="Q61">
         <v>90</v>
@@ -6216,23 +6402,26 @@
       <c r="X61">
         <v>90</v>
       </c>
-      <c r="Y61" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z61">
+      <c r="Y61">
+        <v>90</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA61">
         <v>2491</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>96</v>
       </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
       <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6279,7 +6468,7 @@
         <v>60</v>
       </c>
       <c r="P62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q62">
         <v>92</v>
@@ -6305,23 +6494,26 @@
       <c r="X62">
         <v>92</v>
       </c>
-      <c r="Y62" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z62">
+      <c r="Y62">
+        <v>92</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA62">
         <v>2643</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>100</v>
       </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
       <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6368,7 +6560,7 @@
         <v>61</v>
       </c>
       <c r="P63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="Q63">
         <v>94</v>
@@ -6394,23 +6586,26 @@
       <c r="X63">
         <v>94</v>
       </c>
-      <c r="Y63" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z63">
+      <c r="Y63">
+        <v>94</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA63">
         <v>2826</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>102</v>
       </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
       <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6457,7 +6652,7 @@
         <v>62</v>
       </c>
       <c r="P64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q64">
         <v>96</v>
@@ -6483,23 +6678,26 @@
       <c r="X64">
         <v>96</v>
       </c>
-      <c r="Y64" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z64">
+      <c r="Y64">
+        <v>96</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA64">
         <v>2943</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>111</v>
       </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
       <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6546,7 +6744,7 @@
         <v>63</v>
       </c>
       <c r="P65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="Q65">
         <v>98</v>
@@ -6572,23 +6770,26 @@
       <c r="X65">
         <v>98</v>
       </c>
-      <c r="Y65" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z65">
+      <c r="Y65">
+        <v>98</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA65">
         <v>2943</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>111</v>
       </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
       <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6635,7 +6836,7 @@
         <v>64</v>
       </c>
       <c r="P66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="Q66">
         <v>100</v>
@@ -6661,23 +6862,26 @@
       <c r="X66">
         <v>100</v>
       </c>
-      <c r="Y66" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z66">
+      <c r="Y66">
+        <v>100</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA66">
         <v>3043</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>111</v>
       </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
       <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:30">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6724,7 +6928,7 @@
         <v>65</v>
       </c>
       <c r="P67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="Q67">
         <v>102</v>
@@ -6750,23 +6954,26 @@
       <c r="X67">
         <v>102</v>
       </c>
-      <c r="Y67" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z67">
+      <c r="Y67">
+        <v>102</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA67">
         <v>3141</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>113</v>
       </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
       <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:30">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6813,7 +7020,7 @@
         <v>66</v>
       </c>
       <c r="P68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="Q68">
         <v>104</v>
@@ -6839,23 +7046,26 @@
       <c r="X68">
         <v>104</v>
       </c>
-      <c r="Y68" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z68">
+      <c r="Y68">
+        <v>104</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA68">
         <v>3432</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>120</v>
       </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
       <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:30">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6902,7 +7112,7 @@
         <v>67</v>
       </c>
       <c r="P69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="Q69">
         <v>106</v>
@@ -6928,23 +7138,26 @@
       <c r="X69">
         <v>106</v>
       </c>
-      <c r="Y69" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z69">
+      <c r="Y69">
+        <v>106</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA69">
         <v>3432</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>120</v>
       </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
       <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:30">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6991,7 +7204,7 @@
         <v>68</v>
       </c>
       <c r="P70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="Q70">
         <v>108</v>
@@ -7017,23 +7230,26 @@
       <c r="X70">
         <v>108</v>
       </c>
-      <c r="Y70" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z70">
+      <c r="Y70">
+        <v>108</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA70">
         <v>3564</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>124</v>
       </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
       <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:30">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7080,7 +7296,7 @@
         <v>69</v>
       </c>
       <c r="P71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="Q71">
         <v>110</v>
@@ -7106,23 +7322,26 @@
       <c r="X71">
         <v>110</v>
       </c>
-      <c r="Y71" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z71">
+      <c r="Y71">
+        <v>110</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA71">
         <v>3711</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>134</v>
       </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
       <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:30">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7169,7 +7388,7 @@
         <v>70</v>
       </c>
       <c r="P72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="Q72">
         <v>112</v>
@@ -7195,23 +7414,26 @@
       <c r="X72">
         <v>112</v>
       </c>
-      <c r="Y72" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z72">
+      <c r="Y72">
+        <v>112</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA72">
         <v>3927</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>139</v>
       </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
       <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:30">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7258,7 +7480,7 @@
         <v>71</v>
       </c>
       <c r="P73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="Q73">
         <v>114</v>
@@ -7284,23 +7506,26 @@
       <c r="X73">
         <v>114</v>
       </c>
-      <c r="Y73" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z73">
+      <c r="Y73">
+        <v>114</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA73">
         <v>3927</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>139</v>
       </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
       <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:30">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7347,7 +7572,7 @@
         <v>72</v>
       </c>
       <c r="P74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="Q74">
         <v>116</v>
@@ -7373,23 +7598,26 @@
       <c r="X74">
         <v>116</v>
       </c>
-      <c r="Y74" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z74">
+      <c r="Y74">
+        <v>116</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA74">
         <v>4020</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>144</v>
       </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
       <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:30">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7436,7 +7664,7 @@
         <v>73</v>
       </c>
       <c r="P75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="Q75">
         <v>118</v>
@@ -7462,23 +7690,26 @@
       <c r="X75">
         <v>118</v>
       </c>
-      <c r="Y75" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z75">
+      <c r="Y75">
+        <v>118</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA75">
         <v>4319</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>158</v>
       </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
       <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:30">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7525,7 +7756,7 @@
         <v>74</v>
       </c>
       <c r="P76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="Q76">
         <v>120</v>
@@ -7551,23 +7782,26 @@
       <c r="X76">
         <v>120</v>
       </c>
-      <c r="Y76" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z76">
+      <c r="Y76">
+        <v>120</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA76">
         <v>4319</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>158</v>
       </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
       <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:30">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7614,7 +7848,7 @@
         <v>75</v>
       </c>
       <c r="P77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Q77">
         <v>122</v>
@@ -7640,23 +7874,26 @@
       <c r="X77">
         <v>122</v>
       </c>
-      <c r="Y77" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z77">
+      <c r="Y77">
+        <v>122</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA77">
         <v>4429</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>165</v>
       </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
       <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:30">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7703,7 +7940,7 @@
         <v>76</v>
       </c>
       <c r="P78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="Q78">
         <v>124</v>
@@ -7729,23 +7966,26 @@
       <c r="X78">
         <v>124</v>
       </c>
-      <c r="Y78" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z78">
+      <c r="Y78">
+        <v>124</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA78">
         <v>4662</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>169</v>
       </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
       <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:30">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7792,7 +8032,7 @@
         <v>77</v>
       </c>
       <c r="P79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Q79">
         <v>126</v>
@@ -7818,23 +8058,26 @@
       <c r="X79">
         <v>126</v>
       </c>
-      <c r="Y79" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z79">
+      <c r="Y79">
+        <v>126</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA79">
         <v>4776</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>175</v>
       </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
       <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:30">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7881,7 +8124,7 @@
         <v>78</v>
       </c>
       <c r="P80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="Q80">
         <v>128</v>
@@ -7907,23 +8150,26 @@
       <c r="X80">
         <v>128</v>
       </c>
-      <c r="Y80" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z80">
+      <c r="Y80">
+        <v>128</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA80">
         <v>5065</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>175</v>
       </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
       <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:30">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7970,7 +8216,7 @@
         <v>79</v>
       </c>
       <c r="P81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="Q81">
         <v>130</v>
@@ -7996,23 +8242,26 @@
       <c r="X81">
         <v>130</v>
       </c>
-      <c r="Y81" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z81">
+      <c r="Y81">
+        <v>130</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA81">
         <v>5161</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>190</v>
       </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
       <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:30">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8059,7 +8308,7 @@
         <v>80</v>
       </c>
       <c r="P82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="Q82">
         <v>132</v>
@@ -8085,23 +8334,26 @@
       <c r="X82">
         <v>132</v>
       </c>
-      <c r="Y82" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z82">
+      <c r="Y82">
+        <v>132</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA82">
         <v>5161</v>
       </c>
-      <c r="AA82">
+      <c r="AB82">
         <v>190</v>
       </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
       <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:30">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8148,7 +8400,7 @@
         <v>81</v>
       </c>
       <c r="P83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="Q83">
         <v>134</v>
@@ -8174,23 +8426,26 @@
       <c r="X83">
         <v>134</v>
       </c>
-      <c r="Y83" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z83">
+      <c r="Y83">
+        <v>134</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA83">
         <v>5391</v>
       </c>
-      <c r="AA83">
+      <c r="AB83">
         <v>200</v>
       </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
       <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:30">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8237,7 +8492,7 @@
         <v>82</v>
       </c>
       <c r="P84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="Q84">
         <v>136</v>
@@ -8263,23 +8518,26 @@
       <c r="X84">
         <v>136</v>
       </c>
-      <c r="Y84" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z84">
+      <c r="Y84">
+        <v>136</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA84">
         <v>5391</v>
       </c>
-      <c r="AA84">
+      <c r="AB84">
         <v>200</v>
       </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
       <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:30">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8326,7 +8584,7 @@
         <v>83</v>
       </c>
       <c r="P85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="Q85">
         <v>138</v>
@@ -8352,23 +8610,26 @@
       <c r="X85">
         <v>138</v>
       </c>
-      <c r="Y85" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z85">
+      <c r="Y85">
+        <v>138</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA85">
         <v>5662</v>
       </c>
-      <c r="AA85">
+      <c r="AB85">
         <v>209</v>
       </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
       <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:30">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8415,7 +8676,7 @@
         <v>84</v>
       </c>
       <c r="P86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="Q86">
         <v>140</v>
@@ -8441,23 +8702,26 @@
       <c r="X86">
         <v>140</v>
       </c>
-      <c r="Y86" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z86">
+      <c r="Y86">
+        <v>140</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA86">
         <v>5836</v>
       </c>
-      <c r="AA86">
+      <c r="AB86">
         <v>209</v>
       </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
       <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:30">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8504,7 +8768,7 @@
         <v>85</v>
       </c>
       <c r="P87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="Q87">
         <v>142</v>
@@ -8530,23 +8794,26 @@
       <c r="X87">
         <v>142</v>
       </c>
-      <c r="Y87" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z87">
+      <c r="Y87">
+        <v>142</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA87">
         <v>5836</v>
       </c>
-      <c r="AA87">
+      <c r="AB87">
         <v>209</v>
       </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
       <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:30">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8593,7 +8860,7 @@
         <v>86</v>
       </c>
       <c r="P88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="Q88">
         <v>144</v>
@@ -8619,23 +8886,26 @@
       <c r="X88">
         <v>144</v>
       </c>
-      <c r="Y88" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z88">
+      <c r="Y88">
+        <v>144</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA88">
         <v>6026</v>
       </c>
-      <c r="AA88">
+      <c r="AB88">
         <v>222</v>
       </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
       <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:30">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8682,7 +8952,7 @@
         <v>87</v>
       </c>
       <c r="P89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="Q89">
         <v>146</v>
@@ -8708,23 +8978,26 @@
       <c r="X89">
         <v>146</v>
       </c>
-      <c r="Y89" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z89">
+      <c r="Y89">
+        <v>146</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA89">
         <v>6140</v>
       </c>
-      <c r="AA89">
+      <c r="AB89">
         <v>230</v>
       </c>
-      <c r="AB89">
-        <v>0</v>
-      </c>
       <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:30">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8771,7 +9044,7 @@
         <v>88</v>
       </c>
       <c r="P90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="Q90">
         <v>148</v>
@@ -8797,23 +9070,26 @@
       <c r="X90">
         <v>148</v>
       </c>
-      <c r="Y90" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z90">
+      <c r="Y90">
+        <v>148</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA90">
         <v>6140</v>
       </c>
-      <c r="AA90">
+      <c r="AB90">
         <v>230</v>
       </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
       <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:30">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8860,7 +9136,7 @@
         <v>89</v>
       </c>
       <c r="P91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="Q91">
         <v>150</v>
@@ -8886,23 +9162,26 @@
       <c r="X91">
         <v>150</v>
       </c>
-      <c r="Y91" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z91">
+      <c r="Y91">
+        <v>150</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA91">
         <v>6315</v>
       </c>
-      <c r="AA91">
+      <c r="AB91">
         <v>241</v>
       </c>
-      <c r="AB91">
-        <v>0</v>
-      </c>
       <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:30">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8949,7 +9228,7 @@
         <v>90</v>
       </c>
       <c r="P92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="Q92">
         <v>152</v>
@@ -8975,23 +9254,26 @@
       <c r="X92">
         <v>152</v>
       </c>
-      <c r="Y92" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z92">
+      <c r="Y92">
+        <v>152</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA92">
         <v>6559</v>
       </c>
-      <c r="AA92">
+      <c r="AB92">
         <v>249</v>
       </c>
-      <c r="AB92">
-        <v>0</v>
-      </c>
       <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:30">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9038,7 +9320,7 @@
         <v>91</v>
       </c>
       <c r="P93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="Q93">
         <v>154</v>
@@ -9064,23 +9346,26 @@
       <c r="X93">
         <v>154</v>
       </c>
-      <c r="Y93" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z93">
+      <c r="Y93">
+        <v>154</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA93">
         <v>6559</v>
       </c>
-      <c r="AA93">
+      <c r="AB93">
         <v>249</v>
       </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
       <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:30">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9127,7 +9412,7 @@
         <v>92</v>
       </c>
       <c r="P94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="Q94">
         <v>156</v>
@@ -9153,23 +9438,26 @@
       <c r="X94">
         <v>156</v>
       </c>
-      <c r="Y94" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z94">
+      <c r="Y94">
+        <v>156</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA94">
         <v>6701</v>
       </c>
-      <c r="AA94">
+      <c r="AB94">
         <v>249</v>
       </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
       <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:30">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9216,7 +9504,7 @@
         <v>93</v>
       </c>
       <c r="P95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="Q95">
         <v>158</v>
@@ -9242,23 +9530,26 @@
       <c r="X95">
         <v>158</v>
       </c>
-      <c r="Y95" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z95">
+      <c r="Y95">
+        <v>158</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA95">
         <v>6797</v>
       </c>
-      <c r="AA95">
+      <c r="AB95">
         <v>249</v>
       </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
       <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:30">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9305,7 +9596,7 @@
         <v>94</v>
       </c>
       <c r="P96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="Q96">
         <v>160</v>
@@ -9331,23 +9622,26 @@
       <c r="X96">
         <v>160</v>
       </c>
-      <c r="Y96" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z96">
+      <c r="Y96">
+        <v>160</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA96">
         <v>6882</v>
       </c>
-      <c r="AA96">
+      <c r="AB96">
         <v>249</v>
       </c>
-      <c r="AB96">
-        <v>0</v>
-      </c>
       <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:30">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9394,7 +9688,7 @@
         <v>95</v>
       </c>
       <c r="P97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="Q97">
         <v>162</v>
@@ -9420,23 +9714,26 @@
       <c r="X97">
         <v>162</v>
       </c>
-      <c r="Y97" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z97">
+      <c r="Y97">
+        <v>162</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA97">
         <v>7100</v>
       </c>
-      <c r="AA97">
+      <c r="AB97">
         <v>260</v>
       </c>
-      <c r="AB97">
-        <v>0</v>
-      </c>
       <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:30">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9483,7 +9780,7 @@
         <v>96</v>
       </c>
       <c r="P98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="Q98">
         <v>164</v>
@@ -9509,23 +9806,26 @@
       <c r="X98">
         <v>164</v>
       </c>
-      <c r="Y98" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z98">
+      <c r="Y98">
+        <v>164</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA98">
         <v>7100</v>
       </c>
-      <c r="AA98">
+      <c r="AB98">
         <v>260</v>
       </c>
-      <c r="AB98">
-        <v>0</v>
-      </c>
       <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:30">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9572,7 +9872,7 @@
         <v>97</v>
       </c>
       <c r="P99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="Q99">
         <v>166</v>
@@ -9598,23 +9898,26 @@
       <c r="X99">
         <v>166</v>
       </c>
-      <c r="Y99" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z99">
+      <c r="Y99">
+        <v>166</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA99">
         <v>7385</v>
       </c>
-      <c r="AA99">
+      <c r="AB99">
         <v>269</v>
       </c>
-      <c r="AB99">
-        <v>0</v>
-      </c>
       <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:30">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9661,7 +9964,7 @@
         <v>98</v>
       </c>
       <c r="P100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="Q100">
         <v>168</v>
@@ -9687,23 +9990,26 @@
       <c r="X100">
         <v>168</v>
       </c>
-      <c r="Y100" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z100">
+      <c r="Y100">
+        <v>168</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA100">
         <v>7481</v>
       </c>
-      <c r="AA100">
+      <c r="AB100">
         <v>269</v>
       </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
       <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:30">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9750,7 +10056,7 @@
         <v>99</v>
       </c>
       <c r="P101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="Q101">
         <v>170</v>
@@ -9776,23 +10082,26 @@
       <c r="X101">
         <v>170</v>
       </c>
-      <c r="Y101" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101">
+      <c r="Y101">
+        <v>170</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA101">
         <v>7481</v>
       </c>
-      <c r="AA101">
+      <c r="AB101">
         <v>269</v>
       </c>
-      <c r="AB101">
-        <v>0</v>
-      </c>
       <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:30">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9839,7 +10148,7 @@
         <v>100</v>
       </c>
       <c r="P102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="Q102">
         <v>172</v>
@@ -9865,23 +10174,26 @@
       <c r="X102">
         <v>172</v>
       </c>
-      <c r="Y102" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z102">
+      <c r="Y102">
+        <v>172</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA102">
         <v>7554</v>
       </c>
-      <c r="AA102">
+      <c r="AB102">
         <v>269</v>
       </c>
-      <c r="AB102">
-        <v>0</v>
-      </c>
       <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:30">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9928,7 +10240,7 @@
         <v>101</v>
       </c>
       <c r="P103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="Q103">
         <v>174</v>
@@ -9954,23 +10266,26 @@
       <c r="X103">
         <v>174</v>
       </c>
-      <c r="Y103" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z103">
+      <c r="Y103">
+        <v>174</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA103">
         <v>7674</v>
       </c>
-      <c r="AA103">
+      <c r="AB103">
         <v>276</v>
       </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
       <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:30">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10017,7 +10332,7 @@
         <v>102</v>
       </c>
       <c r="P104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="Q104">
         <v>176</v>
@@ -10043,23 +10358,26 @@
       <c r="X104">
         <v>176</v>
       </c>
-      <c r="Y104" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z104">
+      <c r="Y104">
+        <v>176</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA104">
         <v>7798</v>
       </c>
-      <c r="AA104">
+      <c r="AB104">
         <v>283</v>
       </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
       <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:30">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10106,7 +10424,7 @@
         <v>103</v>
       </c>
       <c r="P105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="Q105">
         <v>178</v>
@@ -10132,23 +10450,26 @@
       <c r="X105">
         <v>178</v>
       </c>
-      <c r="Y105" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z105">
+      <c r="Y105">
+        <v>178</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA105">
         <v>7940</v>
       </c>
-      <c r="AA105">
+      <c r="AB105">
         <v>288</v>
       </c>
-      <c r="AB105">
-        <v>0</v>
-      </c>
       <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:30">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10195,7 +10516,7 @@
         <v>104</v>
       </c>
       <c r="P106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="Q106">
         <v>180</v>
@@ -10221,23 +10542,26 @@
       <c r="X106">
         <v>180</v>
       </c>
-      <c r="Y106" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z106">
+      <c r="Y106">
+        <v>180</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA106">
         <v>8345</v>
       </c>
-      <c r="AA106">
+      <c r="AB106">
         <v>296</v>
       </c>
-      <c r="AB106">
-        <v>0</v>
-      </c>
       <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:30">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10284,7 +10608,7 @@
         <v>105</v>
       </c>
       <c r="P107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="Q107">
         <v>182</v>
@@ -10310,23 +10634,26 @@
       <c r="X107">
         <v>182</v>
       </c>
-      <c r="Y107" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z107">
+      <c r="Y107">
+        <v>182</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA107">
         <v>8345</v>
       </c>
-      <c r="AA107">
+      <c r="AB107">
         <v>296</v>
       </c>
-      <c r="AB107">
-        <v>0</v>
-      </c>
       <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:30">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10373,7 +10700,7 @@
         <v>106</v>
       </c>
       <c r="P108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="Q108">
         <v>184</v>
@@ -10399,23 +10726,26 @@
       <c r="X108">
         <v>184</v>
       </c>
-      <c r="Y108" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z108">
+      <c r="Y108">
+        <v>184</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA108">
         <v>8619</v>
       </c>
-      <c r="AA108">
+      <c r="AB108">
         <v>296</v>
       </c>
-      <c r="AB108">
-        <v>0</v>
-      </c>
       <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:30">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10462,7 +10792,7 @@
         <v>107</v>
       </c>
       <c r="P109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="Q109">
         <v>186</v>
@@ -10488,23 +10818,26 @@
       <c r="X109">
         <v>186</v>
       </c>
-      <c r="Y109" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z109">
+      <c r="Y109">
+        <v>186</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA109">
         <v>8619</v>
       </c>
-      <c r="AA109">
+      <c r="AB109">
         <v>296</v>
       </c>
-      <c r="AB109">
-        <v>0</v>
-      </c>
       <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:30">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10551,7 +10884,7 @@
         <v>108</v>
       </c>
       <c r="P110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="Q110">
         <v>188</v>
@@ -10577,23 +10910,26 @@
       <c r="X110">
         <v>188</v>
       </c>
-      <c r="Y110" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z110">
+      <c r="Y110">
+        <v>188</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA110">
         <v>8837</v>
       </c>
-      <c r="AA110">
+      <c r="AB110">
         <v>305</v>
       </c>
-      <c r="AB110">
-        <v>0</v>
-      </c>
       <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:30">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10640,7 +10976,7 @@
         <v>109</v>
       </c>
       <c r="P111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="Q111">
         <v>190</v>
@@ -10666,23 +11002,26 @@
       <c r="X111">
         <v>190</v>
       </c>
-      <c r="Y111" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z111">
+      <c r="Y111">
+        <v>190</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA111">
         <v>8998</v>
       </c>
-      <c r="AA111">
+      <c r="AB111">
         <v>308</v>
       </c>
-      <c r="AB111">
-        <v>0</v>
-      </c>
       <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:30">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10722,23 +11061,26 @@
       <c r="M112">
         <v>110</v>
       </c>
-      <c r="Y112" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z112">
+      <c r="N112">
+        <v>110</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA112">
         <v>8998</v>
       </c>
-      <c r="AA112">
+      <c r="AB112">
         <v>308</v>
       </c>
-      <c r="AB112">
-        <v>0</v>
-      </c>
       <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
         <v>8690</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:30">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10772,82 +11114,114 @@
       <c r="K113">
         <v>111</v>
       </c>
-      <c r="Y113" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z113">
+      <c r="L113">
+        <v>111</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA113">
         <v>9314</v>
       </c>
-      <c r="AA113">
+      <c r="AB113">
         <v>319</v>
       </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
       <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
         <v>8995</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:30">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
         <v>112</v>
       </c>
-      <c r="Y114" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z114">
+      <c r="C114">
+        <v>112</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA114">
         <v>9440</v>
       </c>
-      <c r="AA114">
+      <c r="AB114">
         <v>319</v>
       </c>
-      <c r="AB114">
-        <v>0</v>
-      </c>
       <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
         <v>9121</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:30">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="Y115" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z115">
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA115">
         <v>9610</v>
       </c>
-      <c r="AA115">
+      <c r="AB115">
         <v>320</v>
       </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
       <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
         <v>9290</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:30">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="Y116" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z116">
+      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA116">
         <v>9730</v>
       </c>
-      <c r="AA116">
+      <c r="AB116">
         <v>323</v>
       </c>
-      <c r="AB116">
-        <v>0</v>
-      </c>
       <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA117">
+        <v>9730</v>
+      </c>
+      <c r="AB117">
+        <v>323</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
         <v>9407</v>
       </c>
     </row>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -88,6 +88,12 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -449,6 +455,18 @@
   </si>
   <si>
     <t>06-17-2020</t>
+  </si>
+  <si>
+    <t>06-18-2020</t>
+  </si>
+  <si>
+    <t>06-19-2020</t>
+  </si>
+  <si>
+    <t>06-20-2020</t>
+  </si>
+  <si>
+    <t>06-21-2020</t>
   </si>
 </sst>
 </file>
@@ -806,13 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD117"/>
+  <dimension ref="A1:AF121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,8 +918,14 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -977,23 +1001,29 @@
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>29</v>
+      <c r="Z2">
+        <v>0</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1069,23 +1099,29 @@
       <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3" t="s">
-        <v>30</v>
+      <c r="Z3">
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
+      <c r="AB3" t="s">
+        <v>32</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1161,23 +1197,29 @@
       <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Z4" t="s">
-        <v>31</v>
+      <c r="Z4">
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
+      <c r="AB4" t="s">
+        <v>33</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1253,23 +1295,29 @@
       <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Z5" t="s">
-        <v>32</v>
+      <c r="Z5">
+        <v>3</v>
       </c>
       <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1345,23 +1393,29 @@
       <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Z6" t="s">
-        <v>33</v>
+      <c r="Z6">
+        <v>4</v>
       </c>
       <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6">
         <v>2</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1437,23 +1491,29 @@
       <c r="Y7">
         <v>5</v>
       </c>
-      <c r="Z7" t="s">
-        <v>34</v>
+      <c r="Z7">
+        <v>5</v>
       </c>
       <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7">
         <v>2</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
         <v>0</v>
       </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1529,23 +1589,29 @@
       <c r="Y8">
         <v>6</v>
       </c>
-      <c r="Z8" t="s">
-        <v>35</v>
+      <c r="Z8">
+        <v>6</v>
       </c>
       <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1621,23 +1687,29 @@
       <c r="Y9">
         <v>7</v>
       </c>
-      <c r="Z9" t="s">
-        <v>36</v>
+      <c r="Z9">
+        <v>7</v>
       </c>
       <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1713,23 +1785,29 @@
       <c r="Y10">
         <v>8</v>
       </c>
-      <c r="Z10" t="s">
-        <v>37</v>
+      <c r="Z10">
+        <v>8</v>
       </c>
       <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10">
         <v>2</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1805,23 +1883,29 @@
       <c r="Y11">
         <v>9</v>
       </c>
-      <c r="Z11" t="s">
-        <v>38</v>
+      <c r="Z11">
+        <v>9</v>
       </c>
       <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11">
         <v>2</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
         <v>0</v>
       </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1897,23 +1981,29 @@
       <c r="Y12">
         <v>10</v>
       </c>
-      <c r="Z12" t="s">
-        <v>39</v>
+      <c r="Z12">
+        <v>10</v>
       </c>
       <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12">
         <v>2</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>1</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1989,23 +2079,29 @@
       <c r="Y13">
         <v>11</v>
       </c>
-      <c r="Z13" t="s">
-        <v>40</v>
+      <c r="Z13">
+        <v>11</v>
       </c>
       <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13">
         <v>2</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>1</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2081,23 +2177,29 @@
       <c r="Y14">
         <v>12</v>
       </c>
-      <c r="Z14" t="s">
-        <v>41</v>
+      <c r="Z14">
+        <v>12</v>
       </c>
       <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14">
         <v>2</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>1</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2173,23 +2275,29 @@
       <c r="Y15">
         <v>13</v>
       </c>
-      <c r="Z15" t="s">
-        <v>42</v>
+      <c r="Z15">
+        <v>13</v>
       </c>
       <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15">
         <v>2</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>1</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2265,23 +2373,29 @@
       <c r="Y16">
         <v>14</v>
       </c>
-      <c r="Z16" t="s">
-        <v>43</v>
+      <c r="Z16">
+        <v>14</v>
       </c>
       <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC16">
         <v>2</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>1</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2357,23 +2471,29 @@
       <c r="Y17">
         <v>15</v>
       </c>
-      <c r="Z17" t="s">
-        <v>44</v>
+      <c r="Z17">
+        <v>15</v>
       </c>
       <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17">
         <v>2</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>1</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2449,23 +2569,29 @@
       <c r="Y18">
         <v>16</v>
       </c>
-      <c r="Z18" t="s">
-        <v>45</v>
+      <c r="Z18">
+        <v>16</v>
       </c>
       <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18">
         <v>2</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>1</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2541,23 +2667,29 @@
       <c r="Y19">
         <v>17</v>
       </c>
-      <c r="Z19" t="s">
-        <v>46</v>
+      <c r="Z19">
+        <v>17</v>
       </c>
       <c r="AA19">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19">
         <v>2</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>1</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2633,23 +2765,29 @@
       <c r="Y20">
         <v>18</v>
       </c>
-      <c r="Z20" t="s">
-        <v>47</v>
+      <c r="Z20">
+        <v>18</v>
       </c>
       <c r="AA20">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20">
         <v>2</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
         <v>1</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2725,23 +2863,29 @@
       <c r="Y21">
         <v>19</v>
       </c>
-      <c r="Z21" t="s">
-        <v>48</v>
+      <c r="Z21">
+        <v>19</v>
       </c>
       <c r="AA21">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21">
         <v>2</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>1</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2817,23 +2961,29 @@
       <c r="Y22">
         <v>20</v>
       </c>
-      <c r="Z22" t="s">
-        <v>49</v>
+      <c r="Z22">
+        <v>20</v>
       </c>
       <c r="AA22">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22">
         <v>2</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
         <v>1</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2909,23 +3059,29 @@
       <c r="Y23">
         <v>21</v>
       </c>
-      <c r="Z23" t="s">
-        <v>50</v>
+      <c r="Z23">
+        <v>21</v>
       </c>
       <c r="AA23">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC23">
         <v>2</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>1</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3001,23 +3157,29 @@
       <c r="Y24">
         <v>22</v>
       </c>
-      <c r="Z24" t="s">
-        <v>51</v>
+      <c r="Z24">
+        <v>22</v>
       </c>
       <c r="AA24">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC24">
         <v>2</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>1</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3093,23 +3255,29 @@
       <c r="Y25">
         <v>23</v>
       </c>
-      <c r="Z25" t="s">
-        <v>52</v>
+      <c r="Z25">
+        <v>23</v>
       </c>
       <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC25">
         <v>3</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3185,23 +3353,29 @@
       <c r="Y26">
         <v>24</v>
       </c>
-      <c r="Z26" t="s">
-        <v>53</v>
+      <c r="Z26">
+        <v>24</v>
       </c>
       <c r="AA26">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC26">
         <v>3</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
         <v>1</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3277,23 +3451,29 @@
       <c r="Y27">
         <v>25</v>
       </c>
-      <c r="Z27" t="s">
-        <v>54</v>
+      <c r="Z27">
+        <v>25</v>
       </c>
       <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC27">
         <v>3</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>1</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3369,23 +3549,29 @@
       <c r="Y28">
         <v>26</v>
       </c>
-      <c r="Z28" t="s">
-        <v>55</v>
+      <c r="Z28">
+        <v>26</v>
       </c>
       <c r="AA28">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC28">
         <v>3</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <v>1</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3461,23 +3647,29 @@
       <c r="Y29">
         <v>27</v>
       </c>
-      <c r="Z29" t="s">
-        <v>56</v>
+      <c r="Z29">
+        <v>27</v>
       </c>
       <c r="AA29">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <v>1</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3553,23 +3745,29 @@
       <c r="Y30">
         <v>28</v>
       </c>
-      <c r="Z30" t="s">
-        <v>57</v>
+      <c r="Z30">
+        <v>28</v>
       </c>
       <c r="AA30">
+        <v>28</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC30">
         <v>155</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
       <c r="AD30">
         <v>0</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3619,10 +3817,10 @@
         <v>29</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S31">
         <v>30</v>
@@ -3645,23 +3843,29 @@
       <c r="Y31">
         <v>30</v>
       </c>
-      <c r="Z31" t="s">
-        <v>58</v>
+      <c r="Z31">
+        <v>30</v>
       </c>
       <c r="AA31">
+        <v>30</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC31">
         <v>201</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>1</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3711,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S32">
         <v>32</v>
@@ -3737,23 +3941,29 @@
       <c r="Y32">
         <v>32</v>
       </c>
-      <c r="Z32" t="s">
-        <v>59</v>
+      <c r="Z32">
+        <v>32</v>
       </c>
       <c r="AA32">
+        <v>32</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC32">
         <v>226</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <v>1</v>
       </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3803,10 +4013,10 @@
         <v>31</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S33">
         <v>34</v>
@@ -3829,23 +4039,29 @@
       <c r="Y33">
         <v>34</v>
       </c>
-      <c r="Z33" t="s">
-        <v>60</v>
+      <c r="Z33">
+        <v>34</v>
       </c>
       <c r="AA33">
+        <v>34</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC33">
         <v>238</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <v>2</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3895,10 +4111,10 @@
         <v>32</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S34">
         <v>36</v>
@@ -3921,23 +4137,29 @@
       <c r="Y34">
         <v>36</v>
       </c>
-      <c r="Z34" t="s">
-        <v>61</v>
+      <c r="Z34">
+        <v>36</v>
       </c>
       <c r="AA34">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC34">
         <v>293</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>3</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3987,10 +4209,10 @@
         <v>33</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S35">
         <v>38</v>
@@ -4013,23 +4235,29 @@
       <c r="Y35">
         <v>38</v>
       </c>
-      <c r="Z35" t="s">
-        <v>62</v>
+      <c r="Z35">
+        <v>38</v>
       </c>
       <c r="AA35">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC35">
         <v>341</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>3</v>
       </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4079,10 +4307,10 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S36">
         <v>40</v>
@@ -4105,23 +4333,29 @@
       <c r="Y36">
         <v>40</v>
       </c>
-      <c r="Z36" t="s">
-        <v>63</v>
+      <c r="Z36">
+        <v>40</v>
       </c>
       <c r="AA36">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC36">
         <v>413</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>6</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4171,10 +4405,10 @@
         <v>35</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S37">
         <v>42</v>
@@ -4197,23 +4431,29 @@
       <c r="Y37">
         <v>42</v>
       </c>
-      <c r="Z37" t="s">
-        <v>64</v>
+      <c r="Z37">
+        <v>42</v>
       </c>
       <c r="AA37">
+        <v>42</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC37">
         <v>484</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>7</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4263,10 +4503,10 @@
         <v>36</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S38">
         <v>44</v>
@@ -4289,23 +4529,29 @@
       <c r="Y38">
         <v>44</v>
       </c>
-      <c r="Z38" t="s">
-        <v>65</v>
+      <c r="Z38">
+        <v>44</v>
       </c>
       <c r="AA38">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC38">
         <v>515</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <v>7</v>
       </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4355,10 +4601,10 @@
         <v>37</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S39">
         <v>46</v>
@@ -4381,23 +4627,29 @@
       <c r="Y39">
         <v>46</v>
       </c>
-      <c r="Z39" t="s">
-        <v>66</v>
+      <c r="Z39">
+        <v>46</v>
       </c>
       <c r="AA39">
+        <v>46</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC39">
         <v>603</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>7</v>
       </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4447,10 +4699,10 @@
         <v>38</v>
       </c>
       <c r="Q40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="S40">
         <v>48</v>
@@ -4473,23 +4725,29 @@
       <c r="Y40">
         <v>48</v>
       </c>
-      <c r="Z40" t="s">
-        <v>67</v>
+      <c r="Z40">
+        <v>48</v>
       </c>
       <c r="AA40">
+        <v>48</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC40">
         <v>733</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <v>9</v>
       </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4539,10 +4797,10 @@
         <v>39</v>
       </c>
       <c r="Q41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="R41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S41">
         <v>50</v>
@@ -4565,23 +4823,29 @@
       <c r="Y41">
         <v>50</v>
       </c>
-      <c r="Z41" t="s">
-        <v>68</v>
+      <c r="Z41">
+        <v>50</v>
       </c>
       <c r="AA41">
+        <v>50</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC41">
         <v>849</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <v>15</v>
       </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4631,10 +4895,10 @@
         <v>40</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="R42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S42">
         <v>52</v>
@@ -4657,23 +4921,29 @@
       <c r="Y42">
         <v>52</v>
       </c>
-      <c r="Z42" t="s">
-        <v>69</v>
+      <c r="Z42">
+        <v>52</v>
       </c>
       <c r="AA42">
+        <v>52</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC42">
         <v>966</v>
       </c>
-      <c r="AB42">
+      <c r="AD42">
         <v>16</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4723,10 +4993,10 @@
         <v>41</v>
       </c>
       <c r="Q43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="R43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="S43">
         <v>54</v>
@@ -4749,23 +5019,29 @@
       <c r="Y43">
         <v>54</v>
       </c>
-      <c r="Z43" t="s">
-        <v>70</v>
+      <c r="Z43">
+        <v>54</v>
       </c>
       <c r="AA43">
+        <v>54</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC43">
         <v>1112</v>
       </c>
-      <c r="AB43">
+      <c r="AD43">
         <v>17</v>
       </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4815,10 +5091,10 @@
         <v>42</v>
       </c>
       <c r="Q44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="S44">
         <v>56</v>
@@ -4841,23 +5117,29 @@
       <c r="Y44">
         <v>56</v>
       </c>
-      <c r="Z44" t="s">
-        <v>71</v>
+      <c r="Z44">
+        <v>56</v>
       </c>
       <c r="AA44">
+        <v>56</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC44">
         <v>1209</v>
       </c>
-      <c r="AB44">
+      <c r="AD44">
         <v>18</v>
       </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:32">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4907,10 +5189,10 @@
         <v>43</v>
       </c>
       <c r="Q45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="R45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="S45">
         <v>58</v>
@@ -4933,23 +5215,29 @@
       <c r="Y45">
         <v>58</v>
       </c>
-      <c r="Z45" t="s">
-        <v>72</v>
+      <c r="Z45">
+        <v>58</v>
       </c>
       <c r="AA45">
+        <v>58</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC45">
         <v>1326</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <v>19</v>
       </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:32">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4999,10 +5287,10 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="R46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="S46">
         <v>60</v>
@@ -5025,23 +5313,29 @@
       <c r="Y46">
         <v>60</v>
       </c>
-      <c r="Z46" t="s">
-        <v>73</v>
+      <c r="Z46">
+        <v>60</v>
       </c>
       <c r="AA46">
+        <v>60</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC46">
         <v>1404</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <v>19</v>
       </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:32">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5091,10 +5385,10 @@
         <v>45</v>
       </c>
       <c r="Q47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="R47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="S47">
         <v>62</v>
@@ -5117,23 +5411,29 @@
       <c r="Y47">
         <v>62</v>
       </c>
-      <c r="Z47" t="s">
-        <v>74</v>
+      <c r="Z47">
+        <v>62</v>
       </c>
       <c r="AA47">
+        <v>62</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC47">
         <v>1454</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>31</v>
       </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:32">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5183,10 +5483,10 @@
         <v>46</v>
       </c>
       <c r="Q48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="R48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="S48">
         <v>64</v>
@@ -5209,23 +5509,29 @@
       <c r="Y48">
         <v>64</v>
       </c>
-      <c r="Z48" t="s">
-        <v>75</v>
+      <c r="Z48">
+        <v>64</v>
       </c>
       <c r="AA48">
+        <v>64</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC48">
         <v>1530</v>
       </c>
-      <c r="AB48">
+      <c r="AD48">
         <v>36</v>
       </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5275,10 +5581,10 @@
         <v>47</v>
       </c>
       <c r="Q49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="R49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="S49">
         <v>66</v>
@@ -5301,23 +5607,29 @@
       <c r="Y49">
         <v>66</v>
       </c>
-      <c r="Z49" t="s">
-        <v>76</v>
+      <c r="Z49">
+        <v>66</v>
       </c>
       <c r="AA49">
+        <v>66</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC49">
         <v>1628</v>
       </c>
-      <c r="AB49">
+      <c r="AD49">
         <v>40</v>
       </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:32">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5367,10 +5679,10 @@
         <v>48</v>
       </c>
       <c r="Q50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="R50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="S50">
         <v>68</v>
@@ -5393,23 +5705,29 @@
       <c r="Y50">
         <v>68</v>
       </c>
-      <c r="Z50" t="s">
-        <v>77</v>
+      <c r="Z50">
+        <v>68</v>
       </c>
       <c r="AA50">
+        <v>68</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC50">
         <v>1693</v>
       </c>
-      <c r="AB50">
+      <c r="AD50">
         <v>44</v>
       </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:32">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5459,10 +5777,10 @@
         <v>49</v>
       </c>
       <c r="Q51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="R51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S51">
         <v>70</v>
@@ -5485,23 +5803,29 @@
       <c r="Y51">
         <v>70</v>
       </c>
-      <c r="Z51" t="s">
-        <v>78</v>
+      <c r="Z51">
+        <v>70</v>
       </c>
       <c r="AA51">
+        <v>70</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC51">
         <v>1761</v>
       </c>
-      <c r="AB51">
+      <c r="AD51">
         <v>45</v>
       </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:32">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5551,10 +5875,10 @@
         <v>50</v>
       </c>
       <c r="Q52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="R52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="S52">
         <v>72</v>
@@ -5577,23 +5901,29 @@
       <c r="Y52">
         <v>72</v>
       </c>
-      <c r="Z52" t="s">
-        <v>79</v>
+      <c r="Z52">
+        <v>72</v>
       </c>
       <c r="AA52">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC52">
         <v>1804</v>
       </c>
-      <c r="AB52">
+      <c r="AD52">
         <v>45</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:32">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5643,10 +5973,10 @@
         <v>51</v>
       </c>
       <c r="Q53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="R53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="S53">
         <v>74</v>
@@ -5669,23 +5999,29 @@
       <c r="Y53">
         <v>74</v>
       </c>
-      <c r="Z53" t="s">
-        <v>80</v>
+      <c r="Z53">
+        <v>74</v>
       </c>
       <c r="AA53">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC53">
         <v>1847</v>
       </c>
-      <c r="AB53">
+      <c r="AD53">
         <v>47</v>
       </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:32">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5735,10 +6071,10 @@
         <v>52</v>
       </c>
       <c r="Q54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="R54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="S54">
         <v>76</v>
@@ -5761,23 +6097,29 @@
       <c r="Y54">
         <v>76</v>
       </c>
-      <c r="Z54" t="s">
-        <v>81</v>
+      <c r="Z54">
+        <v>76</v>
       </c>
       <c r="AA54">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC54">
         <v>1930</v>
       </c>
-      <c r="AB54">
+      <c r="AD54">
         <v>53</v>
       </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:32">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5827,10 +6169,10 @@
         <v>53</v>
       </c>
       <c r="Q55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="R55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="S55">
         <v>78</v>
@@ -5853,23 +6195,29 @@
       <c r="Y55">
         <v>78</v>
       </c>
-      <c r="Z55" t="s">
-        <v>82</v>
+      <c r="Z55">
+        <v>78</v>
       </c>
       <c r="AA55">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC55">
         <v>2012</v>
       </c>
-      <c r="AB55">
+      <c r="AD55">
         <v>60</v>
       </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:32">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5919,10 +6267,10 @@
         <v>54</v>
       </c>
       <c r="Q56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="S56">
         <v>80</v>
@@ -5945,23 +6293,29 @@
       <c r="Y56">
         <v>80</v>
       </c>
-      <c r="Z56" t="s">
-        <v>83</v>
+      <c r="Z56">
+        <v>80</v>
       </c>
       <c r="AA56">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC56">
         <v>2087</v>
       </c>
-      <c r="AB56">
+      <c r="AD56">
         <v>63</v>
       </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:32">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6011,10 +6365,10 @@
         <v>55</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="R57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="S57">
         <v>82</v>
@@ -6037,23 +6391,29 @@
       <c r="Y57">
         <v>82</v>
       </c>
-      <c r="Z57" t="s">
-        <v>84</v>
+      <c r="Z57">
+        <v>82</v>
       </c>
       <c r="AA57">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC57">
         <v>2158</v>
       </c>
-      <c r="AB57">
+      <c r="AD57">
         <v>70</v>
       </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:32">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6103,10 +6463,10 @@
         <v>56</v>
       </c>
       <c r="Q58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="S58">
         <v>84</v>
@@ -6129,23 +6489,29 @@
       <c r="Y58">
         <v>84</v>
       </c>
-      <c r="Z58" t="s">
-        <v>85</v>
+      <c r="Z58">
+        <v>84</v>
       </c>
       <c r="AA58">
+        <v>84</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC58">
         <v>2213</v>
       </c>
-      <c r="AB58">
+      <c r="AD58">
         <v>71</v>
       </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
         <v>2142</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:32">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6195,10 +6561,10 @@
         <v>57</v>
       </c>
       <c r="Q59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="R59">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="S59">
         <v>86</v>
@@ -6221,23 +6587,29 @@
       <c r="Y59">
         <v>86</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Z59">
         <v>86</v>
       </c>
       <c r="AA59">
+        <v>86</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC59">
         <v>2268</v>
       </c>
-      <c r="AB59">
+      <c r="AD59">
         <v>71</v>
       </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
         <v>2197</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:32">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6287,10 +6659,10 @@
         <v>58</v>
       </c>
       <c r="Q60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="R60">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="S60">
         <v>88</v>
@@ -6313,23 +6685,29 @@
       <c r="Y60">
         <v>88</v>
       </c>
-      <c r="Z60" t="s">
-        <v>87</v>
+      <c r="Z60">
+        <v>88</v>
       </c>
       <c r="AA60">
+        <v>88</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC60">
         <v>2325</v>
       </c>
-      <c r="AB60">
+      <c r="AD60">
         <v>72</v>
       </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
         <v>2253</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:32">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6379,10 +6757,10 @@
         <v>59</v>
       </c>
       <c r="Q61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="R61">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="S61">
         <v>90</v>
@@ -6405,23 +6783,29 @@
       <c r="Y61">
         <v>90</v>
       </c>
-      <c r="Z61" t="s">
-        <v>88</v>
+      <c r="Z61">
+        <v>90</v>
       </c>
       <c r="AA61">
+        <v>90</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC61">
         <v>2491</v>
       </c>
-      <c r="AB61">
+      <c r="AD61">
         <v>96</v>
       </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
         <v>2395</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:32">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6471,10 +6855,10 @@
         <v>60</v>
       </c>
       <c r="Q62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R62">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="S62">
         <v>92</v>
@@ -6497,23 +6881,29 @@
       <c r="Y62">
         <v>92</v>
       </c>
-      <c r="Z62" t="s">
-        <v>89</v>
+      <c r="Z62">
+        <v>92</v>
       </c>
       <c r="AA62">
+        <v>92</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC62">
         <v>2643</v>
       </c>
-      <c r="AB62">
+      <c r="AD62">
         <v>100</v>
       </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
         <v>2543</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:32">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6563,10 +6953,10 @@
         <v>61</v>
       </c>
       <c r="Q63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="R63">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="S63">
         <v>94</v>
@@ -6589,23 +6979,29 @@
       <c r="Y63">
         <v>94</v>
       </c>
-      <c r="Z63" t="s">
-        <v>90</v>
+      <c r="Z63">
+        <v>94</v>
       </c>
       <c r="AA63">
+        <v>94</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC63">
         <v>2826</v>
       </c>
-      <c r="AB63">
+      <c r="AD63">
         <v>102</v>
       </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
         <v>2724</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:32">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6655,10 +7051,10 @@
         <v>62</v>
       </c>
       <c r="Q64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="R64">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="S64">
         <v>96</v>
@@ -6681,23 +7077,29 @@
       <c r="Y64">
         <v>96</v>
       </c>
-      <c r="Z64" t="s">
-        <v>91</v>
+      <c r="Z64">
+        <v>96</v>
       </c>
       <c r="AA64">
+        <v>96</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC64">
         <v>2943</v>
       </c>
-      <c r="AB64">
+      <c r="AD64">
         <v>111</v>
       </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
         <v>2832</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:32">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6747,10 +7149,10 @@
         <v>63</v>
       </c>
       <c r="Q65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="R65">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="S65">
         <v>98</v>
@@ -6773,23 +7175,29 @@
       <c r="Y65">
         <v>98</v>
       </c>
-      <c r="Z65" t="s">
-        <v>92</v>
+      <c r="Z65">
+        <v>98</v>
       </c>
       <c r="AA65">
+        <v>98</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC65">
         <v>2943</v>
       </c>
-      <c r="AB65">
+      <c r="AD65">
         <v>111</v>
       </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
         <v>2832</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:32">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6839,10 +7247,10 @@
         <v>64</v>
       </c>
       <c r="Q66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="R66">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="S66">
         <v>100</v>
@@ -6865,23 +7273,29 @@
       <c r="Y66">
         <v>100</v>
       </c>
-      <c r="Z66" t="s">
-        <v>93</v>
+      <c r="Z66">
+        <v>100</v>
       </c>
       <c r="AA66">
+        <v>100</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC66">
         <v>3043</v>
       </c>
-      <c r="AB66">
+      <c r="AD66">
         <v>111</v>
       </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
         <v>2932</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:32">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6931,10 +7345,10 @@
         <v>65</v>
       </c>
       <c r="Q67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="R67">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="S67">
         <v>102</v>
@@ -6957,23 +7371,29 @@
       <c r="Y67">
         <v>102</v>
       </c>
-      <c r="Z67" t="s">
-        <v>94</v>
+      <c r="Z67">
+        <v>102</v>
       </c>
       <c r="AA67">
+        <v>102</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC67">
         <v>3141</v>
       </c>
-      <c r="AB67">
+      <c r="AD67">
         <v>113</v>
       </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
         <v>3028</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:32">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7023,10 +7443,10 @@
         <v>66</v>
       </c>
       <c r="Q68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="R68">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="S68">
         <v>104</v>
@@ -7049,23 +7469,29 @@
       <c r="Y68">
         <v>104</v>
       </c>
-      <c r="Z68" t="s">
-        <v>95</v>
+      <c r="Z68">
+        <v>104</v>
       </c>
       <c r="AA68">
+        <v>104</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC68">
         <v>3432</v>
       </c>
-      <c r="AB68">
+      <c r="AD68">
         <v>120</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
         <v>3312</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:32">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7115,10 +7541,10 @@
         <v>67</v>
       </c>
       <c r="Q69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="R69">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="S69">
         <v>106</v>
@@ -7141,23 +7567,29 @@
       <c r="Y69">
         <v>106</v>
       </c>
-      <c r="Z69" t="s">
-        <v>96</v>
+      <c r="Z69">
+        <v>106</v>
       </c>
       <c r="AA69">
+        <v>106</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC69">
         <v>3432</v>
       </c>
-      <c r="AB69">
+      <c r="AD69">
         <v>120</v>
       </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
         <v>3312</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:32">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7207,10 +7639,10 @@
         <v>68</v>
       </c>
       <c r="Q70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="R70">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="S70">
         <v>108</v>
@@ -7233,23 +7665,29 @@
       <c r="Y70">
         <v>108</v>
       </c>
-      <c r="Z70" t="s">
-        <v>97</v>
+      <c r="Z70">
+        <v>108</v>
       </c>
       <c r="AA70">
+        <v>108</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC70">
         <v>3564</v>
       </c>
-      <c r="AB70">
+      <c r="AD70">
         <v>124</v>
       </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
         <v>3440</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:32">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7299,10 +7737,10 @@
         <v>69</v>
       </c>
       <c r="Q71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="R71">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="S71">
         <v>110</v>
@@ -7325,23 +7763,29 @@
       <c r="Y71">
         <v>110</v>
       </c>
-      <c r="Z71" t="s">
-        <v>98</v>
+      <c r="Z71">
+        <v>110</v>
       </c>
       <c r="AA71">
+        <v>110</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC71">
         <v>3711</v>
       </c>
-      <c r="AB71">
+      <c r="AD71">
         <v>134</v>
       </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
         <v>3577</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:32">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7391,10 +7835,10 @@
         <v>70</v>
       </c>
       <c r="Q72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="R72">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="S72">
         <v>112</v>
@@ -7417,23 +7861,29 @@
       <c r="Y72">
         <v>112</v>
       </c>
-      <c r="Z72" t="s">
-        <v>99</v>
+      <c r="Z72">
+        <v>112</v>
       </c>
       <c r="AA72">
+        <v>112</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC72">
         <v>3927</v>
       </c>
-      <c r="AB72">
+      <c r="AD72">
         <v>139</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:32">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7483,10 +7933,10 @@
         <v>71</v>
       </c>
       <c r="Q73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="R73">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="S73">
         <v>114</v>
@@ -7509,23 +7959,29 @@
       <c r="Y73">
         <v>114</v>
       </c>
-      <c r="Z73" t="s">
-        <v>100</v>
+      <c r="Z73">
+        <v>114</v>
       </c>
       <c r="AA73">
+        <v>114</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC73">
         <v>3927</v>
       </c>
-      <c r="AB73">
+      <c r="AD73">
         <v>139</v>
       </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
         <v>3788</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:32">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7575,10 +8031,10 @@
         <v>72</v>
       </c>
       <c r="Q74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="R74">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="S74">
         <v>116</v>
@@ -7601,23 +8057,29 @@
       <c r="Y74">
         <v>116</v>
       </c>
-      <c r="Z74" t="s">
-        <v>101</v>
+      <c r="Z74">
+        <v>116</v>
       </c>
       <c r="AA74">
+        <v>116</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC74">
         <v>4020</v>
       </c>
-      <c r="AB74">
+      <c r="AD74">
         <v>144</v>
       </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74">
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
         <v>3876</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:32">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7667,10 +8129,10 @@
         <v>73</v>
       </c>
       <c r="Q75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="R75">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S75">
         <v>118</v>
@@ -7693,23 +8155,29 @@
       <c r="Y75">
         <v>118</v>
       </c>
-      <c r="Z75" t="s">
-        <v>102</v>
+      <c r="Z75">
+        <v>118</v>
       </c>
       <c r="AA75">
+        <v>118</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC75">
         <v>4319</v>
       </c>
-      <c r="AB75">
+      <c r="AD75">
         <v>158</v>
       </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
         <v>4161</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:32">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7759,10 +8227,10 @@
         <v>74</v>
       </c>
       <c r="Q76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="R76">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="S76">
         <v>120</v>
@@ -7785,23 +8253,29 @@
       <c r="Y76">
         <v>120</v>
       </c>
-      <c r="Z76" t="s">
-        <v>103</v>
+      <c r="Z76">
+        <v>120</v>
       </c>
       <c r="AA76">
+        <v>120</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC76">
         <v>4319</v>
       </c>
-      <c r="AB76">
+      <c r="AD76">
         <v>158</v>
       </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
         <v>4161</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:32">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7851,10 +8325,10 @@
         <v>75</v>
       </c>
       <c r="Q77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="R77">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="S77">
         <v>122</v>
@@ -7877,23 +8351,29 @@
       <c r="Y77">
         <v>122</v>
       </c>
-      <c r="Z77" t="s">
-        <v>104</v>
+      <c r="Z77">
+        <v>122</v>
       </c>
       <c r="AA77">
+        <v>122</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC77">
         <v>4429</v>
       </c>
-      <c r="AB77">
+      <c r="AD77">
         <v>165</v>
       </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
         <v>4264</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:32">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7943,10 +8423,10 @@
         <v>76</v>
       </c>
       <c r="Q78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="R78">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="S78">
         <v>124</v>
@@ -7969,23 +8449,29 @@
       <c r="Y78">
         <v>124</v>
       </c>
-      <c r="Z78" t="s">
-        <v>105</v>
+      <c r="Z78">
+        <v>124</v>
       </c>
       <c r="AA78">
+        <v>124</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC78">
         <v>4662</v>
       </c>
-      <c r="AB78">
+      <c r="AD78">
         <v>169</v>
       </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
         <v>4493</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:32">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8035,10 +8521,10 @@
         <v>77</v>
       </c>
       <c r="Q79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="R79">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="S79">
         <v>126</v>
@@ -8061,23 +8547,29 @@
       <c r="Y79">
         <v>126</v>
       </c>
-      <c r="Z79" t="s">
-        <v>106</v>
+      <c r="Z79">
+        <v>126</v>
       </c>
       <c r="AA79">
+        <v>126</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC79">
         <v>4776</v>
       </c>
-      <c r="AB79">
+      <c r="AD79">
         <v>175</v>
       </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
         <v>4601</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:32">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8127,10 +8619,10 @@
         <v>78</v>
       </c>
       <c r="Q80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="R80">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="S80">
         <v>128</v>
@@ -8153,23 +8645,29 @@
       <c r="Y80">
         <v>128</v>
       </c>
-      <c r="Z80" t="s">
-        <v>107</v>
+      <c r="Z80">
+        <v>128</v>
       </c>
       <c r="AA80">
+        <v>128</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC80">
         <v>5065</v>
       </c>
-      <c r="AB80">
+      <c r="AD80">
         <v>175</v>
       </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
         <v>4890</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:32">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8219,10 +8717,10 @@
         <v>79</v>
       </c>
       <c r="Q81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="R81">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="S81">
         <v>130</v>
@@ -8245,23 +8743,29 @@
       <c r="Y81">
         <v>130</v>
       </c>
-      <c r="Z81" t="s">
-        <v>108</v>
+      <c r="Z81">
+        <v>130</v>
       </c>
       <c r="AA81">
+        <v>130</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC81">
         <v>5161</v>
       </c>
-      <c r="AB81">
+      <c r="AD81">
         <v>190</v>
       </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
         <v>4971</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:32">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8311,10 +8815,10 @@
         <v>80</v>
       </c>
       <c r="Q82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="R82">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="S82">
         <v>132</v>
@@ -8337,23 +8841,29 @@
       <c r="Y82">
         <v>132</v>
       </c>
-      <c r="Z82" t="s">
-        <v>109</v>
+      <c r="Z82">
+        <v>132</v>
       </c>
       <c r="AA82">
+        <v>132</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC82">
         <v>5161</v>
       </c>
-      <c r="AB82">
+      <c r="AD82">
         <v>190</v>
       </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
         <v>4971</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:32">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8403,10 +8913,10 @@
         <v>81</v>
       </c>
       <c r="Q83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="R83">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="S83">
         <v>134</v>
@@ -8429,23 +8939,29 @@
       <c r="Y83">
         <v>134</v>
       </c>
-      <c r="Z83" t="s">
-        <v>110</v>
+      <c r="Z83">
+        <v>134</v>
       </c>
       <c r="AA83">
+        <v>134</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC83">
         <v>5391</v>
       </c>
-      <c r="AB83">
+      <c r="AD83">
         <v>200</v>
       </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
         <v>5191</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:32">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8495,10 +9011,10 @@
         <v>82</v>
       </c>
       <c r="Q84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="R84">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="S84">
         <v>136</v>
@@ -8521,23 +9037,29 @@
       <c r="Y84">
         <v>136</v>
       </c>
-      <c r="Z84" t="s">
-        <v>111</v>
+      <c r="Z84">
+        <v>136</v>
       </c>
       <c r="AA84">
+        <v>136</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC84">
         <v>5391</v>
       </c>
-      <c r="AB84">
+      <c r="AD84">
         <v>200</v>
       </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
         <v>5191</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:32">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8587,10 +9109,10 @@
         <v>83</v>
       </c>
       <c r="Q85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="R85">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="S85">
         <v>138</v>
@@ -8613,23 +9135,29 @@
       <c r="Y85">
         <v>138</v>
       </c>
-      <c r="Z85" t="s">
-        <v>112</v>
+      <c r="Z85">
+        <v>138</v>
       </c>
       <c r="AA85">
+        <v>138</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC85">
         <v>5662</v>
       </c>
-      <c r="AB85">
+      <c r="AD85">
         <v>209</v>
       </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
         <v>5453</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:32">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8679,10 +9207,10 @@
         <v>84</v>
       </c>
       <c r="Q86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="R86">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="S86">
         <v>140</v>
@@ -8705,23 +9233,29 @@
       <c r="Y86">
         <v>140</v>
       </c>
-      <c r="Z86" t="s">
-        <v>113</v>
+      <c r="Z86">
+        <v>140</v>
       </c>
       <c r="AA86">
+        <v>140</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC86">
         <v>5836</v>
       </c>
-      <c r="AB86">
+      <c r="AD86">
         <v>209</v>
       </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
         <v>5627</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:32">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8771,10 +9305,10 @@
         <v>85</v>
       </c>
       <c r="Q87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="R87">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="S87">
         <v>142</v>
@@ -8797,23 +9331,29 @@
       <c r="Y87">
         <v>142</v>
       </c>
-      <c r="Z87" t="s">
-        <v>114</v>
+      <c r="Z87">
+        <v>142</v>
       </c>
       <c r="AA87">
+        <v>142</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC87">
         <v>5836</v>
       </c>
-      <c r="AB87">
+      <c r="AD87">
         <v>209</v>
       </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
         <v>5627</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:32">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8863,10 +9403,10 @@
         <v>86</v>
       </c>
       <c r="Q88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="R88">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="S88">
         <v>144</v>
@@ -8889,23 +9429,29 @@
       <c r="Y88">
         <v>144</v>
       </c>
-      <c r="Z88" t="s">
-        <v>115</v>
+      <c r="Z88">
+        <v>144</v>
       </c>
       <c r="AA88">
+        <v>144</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC88">
         <v>6026</v>
       </c>
-      <c r="AB88">
+      <c r="AD88">
         <v>222</v>
       </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AD88">
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
         <v>5804</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:32">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8955,10 +9501,10 @@
         <v>87</v>
       </c>
       <c r="Q89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="R89">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="S89">
         <v>146</v>
@@ -8981,23 +9527,29 @@
       <c r="Y89">
         <v>146</v>
       </c>
-      <c r="Z89" t="s">
-        <v>116</v>
+      <c r="Z89">
+        <v>146</v>
       </c>
       <c r="AA89">
+        <v>146</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC89">
         <v>6140</v>
       </c>
-      <c r="AB89">
+      <c r="AD89">
         <v>230</v>
       </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89">
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
         <v>5910</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:32">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9047,10 +9599,10 @@
         <v>88</v>
       </c>
       <c r="Q90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="R90">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="S90">
         <v>148</v>
@@ -9073,23 +9625,29 @@
       <c r="Y90">
         <v>148</v>
       </c>
-      <c r="Z90" t="s">
-        <v>117</v>
+      <c r="Z90">
+        <v>148</v>
       </c>
       <c r="AA90">
+        <v>148</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC90">
         <v>6140</v>
       </c>
-      <c r="AB90">
+      <c r="AD90">
         <v>230</v>
       </c>
-      <c r="AC90">
-        <v>0</v>
-      </c>
-      <c r="AD90">
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
         <v>5910</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:32">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9139,10 +9697,10 @@
         <v>89</v>
       </c>
       <c r="Q91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="R91">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="S91">
         <v>150</v>
@@ -9165,23 +9723,29 @@
       <c r="Y91">
         <v>150</v>
       </c>
-      <c r="Z91" t="s">
-        <v>118</v>
+      <c r="Z91">
+        <v>150</v>
       </c>
       <c r="AA91">
+        <v>150</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC91">
         <v>6315</v>
       </c>
-      <c r="AB91">
+      <c r="AD91">
         <v>241</v>
       </c>
-      <c r="AC91">
-        <v>0</v>
-      </c>
-      <c r="AD91">
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
         <v>6074</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:32">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9231,10 +9795,10 @@
         <v>90</v>
       </c>
       <c r="Q92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="R92">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="S92">
         <v>152</v>
@@ -9257,23 +9821,29 @@
       <c r="Y92">
         <v>152</v>
       </c>
-      <c r="Z92" t="s">
-        <v>119</v>
+      <c r="Z92">
+        <v>152</v>
       </c>
       <c r="AA92">
+        <v>152</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC92">
         <v>6559</v>
       </c>
-      <c r="AB92">
+      <c r="AD92">
         <v>249</v>
       </c>
-      <c r="AC92">
-        <v>0</v>
-      </c>
-      <c r="AD92">
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
         <v>6310</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:32">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9323,10 +9893,10 @@
         <v>91</v>
       </c>
       <c r="Q93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="R93">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="S93">
         <v>154</v>
@@ -9349,23 +9919,29 @@
       <c r="Y93">
         <v>154</v>
       </c>
-      <c r="Z93" t="s">
-        <v>120</v>
+      <c r="Z93">
+        <v>154</v>
       </c>
       <c r="AA93">
+        <v>154</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC93">
         <v>6559</v>
       </c>
-      <c r="AB93">
+      <c r="AD93">
         <v>249</v>
       </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93">
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
         <v>6310</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:32">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9415,10 +9991,10 @@
         <v>92</v>
       </c>
       <c r="Q94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="R94">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="S94">
         <v>156</v>
@@ -9441,23 +10017,29 @@
       <c r="Y94">
         <v>156</v>
       </c>
-      <c r="Z94" t="s">
-        <v>121</v>
+      <c r="Z94">
+        <v>156</v>
       </c>
       <c r="AA94">
+        <v>156</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC94">
         <v>6701</v>
       </c>
-      <c r="AB94">
+      <c r="AD94">
         <v>249</v>
       </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
         <v>6452</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:32">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9507,10 +10089,10 @@
         <v>93</v>
       </c>
       <c r="Q95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="R95">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="S95">
         <v>158</v>
@@ -9533,23 +10115,29 @@
       <c r="Y95">
         <v>158</v>
       </c>
-      <c r="Z95" t="s">
-        <v>122</v>
+      <c r="Z95">
+        <v>158</v>
       </c>
       <c r="AA95">
+        <v>158</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC95">
         <v>6797</v>
       </c>
-      <c r="AB95">
+      <c r="AD95">
         <v>249</v>
       </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AD95">
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
         <v>6548</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:32">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9599,10 +10187,10 @@
         <v>94</v>
       </c>
       <c r="Q96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="R96">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="S96">
         <v>160</v>
@@ -9625,23 +10213,29 @@
       <c r="Y96">
         <v>160</v>
       </c>
-      <c r="Z96" t="s">
-        <v>123</v>
+      <c r="Z96">
+        <v>160</v>
       </c>
       <c r="AA96">
+        <v>160</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC96">
         <v>6882</v>
       </c>
-      <c r="AB96">
+      <c r="AD96">
         <v>249</v>
       </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
         <v>6633</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:32">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9691,10 +10285,10 @@
         <v>95</v>
       </c>
       <c r="Q97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="R97">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="S97">
         <v>162</v>
@@ -9717,23 +10311,29 @@
       <c r="Y97">
         <v>162</v>
       </c>
-      <c r="Z97" t="s">
-        <v>124</v>
+      <c r="Z97">
+        <v>162</v>
       </c>
       <c r="AA97">
+        <v>162</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC97">
         <v>7100</v>
       </c>
-      <c r="AB97">
+      <c r="AD97">
         <v>260</v>
       </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
         <v>6840</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:32">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9783,10 +10383,10 @@
         <v>96</v>
       </c>
       <c r="Q98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="R98">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="S98">
         <v>164</v>
@@ -9809,23 +10409,29 @@
       <c r="Y98">
         <v>164</v>
       </c>
-      <c r="Z98" t="s">
-        <v>125</v>
+      <c r="Z98">
+        <v>164</v>
       </c>
       <c r="AA98">
+        <v>164</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC98">
         <v>7100</v>
       </c>
-      <c r="AB98">
+      <c r="AD98">
         <v>260</v>
       </c>
-      <c r="AC98">
-        <v>0</v>
-      </c>
-      <c r="AD98">
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
         <v>6840</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:32">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9875,10 +10481,10 @@
         <v>97</v>
       </c>
       <c r="Q99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="R99">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="S99">
         <v>166</v>
@@ -9901,23 +10507,29 @@
       <c r="Y99">
         <v>166</v>
       </c>
-      <c r="Z99" t="s">
-        <v>126</v>
+      <c r="Z99">
+        <v>166</v>
       </c>
       <c r="AA99">
+        <v>166</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC99">
         <v>7385</v>
       </c>
-      <c r="AB99">
+      <c r="AD99">
         <v>269</v>
       </c>
-      <c r="AC99">
-        <v>0</v>
-      </c>
-      <c r="AD99">
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
         <v>7116</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:32">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9967,10 +10579,10 @@
         <v>98</v>
       </c>
       <c r="Q100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="R100">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="S100">
         <v>168</v>
@@ -9993,23 +10605,29 @@
       <c r="Y100">
         <v>168</v>
       </c>
-      <c r="Z100" t="s">
-        <v>127</v>
+      <c r="Z100">
+        <v>168</v>
       </c>
       <c r="AA100">
+        <v>168</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC100">
         <v>7481</v>
       </c>
-      <c r="AB100">
+      <c r="AD100">
         <v>269</v>
       </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
         <v>7212</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:32">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10059,10 +10677,10 @@
         <v>99</v>
       </c>
       <c r="Q101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="R101">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="S101">
         <v>170</v>
@@ -10085,23 +10703,29 @@
       <c r="Y101">
         <v>170</v>
       </c>
-      <c r="Z101" t="s">
-        <v>128</v>
+      <c r="Z101">
+        <v>170</v>
       </c>
       <c r="AA101">
+        <v>170</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC101">
         <v>7481</v>
       </c>
-      <c r="AB101">
+      <c r="AD101">
         <v>269</v>
       </c>
-      <c r="AC101">
-        <v>0</v>
-      </c>
-      <c r="AD101">
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
         <v>7212</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:32">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10151,10 +10775,10 @@
         <v>100</v>
       </c>
       <c r="Q102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="R102">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="S102">
         <v>172</v>
@@ -10177,23 +10801,29 @@
       <c r="Y102">
         <v>172</v>
       </c>
-      <c r="Z102" t="s">
-        <v>129</v>
+      <c r="Z102">
+        <v>172</v>
       </c>
       <c r="AA102">
+        <v>172</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC102">
         <v>7554</v>
       </c>
-      <c r="AB102">
+      <c r="AD102">
         <v>269</v>
       </c>
-      <c r="AC102">
-        <v>0</v>
-      </c>
-      <c r="AD102">
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
         <v>7285</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:32">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10243,10 +10873,10 @@
         <v>101</v>
       </c>
       <c r="Q103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="R103">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="S103">
         <v>174</v>
@@ -10269,23 +10899,29 @@
       <c r="Y103">
         <v>174</v>
       </c>
-      <c r="Z103" t="s">
-        <v>130</v>
+      <c r="Z103">
+        <v>174</v>
       </c>
       <c r="AA103">
+        <v>174</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC103">
         <v>7674</v>
       </c>
-      <c r="AB103">
+      <c r="AD103">
         <v>276</v>
       </c>
-      <c r="AC103">
-        <v>0</v>
-      </c>
-      <c r="AD103">
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
         <v>7398</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:32">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10335,10 +10971,10 @@
         <v>102</v>
       </c>
       <c r="Q104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="R104">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="S104">
         <v>176</v>
@@ -10361,23 +10997,29 @@
       <c r="Y104">
         <v>176</v>
       </c>
-      <c r="Z104" t="s">
-        <v>131</v>
+      <c r="Z104">
+        <v>176</v>
       </c>
       <c r="AA104">
+        <v>176</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC104">
         <v>7798</v>
       </c>
-      <c r="AB104">
+      <c r="AD104">
         <v>283</v>
       </c>
-      <c r="AC104">
-        <v>0</v>
-      </c>
-      <c r="AD104">
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
         <v>7515</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:32">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10427,10 +11069,10 @@
         <v>103</v>
       </c>
       <c r="Q105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="R105">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="S105">
         <v>178</v>
@@ -10453,23 +11095,29 @@
       <c r="Y105">
         <v>178</v>
       </c>
-      <c r="Z105" t="s">
-        <v>132</v>
+      <c r="Z105">
+        <v>178</v>
       </c>
       <c r="AA105">
+        <v>178</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC105">
         <v>7940</v>
       </c>
-      <c r="AB105">
+      <c r="AD105">
         <v>288</v>
       </c>
-      <c r="AC105">
-        <v>0</v>
-      </c>
-      <c r="AD105">
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
         <v>7652</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:32">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10519,10 +11167,10 @@
         <v>104</v>
       </c>
       <c r="Q106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="R106">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="S106">
         <v>180</v>
@@ -10545,23 +11193,29 @@
       <c r="Y106">
         <v>180</v>
       </c>
-      <c r="Z106" t="s">
-        <v>133</v>
+      <c r="Z106">
+        <v>180</v>
       </c>
       <c r="AA106">
+        <v>180</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC106">
         <v>8345</v>
       </c>
-      <c r="AB106">
+      <c r="AD106">
         <v>296</v>
       </c>
-      <c r="AC106">
-        <v>0</v>
-      </c>
-      <c r="AD106">
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
         <v>8049</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:32">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10611,10 +11265,10 @@
         <v>105</v>
       </c>
       <c r="Q107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="R107">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="S107">
         <v>182</v>
@@ -10637,23 +11291,29 @@
       <c r="Y107">
         <v>182</v>
       </c>
-      <c r="Z107" t="s">
-        <v>134</v>
+      <c r="Z107">
+        <v>182</v>
       </c>
       <c r="AA107">
+        <v>182</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC107">
         <v>8345</v>
       </c>
-      <c r="AB107">
+      <c r="AD107">
         <v>296</v>
       </c>
-      <c r="AC107">
-        <v>0</v>
-      </c>
-      <c r="AD107">
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
         <v>8049</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:32">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10703,10 +11363,10 @@
         <v>106</v>
       </c>
       <c r="Q108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="R108">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="S108">
         <v>184</v>
@@ -10729,23 +11389,29 @@
       <c r="Y108">
         <v>184</v>
       </c>
-      <c r="Z108" t="s">
-        <v>135</v>
+      <c r="Z108">
+        <v>184</v>
       </c>
       <c r="AA108">
+        <v>184</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC108">
         <v>8619</v>
       </c>
-      <c r="AB108">
+      <c r="AD108">
         <v>296</v>
       </c>
-      <c r="AC108">
-        <v>0</v>
-      </c>
-      <c r="AD108">
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
         <v>8323</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:32">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10795,10 +11461,10 @@
         <v>107</v>
       </c>
       <c r="Q109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="R109">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="S109">
         <v>186</v>
@@ -10821,23 +11487,29 @@
       <c r="Y109">
         <v>186</v>
       </c>
-      <c r="Z109" t="s">
-        <v>136</v>
+      <c r="Z109">
+        <v>186</v>
       </c>
       <c r="AA109">
+        <v>186</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC109">
         <v>8619</v>
       </c>
-      <c r="AB109">
+      <c r="AD109">
         <v>296</v>
       </c>
-      <c r="AC109">
-        <v>0</v>
-      </c>
-      <c r="AD109">
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
         <v>8323</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:32">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10887,10 +11559,10 @@
         <v>108</v>
       </c>
       <c r="Q110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="R110">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="S110">
         <v>188</v>
@@ -10913,23 +11585,29 @@
       <c r="Y110">
         <v>188</v>
       </c>
-      <c r="Z110" t="s">
-        <v>137</v>
+      <c r="Z110">
+        <v>188</v>
       </c>
       <c r="AA110">
+        <v>188</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC110">
         <v>8837</v>
       </c>
-      <c r="AB110">
+      <c r="AD110">
         <v>305</v>
       </c>
-      <c r="AC110">
-        <v>0</v>
-      </c>
-      <c r="AD110">
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
         <v>8532</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:32">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10979,10 +11657,10 @@
         <v>109</v>
       </c>
       <c r="Q111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="R111">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="S111">
         <v>190</v>
@@ -11005,23 +11683,29 @@
       <c r="Y111">
         <v>190</v>
       </c>
-      <c r="Z111" t="s">
-        <v>138</v>
+      <c r="Z111">
+        <v>190</v>
       </c>
       <c r="AA111">
+        <v>190</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC111">
         <v>8998</v>
       </c>
-      <c r="AB111">
+      <c r="AD111">
         <v>308</v>
       </c>
-      <c r="AC111">
-        <v>0</v>
-      </c>
-      <c r="AD111">
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
         <v>8690</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:32">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11064,23 +11748,29 @@
       <c r="N112">
         <v>110</v>
       </c>
-      <c r="Z112" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA112">
+      <c r="O112">
+        <v>110</v>
+      </c>
+      <c r="P112">
+        <v>110</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC112">
         <v>8998</v>
       </c>
-      <c r="AB112">
+      <c r="AD112">
         <v>308</v>
       </c>
-      <c r="AC112">
-        <v>0</v>
-      </c>
-      <c r="AD112">
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
         <v>8690</v>
       </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:32">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11117,23 +11807,29 @@
       <c r="L113">
         <v>111</v>
       </c>
-      <c r="Z113" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA113">
+      <c r="M113">
+        <v>111</v>
+      </c>
+      <c r="N113">
+        <v>111</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC113">
         <v>9314</v>
       </c>
-      <c r="AB113">
+      <c r="AD113">
         <v>319</v>
       </c>
-      <c r="AC113">
-        <v>0</v>
-      </c>
-      <c r="AD113">
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
         <v>8995</v>
       </c>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:32">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11143,86 +11839,202 @@
       <c r="C114">
         <v>112</v>
       </c>
-      <c r="Z114" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA114">
+      <c r="D114">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC114">
         <v>9440</v>
       </c>
-      <c r="AB114">
+      <c r="AD114">
         <v>319</v>
       </c>
-      <c r="AC114">
-        <v>0</v>
-      </c>
-      <c r="AD114">
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
         <v>9121</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:32">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
         <v>113</v>
       </c>
-      <c r="Z115" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA115">
+      <c r="C115">
+        <v>113</v>
+      </c>
+      <c r="D115">
+        <v>113</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC115">
         <v>9610</v>
       </c>
-      <c r="AB115">
+      <c r="AD115">
         <v>320</v>
       </c>
-      <c r="AC115">
-        <v>0</v>
-      </c>
-      <c r="AD115">
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
         <v>9290</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:32">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
         <v>114</v>
       </c>
-      <c r="Z116" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA116">
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>114</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC116">
         <v>9730</v>
       </c>
-      <c r="AB116">
+      <c r="AD116">
         <v>323</v>
       </c>
-      <c r="AC116">
-        <v>0</v>
-      </c>
-      <c r="AD116">
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
         <v>9407</v>
       </c>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:32">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="Z117" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA117">
+      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC117">
         <v>9730</v>
       </c>
-      <c r="AB117">
+      <c r="AD117">
         <v>323</v>
       </c>
-      <c r="AC117">
-        <v>0</v>
-      </c>
-      <c r="AD117">
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
         <v>9407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC118">
+        <v>10092</v>
+      </c>
+      <c r="AD118">
+        <v>331</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>9761</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC119">
+        <v>10350</v>
+      </c>
+      <c r="AD119">
+        <v>332</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC120">
+        <v>10484</v>
+      </c>
+      <c r="AD120">
+        <v>338</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC121">
+        <v>10794</v>
+      </c>
+      <c r="AD121">
+        <v>338</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>10456</v>
       </c>
     </row>
   </sheetData>

--- a/San_Diego_Data.xlsx
+++ b/San_Diego_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Date</t>
@@ -824,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AH121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,8 +930,14 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:34">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1007,23 +1019,29 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
-        <v>31</v>
+      <c r="AB2">
+        <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1105,23 +1123,29 @@
       <c r="AA3">
         <v>1</v>
       </c>
-      <c r="AB3" t="s">
-        <v>32</v>
+      <c r="AB3">
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
+      <c r="AD3" t="s">
+        <v>34</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1203,23 +1227,29 @@
       <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AB4" t="s">
-        <v>33</v>
+      <c r="AB4">
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>2</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
+      <c r="AD4" t="s">
+        <v>35</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:34">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1301,23 +1331,29 @@
       <c r="AA5">
         <v>3</v>
       </c>
-      <c r="AB5" t="s">
-        <v>34</v>
+      <c r="AB5">
+        <v>3</v>
       </c>
       <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5">
         <v>2</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1399,23 +1435,29 @@
       <c r="AA6">
         <v>4</v>
       </c>
-      <c r="AB6" t="s">
-        <v>35</v>
+      <c r="AB6">
+        <v>4</v>
       </c>
       <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6">
         <v>2</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:34">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1497,23 +1539,29 @@
       <c r="AA7">
         <v>5</v>
       </c>
-      <c r="AB7" t="s">
-        <v>36</v>
+      <c r="AB7">
+        <v>5</v>
       </c>
       <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7">
         <v>2</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:34">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1595,23 +1643,29 @@
       <c r="AA8">
         <v>6</v>
       </c>
-      <c r="AB8" t="s">
-        <v>37</v>
+      <c r="AB8">
+        <v>6</v>
       </c>
       <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE8">
         <v>2</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
       <c r="AF8">
         <v>0</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:34">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1693,23 +1747,29 @@
       <c r="AA9">
         <v>7</v>
       </c>
-      <c r="AB9" t="s">
-        <v>38</v>
+      <c r="AB9">
+        <v>7</v>
       </c>
       <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9">
         <v>2</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
       <c r="AF9">
         <v>0</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:34">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1791,23 +1851,29 @@
       <c r="AA10">
         <v>8</v>
       </c>
-      <c r="AB10" t="s">
-        <v>39</v>
+      <c r="AB10">
+        <v>8</v>
       </c>
       <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10">
         <v>2</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:34">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1889,23 +1955,29 @@
       <c r="AA11">
         <v>9</v>
       </c>
-      <c r="AB11" t="s">
-        <v>40</v>
+      <c r="AB11">
+        <v>9</v>
       </c>
       <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11">
         <v>2</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:34">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1987,23 +2059,29 @@
       <c r="AA12">
         <v>10</v>
       </c>
-      <c r="AB12" t="s">
-        <v>41</v>
+      <c r="AB12">
+        <v>10</v>
       </c>
       <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12">
         <v>2</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>1</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:34">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2085,23 +2163,29 @@
       <c r="AA13">
         <v>11</v>
       </c>
-      <c r="AB13" t="s">
-        <v>42</v>
+      <c r="AB13">
+        <v>11</v>
       </c>
       <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13">
         <v>2</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>1</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:34">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2183,23 +2267,29 @@
       <c r="AA14">
         <v>12</v>
       </c>
-      <c r="AB14" t="s">
-        <v>43</v>
+      <c r="AB14">
+        <v>12</v>
       </c>
       <c r="AC14">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14">
         <v>2</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
         <v>1</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:34">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2281,23 +2371,29 @@
       <c r="AA15">
         <v>13</v>
       </c>
-      <c r="AB15" t="s">
-        <v>44</v>
+      <c r="AB15">
+        <v>13</v>
       </c>
       <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE15">
         <v>2</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>1</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:34">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2379,23 +2475,29 @@
       <c r="AA16">
         <v>14</v>
       </c>
-      <c r="AB16" t="s">
-        <v>45</v>
+      <c r="AB16">
+        <v>14</v>
       </c>
       <c r="AC16">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE16">
         <v>2</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>1</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:34">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2477,23 +2579,29 @@
       <c r="AA17">
         <v>15</v>
       </c>
-      <c r="AB17" t="s">
-        <v>46</v>
+      <c r="AB17">
+        <v>15</v>
       </c>
       <c r="AC17">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17">
         <v>2</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>1</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:34">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2575,23 +2683,29 @@
       <c r="AA18">
         <v>16</v>
       </c>
-      <c r="AB18" t="s">
-        <v>47</v>
+      <c r="AB18">
+        <v>16</v>
       </c>
       <c r="AC18">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE18">
         <v>2</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>1</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:34">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2673,23 +2787,29 @@
       <c r="AA19">
         <v>17</v>
       </c>
-      <c r="AB19" t="s">
-        <v>48</v>
+      <c r="AB19">
+        <v>17</v>
       </c>
       <c r="AC19">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE19">
         <v>2</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>1</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:34">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2771,23 +2891,29 @@
       <c r="AA20">
         <v>18</v>
       </c>
-      <c r="AB20" t="s">
-        <v>49</v>
+      <c r="AB20">
+        <v>18</v>
       </c>
       <c r="AC20">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE20">
         <v>2</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>1</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:34">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2869,23 +2995,29 @@
       <c r="AA21">
         <v>19</v>
       </c>
-      <c r="AB21" t="s">
-        <v>50</v>
+      <c r="AB21">
+        <v>19</v>
       </c>
       <c r="AC21">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE21">
         <v>2</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>1</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:34">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2967,23 +3099,29 @@
       <c r="AA22">
         <v>20</v>
       </c>
-      <c r="AB22" t="s">
-        <v>51</v>
+      <c r="AB22">
+        <v>20</v>
       </c>
       <c r="AC22">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE22">
         <v>2</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>1</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:34">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3065,23 +3203,29 @@
       <c r="AA23">
         <v>21</v>
       </c>
-      <c r="AB23" t="s">
-        <v>52</v>
+      <c r="AB23">
+        <v>21</v>
       </c>
       <c r="AC23">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE23">
         <v>2</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>1</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:34">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3163,23 +3307,29 @@
       <c r="AA24">
         <v>22</v>
       </c>
-      <c r="AB24" t="s">
-        <v>53</v>
+      <c r="AB24">
+        <v>22</v>
       </c>
       <c r="AC24">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE24">
         <v>2</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>1</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:34">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3261,23 +3411,29 @@
       <c r="AA25">
         <v>23</v>
       </c>
-      <c r="AB25" t="s">
-        <v>54</v>
+      <c r="AB25">
+        <v>23</v>
       </c>
       <c r="AC25">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25">
         <v>3</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>1</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:34">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3359,23 +3515,29 @@
       <c r="AA26">
         <v>24</v>
       </c>
-      <c r="AB26" t="s">
-        <v>55</v>
+      <c r="AB26">
+        <v>24</v>
       </c>
       <c r="AC26">
+        <v>24</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE26">
         <v>3</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>1</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:34">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3457,23 +3619,29 @@
       <c r="AA27">
         <v>25</v>
       </c>
-      <c r="AB27" t="s">
-        <v>56</v>
+      <c r="AB27">
+        <v>25</v>
       </c>
       <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE27">
         <v>3</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>1</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:34">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3555,23 +3723,29 @@
       <c r="AA28">
         <v>26</v>
       </c>
-      <c r="AB28" t="s">
-        <v>57</v>
+      <c r="AB28">
+        <v>26</v>
       </c>
       <c r="AC28">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE28">
         <v>3</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
         <v>1</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:34">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3653,23 +3827,29 @@
       <c r="AA29">
         <v>27</v>
       </c>
-      <c r="AB29" t="s">
-        <v>58</v>
+      <c r="AB29">
+        <v>27</v>
       </c>
       <c r="AC29">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE29">
         <v>3</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
         <v>1</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:34">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3751,23 +3931,29 @@
       <c r="AA30">
         <v>28</v>
       </c>
-      <c r="AB30" t="s">
-        <v>59</v>
+      <c r="AB30">
+        <v>28</v>
       </c>
       <c r="AC30">
+        <v>28</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE30">
         <v>155</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
       <c r="AF30">
         <v>0</v>
       </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:34">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3823,10 +4009,10 @@
         <v>29</v>
       </c>
       <c r="S31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31">
         <v>30</v>
@@ -3849,23 +4035,29 @@
       <c r="AA31">
         <v>30</v>
       </c>
-      <c r="AB31" t="s">
-        <v>60</v>
+      <c r="AB31">
+        <v>30</v>
       </c>
       <c r="AC31">
+        <v>30</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE31">
         <v>201</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>1</v>
       </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:34">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3921,10 +4113,10 @@
         <v>30</v>
       </c>
       <c r="S32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U32">
         <v>32</v>
@@ -3947,23 +4139,29 @@
       <c r="AA32">
         <v>32</v>
       </c>
-      <c r="AB32" t="s">
-        <v>61</v>
+      <c r="AB32">
+        <v>32</v>
       </c>
       <c r="AC32">
+        <v>32</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE32">
         <v>226</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>1</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:34">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4019,10 +4217,10 @@
         <v>31</v>
       </c>
       <c r="S33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U33">
         <v>34</v>
@@ -4045,23 +4243,29 @@
       <c r="AA33">
         <v>34</v>
       </c>
-      <c r="AB33" t="s">
-        <v>62</v>
+      <c r="AB33">
+        <v>34</v>
       </c>
       <c r="AC33">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE33">
         <v>238</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>2</v>
       </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:34">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4117,10 +4321,10 @@
         <v>32</v>
       </c>
       <c r="S34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U34">
         <v>36</v>
@@ -4143,23 +4347,29 @@
       <c r="AA34">
         <v>36</v>
       </c>
-      <c r="AB34" t="s">
-        <v>63</v>
+      <c r="AB34">
+        <v>36</v>
       </c>
       <c r="AC34">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE34">
         <v>293</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>3</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:34">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4215,10 +4425,10 @@
         <v>33</v>
       </c>
       <c r="S35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U35">
         <v>38</v>
@@ -4241,23 +4451,29 @@
       <c r="AA35">
         <v>38</v>
       </c>
-      <c r="AB35" t="s">
-        <v>64</v>
+      <c r="AB35">
+        <v>38</v>
       </c>
       <c r="AC35">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35">
         <v>341</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>3</v>
       </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:34">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4313,10 +4529,10 @@
         <v>34</v>
       </c>
       <c r="S36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T36">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="U36">
         <v>40</v>
@@ -4339,23 +4555,29 @@
       <c r="AA36">
         <v>40</v>
       </c>
-      <c r="AB36" t="s">
-        <v>65</v>
+      <c r="AB36">
+        <v>40</v>
       </c>
       <c r="AC36">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE36">
         <v>413</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>6</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:34">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4411,10 +4633,10 @@
         <v>35</v>
       </c>
       <c r="S37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="U37">
         <v>42</v>
@@ -4437,23 +4659,29 @@
       <c r="AA37">
         <v>42</v>
       </c>
-      <c r="AB37" t="s">
-        <v>66</v>
+      <c r="AB37">
+        <v>42</v>
       </c>
       <c r="AC37">
+        <v>42</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE37">
         <v>484</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>7</v>
       </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:34">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4509,10 +4737,10 @@
         <v>36</v>
       </c>
       <c r="S38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="T38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="U38">
         <v>44</v>
@@ -4535,23 +4763,29 @@
       <c r="AA38">
         <v>44</v>
       </c>
-      <c r="AB38" t="s">
-        <v>67</v>
+      <c r="AB38">
+        <v>44</v>
       </c>
       <c r="AC38">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE38">
         <v>515</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>7</v>
       </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:34">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4607,10 +4841,10 @@
         <v>37</v>
       </c>
       <c r="S39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T39">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="U39">
         <v>46</v>
@@ -4633,23 +4867,29 @@
       <c r="AA39">
         <v>46</v>
       </c>
-      <c r="AB39" t="s">
-        <v>68</v>
+      <c r="AB39">
+        <v>46</v>
       </c>
       <c r="AC39">
+        <v>46</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE39">
         <v>603</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>7</v>
       </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:34">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4705,10 +4945,10 @@
         <v>38</v>
       </c>
       <c r="S40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="T40">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U40">
         <v>48</v>
@@ -4731,23 +4971,29 @@
       <c r="AA40">
         <v>48</v>
       </c>
-      <c r="AB40" t="s">
-        <v>69</v>
+      <c r="AB40">
+        <v>48</v>
       </c>
       <c r="AC40">
+        <v>48</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE40">
         <v>733</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:34">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4803,10 +5049,10 @@
         <v>39</v>
       </c>
       <c r="S41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T41">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="U41">
         <v>50</v>
@@ -4829,23 +5075,29 @@
       <c r="AA41">
         <v>50</v>
       </c>
-      <c r="AB41" t="s">
-        <v>70</v>
+      <c r="AB41">
+        <v>50</v>
       </c>
       <c r="AC41">
+        <v>50</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE41">
         <v>849</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>15</v>
       </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:34">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4901,10 +5153,10 @@
         <v>40</v>
       </c>
       <c r="S42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="T42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="U42">
         <v>52</v>
@@ -4927,23 +5179,29 @@
       <c r="AA42">
         <v>52</v>
       </c>
-      <c r="AB42" t="s">
-        <v>71</v>
+      <c r="AB42">
+        <v>52</v>
       </c>
       <c r="AC42">
+        <v>52</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE42">
         <v>966</v>
       </c>
-      <c r="AD42">
+      <c r="AF42">
         <v>16</v>
       </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:34">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4999,10 +5257,10 @@
         <v>41</v>
       </c>
       <c r="S43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="T43">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="U43">
         <v>54</v>
@@ -5025,23 +5283,29 @@
       <c r="AA43">
         <v>54</v>
       </c>
-      <c r="AB43" t="s">
-        <v>72</v>
+      <c r="AB43">
+        <v>54</v>
       </c>
       <c r="AC43">
+        <v>54</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE43">
         <v>1112</v>
       </c>
-      <c r="AD43">
+      <c r="AF43">
         <v>17</v>
       </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:34">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5097,10 +5361,10 @@
         <v>42</v>
       </c>
       <c r="S44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="T44">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="U44">
         <v>56</v>
@@ -5123,23 +5387,29 @@
       <c r="AA44">
         <v>56</v>
       </c>
-      <c r="AB44" t="s">
-        <v>73</v>
+      <c r="AB44">
+        <v>56</v>
       </c>
       <c r="AC44">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE44">
         <v>1209</v>
       </c>
-      <c r="AD44">
+      <c r="AF44">
         <v>18</v>
       </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:34">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5195,10 +5465,10 @@
         <v>43</v>
       </c>
       <c r="S45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="T45">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="U45">
         <v>58</v>
@@ -5221,23 +5491,29 @@
       <c r="AA45">
         <v>58</v>
       </c>
-      <c r="AB45" t="s">
-        <v>74</v>
+      <c r="AB45">
+        <v>58</v>
       </c>
       <c r="AC45">
+        <v>58</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE45">
         <v>1326</v>
       </c>
-      <c r="AD45">
+      <c r="AF45">
         <v>19</v>
       </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:34">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5293,10 +5569,10 @@
         <v>44</v>
       </c>
       <c r="S46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="T46">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="U46">
         <v>60</v>
@@ -5319,23 +5595,29 @@
       <c r="AA46">
         <v>60</v>
       </c>
-      <c r="AB46" t="s">
-        <v>75</v>
+      <c r="AB46">
+        <v>60</v>
       </c>
       <c r="AC46">
+        <v>60</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE46">
         <v>1404</v>
       </c>
-      <c r="AD46">
+      <c r="AF46">
         <v>19</v>
       </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:34">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5391,10 +5673,10 @@
         <v>45</v>
       </c>
       <c r="S47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="T47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="U47">
         <v>62</v>
@@ -5417,23 +5699,29 @@
       <c r="AA47">
         <v>62</v>
       </c>
-      <c r="AB47" t="s">
-        <v>76</v>
+      <c r="AB47">
+        <v>62</v>
       </c>
       <c r="AC47">
+        <v>62</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE47">
         <v>1454</v>
       </c>
-      <c r="AD47">
+      <c r="AF47">
         <v>31</v>
       </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:34">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5489,10 +5777,10 @@
         <v>46</v>
       </c>
       <c r="S48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="T48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="U48">
         <v>64</v>
@@ -5515,23 +5803,29 @@
       <c r="AA48">
         <v>64</v>
       </c>
-      <c r="AB48" t="s">
-        <v>77</v>
+      <c r="AB48">
+        <v>64</v>
       </c>
       <c r="AC48">
+        <v>64</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE48">
         <v>1530</v>
       </c>
-      <c r="AD48">
+      <c r="AF48">
         <v>36</v>
       </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:34">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5587,10 +5881,10 @@
         <v>47</v>
       </c>
       <c r="S49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="T49">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="U49">
         <v>66</v>
@@ -5613,23 +5907,29 @@
       <c r="AA49">
         <v>66</v>
       </c>
-      <c r="AB49" t="s">
-        <v>78</v>
+      <c r="AB49">
+        <v>66</v>
       </c>
       <c r="AC49">
+        <v>66</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE49">
         <v>1628</v>
       </c>
-      <c r="AD49">
+      <c r="AF49">
         <v>40</v>
       </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:34">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5685,10 +5985,10 @@
         <v>48</v>
       </c>
       <c r="S50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="T50">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="U50">
         <v>68</v>
@@ -5711,23 +6011,29 @@
       <c r="AA50">
         <v>68</v>
       </c>
-      <c r="AB50" t="s">
-        <v>79</v>
+      <c r="AB50">
+        <v>68</v>
       </c>
       <c r="AC50">
+        <v>68</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE50">
         <v>1693</v>
       </c>
-      <c r="AD50">
+      <c r="AF50">
         <v>44</v>
       </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:34">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5783,10 +6089,10 @@
         <v>49</v>
       </c>
       <c r="S51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="T51">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="U51">
         <v>70</v>
@@ -5809,23 +6115,29 @@
       <c r="AA51">
         <v>70</v>
       </c>
-      <c r="AB51" t="s">
-        <v>80</v>
+      <c r="AB51">
+        <v>70</v>
       </c>
       <c r="AC51">
+        <v>70</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE51">
         <v>1761</v>
       </c>
-      <c r="AD51">
+      <c r="AF51">
         <v>45</v>
       </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:34">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5881,10 +6193,10 @@
         <v>50</v>
       </c>
       <c r="S52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="T52">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="U52">
         <v>72</v>
@@ -5907,23 +6219,29 @@
       <c r="AA52">
         <v>72</v>
       </c>
-      <c r="AB52" t="s">
-        <v>81</v>
+      <c r="AB52">
+        <v>72</v>
       </c>
       <c r="AC52">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE52">
         <v>1804</v>
       </c>
-      <c r="AD52">
+      <c r="AF52">
         <v>45</v>
       </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
         <v>1759</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:34">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5979,10 +6297,10 @@
         <v>51</v>
       </c>
       <c r="S53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="T53">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U53">
         <v>74</v>
@@ -6005,23 +6323,29 @@
       <c r="AA53">
         <v>74</v>
       </c>
-      <c r="AB53" t="s">
-        <v>82</v>
+      <c r="AB53">
+        <v>74</v>
       </c>
       <c r="AC53">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE53">
         <v>1847</v>
       </c>
-      <c r="AD53">
+      <c r="AF53">
         <v>47</v>
       </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:34">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6077,10 +6401,10 @@
         <v>52</v>
       </c>
       <c r="S54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="T54">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="U54">
         <v>76</v>
@@ -6103,23 +6427,29 @@
       <c r="AA54">
         <v>76</v>
       </c>
-      <c r="AB54" t="s">
-        <v>83</v>
+      <c r="AB54">
+        <v>76</v>
       </c>
       <c r="AC54">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE54">
         <v>1930</v>
       </c>
-      <c r="AD54">
+      <c r="AF54">
         <v>53</v>
       </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
         <v>1877</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:34">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6175,10 +6505,10 @@
         <v>53</v>
       </c>
       <c r="S55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="T55">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="U55">
         <v>78</v>
@@ -6201,23 +6531,29 @@
       <c r="AA55">
         <v>78</v>
       </c>
-      <c r="AB55" t="s">
-        <v>84</v>
+      <c r="AB55">
+        <v>78</v>
       </c>
       <c r="AC55">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE55">
         <v>2012</v>
       </c>
-      <c r="AD55">
+      <c r="AF55">
         <v>60</v>
       </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:34">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6273,10 +6609,10 @@
         <v>54</v>
       </c>
       <c r="S56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="T56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="U56">
         <v>80</v>
@@ -6299,23 +6635,29 @@
       <c r="AA56">
         <v>80</v>
       </c>
-      <c r="AB56" t="s">
-        <v>85</v>
+      <c r="AB56">
+        <v>80</v>
       </c>
       <c r="AC56">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE56">
         <v>2087</v>
       </c>
-      <c r="AD56">
+      <c r="AF56">
         <v>63</v>
       </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:34">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6371,10 +6713,10 @@
         <v>55</v>
       </c>
       <c r="S57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="T57">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="U57">
         <v>82</v>
@@ -6397,23 +6739,29 @@
       <c r="AA57">
         <v>82</v>
       </c>
-      <c r="AB57" t="s">
-        <v>86</v>
+      <c r="AB57">
+    